--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{5955EB84-E635-41A3-9C81-2C8297675F9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED24BCA-EA35-42EE-8CCF-85AD247DC49E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5200" yWindow="2290" windowWidth="19200" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="2097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="2099">
   <si>
     <t>id</t>
   </si>
@@ -7152,6 +7152,12 @@
   </si>
   <si>
     <t>Launch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre Launch </t>
+  </si>
+  <si>
+    <t>Alex Li And Matt</t>
   </si>
 </sst>
 </file>
@@ -7565,7 +7571,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7600,14 +7606,22 @@
         <v>43874</v>
       </c>
       <c r="B3" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
+        <v>43874</v>
+      </c>
+      <c r="B4" t="s">
         <v>2095</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20087,6 +20101,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -20337,15 +20360,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
   <ds:schemaRefs>
@@ -20355,6 +20369,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20371,14 +20395,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EA6FAA-689C-48E2-BC10-9DC793370382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD1483D-8652-4192-A6DD-672E3F1D96BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Singapore " sheetId="5" r:id="rId6"/>
     <sheet name="South Korea " sheetId="6" r:id="rId7"/>
     <sheet name="Turkey " sheetId="7" r:id="rId8"/>
-    <sheet name="USA California " sheetId="8" r:id="rId9"/>
+    <sheet name="California CCPA " sheetId="8" r:id="rId9"/>
     <sheet name="Brazil " sheetId="9" r:id="rId10"/>
     <sheet name="GDPR" sheetId="10" r:id="rId11"/>
   </sheets>
@@ -13766,7 +13766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C220" workbookViewId="0">
+    <sheetView topLeftCell="C220" workbookViewId="0">
       <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
@@ -19607,7 +19607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -20092,6 +20092,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -20342,25 +20360,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20377,22 +20395,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD1483D-8652-4192-A6DD-672E3F1D96BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B08EF-B3F7-4CBF-81BE-20EE165103A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3496" uniqueCount="2099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="2095">
   <si>
     <t>id</t>
   </si>
@@ -7136,28 +7136,16 @@
     <t>Change</t>
   </si>
   <si>
-    <t>Matt Kincaid</t>
-  </si>
-  <si>
-    <t>Created Change Log</t>
-  </si>
-  <si>
     <t>Alex Li</t>
   </si>
   <si>
-    <t>Launch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre Launch </t>
-  </si>
-  <si>
-    <t>Alex Li And Matt</t>
-  </si>
-  <si>
     <t>The organization shall include among its interested parties (see ISO/IEC 27001:2013, 4.2), those parties having interests or responsibilities associated with the processing of PII…</t>
   </si>
   <si>
     <t>The organization should ensure, where relevant, that the contract to process PII addresses the organization’s role in providing assistance with the customer’s obligations (taking into…</t>
+  </si>
+  <si>
+    <t>Project Launch</t>
   </si>
 </sst>
 </file>
@@ -7570,8 +7558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8043BC62-2F51-43CD-92FB-F94EA755A381}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7592,36 +7580,20 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
-        <v>43872</v>
+        <v>43880</v>
       </c>
       <c r="B2" t="s">
         <v>2091</v>
       </c>
       <c r="C2" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <v>43874</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2096</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2095</v>
-      </c>
+      <c r="A3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>43874</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2094</v>
-      </c>
+      <c r="A4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13843,7 +13815,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -16767,7 +16739,7 @@
         <v>1475</v>
       </c>
       <c r="C240" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="E240" t="s">
         <v>6</v>
@@ -19607,7 +19579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -20092,24 +20064,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -20360,25 +20314,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20395,4 +20349,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4B08EF-B3F7-4CBF-81BE-20EE165103A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA41E798-BB5B-4DAE-A7BC-E63E3F8327FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3492" uniqueCount="2095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="2096">
   <si>
     <t>id</t>
   </si>
@@ -6866,11 +6866,6 @@
     <t>7.3.10;7.3.9</t>
   </si>
   <si>
-    <t>The personal data referring to the regular
-exercise of rights by the data subjects may be used to
-prejudice them.</t>
-  </si>
-  <si>
     <t>The international transfer of personal data
 will only be permitted in the following cases:
 I – To countries or international organizations that
@@ -7146,6 +7141,12 @@
   </si>
   <si>
     <t>Project Launch</t>
+  </si>
+  <si>
+    <t>The personal data relating to the regular exercise of rights by the data subjects cannot be used against them.</t>
+  </si>
+  <si>
+    <t>Modified translated text of LGPD Art 21 to "The personal data relating to the regular exercise of rights by the data subjects cannot be used against them."</t>
   </si>
 </sst>
 </file>
@@ -7559,40 +7560,48 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2088</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>2089</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2090</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43880</v>
       </c>
       <c r="B2" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="C2" t="s">
-        <v>2094</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>43910</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
     </row>
   </sheetData>
@@ -7605,13 +7614,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7628,7 +7637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="57.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>596</v>
       </c>
@@ -7642,7 +7651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>597</v>
       </c>
@@ -7656,7 +7665,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>598</v>
       </c>
@@ -7670,7 +7679,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>600</v>
       </c>
@@ -7684,7 +7693,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>601</v>
       </c>
@@ -7698,7 +7707,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>602</v>
       </c>
@@ -7712,7 +7721,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>603</v>
       </c>
@@ -7726,7 +7735,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>604</v>
       </c>
@@ -7740,7 +7749,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>605</v>
       </c>
@@ -7754,7 +7763,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2043</v>
       </c>
@@ -7768,7 +7777,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>606</v>
       </c>
@@ -7782,7 +7791,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>608</v>
       </c>
@@ -7796,7 +7805,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>609</v>
       </c>
@@ -7810,7 +7819,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>610</v>
       </c>
@@ -7824,7 +7833,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>611</v>
       </c>
@@ -7832,13 +7841,13 @@
         <v>611</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2053</v>
+        <v>2094</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>612</v>
       </c>
@@ -7846,13 +7855,13 @@
         <v>612</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>2053</v>
+      </c>
+      <c r="E17" t="s">
         <v>2054</v>
       </c>
-      <c r="E17" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>613</v>
       </c>
@@ -7860,13 +7869,13 @@
         <v>613</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E18" t="s">
         <v>2056</v>
       </c>
-      <c r="E18" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>614</v>
       </c>
@@ -7874,13 +7883,13 @@
         <v>614</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="E19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>615</v>
       </c>
@@ -7888,13 +7897,13 @@
         <v>615</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E20" t="s">
         <v>2059</v>
       </c>
-      <c r="E20" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>616</v>
       </c>
@@ -7902,27 +7911,27 @@
         <v>616</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>2062</v>
       </c>
-      <c r="B22" t="s">
-        <v>2062</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="E22" t="s">
         <v>2063</v>
       </c>
-      <c r="E22" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>617</v>
       </c>
@@ -7930,27 +7939,27 @@
         <v>617</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="E23" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>2066</v>
       </c>
-      <c r="B24" t="s">
-        <v>2066</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" t="s">
         <v>2067</v>
       </c>
-      <c r="E24" t="s">
-        <v>2068</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>618</v>
       </c>
@@ -7958,13 +7967,13 @@
         <v>618</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="E25" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>620</v>
       </c>
@@ -7972,7 +7981,7 @@
         <v>620</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E26" t="s">
         <v>1981</v>
@@ -7992,14 +8001,14 @@
       <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.59765625" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.5703125" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8016,7 +8025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8033,7 +8042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>621</v>
       </c>
@@ -8044,7 +8053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>622</v>
       </c>
@@ -8058,7 +8067,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>625</v>
       </c>
@@ -8072,7 +8081,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>627</v>
       </c>
@@ -8086,7 +8095,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>630</v>
       </c>
@@ -8100,7 +8109,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>632</v>
       </c>
@@ -8114,7 +8123,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>634</v>
       </c>
@@ -8128,7 +8137,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -8142,7 +8151,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -8159,7 +8168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>638</v>
       </c>
@@ -8170,7 +8179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>639</v>
       </c>
@@ -8184,7 +8193,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>640</v>
       </c>
@@ -8198,7 +8207,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>641</v>
       </c>
@@ -8212,7 +8221,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>642</v>
       </c>
@@ -8226,7 +8235,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>643</v>
       </c>
@@ -8240,7 +8249,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>644</v>
       </c>
@@ -8254,7 +8263,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6.2</v>
       </c>
@@ -8268,7 +8277,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="171" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -8282,7 +8291,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -8296,7 +8305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>645</v>
       </c>
@@ -8310,7 +8319,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>646</v>
       </c>
@@ -8324,7 +8333,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>647</v>
       </c>
@@ -8338,7 +8347,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>648</v>
       </c>
@@ -8352,7 +8361,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>649</v>
       </c>
@@ -8366,7 +8375,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -8383,7 +8392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>651</v>
       </c>
@@ -8397,7 +8406,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>155</v>
       </c>
@@ -8411,7 +8420,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>180</v>
       </c>
@@ -8425,7 +8434,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -8439,7 +8448,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>250</v>
       </c>
@@ -8456,7 +8465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>652</v>
       </c>
@@ -8470,7 +8479,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>251</v>
       </c>
@@ -8484,7 +8493,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>268</v>
       </c>
@@ -8498,7 +8507,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>653</v>
       </c>
@@ -8515,7 +8524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>654</v>
       </c>
@@ -8529,7 +8538,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>655</v>
       </c>
@@ -8540,7 +8549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>656</v>
       </c>
@@ -8554,7 +8563,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>657</v>
       </c>
@@ -8568,7 +8577,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>658</v>
       </c>
@@ -8582,7 +8591,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>659</v>
       </c>
@@ -8596,7 +8605,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>660</v>
       </c>
@@ -8610,7 +8619,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>661</v>
       </c>
@@ -8624,7 +8633,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>662</v>
       </c>
@@ -8638,7 +8647,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>663</v>
       </c>
@@ -8652,7 +8661,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>664</v>
       </c>
@@ -8666,7 +8675,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>665</v>
       </c>
@@ -8680,7 +8689,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>666</v>
       </c>
@@ -8694,7 +8703,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>667</v>
       </c>
@@ -8708,7 +8717,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>669</v>
       </c>
@@ -8725,7 +8734,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>670</v>
       </c>
@@ -8742,7 +8751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>671</v>
       </c>
@@ -8756,7 +8765,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>672</v>
       </c>
@@ -8770,7 +8779,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>674</v>
       </c>
@@ -8787,7 +8796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>675</v>
       </c>
@@ -8801,7 +8810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>676</v>
       </c>
@@ -8815,7 +8824,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>677</v>
       </c>
@@ -8829,7 +8838,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>678</v>
       </c>
@@ -8843,7 +8852,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>679</v>
       </c>
@@ -8857,7 +8866,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>680</v>
       </c>
@@ -8871,7 +8880,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>681</v>
       </c>
@@ -8885,7 +8894,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>682</v>
       </c>
@@ -8902,7 +8911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>683</v>
       </c>
@@ -8913,7 +8922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>684</v>
       </c>
@@ -8927,7 +8936,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>685</v>
       </c>
@@ -8941,7 +8950,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>686</v>
       </c>
@@ -8955,7 +8964,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>687</v>
       </c>
@@ -8969,7 +8978,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>688</v>
       </c>
@@ -8983,7 +8992,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>689</v>
       </c>
@@ -8997,7 +9006,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>690</v>
       </c>
@@ -9008,7 +9017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>691</v>
       </c>
@@ -9022,7 +9031,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>692</v>
       </c>
@@ -9036,7 +9045,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>694</v>
       </c>
@@ -9050,7 +9059,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>696</v>
       </c>
@@ -9064,7 +9073,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>697</v>
       </c>
@@ -9078,7 +9087,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>698</v>
       </c>
@@ -9092,7 +9101,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>699</v>
       </c>
@@ -9106,7 +9115,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>700</v>
       </c>
@@ -9120,7 +9129,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>702</v>
       </c>
@@ -9137,7 +9146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>703</v>
       </c>
@@ -9148,7 +9157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>704</v>
       </c>
@@ -9162,7 +9171,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>705</v>
       </c>
@@ -9176,7 +9185,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>706</v>
       </c>
@@ -9190,7 +9199,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>707</v>
       </c>
@@ -9204,7 +9213,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>708</v>
       </c>
@@ -9218,7 +9227,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>709</v>
       </c>
@@ -9232,7 +9241,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>710</v>
       </c>
@@ -9243,7 +9252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>711</v>
       </c>
@@ -9257,7 +9266,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>712</v>
       </c>
@@ -9271,7 +9280,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>713</v>
       </c>
@@ -9285,7 +9294,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>714</v>
       </c>
@@ -9299,7 +9308,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>715</v>
       </c>
@@ -9313,7 +9322,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>716</v>
       </c>
@@ -9327,7 +9336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>717</v>
       </c>
@@ -9341,7 +9350,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>718</v>
       </c>
@@ -9352,7 +9361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>719</v>
       </c>
@@ -9366,7 +9375,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>720</v>
       </c>
@@ -9380,7 +9389,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>721</v>
       </c>
@@ -9394,7 +9403,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>722</v>
       </c>
@@ -9408,7 +9417,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>723</v>
       </c>
@@ -9419,7 +9428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>724</v>
       </c>
@@ -9433,7 +9442,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>726</v>
       </c>
@@ -9447,7 +9456,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>727</v>
       </c>
@@ -9461,7 +9470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>728</v>
       </c>
@@ -9475,7 +9484,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>729</v>
       </c>
@@ -9492,7 +9501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>730</v>
       </c>
@@ -9503,7 +9512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>731</v>
       </c>
@@ -9517,7 +9526,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>733</v>
       </c>
@@ -9531,7 +9540,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>734</v>
       </c>
@@ -9545,7 +9554,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>735</v>
       </c>
@@ -9559,7 +9568,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>736</v>
       </c>
@@ -9573,7 +9582,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>737</v>
       </c>
@@ -9587,7 +9596,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>738</v>
       </c>
@@ -9601,7 +9610,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>739</v>
       </c>
@@ -9615,7 +9624,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>740</v>
       </c>
@@ -9629,7 +9638,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>742</v>
       </c>
@@ -9643,7 +9652,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>744</v>
       </c>
@@ -9657,7 +9666,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>745</v>
       </c>
@@ -9674,7 +9683,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>746</v>
       </c>
@@ -9691,7 +9700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>747</v>
       </c>
@@ -9702,7 +9711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>748</v>
       </c>
@@ -9716,7 +9725,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>749</v>
       </c>
@@ -9730,7 +9739,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>750</v>
       </c>
@@ -9744,7 +9753,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>751</v>
       </c>
@@ -9758,7 +9767,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>752</v>
       </c>
@@ -9772,7 +9781,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>753</v>
       </c>
@@ -9786,7 +9795,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>754</v>
       </c>
@@ -9800,7 +9809,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>756</v>
       </c>
@@ -9811,7 +9820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>757</v>
       </c>
@@ -9825,7 +9834,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>759</v>
       </c>
@@ -9839,7 +9848,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>760</v>
       </c>
@@ -9853,7 +9862,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>761</v>
       </c>
@@ -9867,7 +9876,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>762</v>
       </c>
@@ -9881,7 +9890,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>764</v>
       </c>
@@ -9898,7 +9907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>765</v>
       </c>
@@ -9909,7 +9918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>766</v>
       </c>
@@ -9923,7 +9932,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>767</v>
       </c>
@@ -9937,7 +9946,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>768</v>
       </c>
@@ -9951,7 +9960,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>769</v>
       </c>
@@ -9965,7 +9974,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>770</v>
       </c>
@@ -9979,7 +9988,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>771</v>
       </c>
@@ -9993,7 +10002,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>772</v>
       </c>
@@ -10010,7 +10019,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>773</v>
       </c>
@@ -10027,7 +10036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>774</v>
       </c>
@@ -10041,7 +10050,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>775</v>
       </c>
@@ -10055,7 +10064,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>776</v>
       </c>
@@ -10069,7 +10078,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>777</v>
       </c>
@@ -10083,7 +10092,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>779</v>
       </c>
@@ -10100,7 +10109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>780</v>
       </c>
@@ -10114,7 +10123,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>781</v>
       </c>
@@ -10128,7 +10137,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>782</v>
       </c>
@@ -10142,7 +10151,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>784</v>
       </c>
@@ -10156,7 +10165,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>785</v>
       </c>
@@ -10170,7 +10179,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>786</v>
       </c>
@@ -10184,7 +10193,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>787</v>
       </c>
@@ -10201,7 +10210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>788</v>
       </c>
@@ -10215,7 +10224,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>789</v>
       </c>
@@ -10226,7 +10235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>790</v>
       </c>
@@ -10240,7 +10249,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>791</v>
       </c>
@@ -10254,7 +10263,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>792</v>
       </c>
@@ -10268,7 +10277,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>794</v>
       </c>
@@ -10282,7 +10291,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>795</v>
       </c>
@@ -10296,7 +10305,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>796</v>
       </c>
@@ -10313,7 +10322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>797</v>
       </c>
@@ -10327,7 +10336,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>798</v>
       </c>
@@ -10341,7 +10350,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>800</v>
       </c>
@@ -10355,7 +10364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>801</v>
       </c>
@@ -10372,7 +10381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>802</v>
       </c>
@@ -10386,7 +10395,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>804</v>
       </c>
@@ -10400,7 +10409,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>805</v>
       </c>
@@ -10414,7 +10423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>806</v>
       </c>
@@ -10431,7 +10440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>807</v>
       </c>
@@ -10445,7 +10454,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>808</v>
       </c>
@@ -10459,7 +10468,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>809</v>
       </c>
@@ -10473,7 +10482,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>810</v>
       </c>
@@ -10490,7 +10499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>811</v>
       </c>
@@ -10504,7 +10513,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>813</v>
       </c>
@@ -10515,7 +10524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>814</v>
       </c>
@@ -10529,7 +10538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>815</v>
       </c>
@@ -10543,7 +10552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>817</v>
       </c>
@@ -10557,7 +10566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>818</v>
       </c>
@@ -10571,7 +10580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>819</v>
       </c>
@@ -10585,7 +10594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>820</v>
       </c>
@@ -10602,7 +10611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>821</v>
       </c>
@@ -10616,7 +10625,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>823</v>
       </c>
@@ -10630,7 +10639,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>825</v>
       </c>
@@ -10641,7 +10650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>826</v>
       </c>
@@ -10655,7 +10664,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>828</v>
       </c>
@@ -10669,7 +10678,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>830</v>
       </c>
@@ -10683,7 +10692,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>831</v>
       </c>
@@ -10697,7 +10706,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>833</v>
       </c>
@@ -10711,7 +10720,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>835</v>
       </c>
@@ -10725,7 +10734,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>837</v>
       </c>
@@ -10739,7 +10748,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>839</v>
       </c>
@@ -10753,7 +10762,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>841</v>
       </c>
@@ -10767,7 +10776,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>842</v>
       </c>
@@ -10781,7 +10790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>843</v>
       </c>
@@ -10795,7 +10804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>844</v>
       </c>
@@ -10809,7 +10818,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>846</v>
       </c>
@@ -10823,7 +10832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>847</v>
       </c>
@@ -10840,7 +10849,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>848</v>
       </c>
@@ -10857,7 +10866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>849</v>
       </c>
@@ -10868,7 +10877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>850</v>
       </c>
@@ -10882,7 +10891,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>851</v>
       </c>
@@ -10896,7 +10905,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>852</v>
       </c>
@@ -10910,7 +10919,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>853</v>
       </c>
@@ -10924,7 +10933,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>855</v>
       </c>
@@ -10938,7 +10947,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>857</v>
       </c>
@@ -10952,7 +10961,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>859</v>
       </c>
@@ -10966,7 +10975,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>860</v>
       </c>
@@ -10977,7 +10986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>861</v>
       </c>
@@ -10991,7 +11000,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>862</v>
       </c>
@@ -11005,7 +11014,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>863</v>
       </c>
@@ -11019,7 +11028,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>864</v>
       </c>
@@ -11033,7 +11042,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>865</v>
       </c>
@@ -11047,7 +11056,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>868</v>
       </c>
@@ -11061,7 +11070,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>869</v>
       </c>
@@ -11075,7 +11084,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>870</v>
       </c>
@@ -11092,7 +11101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>871</v>
       </c>
@@ -11109,7 +11118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>872</v>
       </c>
@@ -11120,7 +11129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>873</v>
       </c>
@@ -11134,7 +11143,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>875</v>
       </c>
@@ -11148,7 +11157,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>877</v>
       </c>
@@ -11162,7 +11171,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>878</v>
       </c>
@@ -11176,7 +11185,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>880</v>
       </c>
@@ -11190,7 +11199,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>882</v>
       </c>
@@ -11204,7 +11213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>883</v>
       </c>
@@ -11218,7 +11227,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>885</v>
       </c>
@@ -11235,7 +11244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>886</v>
       </c>
@@ -11249,7 +11258,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>888</v>
       </c>
@@ -11263,7 +11272,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>890</v>
       </c>
@@ -11274,7 +11283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>891</v>
       </c>
@@ -11288,7 +11297,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>892</v>
       </c>
@@ -11302,7 +11311,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>893</v>
       </c>
@@ -11316,7 +11325,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>894</v>
       </c>
@@ -11330,7 +11339,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>895</v>
       </c>
@@ -11344,7 +11353,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>896</v>
       </c>
@@ -11358,7 +11367,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>897</v>
       </c>
@@ -11375,7 +11384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>898</v>
       </c>
@@ -11389,7 +11398,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>899</v>
       </c>
@@ -11403,7 +11412,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>900</v>
       </c>
@@ -11414,7 +11423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>901</v>
       </c>
@@ -11428,7 +11437,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>902</v>
       </c>
@@ -11442,7 +11451,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>903</v>
       </c>
@@ -11456,7 +11465,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>904</v>
       </c>
@@ -11470,7 +11479,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>905</v>
       </c>
@@ -11487,7 +11496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>906</v>
       </c>
@@ -11501,7 +11510,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>908</v>
       </c>
@@ -11515,7 +11524,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>910</v>
       </c>
@@ -11526,7 +11535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>911</v>
       </c>
@@ -11540,7 +11549,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>912</v>
       </c>
@@ -11554,7 +11563,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>913</v>
       </c>
@@ -11568,7 +11577,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>914</v>
       </c>
@@ -11582,7 +11591,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>915</v>
       </c>
@@ -11596,7 +11605,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>916</v>
       </c>
@@ -11607,7 +11616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>917</v>
       </c>
@@ -11621,7 +11630,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>918</v>
       </c>
@@ -11635,7 +11644,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>920</v>
       </c>
@@ -11649,7 +11658,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>921</v>
       </c>
@@ -11663,7 +11672,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>922</v>
       </c>
@@ -11677,7 +11686,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>923</v>
       </c>
@@ -11691,7 +11700,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>925</v>
       </c>
@@ -11705,7 +11714,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>926</v>
       </c>
@@ -11719,7 +11728,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>927</v>
       </c>
@@ -11736,7 +11745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>928</v>
       </c>
@@ -11750,7 +11759,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>929</v>
       </c>
@@ -11761,7 +11770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>930</v>
       </c>
@@ -11775,7 +11784,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>931</v>
       </c>
@@ -11789,7 +11798,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>932</v>
       </c>
@@ -11803,7 +11812,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>933</v>
       </c>
@@ -11817,7 +11826,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>934</v>
       </c>
@@ -11831,7 +11840,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>935</v>
       </c>
@@ -11845,7 +11854,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>936</v>
       </c>
@@ -11859,7 +11868,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>937</v>
       </c>
@@ -11876,7 +11885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>938</v>
       </c>
@@ -11887,7 +11896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>939</v>
       </c>
@@ -11901,7 +11910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>940</v>
       </c>
@@ -11915,7 +11924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>941</v>
       </c>
@@ -11929,7 +11938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>942</v>
       </c>
@@ -11943,7 +11952,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>944</v>
       </c>
@@ -11957,7 +11966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>945</v>
       </c>
@@ -11971,7 +11980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>946</v>
       </c>
@@ -11985,7 +11994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>947</v>
       </c>
@@ -11999,7 +12008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>948</v>
       </c>
@@ -12013,7 +12022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>950</v>
       </c>
@@ -12030,7 +12039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>951</v>
       </c>
@@ -12044,7 +12053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>952</v>
       </c>
@@ -12058,7 +12067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>953</v>
       </c>
@@ -12072,7 +12081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>954</v>
       </c>
@@ -12086,7 +12095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>955</v>
       </c>
@@ -12100,7 +12109,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>957</v>
       </c>
@@ -12114,7 +12123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>958</v>
       </c>
@@ -12131,7 +12140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>959</v>
       </c>
@@ -12142,7 +12151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>960</v>
       </c>
@@ -12156,7 +12165,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>961</v>
       </c>
@@ -12170,7 +12179,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>963</v>
       </c>
@@ -12184,7 +12193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>964</v>
       </c>
@@ -12198,7 +12207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>966</v>
       </c>
@@ -12212,7 +12221,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>967</v>
       </c>
@@ -12226,7 +12235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>968</v>
       </c>
@@ -12243,7 +12252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>969</v>
       </c>
@@ -12257,7 +12266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>970</v>
       </c>
@@ -12268,7 +12277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>971</v>
       </c>
@@ -12282,7 +12291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>972</v>
       </c>
@@ -12296,7 +12305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>973</v>
       </c>
@@ -12310,7 +12319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>974</v>
       </c>
@@ -12324,7 +12333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>975</v>
       </c>
@@ -12338,7 +12347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>976</v>
       </c>
@@ -12352,7 +12361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>977</v>
       </c>
@@ -12366,7 +12375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>978</v>
       </c>
@@ -12380,7 +12389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>979</v>
       </c>
@@ -12394,7 +12403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>980</v>
       </c>
@@ -12408,7 +12417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>981</v>
       </c>
@@ -12422,7 +12431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>982</v>
       </c>
@@ -12436,7 +12445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>983</v>
       </c>
@@ -12450,7 +12459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>984</v>
       </c>
@@ -12464,7 +12473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>985</v>
       </c>
@@ -12478,7 +12487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>986</v>
       </c>
@@ -12492,7 +12501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>987</v>
       </c>
@@ -12506,7 +12515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>988</v>
       </c>
@@ -12520,7 +12529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>989</v>
       </c>
@@ -12534,7 +12543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>991</v>
       </c>
@@ -12548,7 +12557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>992</v>
       </c>
@@ -12565,7 +12574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>993</v>
       </c>
@@ -12579,7 +12588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>994</v>
       </c>
@@ -12590,7 +12599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>995</v>
       </c>
@@ -12604,7 +12613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>996</v>
       </c>
@@ -12618,7 +12627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>997</v>
       </c>
@@ -12632,7 +12641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>998</v>
       </c>
@@ -12646,7 +12655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>999</v>
       </c>
@@ -12660,7 +12669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1000</v>
       </c>
@@ -12674,7 +12683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1001</v>
       </c>
@@ -12688,7 +12697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1002</v>
       </c>
@@ -12702,7 +12711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1004</v>
       </c>
@@ -12719,7 +12728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1005</v>
       </c>
@@ -12733,7 +12742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1006</v>
       </c>
@@ -12747,7 +12756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1007</v>
       </c>
@@ -12761,7 +12770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1009</v>
       </c>
@@ -12775,7 +12784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1010</v>
       </c>
@@ -12789,7 +12798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1011</v>
       </c>
@@ -12803,7 +12812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1012</v>
       </c>
@@ -12817,7 +12826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1013</v>
       </c>
@@ -12831,7 +12840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1014</v>
       </c>
@@ -12848,7 +12857,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1016</v>
       </c>
@@ -12865,7 +12874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1017</v>
       </c>
@@ -12879,7 +12888,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1018</v>
       </c>
@@ -12890,7 +12899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1019</v>
       </c>
@@ -12904,7 +12913,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1020</v>
       </c>
@@ -12918,7 +12927,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1021</v>
       </c>
@@ -12932,7 +12941,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1022</v>
       </c>
@@ -12946,7 +12955,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1023</v>
       </c>
@@ -12960,7 +12969,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1024</v>
       </c>
@@ -12974,7 +12983,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1025</v>
       </c>
@@ -12988,7 +12997,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1026</v>
       </c>
@@ -13002,7 +13011,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1027</v>
       </c>
@@ -13016,7 +13025,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1028</v>
       </c>
@@ -13030,7 +13039,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1029</v>
       </c>
@@ -13047,7 +13056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1030</v>
       </c>
@@ -13061,7 +13070,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1031</v>
       </c>
@@ -13072,7 +13081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1032</v>
       </c>
@@ -13086,7 +13095,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1033</v>
       </c>
@@ -13100,7 +13109,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1034</v>
       </c>
@@ -13114,7 +13123,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1035</v>
       </c>
@@ -13128,7 +13137,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1036</v>
       </c>
@@ -13142,7 +13151,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1037</v>
       </c>
@@ -13156,7 +13165,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1038</v>
       </c>
@@ -13167,7 +13176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1039</v>
       </c>
@@ -13181,7 +13190,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1040</v>
       </c>
@@ -13195,7 +13204,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1041</v>
       </c>
@@ -13209,7 +13218,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1043</v>
       </c>
@@ -13223,7 +13232,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1044</v>
       </c>
@@ -13240,7 +13249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1045</v>
       </c>
@@ -13251,7 +13260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1046</v>
       </c>
@@ -13265,7 +13274,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1047</v>
       </c>
@@ -13279,7 +13288,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1048</v>
       </c>
@@ -13293,7 +13302,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1049</v>
       </c>
@@ -13304,7 +13313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1050</v>
       </c>
@@ -13318,7 +13327,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1051</v>
       </c>
@@ -13332,7 +13341,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1052</v>
       </c>
@@ -13346,7 +13355,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1053</v>
       </c>
@@ -13360,7 +13369,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1054</v>
       </c>
@@ -13374,7 +13383,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1055</v>
       </c>
@@ -13388,7 +13397,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1056</v>
       </c>
@@ -13402,7 +13411,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1057</v>
       </c>
@@ -13416,7 +13425,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1058</v>
       </c>
@@ -13430,7 +13439,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1060</v>
       </c>
@@ -13444,7 +13453,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1061</v>
       </c>
@@ -13458,7 +13467,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1062</v>
       </c>
@@ -13472,7 +13481,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1063</v>
       </c>
@@ -13486,7 +13495,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1064</v>
       </c>
@@ -13500,7 +13509,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1065</v>
       </c>
@@ -13514,7 +13523,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1066</v>
       </c>
@@ -13531,7 +13540,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1068</v>
       </c>
@@ -13548,7 +13557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1069</v>
       </c>
@@ -13559,7 +13568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1070</v>
       </c>
@@ -13573,7 +13582,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1071</v>
       </c>
@@ -13587,7 +13596,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1072</v>
       </c>
@@ -13601,7 +13610,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1073</v>
       </c>
@@ -13615,7 +13624,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1074</v>
       </c>
@@ -13629,7 +13638,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1075</v>
       </c>
@@ -13643,7 +13652,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1076</v>
       </c>
@@ -13657,7 +13666,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1077</v>
       </c>
@@ -13671,7 +13680,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1078</v>
       </c>
@@ -13685,7 +13694,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1079</v>
       </c>
@@ -13699,7 +13708,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1080</v>
       </c>
@@ -13713,7 +13722,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1081</v>
       </c>
@@ -13742,13 +13751,13 @@
       <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72.06640625" customWidth="1"/>
-    <col min="3" max="3" width="154.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="3" max="3" width="154.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13765,7 +13774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -13779,7 +13788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13793,7 +13802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -13807,7 +13816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -13815,13 +13824,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -13835,7 +13844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -13849,7 +13858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.3</v>
       </c>
@@ -13860,7 +13869,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1089</v>
       </c>
@@ -13871,7 +13880,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1092</v>
       </c>
@@ -13882,7 +13891,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1093</v>
       </c>
@@ -13893,7 +13902,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -13907,7 +13916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -13921,7 +13930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1100</v>
       </c>
@@ -13932,7 +13941,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -13946,7 +13955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -13960,7 +13969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1103</v>
       </c>
@@ -13971,7 +13980,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5.5</v>
       </c>
@@ -13982,7 +13991,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1107</v>
       </c>
@@ -13993,7 +14002,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1110</v>
       </c>
@@ -14004,7 +14013,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1113</v>
       </c>
@@ -14015,7 +14024,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1116</v>
       </c>
@@ -14026,7 +14035,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1118</v>
       </c>
@@ -14037,7 +14046,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1120</v>
       </c>
@@ -14048,7 +14057,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1124</v>
       </c>
@@ -14059,7 +14068,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1127</v>
       </c>
@@ -14070,7 +14079,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5.6</v>
       </c>
@@ -14081,7 +14090,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1131</v>
       </c>
@@ -14092,7 +14101,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1134</v>
       </c>
@@ -14103,7 +14112,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1137</v>
       </c>
@@ -14114,7 +14123,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.7</v>
       </c>
@@ -14125,7 +14134,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1141</v>
       </c>
@@ -14136,7 +14145,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1144</v>
       </c>
@@ -14147,7 +14156,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1147</v>
       </c>
@@ -14158,7 +14167,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5.8</v>
       </c>
@@ -14169,7 +14178,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1151</v>
       </c>
@@ -14180,7 +14189,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1154</v>
       </c>
@@ -14191,7 +14200,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -14205,7 +14214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -14219,7 +14228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -14233,7 +14242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -14247,7 +14256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1160</v>
       </c>
@@ -14258,7 +14267,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -14272,7 +14281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -14286,7 +14295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -14300,7 +14309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1165</v>
       </c>
@@ -14311,7 +14320,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1168</v>
       </c>
@@ -14322,7 +14331,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1171</v>
       </c>
@@ -14333,7 +14342,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1174</v>
       </c>
@@ -14344,7 +14353,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -14358,7 +14367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -14372,7 +14381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1178</v>
       </c>
@@ -14383,7 +14392,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -14397,7 +14406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1182</v>
       </c>
@@ -14408,7 +14417,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1184</v>
       </c>
@@ -14419,7 +14428,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1187</v>
       </c>
@@ -14430,7 +14439,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -14444,7 +14453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1191</v>
       </c>
@@ -14455,7 +14464,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -14469,7 +14478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1195</v>
       </c>
@@ -14480,7 +14489,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1197</v>
       </c>
@@ -14491,7 +14500,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1199</v>
       </c>
@@ -14502,7 +14511,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -14516,7 +14525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1203</v>
       </c>
@@ -14527,7 +14536,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1205</v>
       </c>
@@ -14538,7 +14547,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1209</v>
       </c>
@@ -14549,7 +14558,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1211</v>
       </c>
@@ -14560,7 +14569,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1214</v>
       </c>
@@ -14571,7 +14580,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -14585,7 +14594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -14599,7 +14608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -14613,7 +14622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1218</v>
       </c>
@@ -14624,7 +14633,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -14638,7 +14647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -14652,7 +14661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -14666,7 +14675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -14680,7 +14689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -14694,7 +14703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1223</v>
       </c>
@@ -14705,7 +14714,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1225</v>
       </c>
@@ -14716,7 +14725,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1228</v>
       </c>
@@ -14727,7 +14736,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -14741,7 +14750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -14755,7 +14764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -14769,7 +14778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>71</v>
       </c>
@@ -14783,7 +14792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1234</v>
       </c>
@@ -14794,7 +14803,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1235</v>
       </c>
@@ -14805,7 +14814,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1236</v>
       </c>
@@ -14816,7 +14825,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1243</v>
       </c>
@@ -14827,7 +14836,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1245</v>
       </c>
@@ -14838,7 +14847,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -14849,7 +14858,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1249</v>
       </c>
@@ -14860,7 +14869,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -14871,7 +14880,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1253</v>
       </c>
@@ -14882,7 +14891,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1254</v>
       </c>
@@ -14896,7 +14905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1255</v>
       </c>
@@ -14910,7 +14919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -14924,7 +14933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -14938,7 +14947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -14952,7 +14961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1264</v>
       </c>
@@ -14963,7 +14972,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>80</v>
       </c>
@@ -14977,7 +14986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1268</v>
       </c>
@@ -14988,7 +14997,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1270</v>
       </c>
@@ -14999,7 +15008,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1273</v>
       </c>
@@ -15010,7 +15019,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1274</v>
       </c>
@@ -15021,7 +15030,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1275</v>
       </c>
@@ -15032,7 +15041,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1276</v>
       </c>
@@ -15043,7 +15052,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1277</v>
       </c>
@@ -15054,7 +15063,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -15068,7 +15077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1289</v>
       </c>
@@ -15079,7 +15088,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1290</v>
       </c>
@@ -15090,7 +15099,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1291</v>
       </c>
@@ -15101,7 +15110,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1292</v>
       </c>
@@ -15112,7 +15121,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1293</v>
       </c>
@@ -15123,7 +15132,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1294</v>
       </c>
@@ -15134,7 +15143,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>82</v>
       </c>
@@ -15148,7 +15157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1307</v>
       </c>
@@ -15159,7 +15168,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -15173,7 +15182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>88</v>
       </c>
@@ -15187,7 +15196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>89</v>
       </c>
@@ -15201,7 +15210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1312</v>
       </c>
@@ -15212,7 +15221,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1313</v>
       </c>
@@ -15223,7 +15232,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1314</v>
       </c>
@@ -15234,7 +15243,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -15248,7 +15257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1323</v>
       </c>
@@ -15259,7 +15268,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1324</v>
       </c>
@@ -15270,7 +15279,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>91</v>
       </c>
@@ -15284,7 +15293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>92</v>
       </c>
@@ -15298,7 +15307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>95</v>
       </c>
@@ -15312,7 +15321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -15326,7 +15335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -15340,7 +15349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1330</v>
       </c>
@@ -15351,7 +15360,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1331</v>
       </c>
@@ -15362,7 +15371,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1336</v>
       </c>
@@ -15373,7 +15382,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1338</v>
       </c>
@@ -15384,7 +15393,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1341</v>
       </c>
@@ -15395,7 +15404,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1343</v>
       </c>
@@ -15406,7 +15415,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1346</v>
       </c>
@@ -15417,7 +15426,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1349</v>
       </c>
@@ -15428,7 +15437,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1351</v>
       </c>
@@ -15439,7 +15448,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>102</v>
       </c>
@@ -15453,7 +15462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1355</v>
       </c>
@@ -15464,7 +15473,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1357</v>
       </c>
@@ -15478,7 +15487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1360</v>
       </c>
@@ -15489,7 +15498,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1361</v>
       </c>
@@ -15500,7 +15509,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -15511,7 +15520,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -15525,7 +15534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1367</v>
       </c>
@@ -15536,7 +15545,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1368</v>
       </c>
@@ -15547,7 +15556,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>107</v>
       </c>
@@ -15561,7 +15570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>110</v>
       </c>
@@ -15575,7 +15584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>111</v>
       </c>
@@ -15589,7 +15598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1375</v>
       </c>
@@ -15600,7 +15609,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -15614,7 +15623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1378</v>
       </c>
@@ -15625,7 +15634,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>115</v>
       </c>
@@ -15639,7 +15648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>116</v>
       </c>
@@ -15653,7 +15662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1382</v>
       </c>
@@ -15664,7 +15673,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1383</v>
       </c>
@@ -15675,7 +15684,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1384</v>
       </c>
@@ -15686,7 +15695,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -15700,7 +15709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1391</v>
       </c>
@@ -15711,7 +15720,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1392</v>
       </c>
@@ -15722,7 +15731,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1393</v>
       </c>
@@ -15733,7 +15742,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1394</v>
       </c>
@@ -15744,7 +15753,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>122</v>
       </c>
@@ -15758,7 +15767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>123</v>
       </c>
@@ -15772,7 +15781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>126</v>
       </c>
@@ -15786,7 +15795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>127</v>
       </c>
@@ -15800,7 +15809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1406</v>
       </c>
@@ -15811,7 +15820,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>128</v>
       </c>
@@ -15825,7 +15834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1409</v>
       </c>
@@ -15836,7 +15845,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1412</v>
       </c>
@@ -15847,7 +15856,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1414</v>
       </c>
@@ -15858,7 +15867,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1417</v>
       </c>
@@ -15869,7 +15878,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>131</v>
       </c>
@@ -15883,7 +15892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>132</v>
       </c>
@@ -15897,7 +15906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>133</v>
       </c>
@@ -15911,7 +15920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1422</v>
       </c>
@@ -15922,7 +15931,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1423</v>
       </c>
@@ -15933,7 +15942,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1424</v>
       </c>
@@ -15944,7 +15953,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>136</v>
       </c>
@@ -15958,7 +15967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1431</v>
       </c>
@@ -15969,7 +15978,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1432</v>
       </c>
@@ -15980,7 +15989,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>6.14</v>
       </c>
@@ -15991,7 +16000,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1438</v>
       </c>
@@ -16002,7 +16011,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1440</v>
       </c>
@@ -16013,7 +16022,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1441</v>
       </c>
@@ -16024,7 +16033,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1442</v>
       </c>
@@ -16035,7 +16044,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1449</v>
       </c>
@@ -16046,7 +16055,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1451</v>
       </c>
@@ -16057,7 +16066,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>139</v>
       </c>
@@ -16071,7 +16080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>140</v>
       </c>
@@ -16085,7 +16094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>141</v>
       </c>
@@ -16099,7 +16108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1456</v>
       </c>
@@ -16110,7 +16119,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>144</v>
       </c>
@@ -16124,7 +16133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1459</v>
       </c>
@@ -16135,7 +16144,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1460</v>
       </c>
@@ -16146,7 +16155,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>147</v>
       </c>
@@ -16160,7 +16169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>148</v>
       </c>
@@ -16174,7 +16183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1466</v>
       </c>
@@ -16185,7 +16194,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>151</v>
       </c>
@@ -16199,7 +16208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>154</v>
       </c>
@@ -16213,7 +16222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>155</v>
       </c>
@@ -16227,7 +16236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>156</v>
       </c>
@@ -16241,7 +16250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>159</v>
       </c>
@@ -16255,7 +16264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>162</v>
       </c>
@@ -16269,7 +16278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>165</v>
       </c>
@@ -16283,7 +16292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>168</v>
       </c>
@@ -16297,7 +16306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>171</v>
       </c>
@@ -16311,7 +16320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>174</v>
       </c>
@@ -16325,7 +16334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>177</v>
       </c>
@@ -16339,7 +16348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>180</v>
       </c>
@@ -16353,7 +16362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>181</v>
       </c>
@@ -16367,7 +16376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>184</v>
       </c>
@@ -16381,7 +16390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>187</v>
       </c>
@@ -16395,7 +16404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>190</v>
       </c>
@@ -16409,7 +16418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>193</v>
       </c>
@@ -16423,7 +16432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>196</v>
       </c>
@@ -16437,7 +16446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>199</v>
       </c>
@@ -16451,7 +16460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>202</v>
       </c>
@@ -16465,7 +16474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>205</v>
       </c>
@@ -16479,7 +16488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>208</v>
       </c>
@@ -16493,7 +16502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>211</v>
       </c>
@@ -16507,7 +16516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>212</v>
       </c>
@@ -16521,7 +16530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>215</v>
       </c>
@@ -16535,7 +16544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>218</v>
       </c>
@@ -16549,7 +16558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>221</v>
       </c>
@@ -16563,7 +16572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>222</v>
       </c>
@@ -16577,7 +16586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>225</v>
       </c>
@@ -16591,7 +16600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -16605,7 +16614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -16619,7 +16628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -16633,7 +16642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>237</v>
       </c>
@@ -16647,7 +16656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>238</v>
       </c>
@@ -16661,7 +16670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -16675,7 +16684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>244</v>
       </c>
@@ -16689,7 +16698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>247</v>
       </c>
@@ -16703,7 +16712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -16717,7 +16726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -16731,7 +16740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -16739,13 +16748,13 @@
         <v>1475</v>
       </c>
       <c r="C240" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="E240" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -16759,7 +16768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>256</v>
       </c>
@@ -16773,7 +16782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -16787,7 +16796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>262</v>
       </c>
@@ -16801,7 +16810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>265</v>
       </c>
@@ -16815,7 +16824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>268</v>
       </c>
@@ -16829,7 +16838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>269</v>
       </c>
@@ -16843,7 +16852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>272</v>
       </c>
@@ -16857,7 +16866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>273</v>
       </c>
@@ -16871,7 +16880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>276</v>
       </c>
@@ -16885,7 +16894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>279</v>
       </c>
@@ -16899,7 +16908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>282</v>
       </c>
@@ -16913,7 +16922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>283</v>
       </c>
@@ -16927,7 +16936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>286</v>
       </c>
@@ -16941,7 +16950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>288</v>
       </c>
@@ -16955,7 +16964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>291</v>
       </c>
@@ -16969,7 +16978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>294</v>
       </c>
@@ -16983,7 +16992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>297</v>
       </c>
@@ -16997,7 +17006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>300</v>
       </c>
@@ -17011,7 +17020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>303</v>
       </c>
@@ -17040,12 +17049,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="133.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="133.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17062,7 +17071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>306</v>
       </c>
@@ -17073,13 +17082,13 @@
         <v>1866</v>
       </c>
       <c r="D2" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>307</v>
       </c>
@@ -17096,7 +17105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>308</v>
       </c>
@@ -17113,7 +17122,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>311</v>
       </c>
@@ -17121,7 +17130,7 @@
         <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D5" t="s">
         <v>310</v>
@@ -17130,7 +17139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -17147,7 +17156,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -17164,7 +17173,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>316</v>
       </c>
@@ -17181,7 +17190,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>318</v>
       </c>
@@ -17198,7 +17207,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>321</v>
       </c>
@@ -17215,7 +17224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="285" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>322</v>
       </c>
@@ -17232,7 +17241,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>325</v>
       </c>
@@ -17249,7 +17258,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="228" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>327</v>
       </c>
@@ -17266,7 +17275,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>330</v>
       </c>
@@ -17283,7 +17292,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -17297,7 +17306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="315" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>334</v>
       </c>
@@ -17305,7 +17314,7 @@
         <v>334</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>331</v>
@@ -17314,7 +17323,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -17322,7 +17331,7 @@
         <v>336</v>
       </c>
       <c r="C17" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>331</v>
@@ -17331,7 +17340,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>338</v>
       </c>
@@ -17348,7 +17357,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>341</v>
       </c>
@@ -17356,7 +17365,7 @@
         <v>341</v>
       </c>
       <c r="C19" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D19" t="s">
         <v>340</v>
@@ -17365,7 +17374,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>343</v>
       </c>
@@ -17382,7 +17391,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>345</v>
       </c>
@@ -17399,7 +17408,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>348</v>
       </c>
@@ -17416,7 +17425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>349</v>
       </c>
@@ -17433,7 +17442,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>353</v>
       </c>
@@ -17441,7 +17450,7 @@
         <v>353</v>
       </c>
       <c r="C24" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D24" t="s">
         <v>354</v>
@@ -17450,7 +17459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>355</v>
       </c>
@@ -17467,7 +17476,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>358</v>
       </c>
@@ -17484,7 +17493,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>360</v>
       </c>
@@ -17501,7 +17510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>361</v>
       </c>
@@ -17518,7 +17527,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>364</v>
       </c>
@@ -17535,7 +17544,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>366</v>
       </c>
@@ -17552,7 +17561,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>369</v>
       </c>
@@ -17560,7 +17569,7 @@
         <v>369</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D31" t="s">
         <v>368</v>
@@ -17569,7 +17578,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>371</v>
       </c>
@@ -17586,7 +17595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="299.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>374</v>
       </c>
@@ -17594,7 +17603,7 @@
         <v>374</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D33" t="s">
         <v>373</v>
@@ -17603,7 +17612,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="313.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="405" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>375</v>
       </c>
@@ -17611,7 +17620,7 @@
         <v>375</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D34" t="s">
         <v>373</v>
@@ -17620,26 +17629,26 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C35" t="s">
         <v>2075</v>
       </c>
-      <c r="B35" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2076</v>
-      </c>
       <c r="D35" t="s">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="B36" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C36" t="s">
         <v>1872</v>
@@ -17651,12 +17660,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="B37" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="C37" t="s">
         <v>379</v>
@@ -17668,12 +17677,12 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="B38" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C38" t="s">
         <v>380</v>
@@ -17685,18 +17694,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="B39" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C39" t="s">
         <v>382</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E39" t="s">
         <v>136</v>
@@ -17725,9 +17734,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17744,7 +17753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1890</v>
       </c>
@@ -17761,7 +17770,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>384</v>
       </c>
@@ -17775,7 +17784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -17792,7 +17801,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>387</v>
       </c>
@@ -17809,7 +17818,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>390</v>
       </c>
@@ -17826,7 +17835,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>393</v>
       </c>
@@ -17843,7 +17852,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>395</v>
       </c>
@@ -17860,7 +17869,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -17877,7 +17886,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>400</v>
       </c>
@@ -17891,7 +17900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>401</v>
       </c>
@@ -17908,7 +17917,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>403</v>
       </c>
@@ -17925,7 +17934,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>405</v>
       </c>
@@ -17942,7 +17951,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>408</v>
       </c>
@@ -17959,7 +17968,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>410</v>
       </c>
@@ -17976,7 +17985,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>413</v>
       </c>
@@ -17993,7 +18002,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>416</v>
       </c>
@@ -18010,7 +18019,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="199.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>419</v>
       </c>
@@ -18027,7 +18036,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>421</v>
       </c>
@@ -18044,7 +18053,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>424</v>
       </c>
@@ -18061,7 +18070,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>426</v>
       </c>
@@ -18078,7 +18087,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -18095,7 +18104,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1897</v>
       </c>
@@ -18112,7 +18121,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>431</v>
       </c>
@@ -18129,7 +18138,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>432</v>
       </c>
@@ -18146,7 +18155,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>433</v>
       </c>
@@ -18163,7 +18172,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>436</v>
       </c>
@@ -18180,7 +18189,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1888</v>
       </c>
@@ -18214,9 +18223,9 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18233,7 +18242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>442</v>
       </c>
@@ -18247,7 +18256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>443</v>
       </c>
@@ -18264,7 +18273,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>445</v>
       </c>
@@ -18281,7 +18290,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>447</v>
       </c>
@@ -18298,7 +18307,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>449</v>
       </c>
@@ -18312,7 +18321,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1977</v>
       </c>
@@ -18326,7 +18335,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1899</v>
       </c>
@@ -18343,7 +18352,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>450</v>
       </c>
@@ -18360,7 +18369,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>452</v>
       </c>
@@ -18377,7 +18386,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -18391,7 +18400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>455</v>
       </c>
@@ -18408,7 +18417,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>457</v>
       </c>
@@ -18425,7 +18434,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>460</v>
       </c>
@@ -18442,7 +18451,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>463</v>
       </c>
@@ -18459,7 +18468,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -18476,7 +18485,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>468</v>
       </c>
@@ -18493,7 +18502,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>471</v>
       </c>
@@ -18510,7 +18519,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>474</v>
       </c>
@@ -18547,9 +18556,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18566,7 +18575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="356.25" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="390" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1913</v>
       </c>
@@ -18583,7 +18592,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1916</v>
       </c>
@@ -18600,7 +18609,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -18617,7 +18626,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>483</v>
       </c>
@@ -18634,7 +18643,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>486</v>
       </c>
@@ -18651,7 +18660,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>488</v>
       </c>
@@ -18668,7 +18677,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>455</v>
       </c>
@@ -18685,7 +18694,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="330" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>493</v>
       </c>
@@ -18702,7 +18711,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>496</v>
       </c>
@@ -18719,7 +18728,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>457</v>
       </c>
@@ -18736,7 +18745,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>460</v>
       </c>
@@ -18753,7 +18762,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>502</v>
       </c>
@@ -18770,7 +18779,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>504</v>
       </c>
@@ -18787,7 +18796,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>463</v>
       </c>
@@ -18823,9 +18832,9 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18842,7 +18851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>511</v>
       </c>
@@ -18859,7 +18868,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>513</v>
       </c>
@@ -18876,7 +18885,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -18893,7 +18902,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -18910,7 +18919,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>520</v>
       </c>
@@ -18927,7 +18936,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>522</v>
       </c>
@@ -18944,7 +18953,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>523</v>
       </c>
@@ -18961,7 +18970,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1941</v>
       </c>
@@ -18978,7 +18987,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>524</v>
       </c>
@@ -18995,7 +19004,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>525</v>
       </c>
@@ -19012,7 +19021,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>526</v>
       </c>
@@ -19029,7 +19038,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>529</v>
       </c>
@@ -19046,7 +19055,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>530</v>
       </c>
@@ -19063,7 +19072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>531</v>
       </c>
@@ -19080,7 +19089,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>533</v>
       </c>
@@ -19097,7 +19106,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>535</v>
       </c>
@@ -19114,7 +19123,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>537</v>
       </c>
@@ -19131,7 +19140,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>539</v>
       </c>
@@ -19148,7 +19157,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>540</v>
       </c>
@@ -19165,7 +19174,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>541</v>
       </c>
@@ -19182,7 +19191,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1948</v>
       </c>
@@ -19199,7 +19208,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1950</v>
       </c>
@@ -19216,7 +19225,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>543</v>
       </c>
@@ -19250,12 +19259,12 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19272,7 +19281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -19289,7 +19298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>545</v>
       </c>
@@ -19303,7 +19312,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>513</v>
       </c>
@@ -19317,7 +19326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="256.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="256.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>547</v>
       </c>
@@ -19331,7 +19340,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>548</v>
       </c>
@@ -19345,7 +19354,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>551</v>
       </c>
@@ -19359,7 +19368,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>554</v>
       </c>
@@ -19373,7 +19382,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>556</v>
       </c>
@@ -19387,7 +19396,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>558</v>
       </c>
@@ -19401,7 +19410,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>559</v>
       </c>
@@ -19415,7 +19424,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>561</v>
       </c>
@@ -19426,7 +19435,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>562</v>
       </c>
@@ -19440,7 +19449,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -19454,7 +19463,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>565</v>
       </c>
@@ -19468,7 +19477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>566</v>
       </c>
@@ -19482,7 +19491,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>567</v>
       </c>
@@ -19496,7 +19505,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>569</v>
       </c>
@@ -19510,7 +19519,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1969</v>
       </c>
@@ -19524,7 +19533,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>571</v>
       </c>
@@ -19538,7 +19547,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>573</v>
       </c>
@@ -19552,7 +19561,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>518</v>
       </c>
@@ -19583,13 +19592,13 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.19921875" customWidth="1"/>
+    <col min="1" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19606,7 +19615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -19620,7 +19629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>575</v>
       </c>
@@ -19631,7 +19640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>576</v>
       </c>
@@ -19642,7 +19651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>577</v>
       </c>
@@ -19659,7 +19668,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>579</v>
       </c>
@@ -19676,7 +19685,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1990</v>
       </c>
@@ -19693,7 +19702,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -19710,7 +19719,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1992</v>
       </c>
@@ -19727,7 +19736,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>581</v>
       </c>
@@ -19738,7 +19747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1995</v>
       </c>
@@ -19755,7 +19764,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1997</v>
       </c>
@@ -19772,7 +19781,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>582</v>
       </c>
@@ -19789,7 +19798,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2000</v>
       </c>
@@ -19806,7 +19815,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>584</v>
       </c>
@@ -19817,7 +19826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>585</v>
       </c>
@@ -19834,7 +19843,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>586</v>
       </c>
@@ -19845,7 +19854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>587</v>
       </c>
@@ -19862,7 +19871,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2004</v>
       </c>
@@ -19879,7 +19888,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2007</v>
       </c>
@@ -19896,7 +19905,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2009</v>
       </c>
@@ -19913,7 +19922,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>588</v>
       </c>
@@ -19930,7 +19939,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>589</v>
       </c>
@@ -19947,7 +19956,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>590</v>
       </c>
@@ -19964,7 +19973,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>591</v>
       </c>
@@ -19981,7 +19990,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>592</v>
       </c>
@@ -19992,7 +20001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2022</v>
       </c>
@@ -20009,7 +20018,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>593</v>
       </c>
@@ -20026,7 +20035,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>594</v>
       </c>
@@ -20037,7 +20046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="50" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>595</v>
       </c>
@@ -20064,6 +20073,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -20314,25 +20341,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20349,22 +20376,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E9F541-AE54-4415-9B30-1241170A39E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B689EC7F-E599-4F4F-B1CD-D9FD2446C30E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="2100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="2103">
   <si>
     <t>id</t>
   </si>
@@ -7160,12 +7160,21 @@
   <si>
     <t>AltLang, The organization shall determine its role as a PII controller (including as a joint PII controller) and/or a PII processor. This is some alternate language.</t>
   </si>
+  <si>
+    <t>这是一个测试规则。请不要存储个人信息。</t>
+  </si>
+  <si>
+    <t>zh_HK-section</t>
+  </si>
+  <si>
+    <t>zh_HK-body</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7195,6 +7204,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -7217,7 +7231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7229,6 +7243,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7575,12 +7592,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>2087</v>
       </c>
@@ -7591,7 +7608,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" s="5">
         <v>43880</v>
       </c>
@@ -7602,7 +7619,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="5">
         <v>43910</v>
       </c>
@@ -7613,7 +7630,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="5"/>
     </row>
   </sheetData>
@@ -7630,9 +7647,9 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7649,7 +7666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="57.4" customHeight="1">
       <c r="A2" t="s">
         <v>596</v>
       </c>
@@ -7663,7 +7680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="50.15" customHeight="1">
       <c r="A3" t="s">
         <v>597</v>
       </c>
@@ -7677,7 +7694,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="50.15" customHeight="1">
       <c r="A4" t="s">
         <v>598</v>
       </c>
@@ -7691,7 +7708,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="50.15" customHeight="1">
       <c r="A5" t="s">
         <v>600</v>
       </c>
@@ -7705,7 +7722,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="50.15" customHeight="1">
       <c r="A6" t="s">
         <v>601</v>
       </c>
@@ -7719,7 +7736,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="50.15" customHeight="1">
       <c r="A7" t="s">
         <v>602</v>
       </c>
@@ -7733,7 +7750,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="50.15" customHeight="1">
       <c r="A8" t="s">
         <v>603</v>
       </c>
@@ -7747,7 +7764,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="50.15" customHeight="1">
       <c r="A9" t="s">
         <v>604</v>
       </c>
@@ -7761,7 +7778,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10" t="s">
         <v>605</v>
       </c>
@@ -7775,7 +7792,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="30" customHeight="1">
       <c r="A11" t="s">
         <v>2043</v>
       </c>
@@ -7789,7 +7806,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="30" customHeight="1">
       <c r="A12" t="s">
         <v>606</v>
       </c>
@@ -7803,7 +7820,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" customHeight="1">
       <c r="A13" t="s">
         <v>608</v>
       </c>
@@ -7817,7 +7834,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="25.15" customHeight="1">
       <c r="A14" t="s">
         <v>609</v>
       </c>
@@ -7831,7 +7848,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" t="s">
         <v>610</v>
       </c>
@@ -7845,7 +7862,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="32.25" customHeight="1">
       <c r="A16" t="s">
         <v>611</v>
       </c>
@@ -7859,7 +7876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="30" customHeight="1">
       <c r="A17" t="s">
         <v>612</v>
       </c>
@@ -7873,7 +7890,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="30" customHeight="1">
       <c r="A18" t="s">
         <v>613</v>
       </c>
@@ -7887,7 +7904,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="30" customHeight="1">
       <c r="A19" t="s">
         <v>614</v>
       </c>
@@ -7901,7 +7918,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="30" customHeight="1">
       <c r="A20" t="s">
         <v>615</v>
       </c>
@@ -7915,7 +7932,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" t="s">
         <v>616</v>
       </c>
@@ -7929,7 +7946,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="A22" t="s">
         <v>2061</v>
       </c>
@@ -7943,7 +7960,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="A23" t="s">
         <v>617</v>
       </c>
@@ -7957,7 +7974,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" t="s">
         <v>2065</v>
       </c>
@@ -7971,7 +7988,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" t="s">
         <v>618</v>
       </c>
@@ -7985,7 +8002,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="A26" t="s">
         <v>620</v>
       </c>
@@ -8013,14 +8030,14 @@
       <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84.54296875" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8037,7 +8054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8054,7 +8071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>621</v>
       </c>
@@ -8065,7 +8082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>622</v>
       </c>
@@ -8079,7 +8096,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1">
       <c r="A5" t="s">
         <v>625</v>
       </c>
@@ -8093,7 +8110,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>627</v>
       </c>
@@ -8107,7 +8124,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="43.5">
       <c r="A7" t="s">
         <v>630</v>
       </c>
@@ -8121,7 +8138,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>632</v>
       </c>
@@ -8135,7 +8152,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="58">
       <c r="A9" t="s">
         <v>634</v>
       </c>
@@ -8149,7 +8166,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -8163,7 +8180,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -8180,7 +8197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>638</v>
       </c>
@@ -8191,7 +8208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="43.5">
       <c r="A13" t="s">
         <v>639</v>
       </c>
@@ -8205,7 +8222,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="43.5">
       <c r="A14" t="s">
         <v>640</v>
       </c>
@@ -8219,7 +8236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="43.5">
       <c r="A15" t="s">
         <v>641</v>
       </c>
@@ -8233,7 +8250,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="43.5">
       <c r="A16" t="s">
         <v>642</v>
       </c>
@@ -8247,7 +8264,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="43.5">
       <c r="A17" t="s">
         <v>643</v>
       </c>
@@ -8261,7 +8278,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="72.5">
       <c r="A18" t="s">
         <v>644</v>
       </c>
@@ -8275,7 +8292,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>6.2</v>
       </c>
@@ -8289,7 +8306,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="188.5">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -8303,7 +8320,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -8317,7 +8334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="29">
       <c r="A22" t="s">
         <v>645</v>
       </c>
@@ -8331,7 +8348,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="29">
       <c r="A23" t="s">
         <v>646</v>
       </c>
@@ -8345,7 +8362,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="43.5">
       <c r="A24" t="s">
         <v>647</v>
       </c>
@@ -8359,7 +8376,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>648</v>
       </c>
@@ -8373,7 +8390,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>649</v>
       </c>
@@ -8387,7 +8404,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -8404,7 +8421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>651</v>
       </c>
@@ -8418,7 +8435,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>155</v>
       </c>
@@ -8432,7 +8449,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>180</v>
       </c>
@@ -8446,7 +8463,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>211</v>
       </c>
@@ -8460,7 +8477,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>250</v>
       </c>
@@ -8477,7 +8494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>652</v>
       </c>
@@ -8491,7 +8508,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>251</v>
       </c>
@@ -8505,7 +8522,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>268</v>
       </c>
@@ -8519,7 +8536,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>653</v>
       </c>
@@ -8536,7 +8553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>654</v>
       </c>
@@ -8550,7 +8567,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>655</v>
       </c>
@@ -8561,7 +8578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="58">
       <c r="A39" t="s">
         <v>656</v>
       </c>
@@ -8575,7 +8592,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="87">
       <c r="A40" t="s">
         <v>657</v>
       </c>
@@ -8589,7 +8606,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="43.5">
       <c r="A41" t="s">
         <v>658</v>
       </c>
@@ -8603,7 +8620,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="101.5">
       <c r="A42" t="s">
         <v>659</v>
       </c>
@@ -8617,7 +8634,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="29">
       <c r="A43" t="s">
         <v>660</v>
       </c>
@@ -8631,7 +8648,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="43.5">
       <c r="A44" t="s">
         <v>661</v>
       </c>
@@ -8645,7 +8662,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="72.5">
       <c r="A45" t="s">
         <v>662</v>
       </c>
@@ -8659,7 +8676,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="87">
       <c r="A46" t="s">
         <v>663</v>
       </c>
@@ -8673,7 +8690,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="87">
       <c r="A47" t="s">
         <v>664</v>
       </c>
@@ -8687,7 +8704,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="87">
       <c r="A48" t="s">
         <v>665</v>
       </c>
@@ -8701,7 +8718,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>666</v>
       </c>
@@ -8715,7 +8732,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>667</v>
       </c>
@@ -8729,7 +8746,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>669</v>
       </c>
@@ -8746,7 +8763,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>670</v>
       </c>
@@ -8763,7 +8780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>671</v>
       </c>
@@ -8777,7 +8794,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>672</v>
       </c>
@@ -8791,7 +8808,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>674</v>
       </c>
@@ -8808,7 +8825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>675</v>
       </c>
@@ -8822,7 +8839,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>676</v>
       </c>
@@ -8836,7 +8853,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>677</v>
       </c>
@@ -8850,7 +8867,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>678</v>
       </c>
@@ -8864,7 +8881,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>679</v>
       </c>
@@ -8878,7 +8895,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>680</v>
       </c>
@@ -8892,7 +8909,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>681</v>
       </c>
@@ -8906,7 +8923,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>682</v>
       </c>
@@ -8923,7 +8940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>683</v>
       </c>
@@ -8934,7 +8951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>684</v>
       </c>
@@ -8948,7 +8965,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>685</v>
       </c>
@@ -8962,7 +8979,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>686</v>
       </c>
@@ -8976,7 +8993,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>687</v>
       </c>
@@ -8990,7 +9007,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>688</v>
       </c>
@@ -9004,7 +9021,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>689</v>
       </c>
@@ -9018,7 +9035,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>690</v>
       </c>
@@ -9029,7 +9046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>691</v>
       </c>
@@ -9043,7 +9060,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>692</v>
       </c>
@@ -9057,7 +9074,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>694</v>
       </c>
@@ -9071,7 +9088,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>696</v>
       </c>
@@ -9085,7 +9102,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>697</v>
       </c>
@@ -9099,7 +9116,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>698</v>
       </c>
@@ -9113,7 +9130,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>699</v>
       </c>
@@ -9127,7 +9144,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>700</v>
       </c>
@@ -9141,7 +9158,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>702</v>
       </c>
@@ -9158,7 +9175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>703</v>
       </c>
@@ -9169,7 +9186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" ht="58">
       <c r="A82" t="s">
         <v>704</v>
       </c>
@@ -9183,7 +9200,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" ht="43.5">
       <c r="A83" t="s">
         <v>705</v>
       </c>
@@ -9197,7 +9214,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" ht="58">
       <c r="A84" t="s">
         <v>706</v>
       </c>
@@ -9211,7 +9228,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" ht="43.5">
       <c r="A85" t="s">
         <v>707</v>
       </c>
@@ -9225,7 +9242,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" ht="43.5">
       <c r="A86" t="s">
         <v>708</v>
       </c>
@@ -9239,7 +9256,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" ht="101.5">
       <c r="A87" t="s">
         <v>709</v>
       </c>
@@ -9253,7 +9270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>710</v>
       </c>
@@ -9264,7 +9281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>711</v>
       </c>
@@ -9278,7 +9295,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>712</v>
       </c>
@@ -9292,7 +9309,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>713</v>
       </c>
@@ -9306,7 +9323,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>714</v>
       </c>
@@ -9320,7 +9337,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>715</v>
       </c>
@@ -9334,7 +9351,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>716</v>
       </c>
@@ -9348,7 +9365,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>717</v>
       </c>
@@ -9362,7 +9379,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>718</v>
       </c>
@@ -9373,7 +9390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" ht="43.5">
       <c r="A97" t="s">
         <v>719</v>
       </c>
@@ -9387,7 +9404,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="43.5">
       <c r="A98" t="s">
         <v>720</v>
       </c>
@@ -9401,7 +9418,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="43.5">
       <c r="A99" t="s">
         <v>721</v>
       </c>
@@ -9415,7 +9432,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>722</v>
       </c>
@@ -9429,7 +9446,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>723</v>
       </c>
@@ -9440,7 +9457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>724</v>
       </c>
@@ -9454,7 +9471,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" ht="116">
       <c r="A103" t="s">
         <v>726</v>
       </c>
@@ -9468,7 +9485,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" ht="58">
       <c r="A104" t="s">
         <v>727</v>
       </c>
@@ -9482,7 +9499,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" ht="58">
       <c r="A105" t="s">
         <v>728</v>
       </c>
@@ -9496,7 +9513,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>729</v>
       </c>
@@ -9513,7 +9530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>730</v>
       </c>
@@ -9524,7 +9541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>731</v>
       </c>
@@ -9538,7 +9555,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>733</v>
       </c>
@@ -9552,7 +9569,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>734</v>
       </c>
@@ -9566,7 +9583,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>735</v>
       </c>
@@ -9580,7 +9597,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>736</v>
       </c>
@@ -9594,7 +9611,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>737</v>
       </c>
@@ -9608,7 +9625,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>738</v>
       </c>
@@ -9622,7 +9639,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>739</v>
       </c>
@@ -9636,7 +9653,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>740</v>
       </c>
@@ -9650,7 +9667,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>742</v>
       </c>
@@ -9664,7 +9681,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>744</v>
       </c>
@@ -9678,7 +9695,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>745</v>
       </c>
@@ -9695,7 +9712,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>746</v>
       </c>
@@ -9712,7 +9729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5">
       <c r="A121" t="s">
         <v>747</v>
       </c>
@@ -9723,7 +9740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5">
       <c r="A122" t="s">
         <v>748</v>
       </c>
@@ -9737,7 +9754,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5">
       <c r="A123" t="s">
         <v>749</v>
       </c>
@@ -9751,7 +9768,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>750</v>
       </c>
@@ -9765,7 +9782,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>751</v>
       </c>
@@ -9779,7 +9796,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5">
       <c r="A126" t="s">
         <v>752</v>
       </c>
@@ -9793,7 +9810,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5">
       <c r="A127" t="s">
         <v>753</v>
       </c>
@@ -9807,7 +9824,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5">
       <c r="A128" t="s">
         <v>754</v>
       </c>
@@ -9821,7 +9838,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>756</v>
       </c>
@@ -9832,7 +9849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>757</v>
       </c>
@@ -9846,7 +9863,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="58">
       <c r="A131" t="s">
         <v>759</v>
       </c>
@@ -9860,7 +9877,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="43.5">
       <c r="A132" t="s">
         <v>760</v>
       </c>
@@ -9874,7 +9891,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="72.5">
       <c r="A133" t="s">
         <v>761</v>
       </c>
@@ -9888,7 +9905,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>762</v>
       </c>
@@ -9902,7 +9919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>764</v>
       </c>
@@ -9919,7 +9936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>765</v>
       </c>
@@ -9930,7 +9947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="58">
       <c r="A137" t="s">
         <v>766</v>
       </c>
@@ -9944,7 +9961,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="58">
       <c r="A138" t="s">
         <v>767</v>
       </c>
@@ -9958,7 +9975,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="58">
       <c r="A139" t="s">
         <v>768</v>
       </c>
@@ -9972,7 +9989,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="58">
       <c r="A140" t="s">
         <v>769</v>
       </c>
@@ -9986,7 +10003,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5">
       <c r="A141" t="s">
         <v>770</v>
       </c>
@@ -10000,7 +10017,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5">
       <c r="A142" t="s">
         <v>771</v>
       </c>
@@ -10014,7 +10031,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>772</v>
       </c>
@@ -10031,7 +10048,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5">
       <c r="A144" t="s">
         <v>773</v>
       </c>
@@ -10048,7 +10065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>774</v>
       </c>
@@ -10062,7 +10079,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>775</v>
       </c>
@@ -10076,7 +10093,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>776</v>
       </c>
@@ -10090,7 +10107,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>777</v>
       </c>
@@ -10104,7 +10121,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5">
       <c r="A149" t="s">
         <v>779</v>
       </c>
@@ -10121,7 +10138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5">
       <c r="A150" t="s">
         <v>780</v>
       </c>
@@ -10135,7 +10152,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5">
       <c r="A151" t="s">
         <v>781</v>
       </c>
@@ -10149,7 +10166,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5">
       <c r="A152" t="s">
         <v>782</v>
       </c>
@@ -10163,7 +10180,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5">
       <c r="A153" t="s">
         <v>784</v>
       </c>
@@ -10177,7 +10194,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>785</v>
       </c>
@@ -10191,7 +10208,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5">
       <c r="A155" t="s">
         <v>786</v>
       </c>
@@ -10205,7 +10222,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5">
       <c r="A156" t="s">
         <v>787</v>
       </c>
@@ -10222,7 +10239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>788</v>
       </c>
@@ -10236,7 +10253,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5">
       <c r="A158" t="s">
         <v>789</v>
       </c>
@@ -10247,7 +10264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="43.5">
       <c r="A159" t="s">
         <v>790</v>
       </c>
@@ -10261,7 +10278,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="58">
       <c r="A160" t="s">
         <v>791</v>
       </c>
@@ -10275,7 +10292,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5">
       <c r="A161" t="s">
         <v>792</v>
       </c>
@@ -10289,7 +10306,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5">
       <c r="A162" t="s">
         <v>794</v>
       </c>
@@ -10303,7 +10320,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5">
       <c r="A163" t="s">
         <v>795</v>
       </c>
@@ -10317,7 +10334,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5">
       <c r="A164" t="s">
         <v>796</v>
       </c>
@@ -10334,7 +10351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5">
       <c r="A165" t="s">
         <v>797</v>
       </c>
@@ -10348,7 +10365,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5">
       <c r="A166" t="s">
         <v>798</v>
       </c>
@@ -10362,7 +10379,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5">
       <c r="A167" t="s">
         <v>800</v>
       </c>
@@ -10376,7 +10393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5">
       <c r="A168" t="s">
         <v>801</v>
       </c>
@@ -10393,7 +10410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5">
       <c r="A169" t="s">
         <v>802</v>
       </c>
@@ -10407,7 +10424,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5">
       <c r="A170" t="s">
         <v>804</v>
       </c>
@@ -10421,7 +10438,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5">
       <c r="A171" t="s">
         <v>805</v>
       </c>
@@ -10435,7 +10452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5">
       <c r="A172" t="s">
         <v>806</v>
       </c>
@@ -10452,7 +10469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>807</v>
       </c>
@@ -10466,7 +10483,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>808</v>
       </c>
@@ -10480,7 +10497,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>809</v>
       </c>
@@ -10494,7 +10511,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5">
       <c r="A176" t="s">
         <v>810</v>
       </c>
@@ -10511,7 +10528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5">
       <c r="A177" t="s">
         <v>811</v>
       </c>
@@ -10525,7 +10542,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5">
       <c r="A178" t="s">
         <v>813</v>
       </c>
@@ -10536,7 +10553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="87">
       <c r="A179" t="s">
         <v>814</v>
       </c>
@@ -10550,7 +10567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5">
       <c r="A180" t="s">
         <v>815</v>
       </c>
@@ -10564,7 +10581,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5">
       <c r="A181" t="s">
         <v>817</v>
       </c>
@@ -10578,7 +10595,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5">
       <c r="A182" t="s">
         <v>818</v>
       </c>
@@ -10592,7 +10609,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>819</v>
       </c>
@@ -10606,7 +10623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>820</v>
       </c>
@@ -10623,7 +10640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>821</v>
       </c>
@@ -10637,7 +10654,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>823</v>
       </c>
@@ -10651,7 +10668,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>825</v>
       </c>
@@ -10662,7 +10679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5">
       <c r="A188" t="s">
         <v>826</v>
       </c>
@@ -10676,7 +10693,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5">
       <c r="A189" t="s">
         <v>828</v>
       </c>
@@ -10690,7 +10707,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5">
       <c r="A190" t="s">
         <v>830</v>
       </c>
@@ -10704,7 +10721,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5">
       <c r="A191" t="s">
         <v>831</v>
       </c>
@@ -10718,7 +10735,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5">
       <c r="A192" t="s">
         <v>833</v>
       </c>
@@ -10732,7 +10749,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5">
       <c r="A193" t="s">
         <v>835</v>
       </c>
@@ -10746,7 +10763,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5">
       <c r="A194" t="s">
         <v>837</v>
       </c>
@@ -10760,7 +10777,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5">
       <c r="A195" t="s">
         <v>839</v>
       </c>
@@ -10774,7 +10791,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>841</v>
       </c>
@@ -10788,7 +10805,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5">
       <c r="A197" t="s">
         <v>842</v>
       </c>
@@ -10802,7 +10819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5">
       <c r="A198" t="s">
         <v>843</v>
       </c>
@@ -10816,7 +10833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5">
       <c r="A199" t="s">
         <v>844</v>
       </c>
@@ -10830,7 +10847,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5">
       <c r="A200" t="s">
         <v>846</v>
       </c>
@@ -10844,7 +10861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5">
       <c r="A201" t="s">
         <v>847</v>
       </c>
@@ -10861,7 +10878,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>848</v>
       </c>
@@ -10878,7 +10895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>849</v>
       </c>
@@ -10889,7 +10906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5">
       <c r="A204" t="s">
         <v>850</v>
       </c>
@@ -10903,7 +10920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5">
       <c r="A205" t="s">
         <v>851</v>
       </c>
@@ -10917,7 +10934,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5">
       <c r="A206" t="s">
         <v>852</v>
       </c>
@@ -10931,7 +10948,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5">
       <c r="A207" t="s">
         <v>853</v>
       </c>
@@ -10945,7 +10962,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5">
       <c r="A208" t="s">
         <v>855</v>
       </c>
@@ -10959,7 +10976,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5">
       <c r="A209" t="s">
         <v>857</v>
       </c>
@@ -10973,7 +10990,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>859</v>
       </c>
@@ -10987,7 +11004,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>860</v>
       </c>
@@ -10998,7 +11015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>861</v>
       </c>
@@ -11012,7 +11029,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5">
       <c r="A213" t="s">
         <v>862</v>
       </c>
@@ -11026,7 +11043,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>863</v>
       </c>
@@ -11040,7 +11057,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>864</v>
       </c>
@@ -11054,7 +11071,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5">
       <c r="A216" t="s">
         <v>865</v>
       </c>
@@ -11068,7 +11085,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5">
       <c r="A217" t="s">
         <v>868</v>
       </c>
@@ -11082,7 +11099,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5">
       <c r="A218" t="s">
         <v>869</v>
       </c>
@@ -11096,7 +11113,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5">
       <c r="A219" t="s">
         <v>870</v>
       </c>
@@ -11113,7 +11130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5">
       <c r="A220" t="s">
         <v>871</v>
       </c>
@@ -11130,7 +11147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5">
       <c r="A221" t="s">
         <v>872</v>
       </c>
@@ -11141,7 +11158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5">
       <c r="A222" t="s">
         <v>873</v>
       </c>
@@ -11155,7 +11172,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5">
       <c r="A223" t="s">
         <v>875</v>
       </c>
@@ -11169,7 +11186,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5">
       <c r="A224" t="s">
         <v>877</v>
       </c>
@@ -11183,7 +11200,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5">
       <c r="A225" t="s">
         <v>878</v>
       </c>
@@ -11197,7 +11214,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5">
       <c r="A226" t="s">
         <v>880</v>
       </c>
@@ -11211,7 +11228,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>882</v>
       </c>
@@ -11225,7 +11242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>883</v>
       </c>
@@ -11239,7 +11256,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5">
       <c r="A229" t="s">
         <v>885</v>
       </c>
@@ -11256,7 +11273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5">
       <c r="A230" t="s">
         <v>886</v>
       </c>
@@ -11270,7 +11287,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5">
       <c r="A231" t="s">
         <v>888</v>
       </c>
@@ -11284,7 +11301,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5">
       <c r="A232" t="s">
         <v>890</v>
       </c>
@@ -11295,7 +11312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" ht="58">
       <c r="A233" t="s">
         <v>891</v>
       </c>
@@ -11309,7 +11326,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" ht="43.5">
       <c r="A234" t="s">
         <v>892</v>
       </c>
@@ -11323,7 +11340,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" ht="29">
       <c r="A235" t="s">
         <v>893</v>
       </c>
@@ -11337,7 +11354,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" ht="43.5">
       <c r="A236" t="s">
         <v>894</v>
       </c>
@@ -11351,7 +11368,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5">
       <c r="A237" t="s">
         <v>895</v>
       </c>
@@ -11365,7 +11382,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>896</v>
       </c>
@@ -11379,7 +11396,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5">
       <c r="A239" t="s">
         <v>897</v>
       </c>
@@ -11396,7 +11413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5">
       <c r="A240" t="s">
         <v>898</v>
       </c>
@@ -11410,7 +11427,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5">
       <c r="A241" t="s">
         <v>899</v>
       </c>
@@ -11424,7 +11441,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5">
       <c r="A242" t="s">
         <v>900</v>
       </c>
@@ -11435,7 +11452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" ht="87">
       <c r="A243" t="s">
         <v>901</v>
       </c>
@@ -11449,7 +11466,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" ht="58">
       <c r="A244" t="s">
         <v>902</v>
       </c>
@@ -11463,7 +11480,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" ht="72.5">
       <c r="A245" t="s">
         <v>903</v>
       </c>
@@ -11477,7 +11494,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5">
       <c r="A246" t="s">
         <v>904</v>
       </c>
@@ -11491,7 +11508,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5">
       <c r="A247" t="s">
         <v>905</v>
       </c>
@@ -11508,7 +11525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5">
       <c r="A248" t="s">
         <v>906</v>
       </c>
@@ -11522,7 +11539,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5">
       <c r="A249" t="s">
         <v>908</v>
       </c>
@@ -11536,7 +11553,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>910</v>
       </c>
@@ -11547,7 +11564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" ht="87">
       <c r="A251" t="s">
         <v>911</v>
       </c>
@@ -11561,7 +11578,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" ht="58">
       <c r="A252" t="s">
         <v>912</v>
       </c>
@@ -11575,7 +11592,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" ht="43.5">
       <c r="A253" t="s">
         <v>913</v>
       </c>
@@ -11589,7 +11606,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5">
       <c r="A254" t="s">
         <v>914</v>
       </c>
@@ -11603,7 +11620,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5">
       <c r="A255" t="s">
         <v>915</v>
       </c>
@@ -11617,7 +11634,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5">
       <c r="A256" t="s">
         <v>916</v>
       </c>
@@ -11628,7 +11645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" ht="43.5">
       <c r="A257" t="s">
         <v>917</v>
       </c>
@@ -11642,7 +11659,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5">
       <c r="A258" t="s">
         <v>918</v>
       </c>
@@ -11656,7 +11673,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" ht="43.5">
       <c r="A259" t="s">
         <v>920</v>
       </c>
@@ -11670,7 +11687,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" ht="72.5">
       <c r="A260" t="s">
         <v>921</v>
       </c>
@@ -11684,7 +11701,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>922</v>
       </c>
@@ -11698,7 +11715,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5">
       <c r="A262" t="s">
         <v>923</v>
       </c>
@@ -11712,7 +11729,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5">
       <c r="A263" t="s">
         <v>925</v>
       </c>
@@ -11726,7 +11743,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5">
       <c r="A264" t="s">
         <v>926</v>
       </c>
@@ -11740,7 +11757,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5">
       <c r="A265" t="s">
         <v>927</v>
       </c>
@@ -11757,7 +11774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>928</v>
       </c>
@@ -11771,7 +11788,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5">
       <c r="A267" t="s">
         <v>929</v>
       </c>
@@ -11782,7 +11799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" ht="58">
       <c r="A268" t="s">
         <v>930</v>
       </c>
@@ -11796,7 +11813,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" ht="43.5">
       <c r="A269" t="s">
         <v>931</v>
       </c>
@@ -11810,7 +11827,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" ht="58">
       <c r="A270" t="s">
         <v>932</v>
       </c>
@@ -11824,7 +11841,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" ht="43.5">
       <c r="A271" t="s">
         <v>933</v>
       </c>
@@ -11838,7 +11855,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" ht="43.5">
       <c r="A272" t="s">
         <v>934</v>
       </c>
@@ -11852,7 +11869,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" ht="43.5">
       <c r="A273" t="s">
         <v>935</v>
       </c>
@@ -11866,7 +11883,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>936</v>
       </c>
@@ -11880,7 +11897,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>937</v>
       </c>
@@ -11897,7 +11914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>938</v>
       </c>
@@ -11908,7 +11925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" ht="58">
       <c r="A277" t="s">
         <v>939</v>
       </c>
@@ -11922,7 +11939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" ht="72.5">
       <c r="A278" t="s">
         <v>940</v>
       </c>
@@ -11936,7 +11953,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" ht="72.5">
       <c r="A279" t="s">
         <v>941</v>
       </c>
@@ -11950,7 +11967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5">
       <c r="A280" t="s">
         <v>942</v>
       </c>
@@ -11964,7 +11981,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5">
       <c r="A281" t="s">
         <v>944</v>
       </c>
@@ -11978,7 +11995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5">
       <c r="A282" t="s">
         <v>945</v>
       </c>
@@ -11992,7 +12009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5">
       <c r="A283" t="s">
         <v>946</v>
       </c>
@@ -12006,7 +12023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5">
       <c r="A284" t="s">
         <v>947</v>
       </c>
@@ -12020,7 +12037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5">
       <c r="A285" t="s">
         <v>948</v>
       </c>
@@ -12034,7 +12051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5">
       <c r="A286" t="s">
         <v>950</v>
       </c>
@@ -12051,7 +12068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5">
       <c r="A287" t="s">
         <v>951</v>
       </c>
@@ -12065,7 +12082,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5">
       <c r="A288" t="s">
         <v>952</v>
       </c>
@@ -12079,7 +12096,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5">
       <c r="A289" t="s">
         <v>953</v>
       </c>
@@ -12093,7 +12110,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5">
       <c r="A290" t="s">
         <v>954</v>
       </c>
@@ -12107,7 +12124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5">
       <c r="A291" t="s">
         <v>955</v>
       </c>
@@ -12121,7 +12138,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5">
       <c r="A292" t="s">
         <v>957</v>
       </c>
@@ -12135,7 +12152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5">
       <c r="A293" t="s">
         <v>958</v>
       </c>
@@ -12152,7 +12169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5">
       <c r="A294" t="s">
         <v>959</v>
       </c>
@@ -12163,7 +12180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" ht="58">
       <c r="A295" t="s">
         <v>960</v>
       </c>
@@ -12177,7 +12194,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" ht="72.5">
       <c r="A296" t="s">
         <v>961</v>
       </c>
@@ -12191,7 +12208,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" ht="43.5">
       <c r="A297" t="s">
         <v>963</v>
       </c>
@@ -12205,7 +12222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>964</v>
       </c>
@@ -12219,7 +12236,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" ht="58">
       <c r="A299" t="s">
         <v>966</v>
       </c>
@@ -12233,7 +12250,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>967</v>
       </c>
@@ -12247,7 +12264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5">
       <c r="A301" t="s">
         <v>968</v>
       </c>
@@ -12264,7 +12281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5">
       <c r="A302" t="s">
         <v>969</v>
       </c>
@@ -12278,7 +12295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>970</v>
       </c>
@@ -12289,7 +12306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5">
       <c r="A304" t="s">
         <v>971</v>
       </c>
@@ -12303,7 +12320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>972</v>
       </c>
@@ -12317,7 +12334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5">
       <c r="A306" t="s">
         <v>973</v>
       </c>
@@ -12331,7 +12348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5">
       <c r="A307" t="s">
         <v>974</v>
       </c>
@@ -12345,7 +12362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5">
       <c r="A308" t="s">
         <v>975</v>
       </c>
@@ -12359,7 +12376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>976</v>
       </c>
@@ -12373,7 +12390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5">
       <c r="A310" t="s">
         <v>977</v>
       </c>
@@ -12387,7 +12404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>978</v>
       </c>
@@ -12401,7 +12418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5">
       <c r="A312" t="s">
         <v>979</v>
       </c>
@@ -12415,7 +12432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5">
       <c r="A313" t="s">
         <v>980</v>
       </c>
@@ -12429,7 +12446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5">
       <c r="A314" t="s">
         <v>981</v>
       </c>
@@ -12443,7 +12460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5">
       <c r="A315" t="s">
         <v>982</v>
       </c>
@@ -12457,7 +12474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5">
       <c r="A316" t="s">
         <v>983</v>
       </c>
@@ -12471,7 +12488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5">
       <c r="A317" t="s">
         <v>984</v>
       </c>
@@ -12485,7 +12502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5">
       <c r="A318" t="s">
         <v>985</v>
       </c>
@@ -12499,7 +12516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5">
       <c r="A319" t="s">
         <v>986</v>
       </c>
@@ -12513,7 +12530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5">
       <c r="A320" t="s">
         <v>987</v>
       </c>
@@ -12527,7 +12544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5">
       <c r="A321" t="s">
         <v>988</v>
       </c>
@@ -12541,7 +12558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5">
       <c r="A322" t="s">
         <v>989</v>
       </c>
@@ -12555,7 +12572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5">
       <c r="A323" t="s">
         <v>991</v>
       </c>
@@ -12569,7 +12586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5">
       <c r="A324" t="s">
         <v>992</v>
       </c>
@@ -12586,7 +12603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5">
       <c r="A325" t="s">
         <v>993</v>
       </c>
@@ -12600,7 +12617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5">
       <c r="A326" t="s">
         <v>994</v>
       </c>
@@ -12611,7 +12628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" ht="58">
       <c r="A327" t="s">
         <v>995</v>
       </c>
@@ -12625,7 +12642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" ht="72.5">
       <c r="A328" t="s">
         <v>996</v>
       </c>
@@ -12639,7 +12656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5">
       <c r="A329" t="s">
         <v>997</v>
       </c>
@@ -12653,7 +12670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" ht="58">
       <c r="A330" t="s">
         <v>998</v>
       </c>
@@ -12667,7 +12684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5">
       <c r="A331" t="s">
         <v>999</v>
       </c>
@@ -12681,7 +12698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5">
       <c r="A332" t="s">
         <v>1000</v>
       </c>
@@ -12695,7 +12712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5">
       <c r="A333" t="s">
         <v>1001</v>
       </c>
@@ -12709,7 +12726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5">
       <c r="A334" t="s">
         <v>1002</v>
       </c>
@@ -12723,7 +12740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5">
       <c r="A335" t="s">
         <v>1004</v>
       </c>
@@ -12740,7 +12757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5">
       <c r="A336" t="s">
         <v>1005</v>
       </c>
@@ -12754,7 +12771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5">
       <c r="A337" t="s">
         <v>1006</v>
       </c>
@@ -12768,7 +12785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5">
       <c r="A338" t="s">
         <v>1007</v>
       </c>
@@ -12782,7 +12799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5">
       <c r="A339" t="s">
         <v>1009</v>
       </c>
@@ -12796,7 +12813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5">
       <c r="A340" t="s">
         <v>1010</v>
       </c>
@@ -12810,7 +12827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5">
       <c r="A341" t="s">
         <v>1011</v>
       </c>
@@ -12824,7 +12841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5">
       <c r="A342" t="s">
         <v>1012</v>
       </c>
@@ -12838,7 +12855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5">
       <c r="A343" t="s">
         <v>1013</v>
       </c>
@@ -12852,7 +12869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5">
       <c r="A344" t="s">
         <v>1014</v>
       </c>
@@ -12869,7 +12886,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5">
       <c r="A345" t="s">
         <v>1016</v>
       </c>
@@ -12886,7 +12903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:5">
       <c r="A346" t="s">
         <v>1017</v>
       </c>
@@ -12900,7 +12917,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:5">
       <c r="A347" t="s">
         <v>1018</v>
       </c>
@@ -12911,7 +12928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:5" ht="145">
       <c r="A348" t="s">
         <v>1019</v>
       </c>
@@ -12925,7 +12942,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:5" ht="101.5">
       <c r="A349" t="s">
         <v>1020</v>
       </c>
@@ -12939,7 +12956,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:5" ht="87">
       <c r="A350" t="s">
         <v>1021</v>
       </c>
@@ -12953,7 +12970,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:5">
       <c r="A351" t="s">
         <v>1022</v>
       </c>
@@ -12967,7 +12984,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:5">
       <c r="A352" t="s">
         <v>1023</v>
       </c>
@@ -12981,7 +12998,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:5">
       <c r="A353" t="s">
         <v>1024</v>
       </c>
@@ -12995,7 +13012,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:5">
       <c r="A354" t="s">
         <v>1025</v>
       </c>
@@ -13009,7 +13026,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:5">
       <c r="A355" t="s">
         <v>1026</v>
       </c>
@@ -13023,7 +13040,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:5">
       <c r="A356" t="s">
         <v>1027</v>
       </c>
@@ -13037,7 +13054,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:5">
       <c r="A357" t="s">
         <v>1028</v>
       </c>
@@ -13051,7 +13068,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:5">
       <c r="A358" t="s">
         <v>1029</v>
       </c>
@@ -13068,7 +13085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:5">
       <c r="A359" t="s">
         <v>1030</v>
       </c>
@@ -13082,7 +13099,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:5">
       <c r="A360" t="s">
         <v>1031</v>
       </c>
@@ -13093,7 +13110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:5" ht="43.5">
       <c r="A361" t="s">
         <v>1032</v>
       </c>
@@ -13107,7 +13124,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:5" ht="43.5">
       <c r="A362" t="s">
         <v>1033</v>
       </c>
@@ -13121,7 +13138,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:5" ht="58">
       <c r="A363" t="s">
         <v>1034</v>
       </c>
@@ -13135,7 +13152,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:5" ht="58">
       <c r="A364" t="s">
         <v>1035</v>
       </c>
@@ -13149,7 +13166,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:5" ht="72.5">
       <c r="A365" t="s">
         <v>1036</v>
       </c>
@@ -13163,7 +13180,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" ht="72.5">
       <c r="A366" t="s">
         <v>1037</v>
       </c>
@@ -13177,7 +13194,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:5">
       <c r="A367" t="s">
         <v>1038</v>
       </c>
@@ -13188,7 +13205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:5">
       <c r="A368" t="s">
         <v>1039</v>
       </c>
@@ -13202,7 +13219,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:5">
       <c r="A369" t="s">
         <v>1040</v>
       </c>
@@ -13216,7 +13233,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:5">
       <c r="A370" t="s">
         <v>1041</v>
       </c>
@@ -13230,7 +13247,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:5">
       <c r="A371" t="s">
         <v>1043</v>
       </c>
@@ -13244,7 +13261,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:5">
       <c r="A372" t="s">
         <v>1044</v>
       </c>
@@ -13261,7 +13278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:5">
       <c r="A373" t="s">
         <v>1045</v>
       </c>
@@ -13272,7 +13289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:5" ht="72.5">
       <c r="A374" t="s">
         <v>1046</v>
       </c>
@@ -13286,7 +13303,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:5" ht="58">
       <c r="A375" t="s">
         <v>1047</v>
       </c>
@@ -13300,7 +13317,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:5" ht="43.5">
       <c r="A376" t="s">
         <v>1048</v>
       </c>
@@ -13314,7 +13331,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:5">
       <c r="A377" t="s">
         <v>1049</v>
       </c>
@@ -13325,7 +13342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:5" ht="43.5">
       <c r="A378" t="s">
         <v>1050</v>
       </c>
@@ -13339,7 +13356,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:5" ht="43.5">
       <c r="A379" t="s">
         <v>1051</v>
       </c>
@@ -13353,7 +13370,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" ht="29">
       <c r="A380" t="s">
         <v>1052</v>
       </c>
@@ -13367,7 +13384,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:5" ht="87">
       <c r="A381" t="s">
         <v>1053</v>
       </c>
@@ -13381,7 +13398,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:5" ht="101.5">
       <c r="A382" t="s">
         <v>1054</v>
       </c>
@@ -13395,7 +13412,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:5" ht="72.5">
       <c r="A383" t="s">
         <v>1055</v>
       </c>
@@ -13409,7 +13426,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" ht="58">
       <c r="A384" t="s">
         <v>1056</v>
       </c>
@@ -13423,7 +13440,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" ht="58">
       <c r="A385" t="s">
         <v>1057</v>
       </c>
@@ -13437,7 +13454,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:5">
       <c r="A386" t="s">
         <v>1058</v>
       </c>
@@ -13451,7 +13468,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" ht="116">
       <c r="A387" t="s">
         <v>1060</v>
       </c>
@@ -13465,7 +13482,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" ht="43.5">
       <c r="A388" t="s">
         <v>1061</v>
       </c>
@@ -13479,7 +13496,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" ht="72.5">
       <c r="A389" t="s">
         <v>1062</v>
       </c>
@@ -13493,7 +13510,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" ht="72.5">
       <c r="A390" t="s">
         <v>1063</v>
       </c>
@@ -13507,7 +13524,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" ht="72.5">
       <c r="A391" t="s">
         <v>1064</v>
       </c>
@@ -13521,7 +13538,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:5">
       <c r="A392" t="s">
         <v>1065</v>
       </c>
@@ -13535,7 +13552,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5">
       <c r="A393" t="s">
         <v>1066</v>
       </c>
@@ -13552,7 +13569,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:5">
       <c r="A394" t="s">
         <v>1068</v>
       </c>
@@ -13569,7 +13586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5">
       <c r="A395" t="s">
         <v>1069</v>
       </c>
@@ -13580,7 +13597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5">
       <c r="A396" t="s">
         <v>1070</v>
       </c>
@@ -13594,7 +13611,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5">
       <c r="A397" t="s">
         <v>1071</v>
       </c>
@@ -13608,7 +13625,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5">
       <c r="A398" t="s">
         <v>1072</v>
       </c>
@@ -13622,7 +13639,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5">
       <c r="A399" t="s">
         <v>1073</v>
       </c>
@@ -13636,7 +13653,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5">
       <c r="A400" t="s">
         <v>1074</v>
       </c>
@@ -13650,7 +13667,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5">
       <c r="A401" t="s">
         <v>1075</v>
       </c>
@@ -13664,7 +13681,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5">
       <c r="A402" t="s">
         <v>1076</v>
       </c>
@@ -13678,7 +13695,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:5">
       <c r="A403" t="s">
         <v>1077</v>
       </c>
@@ -13692,7 +13709,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:5">
       <c r="A404" t="s">
         <v>1078</v>
       </c>
@@ -13706,7 +13723,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5">
       <c r="A405" t="s">
         <v>1079</v>
       </c>
@@ -13720,7 +13737,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5">
       <c r="A406" t="s">
         <v>1080</v>
       </c>
@@ -13734,7 +13751,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5">
       <c r="A407" t="s">
         <v>1081</v>
       </c>
@@ -13759,11 +13776,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="72" customWidth="1"/>
     <col min="3" max="3" width="154.26953125" bestFit="1" customWidth="1"/>
@@ -13771,7 +13788,7 @@
     <col min="7" max="7" width="154.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13794,7 +13811,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -13814,7 +13831,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -13834,7 +13851,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -13854,7 +13871,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -13874,7 +13891,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -13894,7 +13911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -13914,7 +13931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5.3</v>
       </c>
@@ -13931,7 +13948,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>1089</v>
       </c>
@@ -13948,7 +13965,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>1092</v>
       </c>
@@ -13965,7 +13982,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>1093</v>
       </c>
@@ -13982,7 +13999,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -14002,7 +14019,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -14022,7 +14039,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>1100</v>
       </c>
@@ -14039,7 +14056,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -14059,7 +14076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -14079,7 +14096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>1103</v>
       </c>
@@ -14096,7 +14113,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>5.5</v>
       </c>
@@ -14113,7 +14130,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>1107</v>
       </c>
@@ -14130,7 +14147,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>1110</v>
       </c>
@@ -14147,7 +14164,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>1113</v>
       </c>
@@ -14164,7 +14181,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>1116</v>
       </c>
@@ -14181,7 +14198,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>1118</v>
       </c>
@@ -14198,7 +14215,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>1120</v>
       </c>
@@ -14215,7 +14232,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>1124</v>
       </c>
@@ -14232,7 +14249,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>1127</v>
       </c>
@@ -14249,7 +14266,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>5.6</v>
       </c>
@@ -14266,7 +14283,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>1131</v>
       </c>
@@ -14283,7 +14300,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>1134</v>
       </c>
@@ -14300,7 +14317,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>1137</v>
       </c>
@@ -14317,7 +14334,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>5.7</v>
       </c>
@@ -14334,7 +14351,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>1141</v>
       </c>
@@ -14351,7 +14368,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>1144</v>
       </c>
@@ -14368,7 +14385,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>1147</v>
       </c>
@@ -14385,7 +14402,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>5.8</v>
       </c>
@@ -14402,7 +14419,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>1151</v>
       </c>
@@ -14419,7 +14436,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>1154</v>
       </c>
@@ -14436,7 +14453,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -14456,7 +14473,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -14476,7 +14493,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -14496,7 +14513,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -14516,7 +14533,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>1160</v>
       </c>
@@ -14533,7 +14550,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -14553,7 +14570,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -14573,7 +14590,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -14593,7 +14610,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>1165</v>
       </c>
@@ -14610,7 +14627,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>1168</v>
       </c>
@@ -14627,7 +14644,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>1171</v>
       </c>
@@ -14644,7 +14661,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>1174</v>
       </c>
@@ -14661,7 +14678,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>36</v>
       </c>
@@ -14681,7 +14698,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -14701,7 +14718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>1178</v>
       </c>
@@ -14718,7 +14735,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -14738,7 +14755,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>1182</v>
       </c>
@@ -14755,7 +14772,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>1184</v>
       </c>
@@ -14772,7 +14789,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>1187</v>
       </c>
@@ -14789,7 +14806,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>41</v>
       </c>
@@ -14809,7 +14826,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>1191</v>
       </c>
@@ -14826,7 +14843,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -14846,7 +14863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>1195</v>
       </c>
@@ -14863,7 +14880,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>1197</v>
       </c>
@@ -14880,7 +14897,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>1199</v>
       </c>
@@ -14897,7 +14914,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>45</v>
       </c>
@@ -14917,7 +14934,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>1203</v>
       </c>
@@ -14934,7 +14951,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>1205</v>
       </c>
@@ -14951,7 +14968,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>1209</v>
       </c>
@@ -14968,7 +14985,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>1211</v>
       </c>
@@ -14985,7 +15002,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>1214</v>
       </c>
@@ -15002,7 +15019,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>46</v>
       </c>
@@ -15022,7 +15039,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>47</v>
       </c>
@@ -15042,7 +15059,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -15062,7 +15079,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>1218</v>
       </c>
@@ -15079,7 +15096,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -15099,7 +15116,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -15119,7 +15136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -15139,7 +15156,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -15159,7 +15176,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -15179,7 +15196,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>1223</v>
       </c>
@@ -15196,7 +15213,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>1225</v>
       </c>
@@ -15213,7 +15230,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>1228</v>
       </c>
@@ -15230,7 +15247,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>64</v>
       </c>
@@ -15250,7 +15267,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>65</v>
       </c>
@@ -15270,7 +15287,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -15290,7 +15307,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>71</v>
       </c>
@@ -15310,7 +15327,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>1234</v>
       </c>
@@ -15327,7 +15344,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>1235</v>
       </c>
@@ -15344,7 +15361,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>1236</v>
       </c>
@@ -15361,7 +15378,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>1243</v>
       </c>
@@ -15378,7 +15395,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>1245</v>
       </c>
@@ -15395,7 +15412,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -15412,7 +15429,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>1249</v>
       </c>
@@ -15429,7 +15446,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -15446,7 +15463,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>1253</v>
       </c>
@@ -15463,7 +15480,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>1254</v>
       </c>
@@ -15483,7 +15500,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>1255</v>
       </c>
@@ -15503,7 +15520,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>75</v>
       </c>
@@ -15523,7 +15540,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>76</v>
       </c>
@@ -15543,7 +15560,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>77</v>
       </c>
@@ -15563,7 +15580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>1264</v>
       </c>
@@ -15580,7 +15597,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>80</v>
       </c>
@@ -15600,7 +15617,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>1268</v>
       </c>
@@ -15617,7 +15634,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>1270</v>
       </c>
@@ -15634,7 +15651,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>1273</v>
       </c>
@@ -15651,7 +15668,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>1274</v>
       </c>
@@ -15668,7 +15685,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>1275</v>
       </c>
@@ -15685,7 +15702,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>1276</v>
       </c>
@@ -15702,7 +15719,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>1277</v>
       </c>
@@ -15719,7 +15736,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>81</v>
       </c>
@@ -15739,7 +15756,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>1289</v>
       </c>
@@ -15756,7 +15773,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>1290</v>
       </c>
@@ -15773,7 +15790,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>1291</v>
       </c>
@@ -15790,7 +15807,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>1292</v>
       </c>
@@ -15807,7 +15824,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>1293</v>
       </c>
@@ -15824,7 +15841,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>1294</v>
       </c>
@@ -15841,7 +15858,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>82</v>
       </c>
@@ -15861,7 +15878,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>1307</v>
       </c>
@@ -15878,7 +15895,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>85</v>
       </c>
@@ -15898,7 +15915,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>88</v>
       </c>
@@ -15918,7 +15935,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>89</v>
       </c>
@@ -15938,7 +15955,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>1312</v>
       </c>
@@ -15955,7 +15972,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>1313</v>
       </c>
@@ -15972,7 +15989,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>1314</v>
       </c>
@@ -15989,7 +16006,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>90</v>
       </c>
@@ -16009,7 +16026,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>1323</v>
       </c>
@@ -16026,7 +16043,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>1324</v>
       </c>
@@ -16043,7 +16060,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>91</v>
       </c>
@@ -16063,7 +16080,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>92</v>
       </c>
@@ -16083,7 +16100,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>95</v>
       </c>
@@ -16103,7 +16120,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -16123,7 +16140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>99</v>
       </c>
@@ -16143,7 +16160,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>1330</v>
       </c>
@@ -16160,7 +16177,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>1331</v>
       </c>
@@ -16177,7 +16194,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>1336</v>
       </c>
@@ -16194,7 +16211,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>1338</v>
       </c>
@@ -16211,7 +16228,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>1341</v>
       </c>
@@ -16228,7 +16245,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>1343</v>
       </c>
@@ -16245,7 +16262,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>1346</v>
       </c>
@@ -16262,7 +16279,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>1349</v>
       </c>
@@ -16279,7 +16296,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>1351</v>
       </c>
@@ -16296,7 +16313,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>102</v>
       </c>
@@ -16316,7 +16333,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>1355</v>
       </c>
@@ -16333,7 +16350,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>1357</v>
       </c>
@@ -16353,7 +16370,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>1360</v>
       </c>
@@ -16370,7 +16387,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>1361</v>
       </c>
@@ -16387,7 +16404,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>103</v>
       </c>
@@ -16404,7 +16421,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>104</v>
       </c>
@@ -16424,7 +16441,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>1367</v>
       </c>
@@ -16441,7 +16458,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>1368</v>
       </c>
@@ -16458,7 +16475,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>107</v>
       </c>
@@ -16478,7 +16495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>110</v>
       </c>
@@ -16498,7 +16515,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>111</v>
       </c>
@@ -16518,7 +16535,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>1375</v>
       </c>
@@ -16535,7 +16552,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -16555,7 +16572,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>1378</v>
       </c>
@@ -16572,7 +16589,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>115</v>
       </c>
@@ -16592,7 +16609,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>116</v>
       </c>
@@ -16612,7 +16629,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>1382</v>
       </c>
@@ -16629,7 +16646,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>1383</v>
       </c>
@@ -16646,7 +16663,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>1384</v>
       </c>
@@ -16663,7 +16680,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
         <v>119</v>
       </c>
@@ -16683,7 +16700,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
         <v>1391</v>
       </c>
@@ -16700,7 +16717,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>1392</v>
       </c>
@@ -16717,7 +16734,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>1393</v>
       </c>
@@ -16734,7 +16751,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>1394</v>
       </c>
@@ -16751,7 +16768,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>122</v>
       </c>
@@ -16771,7 +16788,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>123</v>
       </c>
@@ -16791,7 +16808,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>126</v>
       </c>
@@ -16811,7 +16828,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>127</v>
       </c>
@@ -16831,7 +16848,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>1406</v>
       </c>
@@ -16848,7 +16865,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>128</v>
       </c>
@@ -16868,7 +16885,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>1409</v>
       </c>
@@ -16885,7 +16902,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>1412</v>
       </c>
@@ -16902,7 +16919,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>1414</v>
       </c>
@@ -16919,7 +16936,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>1417</v>
       </c>
@@ -16936,7 +16953,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>131</v>
       </c>
@@ -16956,7 +16973,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>132</v>
       </c>
@@ -16976,7 +16993,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>133</v>
       </c>
@@ -16996,7 +17013,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
         <v>1422</v>
       </c>
@@ -17013,7 +17030,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>1423</v>
       </c>
@@ -17030,7 +17047,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>1424</v>
       </c>
@@ -17047,7 +17064,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>136</v>
       </c>
@@ -17067,7 +17084,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>1431</v>
       </c>
@@ -17084,7 +17101,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>1432</v>
       </c>
@@ -17101,7 +17118,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>6.14</v>
       </c>
@@ -17118,7 +17135,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>1438</v>
       </c>
@@ -17135,7 +17152,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
         <v>1440</v>
       </c>
@@ -17152,7 +17169,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>1441</v>
       </c>
@@ -17169,7 +17186,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>1442</v>
       </c>
@@ -17186,7 +17203,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>1449</v>
       </c>
@@ -17203,7 +17220,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
         <v>1451</v>
       </c>
@@ -17220,7 +17237,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>139</v>
       </c>
@@ -17240,7 +17257,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>140</v>
       </c>
@@ -17260,7 +17277,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>141</v>
       </c>
@@ -17280,7 +17297,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
         <v>1456</v>
       </c>
@@ -17297,7 +17314,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
         <v>144</v>
       </c>
@@ -17317,7 +17334,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>1459</v>
       </c>
@@ -17334,7 +17351,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
         <v>1460</v>
       </c>
@@ -17351,7 +17368,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
         <v>147</v>
       </c>
@@ -17371,7 +17388,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
         <v>148</v>
       </c>
@@ -17391,7 +17408,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
         <v>1466</v>
       </c>
@@ -17408,7 +17425,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
         <v>151</v>
       </c>
@@ -17428,7 +17445,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
         <v>154</v>
       </c>
@@ -17448,7 +17465,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
         <v>155</v>
       </c>
@@ -17468,7 +17485,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
         <v>156</v>
       </c>
@@ -17488,7 +17505,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
         <v>159</v>
       </c>
@@ -17508,7 +17525,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
         <v>162</v>
       </c>
@@ -17528,7 +17545,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
         <v>165</v>
       </c>
@@ -17548,7 +17565,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
         <v>168</v>
       </c>
@@ -17568,7 +17585,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>171</v>
       </c>
@@ -17588,7 +17605,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
         <v>174</v>
       </c>
@@ -17608,7 +17625,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>177</v>
       </c>
@@ -17628,7 +17645,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>180</v>
       </c>
@@ -17648,7 +17665,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
         <v>181</v>
       </c>
@@ -17668,7 +17685,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
         <v>184</v>
       </c>
@@ -17688,7 +17705,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
         <v>187</v>
       </c>
@@ -17708,7 +17725,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>190</v>
       </c>
@@ -17728,7 +17745,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>193</v>
       </c>
@@ -17748,7 +17765,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
         <v>196</v>
       </c>
@@ -17768,7 +17785,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>199</v>
       </c>
@@ -17788,7 +17805,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
         <v>202</v>
       </c>
@@ -17808,7 +17825,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>205</v>
       </c>
@@ -17828,7 +17845,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
         <v>208</v>
       </c>
@@ -17848,7 +17865,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
         <v>211</v>
       </c>
@@ -17868,7 +17885,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
         <v>212</v>
       </c>
@@ -17888,7 +17905,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>215</v>
       </c>
@@ -17908,7 +17925,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>218</v>
       </c>
@@ -17928,7 +17945,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>221</v>
       </c>
@@ -17948,7 +17965,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>222</v>
       </c>
@@ -17968,7 +17985,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>225</v>
       </c>
@@ -17988,7 +18005,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -18008,7 +18025,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
         <v>231</v>
       </c>
@@ -18028,7 +18045,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -18048,7 +18065,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
         <v>237</v>
       </c>
@@ -18068,7 +18085,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>238</v>
       </c>
@@ -18088,7 +18105,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -18108,7 +18125,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>244</v>
       </c>
@@ -18128,7 +18145,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>247</v>
       </c>
@@ -18148,7 +18165,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>250</v>
       </c>
@@ -18168,7 +18185,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>251</v>
       </c>
@@ -18188,7 +18205,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>252</v>
       </c>
@@ -18208,7 +18225,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>253</v>
       </c>
@@ -18228,7 +18245,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>256</v>
       </c>
@@ -18248,7 +18265,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>259</v>
       </c>
@@ -18268,7 +18285,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>262</v>
       </c>
@@ -18288,7 +18305,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>265</v>
       </c>
@@ -18308,7 +18325,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>268</v>
       </c>
@@ -18328,7 +18345,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>269</v>
       </c>
@@ -18348,7 +18365,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>272</v>
       </c>
@@ -18368,7 +18385,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>273</v>
       </c>
@@ -18388,7 +18405,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
         <v>276</v>
       </c>
@@ -18408,7 +18425,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
         <v>279</v>
       </c>
@@ -18428,7 +18445,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>282</v>
       </c>
@@ -18448,7 +18465,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
         <v>283</v>
       </c>
@@ -18468,7 +18485,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
         <v>286</v>
       </c>
@@ -18488,7 +18505,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>288</v>
       </c>
@@ -18508,7 +18525,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
         <v>291</v>
       </c>
@@ -18528,7 +18545,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
         <v>294</v>
       </c>
@@ -18548,7 +18565,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
         <v>297</v>
       </c>
@@ -18568,7 +18585,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>300</v>
       </c>
@@ -18588,7 +18605,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
         <v>303</v>
       </c>
@@ -18617,18 +18634,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
     <col min="5" max="5" width="133.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18645,7 +18663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>306</v>
       </c>
@@ -18662,7 +18680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>307</v>
       </c>
@@ -18679,7 +18697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>308</v>
       </c>
@@ -18696,7 +18714,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>311</v>
       </c>
@@ -18713,7 +18731,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>312</v>
       </c>
@@ -18730,7 +18748,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -18747,7 +18765,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>316</v>
       </c>
@@ -18764,7 +18782,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>318</v>
       </c>
@@ -18781,7 +18799,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>321</v>
       </c>
@@ -18798,7 +18816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="290" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="130.5">
       <c r="A11" t="s">
         <v>322</v>
       </c>
@@ -18815,7 +18833,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>325</v>
       </c>
@@ -18832,7 +18850,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="116">
       <c r="A13" t="s">
         <v>327</v>
       </c>
@@ -18849,7 +18867,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="72.5">
       <c r="A14" t="s">
         <v>330</v>
       </c>
@@ -18866,7 +18884,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>333</v>
       </c>
@@ -18880,7 +18898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="116">
       <c r="A16" t="s">
         <v>334</v>
       </c>
@@ -18897,7 +18915,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>336</v>
       </c>
@@ -18914,7 +18932,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>338</v>
       </c>
@@ -18931,7 +18949,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>341</v>
       </c>
@@ -18948,7 +18966,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>343</v>
       </c>
@@ -18965,7 +18983,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>345</v>
       </c>
@@ -18982,7 +19000,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>348</v>
       </c>
@@ -18999,7 +19017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>349</v>
       </c>
@@ -19016,7 +19034,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>353</v>
       </c>
@@ -19033,7 +19051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>355</v>
       </c>
@@ -19050,7 +19068,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>358</v>
       </c>
@@ -19067,7 +19085,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>360</v>
       </c>
@@ -19084,7 +19102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>361</v>
       </c>
@@ -19101,7 +19119,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>364</v>
       </c>
@@ -19118,7 +19136,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>366</v>
       </c>
@@ -19135,7 +19153,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="72.5">
       <c r="A31" t="s">
         <v>369</v>
       </c>
@@ -19152,7 +19170,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>371</v>
       </c>
@@ -19169,7 +19187,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="391.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="145">
       <c r="A33" t="s">
         <v>374</v>
       </c>
@@ -19186,7 +19204,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="159.5">
       <c r="A34" t="s">
         <v>375</v>
       </c>
@@ -19203,7 +19221,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>2074</v>
       </c>
@@ -19217,7 +19235,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>2070</v>
       </c>
@@ -19234,7 +19252,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>2071</v>
       </c>
@@ -19251,7 +19269,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>2072</v>
       </c>
@@ -19268,7 +19286,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>2073</v>
       </c>
@@ -19285,7 +19303,14 @@
         <v>136</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="C46" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" location="_Toc506801611" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="D17" r:id="rId2" location="_Toc506801616" xr:uid="{B1D4C095-DAD5-4390-8A54-75195BCC7997}"/>
@@ -19308,9 +19333,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19327,7 +19352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="4" customFormat="1">
       <c r="A2" s="4" t="s">
         <v>1890</v>
       </c>
@@ -19344,7 +19369,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>384</v>
       </c>
@@ -19358,7 +19383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -19375,7 +19400,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>387</v>
       </c>
@@ -19392,7 +19417,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>390</v>
       </c>
@@ -19409,7 +19434,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>393</v>
       </c>
@@ -19426,7 +19451,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>395</v>
       </c>
@@ -19443,7 +19468,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>397</v>
       </c>
@@ -19460,7 +19485,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>400</v>
       </c>
@@ -19474,7 +19499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>401</v>
       </c>
@@ -19491,7 +19516,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>403</v>
       </c>
@@ -19508,7 +19533,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>405</v>
       </c>
@@ -19525,7 +19550,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>408</v>
       </c>
@@ -19542,7 +19567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>410</v>
       </c>
@@ -19559,7 +19584,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>413</v>
       </c>
@@ -19576,7 +19601,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>416</v>
       </c>
@@ -19593,7 +19618,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="217.5">
       <c r="A18" t="s">
         <v>419</v>
       </c>
@@ -19610,7 +19635,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>421</v>
       </c>
@@ -19627,7 +19652,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>424</v>
       </c>
@@ -19644,7 +19669,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="304.5">
       <c r="A21" t="s">
         <v>426</v>
       </c>
@@ -19661,7 +19686,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>427</v>
       </c>
@@ -19678,7 +19703,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>1897</v>
       </c>
@@ -19695,7 +19720,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>431</v>
       </c>
@@ -19712,7 +19737,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>432</v>
       </c>
@@ -19729,7 +19754,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>433</v>
       </c>
@@ -19746,7 +19771,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>436</v>
       </c>
@@ -19763,7 +19788,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>1888</v>
       </c>
@@ -19791,15 +19816,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19815,8 +19840,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>442</v>
       </c>
@@ -19829,8 +19860,14 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="409.5">
       <c r="A3" t="s">
         <v>443</v>
       </c>
@@ -19846,8 +19883,14 @@
       <c r="E3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="409.5">
       <c r="A4" t="s">
         <v>445</v>
       </c>
@@ -19863,8 +19906,14 @@
       <c r="E4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>447</v>
       </c>
@@ -19880,8 +19929,14 @@
       <c r="E5" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>447</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>449</v>
       </c>
@@ -19894,8 +19949,14 @@
       <c r="D6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>449</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="409.5">
       <c r="A7" t="s">
         <v>1977</v>
       </c>
@@ -19908,8 +19969,14 @@
       <c r="E7" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>1899</v>
       </c>
@@ -19925,8 +19992,14 @@
       <c r="E8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>1899</v>
+      </c>
+      <c r="G8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>450</v>
       </c>
@@ -19942,8 +20015,14 @@
       <c r="E9" t="s">
         <v>1904</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>452</v>
       </c>
@@ -19959,8 +20038,14 @@
       <c r="E10" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>376</v>
       </c>
@@ -19973,8 +20058,14 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>455</v>
       </c>
@@ -19990,8 +20081,14 @@
       <c r="E12" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="s">
+        <v>455</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>457</v>
       </c>
@@ -20007,8 +20104,14 @@
       <c r="E13" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>457</v>
+      </c>
+      <c r="G13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>460</v>
       </c>
@@ -20024,8 +20127,14 @@
       <c r="E14" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>460</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>463</v>
       </c>
@@ -20041,8 +20150,14 @@
       <c r="E15" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>463</v>
+      </c>
+      <c r="G15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>466</v>
       </c>
@@ -20058,8 +20173,14 @@
       <c r="E16" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>466</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>468</v>
       </c>
@@ -20075,8 +20196,14 @@
       <c r="E17" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>468</v>
+      </c>
+      <c r="G17" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>471</v>
       </c>
@@ -20092,8 +20219,14 @@
       <c r="E18" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>471</v>
+      </c>
+      <c r="G18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>474</v>
       </c>
@@ -20108,6 +20241,12 @@
       </c>
       <c r="E19" t="s">
         <v>1881</v>
+      </c>
+      <c r="F19" t="s">
+        <v>474</v>
+      </c>
+      <c r="G19" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -20130,9 +20269,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20149,7 +20288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="377" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="377">
       <c r="A2" t="s">
         <v>1913</v>
       </c>
@@ -20166,7 +20305,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>1916</v>
       </c>
@@ -20183,7 +20322,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -20200,7 +20339,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>483</v>
       </c>
@@ -20217,7 +20356,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>486</v>
       </c>
@@ -20234,7 +20373,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>488</v>
       </c>
@@ -20251,7 +20390,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>455</v>
       </c>
@@ -20268,7 +20407,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="319" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="319">
       <c r="A9" t="s">
         <v>493</v>
       </c>
@@ -20285,7 +20424,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>496</v>
       </c>
@@ -20302,7 +20441,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>457</v>
       </c>
@@ -20319,7 +20458,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>460</v>
       </c>
@@ -20336,7 +20475,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>502</v>
       </c>
@@ -20353,7 +20492,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>504</v>
       </c>
@@ -20370,7 +20509,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>463</v>
       </c>
@@ -20406,9 +20545,9 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20425,7 +20564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>511</v>
       </c>
@@ -20442,7 +20581,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>513</v>
       </c>
@@ -20459,7 +20598,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>516</v>
       </c>
@@ -20476,7 +20615,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>518</v>
       </c>
@@ -20493,7 +20632,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>520</v>
       </c>
@@ -20510,7 +20649,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>522</v>
       </c>
@@ -20527,7 +20666,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>523</v>
       </c>
@@ -20544,7 +20683,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>1941</v>
       </c>
@@ -20561,7 +20700,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>524</v>
       </c>
@@ -20578,7 +20717,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>525</v>
       </c>
@@ -20595,7 +20734,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>526</v>
       </c>
@@ -20612,7 +20751,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>529</v>
       </c>
@@ -20629,7 +20768,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>530</v>
       </c>
@@ -20646,7 +20785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>531</v>
       </c>
@@ -20663,7 +20802,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>533</v>
       </c>
@@ -20680,7 +20819,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>535</v>
       </c>
@@ -20697,7 +20836,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>537</v>
       </c>
@@ -20714,7 +20853,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>539</v>
       </c>
@@ -20731,7 +20870,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>540</v>
       </c>
@@ -20748,7 +20887,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>541</v>
       </c>
@@ -20765,7 +20904,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>1948</v>
       </c>
@@ -20782,7 +20921,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>1950</v>
       </c>
@@ -20799,7 +20938,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>543</v>
       </c>
@@ -20833,12 +20972,12 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="20.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20855,7 +20994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>510</v>
       </c>
@@ -20872,7 +21011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>545</v>
       </c>
@@ -20886,7 +21025,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>513</v>
       </c>
@@ -20900,7 +21039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="256.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="256.5" customHeight="1">
       <c r="A5" t="s">
         <v>547</v>
       </c>
@@ -20914,7 +21053,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>548</v>
       </c>
@@ -20928,7 +21067,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>551</v>
       </c>
@@ -20942,7 +21081,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>554</v>
       </c>
@@ -20956,7 +21095,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>556</v>
       </c>
@@ -20970,7 +21109,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>558</v>
       </c>
@@ -20984,7 +21123,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>559</v>
       </c>
@@ -20998,7 +21137,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>561</v>
       </c>
@@ -21009,7 +21148,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="409.5">
       <c r="A13" t="s">
         <v>562</v>
       </c>
@@ -21023,7 +21162,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>563</v>
       </c>
@@ -21037,7 +21176,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>565</v>
       </c>
@@ -21051,7 +21190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>566</v>
       </c>
@@ -21065,7 +21204,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>567</v>
       </c>
@@ -21079,7 +21218,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>569</v>
       </c>
@@ -21093,7 +21232,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>1969</v>
       </c>
@@ -21107,7 +21246,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>571</v>
       </c>
@@ -21121,7 +21260,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="130.5">
       <c r="A21" t="s">
         <v>573</v>
       </c>
@@ -21135,7 +21274,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>518</v>
       </c>
@@ -21166,13 +21305,13 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21189,7 +21328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -21203,7 +21342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>575</v>
       </c>
@@ -21214,7 +21353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>576</v>
       </c>
@@ -21225,7 +21364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="40.15" customHeight="1">
       <c r="A5" t="s">
         <v>577</v>
       </c>
@@ -21242,7 +21381,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>579</v>
       </c>
@@ -21259,7 +21398,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>1990</v>
       </c>
@@ -21276,7 +21415,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -21293,7 +21432,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="51" customHeight="1">
       <c r="A9" t="s">
         <v>1992</v>
       </c>
@@ -21310,7 +21449,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>581</v>
       </c>
@@ -21321,7 +21460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>1995</v>
       </c>
@@ -21338,7 +21477,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>1997</v>
       </c>
@@ -21355,7 +21494,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>582</v>
       </c>
@@ -21372,7 +21511,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="50.15" customHeight="1">
       <c r="A14" t="s">
         <v>2000</v>
       </c>
@@ -21389,7 +21528,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>584</v>
       </c>
@@ -21400,7 +21539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="50.15" customHeight="1">
       <c r="A16" t="s">
         <v>585</v>
       </c>
@@ -21417,7 +21556,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>586</v>
       </c>
@@ -21428,7 +21567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="31.5" customHeight="1">
       <c r="A18" t="s">
         <v>587</v>
       </c>
@@ -21445,7 +21584,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="31.5" customHeight="1">
       <c r="A19" t="s">
         <v>2004</v>
       </c>
@@ -21462,7 +21601,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="31.5" customHeight="1">
       <c r="A20" t="s">
         <v>2007</v>
       </c>
@@ -21479,7 +21618,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="31.5" customHeight="1">
       <c r="A21" t="s">
         <v>2009</v>
       </c>
@@ -21496,7 +21635,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="50.15" customHeight="1">
       <c r="A22" t="s">
         <v>588</v>
       </c>
@@ -21513,7 +21652,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="50.15" customHeight="1">
       <c r="A23" t="s">
         <v>589</v>
       </c>
@@ -21530,7 +21669,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="50.15" customHeight="1">
       <c r="A24" t="s">
         <v>590</v>
       </c>
@@ -21547,7 +21686,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="50.15" customHeight="1">
       <c r="A25" t="s">
         <v>591</v>
       </c>
@@ -21564,7 +21703,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>592</v>
       </c>
@@ -21575,7 +21714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="50.15" customHeight="1">
       <c r="A27" t="s">
         <v>2022</v>
       </c>
@@ -21592,7 +21731,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>593</v>
       </c>
@@ -21609,7 +21748,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>594</v>
       </c>
@@ -21620,7 +21759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="50.15" customHeight="1">
       <c r="A30" t="s">
         <v>595</v>
       </c>

--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B689EC7F-E599-4F4F-B1CD-D9FD2446C30E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A3C43D2-9EC0-4295-9F9A-34DBDFA24E70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5780" yWindow="1680" windowWidth="19200" windowHeight="9980" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4044" uniqueCount="2103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="2108">
   <si>
     <t>id</t>
   </si>
@@ -7168,6 +7168,21 @@
   </si>
   <si>
     <t>zh_HK-body</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This is a note.</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>isoid</t>
+  </si>
+  <si>
+    <t>Another note.</t>
   </si>
 </sst>
 </file>
@@ -13776,7 +13791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G260"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C234" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -19816,10 +19831,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20247,6 +20262,44 @@
       </c>
       <c r="G19" t="s">
         <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>474</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2107</v>
       </c>
     </row>
   </sheetData>
@@ -21786,15 +21839,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -22045,7 +22089,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
@@ -22054,15 +22098,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22081,7 +22126,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -22089,4 +22134,12 @@
     <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B911200-91E3-4F5D-9685-87BC684E29BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719F5EC7-5D72-4677-9E50-863125BD9E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="2821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="2808">
   <si>
     <t>id</t>
   </si>
@@ -7217,9 +7217,6 @@
     <t>95 Rules and regulations to be laid before Parliament</t>
   </si>
   <si>
-    <t>5.2.1; 5.2.3, 5.2.4</t>
-  </si>
-  <si>
     <t>(1) The Authority may, by notification, make regulations consistent with this Act and the rules made thereunder to carry out the provisions of this Act.
 (2) In particular and without prejudice to the generality of the foregoing power, such regulations may provide for all or any of the following matters, namely:—
 (a) information required to be provided by the data fiduciary to the data principal in its notice under clause (n) of sub-section (1) of section 7;
@@ -7327,9 +7324,6 @@
     <t>86 Power of Central Government to issue directions</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.1;5.2.2; 5.3.3; 5.3.1; </t>
-  </si>
-  <si>
     <t>(1) Where it has been proved that an offence under this Act has been committed by any department or authority or body of the State, by whatever name called, the head of such department or authority or body shall be deemed to be guilty of the offence and shall be liable to be proceeded against and punished accordingly.
 (2) Nothing contained in sub-section (1) shall render any such person liable to any punishment provided in this Act, if he proves that the offence was committed without his knowledge or that he had exercised all due diligence to prevent the commission of such offence.
 (3) Notwithstanding anything contained in sub-section (1), where an offence under this Act has been committed by a department of the Central or State Government, or any authority of the State and it is proved that the offence has been committed with the consent or connivance of, or is attributable to any neglect on the part of, any officer, other than the head of the department or authority, such officer shall also be deemed to be guilty of the offence and shall be liable to be proceeded against and punished accordingly.
@@ -7358,17 +7352,11 @@
     <t>• The penalty provisions under both regimes are similar, with the exception of the PDPB’s criminal liability provisions, which are relatively narrow</t>
   </si>
   <si>
-    <t>5.2.1; 5.6.2; 5.4.1;5.2.2; 5.2.3</t>
-  </si>
-  <si>
     <t>(1) Notwithstanding anything contained in the Code of Criminal Procedure, 1973, an offence punishable under this Act shall be cognizable and non-bailable.
 (2) No court shall take cognizance of any offence under this Act, save on a complaint made by the Authority.</t>
   </si>
   <si>
     <t>83 Offences to be cognizable and nonbailable</t>
-  </si>
-  <si>
-    <t>6.15.2.3; 6.13.1; 6.13.1.5</t>
   </si>
   <si>
     <t>(1) Any person who, knowingly or intentionally—
@@ -7422,9 +7410,6 @@
   </si>
   <si>
     <t>77 Civil court not to have jurisdiction</t>
-  </si>
-  <si>
-    <t>6.13.1.5; 6.3.1.1.</t>
   </si>
   <si>
     <t>The applicant or appellant may either appear in person or authorise one or more legal practitioners or any of its officers to present his or its case before the Appellate Tribunal.</t>
@@ -7530,9 +7515,6 @@
     <t>66 Recovery of amounts</t>
   </si>
   <si>
-    <t>5.2.1; 5.2.2.</t>
-  </si>
-  <si>
     <t>No compensation awarded, or penalty imposed, under this Act shall prevent the award of compensation or imposition of any other penalty or punishment under this Act or any other law for the time being in force.</t>
   </si>
   <si>
@@ -7545,27 +7527,18 @@
     <t>(7) Any person aggrieved by an order made under this section by the Adjudicating Officer may prefer an appeal to the Appellate Tribunal.</t>
   </si>
   <si>
-    <t>7.2.6; 7.2.7;8.2.1;</t>
-  </si>
-  <si>
     <t>(6) Where a data fiduciary or a data processor has, in accordance with sub-section (5), paid the entire amount of compensation for the harm suffered by the data principal, such data fiduciary or data processor shall be entitled to claim from the other data fiduciaries or data processors, as the case may be, that amount of compensation corresponding to their part of responsibility for the harm caused.</t>
   </si>
   <si>
     <t>(5) Where more than one data fiduciary or data processor, or both a data fiduciary and a data processor are involved in the same processing activity and are found to have caused harm to the data principal, then, each data fiduciary or data processor may be ordered to pay the entire compensation for the harm to ensure effective and speedy compensation to the data principal.</t>
   </si>
   <si>
-    <t>6.13.1.1; 5.2.2; 5.4.1.2; 5.6.12</t>
-  </si>
-  <si>
     <t>(h) any other aggravating or mitigating factor relevant to the circumstances of the case, such as, the amount of disproportionate gain or unfair advantage, wherever quantifiable, made as a result of the default.</t>
   </si>
   <si>
     <t>64.4.h</t>
   </si>
   <si>
-    <t>7.3.2; 7.3.3.; 7.2.8; 8.3.1; 6.15.2</t>
-  </si>
-  <si>
     <t>(g) whether the arrangement between the data fiduciary and data processor contains adequate transparency and accountability measures to safeguard the personal data being processed by the data processor on behalf of the data fiduciary;</t>
   </si>
   <si>
@@ -7576,9 +7549,6 @@
   </si>
   <si>
     <t>64.4.f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.13.1.1; 5.4.1.3; 5.6.3; </t>
   </si>
   <si>
     <t>(e) action taken by the data fiduciary or the data processor, as the case may be, to mitigate the damage suffered by the data principal;</t>
@@ -7612,16 +7582,10 @@
     <t>64.4.a</t>
   </si>
   <si>
-    <t>7.3.2; 7.3.9</t>
-  </si>
-  <si>
     <t>(3) Where there are one or more data principals or any identifiable class of data principals who have suffered harm as a result of any contravention by the same data fiduciary or data processor, one complaint may be instituted on behalf of all such data principals seeking compensation for the harm suffered.</t>
   </si>
   <si>
     <t>(2) The data principal may seek compensation under this section by making a complaint to the Adjudicating Officer in such form and manner as may be prescribed.</t>
-  </si>
-  <si>
-    <t>5.2.2; 5.2.3; 5.2.4; 5.4.1.2; 5.6.2; 6.13.1.1.5; 7.3.9;7.2.6; 8.2.1</t>
   </si>
   <si>
     <t xml:space="preserve">(1) Any data principal who has suffered harm as a result of any violation of any provision under this Act or the rules or regulations made thereunder, by a data fiduciary or a data processor, shall have the right to seek compensation from the data fiduciary or the data processor, as the case may be.
@@ -7665,9 +7629,6 @@
     <t>62 Appointment of Adjudicating Officer</t>
   </si>
   <si>
-    <t>5.2.1; 5.2.2; 6.13.1.1; 6.13.1.5</t>
-  </si>
-  <si>
     <t>Where any person fails to comply with any provision of this Act or the rules or regulations made thereunder applicable to such person, for which no separate penalty has been provided, then, such person shall be liable to a penalty which may extend to a maximum of one crore rupees in case of significant data fiduciaries, and a maximum of  twenty five lakh rupees in other cases.</t>
   </si>
   <si>
@@ -7683,18 +7644,12 @@
     <t>60 Penalty for failure to comply with direction or order issued by Authority</t>
   </si>
   <si>
-    <t>5.2.1; 5.2.2; 5.4.1.2; 5.6.2</t>
-  </si>
-  <si>
     <t>If any data fiduciary, who is required under this Act, or the rules or regulations made thereunder, to furnish any report, return or information to the Authority, fails to furnish the same, then such data fiduciary shall be liable to penalty which shall be ten thousand rupees for each day during which such default continues, subject to a maximum of twenty lakh rupees in case of significant data fiduciaries and five lakh rupees in other cases.</t>
   </si>
   <si>
     <t>59 Penalty for failure to furnish report, returns, information, etc</t>
   </si>
   <si>
-    <t>7.3.9; 5.2.2; 7.3.3</t>
-  </si>
-  <si>
     <t>Where, any data fiduciary, without any reasonable explanation, fails to comply with any request made by a data principal under Chapter V, such data fiduciary shall be liable to a penalty of five thousand rupees for each day during which such default continues, subject to a maximum of ten lakh rupees in case of significant data fiduciaries and five lakh rupees in other cases.</t>
   </si>
   <si>
@@ -7740,34 +7695,22 @@
     <t>(3) For the purposes of this section,—</t>
   </si>
   <si>
-    <t>7.5.1; 7.5.2; 8.5.1; 8.5.2</t>
-  </si>
-  <si>
     <t>(d) transfer of personal data outside India in violation of the provisions of Chapter VII,</t>
   </si>
   <si>
     <t>57.2.d</t>
   </si>
   <si>
-    <t>7.4.4; 6.11.1.2;6.5.3.1;6.5.3.3;6.7.1.1;7.4.5</t>
-  </si>
-  <si>
     <t>(c) failure to adhere to security safeguards as per section 24; or</t>
   </si>
   <si>
     <t>57.2.c</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.3; </t>
-  </si>
-  <si>
     <t>(b)  processing of personal data of children in violation of the provisions of Chapter IV;</t>
   </si>
   <si>
     <t>57.2.b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2.1; 5.2.2; 7.2.1, 7.2.2, 7.2.3, 7.4; 7.3.2; 7.3.3; 7.4.3; 7.4.7; </t>
   </si>
   <si>
     <t>(a) processing of personal data in violation of the provisions of Chapter II or Chapter III;</t>
@@ -7787,9 +7730,6 @@
     <t>57.1.e</t>
   </si>
   <si>
-    <t xml:space="preserve">6.15.2.1; 5.2.1; 5.2.2; 6.3.1.1;  6.3.1.3; </t>
-  </si>
-  <si>
     <t>(d) obligation to conduct a data audit by a significant data fiduciary under section 29;</t>
   </si>
   <si>
@@ -7800,9 +7740,6 @@
   </si>
   <si>
     <t>57.1.c</t>
-  </si>
-  <si>
-    <t>5.1.2; 5.2.2; 5.2.3; 5.2.4; 6.3.1.3</t>
   </si>
   <si>
     <t>(b) failure to register with the Authority under sub-section (2) of section 26,</t>
@@ -7816,9 +7753,6 @@
   </si>
   <si>
     <t>57.1.a</t>
-  </si>
-  <si>
-    <t>5.2.2; 5.4.1.2; 5.6.2</t>
   </si>
   <si>
     <t>(1) Where the data fiduciary contravenes any of the following provisions,—
@@ -8022,9 +7956,6 @@
     <t>41 Establishment of Authority</t>
   </si>
   <si>
-    <t>7.3.10; 5.2.1;5.2.2;5.2.3;5.2.4</t>
-  </si>
-  <si>
     <t>(1) The Authority shall, for the purposes of encouraging innovation in artificial intelligence, machine-learning or any other emerging technology in public interest, create a Sandbox.
 (2) Any data fiduciary whose privacy by design policy is certified by the Authority under sub-section (3) of section 22 shall be eligible to apply, in such manner as may be specified by regulations, for inclusion in the Sandbox created under sub-section (1).
 (3) Any data fiduciary applying for inclusion in the Sandbox under sub-section (2) shall furnish the following information, namely:—
@@ -8076,9 +8007,6 @@
     <t>39 Exemption for manual processing by small entities</t>
   </si>
   <si>
-    <t>7.2.5; 5.2.1;5.2.2;5.2.3;5.2.4</t>
-  </si>
-  <si>
     <t>(e) the personal data shall not be processed in the manner that gives rise to a risk of significant harm to the data principal,</t>
   </si>
   <si>
@@ -8104,9 +8032,6 @@
   </si>
   <si>
     <t>The PDPB permits the DPA to exempt classes of research from the application of the bill, but unless and until the DPA takes such action, there is no basis for processing for research purposes</t>
-  </si>
-  <si>
-    <t>7.2.2; 5.2.1; 5.2.; 5.2.3</t>
   </si>
   <si>
     <t>(a) the compliance with the provisions of this Act shall disproportionately divert resources from such purpose;</t>
@@ -8129,9 +8054,6 @@
     <t>37 Power of Central Government to exempt certain data processors</t>
   </si>
   <si>
-    <t>7.2.2; 5.3.2,5.2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">(e) processing of personal data is necessary for or relevant to a journalistic purpose, by any person and is in compliance with any code of ethics issued by the Press Council of India, or by any media self-regulatory organisation. </t>
   </si>
   <si>
@@ -8174,9 +8096,6 @@
   </si>
   <si>
     <t>the Central Government has broad authority to exempt any government agency from any or all provisions in the interest of sovereignty, security, public order, integrity of the state and friendly relations with foreign states, or for preventing incitement of cognizable offences against the foregoing</t>
-  </si>
-  <si>
-    <t>5.2.1; 5.2.2; 5.2.3; 5.2.4</t>
   </si>
   <si>
     <t xml:space="preserve">(i) in the interest of sovereignty and integrity of India, the security of the State, friendly relations with foreign States, public order; or 
@@ -8197,13 +8116,7 @@
     <t>35 Power of Central Government to exempt any agency of Government from application of Act.</t>
   </si>
   <si>
-    <t>7.5.1; 8.5.1</t>
-  </si>
-  <si>
     <t>(3) Any transfer under clause (a) of sub-section (2) shall be notified to the Authority within such period as may be specified by regulations.</t>
-  </si>
-  <si>
-    <t>7.5.2; 8.5.2</t>
   </si>
   <si>
     <t xml:space="preserve">(b) to a country or, any entity or class of entity in a country or, to an international organisation, where the Central Government has deemed such transfer to be permissible under clause (b) of sub-section (1) and where such transfer in the opinion of the Central Government does not prejudicially affect the security and strategic interest of the State. </t>
@@ -8252,9 +8165,6 @@
     <t>34.1.a.ii</t>
   </si>
   <si>
-    <t>7.5.3; 8.5.37.5.4; 8.5.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Provided that such contract or intra-group scheme shall not be approved, unless it makes the provisions for—
 (i) effective protection of the rights of the data principal under this Act, including in relation to further transfer to any other person; and
 </t>
@@ -8266,9 +8176,6 @@
     <t>Although the PDPB envisions transfer mechanisms similar to the GDPR’s safeguards, this would not eliminate the need to collect explicit consent.</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5.1; 8.5.1; 7.5.2; 8.5.2; </t>
-  </si>
-  <si>
     <t xml:space="preserve"> (1) The sensitive personal data may only be transferred outside India for the purpose of processing, when explicit consent is given by the data principal for such transfer, and where—
 (a) the transfer is made pursuant to a contract or intra-group scheme approved by the Authority: 
 </t>
@@ -8293,9 +8200,6 @@
     <t>33 Prohibition on processing of sensitive personal data and critical personal data outside India</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3.9; 7.3.2; </t>
-  </si>
-  <si>
     <t>(4)  Where a complaint is not resolved within the period specified under sub-section (3), or where the data principal is not satisfied with the manner in which the complaint is resolved, or the data fiduciary has rejected the complaint, the data principal may file a complaint to the Authority in such manner as may be prescribed.</t>
   </si>
   <si>
@@ -8322,9 +8226,6 @@
     <t>32 Grievance redressal by data fiduciary</t>
   </si>
   <si>
-    <t>8.2.1; 8.2.2; 7.2.6; 7.2.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">(3) The data processor, and any employee of the data fiduciary or the data processor, shall only process personal data in accordance with the instructions of the data fiduciary and treat it confidential. </t>
   </si>
   <si>
@@ -8335,9 +8236,6 @@
   </si>
   <si>
     <t>• Although the PDPB includes requirements for contracting with processors, these requirements are less prescriptive than the equivalent GDPR provisions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.6; 7.2.7; 8.2.1; </t>
   </si>
   <si>
     <t xml:space="preserve">(1) The data fiduciary shall not engage, appoint, use or involve a data processor to process personal data on its behalf without a contract entered into by the data fiduciary and such data processor.
@@ -8366,9 +8264,6 @@
   </si>
   <si>
     <t xml:space="preserve">(d) providing advice to the data fiduciary on the development of internal mechanisms to satisfy the principles specified under section 22; </t>
-  </si>
-  <si>
-    <t>6.3.1.1, 7.2.8</t>
   </si>
   <si>
     <t xml:space="preserve">(c) providing advice to the data fiduciary on carrying out the data protection impact assessments, and carry out its review under sub-section (4) of section 27; </t>
@@ -8447,9 +8342,6 @@
     <t>• The GDPR contains no similar audit requirement.</t>
   </si>
   <si>
-    <t>5.2.2; 6.15.2.1; 6.9.7</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (1) The significant data fiduciary shall have its policies and the conduct of its processing of personal data audited annually by an independent data auditor under this Act. 
 </t>
   </si>
@@ -8481,9 +8373,6 @@
     <t>28.1.c</t>
   </si>
   <si>
-    <t>6.15.2.1;6.15.2.2; 6.15.2.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">(b)  periodic review of security safeguards under section 24; </t>
   </si>
   <si>
@@ -8491,9 +8380,6 @@
   </si>
   <si>
     <t>The PDPB record of processing requirements appear to be more flexible than those under the GDPR and will likely apply to a small proportion of companies subject to the framework.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2.8; 7.5.3; 7.5.4; </t>
   </si>
   <si>
     <t xml:space="preserve"> (1) The significant data fiduciary shall maintain accurate and up-to-date records of the following, in such form and manner as may be specified by regulations, namely:— 
@@ -8507,9 +8393,6 @@
     <t xml:space="preserve">28 Maintenance of records </t>
   </si>
   <si>
-    <t>7.2.5, 7.2.8</t>
-  </si>
-  <si>
     <t xml:space="preserve">(5) On receipt of the assessment and its review, if the Authority has reason to believe that the processing is likely to cause harm to the data principals, the Authority may direct the data fiduciary to cease such processing or direct that such processing shall be subject to such conditions as the Authority may deem fit. </t>
   </si>
   <si>
@@ -8539,9 +8422,6 @@
   </si>
   <si>
     <t xml:space="preserve">(2) The Authority may, by regulations specify, such circumstances, or class of data fiduciary, or processing operation where such data protection impact assessment shall be mandatory, and also specify the instances where a data auditor under this Act shall be engaged by the data fiduciary to undertake a data protection impact assessment. </t>
-  </si>
-  <si>
-    <t>7.2.5, 8.2.1</t>
   </si>
   <si>
     <t xml:space="preserve"> (1) Where the significant data fiduciary intends to undertake any processing involving new technologies or large scale profiling or use of sensitive personal data such as genetic data or biometric data, or any other processing which carries a risk of significant harm to data principals, such processing shall not be commenced unless the data fiduciary has undertaken a data protection impact assessment in accordance with the provisions of this section.
@@ -8564,9 +8444,6 @@
     <t xml:space="preserve">(2) The data fiduciary or class of data fiduciary referred to in sub-section (1) shall register itself with the Authority in such manner as may be specified by regulations. </t>
   </si>
   <si>
-    <t>5.1.2; 5.1.2; 6.2.12; 6.2.1.2;</t>
-  </si>
-  <si>
     <t>(f)  any other factor causing harm from such processing.</t>
   </si>
   <si>
@@ -8667,9 +8544,6 @@
     <t xml:space="preserve">25 Reporting of personal data breach </t>
   </si>
   <si>
-    <t>6.15.2; 6.15.2.1; 6.15.2.2; 6.15.2.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">(2) Every data fiduciary and data processor shall undertake a review of its security safeguards periodically in such manner as may be specified by regulations and take appropriate measures accordingly. </t>
   </si>
   <si>
@@ -8702,15 +8576,9 @@
     <t>(4) Where the data principal gives or withdraws consent to the data fiduciary through a consent manager, such consent or its withdrawal shall be deemed to have been communicated directly by the data principal.</t>
   </si>
   <si>
-    <t>7.2.4; 7.2.3</t>
-  </si>
-  <si>
     <t>(3) The data principal may give or withdraw his consent to the data fiduciary through a consent manager.</t>
   </si>
   <si>
-    <t>7.3.2; 7.3.3</t>
-  </si>
-  <si>
     <t>(2)  The data fiduciary shall notify, from time to time, the important operations in the processing of personal data related to the data principal in such manner as may be specified by regulations.</t>
   </si>
   <si>
@@ -8748,9 +8616,6 @@
   </si>
   <si>
     <t>23.1.d</t>
-  </si>
-  <si>
-    <t>7.2.3; 7.3.2; 7.3.3</t>
   </si>
   <si>
     <t xml:space="preserve">(c)  any categories of personal data processed in exceptional situations or any exceptional purposes of processing that create a risk of significant harm; </t>
@@ -8794,9 +8659,6 @@
     <t>22.1.g</t>
   </si>
   <si>
-    <t>7.3.1,; 7.3.2; 7.3.3;</t>
-  </si>
-  <si>
     <t xml:space="preserve">(f)  the processing of personal data in a transparent manner; and </t>
   </si>
   <si>
@@ -8809,27 +8671,18 @@
     <t>22.1.e</t>
   </si>
   <si>
-    <t>6.3.1.5; 7.3.10</t>
-  </si>
-  <si>
     <t xml:space="preserve">(d) the legitimate interests of businesses including any innovation is achieved without compromising privacy interests; </t>
   </si>
   <si>
     <t>22.1.d</t>
   </si>
   <si>
-    <t>6.11.2.5; 6.9.1.4; 6.9.3.1;6.9.4.1; 6.9.4.2; 6.9.6;7.4.9</t>
-  </si>
-  <si>
     <t xml:space="preserve">(c) the technology used in the processing of personal data is in accordance with commercially accepted or certified standards; </t>
   </si>
   <si>
     <t>22.1.c</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3; </t>
-  </si>
-  <si>
     <t xml:space="preserve">(b)  the obligations of data fiduciaries; </t>
   </si>
   <si>
@@ -8837,9 +8690,6 @@
   </si>
   <si>
     <t>The PDPB’s privacy-by-design requirements appear to be aimed in particular at the development of policies and documentation, whereas the GDPR accords controllers with greater flexibility in how they will implement the requirement.</t>
-  </si>
-  <si>
-    <t>7.4.4, 6.15.1.3;6.2.1.1,7.2.8</t>
   </si>
   <si>
     <t xml:space="preserve">(1) Every data fiduciary shall prepare a privacy by design policy, containing— 
@@ -8853,9 +8703,6 @@
     <t xml:space="preserve">22 Privacy by design policy </t>
   </si>
   <si>
-    <t>7.3.9; 7.3.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">(5) The data fiduciary is not obliged to comply with any request under this Chapter where such compliance shall harm the rights of any other data principal under this Act. </t>
   </si>
   <si>
@@ -8935,9 +8782,6 @@
     <t>20.2.1</t>
   </si>
   <si>
-    <t>7.2.2, 7.2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">(c) was made contrary to the provisions of this Act or any other law for the time being in force. </t>
   </si>
   <si>
@@ -8952,9 +8796,6 @@
   <si>
     <t>The PDPB distinguishes between two separate rights
 — one for erasure and one for restricting the disclosure of personal data (i.e., the right to be forgotten).</t>
-  </si>
-  <si>
-    <t>7.3.4, 7.2.2</t>
   </si>
   <si>
     <t xml:space="preserve"> (1) The data principal shall have the right to restrict or prevent the continuing disclosure of his personal data by a data fiduciary where such disclosure— 
@@ -8968,9 +8809,6 @@
     <t>20 Right to be forgotten</t>
   </si>
   <si>
-    <t>7.3.8, 7.3.9</t>
-  </si>
-  <si>
     <t>(b) compliance with the request in sub-section (1) would reveal a trade secret of any data fiduciary or would not be technically feasible.</t>
   </si>
   <si>
@@ -9004,9 +8842,6 @@
   <si>
     <t>The right to portability under the PDPB is broader than the corresponding GDPR right as it is not limited to data that is processed under certain legal bases.
 • The PDPB portability right also applies to profile information, even if the data may be inferred.</t>
-  </si>
-  <si>
-    <t>7.3.8,7.3.9</t>
   </si>
   <si>
     <t xml:space="preserve">(1) Where the processing has been carried out through automated means, the data principal shall have the right to— 
@@ -9020,22 +8855,13 @@
     <t>19 Right to data portability</t>
   </si>
   <si>
-    <t>7.3.6, 7.4.3,7.3.7</t>
-  </si>
-  <si>
     <t xml:space="preserve">(4) Where the data fiduciary corrects, completes, updates or erases any personal data in accordance with sub-section (1), such data fiduciary shall also take necessary steps to notify all relevant entities or individuals to whom such personal data may have been disclosed regarding the relevant correction, completion, updation or erasure, particularly where such action may have an impact on the rights and interests of the data principal or on decisions made regarding them. </t>
   </si>
   <si>
-    <t>7.3.6, 7.4.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">(3) Where the data principal is not satisfied with the justification provided by the data fiduciary under sub-section (2), the data principal may require that the data fiduciary take reasonable steps to indicate, alongside the relevant personal data, that the same is disputed by the data principal. </t>
   </si>
   <si>
     <t xml:space="preserve">(2)  Where the data fiduciary receives a request under sub-section (1), and the data fiduciary does not agree with such correction, completion, updation or erasure having regard to the purposes of processing, such data fiduciary shall provide the data principal with adequate justification in writing for rejecting the application. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3.6, </t>
   </si>
   <si>
     <t xml:space="preserve">(d) the erasure of personal data which is no longer necessary for the purpose for which it was processed. </t>
@@ -9058,13 +8884,7 @@
     <t>the requirement to provide the identities of all data fiduciaries with whom personal data has been shared could result in significant new administrative burdens. It is not clear whether the “by any data fiduciary” language would also require documenting any onward transfers by data fiduciaries to whom personal data is disclosed.</t>
   </si>
   <si>
-    <t>7.3.9,7.3.3, 7.3.2</t>
-  </si>
-  <si>
     <t>(3) The data principal shall have the right to access in one place the identities of the data fiduciaries with whom his personal data has been shared by any data fiduciary together with the categories of personal data shared with them, in such manner as may be specified by regulations.</t>
-  </si>
-  <si>
-    <t>7.3.3,7.3.2, 7.3.9</t>
   </si>
   <si>
     <t>(2) The data fiduciary shall provide the information under sub-section (1) to the data principal in a clear and concise manner that is easily comprehensible to a reasonable person.</t>
@@ -9096,9 +8916,6 @@
     </r>
   </si>
   <si>
-    <t>7.3.3, 7.3.2,7.3.9</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">(b) the personal data of the data principal being processed or that has been processed by the data fiduciary, or any </t>
     </r>
@@ -9314,9 +9131,6 @@
 benefits programs. </t>
   </si>
   <si>
-    <t>6.4.1.2, 7.2.2.</t>
-  </si>
-  <si>
     <t xml:space="preserve">(1) Notwithstanding anything contained in section 11 and subject to sub-section (2), any personal data, not being any sensitive personal data, may be processed, if such processing is necessary for— 
 (a) recruitment or termination of employment of a data principal by the data fiduciary; 
 </t>
@@ -9382,9 +9196,6 @@
     <t>(6) Where the data principal withdraws his consent from the processing of any personal data without any valid reason, all legal consequences for the effects of such withdrawal shall be borne by such data principal.</t>
   </si>
   <si>
-    <t>7.2.3, 7.2.4</t>
-  </si>
-  <si>
     <t>(5) The burden of proof that the consent has been given by the data principal for processing of the personal data under this section shall be on the data fiduciary.</t>
   </si>
   <si>
@@ -9404,9 +9215,6 @@
   </si>
   <si>
     <t>11.3.b</t>
-  </si>
-  <si>
-    <t>7.2.4; 7.2.3; 7.2.1</t>
   </si>
   <si>
     <t>(3) In addition to the provisions contained in sub-section (2), the consent of the data principal in respect of processing of any sensitive personal data shall be explicitly obtained—
@@ -9416,9 +9224,6 @@
     <t>11.3.a</t>
   </si>
   <si>
-    <t>7.3.4; 7.2.3</t>
-  </si>
-  <si>
     <t>(e) capable of being withdrawn, having regard to whether the ease of such withdrawal is comparable to the ease with which consent may be given.</t>
   </si>
   <si>
@@ -9456,9 +9261,6 @@
 • The standard for freely given matches a contractual standard under the PDPB, rather than the GDPR’s more stringent “without detriment” standard</t>
   </si>
   <si>
-    <t>7.2.4, 7.2.2; 8.2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">(2) The consent of the data principal shall not be valid, unless such consent is— 
 (a)  free, having regard to whether it complies with the standard specified under section 14 of the Indian Contract Act, 1872; </t>
   </si>
@@ -9479,13 +9281,7 @@
     <t>10 Accountability of data fiduciary</t>
   </si>
   <si>
-    <t>7.4.8, 7.4.6, 8.4.2, 8.4.1</t>
-  </si>
-  <si>
     <t>(4)  Where it is not necessary for personal data to be retained by the data fiduciary under sub-section (1) or sub-section (2), then, such personal data shall be deleted in such manner as may be specified by regulations.</t>
-  </si>
-  <si>
-    <t>7.4.7; 7.4.6; 8.4.1; 8.4.2</t>
   </si>
   <si>
     <t>(3) The data fiduciary shall undertake periodic review to determine whether it is necessary to retain the personal data in its possession.</t>
@@ -9499,9 +9295,6 @@
 2. The PDPB also requires data fiduciaries conduct periodic reviews of whether personal data must be retained.</t>
   </si>
   <si>
-    <t>7.4.7,7.4.8, 7.4.6; 8.4.2; 8.4.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">(1) The data fiduciary shall not retain any personal data beyond the period necessary to satisfy the purpose for which it is processed and shall delete the personal data at the end of the processing.
 </t>
   </si>
@@ -9509,9 +9302,6 @@
     <t>9 Restriction on retention of personal data</t>
   </si>
   <si>
-    <t>7.3.7; 7.2.6; 7.2.7; 8.2.1; 8.3.1</t>
-  </si>
-  <si>
     <t>(3) Where personal data is disclosed to any other individual or entity, including other data fiduciary or processor, and the data fiduciary finds that such data does not comply with the requirement of sub-section (1), the data fiduciary shall take reasonable steps to notify such individual or entity of this fact.</t>
   </si>
   <si>
@@ -9521,16 +9311,10 @@
     <t>8.2.c</t>
   </si>
   <si>
-    <t>7.4.4; 7.5.3; 7.5.4</t>
-  </si>
-  <si>
     <t>(b) is likely to be disclosed to other individuals or entities including other data fiduciaries or processors; or</t>
   </si>
   <si>
     <t>8.2.b</t>
-  </si>
-  <si>
-    <t>7.4.4; 7.2.1</t>
   </si>
   <si>
     <t>(2) While taking any steps under sub-section (1), the data fiduciary shall have regard to whether the personal data— 
@@ -9550,9 +9334,6 @@
     <t xml:space="preserve">8 Quality of personal data processed  </t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.1; 7.2.2; </t>
-  </si>
-  <si>
     <t xml:space="preserve">(3) The provisions of sub-section (1) shall not apply where such notice substantially prejudices the purpose of processing of personal data under section 12. </t>
   </si>
   <si>
@@ -9577,9 +9358,6 @@
     <t>7.1.m</t>
   </si>
   <si>
-    <t>7.3.2; 7.3.9; 7.3.3</t>
-  </si>
-  <si>
     <t>(l) the existence of a right to file complaints to the Authority;</t>
   </si>
   <si>
@@ -9653,9 +9431,6 @@
   </si>
   <si>
     <t>7.1.a</t>
-  </si>
-  <si>
-    <t>7.3.3; 7.3.2</t>
   </si>
   <si>
     <t xml:space="preserve"> (1) Every data fiduciary shall give to the data principal a notice, at the time of collection of the personal data, or if the data is not collected from the data principal, as soon as reasonably practicable, containing the following information, namely:— 
@@ -9671,9 +9446,6 @@
     <t>6 Limitation on collection of personal data</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2.1, 7.2.2; 7.2.3; 7.2.4; 8.2.2, 8.2.3, </t>
-  </si>
-  <si>
     <t xml:space="preserve">(b) for the purpose consented to by the data principal or which is incidental to or connected with such purpose, and which the data principal would reasonably expect that such personal data shall be used for, having regard to the purpose, and in the context and circumstances in which the personal data was collected.
 </t>
   </si>
@@ -9681,9 +9453,6 @@
     <t>5.b</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4.1;  8.4.1; 7.4.2; 7.4.4; 8.2.1; 8.2.3; 8.2.2; </t>
-  </si>
-  <si>
     <t>Every person processing personal data of a data principal shall process such personal data—
 (a) in a fair and reasonable manner and ensure the privacy of the data principal; and</t>
   </si>
@@ -9696,9 +9465,6 @@
   <si>
     <t xml:space="preserve">At a high level, there is a significant degree of conversion between the two frameworks.
 • With respect to lawfulness of processing, the PDPB places greater emphasis on the role of consent; however, consent under the PDPB is more closely linked to transparency than GDPR’s concept of consent, which emphasizes specific and meaningful control. </t>
-  </si>
-  <si>
-    <t>7.2.2; 8.2.2; 7.2.1; 8.2.1; 8.2.2</t>
   </si>
   <si>
     <t xml:space="preserve">No personal data shall be processed by any person, except for any specific, clear and lawful purpose
@@ -9738,6 +9504,201 @@
   </si>
   <si>
     <t>Incorporated submitted Indiaian PDPB (no material changes from original submission)</t>
+  </si>
+  <si>
+    <t>7.2.2;8.2.2;7.2.1;8.2.1;8.2.2</t>
+  </si>
+  <si>
+    <t>7.3.3;7.3.2</t>
+  </si>
+  <si>
+    <t>7.3.2;7.3.9;7.3.3</t>
+  </si>
+  <si>
+    <t>7.2.1;7.2.2;</t>
+  </si>
+  <si>
+    <t>7.4.4;7.2.1</t>
+  </si>
+  <si>
+    <t>7.4.4;7.5.3;7.5.4</t>
+  </si>
+  <si>
+    <t>7.3.7;7.2.6;7.2.7;8.2.1;8.3.1</t>
+  </si>
+  <si>
+    <t>7.4.7;7.4.6;8.4.1;8.4.2</t>
+  </si>
+  <si>
+    <t>7.3.4;7.2.3</t>
+  </si>
+  <si>
+    <t>7.2.4;7.2.3;7.2.1</t>
+  </si>
+  <si>
+    <t>7.3;</t>
+  </si>
+  <si>
+    <t>6.11.2.5;6.9.1.4;6.9.3.1;6.9.4.1;6.9.4.2;6.9.6;7.4.9</t>
+  </si>
+  <si>
+    <t>6.3.1.5;7.3.10</t>
+  </si>
+  <si>
+    <t>7.2.3;7.3.2;7.3.3</t>
+  </si>
+  <si>
+    <t>7.2.4;7.2.3</t>
+  </si>
+  <si>
+    <t>7.4.4;6.11.1.2;6.5.3.1;6.5.3.3;6.7.1.1;7.4.5</t>
+  </si>
+  <si>
+    <t>6.15.2;6.15.2.1;6.15.2.2;6.15.2.3</t>
+  </si>
+  <si>
+    <t>5.1.2;5.2.2;5.2.3;5.2.4;6.3.1.3</t>
+  </si>
+  <si>
+    <t>6.15.2.1;6.15.2.2;6.15.2.3</t>
+  </si>
+  <si>
+    <t>5.2.2;6.15.2.1;6.9.7</t>
+  </si>
+  <si>
+    <t>8.2.1;8.2.2;7.2.6;7.2.7</t>
+  </si>
+  <si>
+    <t>7.5.1;7.5.2;8.5.1;8.5.2</t>
+  </si>
+  <si>
+    <t>7.5.3;8.5.37.5.4;8.5.4</t>
+  </si>
+  <si>
+    <t>7.2.2;5.2.1;5.2.;5.2.3</t>
+  </si>
+  <si>
+    <t>7.3.10;5.2.1;5.2.2;5.2.3;5.2.4</t>
+  </si>
+  <si>
+    <t>7.2.5;5.2.1;5.2.2;5.2.3;5.2.4</t>
+  </si>
+  <si>
+    <t>5.2.2;5.4.1.2;5.6.2</t>
+  </si>
+  <si>
+    <t>7.2.3;</t>
+  </si>
+  <si>
+    <t>7.3.9;5.2.2;7.3.3</t>
+  </si>
+  <si>
+    <t>5.2.1;5.2.2;5.4.1.2;5.6.2</t>
+  </si>
+  <si>
+    <t>5.2.1;5.2.2;6.13.1.1;6.13.1.5</t>
+  </si>
+  <si>
+    <t>5.2.2;5.2.3;5.2.4;5.4.1.2;5.6.2;6.13.1.1.5;7.3.9;7.2.6;8.2.1</t>
+  </si>
+  <si>
+    <t>6.13.1.1;5.2.2;5.4.1.2;5.6.12</t>
+  </si>
+  <si>
+    <t>7.3.2;7.3.3.;7.2.8;8.3.1;6.15.2</t>
+  </si>
+  <si>
+    <t>5.2.1;5.2.2.</t>
+  </si>
+  <si>
+    <t>6.15.2.3;6.13.1;6.13.1.5</t>
+  </si>
+  <si>
+    <t>5.2.1;5.6.2;5.4.1;5.2.2;5.2.3</t>
+  </si>
+  <si>
+    <t>7.4.8;7.4.6;8.4.2;8.4.1</t>
+  </si>
+  <si>
+    <t>7.2.4;7.2.2;8.2.1</t>
+  </si>
+  <si>
+    <t>6.4.1.2;7.2.2.</t>
+  </si>
+  <si>
+    <t>7.3.8;7.3.9</t>
+  </si>
+  <si>
+    <t>7.3.4;7.2.2</t>
+  </si>
+  <si>
+    <t>7.2.2;7.2.1</t>
+  </si>
+  <si>
+    <t>7.2.5;7.2.8</t>
+  </si>
+  <si>
+    <t>6.3.1.1;7.2.8</t>
+  </si>
+  <si>
+    <t>5.2.1;5.2.3;5.2.4</t>
+  </si>
+  <si>
+    <t>7.4.1; 8.4.1;7.4.2;7.4.4;8.2.1;8.2.3;8.2.2</t>
+  </si>
+  <si>
+    <t>7.2.1;7.2.2;7.2.3;7.2.4;8.2.2;8.2.3</t>
+  </si>
+  <si>
+    <t>7.4.7;7.4.8;7.4.6;8.4.2;8.4.1</t>
+  </si>
+  <si>
+    <t>7.3.3;7.3.2;7.3.9</t>
+  </si>
+  <si>
+    <t>7.3.9;7.3.3;7.3.2</t>
+  </si>
+  <si>
+    <t>7.3.6;7.4.3;7.3.7</t>
+  </si>
+  <si>
+    <t>7.4.4;6.15.1.3;6.2.1.1;7.2.8</t>
+  </si>
+  <si>
+    <t>7.3.1;;7.3.2;7.3.3;</t>
+  </si>
+  <si>
+    <t>7.2.2;5.3.2;5.2.1</t>
+  </si>
+  <si>
+    <t>5.1.2;5.1.2;6.2.12;6.2.1.2</t>
+  </si>
+  <si>
+    <t>7.2.8;7.5.3;7.5.4</t>
+  </si>
+  <si>
+    <t>7.2.6;7.2.7;8.2.1</t>
+  </si>
+  <si>
+    <t>7.3.9;7.3.2</t>
+  </si>
+  <si>
+    <t>7.5.1;8.5.1;7.5.2;8.5.2</t>
+  </si>
+  <si>
+    <t>6.15.2.1;5.2.1;5.2.2;6.3.1.1; 6.3.1.3</t>
+  </si>
+  <si>
+    <t>5.2.1;5.2.2;7.2.1;7.2.2;7.2.3;7.4;7.3.2;7.3.3;7.4.3;7.4.7</t>
+  </si>
+  <si>
+    <t>6.13.1.1;5.4.1.3;5.6.3</t>
+  </si>
+  <si>
+    <t>6.13.1.5;6.3.1.1</t>
+  </si>
+  <si>
+    <t>5.2.1;5.2.2;5.3.3;5.3.1</t>
   </si>
 </sst>
 </file>
@@ -10219,7 +10180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8043BC62-2F51-43CD-92FB-F94EA755A381}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10269,7 +10230,7 @@
         <v>2090</v>
       </c>
       <c r="C4" t="s">
-        <v>2820</v>
+        <v>2742</v>
       </c>
     </row>
   </sheetData>
@@ -21763,8 +21724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BA70E6-9548-4D87-8A65-060EC90D2814}">
   <dimension ref="A1:F664"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E355" sqref="E355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21781,10 +21742,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2819</v>
+        <v>2741</v>
       </c>
       <c r="C1" t="s">
-        <v>2818</v>
+        <v>2740</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
@@ -21793,7 +21754,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>2817</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="153">
@@ -21801,13 +21762,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2816</v>
+        <v>2738</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>2815</v>
+        <v>2737</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>2814</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105">
@@ -21815,17 +21776,17 @@
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>2813</v>
+        <v>2735</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>2812</v>
+        <v>2734</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8" t="s">
-        <v>2811</v>
+        <v>2743</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>2810</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="135">
@@ -21833,39 +21794,39 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2809</v>
+        <v>2732</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" t="s">
-        <v>2808</v>
+        <v>2731</v>
       </c>
       <c r="B5" t="s">
-        <v>2808</v>
+        <v>2731</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>2807</v>
+        <v>2730</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
-        <v>2806</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51">
       <c r="A6" t="s">
-        <v>2805</v>
+        <v>2729</v>
       </c>
       <c r="B6" t="s">
-        <v>2805</v>
+        <v>2729</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>2804</v>
+        <v>2728</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8" t="s">
-        <v>2803</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="105">
@@ -21873,10 +21834,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2802</v>
+        <v>2727</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>2801</v>
+        <v>2726</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="8" t="s">
@@ -21888,7 +21849,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2800</v>
+        <v>2725</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -21901,220 +21862,220 @@
         <v>7.1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>2799</v>
+        <v>2724</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
-        <v>2798</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>2797</v>
+        <v>2723</v>
       </c>
       <c r="B10" t="s">
-        <v>2797</v>
+        <v>2723</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>2796</v>
+        <v>2722</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2795</v>
+        <v>2721</v>
       </c>
       <c r="B11" t="s">
-        <v>2795</v>
+        <v>2721</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>2794</v>
+        <v>2720</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>2793</v>
+        <v>2719</v>
       </c>
       <c r="B12" t="s">
-        <v>2793</v>
+        <v>2719</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>2792</v>
+        <v>2718</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5">
       <c r="A13" t="s">
-        <v>2791</v>
+        <v>2717</v>
       </c>
       <c r="B13" t="s">
-        <v>2791</v>
+        <v>2717</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>2790</v>
+        <v>2716</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="29.1" customHeight="1">
       <c r="A14" t="s">
-        <v>2789</v>
+        <v>2715</v>
       </c>
       <c r="B14" t="s">
-        <v>2789</v>
+        <v>2715</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>2788</v>
+        <v>2714</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>2787</v>
+        <v>2713</v>
       </c>
       <c r="B15" t="s">
-        <v>2787</v>
+        <v>2713</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>2786</v>
+        <v>2712</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" t="s">
-        <v>2785</v>
+        <v>2711</v>
       </c>
       <c r="B16" t="s">
-        <v>2785</v>
+        <v>2711</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>2784</v>
+        <v>2710</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>2783</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="25.5">
       <c r="A17" t="s">
-        <v>2782</v>
+        <v>2708</v>
       </c>
       <c r="B17" t="s">
-        <v>2782</v>
+        <v>2708</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>2781</v>
+        <v>2707</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="25.5">
       <c r="A18" t="s">
-        <v>2780</v>
+        <v>2706</v>
       </c>
       <c r="B18" t="s">
-        <v>2780</v>
+        <v>2706</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>2779</v>
+        <v>2705</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>2778</v>
+        <v>2704</v>
       </c>
       <c r="B19" t="s">
-        <v>2778</v>
+        <v>2704</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>2777</v>
+        <v>2703</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2776</v>
+        <v>2702</v>
       </c>
       <c r="B20" t="s">
-        <v>2776</v>
+        <v>2702</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>2775</v>
+        <v>2701</v>
       </c>
       <c r="D20" s="10"/>
       <c r="F20" s="8" t="s">
-        <v>2769</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>2774</v>
+        <v>2700</v>
       </c>
       <c r="B21" t="s">
-        <v>2774</v>
+        <v>2700</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>2773</v>
+        <v>2699</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>2772</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5">
       <c r="A22" t="s">
-        <v>2771</v>
+        <v>2698</v>
       </c>
       <c r="B22" t="s">
-        <v>2771</v>
+        <v>2698</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>2770</v>
+        <v>2697</v>
       </c>
       <c r="D22" s="10"/>
       <c r="F22" s="8" t="s">
-        <v>2769</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" t="s">
-        <v>2768</v>
+        <v>2695</v>
       </c>
       <c r="B23" t="s">
-        <v>2768</v>
+        <v>2695</v>
       </c>
       <c r="C23" t="s">
-        <v>2767</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
@@ -22125,14 +22086,14 @@
         <v>7.2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>2766</v>
+        <v>2693</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8" t="s">
         <v>187</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>2765</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="25.5">
@@ -22143,11 +22104,11 @@
         <v>7.3</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>2764</v>
+        <v>2691</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8" t="s">
-        <v>2763</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="90">
@@ -22155,7 +22116,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2762</v>
+        <v>2690</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -22168,55 +22129,55 @@
         <v>8.1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>2761</v>
+        <v>2689</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8" t="s">
         <v>221</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>2760</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
-        <v>2759</v>
+        <v>2687</v>
       </c>
       <c r="B28" t="s">
-        <v>2759</v>
+        <v>2687</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>2758</v>
+        <v>2686</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8" t="s">
-        <v>2757</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>2756</v>
+        <v>2685</v>
       </c>
       <c r="B29" t="s">
-        <v>2756</v>
+        <v>2685</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>2755</v>
+        <v>2684</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8" t="s">
-        <v>2754</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="25.5">
       <c r="A30" t="s">
-        <v>2753</v>
+        <v>2683</v>
       </c>
       <c r="B30" t="s">
-        <v>2753</v>
+        <v>2683</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>2752</v>
+        <v>2682</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8" t="s">
@@ -22231,11 +22192,11 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>2751</v>
+        <v>2681</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42.95" customHeight="1">
@@ -22243,7 +22204,7 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>2749</v>
+        <v>2680</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -22256,14 +22217,14 @@
         <v>9.1</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>2748</v>
+        <v>2679</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="8" t="s">
-        <v>2747</v>
+        <v>2791</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>2746</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.5" customHeight="1">
@@ -22274,7 +22235,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>2745</v>
+        <v>2677</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="8" t="s">
@@ -22289,11 +22250,11 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>2744</v>
+        <v>2676</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="8" t="s">
-        <v>2743</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="31.5" customHeight="1">
@@ -22304,11 +22265,11 @@
         <v>9.4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>2742</v>
+        <v>2675</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="8" t="s">
-        <v>2741</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="75">
@@ -22316,10 +22277,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>2740</v>
+        <v>2674</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>2739</v>
+        <v>2673</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="8" t="s">
@@ -22331,7 +22292,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>2738</v>
+        <v>2672</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -22344,7 +22305,7 @@
         <v>11.1</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>2737</v>
+        <v>2671</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8" t="s">
@@ -22353,115 +22314,115 @@
     </row>
     <row r="40" spans="1:6" ht="60">
       <c r="A40" t="s">
-        <v>2736</v>
+        <v>2670</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>2736</v>
+        <v>2670</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>2735</v>
+        <v>2669</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8" t="s">
-        <v>2734</v>
+        <v>2781</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>2733</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45">
       <c r="A41" t="s">
-        <v>2732</v>
+        <v>2667</v>
       </c>
       <c r="B41" t="s">
-        <v>2732</v>
+        <v>2667</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>2731</v>
+        <v>2666</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8" t="s">
         <v>165</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>2730</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="25.5">
       <c r="A42" t="s">
-        <v>2729</v>
+        <v>2664</v>
       </c>
       <c r="B42" t="s">
-        <v>2729</v>
+        <v>2664</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>2728</v>
+        <v>2663</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="8" t="s">
         <v>165</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>2727</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>2726</v>
+        <v>2661</v>
       </c>
       <c r="B43" t="s">
-        <v>2726</v>
+        <v>2661</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>2725</v>
+        <v>2660</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8" t="s">
         <v>165</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>2724</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.5" customHeight="1">
       <c r="A44" t="s">
-        <v>2723</v>
+        <v>2658</v>
       </c>
       <c r="B44" t="s">
-        <v>2723</v>
+        <v>2658</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>2722</v>
+        <v>2657</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="8" t="s">
-        <v>2721</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="39.6" customHeight="1">
       <c r="A45" t="s">
-        <v>2720</v>
+        <v>2656</v>
       </c>
       <c r="B45" t="s">
-        <v>2720</v>
+        <v>2656</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>2719</v>
+        <v>2655</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="8" t="s">
-        <v>2718</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>2717</v>
+        <v>2654</v>
       </c>
       <c r="B46" t="s">
-        <v>2717</v>
+        <v>2654</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>2716</v>
+        <v>2653</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="8" t="s">
@@ -22470,17 +22431,17 @@
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
       <c r="A47" t="s">
-        <v>2715</v>
+        <v>2652</v>
       </c>
       <c r="B47" t="s">
-        <v>2715</v>
+        <v>2652</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>2714</v>
+        <v>2651</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="8" t="s">
-        <v>2710</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="38.25">
@@ -22491,14 +22452,14 @@
         <v>11.4</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>2713</v>
+        <v>2650</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>2712</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
@@ -22509,11 +22470,11 @@
         <v>11.5</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>2711</v>
+        <v>2648</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="8" t="s">
-        <v>2710</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="33.6" customHeight="1">
@@ -22524,11 +22485,11 @@
         <v>11.6</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>2709</v>
+        <v>2647</v>
       </c>
       <c r="D50" s="10"/>
       <c r="F50" s="8" t="s">
-        <v>2708</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="33.6" customHeight="1">
@@ -22536,38 +22497,38 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>2707</v>
+        <v>2645</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:6" ht="42.95" customHeight="1">
       <c r="A52" t="s">
-        <v>2706</v>
+        <v>2644</v>
       </c>
       <c r="B52" t="s">
-        <v>2706</v>
+        <v>2644</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>2705</v>
+        <v>2643</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>2704</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>2703</v>
+        <v>2641</v>
       </c>
       <c r="B53" t="s">
-        <v>2703</v>
+        <v>2641</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>2702</v>
+        <v>2640</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="8" t="s">
@@ -22576,13 +22537,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>2701</v>
+        <v>2639</v>
       </c>
       <c r="B54" t="s">
-        <v>2701</v>
+        <v>2639</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>2700</v>
+        <v>2638</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="8" t="s">
@@ -22591,25 +22552,25 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>2699</v>
+        <v>2637</v>
       </c>
       <c r="B55" t="s">
-        <v>2699</v>
+        <v>2637</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>2698</v>
+        <v>2636</v>
       </c>
       <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:6" ht="25.5">
       <c r="A56" t="s">
-        <v>2697</v>
+        <v>2635</v>
       </c>
       <c r="B56" t="s">
-        <v>2697</v>
+        <v>2635</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>2696</v>
+        <v>2634</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="8" t="s">
@@ -22618,13 +22579,13 @@
     </row>
     <row r="57" spans="1:6" ht="25.5">
       <c r="A57" t="s">
-        <v>2695</v>
+        <v>2633</v>
       </c>
       <c r="B57" t="s">
-        <v>2695</v>
+        <v>2633</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>2694</v>
+        <v>2632</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="8" t="s">
@@ -22633,13 +22594,13 @@
     </row>
     <row r="58" spans="1:6" ht="24.95" customHeight="1">
       <c r="A58" t="s">
-        <v>2693</v>
+        <v>2631</v>
       </c>
       <c r="B58" t="s">
-        <v>2693</v>
+        <v>2631</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>2692</v>
+        <v>2630</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="8" t="s">
@@ -22651,7 +22612,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>2691</v>
+        <v>2629</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -22664,14 +22625,14 @@
         <v>684</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>2690</v>
+        <v>2628</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="8" t="s">
-        <v>2689</v>
+        <v>2782</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>2688</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -22682,11 +22643,11 @@
         <v>685</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>2687</v>
+        <v>2626</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -22697,11 +22658,11 @@
         <v>686</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>2686</v>
+        <v>2625</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="25.5">
@@ -22712,11 +22673,11 @@
         <v>687</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>2685</v>
+        <v>2624</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="51">
@@ -22727,11 +22688,11 @@
         <v>13.2</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>2684</v>
+        <v>2623</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -22739,7 +22700,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>2683</v>
+        <v>2622</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -22752,14 +22713,14 @@
         <v>704</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>2682</v>
+        <v>2621</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>2681</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="45">
@@ -22770,11 +22731,11 @@
         <v>705</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>2680</v>
+        <v>2619</v>
       </c>
       <c r="D67" s="10"/>
       <c r="F67" s="8" t="s">
-        <v>2679</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -22785,7 +22746,7 @@
         <v>706</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>2678</v>
+        <v>2617</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="8" t="s">
@@ -22800,7 +22761,7 @@
         <v>707</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>2677</v>
+        <v>2616</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="8" t="s">
@@ -22815,7 +22776,7 @@
         <v>708</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>2676</v>
+        <v>2615</v>
       </c>
       <c r="D70" s="10"/>
     </row>
@@ -22827,11 +22788,11 @@
         <v>14.2</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>2675</v>
+        <v>2614</v>
       </c>
       <c r="D71" s="10"/>
       <c r="F71" s="8" t="s">
-        <v>2674</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -22842,7 +22803,7 @@
         <v>711</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>2673</v>
+        <v>2612</v>
       </c>
       <c r="D72" s="10"/>
     </row>
@@ -22854,7 +22815,7 @@
         <v>712</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>2672</v>
+        <v>2611</v>
       </c>
       <c r="D73" s="10"/>
     </row>
@@ -22866,7 +22827,7 @@
         <v>713</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>2671</v>
+        <v>2610</v>
       </c>
       <c r="D74" s="10"/>
     </row>
@@ -22878,7 +22839,7 @@
         <v>714</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>2670</v>
+        <v>2609</v>
       </c>
       <c r="D75" s="10"/>
     </row>
@@ -22890,7 +22851,7 @@
         <v>715</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>2669</v>
+        <v>2608</v>
       </c>
       <c r="D76" s="10"/>
     </row>
@@ -22902,7 +22863,7 @@
         <v>716</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>2668</v>
+        <v>2607</v>
       </c>
       <c r="D77" s="10"/>
     </row>
@@ -22914,19 +22875,19 @@
         <v>717</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>2667</v>
+        <v>2606</v>
       </c>
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>2666</v>
+        <v>2605</v>
       </c>
       <c r="B79" t="s">
-        <v>2666</v>
+        <v>2605</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>2665</v>
+        <v>2604</v>
       </c>
       <c r="D79" s="10"/>
     </row>
@@ -22938,7 +22899,7 @@
         <v>14.3</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>2664</v>
+        <v>2603</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="8" t="s">
@@ -22953,7 +22914,7 @@
         <v>705</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>2663</v>
+        <v>2602</v>
       </c>
       <c r="D81" s="10"/>
     </row>
@@ -22962,7 +22923,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>2662</v>
+        <v>2601</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -22975,7 +22936,7 @@
         <v>731</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>2661</v>
+        <v>2600</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="8" t="s">
@@ -22990,7 +22951,7 @@
         <v>733</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>2660</v>
+        <v>2599</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="8" t="s">
@@ -23005,7 +22966,7 @@
         <v>734</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>2659</v>
+        <v>2598</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="8" t="s">
@@ -23020,7 +22981,7 @@
         <v>735</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>2658</v>
+        <v>2597</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="8" t="s">
@@ -23035,14 +22996,14 @@
         <v>15.2</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>2657</v>
+        <v>2596</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>2656</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -23050,7 +23011,7 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>2655</v>
+        <v>2594</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -23063,14 +23024,14 @@
         <v>16.100000000000001</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>2654</v>
+        <v>2593</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>2653</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1">
@@ -23081,100 +23042,100 @@
         <v>16.2</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>2652</v>
+        <v>2591</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>2651</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="38.25">
       <c r="A91" t="s">
-        <v>2650</v>
+        <v>2589</v>
       </c>
       <c r="B91" t="s">
-        <v>2650</v>
+        <v>2589</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>2649</v>
+        <v>2588</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>2648</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>2647</v>
+        <v>2586</v>
       </c>
       <c r="B92" t="s">
-        <v>2647</v>
+        <v>2586</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>2646</v>
+        <v>2585</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>2645</v>
+        <v>2584</v>
       </c>
       <c r="B93" t="s">
-        <v>2645</v>
+        <v>2584</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>2644</v>
+        <v>2583</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>2643</v>
+        <v>2582</v>
       </c>
       <c r="B94" t="s">
-        <v>2643</v>
+        <v>2582</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>2642</v>
+        <v>2581</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="8" t="s">
-        <v>2641</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="25.5">
       <c r="A95" t="s">
-        <v>2640</v>
+        <v>2579</v>
       </c>
       <c r="B95" t="s">
-        <v>2640</v>
+        <v>2579</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>2639</v>
+        <v>2578</v>
       </c>
       <c r="D95" s="10"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>2638</v>
+        <v>2577</v>
       </c>
       <c r="B96" t="s">
-        <v>2638</v>
+        <v>2577</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>2637</v>
+        <v>2576</v>
       </c>
       <c r="D96" s="10"/>
     </row>
@@ -23186,11 +23147,11 @@
         <v>16.5</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>2636</v>
+        <v>2575</v>
       </c>
       <c r="D97" s="10"/>
       <c r="F97" s="8" t="s">
-        <v>2635</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="29.45" customHeight="1">
@@ -23201,7 +23162,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>2634</v>
+        <v>2573</v>
       </c>
       <c r="D98" s="10"/>
     </row>
@@ -23213,7 +23174,7 @@
         <v>16.7</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>2633</v>
+        <v>2572</v>
       </c>
       <c r="D99" s="10"/>
     </row>
@@ -23222,7 +23183,7 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>2632</v>
+        <v>2571</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -23235,11 +23196,11 @@
         <v>748</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>2631</v>
+        <v>2570</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="8" t="s">
-        <v>2629</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="25.5">
@@ -23250,11 +23211,11 @@
         <v>749</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>2630</v>
+        <v>2569</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="8" t="s">
-        <v>2629</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="38.1" customHeight="1">
@@ -23265,7 +23226,7 @@
         <v>750</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>2628</v>
+        <v>2568</v>
       </c>
       <c r="D103" s="10"/>
     </row>
@@ -23277,11 +23238,11 @@
         <v>17.2</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>2627</v>
+        <v>2567</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="8" t="s">
-        <v>2626</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="60">
@@ -23292,14 +23253,14 @@
         <v>17.3</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>2625</v>
+        <v>2566</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="8" t="s">
-        <v>2624</v>
+        <v>2793</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>2623</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -23307,7 +23268,7 @@
         <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>2622</v>
+        <v>2564</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -23320,11 +23281,11 @@
         <v>766</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>2621</v>
+        <v>2563</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="8" t="s">
-        <v>2614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -23335,11 +23296,11 @@
         <v>767</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>2620</v>
+        <v>2562</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="8" t="s">
-        <v>2614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -23350,11 +23311,11 @@
         <v>768</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>2619</v>
+        <v>2561</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="8" t="s">
-        <v>2614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -23365,11 +23326,11 @@
         <v>769</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>2618</v>
+        <v>2560</v>
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="8" t="s">
-        <v>2617</v>
+        <v>196</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="35.450000000000003" customHeight="1">
@@ -23380,11 +23341,11 @@
         <v>18.2</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>2616</v>
+        <v>2559</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="8" t="s">
-        <v>2614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="52.5" customHeight="1">
@@ -23395,11 +23356,11 @@
         <v>18.2</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>2615</v>
+        <v>2558</v>
       </c>
       <c r="D112" s="10"/>
       <c r="E112" s="8" t="s">
-        <v>2614</v>
+        <v>631</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="57.95" customHeight="1">
@@ -23410,11 +23371,11 @@
         <v>18.399999999999999</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>2613</v>
+        <v>2557</v>
       </c>
       <c r="D113" s="10"/>
       <c r="E113" s="8" t="s">
-        <v>2612</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="57.95" customHeight="1">
@@ -23422,96 +23383,96 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>2611</v>
+        <v>2556</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
     </row>
     <row r="115" spans="1:6" ht="42" customHeight="1">
       <c r="A115" t="s">
-        <v>2610</v>
+        <v>2555</v>
       </c>
       <c r="B115" t="s">
-        <v>2610</v>
+        <v>2555</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>2609</v>
+        <v>2554</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="8" t="s">
-        <v>2608</v>
+        <v>2783</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>2607</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>2606</v>
+        <v>2552</v>
       </c>
       <c r="B116" t="s">
-        <v>2606</v>
+        <v>2552</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>2605</v>
+        <v>2551</v>
       </c>
       <c r="D116" s="10"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>2604</v>
+        <v>2550</v>
       </c>
       <c r="B117" t="s">
-        <v>2604</v>
+        <v>2550</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>2603</v>
+        <v>2549</v>
       </c>
       <c r="D117" s="10"/>
     </row>
     <row r="118" spans="1:6" ht="25.5">
       <c r="A118" t="s">
-        <v>2602</v>
+        <v>2548</v>
       </c>
       <c r="B118" t="s">
-        <v>2602</v>
+        <v>2548</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>2601</v>
+        <v>2547</v>
       </c>
       <c r="D118" s="10"/>
       <c r="E118" s="8" t="s">
-        <v>2596</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="25.5">
       <c r="A119" t="s">
-        <v>2600</v>
+        <v>2546</v>
       </c>
       <c r="B119" t="s">
-        <v>2600</v>
+        <v>2546</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>2599</v>
+        <v>2545</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="8" t="s">
-        <v>2596</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="25.5">
       <c r="A120" t="s">
-        <v>2598</v>
+        <v>2544</v>
       </c>
       <c r="B120" t="s">
-        <v>2598</v>
+        <v>2544</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>2597</v>
+        <v>2543</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="8" t="s">
-        <v>2596</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -23519,38 +23480,38 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>2595</v>
+        <v>2542</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
     </row>
     <row r="122" spans="1:6" ht="47.1" customHeight="1">
       <c r="A122" t="s">
-        <v>2594</v>
+        <v>2541</v>
       </c>
       <c r="B122" t="s">
-        <v>2594</v>
+        <v>2541</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>2593</v>
+        <v>2540</v>
       </c>
       <c r="D122" s="10"/>
       <c r="E122" s="8" t="s">
-        <v>2592</v>
+        <v>2784</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>2591</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>2590</v>
+        <v>2538</v>
       </c>
       <c r="B123" t="s">
-        <v>2590</v>
+        <v>2538</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>2589</v>
+        <v>2537</v>
       </c>
       <c r="D123" s="10"/>
       <c r="E123" s="8" t="s">
@@ -23559,46 +23520,46 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>2588</v>
+        <v>2536</v>
       </c>
       <c r="B124" t="s">
-        <v>2588</v>
+        <v>2536</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>2587</v>
+        <v>2535</v>
       </c>
       <c r="D124" s="10"/>
       <c r="E124" s="8" t="s">
-        <v>2586</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="47.1" customHeight="1">
       <c r="A125" t="s">
-        <v>2585</v>
+        <v>2534</v>
       </c>
       <c r="B125" t="s">
-        <v>2585</v>
+        <v>2534</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>2584</v>
+        <v>2533</v>
       </c>
       <c r="D125" s="10"/>
       <c r="E125" s="8" t="s">
         <v>205</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>2583</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="38.25">
       <c r="A126" t="s">
-        <v>2582</v>
+        <v>2531</v>
       </c>
       <c r="B126" t="s">
-        <v>2582</v>
+        <v>2531</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>2581</v>
+        <v>2530</v>
       </c>
       <c r="D126" s="10"/>
       <c r="E126" s="8" t="s">
@@ -23607,31 +23568,31 @@
     </row>
     <row r="127" spans="1:6" ht="45">
       <c r="A127" t="s">
-        <v>2580</v>
+        <v>2529</v>
       </c>
       <c r="B127" t="s">
-        <v>2580</v>
+        <v>2529</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>2579</v>
+        <v>2528</v>
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="8" t="s">
         <v>190</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>2578</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>2577</v>
+        <v>2526</v>
       </c>
       <c r="B128" t="s">
-        <v>2577</v>
+        <v>2526</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>2576</v>
+        <v>2525</v>
       </c>
       <c r="D128" s="10"/>
       <c r="E128" s="8" t="s">
@@ -23640,13 +23601,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>2575</v>
+        <v>2524</v>
       </c>
       <c r="B129" t="s">
-        <v>2575</v>
+        <v>2524</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>2574</v>
+        <v>2523</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="8" t="s">
@@ -23655,13 +23616,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>2573</v>
+        <v>2522</v>
       </c>
       <c r="B130" t="s">
-        <v>2573</v>
+        <v>2522</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>2572</v>
+        <v>2521</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="8" t="s">
@@ -23670,13 +23631,13 @@
     </row>
     <row r="131" spans="1:6" ht="40.5" customHeight="1">
       <c r="A131" t="s">
-        <v>2571</v>
+        <v>2520</v>
       </c>
       <c r="B131" t="s">
-        <v>2571</v>
+        <v>2520</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>2570</v>
+        <v>2519</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="8" t="s">
@@ -23691,7 +23652,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>2569</v>
+        <v>2518</v>
       </c>
       <c r="D132" s="10"/>
     </row>
@@ -23703,7 +23664,7 @@
         <v>20.5</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>2568</v>
+        <v>2517</v>
       </c>
       <c r="D133" s="10"/>
     </row>
@@ -23712,7 +23673,7 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>2567</v>
+        <v>2516</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -23725,7 +23686,7 @@
         <v>21.1</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>2566</v>
+        <v>2515</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="8" t="s">
@@ -23740,7 +23701,7 @@
         <v>21.2</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>2565</v>
+        <v>2514</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="8" t="s">
@@ -23755,7 +23716,7 @@
         <v>21.3</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>2564</v>
+        <v>2513</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="8" t="s">
@@ -23770,11 +23731,11 @@
         <v>21.4</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>2563</v>
+        <v>2512</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="8" t="s">
-        <v>2562</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="25.5">
@@ -23785,11 +23746,11 @@
         <v>21.5</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>2561</v>
+        <v>2510</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="8" t="s">
-        <v>2560</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -23797,83 +23758,83 @@
         <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>2559</v>
+        <v>2509</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
     </row>
     <row r="141" spans="1:6" ht="42.95" customHeight="1">
       <c r="A141" t="s">
-        <v>2558</v>
+        <v>2508</v>
       </c>
       <c r="B141" t="s">
-        <v>2558</v>
+        <v>2508</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>2557</v>
+        <v>2507</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="8" t="s">
-        <v>2556</v>
+        <v>2795</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>2555</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>2554</v>
+        <v>2505</v>
       </c>
       <c r="B142" t="s">
-        <v>2554</v>
+        <v>2505</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>2553</v>
+        <v>2504</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="8" t="s">
-        <v>2552</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="30">
       <c r="A143" t="s">
-        <v>2551</v>
+        <v>2503</v>
       </c>
       <c r="B143" t="s">
-        <v>2551</v>
+        <v>2503</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>2550</v>
+        <v>2502</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="8" t="s">
-        <v>2549</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>2548</v>
+        <v>2501</v>
       </c>
       <c r="B144" t="s">
-        <v>2548</v>
+        <v>2501</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>2547</v>
+        <v>2500</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="8" t="s">
-        <v>2546</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>2545</v>
+        <v>2499</v>
       </c>
       <c r="B145" t="s">
-        <v>2545</v>
+        <v>2499</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>2544</v>
+        <v>2498</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="8">
@@ -23882,28 +23843,28 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>2543</v>
+        <v>2497</v>
       </c>
       <c r="B146" t="s">
-        <v>2543</v>
+        <v>2497</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>2542</v>
+        <v>2496</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="8" t="s">
-        <v>2541</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>2540</v>
+        <v>2495</v>
       </c>
       <c r="B147" t="s">
-        <v>2540</v>
+        <v>2495</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>2539</v>
+        <v>2494</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="8">
@@ -23918,7 +23879,7 @@
         <v>22.2</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>2538</v>
+        <v>2493</v>
       </c>
       <c r="D148" s="10"/>
     </row>
@@ -23930,7 +23891,7 @@
         <v>22.3</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>2537</v>
+        <v>2492</v>
       </c>
       <c r="D149" s="10"/>
     </row>
@@ -23942,7 +23903,7 @@
         <v>22.4</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>2536</v>
+        <v>2491</v>
       </c>
       <c r="D150" s="10"/>
     </row>
@@ -23951,38 +23912,38 @@
         <v>23</v>
       </c>
       <c r="B151" t="s">
-        <v>2535</v>
+        <v>2490</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
     </row>
     <row r="152" spans="1:6" ht="48" customHeight="1">
       <c r="A152" t="s">
-        <v>2534</v>
+        <v>2489</v>
       </c>
       <c r="B152" t="s">
-        <v>2534</v>
+        <v>2489</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>2533</v>
+        <v>2488</v>
       </c>
       <c r="D152" s="10"/>
       <c r="E152" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>2532</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>2531</v>
+        <v>2486</v>
       </c>
       <c r="B153" t="s">
-        <v>2531</v>
+        <v>2486</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>2530</v>
+        <v>2485</v>
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="8" t="s">
@@ -23991,95 +23952,95 @@
     </row>
     <row r="154" spans="1:6" ht="26.45" customHeight="1">
       <c r="A154" t="s">
-        <v>2529</v>
+        <v>2484</v>
       </c>
       <c r="B154" t="s">
-        <v>2529</v>
+        <v>2484</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>2528</v>
+        <v>2483</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="8" t="s">
-        <v>2527</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="25.5">
       <c r="A155" t="s">
-        <v>2526</v>
+        <v>2482</v>
       </c>
       <c r="B155" t="s">
-        <v>2526</v>
+        <v>2482</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>2525</v>
+        <v>2481</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>2524</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>2523</v>
+        <v>2479</v>
       </c>
       <c r="B156" t="s">
-        <v>2523</v>
+        <v>2479</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>2522</v>
+        <v>2478</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="25.5">
       <c r="A157" t="s">
-        <v>2521</v>
+        <v>2477</v>
       </c>
       <c r="B157" t="s">
-        <v>2521</v>
+        <v>2477</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>2520</v>
+        <v>2476</v>
       </c>
       <c r="D157" s="10"/>
       <c r="F157" s="8" t="s">
-        <v>2519</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="25.5">
       <c r="A158" t="s">
-        <v>2518</v>
+        <v>2474</v>
       </c>
       <c r="B158" t="s">
-        <v>2518</v>
+        <v>2474</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>2517</v>
+        <v>2473</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>2516</v>
+        <v>2472</v>
       </c>
       <c r="B159" t="s">
-        <v>2516</v>
+        <v>2472</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>2515</v>
+        <v>2471</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="27.6" customHeight="1">
@@ -24090,11 +24051,11 @@
         <v>23.2</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>2514</v>
+        <v>2470</v>
       </c>
       <c r="D160" s="10"/>
       <c r="E160" s="8" t="s">
-        <v>2513</v>
+        <v>673</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -24105,11 +24066,11 @@
         <v>23.3</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>2512</v>
+        <v>2469</v>
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="8" t="s">
-        <v>2511</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="25.5">
@@ -24120,7 +24081,7 @@
         <v>23.4</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>2510</v>
+        <v>2468</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="8" t="s">
@@ -24135,7 +24096,7 @@
         <v>23.5</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>2509</v>
+        <v>2467</v>
       </c>
       <c r="D163" s="10"/>
     </row>
@@ -24144,35 +24105,35 @@
         <v>24</v>
       </c>
       <c r="B164" t="s">
-        <v>2508</v>
+        <v>2466</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:6" ht="60" customHeight="1">
       <c r="A165" t="s">
-        <v>2507</v>
+        <v>2465</v>
       </c>
       <c r="B165" t="s">
-        <v>2507</v>
+        <v>2465</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>2506</v>
+        <v>2464</v>
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="8" t="s">
-        <v>2246</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>2505</v>
+        <v>2463</v>
       </c>
       <c r="B166" t="s">
-        <v>2505</v>
+        <v>2463</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>2504</v>
+        <v>2462</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="8" t="s">
@@ -24181,13 +24142,13 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>2503</v>
+        <v>2461</v>
       </c>
       <c r="B167" t="s">
-        <v>2503</v>
+        <v>2461</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>2502</v>
+        <v>2460</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="8" t="s">
@@ -24202,11 +24163,11 @@
         <v>24.2</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>2501</v>
+        <v>2459</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="8" t="s">
-        <v>2500</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="90">
@@ -24214,7 +24175,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>2499</v>
+        <v>2458</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -24227,25 +24188,25 @@
         <v>25.1</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>2498</v>
+        <v>2457</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="8" t="s">
         <v>887</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>2497</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="25.5">
       <c r="A171" t="s">
-        <v>2496</v>
+        <v>2455</v>
       </c>
       <c r="B171" t="s">
-        <v>2496</v>
+        <v>2455</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>2495</v>
+        <v>2454</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="8" t="s">
@@ -24254,13 +24215,13 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>2494</v>
+        <v>2453</v>
       </c>
       <c r="B172" t="s">
-        <v>2494</v>
+        <v>2453</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>2493</v>
+        <v>2452</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="8" t="s">
@@ -24269,13 +24230,13 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>2492</v>
+        <v>2451</v>
       </c>
       <c r="B173" t="s">
-        <v>2492</v>
+        <v>2451</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>2491</v>
+        <v>2450</v>
       </c>
       <c r="D173" s="10"/>
       <c r="E173" s="8" t="s">
@@ -24284,13 +24245,13 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>2490</v>
+        <v>2449</v>
       </c>
       <c r="B174" t="s">
-        <v>2490</v>
+        <v>2449</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>2489</v>
+        <v>2448</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="8" t="s">
@@ -24305,14 +24266,14 @@
         <v>25.3</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>2488</v>
+        <v>2447</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="8" t="s">
         <v>887</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>2487</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="25.5">
@@ -24323,7 +24284,7 @@
         <v>25.4</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>2486</v>
+        <v>2445</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="8" t="s">
@@ -24338,11 +24299,11 @@
         <v>25.5</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>2485</v>
+        <v>2444</v>
       </c>
       <c r="D177" s="10"/>
       <c r="F177" s="8" t="s">
-        <v>2484</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="39.950000000000003" customHeight="1">
@@ -24353,7 +24314,7 @@
         <v>25.6</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>2483</v>
+        <v>2442</v>
       </c>
       <c r="D178" s="10"/>
     </row>
@@ -24365,7 +24326,7 @@
         <v>25.7</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>2482</v>
+        <v>2441</v>
       </c>
       <c r="D179" s="10"/>
     </row>
@@ -24374,102 +24335,102 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>2481</v>
+        <v>2440</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
     </row>
     <row r="181" spans="1:6" ht="40.5" customHeight="1">
       <c r="A181" t="s">
-        <v>2480</v>
+        <v>2439</v>
       </c>
       <c r="B181" t="s">
-        <v>2480</v>
+        <v>2439</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>2479</v>
+        <v>2438</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="8" t="s">
-        <v>2467</v>
+        <v>2798</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>2478</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>2477</v>
+        <v>2436</v>
       </c>
       <c r="B182" t="s">
-        <v>2477</v>
+        <v>2436</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>2476</v>
+        <v>2435</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="8" t="s">
-        <v>2467</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>2475</v>
+        <v>2434</v>
       </c>
       <c r="B183" t="s">
-        <v>2475</v>
+        <v>2434</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>2474</v>
+        <v>2433</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="8" t="s">
-        <v>2467</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>2473</v>
+        <v>2432</v>
       </c>
       <c r="B184" t="s">
-        <v>2473</v>
+        <v>2432</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>2472</v>
+        <v>2431</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="8" t="s">
-        <v>2467</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>2471</v>
+        <v>2430</v>
       </c>
       <c r="B185" t="s">
-        <v>2471</v>
+        <v>2430</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>2470</v>
+        <v>2429</v>
       </c>
       <c r="D185" s="10"/>
       <c r="E185" s="8" t="s">
-        <v>2467</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>2469</v>
+        <v>2428</v>
       </c>
       <c r="B186" t="s">
-        <v>2469</v>
+        <v>2428</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>2468</v>
+        <v>2427</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="8" t="s">
-        <v>2467</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="26.45" customHeight="1">
@@ -24480,11 +24441,11 @@
         <v>26.2</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>2466</v>
+        <v>2426</v>
       </c>
       <c r="D187" s="10"/>
       <c r="E187" s="8" t="s">
-        <v>2263</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="41.45" customHeight="1">
@@ -24495,7 +24456,7 @@
         <v>26.3</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>2465</v>
+        <v>2425</v>
       </c>
       <c r="D188" s="10"/>
     </row>
@@ -24507,7 +24468,7 @@
         <v>26.4</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>2464</v>
+        <v>2424</v>
       </c>
       <c r="D189" s="10"/>
     </row>
@@ -24516,7 +24477,7 @@
         <v>27</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>2463</v>
+        <v>2423</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -24529,11 +24490,11 @@
         <v>27.1</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>2462</v>
+        <v>2422</v>
       </c>
       <c r="D191" s="10"/>
       <c r="E191" s="8" t="s">
-        <v>2461</v>
+        <v>907</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="44.45" customHeight="1">
@@ -24544,7 +24505,7 @@
         <v>27.2</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>2460</v>
+        <v>2421</v>
       </c>
       <c r="D192" s="10"/>
       <c r="E192" s="8" t="s">
@@ -24553,13 +24514,13 @@
     </row>
     <row r="193" spans="1:6" ht="38.25">
       <c r="A193" t="s">
-        <v>2459</v>
+        <v>2420</v>
       </c>
       <c r="B193" t="s">
-        <v>2459</v>
+        <v>2420</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>2458</v>
+        <v>2419</v>
       </c>
       <c r="D193" s="10"/>
       <c r="E193" s="8" t="s">
@@ -24568,13 +24529,13 @@
     </row>
     <row r="194" spans="1:6" ht="25.5">
       <c r="A194" t="s">
-        <v>2457</v>
+        <v>2418</v>
       </c>
       <c r="B194" t="s">
-        <v>2457</v>
+        <v>2418</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>2456</v>
+        <v>2417</v>
       </c>
       <c r="D194" s="10"/>
       <c r="E194" s="8" t="s">
@@ -24583,13 +24544,13 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>2455</v>
+        <v>2416</v>
       </c>
       <c r="B195" t="s">
-        <v>2455</v>
+        <v>2416</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>2454</v>
+        <v>2415</v>
       </c>
       <c r="D195" s="10"/>
       <c r="E195" s="8" t="s">
@@ -24604,14 +24565,14 @@
         <v>27.4</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>2453</v>
+        <v>2414</v>
       </c>
       <c r="D196" s="10"/>
       <c r="E196" s="8" t="s">
-        <v>2450</v>
+        <v>2786</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>2452</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="44.45" customHeight="1">
@@ -24622,11 +24583,11 @@
         <v>27.5</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>2451</v>
+        <v>2412</v>
       </c>
       <c r="D197" s="10"/>
       <c r="E197" s="8" t="s">
-        <v>2450</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="44.45" customHeight="1">
@@ -24634,53 +24595,53 @@
         <v>28</v>
       </c>
       <c r="B198" t="s">
-        <v>2449</v>
+        <v>2411</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
     </row>
     <row r="199" spans="1:6" ht="56.1" customHeight="1">
       <c r="A199" t="s">
-        <v>2448</v>
+        <v>2410</v>
       </c>
       <c r="B199" t="s">
-        <v>2448</v>
+        <v>2410</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>2447</v>
+        <v>2409</v>
       </c>
       <c r="D199" s="10"/>
       <c r="E199" s="8" t="s">
-        <v>2446</v>
+        <v>2799</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>2445</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>2444</v>
+        <v>2407</v>
       </c>
       <c r="B200" t="s">
-        <v>2444</v>
+        <v>2407</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>2443</v>
+        <v>2406</v>
       </c>
       <c r="D200" s="10"/>
       <c r="E200" s="8" t="s">
-        <v>2442</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>2441</v>
+        <v>2405</v>
       </c>
       <c r="B201" t="s">
-        <v>2441</v>
+        <v>2405</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>2440</v>
+        <v>2404</v>
       </c>
       <c r="D201" s="10"/>
       <c r="E201" s="8" t="s">
@@ -24689,13 +24650,13 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>2439</v>
+        <v>2403</v>
       </c>
       <c r="B202" t="s">
-        <v>2439</v>
+        <v>2403</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>2438</v>
+        <v>2402</v>
       </c>
       <c r="D202" s="10"/>
     </row>
@@ -24707,7 +24668,7 @@
         <v>28.2</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>2437</v>
+        <v>2401</v>
       </c>
       <c r="D203" s="10"/>
     </row>
@@ -24719,11 +24680,11 @@
         <v>28.3</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>2436</v>
+        <v>2400</v>
       </c>
       <c r="D204" s="10"/>
       <c r="F204" s="8" t="s">
-        <v>2435</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="25.5">
@@ -24734,7 +24695,7 @@
         <v>28.4</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>2434</v>
+        <v>2398</v>
       </c>
       <c r="D205" s="10"/>
     </row>
@@ -24743,7 +24704,7 @@
         <v>29</v>
       </c>
       <c r="B206" t="s">
-        <v>2433</v>
+        <v>2397</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -24756,97 +24717,97 @@
         <v>29.1</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>2432</v>
+        <v>2396</v>
       </c>
       <c r="D207" s="10"/>
       <c r="E207" s="8" t="s">
-        <v>2431</v>
+        <v>2762</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>2430</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="27.6" customHeight="1">
       <c r="A208" t="s">
-        <v>2429</v>
+        <v>2394</v>
       </c>
       <c r="B208" t="s">
-        <v>2429</v>
+        <v>2394</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>2428</v>
+        <v>2393</v>
       </c>
       <c r="D208" s="10"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>2427</v>
+        <v>2392</v>
       </c>
       <c r="B209" t="s">
-        <v>2427</v>
+        <v>2392</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>2426</v>
+        <v>2391</v>
       </c>
       <c r="D209" s="10"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>2425</v>
+        <v>2390</v>
       </c>
       <c r="B210" t="s">
-        <v>2425</v>
+        <v>2390</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>2424</v>
+        <v>2389</v>
       </c>
       <c r="D210" s="10"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>2423</v>
+        <v>2388</v>
       </c>
       <c r="B211" t="s">
-        <v>2423</v>
+        <v>2388</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>2422</v>
+        <v>2387</v>
       </c>
       <c r="D211" s="10"/>
     </row>
     <row r="212" spans="1:5" ht="25.5">
       <c r="A212" t="s">
-        <v>2421</v>
+        <v>2386</v>
       </c>
       <c r="B212" t="s">
-        <v>2421</v>
+        <v>2386</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>2420</v>
+        <v>2385</v>
       </c>
       <c r="D212" s="10"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>2419</v>
+        <v>2384</v>
       </c>
       <c r="B213" t="s">
-        <v>2419</v>
+        <v>2384</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>2418</v>
+        <v>2383</v>
       </c>
       <c r="D213" s="10"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>2417</v>
+        <v>2382</v>
       </c>
       <c r="B214" t="s">
-        <v>2417</v>
+        <v>2382</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>2416</v>
+        <v>2381</v>
       </c>
       <c r="D214" s="10"/>
     </row>
@@ -24858,7 +24819,7 @@
         <v>29.3</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>2415</v>
+        <v>2380</v>
       </c>
       <c r="D215" s="10"/>
     </row>
@@ -24870,7 +24831,7 @@
         <v>29.4</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>2414</v>
+        <v>2379</v>
       </c>
       <c r="D216" s="10"/>
     </row>
@@ -24882,7 +24843,7 @@
         <v>29.5</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>2413</v>
+        <v>2378</v>
       </c>
       <c r="D217" s="10"/>
     </row>
@@ -24894,7 +24855,7 @@
         <v>29.6</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>2412</v>
+        <v>2377</v>
       </c>
       <c r="D218" s="10"/>
     </row>
@@ -24906,7 +24867,7 @@
         <v>29.7</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>2411</v>
+        <v>2376</v>
       </c>
       <c r="D219" s="10"/>
     </row>
@@ -24915,7 +24876,7 @@
         <v>30</v>
       </c>
       <c r="B220" t="s">
-        <v>2410</v>
+        <v>2375</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -24928,7 +24889,7 @@
         <v>850</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>2409</v>
+        <v>2374</v>
       </c>
       <c r="D221" s="10"/>
       <c r="E221" s="8" t="s">
@@ -24943,7 +24904,7 @@
         <v>851</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>2408</v>
+        <v>2373</v>
       </c>
       <c r="D222" s="10"/>
       <c r="E222" s="8" t="s">
@@ -24958,11 +24919,11 @@
         <v>852</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>2407</v>
+        <v>2372</v>
       </c>
       <c r="D223" s="10"/>
       <c r="E223" s="8" t="s">
-        <v>2406</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="25.5">
@@ -24973,7 +24934,7 @@
         <v>853</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>2405</v>
+        <v>2371</v>
       </c>
       <c r="D224" s="10"/>
       <c r="E224" s="8" t="s">
@@ -24988,7 +24949,7 @@
         <v>855</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>2404</v>
+        <v>2370</v>
       </c>
       <c r="D225" s="10"/>
       <c r="E225" s="8" t="s">
@@ -25003,7 +24964,7 @@
         <v>857</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>2403</v>
+        <v>2369</v>
       </c>
       <c r="D226" s="10"/>
       <c r="E226" s="8" t="s">
@@ -25018,7 +24979,7 @@
         <v>859</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>2402</v>
+        <v>2368</v>
       </c>
       <c r="D227" s="10"/>
       <c r="E227" s="8" t="s">
@@ -25033,7 +24994,7 @@
         <v>30.2</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>2401</v>
+        <v>2367</v>
       </c>
       <c r="D228" s="10"/>
     </row>
@@ -25045,14 +25006,14 @@
         <v>30.3</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>2400</v>
+        <v>2366</v>
       </c>
       <c r="D229" s="10"/>
       <c r="E229" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>2399</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -25060,7 +25021,7 @@
         <v>31</v>
       </c>
       <c r="B230" t="s">
-        <v>2398</v>
+        <v>2364</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -25073,14 +25034,14 @@
         <v>31.1</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>2397</v>
+        <v>2363</v>
       </c>
       <c r="D231" s="10"/>
       <c r="E231" s="8" t="s">
-        <v>2396</v>
+        <v>2800</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>2395</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="45">
@@ -25091,14 +25052,14 @@
         <v>31.2</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>2394</v>
+        <v>2361</v>
       </c>
       <c r="D232" s="10"/>
       <c r="E232" s="8" t="s">
         <v>824</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>2393</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="35.1" customHeight="1">
@@ -25109,11 +25070,11 @@
         <v>31.3</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>2392</v>
+        <v>2359</v>
       </c>
       <c r="D233" s="10"/>
       <c r="E233" s="8" t="s">
-        <v>2391</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="35.1" customHeight="1">
@@ -25121,7 +25082,7 @@
         <v>32</v>
       </c>
       <c r="B234" t="s">
-        <v>2390</v>
+        <v>2358</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="10"/>
@@ -25134,41 +25095,41 @@
         <v>32.1</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>2389</v>
+        <v>2357</v>
       </c>
       <c r="D235" s="10"/>
       <c r="E235" s="8" t="s">
-        <v>2382</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="38.25">
       <c r="A236" t="s">
-        <v>2388</v>
+        <v>2356</v>
       </c>
       <c r="B236" t="s">
-        <v>2388</v>
+        <v>2356</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>2387</v>
+        <v>2355</v>
       </c>
       <c r="D236" s="10"/>
       <c r="E236" s="8" t="s">
-        <v>2382</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>2386</v>
+        <v>2354</v>
       </c>
       <c r="B237" t="s">
-        <v>2386</v>
+        <v>2354</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>2385</v>
+        <v>2353</v>
       </c>
       <c r="D237" s="10"/>
       <c r="E237" s="8" t="s">
-        <v>2382</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="25.5">
@@ -25179,11 +25140,11 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>2384</v>
+        <v>2352</v>
       </c>
       <c r="D238" s="10"/>
       <c r="E238" s="8" t="s">
-        <v>2382</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="38.25">
@@ -25194,11 +25155,11 @@
         <v>32.4</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>2383</v>
+        <v>2351</v>
       </c>
       <c r="D239" s="10"/>
       <c r="E239" s="8" t="s">
-        <v>2382</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -25206,7 +25167,7 @@
         <v>33</v>
       </c>
       <c r="B240" t="s">
-        <v>2381</v>
+        <v>2350</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -25219,14 +25180,14 @@
         <v>33.1</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>2380</v>
+        <v>2349</v>
       </c>
       <c r="D241" s="10"/>
       <c r="E241" s="8" t="s">
-        <v>2243</v>
+        <v>2764</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>2379</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -25237,7 +25198,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>2378</v>
+        <v>2347</v>
       </c>
       <c r="D242" s="10"/>
     </row>
@@ -25246,141 +25207,141 @@
         <v>34</v>
       </c>
       <c r="B243" t="s">
-        <v>2377</v>
+        <v>2346</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
     </row>
     <row r="244" spans="1:6" ht="45.95" customHeight="1">
       <c r="A244" t="s">
-        <v>2376</v>
+        <v>2345</v>
       </c>
       <c r="B244" t="s">
-        <v>2376</v>
+        <v>2345</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>2375</v>
+        <v>2344</v>
       </c>
       <c r="D244" s="10"/>
       <c r="E244" s="8" t="s">
-        <v>2374</v>
+        <v>2802</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>2373</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="27" customHeight="1">
       <c r="A245" t="s">
-        <v>2372</v>
+        <v>2342</v>
       </c>
       <c r="B245" t="s">
-        <v>2372</v>
+        <v>2342</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>2371</v>
+        <v>2341</v>
       </c>
       <c r="D245" s="10"/>
       <c r="E245" s="8" t="s">
-        <v>2370</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="28.5" customHeight="1">
       <c r="A246" t="s">
-        <v>2369</v>
+        <v>2340</v>
       </c>
       <c r="B246" t="s">
-        <v>2369</v>
+        <v>2340</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>2368</v>
+        <v>2339</v>
       </c>
       <c r="D246" s="10"/>
     </row>
     <row r="247" spans="1:6" ht="63.75">
       <c r="A247" t="s">
-        <v>2367</v>
+        <v>2338</v>
       </c>
       <c r="B247" t="s">
-        <v>2367</v>
+        <v>2338</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>2366</v>
+        <v>2337</v>
       </c>
       <c r="D247" s="10"/>
     </row>
     <row r="248" spans="1:6" ht="25.5">
       <c r="A248" t="s">
-        <v>2365</v>
+        <v>2336</v>
       </c>
       <c r="B248" t="s">
-        <v>2365</v>
+        <v>2336</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>2364</v>
+        <v>2335</v>
       </c>
       <c r="D248" s="10"/>
       <c r="E248" s="8" t="s">
-        <v>2243</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>2363</v>
+        <v>2334</v>
       </c>
       <c r="B249" t="s">
-        <v>2363</v>
+        <v>2334</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>2362</v>
+        <v>2333</v>
       </c>
       <c r="D249" s="10"/>
       <c r="E249" s="8" t="s">
-        <v>2243</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="25.5">
       <c r="A250" t="s">
-        <v>2361</v>
+        <v>2332</v>
       </c>
       <c r="B250" t="s">
-        <v>2361</v>
+        <v>2332</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>2360</v>
+        <v>2331</v>
       </c>
       <c r="D250" s="10"/>
       <c r="E250" s="8" t="s">
-        <v>2243</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="51">
       <c r="A251" t="s">
-        <v>2359</v>
+        <v>2330</v>
       </c>
       <c r="B251" t="s">
-        <v>2359</v>
+        <v>2330</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>2358</v>
+        <v>2329</v>
       </c>
       <c r="D251" s="10"/>
       <c r="E251" s="8" t="s">
-        <v>2243</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="38.25">
       <c r="A252" t="s">
-        <v>2357</v>
+        <v>2328</v>
       </c>
       <c r="B252" t="s">
-        <v>2357</v>
+        <v>2328</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>2356</v>
+        <v>2327</v>
       </c>
       <c r="D252" s="10"/>
       <c r="E252" s="8" t="s">
-        <v>2355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="25.5">
@@ -25391,11 +25352,11 @@
         <v>34.299999999999997</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>2354</v>
+        <v>2326</v>
       </c>
       <c r="D253" s="10"/>
       <c r="E253" s="8" t="s">
-        <v>2353</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="114.75">
@@ -25403,40 +25364,40 @@
         <v>35</v>
       </c>
       <c r="B254" t="s">
-        <v>2352</v>
+        <v>2325</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>2351</v>
+        <v>2324</v>
       </c>
       <c r="D254" s="10"/>
     </row>
     <row r="255" spans="1:6" ht="45">
       <c r="A255" t="s">
-        <v>2350</v>
+        <v>2323</v>
       </c>
       <c r="B255" t="s">
-        <v>2350</v>
+        <v>2323</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>2349</v>
+        <v>2322</v>
       </c>
       <c r="D255" s="10"/>
       <c r="E255" s="8" t="s">
-        <v>2348</v>
+        <v>2290</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>2347</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="30.95" customHeight="1">
       <c r="A256" t="s">
-        <v>2346</v>
+        <v>2320</v>
       </c>
       <c r="B256" t="s">
-        <v>2346</v>
+        <v>2320</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>2345</v>
+        <v>2319</v>
       </c>
       <c r="D256" s="10"/>
     </row>
@@ -25445,84 +25406,84 @@
         <v>36</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>2344</v>
+        <v>2318</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="10"/>
     </row>
     <row r="258" spans="1:6" ht="63.75">
       <c r="A258" t="s">
-        <v>2343</v>
+        <v>2317</v>
       </c>
       <c r="B258" t="s">
-        <v>2343</v>
+        <v>2317</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>2342</v>
+        <v>2316</v>
       </c>
       <c r="D258" s="10"/>
       <c r="E258" s="8" t="s">
-        <v>2333</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="25.5">
       <c r="A259" t="s">
-        <v>2341</v>
+        <v>2315</v>
       </c>
       <c r="B259" t="s">
-        <v>2341</v>
+        <v>2315</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>2340</v>
+        <v>2314</v>
       </c>
       <c r="D259" s="10"/>
       <c r="E259" s="8" t="s">
-        <v>2333</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>2339</v>
+        <v>2313</v>
       </c>
       <c r="B260" t="s">
-        <v>2339</v>
+        <v>2313</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>2338</v>
+        <v>2312</v>
       </c>
       <c r="D260" s="10"/>
       <c r="E260" s="8" t="s">
-        <v>2333</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="25.5">
       <c r="A261" t="s">
-        <v>2337</v>
+        <v>2311</v>
       </c>
       <c r="B261" t="s">
-        <v>2337</v>
+        <v>2311</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>2336</v>
+        <v>2310</v>
       </c>
       <c r="D261" s="10"/>
       <c r="E261" s="8" t="s">
-        <v>2333</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="25.5">
       <c r="A262" t="s">
-        <v>2335</v>
+        <v>2309</v>
       </c>
       <c r="B262" t="s">
-        <v>2335</v>
+        <v>2309</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>2334</v>
+        <v>2308</v>
       </c>
       <c r="D262" s="10"/>
       <c r="E262" s="8" t="s">
-        <v>2333</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="150">
@@ -25530,10 +25491,10 @@
         <v>37</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>2332</v>
+        <v>2307</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>2331</v>
+        <v>2306</v>
       </c>
       <c r="D263" s="10"/>
       <c r="E263" s="8" t="s">
@@ -25545,43 +25506,43 @@
         <v>38</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>2330</v>
+        <v>2305</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>2329</v>
+        <v>2304</v>
       </c>
       <c r="D264" s="10"/>
       <c r="E264" s="8" t="s">
-        <v>2313</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30">
       <c r="A265" t="s">
-        <v>2328</v>
+        <v>2303</v>
       </c>
       <c r="B265" t="s">
-        <v>2328</v>
+        <v>2303</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>2327</v>
+        <v>2302</v>
       </c>
       <c r="D265" s="10"/>
       <c r="E265" s="8" t="s">
-        <v>2326</v>
+        <v>2766</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>2325</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>2324</v>
+        <v>2300</v>
       </c>
       <c r="B266" t="s">
-        <v>2324</v>
+        <v>2300</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>2323</v>
+        <v>2299</v>
       </c>
       <c r="D266" s="10"/>
       <c r="E266" s="8" t="s">
@@ -25590,13 +25551,13 @@
     </row>
     <row r="267" spans="1:6" ht="25.5">
       <c r="A267" t="s">
-        <v>2322</v>
+        <v>2298</v>
       </c>
       <c r="B267" t="s">
-        <v>2322</v>
+        <v>2298</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>2321</v>
+        <v>2297</v>
       </c>
       <c r="D267" s="10"/>
       <c r="E267" s="8" t="s">
@@ -25605,32 +25566,32 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>2320</v>
+        <v>2296</v>
       </c>
       <c r="B268" t="s">
-        <v>2320</v>
+        <v>2296</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>2319</v>
+        <v>2295</v>
       </c>
       <c r="D268" s="10"/>
       <c r="E268" s="8" t="s">
-        <v>2303</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>2318</v>
+        <v>2294</v>
       </c>
       <c r="B269" t="s">
-        <v>2318</v>
+        <v>2294</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>2317</v>
+        <v>2293</v>
       </c>
       <c r="D269" s="10"/>
       <c r="E269" s="8" t="s">
-        <v>2316</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -25638,7 +25599,7 @@
         <v>39</v>
       </c>
       <c r="B270" t="s">
-        <v>2315</v>
+        <v>2292</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -25651,11 +25612,11 @@
         <v>39.1</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2314</v>
+        <v>2291</v>
       </c>
       <c r="D271" s="10"/>
       <c r="E271" s="8" t="s">
-        <v>2313</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="25.5">
@@ -25666,43 +25627,43 @@
         <v>39.200000000000003</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>2312</v>
+        <v>2289</v>
       </c>
       <c r="D272" s="10"/>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>2311</v>
+        <v>2288</v>
       </c>
       <c r="B273" t="s">
-        <v>2311</v>
+        <v>2288</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>2310</v>
+        <v>2287</v>
       </c>
       <c r="D273" s="10"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>2309</v>
+        <v>2286</v>
       </c>
       <c r="B274" t="s">
-        <v>2309</v>
+        <v>2286</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>2308</v>
+        <v>2285</v>
       </c>
       <c r="D274" s="10"/>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>2307</v>
+        <v>2284</v>
       </c>
       <c r="B275" t="s">
-        <v>2307</v>
+        <v>2284</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>2306</v>
+        <v>2283</v>
       </c>
       <c r="D275" s="10"/>
     </row>
@@ -25711,14 +25672,14 @@
         <v>40</v>
       </c>
       <c r="B276" t="s">
-        <v>2305</v>
+        <v>2282</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>2304</v>
+        <v>2281</v>
       </c>
       <c r="D276" s="10"/>
       <c r="E276" s="8" t="s">
-        <v>2303</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="89.25">
@@ -25726,10 +25687,10 @@
         <v>41</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>2302</v>
+        <v>2280</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>2301</v>
+        <v>2279</v>
       </c>
       <c r="D277" s="10"/>
     </row>
@@ -25738,10 +25699,10 @@
         <v>42</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>2300</v>
+        <v>2278</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>2299</v>
+        <v>2277</v>
       </c>
       <c r="D278" s="10"/>
     </row>
@@ -25750,10 +25711,10 @@
         <v>43</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>2298</v>
+        <v>2276</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>2297</v>
+        <v>2275</v>
       </c>
       <c r="D279" s="10"/>
     </row>
@@ -25762,10 +25723,10 @@
         <v>44</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>2296</v>
+        <v>2274</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>2295</v>
+        <v>2273</v>
       </c>
       <c r="D280" s="10"/>
     </row>
@@ -25774,10 +25735,10 @@
         <v>45</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>2294</v>
+        <v>2272</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>2293</v>
+        <v>2271</v>
       </c>
       <c r="D281" s="10"/>
     </row>
@@ -25786,10 +25747,10 @@
         <v>46</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>2292</v>
+        <v>2270</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>2291</v>
+        <v>2269</v>
       </c>
       <c r="D282" s="10"/>
     </row>
@@ -25798,10 +25759,10 @@
         <v>47</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>2290</v>
+        <v>2268</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>2289</v>
+        <v>2267</v>
       </c>
       <c r="D283" s="10"/>
     </row>
@@ -25810,10 +25771,10 @@
         <v>48</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>2288</v>
+        <v>2266</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>2287</v>
+        <v>2265</v>
       </c>
       <c r="D284" s="10"/>
     </row>
@@ -25822,10 +25783,10 @@
         <v>49</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>2286</v>
+        <v>2264</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2285</v>
+        <v>2263</v>
       </c>
       <c r="D285" s="10"/>
     </row>
@@ -25834,10 +25795,10 @@
         <v>50</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>2284</v>
+        <v>2262</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2283</v>
+        <v>2261</v>
       </c>
       <c r="D286" s="10"/>
       <c r="E286" s="8" t="s">
@@ -25849,10 +25810,10 @@
         <v>51</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>2282</v>
+        <v>2260</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2281</v>
+        <v>2259</v>
       </c>
       <c r="D287" s="10"/>
     </row>
@@ -25861,10 +25822,10 @@
         <v>52</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>2280</v>
+        <v>2258</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2279</v>
+        <v>2257</v>
       </c>
       <c r="D288" s="10"/>
     </row>
@@ -25873,10 +25834,10 @@
         <v>53</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>2278</v>
+        <v>2256</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2277</v>
+        <v>2255</v>
       </c>
       <c r="D289" s="10"/>
     </row>
@@ -25885,10 +25846,10 @@
         <v>54</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>2276</v>
+        <v>2254</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2275</v>
+        <v>2253</v>
       </c>
       <c r="D290" s="10"/>
     </row>
@@ -25897,10 +25858,10 @@
         <v>55</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>2274</v>
+        <v>2252</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2273</v>
+        <v>2251</v>
       </c>
       <c r="D291" s="10"/>
     </row>
@@ -25909,10 +25870,10 @@
         <v>56</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>2272</v>
+        <v>2250</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2271</v>
+        <v>2249</v>
       </c>
       <c r="D292" s="10"/>
     </row>
@@ -25921,7 +25882,7 @@
         <v>57</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>2270</v>
+        <v>2248</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
@@ -25934,22 +25895,22 @@
         <v>57.1</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2269</v>
+        <v>2247</v>
       </c>
       <c r="D294" s="10"/>
       <c r="E294" s="8" t="s">
-        <v>2268</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="27.95" customHeight="1">
       <c r="A295" t="s">
-        <v>2267</v>
+        <v>2246</v>
       </c>
       <c r="B295" t="s">
-        <v>2267</v>
+        <v>2246</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2266</v>
+        <v>2245</v>
       </c>
       <c r="D295" s="10"/>
       <c r="E295" s="8" t="s">
@@ -25958,58 +25919,58 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>2265</v>
+        <v>2244</v>
       </c>
       <c r="B296" t="s">
-        <v>2265</v>
+        <v>2244</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2264</v>
+        <v>2243</v>
       </c>
       <c r="D296" s="10"/>
       <c r="E296" s="8" t="s">
-        <v>2263</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>2262</v>
+        <v>2242</v>
       </c>
       <c r="B297" t="s">
-        <v>2262</v>
+        <v>2242</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2261</v>
+        <v>2241</v>
       </c>
       <c r="D297" s="10"/>
       <c r="E297" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="30">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>2260</v>
+        <v>2240</v>
       </c>
       <c r="B298" t="s">
-        <v>2260</v>
+        <v>2240</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2259</v>
+        <v>2239</v>
       </c>
       <c r="D298" s="10"/>
       <c r="E298" s="8" t="s">
-        <v>2258</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>2257</v>
+        <v>2238</v>
       </c>
       <c r="B299" t="s">
-        <v>2257</v>
+        <v>2238</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2256</v>
+        <v>2237</v>
       </c>
       <c r="D299" s="10"/>
       <c r="E299" s="8" t="s">
@@ -26024,68 +25985,68 @@
         <v>57.2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2255</v>
+        <v>2236</v>
       </c>
       <c r="D300" s="10"/>
     </row>
     <row r="301" spans="1:5" ht="30">
       <c r="A301" t="s">
-        <v>2254</v>
+        <v>2235</v>
       </c>
       <c r="B301" t="s">
-        <v>2254</v>
+        <v>2235</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2253</v>
+        <v>2234</v>
       </c>
       <c r="D301" s="10"/>
       <c r="E301" s="8" t="s">
-        <v>2252</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>2251</v>
+        <v>2233</v>
       </c>
       <c r="B302" t="s">
-        <v>2251</v>
+        <v>2233</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2250</v>
+        <v>2232</v>
       </c>
       <c r="D302" s="10"/>
       <c r="E302" s="8" t="s">
-        <v>2249</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="45">
       <c r="A303" t="s">
-        <v>2248</v>
+        <v>2231</v>
       </c>
       <c r="B303" t="s">
-        <v>2248</v>
+        <v>2231</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2247</v>
+        <v>2230</v>
       </c>
       <c r="D303" s="10"/>
       <c r="E303" s="8" t="s">
-        <v>2246</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>2245</v>
+        <v>2229</v>
       </c>
       <c r="B304" t="s">
-        <v>2245</v>
+        <v>2229</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>2244</v>
+        <v>2228</v>
       </c>
       <c r="D304" s="10"/>
       <c r="E304" s="8" t="s">
-        <v>2243</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -26096,79 +26057,79 @@
         <v>57.3</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>2242</v>
+        <v>2227</v>
       </c>
       <c r="D305" s="10"/>
     </row>
     <row r="306" spans="1:6" ht="38.25">
       <c r="A306" t="s">
-        <v>2241</v>
+        <v>2226</v>
       </c>
       <c r="B306" t="s">
-        <v>2241</v>
+        <v>2226</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>2240</v>
+        <v>2225</v>
       </c>
       <c r="D306" s="10"/>
     </row>
     <row r="307" spans="1:6" ht="38.25">
       <c r="A307" t="s">
-        <v>2239</v>
+        <v>2224</v>
       </c>
       <c r="B307" t="s">
-        <v>2239</v>
+        <v>2224</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>2238</v>
+        <v>2223</v>
       </c>
       <c r="D307" s="10"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>2237</v>
+        <v>2222</v>
       </c>
       <c r="B308" t="s">
-        <v>2237</v>
+        <v>2222</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>2236</v>
+        <v>2221</v>
       </c>
       <c r="D308" s="10"/>
     </row>
     <row r="309" spans="1:6" ht="25.5">
       <c r="A309" t="s">
-        <v>2235</v>
+        <v>2220</v>
       </c>
       <c r="B309" t="s">
-        <v>2235</v>
+        <v>2220</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>2234</v>
+        <v>2219</v>
       </c>
       <c r="D309" s="10"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>2233</v>
+        <v>2218</v>
       </c>
       <c r="B310" t="s">
-        <v>2233</v>
+        <v>2218</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>2232</v>
+        <v>2217</v>
       </c>
       <c r="D310" s="10"/>
     </row>
     <row r="311" spans="1:6" ht="25.5">
       <c r="A311" t="s">
-        <v>2231</v>
+        <v>2216</v>
       </c>
       <c r="B311" t="s">
-        <v>2231</v>
+        <v>2216</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>2230</v>
+        <v>2215</v>
       </c>
       <c r="D311" s="10"/>
     </row>
@@ -26177,14 +26138,14 @@
         <v>58</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>2229</v>
+        <v>2214</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>2228</v>
+        <v>2213</v>
       </c>
       <c r="D312" s="10"/>
       <c r="E312" s="8" t="s">
-        <v>2227</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="55.5" customHeight="1">
@@ -26192,14 +26153,14 @@
         <v>59</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>2226</v>
+        <v>2212</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>2225</v>
+        <v>2211</v>
       </c>
       <c r="D313" s="10"/>
       <c r="E313" s="8" t="s">
-        <v>2224</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="180">
@@ -26207,17 +26168,17 @@
         <v>60</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>2223</v>
+        <v>2210</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>2222</v>
+        <v>2209</v>
       </c>
       <c r="D314" s="10"/>
       <c r="E314" s="8" t="s">
-        <v>2218</v>
+        <v>2773</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>2221</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="52.5" customHeight="1">
@@ -26225,14 +26186,14 @@
         <v>61</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>2220</v>
+        <v>2207</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>2219</v>
+        <v>2206</v>
       </c>
       <c r="D315" s="10"/>
       <c r="E315" s="8" t="s">
-        <v>2218</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="140.25">
@@ -26240,14 +26201,14 @@
         <v>62</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>2217</v>
+        <v>2205</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>2216</v>
+        <v>2204</v>
       </c>
       <c r="D316" s="10"/>
       <c r="E316" s="8" t="s">
-        <v>2215</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="324" customHeight="1">
@@ -26255,10 +26216,10 @@
         <v>63</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>2214</v>
+        <v>2202</v>
       </c>
       <c r="C317" s="10" t="s">
-        <v>2213</v>
+        <v>2201</v>
       </c>
       <c r="D317" s="10"/>
     </row>
@@ -26267,7 +26228,7 @@
         <v>64</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>2212</v>
+        <v>2200</v>
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="10"/>
@@ -26280,11 +26241,11 @@
         <v>64.099999999999994</v>
       </c>
       <c r="C319" s="10" t="s">
-        <v>2211</v>
+        <v>2199</v>
       </c>
       <c r="D319" s="10"/>
       <c r="E319" s="8" t="s">
-        <v>2210</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="15.6" customHeight="1">
@@ -26295,11 +26256,11 @@
         <v>64.2</v>
       </c>
       <c r="C320" s="10" t="s">
-        <v>2209</v>
+        <v>2198</v>
       </c>
       <c r="D320" s="10"/>
       <c r="E320" s="8" t="s">
-        <v>2207</v>
+        <v>732</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="42.6" customHeight="1">
@@ -26310,131 +26271,131 @@
         <v>64.3</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>2208</v>
+        <v>2197</v>
       </c>
       <c r="D321" s="10"/>
       <c r="E321" s="8" t="s">
-        <v>2207</v>
+        <v>732</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="41.45" customHeight="1">
       <c r="A322" t="s">
-        <v>2206</v>
+        <v>2196</v>
       </c>
       <c r="B322" t="s">
-        <v>2206</v>
+        <v>2196</v>
       </c>
       <c r="C322" s="10" t="s">
-        <v>2205</v>
+        <v>2195</v>
       </c>
       <c r="D322" s="10"/>
       <c r="E322" s="8" t="s">
-        <v>2188</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.6" customHeight="1">
       <c r="A323" t="s">
-        <v>2204</v>
+        <v>2194</v>
       </c>
       <c r="B323" t="s">
-        <v>2204</v>
+        <v>2194</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>2203</v>
+        <v>2193</v>
       </c>
       <c r="D323" s="10"/>
       <c r="E323" s="8" t="s">
-        <v>2188</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.6" customHeight="1">
       <c r="A324" t="s">
-        <v>2202</v>
+        <v>2192</v>
       </c>
       <c r="B324" t="s">
-        <v>2202</v>
+        <v>2192</v>
       </c>
       <c r="C324" s="10" t="s">
-        <v>2201</v>
+        <v>2191</v>
       </c>
       <c r="D324" s="10"/>
       <c r="E324" s="8" t="s">
-        <v>2188</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="29.1" customHeight="1">
       <c r="A325" t="s">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="B325" t="s">
-        <v>2200</v>
+        <v>2190</v>
       </c>
       <c r="C325" s="10" t="s">
-        <v>2199</v>
+        <v>2189</v>
       </c>
       <c r="D325" s="10"/>
       <c r="E325" s="8" t="s">
-        <v>2191</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.6" customHeight="1">
       <c r="A326" t="s">
-        <v>2198</v>
+        <v>2188</v>
       </c>
       <c r="B326" t="s">
-        <v>2198</v>
+        <v>2188</v>
       </c>
       <c r="C326" s="10" t="s">
-        <v>2197</v>
+        <v>2187</v>
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="8" t="s">
-        <v>2196</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.6" customHeight="1">
       <c r="A327" t="s">
-        <v>2195</v>
+        <v>2186</v>
       </c>
       <c r="B327" t="s">
-        <v>2195</v>
+        <v>2186</v>
       </c>
       <c r="C327" s="10" t="s">
-        <v>2194</v>
+        <v>2185</v>
       </c>
       <c r="D327" s="10"/>
       <c r="E327" s="8" t="s">
-        <v>2188</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.6" customHeight="1">
       <c r="A328" t="s">
-        <v>2193</v>
+        <v>2184</v>
       </c>
       <c r="B328" t="s">
-        <v>2193</v>
+        <v>2184</v>
       </c>
       <c r="C328" s="10" t="s">
-        <v>2192</v>
+        <v>2183</v>
       </c>
       <c r="D328" s="10"/>
       <c r="E328" s="8" t="s">
-        <v>2191</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="26.1" customHeight="1">
       <c r="A329" t="s">
-        <v>2190</v>
+        <v>2182</v>
       </c>
       <c r="B329" t="s">
-        <v>2190</v>
+        <v>2182</v>
       </c>
       <c r="C329" s="10" t="s">
-        <v>2189</v>
+        <v>2181</v>
       </c>
       <c r="D329" s="10"/>
       <c r="E329" s="8" t="s">
-        <v>2188</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="47.45" customHeight="1">
@@ -26445,11 +26406,11 @@
         <v>64.5</v>
       </c>
       <c r="C330" s="10" t="s">
-        <v>2187</v>
+        <v>2180</v>
       </c>
       <c r="D330" s="10"/>
       <c r="E330" s="8" t="s">
-        <v>2185</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="43.5" customHeight="1">
@@ -26460,11 +26421,11 @@
         <v>64.599999999999994</v>
       </c>
       <c r="C331" s="10" t="s">
-        <v>2186</v>
+        <v>2179</v>
       </c>
       <c r="D331" s="10"/>
       <c r="E331" s="8" t="s">
-        <v>2185</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.6" customHeight="1">
@@ -26475,7 +26436,7 @@
         <v>64.7</v>
       </c>
       <c r="C332" s="10" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="D332" s="10"/>
       <c r="E332" s="8" t="s">
@@ -26490,7 +26451,7 @@
         <v>64.8</v>
       </c>
       <c r="C333" s="10" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="D333" s="10"/>
     </row>
@@ -26499,14 +26460,14 @@
         <v>65</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="C334" s="10" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="D334" s="10"/>
       <c r="E334" s="8" t="s">
-        <v>2180</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="60">
@@ -26514,10 +26475,10 @@
         <v>66</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="C335" s="10" t="s">
-        <v>2178</v>
+        <v>2173</v>
       </c>
       <c r="D335" s="10"/>
     </row>
@@ -26526,10 +26487,10 @@
         <v>67</v>
       </c>
       <c r="B336" s="14" t="s">
-        <v>2177</v>
+        <v>2172</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="D336" s="10"/>
     </row>
@@ -26538,10 +26499,10 @@
         <v>68</v>
       </c>
       <c r="B337" s="14" t="s">
-        <v>2175</v>
+        <v>2170</v>
       </c>
       <c r="C337" s="10" t="s">
-        <v>2174</v>
+        <v>2169</v>
       </c>
       <c r="D337" s="10"/>
     </row>
@@ -26550,10 +26511,10 @@
         <v>69</v>
       </c>
       <c r="B338" s="14" t="s">
-        <v>2173</v>
+        <v>2168</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>2172</v>
+        <v>2167</v>
       </c>
       <c r="D338" s="10"/>
     </row>
@@ -26562,10 +26523,10 @@
         <v>70</v>
       </c>
       <c r="B339" s="14" t="s">
-        <v>2171</v>
+        <v>2166</v>
       </c>
       <c r="C339" s="10" t="s">
-        <v>2170</v>
+        <v>2165</v>
       </c>
       <c r="D339" s="10"/>
     </row>
@@ -26574,10 +26535,10 @@
         <v>71</v>
       </c>
       <c r="B340" s="14" t="s">
-        <v>2169</v>
+        <v>2164</v>
       </c>
       <c r="C340" s="10" t="s">
-        <v>2168</v>
+        <v>2163</v>
       </c>
       <c r="D340" s="10"/>
     </row>
@@ -26586,10 +26547,10 @@
         <v>72</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>2167</v>
+        <v>2162</v>
       </c>
       <c r="C341" s="10" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="D341" s="10"/>
       <c r="E341" s="8" t="s">
@@ -26601,10 +26562,10 @@
         <v>73</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>2165</v>
+        <v>2160</v>
       </c>
       <c r="C342" s="10" t="s">
-        <v>2164</v>
+        <v>2159</v>
       </c>
       <c r="D342" s="10"/>
     </row>
@@ -26613,10 +26574,10 @@
         <v>74</v>
       </c>
       <c r="B343" s="14" t="s">
-        <v>2163</v>
+        <v>2158</v>
       </c>
       <c r="C343" s="10" t="s">
-        <v>2162</v>
+        <v>2157</v>
       </c>
       <c r="D343" s="10"/>
     </row>
@@ -26625,10 +26586,10 @@
         <v>75</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>2161</v>
+        <v>2156</v>
       </c>
       <c r="C344" s="10" t="s">
-        <v>2160</v>
+        <v>2155</v>
       </c>
       <c r="D344" s="10"/>
       <c r="E344" s="8" t="s">
@@ -26640,14 +26601,14 @@
         <v>76</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>2159</v>
+        <v>2154</v>
       </c>
       <c r="C345" s="10" t="s">
-        <v>2158</v>
+        <v>2153</v>
       </c>
       <c r="D345" s="10"/>
       <c r="E345" s="8" t="s">
-        <v>2157</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="75">
@@ -26655,10 +26616,10 @@
         <v>77</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="C346" s="10" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="D346" s="10"/>
     </row>
@@ -26667,10 +26628,10 @@
         <v>78</v>
       </c>
       <c r="B347" s="14" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="C347" s="10" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="D347" s="10"/>
     </row>
@@ -26679,10 +26640,10 @@
         <v>79</v>
       </c>
       <c r="B348" s="14" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="C348" s="10" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="D348" s="10"/>
     </row>
@@ -26691,10 +26652,10 @@
         <v>80</v>
       </c>
       <c r="B349" s="14" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="C349" s="10" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="D349" s="10"/>
     </row>
@@ -26703,10 +26664,10 @@
         <v>81</v>
       </c>
       <c r="B350" s="14" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="C350" s="10" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="D350" s="10"/>
     </row>
@@ -26715,14 +26676,14 @@
         <v>82</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="C351" s="10" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="D351" s="10"/>
       <c r="E351" s="8" t="s">
-        <v>2144</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="42.95" customHeight="1">
@@ -26730,17 +26691,17 @@
         <v>83</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="D352" s="10"/>
       <c r="E352" s="8" t="s">
-        <v>2141</v>
+        <v>2779</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="353" spans="1:6" ht="206.1" customHeight="1">
@@ -26748,14 +26709,14 @@
         <v>84</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D353" s="10"/>
       <c r="E353" s="8" t="s">
-        <v>2135</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="165.75">
@@ -26763,14 +26724,14 @@
         <v>85</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="8" t="s">
-        <v>2135</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="120">
@@ -26778,14 +26739,14 @@
         <v>86</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="D355" s="10"/>
       <c r="E355" s="8" t="s">
-        <v>2116</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="75">
@@ -26793,10 +26754,10 @@
         <v>87</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="C356" s="10" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D356" s="10"/>
     </row>
@@ -26805,19 +26766,19 @@
         <v>88</v>
       </c>
       <c r="B357" s="14" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="C357" s="10" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D357" s="10"/>
     </row>
     <row r="358" spans="1:6" ht="75">
       <c r="B358" s="14" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="D358" s="10"/>
     </row>
@@ -26829,7 +26790,7 @@
         <v>90</v>
       </c>
       <c r="C359" s="10" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D359" s="10"/>
     </row>
@@ -26838,17 +26799,17 @@
         <v>91</v>
       </c>
       <c r="B360" s="13" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D360" s="10"/>
       <c r="E360" s="8" t="s">
-        <v>2116</v>
+        <v>2788</v>
       </c>
       <c r="F360" s="8" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="105">
@@ -26856,14 +26817,14 @@
         <v>92</v>
       </c>
       <c r="B361" s="13" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="D361" s="10"/>
       <c r="E361" s="8" t="s">
-        <v>2116</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="409.5">
@@ -26871,14 +26832,14 @@
         <v>93</v>
       </c>
       <c r="B362" s="12" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C362" s="10" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D362" s="10"/>
       <c r="E362" s="8" t="s">
-        <v>2116</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="408.75" customHeight="1">
@@ -26886,14 +26847,14 @@
         <v>94</v>
       </c>
       <c r="B363" s="12" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C363" s="10" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D363" s="10"/>
       <c r="E363" s="8" t="s">
-        <v>2116</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="120">
@@ -30393,15 +30354,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -30652,6 +30604,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
   <ds:schemaRefs>
@@ -30661,16 +30622,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30687,4 +30638,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719F5EC7-5D72-4677-9E50-863125BD9E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B870772E-9DFB-4C9C-82DC-65823EEFD081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="2808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="2807">
   <si>
     <t>id</t>
   </si>
@@ -7614,9 +7614,6 @@
     <t>63 Procedure for adjudication by Adjudicating Officer</t>
   </si>
   <si>
-    <t>5.2.2.</t>
-  </si>
-  <si>
     <t>(1) For the purpose of adjudging the penalties under sections 57 to 61or awarding compensation under section 64, the Authority shall appoint such Adjudicating Officer as may be prescribed.
 (2)  The Central Government shall, having regard to the need to ensure the operational segregation, independence, and neutrality of the adjudication under this Act, prescribe—
 (a) number of Adjudicating Officers to be appointed under sub-section (1); 
@@ -9608,9 +9605,6 @@
     <t>7.3.2;7.3.3.;7.2.8;8.3.1;6.15.2</t>
   </si>
   <si>
-    <t>5.2.1;5.2.2.</t>
-  </si>
-  <si>
     <t>6.15.2.3;6.13.1;6.13.1.5</t>
   </si>
   <si>
@@ -9623,9 +9617,6 @@
     <t>7.2.4;7.2.2;8.2.1</t>
   </si>
   <si>
-    <t>6.4.1.2;7.2.2.</t>
-  </si>
-  <si>
     <t>7.3.8;7.3.9</t>
   </si>
   <si>
@@ -9665,9 +9656,6 @@
     <t>7.4.4;6.15.1.3;6.2.1.1;7.2.8</t>
   </si>
   <si>
-    <t>7.3.1;;7.3.2;7.3.3;</t>
-  </si>
-  <si>
     <t>7.2.2;5.3.2;5.2.1</t>
   </si>
   <si>
@@ -9699,6 +9687,15 @@
   </si>
   <si>
     <t>5.2.1;5.2.2;5.3.3;5.3.1</t>
+  </si>
+  <si>
+    <t>6.4.1.2;7.2.2</t>
+  </si>
+  <si>
+    <t>7.3.1;7.3.2;7.3.3;</t>
+  </si>
+  <si>
+    <t>5.2.1;5.2.2</t>
   </si>
 </sst>
 </file>
@@ -10230,7 +10227,7 @@
         <v>2090</v>
       </c>
       <c r="C4" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
   </sheetData>
@@ -21724,8 +21721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BA70E6-9548-4D87-8A65-060EC90D2814}">
   <dimension ref="A1:F664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E355" sqref="E355"/>
+    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E335" sqref="E335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21742,10 +21739,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="C1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>3</v>
@@ -21754,7 +21751,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="153">
@@ -21762,13 +21759,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="105">
@@ -21776,17 +21773,17 @@
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="8" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="135">
@@ -21794,39 +21791,39 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="B5" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="8" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="51">
       <c r="A6" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="B6" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="8" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="105">
@@ -21834,10 +21831,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="8" t="s">
@@ -21849,7 +21846,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -21862,22 +21859,22 @@
         <v>7.1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="8" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="B10" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="8" t="s">
@@ -21886,13 +21883,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="B11" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="8" t="s">
@@ -21901,13 +21898,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="B12" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="8" t="s">
@@ -21916,13 +21913,13 @@
     </row>
     <row r="13" spans="1:6" ht="25.5">
       <c r="A13" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="B13" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="8" t="s">
@@ -21931,13 +21928,13 @@
     </row>
     <row r="14" spans="1:6" ht="29.1" customHeight="1">
       <c r="A14" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="B14" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="8" t="s">
@@ -21946,13 +21943,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="B15" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="8" t="s">
@@ -21961,31 +21958,31 @@
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="B16" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="8" t="s">
         <v>673</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="25.5">
       <c r="A17" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="B17" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="8" t="s">
@@ -21994,13 +21991,13 @@
     </row>
     <row r="18" spans="1:6" ht="25.5">
       <c r="A18" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="B18" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="8" t="s">
@@ -22009,13 +22006,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="B19" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="8" t="s">
@@ -22024,58 +22021,58 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="B20" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D20" s="10"/>
       <c r="F20" s="8" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="B21" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="8" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5">
       <c r="A22" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="B22" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="D22" s="10"/>
       <c r="F22" s="8" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1">
       <c r="A23" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="B23" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="C23" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
@@ -22086,14 +22083,14 @@
         <v>7.2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="8" t="s">
         <v>187</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="25.5">
@@ -22104,11 +22101,11 @@
         <v>7.3</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="8" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="90">
@@ -22116,7 +22113,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -22129,55 +22126,55 @@
         <v>8.1</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8" t="s">
         <v>221</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="25.5">
       <c r="A28" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="B28" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="B29" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="8" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="25.5">
       <c r="A30" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="B30" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="8" t="s">
@@ -22192,11 +22189,11 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="8" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="42.95" customHeight="1">
@@ -22204,7 +22201,7 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -22217,14 +22214,14 @@
         <v>9.1</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="8" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28.5" customHeight="1">
@@ -22235,7 +22232,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="8" t="s">
@@ -22250,11 +22247,11 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="8" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="31.5" customHeight="1">
@@ -22265,11 +22262,11 @@
         <v>9.4</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="8" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="75">
@@ -22277,10 +22274,10 @@
         <v>10</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="8" t="s">
@@ -22292,7 +22289,7 @@
         <v>11</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -22305,7 +22302,7 @@
         <v>11.1</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="8" t="s">
@@ -22314,115 +22311,115 @@
     </row>
     <row r="40" spans="1:6" ht="60">
       <c r="A40" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="45">
       <c r="A41" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="B41" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8" t="s">
         <v>165</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="25.5">
       <c r="A42" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B42" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="8" t="s">
         <v>165</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="B43" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="D43" s="10"/>
       <c r="E43" s="8" t="s">
         <v>165</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28.5" customHeight="1">
       <c r="A44" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B44" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="8" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="39.6" customHeight="1">
       <c r="A45" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B45" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="8" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B46" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="8" t="s">
@@ -22431,13 +22428,13 @@
     </row>
     <row r="47" spans="1:6" ht="30" customHeight="1">
       <c r="A47" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B47" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="8" t="s">
@@ -22452,14 +22449,14 @@
         <v>11.4</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="D48" s="10"/>
       <c r="E48" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" customHeight="1">
@@ -22470,7 +22467,7 @@
         <v>11.5</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="8" t="s">
@@ -22485,11 +22482,11 @@
         <v>11.6</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="D50" s="10"/>
       <c r="F50" s="8" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="33.6" customHeight="1">
@@ -22497,38 +22494,38 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:6" ht="42.95" customHeight="1">
       <c r="A52" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B52" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="D52" s="10"/>
       <c r="E52" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="B53" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="8" t="s">
@@ -22537,13 +22534,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B54" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="8" t="s">
@@ -22552,25 +22549,25 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B55" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:6" ht="25.5">
       <c r="A56" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B56" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="8" t="s">
@@ -22579,13 +22576,13 @@
     </row>
     <row r="57" spans="1:6" ht="25.5">
       <c r="A57" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B57" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="8" t="s">
@@ -22594,13 +22591,13 @@
     </row>
     <row r="58" spans="1:6" ht="24.95" customHeight="1">
       <c r="A58" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B58" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="8" t="s">
@@ -22612,7 +22609,7 @@
         <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -22625,14 +22622,14 @@
         <v>684</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="8" t="s">
-        <v>2782</v>
+        <v>2804</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -22643,11 +22640,11 @@
         <v>685</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="8" t="s">
-        <v>2580</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -22658,11 +22655,11 @@
         <v>686</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="8" t="s">
-        <v>2580</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="25.5">
@@ -22673,11 +22670,11 @@
         <v>687</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="8" t="s">
-        <v>2580</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="51">
@@ -22688,11 +22685,11 @@
         <v>13.2</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="8" t="s">
-        <v>2580</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -22700,7 +22697,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -22713,14 +22710,14 @@
         <v>704</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="8" t="s">
-        <v>2580</v>
+        <v>159</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="45">
@@ -22731,11 +22728,11 @@
         <v>705</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="D67" s="10"/>
       <c r="F67" s="8" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -22746,7 +22743,7 @@
         <v>706</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="8" t="s">
@@ -22761,7 +22758,7 @@
         <v>707</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="8" t="s">
@@ -22776,7 +22773,7 @@
         <v>708</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="D70" s="10"/>
     </row>
@@ -22788,11 +22785,11 @@
         <v>14.2</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="D71" s="10"/>
       <c r="F71" s="8" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -22803,7 +22800,7 @@
         <v>711</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="D72" s="10"/>
     </row>
@@ -22815,7 +22812,7 @@
         <v>712</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="D73" s="10"/>
     </row>
@@ -22827,7 +22824,7 @@
         <v>713</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="D74" s="10"/>
     </row>
@@ -22839,7 +22836,7 @@
         <v>714</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="D75" s="10"/>
     </row>
@@ -22851,7 +22848,7 @@
         <v>715</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="D76" s="10"/>
     </row>
@@ -22863,7 +22860,7 @@
         <v>716</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D77" s="10"/>
     </row>
@@ -22875,19 +22872,19 @@
         <v>717</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="B79" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D79" s="10"/>
     </row>
@@ -22899,7 +22896,7 @@
         <v>14.3</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="8" t="s">
@@ -22914,7 +22911,7 @@
         <v>705</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="D81" s="10"/>
     </row>
@@ -22923,7 +22920,7 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -22936,7 +22933,7 @@
         <v>731</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="8" t="s">
@@ -22951,7 +22948,7 @@
         <v>733</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="D84" s="10"/>
       <c r="E84" s="8" t="s">
@@ -22966,7 +22963,7 @@
         <v>734</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="D85" s="10"/>
       <c r="E85" s="8" t="s">
@@ -22981,7 +22978,7 @@
         <v>735</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="D86" s="10"/>
       <c r="E86" s="8" t="s">
@@ -22996,14 +22993,14 @@
         <v>15.2</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="D87" s="10"/>
       <c r="E87" s="8" t="s">
         <v>159</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -23011,7 +23008,7 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -23024,14 +23021,14 @@
         <v>16.100000000000001</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="D89" s="10"/>
       <c r="E89" s="8" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="30" customHeight="1">
@@ -23042,100 +23039,100 @@
         <v>16.2</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="D90" s="10"/>
       <c r="E90" s="8" t="s">
-        <v>2580</v>
+        <v>159</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="38.25">
       <c r="A91" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="B91" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="D91" s="10"/>
       <c r="E91" s="8" t="s">
-        <v>2580</v>
+        <v>159</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="B92" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="D92" s="10"/>
       <c r="E92" s="8" t="s">
-        <v>2580</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="B93" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="8" t="s">
-        <v>2580</v>
+        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="B94" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="8" t="s">
-        <v>2580</v>
+        <v>159</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="25.5">
       <c r="A95" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B95" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="D95" s="10"/>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="B96" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="D96" s="10"/>
     </row>
@@ -23147,11 +23144,11 @@
         <v>16.5</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="D97" s="10"/>
       <c r="F97" s="8" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="29.45" customHeight="1">
@@ -23162,7 +23159,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="D98" s="10"/>
     </row>
@@ -23174,7 +23171,7 @@
         <v>16.7</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="D99" s="10"/>
     </row>
@@ -23183,7 +23180,7 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -23196,11 +23193,11 @@
         <v>748</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="D101" s="10"/>
       <c r="E101" s="8" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="25.5">
@@ -23211,11 +23208,11 @@
         <v>749</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="D102" s="10"/>
       <c r="E102" s="8" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="38.1" customHeight="1">
@@ -23226,7 +23223,7 @@
         <v>750</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D103" s="10"/>
     </row>
@@ -23238,11 +23235,11 @@
         <v>17.2</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="8" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="60">
@@ -23253,14 +23250,14 @@
         <v>17.3</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="8" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -23268,7 +23265,7 @@
         <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -23281,7 +23278,7 @@
         <v>766</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="8" t="s">
@@ -23296,7 +23293,7 @@
         <v>767</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="8" t="s">
@@ -23311,7 +23308,7 @@
         <v>768</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="8" t="s">
@@ -23326,7 +23323,7 @@
         <v>769</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="8" t="s">
@@ -23341,7 +23338,7 @@
         <v>18.2</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="8" t="s">
@@ -23356,7 +23353,7 @@
         <v>18.2</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D112" s="10"/>
       <c r="E112" s="8" t="s">
@@ -23371,11 +23368,11 @@
         <v>18.399999999999999</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="D113" s="10"/>
       <c r="E113" s="8" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="57.95" customHeight="1">
@@ -23383,96 +23380,96 @@
         <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
     </row>
     <row r="115" spans="1:6" ht="42" customHeight="1">
       <c r="A115" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B115" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="8" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="B116" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="D116" s="10"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="B117" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="D117" s="10"/>
     </row>
     <row r="118" spans="1:6" ht="25.5">
       <c r="A118" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="B118" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="D118" s="10"/>
       <c r="E118" s="8" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="25.5">
       <c r="A119" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="B119" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D119" s="10"/>
       <c r="E119" s="8" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="25.5">
       <c r="A120" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="B120" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D120" s="10"/>
       <c r="E120" s="8" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -23480,38 +23477,38 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
     </row>
     <row r="122" spans="1:6" ht="47.1" customHeight="1">
       <c r="A122" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="B122" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="D122" s="10"/>
       <c r="E122" s="8" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="B123" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D123" s="10"/>
       <c r="E123" s="8" t="s">
@@ -23520,46 +23517,46 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="B124" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D124" s="10"/>
       <c r="E124" s="8" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="47.1" customHeight="1">
       <c r="A125" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="B125" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D125" s="10"/>
       <c r="E125" s="8" t="s">
         <v>205</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="38.25">
       <c r="A126" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="B126" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="D126" s="10"/>
       <c r="E126" s="8" t="s">
@@ -23568,31 +23565,31 @@
     </row>
     <row r="127" spans="1:6" ht="45">
       <c r="A127" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="B127" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="D127" s="10"/>
       <c r="E127" s="8" t="s">
         <v>190</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="B128" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="D128" s="10"/>
       <c r="E128" s="8" t="s">
@@ -23601,13 +23598,13 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="B129" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="8" t="s">
@@ -23616,13 +23613,13 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="B130" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="8" t="s">
@@ -23631,13 +23628,13 @@
     </row>
     <row r="131" spans="1:6" ht="40.5" customHeight="1">
       <c r="A131" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="B131" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="D131" s="10"/>
       <c r="E131" s="8" t="s">
@@ -23652,7 +23649,7 @@
         <v>20.399999999999999</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="D132" s="10"/>
     </row>
@@ -23664,7 +23661,7 @@
         <v>20.5</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="D133" s="10"/>
     </row>
@@ -23673,7 +23670,7 @@
         <v>21</v>
       </c>
       <c r="B134" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
@@ -23686,7 +23683,7 @@
         <v>21.1</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="8" t="s">
@@ -23701,7 +23698,7 @@
         <v>21.2</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="8" t="s">
@@ -23716,7 +23713,7 @@
         <v>21.3</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="8" t="s">
@@ -23731,11 +23728,11 @@
         <v>21.4</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="8" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="25.5">
@@ -23746,11 +23743,11 @@
         <v>21.5</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="8" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -23758,83 +23755,83 @@
         <v>22</v>
       </c>
       <c r="B140" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
     </row>
     <row r="141" spans="1:6" ht="42.95" customHeight="1">
       <c r="A141" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="B141" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D141" s="10"/>
       <c r="E141" s="8" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="B142" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="8" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="30">
       <c r="A143" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="B143" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="8" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="B144" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="8" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="B145" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="8">
@@ -23843,28 +23840,28 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="B146" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="8" t="s">
-        <v>2796</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="B147" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="8">
@@ -23879,7 +23876,7 @@
         <v>22.2</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D148" s="10"/>
     </row>
@@ -23891,7 +23888,7 @@
         <v>22.3</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D149" s="10"/>
     </row>
@@ -23903,7 +23900,7 @@
         <v>22.4</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D150" s="10"/>
     </row>
@@ -23912,38 +23909,38 @@
         <v>23</v>
       </c>
       <c r="B151" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
     </row>
     <row r="152" spans="1:6" ht="48" customHeight="1">
       <c r="A152" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="B152" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D152" s="10"/>
       <c r="E152" s="8" t="s">
         <v>673</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="B153" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D153" s="10"/>
       <c r="E153" s="8" t="s">
@@ -23952,46 +23949,46 @@
     </row>
     <row r="154" spans="1:6" ht="26.45" customHeight="1">
       <c r="A154" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="B154" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D154" s="10"/>
       <c r="E154" s="8" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="25.5">
       <c r="A155" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="B155" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D155" s="10"/>
       <c r="E155" s="8" t="s">
         <v>673</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="B156" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="8" t="s">
@@ -24000,28 +23997,28 @@
     </row>
     <row r="157" spans="1:6" ht="25.5">
       <c r="A157" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="B157" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D157" s="10"/>
       <c r="F157" s="8" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="25.5">
       <c r="A158" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="B158" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D158" s="10"/>
       <c r="E158" s="8" t="s">
@@ -24030,13 +24027,13 @@
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="B159" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D159" s="10"/>
       <c r="E159" s="8" t="s">
@@ -24051,7 +24048,7 @@
         <v>23.2</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D160" s="10"/>
       <c r="E160" s="8" t="s">
@@ -24066,11 +24063,11 @@
         <v>23.3</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="8" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="25.5">
@@ -24081,7 +24078,7 @@
         <v>23.4</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="8" t="s">
@@ -24096,7 +24093,7 @@
         <v>23.5</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D163" s="10"/>
     </row>
@@ -24105,35 +24102,35 @@
         <v>24</v>
       </c>
       <c r="B164" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:6" ht="60" customHeight="1">
       <c r="A165" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="B165" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="8" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="B166" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="8" t="s">
@@ -24142,13 +24139,13 @@
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="B167" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="8" t="s">
@@ -24163,11 +24160,11 @@
         <v>24.2</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="8" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="90">
@@ -24175,7 +24172,7 @@
         <v>25</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -24188,25 +24185,25 @@
         <v>25.1</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D170" s="10"/>
       <c r="E170" s="8" t="s">
         <v>887</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="25.5">
       <c r="A171" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="B171" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D171" s="10"/>
       <c r="E171" s="8" t="s">
@@ -24215,13 +24212,13 @@
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="B172" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D172" s="10"/>
       <c r="E172" s="8" t="s">
@@ -24230,13 +24227,13 @@
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="B173" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D173" s="10"/>
       <c r="E173" s="8" t="s">
@@ -24245,13 +24242,13 @@
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="B174" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="8" t="s">
@@ -24266,14 +24263,14 @@
         <v>25.3</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="8" t="s">
         <v>887</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="25.5">
@@ -24284,7 +24281,7 @@
         <v>25.4</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D176" s="10"/>
       <c r="E176" s="8" t="s">
@@ -24299,11 +24296,11 @@
         <v>25.5</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="D177" s="10"/>
       <c r="F177" s="8" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="39.950000000000003" customHeight="1">
@@ -24314,7 +24311,7 @@
         <v>25.6</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="D178" s="10"/>
     </row>
@@ -24326,7 +24323,7 @@
         <v>25.7</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="D179" s="10"/>
     </row>
@@ -24335,102 +24332,102 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
     </row>
     <row r="181" spans="1:6" ht="40.5" customHeight="1">
       <c r="A181" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="B181" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="8" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="B182" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="D182" s="10"/>
       <c r="E182" s="8" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="B183" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="D183" s="10"/>
       <c r="E183" s="8" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="B184" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="D184" s="10"/>
       <c r="E184" s="8" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="B185" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="D185" s="10"/>
       <c r="E185" s="8" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="B186" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="D186" s="10"/>
       <c r="E186" s="8" t="s">
-        <v>2798</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="26.45" customHeight="1">
@@ -24441,11 +24438,11 @@
         <v>26.2</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="D187" s="10"/>
       <c r="E187" s="8" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="41.45" customHeight="1">
@@ -24456,7 +24453,7 @@
         <v>26.3</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="D188" s="10"/>
     </row>
@@ -24468,7 +24465,7 @@
         <v>26.4</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="D189" s="10"/>
     </row>
@@ -24477,7 +24474,7 @@
         <v>27</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -24490,7 +24487,7 @@
         <v>27.1</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="D191" s="10"/>
       <c r="E191" s="8" t="s">
@@ -24505,7 +24502,7 @@
         <v>27.2</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="D192" s="10"/>
       <c r="E192" s="8" t="s">
@@ -24514,13 +24511,13 @@
     </row>
     <row r="193" spans="1:6" ht="38.25">
       <c r="A193" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="B193" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="D193" s="10"/>
       <c r="E193" s="8" t="s">
@@ -24529,13 +24526,13 @@
     </row>
     <row r="194" spans="1:6" ht="25.5">
       <c r="A194" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="B194" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="D194" s="10"/>
       <c r="E194" s="8" t="s">
@@ -24544,13 +24541,13 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="B195" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="D195" s="10"/>
       <c r="E195" s="8" t="s">
@@ -24565,14 +24562,14 @@
         <v>27.4</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="D196" s="10"/>
       <c r="E196" s="8" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="44.45" customHeight="1">
@@ -24583,11 +24580,11 @@
         <v>27.5</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="D197" s="10"/>
       <c r="E197" s="8" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="44.45" customHeight="1">
@@ -24595,53 +24592,53 @@
         <v>28</v>
       </c>
       <c r="B198" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
     </row>
     <row r="199" spans="1:6" ht="56.1" customHeight="1">
       <c r="A199" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="B199" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="D199" s="10"/>
       <c r="E199" s="8" t="s">
-        <v>2799</v>
+        <v>2795</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="B200" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="D200" s="10"/>
       <c r="E200" s="8" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="B201" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="D201" s="10"/>
       <c r="E201" s="8" t="s">
@@ -24650,13 +24647,13 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="B202" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="D202" s="10"/>
     </row>
@@ -24668,7 +24665,7 @@
         <v>28.2</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="D203" s="10"/>
     </row>
@@ -24680,11 +24677,11 @@
         <v>28.3</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="D204" s="10"/>
       <c r="F204" s="8" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="25.5">
@@ -24695,7 +24692,7 @@
         <v>28.4</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="D205" s="10"/>
     </row>
@@ -24704,7 +24701,7 @@
         <v>29</v>
       </c>
       <c r="B206" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -24717,97 +24714,97 @@
         <v>29.1</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="D207" s="10"/>
       <c r="E207" s="8" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="27.6" customHeight="1">
       <c r="A208" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="B208" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="D208" s="10"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="B209" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="D209" s="10"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="B210" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="D210" s="10"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="B211" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="D211" s="10"/>
     </row>
     <row r="212" spans="1:5" ht="25.5">
       <c r="A212" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="B212" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="D212" s="10"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="B213" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="D213" s="10"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="B214" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="D214" s="10"/>
     </row>
@@ -24819,7 +24816,7 @@
         <v>29.3</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="D215" s="10"/>
     </row>
@@ -24831,7 +24828,7 @@
         <v>29.4</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="D216" s="10"/>
     </row>
@@ -24843,7 +24840,7 @@
         <v>29.5</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="D217" s="10"/>
     </row>
@@ -24855,7 +24852,7 @@
         <v>29.6</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="D218" s="10"/>
     </row>
@@ -24867,7 +24864,7 @@
         <v>29.7</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="D219" s="10"/>
     </row>
@@ -24876,7 +24873,7 @@
         <v>30</v>
       </c>
       <c r="B220" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -24889,7 +24886,7 @@
         <v>850</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="D221" s="10"/>
       <c r="E221" s="8" t="s">
@@ -24904,7 +24901,7 @@
         <v>851</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="D222" s="10"/>
       <c r="E222" s="8" t="s">
@@ -24919,11 +24916,11 @@
         <v>852</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="D223" s="10"/>
       <c r="E223" s="8" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="25.5">
@@ -24934,7 +24931,7 @@
         <v>853</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="D224" s="10"/>
       <c r="E224" s="8" t="s">
@@ -24949,7 +24946,7 @@
         <v>855</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="D225" s="10"/>
       <c r="E225" s="8" t="s">
@@ -24964,7 +24961,7 @@
         <v>857</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="D226" s="10"/>
       <c r="E226" s="8" t="s">
@@ -24979,7 +24976,7 @@
         <v>859</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="D227" s="10"/>
       <c r="E227" s="8" t="s">
@@ -24994,7 +24991,7 @@
         <v>30.2</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="D228" s="10"/>
     </row>
@@ -25006,14 +25003,14 @@
         <v>30.3</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="D229" s="10"/>
       <c r="E229" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F229" s="8" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -25021,7 +25018,7 @@
         <v>31</v>
       </c>
       <c r="B230" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -25034,14 +25031,14 @@
         <v>31.1</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="D231" s="10"/>
       <c r="E231" s="8" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="45">
@@ -25052,14 +25049,14 @@
         <v>31.2</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="D232" s="10"/>
       <c r="E232" s="8" t="s">
         <v>824</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="35.1" customHeight="1">
@@ -25070,11 +25067,11 @@
         <v>31.3</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="D233" s="10"/>
       <c r="E233" s="8" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="35.1" customHeight="1">
@@ -25082,7 +25079,7 @@
         <v>32</v>
       </c>
       <c r="B234" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="10"/>
@@ -25095,41 +25092,41 @@
         <v>32.1</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="D235" s="10"/>
       <c r="E235" s="8" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="38.25">
       <c r="A236" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="B236" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="D236" s="10"/>
       <c r="E236" s="8" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="B237" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="D237" s="10"/>
       <c r="E237" s="8" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="25.5">
@@ -25140,11 +25137,11 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="D238" s="10"/>
       <c r="E238" s="8" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="38.25">
@@ -25155,11 +25152,11 @@
         <v>32.4</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="D239" s="10"/>
       <c r="E239" s="8" t="s">
-        <v>2801</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -25167,7 +25164,7 @@
         <v>33</v>
       </c>
       <c r="B240" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -25180,14 +25177,14 @@
         <v>33.1</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="D241" s="10"/>
       <c r="E241" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -25198,7 +25195,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="D242" s="10"/>
     </row>
@@ -25207,137 +25204,137 @@
         <v>34</v>
       </c>
       <c r="B243" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
     </row>
     <row r="244" spans="1:6" ht="45.95" customHeight="1">
       <c r="A244" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="B244" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="D244" s="10"/>
       <c r="E244" s="8" t="s">
-        <v>2802</v>
+        <v>2798</v>
       </c>
       <c r="F244" s="8" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="27" customHeight="1">
       <c r="A245" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="B245" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="D245" s="10"/>
       <c r="E245" s="8" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="28.5" customHeight="1">
       <c r="A246" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="B246" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D246" s="10"/>
     </row>
     <row r="247" spans="1:6" ht="63.75">
       <c r="A247" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="B247" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="D247" s="10"/>
     </row>
     <row r="248" spans="1:6" ht="25.5">
       <c r="A248" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="B248" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="D248" s="10"/>
       <c r="E248" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B249" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="D249" s="10"/>
       <c r="E249" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="25.5">
       <c r="A250" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="B250" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D250" s="10"/>
       <c r="E250" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="51">
       <c r="A251" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="B251" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="C251" s="10" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="D251" s="10"/>
       <c r="E251" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="38.25">
       <c r="A252" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="B252" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="D252" s="10"/>
       <c r="E252" s="8" t="s">
@@ -25352,7 +25349,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="D253" s="10"/>
       <c r="E253" s="8" t="s">
@@ -25364,40 +25361,40 @@
         <v>35</v>
       </c>
       <c r="B254" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D254" s="10"/>
     </row>
     <row r="255" spans="1:6" ht="45">
       <c r="A255" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="B255" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="D255" s="10"/>
       <c r="E255" s="8" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="F255" s="8" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="30.95" customHeight="1">
       <c r="A256" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="B256" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D256" s="10"/>
     </row>
@@ -25406,84 +25403,84 @@
         <v>36</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="10"/>
     </row>
     <row r="258" spans="1:6" ht="63.75">
       <c r="A258" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="B258" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="D258" s="10"/>
       <c r="E258" s="8" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="25.5">
       <c r="A259" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="B259" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="D259" s="10"/>
       <c r="E259" s="8" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="B260" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="D260" s="10"/>
       <c r="E260" s="8" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="25.5">
       <c r="A261" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="B261" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="D261" s="10"/>
       <c r="E261" s="8" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="25.5">
       <c r="A262" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="B262" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="D262" s="10"/>
       <c r="E262" s="8" t="s">
-        <v>2797</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="150">
@@ -25491,10 +25488,10 @@
         <v>37</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="D263" s="10"/>
       <c r="E263" s="8" t="s">
@@ -25506,43 +25503,43 @@
         <v>38</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="D264" s="10"/>
       <c r="E264" s="8" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30">
       <c r="A265" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="B265" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="D265" s="10"/>
       <c r="E265" s="8" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="B266" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="D266" s="10"/>
       <c r="E266" s="8" t="s">
@@ -25551,13 +25548,13 @@
     </row>
     <row r="267" spans="1:6" ht="25.5">
       <c r="A267" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="B267" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="D267" s="10"/>
       <c r="E267" s="8" t="s">
@@ -25566,32 +25563,32 @@
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="B268" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="D268" s="10"/>
       <c r="E268" s="8" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="B269" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="D269" s="10"/>
       <c r="E269" s="8" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -25599,7 +25596,7 @@
         <v>39</v>
       </c>
       <c r="B270" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -25612,11 +25609,11 @@
         <v>39.1</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="D271" s="10"/>
       <c r="E271" s="8" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="25.5">
@@ -25627,43 +25624,43 @@
         <v>39.200000000000003</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="D272" s="10"/>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="B273" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="D273" s="10"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="B274" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="D274" s="10"/>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="B275" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="D275" s="10"/>
     </row>
@@ -25672,14 +25669,14 @@
         <v>40</v>
       </c>
       <c r="B276" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="C276" s="10" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="D276" s="10"/>
       <c r="E276" s="8" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="89.25">
@@ -25687,10 +25684,10 @@
         <v>41</v>
       </c>
       <c r="B277" s="14" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D277" s="10"/>
     </row>
@@ -25699,10 +25696,10 @@
         <v>42</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="D278" s="10"/>
     </row>
@@ -25711,10 +25708,10 @@
         <v>43</v>
       </c>
       <c r="B279" s="14" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="D279" s="10"/>
     </row>
@@ -25723,10 +25720,10 @@
         <v>44</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="D280" s="10"/>
     </row>
@@ -25735,10 +25732,10 @@
         <v>45</v>
       </c>
       <c r="B281" s="14" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="D281" s="10"/>
     </row>
@@ -25747,10 +25744,10 @@
         <v>46</v>
       </c>
       <c r="B282" s="14" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="D282" s="10"/>
     </row>
@@ -25759,10 +25756,10 @@
         <v>47</v>
       </c>
       <c r="B283" s="14" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="D283" s="10"/>
     </row>
@@ -25771,10 +25768,10 @@
         <v>48</v>
       </c>
       <c r="B284" s="14" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="D284" s="10"/>
     </row>
@@ -25783,10 +25780,10 @@
         <v>49</v>
       </c>
       <c r="B285" s="14" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D285" s="10"/>
     </row>
@@ -25795,10 +25792,10 @@
         <v>50</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="D286" s="10"/>
       <c r="E286" s="8" t="s">
@@ -25810,10 +25807,10 @@
         <v>51</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="D287" s="10"/>
     </row>
@@ -25822,10 +25819,10 @@
         <v>52</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="D288" s="10"/>
     </row>
@@ -25834,10 +25831,10 @@
         <v>53</v>
       </c>
       <c r="B289" s="14" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="D289" s="10"/>
     </row>
@@ -25846,10 +25843,10 @@
         <v>54</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="D290" s="10"/>
     </row>
@@ -25858,10 +25855,10 @@
         <v>55</v>
       </c>
       <c r="B291" s="14" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="D291" s="10"/>
     </row>
@@ -25870,10 +25867,10 @@
         <v>56</v>
       </c>
       <c r="B292" s="14" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="D292" s="10"/>
     </row>
@@ -25882,7 +25879,7 @@
         <v>57</v>
       </c>
       <c r="B293" s="10" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
@@ -25895,22 +25892,22 @@
         <v>57.1</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D294" s="10"/>
       <c r="E294" s="8" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="27.95" customHeight="1">
       <c r="A295" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="B295" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D295" s="10"/>
       <c r="E295" s="8" t="s">
@@ -25919,28 +25916,28 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="B296" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="D296" s="10"/>
       <c r="E296" s="8" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="B297" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="D297" s="10"/>
       <c r="E297" s="8" t="s">
@@ -25949,28 +25946,28 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="B298" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="D298" s="10"/>
       <c r="E298" s="8" t="s">
-        <v>2803</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="B299" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D299" s="10"/>
       <c r="E299" s="8" t="s">
@@ -25985,68 +25982,68 @@
         <v>57.2</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D300" s="10"/>
     </row>
     <row r="301" spans="1:5" ht="30">
       <c r="A301" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="B301" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D301" s="10"/>
       <c r="E301" s="8" t="s">
-        <v>2804</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="B302" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="D302" s="10"/>
       <c r="E302" s="8" t="s">
-        <v>2770</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="45">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="30">
       <c r="A303" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="B303" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="C303" s="10" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D303" s="10"/>
       <c r="E303" s="8" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="B304" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="C304" s="10" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="D304" s="10"/>
       <c r="E304" s="8" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -26057,79 +26054,79 @@
         <v>57.3</v>
       </c>
       <c r="C305" s="10" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="D305" s="10"/>
     </row>
     <row r="306" spans="1:6" ht="38.25">
       <c r="A306" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B306" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="C306" s="10" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="D306" s="10"/>
     </row>
     <row r="307" spans="1:6" ht="38.25">
       <c r="A307" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B307" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="D307" s="10"/>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B308" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="C308" s="10" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="D308" s="10"/>
     </row>
     <row r="309" spans="1:6" ht="25.5">
       <c r="A309" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B309" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="C309" s="10" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="D309" s="10"/>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B310" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C310" s="10" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="D310" s="10"/>
     </row>
     <row r="311" spans="1:6" ht="25.5">
       <c r="A311" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B311" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="C311" s="10" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="D311" s="10"/>
     </row>
@@ -26138,14 +26135,14 @@
         <v>58</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="C312" s="10" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D312" s="10"/>
       <c r="E312" s="8" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="55.5" customHeight="1">
@@ -26153,14 +26150,14 @@
         <v>59</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="C313" s="10" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D313" s="10"/>
       <c r="E313" s="8" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="180">
@@ -26168,17 +26165,17 @@
         <v>60</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="C314" s="10" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="D314" s="10"/>
       <c r="E314" s="8" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="52.5" customHeight="1">
@@ -26186,14 +26183,14 @@
         <v>61</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="C315" s="10" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="D315" s="10"/>
       <c r="E315" s="8" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="140.25">
@@ -26201,14 +26198,14 @@
         <v>62</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="C316" s="10" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="D316" s="10"/>
       <c r="E316" s="8" t="s">
-        <v>2203</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="324" customHeight="1">
@@ -26245,7 +26242,7 @@
       </c>
       <c r="D319" s="10"/>
       <c r="E319" s="8" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="15.6" customHeight="1">
@@ -26290,7 +26287,7 @@
       </c>
       <c r="D322" s="10"/>
       <c r="E322" s="8" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="323" spans="1:5" ht="15.6" customHeight="1">
@@ -26305,7 +26302,7 @@
       </c>
       <c r="D323" s="10"/>
       <c r="E323" s="8" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="15.6" customHeight="1">
@@ -26320,7 +26317,7 @@
       </c>
       <c r="D324" s="10"/>
       <c r="E324" s="8" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="29.1" customHeight="1">
@@ -26335,7 +26332,7 @@
       </c>
       <c r="D325" s="10"/>
       <c r="E325" s="8" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="326" spans="1:5" ht="15.6" customHeight="1">
@@ -26350,7 +26347,7 @@
       </c>
       <c r="D326" s="10"/>
       <c r="E326" s="8" t="s">
-        <v>2805</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="15.6" customHeight="1">
@@ -26365,7 +26362,7 @@
       </c>
       <c r="D327" s="10"/>
       <c r="E327" s="8" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="15.6" customHeight="1">
@@ -26380,7 +26377,7 @@
       </c>
       <c r="D328" s="10"/>
       <c r="E328" s="8" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="26.1" customHeight="1">
@@ -26395,7 +26392,7 @@
       </c>
       <c r="D329" s="10"/>
       <c r="E329" s="8" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="330" spans="1:5" ht="47.45" customHeight="1">
@@ -26410,7 +26407,7 @@
       </c>
       <c r="D330" s="10"/>
       <c r="E330" s="8" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="331" spans="1:5" ht="43.5" customHeight="1">
@@ -26425,7 +26422,7 @@
       </c>
       <c r="D331" s="10"/>
       <c r="E331" s="8" t="s">
-        <v>2800</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="15.6" customHeight="1">
@@ -26467,7 +26464,7 @@
       </c>
       <c r="D334" s="10"/>
       <c r="E334" s="8" t="s">
-        <v>2777</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="60">
@@ -26608,7 +26605,7 @@
       </c>
       <c r="D345" s="10"/>
       <c r="E345" s="8" t="s">
-        <v>2806</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="75">
@@ -26683,7 +26680,7 @@
       </c>
       <c r="D351" s="10"/>
       <c r="E351" s="8" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="42.95" customHeight="1">
@@ -26698,7 +26695,7 @@
       </c>
       <c r="D352" s="10"/>
       <c r="E352" s="8" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="F352" s="8" t="s">
         <v>2138</v>
@@ -26716,7 +26713,7 @@
       </c>
       <c r="D353" s="10"/>
       <c r="E353" s="8" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="354" spans="1:6" ht="165.75">
@@ -26731,7 +26728,7 @@
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="8" t="s">
-        <v>2807</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="120">
@@ -26746,7 +26743,7 @@
       </c>
       <c r="D355" s="10"/>
       <c r="E355" s="8" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="75">
@@ -26806,7 +26803,7 @@
       </c>
       <c r="D360" s="10"/>
       <c r="E360" s="8" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="F360" s="8" t="s">
         <v>2122</v>
@@ -26824,7 +26821,7 @@
       </c>
       <c r="D361" s="10"/>
       <c r="E361" s="8" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="362" spans="1:6" ht="409.5">
@@ -26839,7 +26836,7 @@
       </c>
       <c r="D362" s="10"/>
       <c r="E362" s="8" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="363" spans="1:6" ht="408.75" customHeight="1">
@@ -26854,7 +26851,7 @@
       </c>
       <c r="D363" s="10"/>
       <c r="E363" s="8" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="120">
@@ -30354,6 +30351,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -30604,15 +30610,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
   <ds:schemaRefs>
@@ -30622,6 +30619,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30638,14 +30645,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B870772E-9DFB-4C9C-82DC-65823EEFD081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AB0553-5668-4244-B2CE-3FB7FE36B669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="2807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="2808">
   <si>
     <t>id</t>
   </si>
@@ -9696,6 +9696,9 @@
   </si>
   <si>
     <t>5.2.1;5.2.2</t>
+  </si>
+  <si>
+    <t>7.3.2;7.3.3;7.2.8;8.3.1;6.15.2</t>
   </si>
 </sst>
 </file>
@@ -21721,8 +21724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BA70E6-9548-4D87-8A65-060EC90D2814}">
   <dimension ref="A1:F664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E335" sqref="E335"/>
+    <sheetView tabSelected="1" topLeftCell="A318" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26377,7 +26380,7 @@
       </c>
       <c r="D328" s="10"/>
       <c r="E328" s="8" t="s">
-        <v>2775</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="329" spans="1:5" ht="26.1" customHeight="1">
@@ -30351,15 +30354,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -30610,6 +30604,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
   <ds:schemaRefs>
@@ -30619,16 +30622,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30645,4 +30638,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AB0553-5668-4244-B2CE-3FB7FE36B669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD34D380-A084-48C4-9D44-C54A99B3DBB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="California CCPA " sheetId="8" r:id="rId10"/>
     <sheet name="Brazil " sheetId="9" r:id="rId11"/>
     <sheet name="GDPR" sheetId="10" r:id="rId12"/>
+    <sheet name="NIST Privacy Framework" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc506801608" localSheetId="3">'Australia '!$C$2</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="2808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5599" uniqueCount="3213">
   <si>
     <t>id</t>
   </si>
@@ -9699,6 +9700,1221 @@
   </si>
   <si>
     <t>7.3.2;7.3.3;7.2.8;8.3.1;6.15.2</t>
+  </si>
+  <si>
+    <t>ID_P</t>
+  </si>
+  <si>
+    <t>ID-P</t>
+  </si>
+  <si>
+    <t>IDENTIFY-P: Develop the organizational understanding to manage privacy risk for individuals arising from data processing.</t>
+  </si>
+  <si>
+    <t>ID_P.IM_P</t>
+  </si>
+  <si>
+    <t>ID.IM-P</t>
+  </si>
+  <si>
+    <t>Inventory and Mapping: Data processing by systems, products, or services is understood and informs the management of privacy risk.</t>
+  </si>
+  <si>
+    <t>ID_P.IM_P.P1</t>
+  </si>
+  <si>
+    <t>ID.IM-P1</t>
+  </si>
+  <si>
+    <t>Systems/products/services that process data are inventoried.</t>
+  </si>
+  <si>
+    <t>ID_P.IM_P.P2</t>
+  </si>
+  <si>
+    <t>ID.IM-P2</t>
+  </si>
+  <si>
+    <t>Owners or operators (e.g., the organization or third parties such as service providers, partners, customers, and developers) and their roles with respect to the systems/products/services and components (e.g., internal or external) that process data are inventoried</t>
+  </si>
+  <si>
+    <t>5.2.3;7.2.8;8.2.6</t>
+  </si>
+  <si>
+    <t>ID_P.IM_P.P3</t>
+  </si>
+  <si>
+    <t>ID.IM-P3</t>
+  </si>
+  <si>
+    <t>Categories of individuals (e.g., customers, employees or prospective employees, consumers) whose data are being processed are inventoried</t>
+  </si>
+  <si>
+    <t>ID_P.IM_P.P4</t>
+  </si>
+  <si>
+    <t>ID.IM-P4</t>
+  </si>
+  <si>
+    <t>Data actions of the systems/products/services are inventoried.</t>
+  </si>
+  <si>
+    <t>ID_P.IM_P.P5</t>
+  </si>
+  <si>
+    <t>ID.IM-P5</t>
+  </si>
+  <si>
+    <t>The purposes for the data actions are inventoried.</t>
+  </si>
+  <si>
+    <t>7.2.1;8.2.2;7.2.5</t>
+  </si>
+  <si>
+    <t>ID_P.IM_P.P6</t>
+  </si>
+  <si>
+    <t>ID.IM-P6</t>
+  </si>
+  <si>
+    <t>Data elements within the data actions are inventoried.</t>
+  </si>
+  <si>
+    <t>7.2.5;7.2.8;8.2.6</t>
+  </si>
+  <si>
+    <t>ID_P.IM_P.P7</t>
+  </si>
+  <si>
+    <t>ID.IM-P7</t>
+  </si>
+  <si>
+    <t>The data processing environment is identified (e.g., geographic location, internal, cloud, third parties).</t>
+  </si>
+  <si>
+    <t>5.2.3;7.2.5;7.2.8;8.2.5;8.2.6</t>
+  </si>
+  <si>
+    <t>ID_P.IM_P.P8</t>
+  </si>
+  <si>
+    <t>ID.IM-P8</t>
+  </si>
+  <si>
+    <t>Data processing is mapped, illustrating the data actions and associated data elements for systems/products/services, including components; roles of the component owners/operators; and interactions of individuals or third parties with the systems/products/services.</t>
+  </si>
+  <si>
+    <t>ID_P.BE_P</t>
+  </si>
+  <si>
+    <t>ID.BE-P</t>
+  </si>
+  <si>
+    <t>Business Environment: The organization’s mission, objectives, stakeholders, and activities are understood and prioritized; this information is used to inform privacy roles, responsibilities, and risk management decisions.</t>
+  </si>
+  <si>
+    <t>ID_P.BE_P.P1</t>
+  </si>
+  <si>
+    <t>ID.BE-P1</t>
+  </si>
+  <si>
+    <t>The organization’s role in the data processing ecosystem is identified and communicated.</t>
+  </si>
+  <si>
+    <t>5.2.1;7.3.3;8.3.1</t>
+  </si>
+  <si>
+    <t>ID_P.BE_P.P2</t>
+  </si>
+  <si>
+    <t>ID.BE-P2</t>
+  </si>
+  <si>
+    <t>Priorities for organizational mission, objectives, and activities are established and communicated.</t>
+  </si>
+  <si>
+    <t>ID_P.BE_P.P3</t>
+  </si>
+  <si>
+    <t>ID.BE-P3</t>
+  </si>
+  <si>
+    <t>Systems/products/services that support organizational priorities are identified and key requirements communicated.</t>
+  </si>
+  <si>
+    <t>5.2.1;5.2.4</t>
+  </si>
+  <si>
+    <t>ID_P.RA_P</t>
+  </si>
+  <si>
+    <t>ID.RA-P</t>
+  </si>
+  <si>
+    <t>Risk Assessment: The organization understands the privacy risks to individuals and how such privacy risks may create follow-on impacts on organizational operations, including mission, functions, other risk management priorities (e.g. compliance, financial), reputation, workforce, and culture.</t>
+  </si>
+  <si>
+    <t>ID_P.RA_P.P1</t>
+  </si>
+  <si>
+    <t>ID.RA-P1</t>
+  </si>
+  <si>
+    <t>Contextual factors related to the systems/products/services and the data actions are identified (e.g., individuals’ demographics and privacy interests or perceptions, data sensitivity, visibility of data processing to individuals and third parties).</t>
+  </si>
+  <si>
+    <t>ID_P.RA_P.P2</t>
+  </si>
+  <si>
+    <t>ID.RA-P2</t>
+  </si>
+  <si>
+    <t>Data analytic inputs and outputs are identified and evaluated for bias.</t>
+  </si>
+  <si>
+    <t>6.11.2.1;6.11.2.5;7.3.10</t>
+  </si>
+  <si>
+    <t>ID_P.RA_P.P3</t>
+  </si>
+  <si>
+    <t>ID.RA-P3</t>
+  </si>
+  <si>
+    <t>Potential problematic data actions and associated problems are identified.</t>
+  </si>
+  <si>
+    <t>ID_P.RA_P.P4</t>
+  </si>
+  <si>
+    <t>ID.RA-P4</t>
+  </si>
+  <si>
+    <t>Problematic data actions, likelihoods, and impacts are used to determine and prioritize risk.</t>
+  </si>
+  <si>
+    <t>ID_P.RA_P.P5</t>
+  </si>
+  <si>
+    <t>ID.RA-P5</t>
+  </si>
+  <si>
+    <t>Risk responses are identified, prioritized, and implemented.</t>
+  </si>
+  <si>
+    <t>5.4.1.2;5.4.1.3</t>
+  </si>
+  <si>
+    <t>ID_P.DE_P</t>
+  </si>
+  <si>
+    <t>ID.DE-P</t>
+  </si>
+  <si>
+    <t>Data Processing Ecosystem Risk Management (ID.DE-P): The organization’s priorities, constraints, risk tolerances, and assumptions are established and used to support risk decisions associated with managing privacy risk and third parties within the data processing ecosystem. The organization has established and implemented the processes to identify, assess, and manage privacy risks within the data processing ecosystem.</t>
+  </si>
+  <si>
+    <t>ID_P.DE_P.P1</t>
+  </si>
+  <si>
+    <t>ID.DE-P1</t>
+  </si>
+  <si>
+    <t>Data processing ecosystem risk management processes are identified, established, assessed, managed, and agreed to by organizational stakeholders.</t>
+  </si>
+  <si>
+    <t>ID_P.DE_P.P2</t>
+  </si>
+  <si>
+    <t>ID.DE-P2</t>
+  </si>
+  <si>
+    <t>Data processing ecosystem parties (e.g., service providers, customers, partners, product manufacturers, application developers) are identified, prioritized, and assessed using a privacy risk assessment process.</t>
+  </si>
+  <si>
+    <t>ID_P.DE_P.P3</t>
+  </si>
+  <si>
+    <t>ID.DE-P3</t>
+  </si>
+  <si>
+    <t>Contracts with data processing ecosystem parties are used to implement appropriate measures designed to meet the objectives of an organization’s privacy program.</t>
+  </si>
+  <si>
+    <t>6.12.1.2;7.2.7;7.2.6;8.2.1</t>
+  </si>
+  <si>
+    <t>ID_P.DE_P.P4</t>
+  </si>
+  <si>
+    <t>ID.DE-P4</t>
+  </si>
+  <si>
+    <t>Interoperability frameworks or similar multi-party approaches are used to manage data processing ecosystem privacy risks.</t>
+  </si>
+  <si>
+    <t>ID_P.DE_P.P5</t>
+  </si>
+  <si>
+    <t>ID.DE-P5</t>
+  </si>
+  <si>
+    <t>Data processing ecosystem parties are routinely assessed using audits, test results, or other forms of evaluations to confirm they are meeting their contractual or framework obligations.</t>
+  </si>
+  <si>
+    <t>GV_P</t>
+  </si>
+  <si>
+    <t>GV-P</t>
+  </si>
+  <si>
+    <t>GOVERN-P: Develop and implement the organizational governance structure to enable an ongoing understanding of the organization’s risk management priorities that are informed by privacy risk.</t>
+  </si>
+  <si>
+    <t>GV_P.PP_P</t>
+  </si>
+  <si>
+    <t>GV.PP-P</t>
+  </si>
+  <si>
+    <t>Governance Policies, Processes, and Procedures: The policies, processes, and procedures to manage and monitor the organization’s regulatory, legal, risk, environmental, and operational requirements are</t>
+  </si>
+  <si>
+    <t>GV_P.PP_P.P1</t>
+  </si>
+  <si>
+    <t>GV.PP-P1</t>
+  </si>
+  <si>
+    <t>Organizational privacy values and policies (e.g., conditions on data processing, individuals’ prerogatives with respect to data processing) are established and communicated.</t>
+  </si>
+  <si>
+    <t>GV_P.PP_P.P2</t>
+  </si>
+  <si>
+    <t>GV.PP-P2</t>
+  </si>
+  <si>
+    <t>Processes to instill organizational privacy values within system/product/service development and operations are established and in place.</t>
+  </si>
+  <si>
+    <t>GV_P.PP_P.P3</t>
+  </si>
+  <si>
+    <t>GV.PP-P3</t>
+  </si>
+  <si>
+    <t>Roles and responsibilities for the workforce are established with respect to privacy.</t>
+  </si>
+  <si>
+    <t>GV_P.PP_P.P4</t>
+  </si>
+  <si>
+    <t>GV.PP-P4</t>
+  </si>
+  <si>
+    <t>Privacy roles and responsibilities are coordinated and aligned with third-party stakeholders (e.g., service providers, customers, partners).</t>
+  </si>
+  <si>
+    <t>GV_P.PP_P.P5</t>
+  </si>
+  <si>
+    <t>GV.PP-P5</t>
+  </si>
+  <si>
+    <t>Legal, regulatory, and contractual requirements regarding privacy are understood and managed.</t>
+  </si>
+  <si>
+    <t>6.15.1.1;5.2.1</t>
+  </si>
+  <si>
+    <t>GV_P.PP_P.P6</t>
+  </si>
+  <si>
+    <t>GV.PP-P6</t>
+  </si>
+  <si>
+    <t>Governance and risk management policies, processes and procedures address privacy risks.</t>
+  </si>
+  <si>
+    <t>GV_P.RM_P</t>
+  </si>
+  <si>
+    <t>GV.RM-P</t>
+  </si>
+  <si>
+    <t>Risk Management Strategy: The organization’s priorities, constraints, risk tolerances, and assumptions are established and used to support operational risk decisions.</t>
+  </si>
+  <si>
+    <t>GV_P.RM_P.P1</t>
+  </si>
+  <si>
+    <t>GV.RM-P1</t>
+  </si>
+  <si>
+    <t>Risk management processes are established, managed, and agreed to by organizational stakeholders.</t>
+  </si>
+  <si>
+    <t>GV_P.RM_P.P2</t>
+  </si>
+  <si>
+    <t>GV.RM-P2</t>
+  </si>
+  <si>
+    <t>Organizational risk tolerance is determined and clearly expressed.</t>
+  </si>
+  <si>
+    <t>5.4.1.2;5.4.1.3;5.2.4</t>
+  </si>
+  <si>
+    <t>GV_P.RM_P.P3</t>
+  </si>
+  <si>
+    <t>GV.RM-P3</t>
+  </si>
+  <si>
+    <t>The organization’s determination of risk tolerance is informed by its role in the data processing ecosystem.</t>
+  </si>
+  <si>
+    <t>GV_P.AT_P</t>
+  </si>
+  <si>
+    <t>GV.AT-P</t>
+  </si>
+  <si>
+    <t>Awareness and Training: The organization’s workforce and third parties engaged in data processing are provided privacy awareness education and are trained to perform their privacyrelated duties and responsibilities consistent with related policies, processes, procedures, and agreements and organizational privacy values.</t>
+  </si>
+  <si>
+    <t>GV_P.AT_P.P1</t>
+  </si>
+  <si>
+    <t>GV.AT-P1</t>
+  </si>
+  <si>
+    <t>The workforce is informed and trained on its roles and responsibilities.</t>
+  </si>
+  <si>
+    <t>GV_P.AT_P.P2</t>
+  </si>
+  <si>
+    <t>GV.AT-P2</t>
+  </si>
+  <si>
+    <t>Senior executives understand their roles and responsibilities.</t>
+  </si>
+  <si>
+    <t>GV_P.AT_P.P3</t>
+  </si>
+  <si>
+    <t>GV.AT-P3</t>
+  </si>
+  <si>
+    <t>Privacy personnel understand their roles and responsibilities.</t>
+  </si>
+  <si>
+    <t>GV_P.AT_P.P4</t>
+  </si>
+  <si>
+    <t>GV.AT-P4</t>
+  </si>
+  <si>
+    <t>Third parties (e.g., service providers, customers, partners) understand their roles and responsibilities.</t>
+  </si>
+  <si>
+    <t>6.12.1.2;6.2.1.1;7.2.6;8.2.1;8.2.4;7.3.3;8.3.1</t>
+  </si>
+  <si>
+    <t>GV_P.MT_P</t>
+  </si>
+  <si>
+    <t>GV.MT-P</t>
+  </si>
+  <si>
+    <t>Monitoring and Review: The policies, processes, and procedures for ongoing review of the organization’s privacy posture are understood and inform the management of privacy risk.</t>
+  </si>
+  <si>
+    <t>GV_P.MT_P.P1</t>
+  </si>
+  <si>
+    <t>GV.MT-P1</t>
+  </si>
+  <si>
+    <t>Privacy risk is re-evaluated on an ongoing basis and as key factors, including the organization’s business environment, governance (e.g., legal obligations, risk tolerance), data processing, and systems/products/services change.</t>
+  </si>
+  <si>
+    <t>GV_P.MT_P.P2</t>
+  </si>
+  <si>
+    <t>GV.MT-P2</t>
+  </si>
+  <si>
+    <t>Privacy values, policies, and training are reviewed and any updates are communicated.</t>
+  </si>
+  <si>
+    <t>6.2.1.1;6.3.1.1</t>
+  </si>
+  <si>
+    <t>GV_P.MT_P.P3</t>
+  </si>
+  <si>
+    <t>GV.MT-P3</t>
+  </si>
+  <si>
+    <t>Policies, processes, and procedures for assessing compliance with legal requirements and privacy policies are established and in place.</t>
+  </si>
+  <si>
+    <t>GV_P.MT_P.P4</t>
+  </si>
+  <si>
+    <t>GV.MT-P4</t>
+  </si>
+  <si>
+    <t>Policies, processes, and procedures for communicating progress on managing privacy risks are established and in place.</t>
+  </si>
+  <si>
+    <t>GV_P.MT_P.P5</t>
+  </si>
+  <si>
+    <t>GV.MT-P5</t>
+  </si>
+  <si>
+    <t>Policies, processes, and procedures are established and in place to receive, analyze, and respond to problematic data actions disclosed to the organization from internal and external sources (e.g., internal discovery, privacy researchers).</t>
+  </si>
+  <si>
+    <t>6.13.1.2;6.13.1.3</t>
+  </si>
+  <si>
+    <t>GV_P.MT_P.P6</t>
+  </si>
+  <si>
+    <t>GV.MT-P6</t>
+  </si>
+  <si>
+    <t>Policies, processes, and procedures incorporate lessons learned from problematic data actions.</t>
+  </si>
+  <si>
+    <t>GV_P.MT_P.P7</t>
+  </si>
+  <si>
+    <t>GV.MT-P7</t>
+  </si>
+  <si>
+    <t>Policies, processes, and procedures for receiving, tracking, and responding to complaints, concerns, and questions from individuals about organizational privacy practices are established and in place.</t>
+  </si>
+  <si>
+    <t>7.3.9;8.3.1</t>
+  </si>
+  <si>
+    <t>CT_P</t>
+  </si>
+  <si>
+    <t>CT-P</t>
+  </si>
+  <si>
+    <t>CONTROL-P: Develop and implement appropriate activities to enable organizations or individuals to manage data with</t>
+  </si>
+  <si>
+    <t>CT_P.PO_P</t>
+  </si>
+  <si>
+    <t>CT.PO-P</t>
+  </si>
+  <si>
+    <t>Data Management Policies, Processes, and Procedures: Policies, processes, and procedures are maintained and used to</t>
+  </si>
+  <si>
+    <t>CT_P.PO_P.P1</t>
+  </si>
+  <si>
+    <t>CT.PO-P1</t>
+  </si>
+  <si>
+    <t>Policies, processes, and procedures for authorizing data processing (e.g., organizational decisions, individual consent), revoking authorizations, and maintaining authorizations are established and in place.</t>
+  </si>
+  <si>
+    <t>CT_P.PO_P.P2</t>
+  </si>
+  <si>
+    <t>CT.PO-P2</t>
+  </si>
+  <si>
+    <t>Policies, processes, and procedures for enabling data review, transfer, sharing or disclosure, alteration, and deletion are established and in place.</t>
+  </si>
+  <si>
+    <t>7.3.1;7.3.4;7.3.5;7.3.6;7.3.8;7.3.10;7.5.1;7.5.2;7.5.3;7.5.4;8.3.1;8.5.1;8.5.2;8.5.3;8.5.4;8.5.5;8.5.6;8.5.7;8.5.8</t>
+  </si>
+  <si>
+    <t>CT_P.PO_P.P3</t>
+  </si>
+  <si>
+    <t>CT.PO-P3</t>
+  </si>
+  <si>
+    <t>Policies, processes, and procedures for enabling individuals’ data processing preferences and requests are established and in place.</t>
+  </si>
+  <si>
+    <t>7.3.1;7.3.4;7.3.5;7.3.6;7.3.8;7.3.10;8.3.1</t>
+  </si>
+  <si>
+    <t>CT_P.PO_P.P4</t>
+  </si>
+  <si>
+    <t>CT.PO-P4</t>
+  </si>
+  <si>
+    <t>An information life cycle to manage data is aligned and implemented with the system development life cycle to manage systems.</t>
+  </si>
+  <si>
+    <t>CT_P.DM_P</t>
+  </si>
+  <si>
+    <t>CT.DM-P</t>
+  </si>
+  <si>
+    <t>Data Management: Data are managed consistent with the organization’s risk strategy to protect individuals’ privacy, increase manageability, and enable the implementation of privacy principles (e.g., individual participation, data quality, data minimization).</t>
+  </si>
+  <si>
+    <t>CT_P.DM_P.P1</t>
+  </si>
+  <si>
+    <t>CT.DM-P1</t>
+  </si>
+  <si>
+    <t>Data elements can be accessed for review.</t>
+  </si>
+  <si>
+    <t>CT_P.DM_P.P2</t>
+  </si>
+  <si>
+    <t>CT.DM-P2</t>
+  </si>
+  <si>
+    <t>Data elements can be accessed for transmission or disclosure.</t>
+  </si>
+  <si>
+    <t>CT_P.DM_P.P3</t>
+  </si>
+  <si>
+    <t>CT.DM-P3</t>
+  </si>
+  <si>
+    <t>Data elements can be accessed for alteration.</t>
+  </si>
+  <si>
+    <t>CT_P.DM_P.P4</t>
+  </si>
+  <si>
+    <t>CT.DM-P4</t>
+  </si>
+  <si>
+    <t>Data elements can be accessed for deletion.</t>
+  </si>
+  <si>
+    <t>CT_P.DM_P.P5</t>
+  </si>
+  <si>
+    <t>CT.DM-P5</t>
+  </si>
+  <si>
+    <t>Data are destroyed according to policy.</t>
+  </si>
+  <si>
+    <t>7.4.8;7.4.5</t>
+  </si>
+  <si>
+    <t>CT_P.DM_P.P6</t>
+  </si>
+  <si>
+    <t>CT.DM-P6</t>
+  </si>
+  <si>
+    <t>Data are transmitted using standardized formats.</t>
+  </si>
+  <si>
+    <t>CT_P.DM_P.P7</t>
+  </si>
+  <si>
+    <t>CT.DM-P7</t>
+  </si>
+  <si>
+    <t>Metadata containing processing permissions and related data values are transmitted with data elements.</t>
+  </si>
+  <si>
+    <t>6.5.3.2;6.8.2.7;7.4.8;7.4.6;7.4.7;8.4.1;8.4.2</t>
+  </si>
+  <si>
+    <t>CT_P.DM_P.P8</t>
+  </si>
+  <si>
+    <t>CT.DM-P8</t>
+  </si>
+  <si>
+    <t>Audit/log records are determined, documented, implemented, and reviewed in accordance with policy and incorporating the principle of data minimization.</t>
+  </si>
+  <si>
+    <t>6.9.4.1;6.9.4.2;6.15.1.3</t>
+  </si>
+  <si>
+    <t>CT_P.DP_P</t>
+  </si>
+  <si>
+    <t>CT.DP-P</t>
+  </si>
+  <si>
+    <t>Disassociated Processing: Data processing solutions increase</t>
+  </si>
+  <si>
+    <t>CT_P.DP_P.P1</t>
+  </si>
+  <si>
+    <t>CT.DP-P1</t>
+  </si>
+  <si>
+    <t>Data are processed in an unobservable or unlinkable manner (e.g., data actions take place on local devices, privacy-preserving cryptography).</t>
+  </si>
+  <si>
+    <t>CT_P.DP_P.P2</t>
+  </si>
+  <si>
+    <t>CT.DP-P2</t>
+  </si>
+  <si>
+    <t>Data are processed to limit the identification of individuals (e.g., differential privacy techniques, tokenization).</t>
+  </si>
+  <si>
+    <t>7.4.2;7.4.4</t>
+  </si>
+  <si>
+    <t>CT_P.DP_P.P3</t>
+  </si>
+  <si>
+    <t>CT.DP-P3</t>
+  </si>
+  <si>
+    <t>Data are processed to restrict the formulation of inferences about individuals’ behavior or activities (e.g., data processing is decentralized, distributed architectures).</t>
+  </si>
+  <si>
+    <t>7.4.2;8.2.2;8.2.3;8.2.4</t>
+  </si>
+  <si>
+    <t>CT_P.DP_P.P4</t>
+  </si>
+  <si>
+    <t>CT.DP-P4</t>
+  </si>
+  <si>
+    <t>System or device configurations permit selective collection or disclosure of data elements.</t>
+  </si>
+  <si>
+    <t>CT_P.DP_P.P5</t>
+  </si>
+  <si>
+    <t>CT.DP-P5</t>
+  </si>
+  <si>
+    <t>Attribute references are substituted for attribute values.</t>
+  </si>
+  <si>
+    <t>CT_P.DP_P.P6</t>
+  </si>
+  <si>
+    <t>CT.DP-P6</t>
+  </si>
+  <si>
+    <t>Data processing is limited to that which is relevant and necessary for a system/product/service to meet mission/business objectives.</t>
+  </si>
+  <si>
+    <t>CM_P</t>
+  </si>
+  <si>
+    <t>CM-P</t>
+  </si>
+  <si>
+    <t>COMMUNICATE-P: Develop and implement appropriate activities to enable organizations and individuals to have a reliable understanding about how data are processed and associated privacy risks.</t>
+  </si>
+  <si>
+    <t>CM_P.PP_P</t>
+  </si>
+  <si>
+    <t>CM.PP-P</t>
+  </si>
+  <si>
+    <t>Communication Policies, Processes, and Procedures: Policies, processes, and procedures are maintained and used to increase transparency of the organization’s data processing practices (e.g., purpose, scope, roles, responsibilities, management commitment, and coordination among organizational entities) and associated privacy risks</t>
+  </si>
+  <si>
+    <t>CM_P.PP_P.P1</t>
+  </si>
+  <si>
+    <t>CM.PP-P1</t>
+  </si>
+  <si>
+    <t>Transparency policies, processes, and procedures for communicating data processing purposes, practices, and associated privacy risks are established and in place.</t>
+  </si>
+  <si>
+    <t>7.3.2;7.3.3;8.3.1</t>
+  </si>
+  <si>
+    <t>CM_P.PP_P.P2</t>
+  </si>
+  <si>
+    <t>CM.PP-P2</t>
+  </si>
+  <si>
+    <t>Roles and responsibilities (e.g., public relations) for communicating data processing purposes, practices, and associated privacy risks are established.</t>
+  </si>
+  <si>
+    <t>6.3.1.1;7.3.2;7.3.3;8.3.1</t>
+  </si>
+  <si>
+    <t>CM_P.AW_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CM.AW-P</t>
+  </si>
+  <si>
+    <t>Data Processing Awareness: Individuals and organizations have reliable knowledge about data processing practices and associated privacy risks, and effective mechanisms are used and maintained to increase predictability consistent with the organization’s risk strategy to protect individuals’ privacy.</t>
+  </si>
+  <si>
+    <t>CM_P.AW_P.P1</t>
+  </si>
+  <si>
+    <t>CM.AW-P1</t>
+  </si>
+  <si>
+    <t>Mechanisms (e.g., notices, internal or public reports) for communicating data processing purposes, practices, associated privacy risks, and options for enabling individuals’ data processing preferences and requests are established and in place.</t>
+  </si>
+  <si>
+    <t>CM_P.AW_P.P2</t>
+  </si>
+  <si>
+    <t>CM.AW-P2</t>
+  </si>
+  <si>
+    <t>Mechanisms for obtaining feedback from individuals (e.g., surveys or focus groups) about data processing and associated privacy risks are established and in place.</t>
+  </si>
+  <si>
+    <t>5.2.2;7.3.9;8.3.1</t>
+  </si>
+  <si>
+    <t>CM_P.AW_P.P3</t>
+  </si>
+  <si>
+    <t>CM.AW-P3</t>
+  </si>
+  <si>
+    <t>System/product/service design enables data processing visibility.</t>
+  </si>
+  <si>
+    <t>CM_P.AW_P.P4</t>
+  </si>
+  <si>
+    <t>CM.AW-P4</t>
+  </si>
+  <si>
+    <t>Records of data disclosures and sharing are maintained and can be accessed for review or transmission/disclosure.</t>
+  </si>
+  <si>
+    <t>7.5.4;8.5.3;8.5.4;8.5.5</t>
+  </si>
+  <si>
+    <t>CM_P.AW_P.P5</t>
+  </si>
+  <si>
+    <t>CM.AW-P5</t>
+  </si>
+  <si>
+    <t>Data corrections or deletions can be communicated to individuals or organizations (e.g., data sources) in the data processing ecosystem.</t>
+  </si>
+  <si>
+    <t>7.3.2;7.3.3;7.3.7;8.3.1</t>
+  </si>
+  <si>
+    <t>CM_P.AW_P.P6</t>
+  </si>
+  <si>
+    <t>CM.AW-P6</t>
+  </si>
+  <si>
+    <t>Data provenance and lineage are maintained and can be accessed for review or transmission/disclosure.</t>
+  </si>
+  <si>
+    <t>7.2.8;8.2.6;6.5.2.1;6.5.2.2</t>
+  </si>
+  <si>
+    <t>CM_P.AW_P.P7</t>
+  </si>
+  <si>
+    <t>CM.AW-P7</t>
+  </si>
+  <si>
+    <t>Impacted individuals and organizations are notified about a privacy breach or event.</t>
+  </si>
+  <si>
+    <t>CM_P.AW_P.P8</t>
+  </si>
+  <si>
+    <t>CM.AW-P8</t>
+  </si>
+  <si>
+    <t>Individuals are provided with mitigation mechanisms to address impacts to individuals that arise from data processing.</t>
+  </si>
+  <si>
+    <t>PR_P</t>
+  </si>
+  <si>
+    <t>PR-P</t>
+  </si>
+  <si>
+    <t>PROTECT-P: Develop and implement appropriate data processing safeguards</t>
+  </si>
+  <si>
+    <t>PR_P.AC_P</t>
+  </si>
+  <si>
+    <t>PR.AC-P</t>
+  </si>
+  <si>
+    <t>Identity Management, Authentication, and Access Control (PR.AC-P): Access to data and devices is limited to authorized individuals,processes, and devices, and is managed consistent with the assessed risk of unauthorized access.</t>
+  </si>
+  <si>
+    <t>PR_P.AC_P.P1</t>
+  </si>
+  <si>
+    <t>PR.AC-P1</t>
+  </si>
+  <si>
+    <t>Identities and credentials are issued, managed, verified, revoked, and audited for authorized individuals, processes, and devices</t>
+  </si>
+  <si>
+    <t>6.6.2.1;6.6.2.2;6.6.4.2</t>
+  </si>
+  <si>
+    <t>PR_P.AC_P.P2</t>
+  </si>
+  <si>
+    <t>PR.AC-P2</t>
+  </si>
+  <si>
+    <t>Physical access to data and devices is managed.</t>
+  </si>
+  <si>
+    <t>6.6.2.1;6.6.2.2;6.3.2.1</t>
+  </si>
+  <si>
+    <t>PR_P.AC_P.P3</t>
+  </si>
+  <si>
+    <t>PR.AC-P3</t>
+  </si>
+  <si>
+    <t>Remote access is managed.</t>
+  </si>
+  <si>
+    <t>6.6.2.1;6.6.2.2</t>
+  </si>
+  <si>
+    <t>PR_P.AC_P.P4</t>
+  </si>
+  <si>
+    <t>PR.AC-P4</t>
+  </si>
+  <si>
+    <t>Access permissions and authorizations are managed, incorporating the principles of least privilege and separation of duties.</t>
+  </si>
+  <si>
+    <t>PR_P.AC_P.P5</t>
+  </si>
+  <si>
+    <t>PR.AC-P5</t>
+  </si>
+  <si>
+    <t>Network integrity is protected (e.g., network segregation, network segmentation).</t>
+  </si>
+  <si>
+    <t>PR_P.AC_P.P6</t>
+  </si>
+  <si>
+    <t>PR.AC-P6</t>
+  </si>
+  <si>
+    <t>Individuals and devices are proofed and bound to credentials, and authenticated commensurate with the risk of the transaction (e.g., individuals’ security and privacy risks and other organizational risks).</t>
+  </si>
+  <si>
+    <t>PR_P.DS_P</t>
+  </si>
+  <si>
+    <t>PR.DS-P</t>
+  </si>
+  <si>
+    <t>Data Security: Data are managed consistent with the organization’s risk strategy to protect individuals’ privacy and maintain data confidentiality, integrity, and availability.</t>
+  </si>
+  <si>
+    <t>PR_P.DS_P.P1</t>
+  </si>
+  <si>
+    <t>PR.DS-P1</t>
+  </si>
+  <si>
+    <t>Data-at-rest are protected</t>
+  </si>
+  <si>
+    <t>PR_P.DS_P.P2</t>
+  </si>
+  <si>
+    <t>PR.DS-P2</t>
+  </si>
+  <si>
+    <t>Data-in-transit are protected.</t>
+  </si>
+  <si>
+    <t>6.5.3.3;6.11.1.2</t>
+  </si>
+  <si>
+    <t>PR_P.DS_P.P3</t>
+  </si>
+  <si>
+    <t>PR.DS-P3</t>
+  </si>
+  <si>
+    <t>Systems/products/services and associated data are formally managed throughout removal, transfers, and disposition.</t>
+  </si>
+  <si>
+    <t>6.5.3.2;6.8.2.7;7.4.5;7.4.6;7.4.8;7.4.9;8.4.2</t>
+  </si>
+  <si>
+    <t>PR_P.DS_P.P4</t>
+  </si>
+  <si>
+    <t>PR.DS-P4</t>
+  </si>
+  <si>
+    <t>Adequate capacity to ensure availability is maintained.</t>
+  </si>
+  <si>
+    <t>PR_P.DS_P.P5</t>
+  </si>
+  <si>
+    <t>PR.DS-P5</t>
+  </si>
+  <si>
+    <t>Protections against data leaks are implemented.</t>
+  </si>
+  <si>
+    <t>6.5.3.2;6.8.2.1;6.11.2.4;6.10.2.4</t>
+  </si>
+  <si>
+    <t>PR_P.DS_P.P6</t>
+  </si>
+  <si>
+    <t>PR.DS-P6</t>
+  </si>
+  <si>
+    <t>Integrity checking mechanisms are used to verify software, firmware, and information integrity.</t>
+  </si>
+  <si>
+    <t>PR_P.DS_P.P7</t>
+  </si>
+  <si>
+    <t>PR.DS-P7</t>
+  </si>
+  <si>
+    <t>The development and testing environment(s) are separate from the production environment.</t>
+  </si>
+  <si>
+    <t>PR_P.DS_P.P8</t>
+  </si>
+  <si>
+    <t>PR.DS-P8</t>
+  </si>
+  <si>
+    <t>Integrity checking mechanisms are used to verify hardware integrity.</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P</t>
+  </si>
+  <si>
+    <t>PR.DP-P</t>
+  </si>
+  <si>
+    <t>Data Protection Policies, Processes, and Procedures: Security and privacy policies (which address purpose, scope, roles, responsibilities, management commitment, and coordination among organizational entities), processes, and procedures are maintained and used to manage the protection of data.</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P.P1</t>
+  </si>
+  <si>
+    <t>PR.DP-P1</t>
+  </si>
+  <si>
+    <t>A baseline configuration of information technology is created and maintained incorporating security principles (e.g., concept of least functionality).</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P.P2</t>
+  </si>
+  <si>
+    <t>PR.DP-P2</t>
+  </si>
+  <si>
+    <t>Configuration change control processes are established and in place.</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P.P3</t>
+  </si>
+  <si>
+    <t>PR.DP-P3</t>
+  </si>
+  <si>
+    <t>Backups of information are conducted, maintained, and tested.</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P.P4</t>
+  </si>
+  <si>
+    <t>PR.DP-P4</t>
+  </si>
+  <si>
+    <t>Policy and regulations regarding the physical operating environment for organizational assets are met.</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P.P5</t>
+  </si>
+  <si>
+    <t>PR.DP-P5</t>
+  </si>
+  <si>
+    <t>Protection processes are improved.</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P.P6</t>
+  </si>
+  <si>
+    <t>PR.DP-P6</t>
+  </si>
+  <si>
+    <t>Effectiveness of protection technologies is shared.</t>
+  </si>
+  <si>
+    <t>7.3.3;8.3.1</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P.P7</t>
+  </si>
+  <si>
+    <t>PR.DP-P7</t>
+  </si>
+  <si>
+    <t>Response plans (Incident Response and Business Continuity) and recovery plans (Incident Recovery and Disaster Recovery) are established, in place, and managed.</t>
+  </si>
+  <si>
+    <t>6.13.1.1;6.14.1.1</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P.P8</t>
+  </si>
+  <si>
+    <t>PR.DP-P8</t>
+  </si>
+  <si>
+    <t>Response and recovery plans are tested.</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P.P9</t>
+  </si>
+  <si>
+    <t>PR.DP-P9</t>
+  </si>
+  <si>
+    <t>Privacy procedures are included in human resources practices (e.g., deprovisioning, personnel screening).</t>
+  </si>
+  <si>
+    <t>6.10.2.4;6.6.2.2;6.8.2.9</t>
+  </si>
+  <si>
+    <t>PR_P.DP_P.P10</t>
+  </si>
+  <si>
+    <t>PR.DP-P10</t>
+  </si>
+  <si>
+    <t>A vulnerability management plan is developed and implemented.</t>
+  </si>
+  <si>
+    <t>PR_P.MA_P</t>
+  </si>
+  <si>
+    <t>PR.MA-P</t>
+  </si>
+  <si>
+    <t>Maintenance: System maintenance and repairs are performed consistent with policies, processes, and procedures.</t>
+  </si>
+  <si>
+    <t>PR_P.MA_P.P1</t>
+  </si>
+  <si>
+    <t>PR.MA-P1</t>
+  </si>
+  <si>
+    <t>Maintenance and repair of organizational assets are performed and logged, with approved and controlled tools.</t>
+  </si>
+  <si>
+    <t>PR_P.MA_P.P2</t>
+  </si>
+  <si>
+    <t>PR.MA-P2</t>
+  </si>
+  <si>
+    <t>Remote maintenance of organizational assets is approved, logged, and performed in a manner that prevents unauthorized access.</t>
+  </si>
+  <si>
+    <t>PR_P.PT_P</t>
+  </si>
+  <si>
+    <t>PR.PT-P</t>
+  </si>
+  <si>
+    <t>Protective Technology: Technical security solutions are managed to ensure the security and resilience of systems/products/services and associated data, consistent with related policies, processes, procedures, and agreements.</t>
+  </si>
+  <si>
+    <t>PR_P.PT_P.P1</t>
+  </si>
+  <si>
+    <t>PR.PT-P1</t>
+  </si>
+  <si>
+    <t>Removable media is protected and its use restricted according to policy.</t>
+  </si>
+  <si>
+    <t>6.5.3.1;6.5.3.2</t>
+  </si>
+  <si>
+    <t>PR_P.PT_P.P2</t>
+  </si>
+  <si>
+    <t>PR.PT-P2</t>
+  </si>
+  <si>
+    <t>The principle of least functionality is incorporated by configuring systems to provide only essential capabilities.</t>
+  </si>
+  <si>
+    <t>PR_P.PT_P.P3</t>
+  </si>
+  <si>
+    <t>PR.PT-P3</t>
+  </si>
+  <si>
+    <t>Communications and control networks are protected.</t>
+  </si>
+  <si>
+    <t>6.10.1.1;6.10.1.2;6.10.1.3;6.10.2.1</t>
+  </si>
+  <si>
+    <t>PR_P.PT_P.P4</t>
+  </si>
+  <si>
+    <t>PR.PT-P4</t>
+  </si>
+  <si>
+    <t>Mechanisms (e.g., failsafe, load balancing, hot swap) are implemented to achieve resilience requirements in normal and adverse situations.</t>
   </si>
 </sst>
 </file>
@@ -16860,6 +18076,1685 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F381F253-97F6-4162-AAC0-64DEB2D11E21}">
+  <dimension ref="A1:E123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="62.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="75">
+      <c r="A5" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45">
+      <c r="A6" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2833</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2837</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="75">
+      <c r="A11" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2841</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60">
+      <c r="A12" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30">
+      <c r="A15" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2853</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75">
+      <c r="A16" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60">
+      <c r="A17" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2861</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30">
+      <c r="A18" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30">
+      <c r="A20" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>2874</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="105">
+      <c r="A22" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45">
+      <c r="A23" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="60">
+      <c r="A24" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2884</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45">
+      <c r="A25" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30">
+      <c r="A26" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>2891</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45">
+      <c r="A27" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2894</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45">
+      <c r="A28" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="60">
+      <c r="A29" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45">
+      <c r="A30" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2903</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45">
+      <c r="A31" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2906</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
+      <c r="A32" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2909</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45">
+      <c r="A33" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2912</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30">
+      <c r="A34" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30">
+      <c r="A35" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45">
+      <c r="A36" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30">
+      <c r="A39" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="75">
+      <c r="A40" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30">
+      <c r="A41" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>2938</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2941</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2944</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30">
+      <c r="A44" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2947</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45">
+      <c r="A45" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="60">
+      <c r="A46" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>2954</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>2957</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45">
+      <c r="A48" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2961</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30">
+      <c r="A49" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2964</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="60">
+      <c r="A50" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="60">
+      <c r="A52" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2974</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2977</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30">
+      <c r="A54" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="60">
+      <c r="A55" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>2984</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="75">
+      <c r="A56" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45">
+      <c r="A58" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="75">
+      <c r="A59" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>3010</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>3013</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>3017</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30">
+      <c r="A66" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45">
+      <c r="A67" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45">
+      <c r="A69" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>3031</v>
+      </c>
+      <c r="E69" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30">
+      <c r="A70" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>3034</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45">
+      <c r="A71" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>3038</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30">
+      <c r="A72" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E72" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>3045</v>
+      </c>
+      <c r="E73" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30">
+      <c r="A74" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E74" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="60">
+      <c r="A75" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="90">
+      <c r="A76" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="45">
+      <c r="A77" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="45">
+      <c r="A78" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="75">
+      <c r="A79" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3064</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="60">
+      <c r="A80" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="45">
+      <c r="A81" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30">
+      <c r="A83" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45">
+      <c r="A84" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="30">
+      <c r="A85" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="30">
+      <c r="A86" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E86" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="30">
+      <c r="A87" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="E87" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30">
+      <c r="A88" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="60">
+      <c r="A89" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="30">
+      <c r="A90" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30">
+      <c r="A93" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3113</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30">
+      <c r="A94" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="60">
+      <c r="A95" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45">
+      <c r="A96" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E97" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3128</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>3129</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="30">
+      <c r="A99" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3136</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30">
+      <c r="A101" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30">
+      <c r="A102" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>3144</v>
+      </c>
+      <c r="E102" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30">
+      <c r="A103" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>3147</v>
+      </c>
+      <c r="E103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="30">
+      <c r="A104" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>3150</v>
+      </c>
+      <c r="E104" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="75">
+      <c r="A105" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3152</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="45">
+      <c r="A106" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>3156</v>
+      </c>
+      <c r="E106" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30">
+      <c r="A107" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>3159</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B108" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E108" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30">
+      <c r="A109" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B109" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="E109">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B110" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>3168</v>
+      </c>
+      <c r="E110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>3171</v>
+      </c>
+      <c r="E111" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="45">
+      <c r="A112" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B112" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>3175</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="30">
+      <c r="A114" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>3182</v>
+      </c>
+      <c r="E114" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B115" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="30">
+      <c r="A116" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B116" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30">
+      <c r="A117" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>3192</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="30">
+      <c r="A118" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>3195</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="60">
+      <c r="A119" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3200</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E120" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="30">
+      <c r="A121" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3204</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>3205</v>
+      </c>
+      <c r="E121" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="30">
+      <c r="A122" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3207</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3208</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="45">
+      <c r="A123" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G260"/>
@@ -21724,7 +24619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BA70E6-9548-4D87-8A65-060EC90D2814}">
   <dimension ref="A1:F664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A318" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
@@ -30354,6 +33249,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -30604,15 +33508,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
   <ds:schemaRefs>
@@ -30622,6 +33517,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30638,14 +33543,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FBA2E4-7145-4633-B918-09AD688E5EA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035AB369-DD7A-441C-B7DC-636F39FBAE7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8374,10 +8374,10 @@
     <t>Edited NIST Privacy Framework CT.DM-P5 to map to ISO 27701 7.4.5, 7.4.6, 7.4.8, 8.4.1, and 8.4.2. Also edited PR-DS-P5 to map to 6.2, 6.3, 6.4, 6.5, 6.6, 6.7, 6.8, 6.9, 6.10, 6.11, 6.12, 6.15</t>
   </si>
   <si>
-    <t>7.4.8;7.4.5; 7.4.6; 8.4.1;8.4.2</t>
-  </si>
-  <si>
     <t>6.2;6.3;6.4;6.5;6.6;6.7;6.8;6.9;6.10;6.11;6.12;6.15</t>
+  </si>
+  <si>
+    <t>7.4.8;7.4.5;7.4.6;8.4.1;8.4.2</t>
   </si>
 </sst>
 </file>
@@ -15011,8 +15011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5AC0FA-9449-4B71-8884-9C6D19EE493B}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15881,7 +15881,7 @@
         <v>2255</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -16378,7 +16378,7 @@
         <v>2369</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -23274,21 +23274,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23311,14 +23311,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -23326,4 +23318,12 @@
     <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138D026D-10FB-4857-AAA6-38662FD2DBD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF51CB10-FC4E-4344-A9ED-D97F0B6E9081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
@@ -13418,18 +13418,12 @@
       <name val="Inherit"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -13451,7 +13445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -13477,10 +13471,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13825,7 +13815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8043BC62-2F51-43CD-92FB-F94EA755A381}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -20302,11 +20292,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB62EA1-5A3C-446A-BD82-9DFA95F5937C}">
-  <dimension ref="A1:J406"/>
+  <dimension ref="A1:M406"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F257" sqref="F257"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20315,14 +20305,14 @@
     <col min="3" max="3" width="43.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="49.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="59.42578125" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
+    <col min="6" max="7" width="49.85546875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="59.42578125" customWidth="1"/>
+    <col min="10" max="11" width="31.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20338,20 +20328,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>3985</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>3984</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>3983</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
         <v>3982</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:12" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -20370,17 +20363,18 @@
       <c r="F2" s="3" t="s">
         <v>3981</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>3980</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>3979</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>3978</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>621</v>
       </c>
@@ -20391,7 +20385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="120">
+    <row r="4" spans="1:12" ht="120">
       <c r="A4" t="s">
         <v>622</v>
       </c>
@@ -20407,17 +20401,18 @@
       <c r="F4" s="3" t="s">
         <v>3977</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>3976</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
         <v>3975</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>3974</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="67.5" customHeight="1">
+    <row r="5" spans="1:12" ht="67.5" customHeight="1">
       <c r="A5" t="s">
         <v>625</v>
       </c>
@@ -20433,17 +20428,18 @@
       <c r="F5" s="3" t="s">
         <v>3973</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>3972</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
         <v>3971</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>3970</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="150">
+    <row r="6" spans="1:12" ht="150">
       <c r="A6" t="s">
         <v>627</v>
       </c>
@@ -20459,17 +20455,18 @@
       <c r="F6" s="3" t="s">
         <v>3968</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>3967</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>3966</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>3965</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="195">
+    <row r="7" spans="1:12" ht="195">
       <c r="A7" t="s">
         <v>629</v>
       </c>
@@ -20485,17 +20482,18 @@
       <c r="F7" s="3" t="s">
         <v>3964</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>3963</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3" t="s">
         <v>3962</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>3961</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="390">
+    <row r="8" spans="1:12" ht="390">
       <c r="A8" t="s">
         <v>631</v>
       </c>
@@ -20511,17 +20509,18 @@
       <c r="F8" s="3" t="s">
         <v>3960</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>3959</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
         <v>3958</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>3957</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="225">
+    <row r="9" spans="1:12" ht="225">
       <c r="A9" t="s">
         <v>633</v>
       </c>
@@ -20537,17 +20536,18 @@
       <c r="F9" s="3" t="s">
         <v>3956</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>3955</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
         <v>3954</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>3953</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75">
+    <row r="10" spans="1:12" ht="75">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -20563,17 +20563,18 @@
       <c r="F10" s="3" t="s">
         <v>3952</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>3951</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
         <v>3950</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="L10" s="3" t="s">
         <v>3949</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30">
+    <row r="11" spans="1:12" ht="30">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -20592,17 +20593,19 @@
       <c r="F11" s="9" t="s">
         <v>3948</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="3" t="s">
         <v>3947</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>3946</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>3945</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>637</v>
       </c>
@@ -20613,7 +20616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="135">
+    <row r="13" spans="1:12" ht="135">
       <c r="A13" t="s">
         <v>638</v>
       </c>
@@ -20629,17 +20632,18 @@
       <c r="F13" s="3" t="s">
         <v>3944</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>3943</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
         <v>3942</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>3941</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="165">
+    <row r="14" spans="1:12" ht="165">
       <c r="A14" t="s">
         <v>639</v>
       </c>
@@ -20655,17 +20659,18 @@
       <c r="F14" s="3" t="s">
         <v>3940</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>3939</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
         <v>3938</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>3937</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="120">
+    <row r="15" spans="1:12" ht="120">
       <c r="A15" t="s">
         <v>640</v>
       </c>
@@ -20681,17 +20686,18 @@
       <c r="F15" s="3" t="s">
         <v>3936</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>3935</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
         <v>3934</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>3933</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="135">
+    <row r="16" spans="1:12" ht="135">
       <c r="A16" t="s">
         <v>641</v>
       </c>
@@ -20707,17 +20713,18 @@
       <c r="F16" s="3" t="s">
         <v>3932</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>3931</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
         <v>3930</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>3929</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="135">
+    <row r="17" spans="1:13" ht="135">
       <c r="A17" t="s">
         <v>642</v>
       </c>
@@ -20733,17 +20740,18 @@
       <c r="F17" s="3" t="s">
         <v>3928</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>3927</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
         <v>3926</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>3925</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="225">
+    <row r="18" spans="1:13" ht="225">
       <c r="A18" t="s">
         <v>643</v>
       </c>
@@ -20759,17 +20767,18 @@
       <c r="F18" s="3" t="s">
         <v>3924</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>3923</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>3922</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="L18" s="3" t="s">
         <v>3921</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="255">
+    <row r="19" spans="1:13" ht="255">
       <c r="A19">
         <v>6.2</v>
       </c>
@@ -20785,17 +20794,18 @@
       <c r="F19" s="3" t="s">
         <v>3919</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>3918</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3" t="s">
         <v>3917</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>3916</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="409.5">
+    <row r="20" spans="1:13" ht="409.5">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -20811,18 +20821,19 @@
       <c r="F20" s="3" t="s">
         <v>3915</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>3914</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3" t="s">
         <v>3913</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>3912</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" ht="390">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="390">
       <c r="A21" t="s">
         <v>644</v>
       </c>
@@ -20838,17 +20849,18 @@
       <c r="F21" s="3" t="s">
         <v>3910</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>3909</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
         <v>3908</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>3907</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="390">
+    <row r="22" spans="1:13" ht="390">
       <c r="A22" t="s">
         <v>645</v>
       </c>
@@ -20864,17 +20876,18 @@
       <c r="F22" s="3" t="s">
         <v>3905</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>3904</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3"/>
+      <c r="J22" s="3" t="s">
         <v>3903</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>3902</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="409.5">
+    <row r="23" spans="1:13" ht="409.5">
       <c r="A23" t="s">
         <v>646</v>
       </c>
@@ -20890,17 +20903,18 @@
       <c r="F23" s="3" t="s">
         <v>3900</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>3899</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="3"/>
+      <c r="J23" s="3" t="s">
         <v>3898</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>3897</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="360">
+    <row r="24" spans="1:13" ht="360">
       <c r="A24" t="s">
         <v>647</v>
       </c>
@@ -20916,17 +20930,18 @@
       <c r="F24" s="3" t="s">
         <v>3895</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>3894</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3"/>
+      <c r="J24" s="3" t="s">
         <v>3893</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>3892</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="375">
+    <row r="25" spans="1:13" ht="375">
       <c r="A25" t="s">
         <v>648</v>
       </c>
@@ -20942,17 +20957,18 @@
       <c r="F25" s="3" t="s">
         <v>3890</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>3889</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
         <v>3888</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>3887</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -20971,17 +20987,20 @@
       <c r="F26" s="9" t="s">
         <v>3886</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="10" t="s">
         <v>3885</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="10"/>
+      <c r="J26" s="9" t="s">
         <v>3884</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="3" t="s">
         <v>3883</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="105">
+    <row r="27" spans="1:13" ht="105">
       <c r="A27" t="s">
         <v>650</v>
       </c>
@@ -20997,17 +21016,18 @@
       <c r="F27" s="3" t="s">
         <v>3882</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>3881</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
         <v>3880</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>3879</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="225">
+    <row r="28" spans="1:13" ht="225">
       <c r="A28" t="s">
         <v>155</v>
       </c>
@@ -21023,17 +21043,19 @@
       <c r="F28" s="9" t="s">
         <v>3878</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="3" t="s">
         <v>3877</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3" t="s">
         <v>3876</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>3875</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="180">
+    <row r="29" spans="1:13" ht="180">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -21049,17 +21071,19 @@
       <c r="F29" s="9" t="s">
         <v>3874</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="3" t="s">
         <v>3873</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3" t="s">
         <v>3872</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>3871</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="180">
+    <row r="30" spans="1:13" ht="180">
       <c r="A30" t="s">
         <v>211</v>
       </c>
@@ -21075,17 +21099,19 @@
       <c r="F30" s="9" t="s">
         <v>3870</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="3" t="s">
         <v>3869</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
         <v>3868</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>3867</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="60">
+    <row r="31" spans="1:13" ht="60">
       <c r="A31" t="s">
         <v>250</v>
       </c>
@@ -21104,17 +21130,19 @@
       <c r="F31" s="9" t="s">
         <v>3866</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="3" t="s">
         <v>3865</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3" t="s">
         <v>3864</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>3863</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="270">
+    <row r="32" spans="1:13" ht="270">
       <c r="A32" t="s">
         <v>651</v>
       </c>
@@ -21130,18 +21158,20 @@
       <c r="F32" s="9" t="s">
         <v>3862</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="9"/>
+      <c r="H32" s="3" t="s">
         <v>3861</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="I32" s="3"/>
+      <c r="J32" s="3" t="s">
         <v>3860</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>3859</v>
       </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" ht="135">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="135">
       <c r="A33" t="s">
         <v>251</v>
       </c>
@@ -21157,17 +21187,19 @@
       <c r="F33" s="9" t="s">
         <v>3858</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="3" t="s">
         <v>3857</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="I33" s="3"/>
+      <c r="J33" s="3" t="s">
         <v>3856</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>3855</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="105">
+    <row r="34" spans="1:12" ht="105">
       <c r="A34" t="s">
         <v>268</v>
       </c>
@@ -21183,17 +21215,19 @@
       <c r="F34" s="9" t="s">
         <v>3854</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="9"/>
+      <c r="H34" s="3" t="s">
         <v>3853</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="s">
         <v>3852</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>3851</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:12" ht="30">
       <c r="A35" t="s">
         <v>652</v>
       </c>
@@ -21212,17 +21246,19 @@
       <c r="F35" s="9" t="s">
         <v>3850</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="3" t="s">
         <v>3849</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3" t="s">
         <v>3848</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>3847</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="225">
+    <row r="36" spans="1:12" ht="225">
       <c r="A36" t="s">
         <v>653</v>
       </c>
@@ -21238,17 +21274,19 @@
       <c r="F36" s="9" t="s">
         <v>3846</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="3" t="s">
         <v>3845</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="s">
         <v>3844</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>3843</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>654</v>
       </c>
@@ -21259,8 +21297,9 @@
         <v>6</v>
       </c>
       <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" ht="210">
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" ht="210">
       <c r="A38" t="s">
         <v>655</v>
       </c>
@@ -21276,17 +21315,19 @@
       <c r="F38" s="9" t="s">
         <v>3842</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="9"/>
+      <c r="H38" s="3" t="s">
         <v>3841</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="s">
         <v>3840</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>3839</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="345">
+    <row r="39" spans="1:12" ht="345">
       <c r="A39" t="s">
         <v>656</v>
       </c>
@@ -21302,17 +21343,19 @@
       <c r="F39" s="9" t="s">
         <v>3838</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="9"/>
+      <c r="H39" s="3" t="s">
         <v>3837</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
         <v>3836</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>3835</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="150">
+    <row r="40" spans="1:12" ht="150">
       <c r="A40" t="s">
         <v>657</v>
       </c>
@@ -21328,17 +21371,19 @@
       <c r="F40" s="9" t="s">
         <v>3834</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="9"/>
+      <c r="H40" s="3" t="s">
         <v>3833</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="s">
         <v>3832</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>3831</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="315">
+    <row r="41" spans="1:12" ht="315">
       <c r="A41" t="s">
         <v>658</v>
       </c>
@@ -21354,17 +21399,19 @@
       <c r="F41" s="9" t="s">
         <v>3830</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="9"/>
+      <c r="H41" s="3" t="s">
         <v>3829</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="s">
         <v>3828</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>3827</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="105">
+    <row r="42" spans="1:12" ht="105">
       <c r="A42" t="s">
         <v>659</v>
       </c>
@@ -21380,17 +21427,19 @@
       <c r="F42" s="9" t="s">
         <v>3826</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="3" t="s">
         <v>3825</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3" t="s">
         <v>3824</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>3823</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="120">
+    <row r="43" spans="1:12" ht="120">
       <c r="A43" t="s">
         <v>660</v>
       </c>
@@ -21406,17 +21455,19 @@
       <c r="F43" s="9" t="s">
         <v>3822</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="3" t="s">
         <v>3821</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="I43" s="3"/>
+      <c r="J43" s="3" t="s">
         <v>3820</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="L43" s="3" t="s">
         <v>3819</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="270">
+    <row r="44" spans="1:12" ht="270">
       <c r="A44" t="s">
         <v>661</v>
       </c>
@@ -21432,17 +21483,19 @@
       <c r="F44" s="9" t="s">
         <v>3818</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="9"/>
+      <c r="H44" s="3" t="s">
         <v>3817</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3" t="s">
         <v>3816</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="L44" s="3" t="s">
         <v>3815</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="360">
+    <row r="45" spans="1:12" ht="360">
       <c r="A45" t="s">
         <v>662</v>
       </c>
@@ -21458,17 +21511,19 @@
       <c r="F45" s="9" t="s">
         <v>3814</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="9"/>
+      <c r="H45" s="3" t="s">
         <v>3813</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3"/>
+      <c r="J45" s="3" t="s">
         <v>3812</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>3811</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="330">
+    <row r="46" spans="1:12" ht="330">
       <c r="A46" t="s">
         <v>663</v>
       </c>
@@ -21484,17 +21539,19 @@
       <c r="F46" s="9" t="s">
         <v>3810</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="9"/>
+      <c r="H46" s="3" t="s">
         <v>3809</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3" t="s">
         <v>3808</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="L46" s="3" t="s">
         <v>3807</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="315">
+    <row r="47" spans="1:12" ht="315">
       <c r="A47" t="s">
         <v>664</v>
       </c>
@@ -21510,17 +21567,19 @@
       <c r="F47" s="9" t="s">
         <v>3806</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="9"/>
+      <c r="H47" s="3" t="s">
         <v>3805</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
         <v>3804</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>3803</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="330">
+    <row r="48" spans="1:12" ht="330">
       <c r="A48" t="s">
         <v>665</v>
       </c>
@@ -21536,17 +21595,19 @@
       <c r="F48" s="9" t="s">
         <v>3802</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="9"/>
+      <c r="H48" s="3" t="s">
         <v>3801</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3"/>
+      <c r="J48" s="3" t="s">
         <v>3800</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>3799</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="105">
+    <row r="49" spans="1:13" ht="105">
       <c r="A49" t="s">
         <v>666</v>
       </c>
@@ -21562,17 +21623,19 @@
       <c r="F49" s="9" t="s">
         <v>3798</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="9"/>
+      <c r="H49" s="3" t="s">
         <v>3797</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3"/>
+      <c r="J49" s="3" t="s">
         <v>3796</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>3795</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="330">
+    <row r="50" spans="1:13" ht="330">
       <c r="A50" t="s">
         <v>668</v>
       </c>
@@ -21591,18 +21654,20 @@
       <c r="F50" s="9" t="s">
         <v>3794</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="3" t="s">
         <v>3793</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3" t="s">
         <v>3792</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>3791</v>
       </c>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" ht="30">
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" ht="30">
       <c r="A51" t="s">
         <v>669</v>
       </c>
@@ -21621,15 +21686,17 @@
       <c r="F51" s="9" t="s">
         <v>3790</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3" t="s">
         <v>3789</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>3788</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="240">
+    <row r="52" spans="1:13" ht="240">
       <c r="A52" t="s">
         <v>670</v>
       </c>
@@ -21645,18 +21712,20 @@
       <c r="F52" s="9" t="s">
         <v>3787</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="3" t="s">
         <v>3786</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3"/>
+      <c r="J52" s="3" t="s">
         <v>3785</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>3784</v>
       </c>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="1:10" ht="240">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" ht="240">
       <c r="A53" t="s">
         <v>671</v>
       </c>
@@ -21672,17 +21741,19 @@
       <c r="F53" s="9" t="s">
         <v>3783</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="3" t="s">
         <v>3782</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3"/>
+      <c r="J53" s="3" t="s">
         <v>3781</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>3780</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="60">
+    <row r="54" spans="1:13" ht="60">
       <c r="A54" t="s">
         <v>673</v>
       </c>
@@ -21701,17 +21772,19 @@
       <c r="F54" s="9" t="s">
         <v>3779</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="3" t="s">
         <v>3778</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3"/>
+      <c r="J54" s="3" t="s">
         <v>3777</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>3776</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="360">
+    <row r="55" spans="1:13" ht="360">
       <c r="A55" t="s">
         <v>674</v>
       </c>
@@ -21727,17 +21800,19 @@
       <c r="F55" s="9" t="s">
         <v>3775</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="3" t="s">
         <v>3774</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3" t="s">
         <v>3773</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>3772</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="225">
+    <row r="56" spans="1:13" ht="225">
       <c r="A56" t="s">
         <v>675</v>
       </c>
@@ -21753,17 +21828,19 @@
       <c r="F56" s="9" t="s">
         <v>3771</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="3" t="s">
         <v>3770</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3"/>
+      <c r="J56" s="3" t="s">
         <v>3769</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="L56" s="3" t="s">
         <v>3768</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="390">
+    <row r="57" spans="1:13" ht="390">
       <c r="A57" t="s">
         <v>676</v>
       </c>
@@ -21779,17 +21856,19 @@
       <c r="F57" s="9" t="s">
         <v>3767</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="3" t="s">
         <v>3766</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="I57" s="3"/>
+      <c r="J57" s="3" t="s">
         <v>3765</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="L57" s="3" t="s">
         <v>3764</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="195">
+    <row r="58" spans="1:13" ht="195">
       <c r="A58" t="s">
         <v>677</v>
       </c>
@@ -21805,17 +21884,19 @@
       <c r="F58" s="9" t="s">
         <v>3763</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="3" t="s">
         <v>3762</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3"/>
+      <c r="J58" s="3" t="s">
         <v>3761</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="L58" s="3" t="s">
         <v>3760</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="405">
+    <row r="59" spans="1:13" ht="405">
       <c r="A59" t="s">
         <v>678</v>
       </c>
@@ -21831,18 +21912,20 @@
       <c r="F59" s="9" t="s">
         <v>3759</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="3" t="s">
         <v>3758</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="I59" s="3"/>
+      <c r="J59" s="3" t="s">
         <v>3757</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="L59" s="3" t="s">
         <v>3756</v>
       </c>
-      <c r="J59" s="3"/>
-    </row>
-    <row r="60" spans="1:10" ht="195">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:13" ht="195">
       <c r="A60" t="s">
         <v>679</v>
       </c>
@@ -21858,17 +21941,19 @@
       <c r="F60" s="9" t="s">
         <v>3755</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G60" s="9"/>
+      <c r="H60" s="3" t="s">
         <v>3754</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="I60" s="3"/>
+      <c r="J60" s="3" t="s">
         <v>3753</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="L60" s="3" t="s">
         <v>3752</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="195">
+    <row r="61" spans="1:13" ht="195">
       <c r="A61" t="s">
         <v>680</v>
       </c>
@@ -21884,17 +21969,19 @@
       <c r="F61" s="9" t="s">
         <v>3751</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="3" t="s">
         <v>3750</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3"/>
+      <c r="J61" s="3" t="s">
         <v>3749</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>3748</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="60">
+    <row r="62" spans="1:13" ht="60">
       <c r="A62" t="s">
         <v>681</v>
       </c>
@@ -21913,17 +22000,19 @@
       <c r="F62" s="9" t="s">
         <v>3747</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="3" t="s">
         <v>3746</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3"/>
+      <c r="J62" s="3" t="s">
         <v>3745</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>3744</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
         <v>682</v>
       </c>
@@ -21934,8 +22023,9 @@
         <v>6</v>
       </c>
       <c r="F63" s="9"/>
-    </row>
-    <row r="64" spans="1:10" ht="195">
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="1:13" ht="195">
       <c r="A64" t="s">
         <v>683</v>
       </c>
@@ -21951,17 +22041,19 @@
       <c r="F64" s="9" t="s">
         <v>3743</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G64" s="9"/>
+      <c r="H64" s="3" t="s">
         <v>3742</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="I64" s="3"/>
+      <c r="J64" s="3" t="s">
         <v>3741</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="L64" s="3" t="s">
         <v>3740</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="165">
+    <row r="65" spans="1:13" ht="165">
       <c r="A65" t="s">
         <v>684</v>
       </c>
@@ -21977,17 +22069,19 @@
       <c r="F65" s="9" t="s">
         <v>3739</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="3" t="s">
         <v>3738</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="I65" s="3"/>
+      <c r="J65" s="3" t="s">
         <v>3737</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="L65" s="3" t="s">
         <v>3736</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="195">
+    <row r="66" spans="1:13" ht="195">
       <c r="A66" t="s">
         <v>685</v>
       </c>
@@ -22003,17 +22097,19 @@
       <c r="F66" s="9" t="s">
         <v>3735</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="3" t="s">
         <v>3734</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="I66" s="3"/>
+      <c r="J66" s="3" t="s">
         <v>3733</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="L66" s="3" t="s">
         <v>3732</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="195">
+    <row r="67" spans="1:13" ht="195">
       <c r="A67" t="s">
         <v>686</v>
       </c>
@@ -22029,17 +22125,19 @@
       <c r="F67" s="9" t="s">
         <v>3731</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="9"/>
+      <c r="H67" s="3" t="s">
         <v>3730</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="I67" s="3"/>
+      <c r="J67" s="3" t="s">
         <v>3729</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="L67" s="3" t="s">
         <v>3728</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="180">
+    <row r="68" spans="1:13" ht="180">
       <c r="A68" t="s">
         <v>687</v>
       </c>
@@ -22055,17 +22153,19 @@
       <c r="F68" s="11" t="s">
         <v>3727</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="11"/>
+      <c r="H68" s="3" t="s">
         <v>3726</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="I68" s="3"/>
+      <c r="J68" s="3" t="s">
         <v>3725</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="L68" s="3" t="s">
         <v>3724</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="360">
+    <row r="69" spans="1:13" ht="360">
       <c r="A69" t="s">
         <v>688</v>
       </c>
@@ -22081,17 +22181,19 @@
       <c r="F69" s="9" t="s">
         <v>3723</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="3" t="s">
         <v>3722</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="I69" s="3"/>
+      <c r="J69" s="3" t="s">
         <v>3721</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="L69" s="3" t="s">
         <v>3720</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
         <v>689</v>
       </c>
@@ -22102,8 +22204,9 @@
         <v>6</v>
       </c>
       <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:10" ht="240">
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:13" ht="240">
       <c r="A71" t="s">
         <v>690</v>
       </c>
@@ -22119,17 +22222,19 @@
       <c r="F71" s="9" t="s">
         <v>3719</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="3" t="s">
         <v>3718</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="I71" s="3"/>
+      <c r="J71" s="3" t="s">
         <v>3717</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="L71" s="3" t="s">
         <v>3716</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="285">
+    <row r="72" spans="1:13" ht="285">
       <c r="A72" t="s">
         <v>691</v>
       </c>
@@ -22145,17 +22250,19 @@
       <c r="F72" s="9" t="s">
         <v>3715</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="9"/>
+      <c r="H72" s="3" t="s">
         <v>3714</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="I72" s="3"/>
+      <c r="J72" s="3" t="s">
         <v>3713</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="L72" s="3" t="s">
         <v>3712</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="285">
+    <row r="73" spans="1:13" ht="285">
       <c r="A73" t="s">
         <v>693</v>
       </c>
@@ -22171,17 +22278,19 @@
       <c r="F73" s="9" t="s">
         <v>3711</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="3" t="s">
         <v>3710</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="I73" s="3"/>
+      <c r="J73" s="3" t="s">
         <v>3709</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="L73" s="3" t="s">
         <v>3708</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="180">
+    <row r="74" spans="1:13" ht="180">
       <c r="A74" t="s">
         <v>695</v>
       </c>
@@ -22197,17 +22306,19 @@
       <c r="F74" s="9" t="s">
         <v>3707</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="9"/>
+      <c r="H74" s="3" t="s">
         <v>3706</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" s="3"/>
+      <c r="J74" s="3" t="s">
         <v>3705</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="L74" s="3" t="s">
         <v>3704</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="300">
+    <row r="75" spans="1:13" ht="300">
       <c r="A75" t="s">
         <v>696</v>
       </c>
@@ -22223,17 +22334,18 @@
       <c r="F75" s="3" t="s">
         <v>3703</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
         <v>3702</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="3"/>
+      <c r="J75" s="3" t="s">
         <v>3701</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>3700</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="300">
+    <row r="76" spans="1:13" ht="300">
       <c r="A76" t="s">
         <v>697</v>
       </c>
@@ -22249,17 +22361,18 @@
       <c r="F76" s="3" t="s">
         <v>3699</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>3698</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="I76" s="3"/>
+      <c r="J76" s="3" t="s">
         <v>3697</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="L76" s="3" t="s">
         <v>3696</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="180">
+    <row r="77" spans="1:13" ht="180">
       <c r="A77" t="s">
         <v>698</v>
       </c>
@@ -22275,18 +22388,19 @@
       <c r="F77" s="9" t="s">
         <v>3695</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" t="s">
         <v>3694</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="J77" s="3" t="s">
         <v>3693</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="L77" s="3" t="s">
         <v>3692</v>
       </c>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" ht="75">
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="1:13" ht="75">
       <c r="A78" t="s">
         <v>699</v>
       </c>
@@ -22302,17 +22416,18 @@
       <c r="F78" s="9" t="s">
         <v>3691</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" t="s">
         <v>3690</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="J78" s="3" t="s">
         <v>3689</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="L78" s="3" t="s">
         <v>3688</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="60">
+    <row r="79" spans="1:13" ht="60">
       <c r="A79" t="s">
         <v>701</v>
       </c>
@@ -22331,17 +22446,19 @@
       <c r="F79" s="9" t="s">
         <v>3687</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="3" t="s">
         <v>3686</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="I79" s="3"/>
+      <c r="J79" s="3" t="s">
         <v>3685</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="L79" s="3" t="s">
         <v>3684</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
         <v>702</v>
       </c>
@@ -22352,7 +22469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="165">
+    <row r="81" spans="1:12" ht="165">
       <c r="A81" t="s">
         <v>703</v>
       </c>
@@ -22368,17 +22485,18 @@
       <c r="F81" s="3" t="s">
         <v>3683</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>3682</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="I81" s="3"/>
+      <c r="J81" s="3" t="s">
         <v>3681</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="L81" s="3" t="s">
         <v>3680</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="150">
+    <row r="82" spans="1:12" ht="150">
       <c r="A82" t="s">
         <v>704</v>
       </c>
@@ -22394,17 +22512,18 @@
       <c r="F82" s="3" t="s">
         <v>3679</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="H82" s="3" t="s">
         <v>3678</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="I82" s="3"/>
+      <c r="J82" s="3" t="s">
         <v>3677</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="L82" s="3" t="s">
         <v>3676</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="165">
+    <row r="83" spans="1:12" ht="165">
       <c r="A83" t="s">
         <v>705</v>
       </c>
@@ -22420,17 +22539,18 @@
       <c r="F83" s="3" t="s">
         <v>3675</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>3674</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="I83" s="3"/>
+      <c r="J83" s="3" t="s">
         <v>3673</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>3672</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="135">
+    <row r="84" spans="1:12" ht="135">
       <c r="A84" t="s">
         <v>706</v>
       </c>
@@ -22446,17 +22566,18 @@
       <c r="F84" s="3" t="s">
         <v>3671</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
         <v>3670</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="I84" s="3"/>
+      <c r="J84" s="3" t="s">
         <v>3669</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="L84" s="3" t="s">
         <v>3668</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="165">
+    <row r="85" spans="1:12" ht="165">
       <c r="A85" t="s">
         <v>707</v>
       </c>
@@ -22472,17 +22593,18 @@
       <c r="F85" s="3" t="s">
         <v>3667</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
         <v>3666</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="I85" s="3"/>
+      <c r="J85" s="3" t="s">
         <v>3665</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="L85" s="3" t="s">
         <v>3664</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="360">
+    <row r="86" spans="1:12" ht="360">
       <c r="A86" t="s">
         <v>708</v>
       </c>
@@ -22498,17 +22620,18 @@
       <c r="F86" s="3" t="s">
         <v>3663</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>3662</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="I86" s="3"/>
+      <c r="J86" s="3" t="s">
         <v>3661</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="L86" s="3" t="s">
         <v>3660</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
         <v>709</v>
       </c>
@@ -22519,8 +22642,9 @@
         <v>6</v>
       </c>
       <c r="F87" s="9"/>
-    </row>
-    <row r="88" spans="1:9" ht="225">
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:12" ht="225">
       <c r="A88" t="s">
         <v>710</v>
       </c>
@@ -22536,17 +22660,18 @@
       <c r="F88" s="3" t="s">
         <v>3659</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>3658</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="I88" s="3"/>
+      <c r="J88" s="3" t="s">
         <v>3657</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="L88" s="3" t="s">
         <v>3656</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="210">
+    <row r="89" spans="1:12" ht="210">
       <c r="A89" t="s">
         <v>711</v>
       </c>
@@ -22562,17 +22687,18 @@
       <c r="F89" s="3" t="s">
         <v>3655</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="H89" s="3" t="s">
         <v>3654</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="I89" s="3"/>
+      <c r="J89" s="3" t="s">
         <v>3653</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="L89" s="3" t="s">
         <v>3652</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="270">
+    <row r="90" spans="1:12" ht="270">
       <c r="A90" t="s">
         <v>712</v>
       </c>
@@ -22588,17 +22714,18 @@
       <c r="F90" s="3" t="s">
         <v>3651</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="H90" s="3" t="s">
         <v>3650</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="I90" s="3"/>
+      <c r="J90" s="3" t="s">
         <v>3649</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="L90" s="3" t="s">
         <v>3648</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="255">
+    <row r="91" spans="1:12" ht="255">
       <c r="A91" t="s">
         <v>713</v>
       </c>
@@ -22614,17 +22741,18 @@
       <c r="F91" s="3" t="s">
         <v>3647</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>3646</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="I91" s="3"/>
+      <c r="J91" s="3" t="s">
         <v>3645</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>3644</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="165">
+    <row r="92" spans="1:12" ht="165">
       <c r="A92" t="s">
         <v>714</v>
       </c>
@@ -22640,17 +22768,18 @@
       <c r="F92" s="3" t="s">
         <v>3643</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="H92" s="3" t="s">
         <v>3642</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="I92" s="3"/>
+      <c r="J92" s="3" t="s">
         <v>3641</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="L92" s="3" t="s">
         <v>3640</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="210">
+    <row r="93" spans="1:12" ht="210">
       <c r="A93" t="s">
         <v>715</v>
       </c>
@@ -22666,17 +22795,18 @@
       <c r="F93" s="3" t="s">
         <v>3639</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>3638</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="I93" s="3"/>
+      <c r="J93" s="3" t="s">
         <v>3637</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="L93" s="3" t="s">
         <v>3636</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="285">
+    <row r="94" spans="1:12" ht="285">
       <c r="A94" t="s">
         <v>716</v>
       </c>
@@ -22692,17 +22822,18 @@
       <c r="F94" s="3" t="s">
         <v>3635</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="H94" s="3" t="s">
         <v>3634</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="I94" s="3"/>
+      <c r="J94" s="3" t="s">
         <v>3633</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>3632</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
         <v>717</v>
       </c>
@@ -22713,7 +22844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="165">
+    <row r="96" spans="1:12" ht="165">
       <c r="A96" t="s">
         <v>718</v>
       </c>
@@ -22729,17 +22860,18 @@
       <c r="F96" s="3" t="s">
         <v>3631</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="H96" s="3" t="s">
         <v>3630</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="I96" s="3"/>
+      <c r="J96" s="3" t="s">
         <v>3629</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="L96" s="3" t="s">
         <v>3628</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="150">
+    <row r="97" spans="1:13" ht="150">
       <c r="A97" t="s">
         <v>719</v>
       </c>
@@ -22755,17 +22887,18 @@
       <c r="F97" s="3" t="s">
         <v>3627</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="H97" s="3" t="s">
         <v>3626</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="I97" s="3"/>
+      <c r="J97" s="3" t="s">
         <v>3625</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="L97" s="3" t="s">
         <v>3624</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="120">
+    <row r="98" spans="1:13" ht="120">
       <c r="A98" t="s">
         <v>720</v>
       </c>
@@ -22781,17 +22914,18 @@
       <c r="F98" s="3" t="s">
         <v>3623</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="H98" s="3" t="s">
         <v>3622</v>
       </c>
-      <c r="H98" s="3" t="s">
+      <c r="I98" s="3"/>
+      <c r="J98" s="3" t="s">
         <v>3621</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="L98" s="3" t="s">
         <v>3620</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="180">
+    <row r="99" spans="1:13" ht="180">
       <c r="A99" t="s">
         <v>721</v>
       </c>
@@ -22807,17 +22941,17 @@
       <c r="F99" s="3" t="s">
         <v>3619</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>3618</v>
       </c>
-      <c r="H99" s="3" t="s">
+      <c r="J99" s="3" t="s">
         <v>3617</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="L99" s="3" t="s">
         <v>3616</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
         <v>722</v>
       </c>
@@ -22828,8 +22962,9 @@
         <v>6</v>
       </c>
       <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="1:10" ht="75">
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:13" ht="75">
       <c r="A101" t="s">
         <v>723</v>
       </c>
@@ -22845,17 +22980,18 @@
       <c r="F101" s="3" t="s">
         <v>3615</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="H101" s="3" t="s">
         <v>3614</v>
       </c>
-      <c r="H101" s="3" t="s">
+      <c r="I101" s="3"/>
+      <c r="J101" s="3" t="s">
         <v>3613</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>3612</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="409.5">
+    <row r="102" spans="1:13" ht="409.5">
       <c r="A102" t="s">
         <v>725</v>
       </c>
@@ -22871,17 +23007,18 @@
       <c r="F102" s="3" t="s">
         <v>3611</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="H102" s="3" t="s">
         <v>3610</v>
       </c>
-      <c r="H102" s="3" t="s">
+      <c r="I102" s="3"/>
+      <c r="J102" s="3" t="s">
         <v>3609</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3608</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="180">
+    <row r="103" spans="1:13" ht="180">
       <c r="A103" t="s">
         <v>726</v>
       </c>
@@ -22897,17 +23034,18 @@
       <c r="F103" s="3" t="s">
         <v>3607</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="H103" s="3" t="s">
         <v>3606</v>
       </c>
-      <c r="H103" s="3" t="s">
+      <c r="I103" s="3"/>
+      <c r="J103" s="3" t="s">
         <v>3605</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="L103" s="3" t="s">
         <v>3604</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="165">
+    <row r="104" spans="1:13" ht="165">
       <c r="A104" t="s">
         <v>727</v>
       </c>
@@ -22923,17 +23061,18 @@
       <c r="F104" s="3" t="s">
         <v>3603</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="H104" s="3" t="s">
         <v>3602</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="I104" s="3"/>
+      <c r="J104" s="3" t="s">
         <v>3601</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="L104" s="3" t="s">
         <v>3600</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="30">
+    <row r="105" spans="1:13" ht="30">
       <c r="A105" t="s">
         <v>728</v>
       </c>
@@ -22952,17 +23091,19 @@
       <c r="F105" s="9" t="s">
         <v>3599</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G105" s="9"/>
+      <c r="H105" s="3" t="s">
         <v>3598</v>
       </c>
-      <c r="H105" s="3" t="s">
+      <c r="I105" s="3"/>
+      <c r="J105" s="3" t="s">
         <v>3597</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="L105" s="3" t="s">
         <v>3596</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
         <v>729</v>
       </c>
@@ -22973,8 +23114,9 @@
         <v>6</v>
       </c>
       <c r="F106" s="9"/>
-    </row>
-    <row r="107" spans="1:10" ht="150">
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:13" ht="150">
       <c r="A107" t="s">
         <v>730</v>
       </c>
@@ -22990,17 +23132,18 @@
       <c r="F107" s="3" t="s">
         <v>3595</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="H107" s="3" t="s">
         <v>3594</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="I107" s="3"/>
+      <c r="J107" s="3" t="s">
         <v>3593</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="L107" s="3" t="s">
         <v>3592</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="180">
+    <row r="108" spans="1:13" ht="180">
       <c r="A108" t="s">
         <v>732</v>
       </c>
@@ -23016,17 +23159,18 @@
       <c r="F108" s="3" t="s">
         <v>3591</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="H108" s="3" t="s">
         <v>3590</v>
       </c>
-      <c r="H108" s="3" t="s">
+      <c r="I108" s="3"/>
+      <c r="J108" s="3" t="s">
         <v>3589</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="L108" s="3" t="s">
         <v>3588</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="240">
+    <row r="109" spans="1:13" ht="240">
       <c r="A109" t="s">
         <v>733</v>
       </c>
@@ -23042,18 +23186,19 @@
       <c r="F109" s="3" t="s">
         <v>3587</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>3586</v>
       </c>
-      <c r="H109" s="3" t="s">
+      <c r="I109" s="3"/>
+      <c r="J109" s="3" t="s">
         <v>3585</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="L109" s="3" t="s">
         <v>3584</v>
       </c>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="1:10" ht="240">
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" spans="1:13" ht="240">
       <c r="A110" t="s">
         <v>734</v>
       </c>
@@ -23069,17 +23214,18 @@
       <c r="F110" s="3" t="s">
         <v>3583</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>3582</v>
       </c>
-      <c r="H110" s="3" t="s">
+      <c r="I110" s="3"/>
+      <c r="J110" s="3" t="s">
         <v>3581</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="L110" s="3" t="s">
         <v>3580</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="255">
+    <row r="111" spans="1:13" ht="255">
       <c r="A111" t="s">
         <v>735</v>
       </c>
@@ -23095,17 +23241,18 @@
       <c r="F111" s="3" t="s">
         <v>3579</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="H111" s="3" t="s">
         <v>3578</v>
       </c>
-      <c r="H111" s="3" t="s">
+      <c r="I111" s="3"/>
+      <c r="J111" s="3" t="s">
         <v>3577</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="L111" s="3" t="s">
         <v>3576</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="165">
+    <row r="112" spans="1:13" ht="165">
       <c r="A112" t="s">
         <v>736</v>
       </c>
@@ -23121,17 +23268,18 @@
       <c r="F112" s="3" t="s">
         <v>3575</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="H112" s="3" t="s">
         <v>3574</v>
       </c>
-      <c r="H112" s="3" t="s">
+      <c r="I112" s="3"/>
+      <c r="J112" s="3" t="s">
         <v>3573</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="L112" s="3" t="s">
         <v>3572</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="210">
+    <row r="113" spans="1:12" ht="210">
       <c r="A113" t="s">
         <v>737</v>
       </c>
@@ -23147,17 +23295,18 @@
       <c r="F113" s="3" t="s">
         <v>3571</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="H113" s="3" t="s">
         <v>3570</v>
       </c>
-      <c r="H113" s="3" t="s">
+      <c r="I113" s="3"/>
+      <c r="J113" s="3" t="s">
         <v>3569</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="L113" s="3" t="s">
         <v>3568</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="285">
+    <row r="114" spans="1:12" ht="285">
       <c r="A114" t="s">
         <v>738</v>
       </c>
@@ -23173,17 +23322,18 @@
       <c r="F114" s="3" t="s">
         <v>3567</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="H114" s="3" t="s">
         <v>3566</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="I114" s="3"/>
+      <c r="J114" s="3" t="s">
         <v>3565</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="L114" s="3" t="s">
         <v>3564</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="135">
+    <row r="115" spans="1:12" ht="135">
       <c r="A115" t="s">
         <v>739</v>
       </c>
@@ -23199,17 +23349,18 @@
       <c r="F115" s="3" t="s">
         <v>3563</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="H115" s="3" t="s">
         <v>3562</v>
       </c>
-      <c r="H115" s="3" t="s">
+      <c r="I115" s="3"/>
+      <c r="J115" s="3" t="s">
         <v>3561</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="L115" s="3" t="s">
         <v>3560</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="270">
+    <row r="116" spans="1:12" ht="270">
       <c r="A116" t="s">
         <v>741</v>
       </c>
@@ -23225,17 +23376,18 @@
       <c r="F116" s="3" t="s">
         <v>3559</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>3558</v>
       </c>
-      <c r="H116" s="3" t="s">
+      <c r="I116" s="3"/>
+      <c r="J116" s="3" t="s">
         <v>3557</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="L116" s="3" t="s">
         <v>3556</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="60">
+    <row r="117" spans="1:12" ht="60">
       <c r="A117" t="s">
         <v>743</v>
       </c>
@@ -23251,17 +23403,17 @@
       <c r="F117" s="3" t="s">
         <v>3555</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>3554</v>
       </c>
-      <c r="H117" s="3" t="s">
+      <c r="J117" s="3" t="s">
         <v>3553</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="L117" s="3" t="s">
         <v>3552</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="195">
+    <row r="118" spans="1:12" ht="195">
       <c r="A118" t="s">
         <v>744</v>
       </c>
@@ -23280,17 +23432,18 @@
       <c r="F118" s="9" t="s">
         <v>3551</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="9"/>
+      <c r="H118" t="s">
         <v>3550</v>
       </c>
-      <c r="H118" s="3" t="s">
+      <c r="J118" s="3" t="s">
         <v>3549</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="L118" s="3" t="s">
         <v>3548</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="30">
+    <row r="119" spans="1:12" ht="30">
       <c r="A119" t="s">
         <v>745</v>
       </c>
@@ -23309,17 +23462,19 @@
       <c r="F119" s="9" t="s">
         <v>3547</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" s="9"/>
+      <c r="H119" s="3" t="s">
         <v>3546</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="I119" s="3"/>
+      <c r="J119" s="3" t="s">
         <v>3545</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="L119" s="3" t="s">
         <v>3544</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
         <v>746</v>
       </c>
@@ -23330,7 +23485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="210">
+    <row r="121" spans="1:12" ht="210">
       <c r="A121" t="s">
         <v>747</v>
       </c>
@@ -23346,17 +23501,18 @@
       <c r="F121" s="3" t="s">
         <v>3543</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="H121" s="3" t="s">
         <v>3542</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="I121" s="3"/>
+      <c r="J121" s="3" t="s">
         <v>3541</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="L121" s="3" t="s">
         <v>3540</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="240">
+    <row r="122" spans="1:12" ht="240">
       <c r="A122" t="s">
         <v>748</v>
       </c>
@@ -23372,17 +23528,18 @@
       <c r="F122" s="3" t="s">
         <v>3539</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="H122" s="3" t="s">
         <v>3538</v>
       </c>
-      <c r="H122" s="3" t="s">
+      <c r="I122" s="3"/>
+      <c r="J122" s="3" t="s">
         <v>3537</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="L122" s="3" t="s">
         <v>3536</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="270">
+    <row r="123" spans="1:12" ht="270">
       <c r="A123" t="s">
         <v>749</v>
       </c>
@@ -23398,17 +23555,18 @@
       <c r="F123" s="3" t="s">
         <v>3535</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="H123" s="3" t="s">
         <v>3534</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="I123" s="3"/>
+      <c r="J123" s="3" t="s">
         <v>3533</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="L123" s="3" t="s">
         <v>3532</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="180">
+    <row r="124" spans="1:12" ht="180">
       <c r="A124" t="s">
         <v>750</v>
       </c>
@@ -23424,17 +23582,18 @@
       <c r="F124" s="3" t="s">
         <v>3531</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="H124" s="3" t="s">
         <v>3530</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="I124" s="3"/>
+      <c r="J124" s="3" t="s">
         <v>3529</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="L124" s="3" t="s">
         <v>3528</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="270">
+    <row r="125" spans="1:12" ht="270">
       <c r="A125" t="s">
         <v>751</v>
       </c>
@@ -23450,17 +23609,18 @@
       <c r="F125" s="3" t="s">
         <v>3527</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="H125" s="3" t="s">
         <v>3526</v>
       </c>
-      <c r="H125" s="3" t="s">
+      <c r="I125" s="3"/>
+      <c r="J125" s="3" t="s">
         <v>3525</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="L125" s="3" t="s">
         <v>3524</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="240">
+    <row r="126" spans="1:12" ht="240">
       <c r="A126" t="s">
         <v>752</v>
       </c>
@@ -23476,17 +23636,18 @@
       <c r="F126" s="3" t="s">
         <v>3523</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="H126" s="3" t="s">
         <v>3522</v>
       </c>
-      <c r="H126" s="3" t="s">
+      <c r="I126" s="3"/>
+      <c r="J126" s="3" t="s">
         <v>3521</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="L126" s="3" t="s">
         <v>3520</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="285">
+    <row r="127" spans="1:12" ht="285">
       <c r="A127" t="s">
         <v>753</v>
       </c>
@@ -23502,17 +23663,17 @@
       <c r="F127" s="3" t="s">
         <v>3519</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>3518</v>
       </c>
-      <c r="H127" s="3" t="s">
+      <c r="J127" s="3" t="s">
         <v>3517</v>
       </c>
-      <c r="I127" s="3" t="s">
+      <c r="L127" s="3" t="s">
         <v>3516</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
         <v>755</v>
       </c>
@@ -23523,7 +23684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="105">
+    <row r="129" spans="1:12" ht="105">
       <c r="A129" t="s">
         <v>756</v>
       </c>
@@ -23539,17 +23700,18 @@
       <c r="F129" s="3" t="s">
         <v>3515</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="H129" s="3" t="s">
         <v>3514</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="I129" s="3"/>
+      <c r="J129" s="3" t="s">
         <v>3513</v>
       </c>
-      <c r="I129" s="3" t="s">
+      <c r="L129" s="3" t="s">
         <v>3512</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="240">
+    <row r="130" spans="1:12" ht="240">
       <c r="A130" t="s">
         <v>758</v>
       </c>
@@ -23565,17 +23727,18 @@
       <c r="F130" s="3" t="s">
         <v>3511</v>
       </c>
-      <c r="G130" s="3" t="s">
+      <c r="H130" s="3" t="s">
         <v>3510</v>
       </c>
-      <c r="H130" s="3" t="s">
+      <c r="I130" s="3"/>
+      <c r="J130" s="3" t="s">
         <v>3509</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="L130" s="3" t="s">
         <v>3508</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="120">
+    <row r="131" spans="1:12" ht="120">
       <c r="A131" t="s">
         <v>759</v>
       </c>
@@ -23591,17 +23754,18 @@
       <c r="F131" s="3" t="s">
         <v>3507</v>
       </c>
-      <c r="G131" s="3" t="s">
+      <c r="H131" s="3" t="s">
         <v>3506</v>
       </c>
-      <c r="H131" s="3" t="s">
+      <c r="I131" s="3"/>
+      <c r="J131" s="3" t="s">
         <v>3505</v>
       </c>
-      <c r="I131" s="3" t="s">
+      <c r="L131" s="3" t="s">
         <v>3504</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="225">
+    <row r="132" spans="1:12" ht="225">
       <c r="A132" t="s">
         <v>760</v>
       </c>
@@ -23617,17 +23781,18 @@
       <c r="F132" s="3" t="s">
         <v>3503</v>
       </c>
-      <c r="G132" s="3" t="s">
+      <c r="H132" s="3" t="s">
         <v>3502</v>
       </c>
-      <c r="H132" s="3" t="s">
+      <c r="I132" s="3"/>
+      <c r="J132" s="3" t="s">
         <v>3501</v>
       </c>
-      <c r="I132" s="3" t="s">
+      <c r="L132" s="3" t="s">
         <v>3500</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="105">
+    <row r="133" spans="1:12" ht="105">
       <c r="A133" t="s">
         <v>761</v>
       </c>
@@ -23643,17 +23808,18 @@
       <c r="F133" s="3" t="s">
         <v>3499</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>3498</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="I133" s="3"/>
+      <c r="J133" s="3" t="s">
         <v>3497</v>
       </c>
-      <c r="I133" s="3" t="s">
+      <c r="L133" s="3" t="s">
         <v>3496</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:12" ht="30">
       <c r="A134" t="s">
         <v>763</v>
       </c>
@@ -23672,17 +23838,19 @@
       <c r="F134" s="9" t="s">
         <v>3495</v>
       </c>
-      <c r="G134" s="3" t="s">
+      <c r="G134" s="9"/>
+      <c r="H134" s="3" t="s">
         <v>3494</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="I134" s="3"/>
+      <c r="J134" s="3" t="s">
         <v>3493</v>
       </c>
-      <c r="I134" s="3" t="s">
+      <c r="L134" s="3" t="s">
         <v>3492</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
         <v>764</v>
       </c>
@@ -23693,7 +23861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="180">
+    <row r="136" spans="1:12" ht="180">
       <c r="A136" t="s">
         <v>765</v>
       </c>
@@ -23709,17 +23877,18 @@
       <c r="F136" s="3" t="s">
         <v>3491</v>
       </c>
-      <c r="G136" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>3490</v>
       </c>
-      <c r="H136" s="3" t="s">
+      <c r="I136" s="3"/>
+      <c r="J136" s="3" t="s">
         <v>3489</v>
       </c>
-      <c r="I136" s="3" t="s">
+      <c r="L136" s="3" t="s">
         <v>3488</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="180">
+    <row r="137" spans="1:12" ht="180">
       <c r="A137" t="s">
         <v>766</v>
       </c>
@@ -23735,17 +23904,18 @@
       <c r="F137" s="3" t="s">
         <v>3487</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="H137" s="3" t="s">
         <v>3486</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="I137" s="3"/>
+      <c r="J137" s="3" t="s">
         <v>3485</v>
       </c>
-      <c r="I137" s="3" t="s">
+      <c r="L137" s="3" t="s">
         <v>3484</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="210">
+    <row r="138" spans="1:12" ht="210">
       <c r="A138" t="s">
         <v>767</v>
       </c>
@@ -23761,17 +23931,18 @@
       <c r="F138" s="3" t="s">
         <v>3483</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="H138" s="3" t="s">
         <v>3482</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="I138" s="3"/>
+      <c r="J138" s="3" t="s">
         <v>3481</v>
       </c>
-      <c r="I138" s="3" t="s">
+      <c r="L138" s="3" t="s">
         <v>3480</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="210">
+    <row r="139" spans="1:12" ht="210">
       <c r="A139" t="s">
         <v>768</v>
       </c>
@@ -23787,17 +23958,18 @@
       <c r="F139" s="3" t="s">
         <v>3479</v>
       </c>
-      <c r="G139" s="3" t="s">
+      <c r="H139" s="3" t="s">
         <v>3478</v>
       </c>
-      <c r="H139" s="3" t="s">
+      <c r="I139" s="3"/>
+      <c r="J139" s="3" t="s">
         <v>3477</v>
       </c>
-      <c r="I139" s="3" t="s">
+      <c r="L139" s="3" t="s">
         <v>3476</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="225">
+    <row r="140" spans="1:12" ht="225">
       <c r="A140" t="s">
         <v>769</v>
       </c>
@@ -23813,17 +23985,17 @@
       <c r="F140" s="3" t="s">
         <v>3475</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>3474</v>
       </c>
-      <c r="H140" s="3" t="s">
+      <c r="J140" s="3" t="s">
         <v>3473</v>
       </c>
-      <c r="I140" s="3" t="s">
+      <c r="L140" s="3" t="s">
         <v>3472</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="105">
+    <row r="141" spans="1:12" ht="105">
       <c r="A141" t="s">
         <v>770</v>
       </c>
@@ -23839,17 +24011,17 @@
       <c r="F141" s="3" t="s">
         <v>3471</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>3470</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="J141" s="3" t="s">
         <v>3469</v>
       </c>
-      <c r="I141" s="3" t="s">
+      <c r="L141" s="3" t="s">
         <v>3468</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="315">
+    <row r="142" spans="1:12" ht="315">
       <c r="A142" t="s">
         <v>771</v>
       </c>
@@ -23868,17 +24040,18 @@
       <c r="F142" s="3" t="s">
         <v>3467</v>
       </c>
-      <c r="G142" s="3" t="s">
+      <c r="H142" s="3" t="s">
         <v>3466</v>
       </c>
-      <c r="H142" s="3" t="s">
+      <c r="I142" s="3"/>
+      <c r="J142" s="3" t="s">
         <v>3465</v>
       </c>
-      <c r="I142" s="3" t="s">
+      <c r="L142" s="3" t="s">
         <v>3464</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="30">
+    <row r="143" spans="1:12" ht="30">
       <c r="A143" t="s">
         <v>772</v>
       </c>
@@ -23897,17 +24070,19 @@
       <c r="F143" s="9" t="s">
         <v>3463</v>
       </c>
-      <c r="G143" s="3" t="s">
+      <c r="G143" s="9"/>
+      <c r="H143" s="3" t="s">
         <v>3462</v>
       </c>
-      <c r="H143" s="3" t="s">
+      <c r="I143" s="3"/>
+      <c r="J143" s="3" t="s">
         <v>3461</v>
       </c>
-      <c r="I143" s="3" t="s">
+      <c r="L143" s="3" t="s">
         <v>3460</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="300">
+    <row r="144" spans="1:12" ht="300">
       <c r="A144" t="s">
         <v>773</v>
       </c>
@@ -23923,17 +24098,18 @@
       <c r="F144" s="3" t="s">
         <v>3459</v>
       </c>
-      <c r="G144" s="3" t="s">
+      <c r="H144" s="3" t="s">
         <v>3458</v>
       </c>
-      <c r="H144" s="3" t="s">
+      <c r="I144" s="3"/>
+      <c r="J144" s="3" t="s">
         <v>3457</v>
       </c>
-      <c r="I144" s="3" t="s">
+      <c r="L144" s="3" t="s">
         <v>3456</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="135">
+    <row r="145" spans="1:12" ht="135">
       <c r="A145" t="s">
         <v>774</v>
       </c>
@@ -23949,17 +24125,17 @@
       <c r="F145" s="3" t="s">
         <v>3455</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>3454</v>
       </c>
-      <c r="H145" s="3" t="s">
+      <c r="J145" s="3" t="s">
         <v>3453</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="L145" s="3" t="s">
         <v>3452</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="180">
+    <row r="146" spans="1:12" ht="180">
       <c r="A146" t="s">
         <v>775</v>
       </c>
@@ -23975,17 +24151,17 @@
       <c r="F146" s="3" t="s">
         <v>3451</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>3450</v>
       </c>
-      <c r="H146" s="3" t="s">
+      <c r="J146" s="3" t="s">
         <v>3449</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="L146" s="3" t="s">
         <v>3448</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="60">
+    <row r="147" spans="1:12" ht="60">
       <c r="A147" t="s">
         <v>776</v>
       </c>
@@ -24001,17 +24177,17 @@
       <c r="F147" s="3" t="s">
         <v>3447</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>3446</v>
       </c>
-      <c r="H147" s="3" t="s">
+      <c r="J147" s="3" t="s">
         <v>3445</v>
       </c>
-      <c r="I147" s="3" t="s">
+      <c r="L147" s="3" t="s">
         <v>3444</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
         <v>778</v>
       </c>
@@ -24030,17 +24206,19 @@
       <c r="F148" s="9" t="s">
         <v>3443</v>
       </c>
-      <c r="G148" s="3" t="s">
+      <c r="G148" s="9"/>
+      <c r="H148" s="3" t="s">
         <v>3442</v>
       </c>
-      <c r="H148" s="3" t="s">
+      <c r="I148" s="3"/>
+      <c r="J148" s="3" t="s">
         <v>3441</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="L148" s="3" t="s">
         <v>3440</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="330">
+    <row r="149" spans="1:12" ht="330">
       <c r="A149" t="s">
         <v>779</v>
       </c>
@@ -24056,17 +24234,18 @@
       <c r="F149" s="3" t="s">
         <v>3439</v>
       </c>
-      <c r="G149" s="3" t="s">
+      <c r="H149" s="3" t="s">
         <v>3438</v>
       </c>
-      <c r="H149" s="3" t="s">
+      <c r="I149" s="3"/>
+      <c r="J149" s="3" t="s">
         <v>3437</v>
       </c>
-      <c r="I149" s="3" t="s">
+      <c r="L149" s="3" t="s">
         <v>3436</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="180">
+    <row r="150" spans="1:12" ht="180">
       <c r="A150" t="s">
         <v>780</v>
       </c>
@@ -24082,17 +24261,18 @@
       <c r="F150" s="3" t="s">
         <v>3435</v>
       </c>
-      <c r="G150" s="3" t="s">
+      <c r="H150" s="3" t="s">
         <v>3434</v>
       </c>
-      <c r="H150" s="3" t="s">
+      <c r="I150" s="3"/>
+      <c r="J150" s="3" t="s">
         <v>3433</v>
       </c>
-      <c r="I150" s="3" t="s">
+      <c r="L150" s="3" t="s">
         <v>3432</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="90">
+    <row r="151" spans="1:12" ht="90">
       <c r="A151" t="s">
         <v>781</v>
       </c>
@@ -24108,17 +24288,18 @@
       <c r="F151" s="3" t="s">
         <v>3431</v>
       </c>
-      <c r="G151" s="3" t="s">
+      <c r="H151" s="3" t="s">
         <v>3430</v>
       </c>
-      <c r="H151" s="3" t="s">
+      <c r="I151" s="3"/>
+      <c r="J151" s="3" t="s">
         <v>3429</v>
       </c>
-      <c r="I151" s="3" t="s">
+      <c r="L151" s="3" t="s">
         <v>3428</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="120">
+    <row r="152" spans="1:12" ht="120">
       <c r="A152" t="s">
         <v>783</v>
       </c>
@@ -24134,17 +24315,18 @@
       <c r="F152" s="3" t="s">
         <v>3427</v>
       </c>
-      <c r="G152" s="3" t="s">
+      <c r="H152" s="3" t="s">
         <v>3426</v>
       </c>
-      <c r="H152" s="3" t="s">
+      <c r="I152" s="3"/>
+      <c r="J152" s="3" t="s">
         <v>3425</v>
       </c>
-      <c r="I152" s="3" t="s">
+      <c r="L152" s="3" t="s">
         <v>3424</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="150">
+    <row r="153" spans="1:12" ht="150">
       <c r="A153" t="s">
         <v>784</v>
       </c>
@@ -24160,17 +24342,17 @@
       <c r="F153" s="3" t="s">
         <v>3423</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>3422</v>
       </c>
-      <c r="H153" s="3" t="s">
+      <c r="J153" s="3" t="s">
         <v>3421</v>
       </c>
-      <c r="I153" s="3" t="s">
+      <c r="L153" s="3" t="s">
         <v>3420</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="225">
+    <row r="154" spans="1:12" ht="225">
       <c r="A154" t="s">
         <v>785</v>
       </c>
@@ -24186,17 +24368,17 @@
       <c r="F154" s="3" t="s">
         <v>3419</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>3418</v>
       </c>
-      <c r="H154" s="3" t="s">
+      <c r="J154" s="3" t="s">
         <v>3417</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="L154" s="3" t="s">
         <v>3416</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="45">
+    <row r="155" spans="1:12" ht="45">
       <c r="A155" t="s">
         <v>786</v>
       </c>
@@ -24215,17 +24397,19 @@
       <c r="F155" s="9" t="s">
         <v>3415</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G155" s="9"/>
+      <c r="H155" s="3" t="s">
         <v>3414</v>
       </c>
-      <c r="H155" s="3" t="s">
+      <c r="I155" s="3"/>
+      <c r="J155" s="3" t="s">
         <v>3413</v>
       </c>
-      <c r="I155" s="3" t="s">
+      <c r="L155" s="3" t="s">
         <v>3412</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="150">
+    <row r="156" spans="1:12" ht="150">
       <c r="A156" t="s">
         <v>787</v>
       </c>
@@ -24241,17 +24425,17 @@
       <c r="F156" s="3" t="s">
         <v>3411</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>3410</v>
       </c>
-      <c r="H156" s="3" t="s">
+      <c r="J156" s="3" t="s">
         <v>3409</v>
       </c>
-      <c r="I156" s="3" t="s">
+      <c r="L156" s="3" t="s">
         <v>3408</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
         <v>788</v>
       </c>
@@ -24262,7 +24446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="90">
+    <row r="158" spans="1:12" ht="90">
       <c r="A158" t="s">
         <v>789</v>
       </c>
@@ -24278,17 +24462,18 @@
       <c r="F158" s="3" t="s">
         <v>3407</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="H158" s="3" t="s">
         <v>3406</v>
       </c>
-      <c r="H158" s="3" t="s">
+      <c r="I158" s="3"/>
+      <c r="J158" s="3" t="s">
         <v>3405</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="L158" s="3" t="s">
         <v>3404</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="165">
+    <row r="159" spans="1:12" ht="165">
       <c r="A159" t="s">
         <v>790</v>
       </c>
@@ -24304,17 +24489,18 @@
       <c r="F159" s="3" t="s">
         <v>3403</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="H159" s="3" t="s">
         <v>3402</v>
       </c>
-      <c r="H159" s="3" t="s">
+      <c r="I159" s="3"/>
+      <c r="J159" s="3" t="s">
         <v>3401</v>
       </c>
-      <c r="I159" s="3" t="s">
+      <c r="L159" s="3" t="s">
         <v>3400</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="75">
+    <row r="160" spans="1:12" ht="75">
       <c r="A160" t="s">
         <v>791</v>
       </c>
@@ -24330,17 +24516,18 @@
       <c r="F160" s="3" t="s">
         <v>3399</v>
       </c>
-      <c r="G160" s="3" t="s">
+      <c r="H160" s="3" t="s">
         <v>3398</v>
       </c>
-      <c r="H160" s="3" t="s">
+      <c r="I160" s="3"/>
+      <c r="J160" s="3" t="s">
         <v>3397</v>
       </c>
-      <c r="I160" s="3" t="s">
+      <c r="L160" s="3" t="s">
         <v>3396</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="195">
+    <row r="161" spans="1:12" ht="195">
       <c r="A161" t="s">
         <v>793</v>
       </c>
@@ -24356,17 +24543,17 @@
       <c r="F161" s="3" t="s">
         <v>3395</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>3394</v>
       </c>
-      <c r="H161" s="3" t="s">
+      <c r="J161" s="3" t="s">
         <v>3393</v>
       </c>
-      <c r="I161" s="3" t="s">
+      <c r="L161" s="3" t="s">
         <v>3392</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="165">
+    <row r="162" spans="1:12" ht="165">
       <c r="A162" t="s">
         <v>794</v>
       </c>
@@ -24382,17 +24569,17 @@
       <c r="F162" s="3" t="s">
         <v>3391</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>3390</v>
       </c>
-      <c r="H162" s="3" t="s">
+      <c r="J162" s="3" t="s">
         <v>3389</v>
       </c>
-      <c r="I162" s="3" t="s">
+      <c r="L162" s="3" t="s">
         <v>3388</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="30">
+    <row r="163" spans="1:12" ht="30">
       <c r="A163" t="s">
         <v>795</v>
       </c>
@@ -24411,17 +24598,19 @@
       <c r="F163" s="9" t="s">
         <v>3387</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="G163" s="9"/>
+      <c r="H163" s="3" t="s">
         <v>3386</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="I163" s="3"/>
+      <c r="J163" s="3" t="s">
         <v>3385</v>
       </c>
-      <c r="I163" s="3" t="s">
+      <c r="L163" s="3" t="s">
         <v>3384</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="240">
+    <row r="164" spans="1:12" ht="240">
       <c r="A164" t="s">
         <v>796</v>
       </c>
@@ -24437,17 +24626,17 @@
       <c r="F164" s="3" t="s">
         <v>3383</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>3382</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="J164" s="3" t="s">
         <v>3381</v>
       </c>
-      <c r="I164" s="3" t="s">
+      <c r="L164" s="3" t="s">
         <v>3380</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="120">
+    <row r="165" spans="1:12" ht="120">
       <c r="A165" t="s">
         <v>797</v>
       </c>
@@ -24463,17 +24652,17 @@
       <c r="F165" s="3" t="s">
         <v>3379</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>3378</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="J165" s="3" t="s">
         <v>3377</v>
       </c>
-      <c r="I165" s="3" t="s">
+      <c r="L165" s="3" t="s">
         <v>3376</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="150">
+    <row r="166" spans="1:12" ht="150">
       <c r="A166" t="s">
         <v>799</v>
       </c>
@@ -24489,17 +24678,17 @@
       <c r="F166" s="3" t="s">
         <v>3375</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>3374</v>
       </c>
-      <c r="H166" s="3" t="s">
+      <c r="J166" s="3" t="s">
         <v>3373</v>
       </c>
-      <c r="I166" s="3" t="s">
+      <c r="L166" s="3" t="s">
         <v>3372</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="30">
+    <row r="167" spans="1:12" ht="30">
       <c r="A167" t="s">
         <v>800</v>
       </c>
@@ -24518,17 +24707,18 @@
       <c r="F167" s="3" t="s">
         <v>3371</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="H167" s="3" t="s">
         <v>3370</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="I167" s="3"/>
+      <c r="J167" s="3" t="s">
         <v>3369</v>
       </c>
-      <c r="I167" s="3" t="s">
+      <c r="L167" s="3" t="s">
         <v>3368</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="405">
+    <row r="168" spans="1:12" ht="405">
       <c r="A168" t="s">
         <v>801</v>
       </c>
@@ -24544,17 +24734,17 @@
       <c r="F168" s="3" t="s">
         <v>3367</v>
       </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>3366</v>
       </c>
-      <c r="H168" s="3" t="s">
+      <c r="J168" s="3" t="s">
         <v>3365</v>
       </c>
-      <c r="I168" s="3" t="s">
+      <c r="L168" s="3" t="s">
         <v>3364</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="300">
+    <row r="169" spans="1:12" ht="300">
       <c r="A169" t="s">
         <v>803</v>
       </c>
@@ -24570,17 +24760,17 @@
       <c r="F169" s="3" t="s">
         <v>3363</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>3362</v>
       </c>
-      <c r="H169" s="3" t="s">
+      <c r="J169" s="3" t="s">
         <v>3361</v>
       </c>
-      <c r="I169" s="3" t="s">
+      <c r="L169" s="3" t="s">
         <v>3360</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="105">
+    <row r="170" spans="1:12" ht="105">
       <c r="A170" t="s">
         <v>804</v>
       </c>
@@ -24596,17 +24786,17 @@
       <c r="F170" s="3" t="s">
         <v>3359</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>3358</v>
       </c>
-      <c r="H170" s="3" t="s">
+      <c r="J170" s="3" t="s">
         <v>3357</v>
       </c>
-      <c r="I170" s="3" t="s">
+      <c r="L170" s="3" t="s">
         <v>3356</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="30">
+    <row r="171" spans="1:12" ht="30">
       <c r="A171" t="s">
         <v>805</v>
       </c>
@@ -24625,17 +24815,19 @@
       <c r="F171" s="9" t="s">
         <v>3355</v>
       </c>
-      <c r="G171" s="3" t="s">
+      <c r="G171" s="9"/>
+      <c r="H171" s="3" t="s">
         <v>3354</v>
       </c>
-      <c r="H171" s="3" t="s">
+      <c r="I171" s="3"/>
+      <c r="J171" s="3" t="s">
         <v>3353</v>
       </c>
-      <c r="I171" s="3" t="s">
+      <c r="L171" s="3" t="s">
         <v>3352</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="409.5">
+    <row r="172" spans="1:12" ht="409.5">
       <c r="A172" t="s">
         <v>806</v>
       </c>
@@ -24651,17 +24843,18 @@
       <c r="F172" s="3" t="s">
         <v>3351</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="H172" s="3" t="s">
         <v>3350</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="I172" s="3"/>
+      <c r="J172" s="3" t="s">
         <v>3349</v>
       </c>
-      <c r="I172" s="3" t="s">
+      <c r="L172" s="3" t="s">
         <v>3348</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="165">
+    <row r="173" spans="1:12" ht="165">
       <c r="A173" t="s">
         <v>807</v>
       </c>
@@ -24677,17 +24870,18 @@
       <c r="F173" s="3" t="s">
         <v>3347</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="H173" s="3" t="s">
         <v>3346</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="I173" s="3"/>
+      <c r="J173" s="3" t="s">
         <v>3345</v>
       </c>
-      <c r="I173" s="3" t="s">
+      <c r="L173" s="3" t="s">
         <v>3344</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="120">
+    <row r="174" spans="1:12" ht="120">
       <c r="A174" t="s">
         <v>808</v>
       </c>
@@ -24703,17 +24897,18 @@
       <c r="F174" s="3" t="s">
         <v>3343</v>
       </c>
-      <c r="G174" s="3" t="s">
+      <c r="H174" s="3" t="s">
         <v>3342</v>
       </c>
-      <c r="H174" s="3" t="s">
+      <c r="I174" s="3"/>
+      <c r="J174" s="3" t="s">
         <v>3341</v>
       </c>
-      <c r="I174" s="3" t="s">
+      <c r="L174" s="3" t="s">
         <v>3340</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="75">
+    <row r="175" spans="1:12" ht="75">
       <c r="A175" t="s">
         <v>809</v>
       </c>
@@ -24732,17 +24927,19 @@
       <c r="F175" s="9" t="s">
         <v>3339</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="G175" s="9"/>
+      <c r="H175" s="3" t="s">
         <v>3338</v>
       </c>
-      <c r="H175" s="3" t="s">
+      <c r="I175" s="3"/>
+      <c r="J175" s="3" t="s">
         <v>3337</v>
       </c>
-      <c r="I175" s="3" t="s">
+      <c r="L175" s="3" t="s">
         <v>3336</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="90">
+    <row r="176" spans="1:12" ht="90">
       <c r="A176" t="s">
         <v>810</v>
       </c>
@@ -24758,17 +24955,18 @@
       <c r="F176" s="3" t="s">
         <v>3335</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="H176" s="3" t="s">
         <v>3334</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="I176" s="3"/>
+      <c r="J176" s="3" t="s">
         <v>3333</v>
       </c>
-      <c r="I176" s="3" t="s">
+      <c r="L176" s="3" t="s">
         <v>3332</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
         <v>812</v>
       </c>
@@ -24779,7 +24977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="270">
+    <row r="178" spans="1:12" ht="270">
       <c r="A178" t="s">
         <v>813</v>
       </c>
@@ -24795,17 +24993,18 @@
       <c r="F178" s="3" t="s">
         <v>3331</v>
       </c>
-      <c r="G178" s="3" t="s">
+      <c r="H178" s="3" t="s">
         <v>3330</v>
       </c>
-      <c r="H178" s="3" t="s">
+      <c r="I178" s="3"/>
+      <c r="J178" s="3" t="s">
         <v>3329</v>
       </c>
-      <c r="I178" s="3" t="s">
+      <c r="L178" s="3" t="s">
         <v>3328</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="75">
+    <row r="179" spans="1:12" ht="75">
       <c r="A179" t="s">
         <v>814</v>
       </c>
@@ -24821,17 +25020,18 @@
       <c r="F179" s="3" t="s">
         <v>3327</v>
       </c>
-      <c r="G179" s="3" t="s">
+      <c r="H179" s="3" t="s">
         <v>3326</v>
       </c>
-      <c r="H179" s="3" t="s">
+      <c r="I179" s="3"/>
+      <c r="J179" s="3" t="s">
         <v>3325</v>
       </c>
-      <c r="I179" s="3" t="s">
+      <c r="L179" s="3" t="s">
         <v>3324</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="135">
+    <row r="180" spans="1:12" ht="135">
       <c r="A180" t="s">
         <v>816</v>
       </c>
@@ -24847,17 +25047,17 @@
       <c r="F180" s="3" t="s">
         <v>3323</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>3322</v>
       </c>
-      <c r="H180" s="3" t="s">
+      <c r="J180" s="3" t="s">
         <v>3321</v>
       </c>
-      <c r="I180" s="3" t="s">
+      <c r="L180" s="3" t="s">
         <v>3320</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="240">
+    <row r="181" spans="1:12" ht="240">
       <c r="A181" t="s">
         <v>817</v>
       </c>
@@ -24873,17 +25073,17 @@
       <c r="F181" s="3" t="s">
         <v>3319</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>3318</v>
       </c>
-      <c r="H181" s="3" t="s">
+      <c r="J181" s="3" t="s">
         <v>3317</v>
       </c>
-      <c r="I181" s="3" t="s">
+      <c r="L181" s="3" t="s">
         <v>3316</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="120">
+    <row r="182" spans="1:12" ht="120">
       <c r="A182" t="s">
         <v>818</v>
       </c>
@@ -24899,17 +25099,18 @@
       <c r="F182" s="3" t="s">
         <v>3315</v>
       </c>
-      <c r="G182" s="3" t="s">
+      <c r="H182" s="3" t="s">
         <v>3314</v>
       </c>
-      <c r="H182" s="3" t="s">
+      <c r="I182" s="3"/>
+      <c r="J182" s="3" t="s">
         <v>3313</v>
       </c>
-      <c r="I182" s="3" t="s">
+      <c r="L182" s="3" t="s">
         <v>3312</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
         <v>819</v>
       </c>
@@ -24928,14 +25129,15 @@
       <c r="F183" s="3" t="s">
         <v>3311</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="H183" s="3" t="s">
         <v>3310</v>
       </c>
-      <c r="I183" s="3" t="s">
+      <c r="I183" s="3"/>
+      <c r="L183" s="3" t="s">
         <v>3309</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="240">
+    <row r="184" spans="1:12" ht="240">
       <c r="A184" t="s">
         <v>820</v>
       </c>
@@ -24951,17 +25153,18 @@
       <c r="F184" s="3" t="s">
         <v>3308</v>
       </c>
-      <c r="G184" s="3" t="s">
+      <c r="H184" s="3" t="s">
         <v>3307</v>
       </c>
-      <c r="H184" s="3" t="s">
+      <c r="I184" s="3"/>
+      <c r="J184" s="3" t="s">
         <v>3306</v>
       </c>
-      <c r="I184" s="3" t="s">
+      <c r="L184" s="3" t="s">
         <v>3305</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="315">
+    <row r="185" spans="1:12" ht="315">
       <c r="A185" t="s">
         <v>822</v>
       </c>
@@ -24977,17 +25180,17 @@
       <c r="F185" s="3" t="s">
         <v>3304</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>3303</v>
       </c>
-      <c r="H185" s="3" t="s">
+      <c r="J185" s="3" t="s">
         <v>3302</v>
       </c>
-      <c r="I185" s="3" t="s">
+      <c r="L185" s="3" t="s">
         <v>3301</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
         <v>824</v>
       </c>
@@ -24998,7 +25201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="409.5">
+    <row r="187" spans="1:12" ht="409.5">
       <c r="A187" t="s">
         <v>825</v>
       </c>
@@ -25014,17 +25217,18 @@
       <c r="F187" s="3" t="s">
         <v>3300</v>
       </c>
-      <c r="G187" s="3" t="s">
+      <c r="H187" s="3" t="s">
         <v>3299</v>
       </c>
-      <c r="H187" s="3" t="s">
+      <c r="I187" s="3"/>
+      <c r="J187" s="3" t="s">
         <v>3298</v>
       </c>
-      <c r="I187" s="3" t="s">
+      <c r="L187" s="3" t="s">
         <v>3297</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="409.5">
+    <row r="188" spans="1:12" ht="409.5">
       <c r="A188" t="s">
         <v>827</v>
       </c>
@@ -25040,17 +25244,18 @@
       <c r="F188" s="3" t="s">
         <v>3296</v>
       </c>
-      <c r="G188" s="3" t="s">
+      <c r="H188" s="3" t="s">
         <v>3295</v>
       </c>
-      <c r="H188" s="3" t="s">
+      <c r="I188" s="3"/>
+      <c r="J188" s="3" t="s">
         <v>3294</v>
       </c>
-      <c r="I188" s="3" t="s">
+      <c r="L188" s="3" t="s">
         <v>3293</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="375">
+    <row r="189" spans="1:12" ht="375">
       <c r="A189" t="s">
         <v>829</v>
       </c>
@@ -25066,17 +25271,18 @@
       <c r="F189" s="3" t="s">
         <v>3292</v>
       </c>
-      <c r="G189" s="3" t="s">
+      <c r="H189" s="3" t="s">
         <v>3291</v>
       </c>
-      <c r="H189" s="3" t="s">
+      <c r="I189" s="3"/>
+      <c r="J189" s="3" t="s">
         <v>3290</v>
       </c>
-      <c r="I189" s="3" t="s">
+      <c r="L189" s="3" t="s">
         <v>3289</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="405">
+    <row r="190" spans="1:12" ht="405">
       <c r="A190" t="s">
         <v>830</v>
       </c>
@@ -25092,17 +25298,18 @@
       <c r="F190" s="3" t="s">
         <v>3288</v>
       </c>
-      <c r="G190" s="3" t="s">
+      <c r="H190" s="3" t="s">
         <v>3287</v>
       </c>
-      <c r="H190" s="3" t="s">
+      <c r="I190" s="3"/>
+      <c r="J190" s="3" t="s">
         <v>3286</v>
       </c>
-      <c r="I190" s="3" t="s">
+      <c r="L190" s="3" t="s">
         <v>3285</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="409.5">
+    <row r="191" spans="1:12" ht="409.5">
       <c r="A191" t="s">
         <v>832</v>
       </c>
@@ -25118,17 +25325,18 @@
       <c r="F191" s="3" t="s">
         <v>3284</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="H191" s="3" t="s">
         <v>3283</v>
       </c>
-      <c r="H191" s="3" t="s">
+      <c r="I191" s="3"/>
+      <c r="J191" s="3" t="s">
         <v>3282</v>
       </c>
-      <c r="I191" s="3" t="s">
+      <c r="L191" s="3" t="s">
         <v>3281</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="409.5">
+    <row r="192" spans="1:12" ht="409.5">
       <c r="A192" t="s">
         <v>834</v>
       </c>
@@ -25144,17 +25352,18 @@
       <c r="F192" s="3" t="s">
         <v>3280</v>
       </c>
-      <c r="G192" s="3" t="s">
+      <c r="H192" s="3" t="s">
         <v>3279</v>
       </c>
-      <c r="H192" s="3" t="s">
+      <c r="I192" s="3"/>
+      <c r="J192" s="3" t="s">
         <v>3278</v>
       </c>
-      <c r="I192" s="3" t="s">
+      <c r="L192" s="3" t="s">
         <v>3277</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="409.5">
+    <row r="193" spans="1:12" ht="409.5">
       <c r="A193" t="s">
         <v>836</v>
       </c>
@@ -25170,17 +25379,18 @@
       <c r="F193" s="3" t="s">
         <v>3276</v>
       </c>
-      <c r="G193" s="3" t="s">
+      <c r="H193" s="3" t="s">
         <v>3275</v>
       </c>
-      <c r="H193" s="3" t="s">
+      <c r="I193" s="3"/>
+      <c r="J193" s="3" t="s">
         <v>3274</v>
       </c>
-      <c r="I193" s="3" t="s">
+      <c r="L193" s="3" t="s">
         <v>3273</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="409.5">
+    <row r="194" spans="1:12" ht="409.5">
       <c r="A194" t="s">
         <v>838</v>
       </c>
@@ -25196,17 +25406,18 @@
       <c r="F194" s="3" t="s">
         <v>3272</v>
       </c>
-      <c r="G194" s="3" t="s">
+      <c r="H194" s="3" t="s">
         <v>3271</v>
       </c>
-      <c r="H194" s="3" t="s">
+      <c r="I194" s="3"/>
+      <c r="J194" s="3" t="s">
         <v>3270</v>
       </c>
-      <c r="I194" s="3" t="s">
+      <c r="L194" s="3" t="s">
         <v>3269</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="409.5">
+    <row r="195" spans="1:12" ht="409.5">
       <c r="A195" t="s">
         <v>840</v>
       </c>
@@ -25222,17 +25433,17 @@
       <c r="F195" s="3" t="s">
         <v>3268</v>
       </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>3267</v>
       </c>
-      <c r="H195" s="3" t="s">
+      <c r="J195" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="I195" s="3" t="s">
+      <c r="L195" s="3" t="s">
         <v>3265</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="165">
+    <row r="196" spans="1:12" ht="165">
       <c r="A196" t="s">
         <v>841</v>
       </c>
@@ -25248,17 +25459,17 @@
       <c r="F196" s="3" t="s">
         <v>3264</v>
       </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>3263</v>
       </c>
-      <c r="H196" s="3" t="s">
+      <c r="J196" s="3" t="s">
         <v>3262</v>
       </c>
-      <c r="I196" s="3" t="s">
+      <c r="L196" s="3" t="s">
         <v>3261</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="255">
+    <row r="197" spans="1:12" ht="255">
       <c r="A197" t="s">
         <v>842</v>
       </c>
@@ -25274,17 +25485,17 @@
       <c r="F197" s="3" t="s">
         <v>3260</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>3259</v>
       </c>
-      <c r="H197" s="3" t="s">
+      <c r="J197" s="3" t="s">
         <v>3258</v>
       </c>
-      <c r="I197" s="3" t="s">
+      <c r="L197" s="3" t="s">
         <v>3257</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="75">
+    <row r="198" spans="1:12" ht="75">
       <c r="A198" t="s">
         <v>843</v>
       </c>
@@ -25300,17 +25511,17 @@
       <c r="F198" s="3" t="s">
         <v>3256</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>3255</v>
       </c>
-      <c r="H198" s="3" t="s">
+      <c r="J198" s="3" t="s">
         <v>3254</v>
       </c>
-      <c r="I198" s="3" t="s">
+      <c r="L198" s="3" t="s">
         <v>3253</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="180">
+    <row r="199" spans="1:12" ht="180">
       <c r="A199" t="s">
         <v>845</v>
       </c>
@@ -25326,17 +25537,17 @@
       <c r="F199" s="3" t="s">
         <v>3252</v>
       </c>
-      <c r="G199" t="s">
+      <c r="H199" t="s">
         <v>3251</v>
       </c>
-      <c r="H199" s="3" t="s">
+      <c r="J199" s="3" t="s">
         <v>3250</v>
       </c>
-      <c r="I199" s="3" t="s">
+      <c r="L199" s="3" t="s">
         <v>3249</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="270">
+    <row r="200" spans="1:12" ht="270">
       <c r="A200" t="s">
         <v>846</v>
       </c>
@@ -25355,17 +25566,18 @@
       <c r="F200" s="9" t="s">
         <v>3248</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="9"/>
+      <c r="H200" t="s">
         <v>3247</v>
       </c>
-      <c r="H200" s="3" t="s">
+      <c r="J200" s="3" t="s">
         <v>3246</v>
       </c>
-      <c r="I200" s="3" t="s">
+      <c r="L200" s="3" t="s">
         <v>3245</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:12">
       <c r="A201" t="s">
         <v>847</v>
       </c>
@@ -25384,17 +25596,18 @@
       <c r="F201" s="9" t="s">
         <v>3244</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="9"/>
+      <c r="H201" t="s">
         <v>3243</v>
       </c>
-      <c r="H201" s="3" t="s">
+      <c r="J201" s="3" t="s">
         <v>3242</v>
       </c>
-      <c r="I201" s="3" t="s">
+      <c r="L201" s="3" t="s">
         <v>3241</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:12">
       <c r="A202" t="s">
         <v>848</v>
       </c>
@@ -25405,7 +25618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="225">
+    <row r="203" spans="1:12" ht="225">
       <c r="A203" t="s">
         <v>849</v>
       </c>
@@ -25421,17 +25634,18 @@
       <c r="F203" s="3" t="s">
         <v>3240</v>
       </c>
-      <c r="G203" s="3" t="s">
+      <c r="H203" s="3" t="s">
         <v>3239</v>
       </c>
-      <c r="H203" s="3" t="s">
+      <c r="I203" s="3"/>
+      <c r="J203" s="3" t="s">
         <v>3238</v>
       </c>
-      <c r="I203" s="3" t="s">
+      <c r="L203" s="3" t="s">
         <v>3237</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="135">
+    <row r="204" spans="1:12" ht="135">
       <c r="A204" t="s">
         <v>850</v>
       </c>
@@ -25447,17 +25661,18 @@
       <c r="F204" s="3" t="s">
         <v>3236</v>
       </c>
-      <c r="G204" s="3" t="s">
+      <c r="H204" s="3" t="s">
         <v>3235</v>
       </c>
-      <c r="H204" s="3" t="s">
+      <c r="I204" s="3"/>
+      <c r="J204" s="3" t="s">
         <v>3234</v>
       </c>
-      <c r="I204" s="3" t="s">
+      <c r="L204" s="3" t="s">
         <v>3233</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="180">
+    <row r="205" spans="1:12" ht="180">
       <c r="A205" t="s">
         <v>851</v>
       </c>
@@ -25473,17 +25688,18 @@
       <c r="F205" s="3" t="s">
         <v>3232</v>
       </c>
-      <c r="G205" s="3" t="s">
+      <c r="H205" s="3" t="s">
         <v>3231</v>
       </c>
-      <c r="H205" s="3" t="s">
+      <c r="I205" s="3"/>
+      <c r="J205" s="3" t="s">
         <v>3230</v>
       </c>
-      <c r="I205" s="3" t="s">
+      <c r="L205" s="3" t="s">
         <v>3229</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="210">
+    <row r="206" spans="1:12" ht="210">
       <c r="A206" t="s">
         <v>852</v>
       </c>
@@ -25499,17 +25715,18 @@
       <c r="F206" s="3" t="s">
         <v>3228</v>
       </c>
-      <c r="G206" s="3" t="s">
+      <c r="H206" s="3" t="s">
         <v>3227</v>
       </c>
-      <c r="H206" s="3" t="s">
+      <c r="I206" s="3"/>
+      <c r="J206" s="3" t="s">
         <v>3226</v>
       </c>
-      <c r="I206" s="3" t="s">
+      <c r="L206" s="3" t="s">
         <v>3225</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="285">
+    <row r="207" spans="1:12" ht="285">
       <c r="A207" t="s">
         <v>854</v>
       </c>
@@ -25525,17 +25742,18 @@
       <c r="F207" s="3" t="s">
         <v>3224</v>
       </c>
-      <c r="G207" s="3" t="s">
+      <c r="H207" s="3" t="s">
         <v>3223</v>
       </c>
-      <c r="H207" s="3" t="s">
+      <c r="I207" s="3"/>
+      <c r="J207" s="3" t="s">
         <v>3222</v>
       </c>
-      <c r="I207" s="3" t="s">
+      <c r="L207" s="3" t="s">
         <v>3221</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="165">
+    <row r="208" spans="1:12" ht="165">
       <c r="A208" t="s">
         <v>856</v>
       </c>
@@ -25551,17 +25769,18 @@
       <c r="F208" s="3" t="s">
         <v>3220</v>
       </c>
-      <c r="G208" s="3" t="s">
+      <c r="H208" s="3" t="s">
         <v>3219</v>
       </c>
-      <c r="H208" s="3" t="s">
+      <c r="I208" s="3"/>
+      <c r="J208" s="3" t="s">
         <v>3218</v>
       </c>
-      <c r="I208" s="3" t="s">
+      <c r="L208" s="3" t="s">
         <v>3217</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="195">
+    <row r="209" spans="1:12" ht="195">
       <c r="A209" t="s">
         <v>858</v>
       </c>
@@ -25577,17 +25796,18 @@
       <c r="F209" s="3" t="s">
         <v>3216</v>
       </c>
-      <c r="G209" s="3" t="s">
+      <c r="H209" s="3" t="s">
         <v>3215</v>
       </c>
-      <c r="H209" s="3" t="s">
+      <c r="I209" s="3"/>
+      <c r="J209" s="3" t="s">
         <v>3214</v>
       </c>
-      <c r="I209" s="3" t="s">
+      <c r="L209" s="3" t="s">
         <v>3213</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:12">
       <c r="A210" t="s">
         <v>859</v>
       </c>
@@ -25598,7 +25818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="285">
+    <row r="211" spans="1:12" ht="285">
       <c r="A211" t="s">
         <v>860</v>
       </c>
@@ -25614,17 +25834,18 @@
       <c r="F211" s="3" t="s">
         <v>3212</v>
       </c>
-      <c r="G211" s="3" t="s">
+      <c r="H211" s="3" t="s">
         <v>3211</v>
       </c>
-      <c r="H211" s="3" t="s">
+      <c r="I211" s="3"/>
+      <c r="J211" s="3" t="s">
         <v>3210</v>
       </c>
-      <c r="I211" s="3" t="s">
+      <c r="L211" s="3" t="s">
         <v>3209</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="180">
+    <row r="212" spans="1:12" ht="180">
       <c r="A212" t="s">
         <v>861</v>
       </c>
@@ -25640,17 +25861,18 @@
       <c r="F212" s="3" t="s">
         <v>3208</v>
       </c>
-      <c r="G212" s="3" t="s">
+      <c r="H212" s="3" t="s">
         <v>3207</v>
       </c>
-      <c r="H212" s="3" t="s">
+      <c r="I212" s="3"/>
+      <c r="J212" s="3" t="s">
         <v>3206</v>
       </c>
-      <c r="I212" s="3" t="s">
+      <c r="L212" s="3" t="s">
         <v>3205</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="300">
+    <row r="213" spans="1:12" ht="300">
       <c r="A213" t="s">
         <v>862</v>
       </c>
@@ -25666,17 +25888,18 @@
       <c r="F213" s="3" t="s">
         <v>3204</v>
       </c>
-      <c r="G213" s="3" t="s">
+      <c r="H213" s="3" t="s">
         <v>3203</v>
       </c>
-      <c r="H213" s="3" t="s">
+      <c r="I213" s="3"/>
+      <c r="J213" s="3" t="s">
         <v>3202</v>
       </c>
-      <c r="I213" s="3" t="s">
+      <c r="L213" s="3" t="s">
         <v>3201</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="195">
+    <row r="214" spans="1:12" ht="195">
       <c r="A214" t="s">
         <v>863</v>
       </c>
@@ -25692,17 +25915,18 @@
       <c r="F214" s="3" t="s">
         <v>3200</v>
       </c>
-      <c r="G214" s="3" t="s">
+      <c r="H214" s="3" t="s">
         <v>3199</v>
       </c>
-      <c r="H214" s="3" t="s">
+      <c r="I214" s="3"/>
+      <c r="J214" s="3" t="s">
         <v>3198</v>
       </c>
-      <c r="I214" s="3" t="s">
+      <c r="L214" s="3" t="s">
         <v>3197</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="60">
+    <row r="215" spans="1:12" ht="60">
       <c r="A215" t="s">
         <v>864</v>
       </c>
@@ -25718,17 +25942,18 @@
       <c r="F215" s="3" t="s">
         <v>3196</v>
       </c>
-      <c r="G215" s="3" t="s">
+      <c r="H215" s="3" t="s">
         <v>3195</v>
       </c>
-      <c r="H215" s="3" t="s">
+      <c r="I215" s="3"/>
+      <c r="J215" s="3" t="s">
         <v>3194</v>
       </c>
-      <c r="I215" s="3" t="s">
+      <c r="L215" s="3" t="s">
         <v>3193</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="135">
+    <row r="216" spans="1:12" ht="135">
       <c r="A216" t="s">
         <v>867</v>
       </c>
@@ -25744,17 +25969,18 @@
       <c r="F216" s="3" t="s">
         <v>3192</v>
       </c>
-      <c r="G216" s="3" t="s">
+      <c r="H216" s="3" t="s">
         <v>3191</v>
       </c>
-      <c r="H216" s="3" t="s">
+      <c r="I216" s="3"/>
+      <c r="J216" s="3" t="s">
         <v>3190</v>
       </c>
-      <c r="I216" s="3" t="s">
+      <c r="L216" s="3" t="s">
         <v>3189</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="270">
+    <row r="217" spans="1:12" ht="270">
       <c r="A217" t="s">
         <v>868</v>
       </c>
@@ -25770,17 +25996,18 @@
       <c r="F217" s="3" t="s">
         <v>3188</v>
       </c>
-      <c r="G217" s="3" t="s">
+      <c r="H217" s="3" t="s">
         <v>3187</v>
       </c>
-      <c r="H217" s="3" t="s">
+      <c r="I217" s="3"/>
+      <c r="J217" s="3" t="s">
         <v>3186</v>
       </c>
-      <c r="I217" s="3" t="s">
+      <c r="L217" s="3" t="s">
         <v>3185</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="150">
+    <row r="218" spans="1:12" ht="150">
       <c r="A218" t="s">
         <v>869</v>
       </c>
@@ -25799,17 +26026,18 @@
       <c r="F218" s="3" t="s">
         <v>3184</v>
       </c>
-      <c r="G218" s="3" t="s">
+      <c r="H218" s="3" t="s">
         <v>3183</v>
       </c>
-      <c r="H218" s="3" t="s">
+      <c r="I218" s="3"/>
+      <c r="J218" s="3" t="s">
         <v>3182</v>
       </c>
-      <c r="I218" s="3" t="s">
+      <c r="L218" s="3" t="s">
         <v>3181</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="30">
+    <row r="219" spans="1:12" ht="30">
       <c r="A219" t="s">
         <v>870</v>
       </c>
@@ -25828,17 +26056,19 @@
       <c r="F219" s="9" t="s">
         <v>3180</v>
       </c>
-      <c r="G219" s="3" t="s">
+      <c r="G219" s="9"/>
+      <c r="H219" s="3" t="s">
         <v>3179</v>
       </c>
-      <c r="H219" s="3" t="s">
+      <c r="I219" s="3"/>
+      <c r="J219" s="3" t="s">
         <v>3178</v>
       </c>
-      <c r="I219" s="3" t="s">
+      <c r="L219" s="3" t="s">
         <v>3177</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:12">
       <c r="A220" t="s">
         <v>871</v>
       </c>
@@ -25849,7 +26079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="300">
+    <row r="221" spans="1:12" ht="300">
       <c r="A221" t="s">
         <v>872</v>
       </c>
@@ -25865,17 +26095,18 @@
       <c r="F221" s="3" t="s">
         <v>3176</v>
       </c>
-      <c r="G221" s="3" t="s">
+      <c r="H221" s="3" t="s">
         <v>3175</v>
       </c>
-      <c r="H221" s="3" t="s">
+      <c r="I221" s="3"/>
+      <c r="J221" s="3" t="s">
         <v>3174</v>
       </c>
-      <c r="I221" s="3" t="s">
+      <c r="L221" s="3" t="s">
         <v>3173</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="360">
+    <row r="222" spans="1:12" ht="360">
       <c r="A222" t="s">
         <v>874</v>
       </c>
@@ -25891,17 +26122,18 @@
       <c r="F222" s="3" t="s">
         <v>3172</v>
       </c>
-      <c r="G222" s="3" t="s">
+      <c r="H222" s="3" t="s">
         <v>3171</v>
       </c>
-      <c r="H222" s="3" t="s">
+      <c r="I222" s="3"/>
+      <c r="J222" s="3" t="s">
         <v>3170</v>
       </c>
-      <c r="I222" s="3" t="s">
+      <c r="L222" s="3" t="s">
         <v>3169</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="330">
+    <row r="223" spans="1:12" ht="330">
       <c r="A223" t="s">
         <v>876</v>
       </c>
@@ -25917,17 +26149,18 @@
       <c r="F223" s="3" t="s">
         <v>3168</v>
       </c>
-      <c r="G223" s="3" t="s">
+      <c r="H223" s="3" t="s">
         <v>3167</v>
       </c>
-      <c r="H223" s="3" t="s">
+      <c r="I223" s="3"/>
+      <c r="J223" s="3" t="s">
         <v>3166</v>
       </c>
-      <c r="I223" s="3" t="s">
+      <c r="L223" s="3" t="s">
         <v>3165</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="360">
+    <row r="224" spans="1:12" ht="360">
       <c r="A224" t="s">
         <v>877</v>
       </c>
@@ -25943,17 +26176,18 @@
       <c r="F224" s="3" t="s">
         <v>3164</v>
       </c>
-      <c r="G224" s="3" t="s">
+      <c r="H224" s="3" t="s">
         <v>3163</v>
       </c>
-      <c r="H224" s="3" t="s">
+      <c r="I224" s="3"/>
+      <c r="J224" s="3" t="s">
         <v>3162</v>
       </c>
-      <c r="I224" s="3" t="s">
+      <c r="L224" s="3" t="s">
         <v>3161</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="180">
+    <row r="225" spans="1:12" ht="180">
       <c r="A225" t="s">
         <v>879</v>
       </c>
@@ -25969,17 +26203,17 @@
       <c r="F225" s="3" t="s">
         <v>3160</v>
       </c>
-      <c r="G225" t="s">
+      <c r="H225" t="s">
         <v>3159</v>
       </c>
-      <c r="H225" s="3" t="s">
+      <c r="J225" s="3" t="s">
         <v>3158</v>
       </c>
-      <c r="I225" s="3" t="s">
+      <c r="L225" s="3" t="s">
         <v>3157</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="165">
+    <row r="226" spans="1:12" ht="165">
       <c r="A226" t="s">
         <v>881</v>
       </c>
@@ -25995,17 +26229,17 @@
       <c r="F226" s="3" t="s">
         <v>3156</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>3155</v>
       </c>
-      <c r="H226" s="3" t="s">
+      <c r="J226" s="3" t="s">
         <v>3154</v>
       </c>
-      <c r="I226" s="3" t="s">
+      <c r="L226" s="3" t="s">
         <v>3153</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="255">
+    <row r="227" spans="1:12" ht="255">
       <c r="A227" t="s">
         <v>882</v>
       </c>
@@ -26021,17 +26255,17 @@
       <c r="F227" s="3" t="s">
         <v>3152</v>
       </c>
-      <c r="G227" t="s">
+      <c r="H227" t="s">
         <v>3151</v>
       </c>
-      <c r="H227" s="3" t="s">
+      <c r="J227" s="3" t="s">
         <v>3150</v>
       </c>
-      <c r="I227" s="3" t="s">
+      <c r="L227" s="3" t="s">
         <v>3149</v>
       </c>
     </row>
-    <row r="228" spans="1:9" s="3" customFormat="1" ht="60">
+    <row r="228" spans="1:12" s="3" customFormat="1" ht="60">
       <c r="A228" s="3" t="s">
         <v>884</v>
       </c>
@@ -26050,17 +26284,18 @@
       <c r="F228" s="9" t="s">
         <v>3148</v>
       </c>
-      <c r="G228" s="3" t="s">
+      <c r="G228" s="9"/>
+      <c r="H228" s="3" t="s">
         <v>3147</v>
       </c>
-      <c r="H228" s="3" t="s">
+      <c r="J228" s="3" t="s">
         <v>3146</v>
       </c>
-      <c r="I228" s="3" t="s">
+      <c r="L228" s="3" t="s">
         <v>3145</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="300">
+    <row r="229" spans="1:12" ht="300">
       <c r="A229" t="s">
         <v>885</v>
       </c>
@@ -26076,17 +26311,18 @@
       <c r="F229" s="3" t="s">
         <v>3144</v>
       </c>
-      <c r="G229" s="3" t="s">
+      <c r="H229" s="3" t="s">
         <v>3143</v>
       </c>
-      <c r="H229" s="3" t="s">
+      <c r="I229" s="3"/>
+      <c r="J229" s="3" t="s">
         <v>3142</v>
       </c>
-      <c r="I229" s="3" t="s">
+      <c r="L229" s="3" t="s">
         <v>3141</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="105">
+    <row r="230" spans="1:12" ht="105">
       <c r="A230" t="s">
         <v>887</v>
       </c>
@@ -26102,17 +26338,17 @@
       <c r="F230" s="3" t="s">
         <v>3140</v>
       </c>
-      <c r="G230" t="s">
+      <c r="H230" t="s">
         <v>3139</v>
       </c>
-      <c r="H230" s="3" t="s">
+      <c r="J230" s="3" t="s">
         <v>3138</v>
       </c>
-      <c r="I230" s="3" t="s">
+      <c r="L230" s="3" t="s">
         <v>3137</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:12">
       <c r="A231" t="s">
         <v>889</v>
       </c>
@@ -26123,7 +26359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="165">
+    <row r="232" spans="1:12" ht="165">
       <c r="A232" t="s">
         <v>890</v>
       </c>
@@ -26139,17 +26375,18 @@
       <c r="F232" s="3" t="s">
         <v>3136</v>
       </c>
-      <c r="G232" s="3" t="s">
+      <c r="H232" s="3" t="s">
         <v>3135</v>
       </c>
-      <c r="H232" s="3" t="s">
+      <c r="I232" s="3"/>
+      <c r="J232" s="3" t="s">
         <v>3134</v>
       </c>
-      <c r="I232" s="3" t="s">
+      <c r="L232" s="3" t="s">
         <v>3133</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="120">
+    <row r="233" spans="1:12" ht="120">
       <c r="A233" t="s">
         <v>891</v>
       </c>
@@ -26165,17 +26402,18 @@
       <c r="F233" s="3" t="s">
         <v>3132</v>
       </c>
-      <c r="G233" s="3" t="s">
+      <c r="H233" s="3" t="s">
         <v>3131</v>
       </c>
-      <c r="H233" s="3" t="s">
+      <c r="I233" s="3"/>
+      <c r="J233" s="3" t="s">
         <v>3130</v>
       </c>
-      <c r="I233" s="3" t="s">
+      <c r="L233" s="3" t="s">
         <v>3129</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="90">
+    <row r="234" spans="1:12" ht="90">
       <c r="A234" t="s">
         <v>892</v>
       </c>
@@ -26191,17 +26429,18 @@
       <c r="F234" s="3" t="s">
         <v>3128</v>
       </c>
-      <c r="G234" s="3" t="s">
+      <c r="H234" s="3" t="s">
         <v>3127</v>
       </c>
-      <c r="H234" s="3" t="s">
+      <c r="I234" s="3"/>
+      <c r="J234" s="3" t="s">
         <v>3126</v>
       </c>
-      <c r="I234" s="3" t="s">
+      <c r="L234" s="3" t="s">
         <v>3125</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="165">
+    <row r="235" spans="1:12" ht="165">
       <c r="A235" t="s">
         <v>893</v>
       </c>
@@ -26217,17 +26456,18 @@
       <c r="F235" s="3" t="s">
         <v>3124</v>
       </c>
-      <c r="G235" s="3" t="s">
+      <c r="H235" s="3" t="s">
         <v>3123</v>
       </c>
-      <c r="H235" s="3" t="s">
+      <c r="I235" s="3"/>
+      <c r="J235" s="3" t="s">
         <v>3122</v>
       </c>
-      <c r="I235" s="3" t="s">
+      <c r="L235" s="3" t="s">
         <v>3121</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="105">
+    <row r="236" spans="1:12" ht="105">
       <c r="A236" t="s">
         <v>894</v>
       </c>
@@ -26243,17 +26483,17 @@
       <c r="F236" s="3" t="s">
         <v>3120</v>
       </c>
-      <c r="G236" t="s">
+      <c r="H236" t="s">
         <v>3119</v>
       </c>
-      <c r="H236" s="3" t="s">
+      <c r="J236" s="3" t="s">
         <v>3118</v>
       </c>
-      <c r="I236" s="3" t="s">
+      <c r="L236" s="3" t="s">
         <v>3117</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="195">
+    <row r="237" spans="1:12" ht="195">
       <c r="A237" t="s">
         <v>895</v>
       </c>
@@ -26269,17 +26509,17 @@
       <c r="F237" s="3" t="s">
         <v>3116</v>
       </c>
-      <c r="G237" t="s">
+      <c r="H237" t="s">
         <v>3115</v>
       </c>
-      <c r="H237" s="3" t="s">
+      <c r="J237" s="3" t="s">
         <v>3114</v>
       </c>
-      <c r="I237" s="3" t="s">
+      <c r="L237" s="3" t="s">
         <v>3113</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="45">
+    <row r="238" spans="1:12" ht="45">
       <c r="A238" t="s">
         <v>896</v>
       </c>
@@ -26298,17 +26538,18 @@
       <c r="F238" s="3" t="s">
         <v>3112</v>
       </c>
-      <c r="G238" s="3" t="s">
+      <c r="H238" s="3" t="s">
         <v>3111</v>
       </c>
-      <c r="H238" s="3" t="s">
+      <c r="I238" s="3"/>
+      <c r="J238" s="3" t="s">
         <v>3110</v>
       </c>
-      <c r="I238" s="3" t="s">
+      <c r="L238" s="3" t="s">
         <v>3109</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="165">
+    <row r="239" spans="1:12" ht="165">
       <c r="A239" t="s">
         <v>897</v>
       </c>
@@ -26324,17 +26565,17 @@
       <c r="F239" s="3" t="s">
         <v>3108</v>
       </c>
-      <c r="G239" t="s">
+      <c r="H239" t="s">
         <v>3107</v>
       </c>
-      <c r="H239" s="3" t="s">
+      <c r="J239" s="3" t="s">
         <v>3106</v>
       </c>
-      <c r="I239" s="3" t="s">
+      <c r="L239" s="3" t="s">
         <v>3105</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="165">
+    <row r="240" spans="1:12" ht="165">
       <c r="A240" t="s">
         <v>898</v>
       </c>
@@ -26350,17 +26591,17 @@
       <c r="F240" s="3" t="s">
         <v>3104</v>
       </c>
-      <c r="G240" t="s">
+      <c r="H240" t="s">
         <v>3103</v>
       </c>
-      <c r="H240" s="3" t="s">
+      <c r="J240" s="3" t="s">
         <v>3102</v>
       </c>
-      <c r="I240" s="3" t="s">
+      <c r="L240" s="3" t="s">
         <v>3101</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:12">
       <c r="A241" t="s">
         <v>899</v>
       </c>
@@ -26371,7 +26612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="285">
+    <row r="242" spans="1:12" ht="285">
       <c r="A242" t="s">
         <v>900</v>
       </c>
@@ -26387,17 +26628,18 @@
       <c r="F242" s="3" t="s">
         <v>3100</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="H242" s="3" t="s">
         <v>3099</v>
       </c>
-      <c r="H242" s="3" t="s">
+      <c r="I242" s="3"/>
+      <c r="J242" s="3" t="s">
         <v>3098</v>
       </c>
-      <c r="I242" s="3" t="s">
+      <c r="L242" s="3" t="s">
         <v>3097</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="180">
+    <row r="243" spans="1:12" ht="180">
       <c r="A243" t="s">
         <v>901</v>
       </c>
@@ -26413,17 +26655,18 @@
       <c r="F243" s="3" t="s">
         <v>3096</v>
       </c>
-      <c r="G243" s="3" t="s">
+      <c r="H243" s="3" t="s">
         <v>3095</v>
       </c>
-      <c r="H243" s="3" t="s">
+      <c r="I243" s="3"/>
+      <c r="J243" s="3" t="s">
         <v>3094</v>
       </c>
-      <c r="I243" s="3" t="s">
+      <c r="L243" s="3" t="s">
         <v>3093</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="180">
+    <row r="244" spans="1:12" ht="180">
       <c r="A244" t="s">
         <v>902</v>
       </c>
@@ -26439,17 +26682,18 @@
       <c r="F244" s="3" t="s">
         <v>3092</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="H244" s="3" t="s">
         <v>3091</v>
       </c>
-      <c r="H244" s="3" t="s">
+      <c r="I244" s="3"/>
+      <c r="J244" s="3" t="s">
         <v>3090</v>
       </c>
-      <c r="I244" s="3" t="s">
+      <c r="L244" s="3" t="s">
         <v>3089</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="195">
+    <row r="245" spans="1:12" ht="195">
       <c r="A245" t="s">
         <v>903</v>
       </c>
@@ -26465,17 +26709,17 @@
       <c r="F245" s="3" t="s">
         <v>3088</v>
       </c>
-      <c r="G245" t="s">
+      <c r="H245" t="s">
         <v>3087</v>
       </c>
-      <c r="H245" s="3" t="s">
+      <c r="J245" s="3" t="s">
         <v>3086</v>
       </c>
-      <c r="I245" s="3" t="s">
+      <c r="L245" s="3" t="s">
         <v>3085</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="30">
+    <row r="246" spans="1:12" ht="30">
       <c r="A246" t="s">
         <v>904</v>
       </c>
@@ -26494,17 +26738,18 @@
       <c r="F246" s="3" t="s">
         <v>3084</v>
       </c>
-      <c r="G246" s="3" t="s">
+      <c r="H246" s="3" t="s">
         <v>3083</v>
       </c>
-      <c r="H246" s="3" t="s">
+      <c r="I246" s="3"/>
+      <c r="J246" s="3" t="s">
         <v>3082</v>
       </c>
-      <c r="I246" s="3" t="s">
+      <c r="L246" s="3" t="s">
         <v>3081</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="255">
+    <row r="247" spans="1:12" ht="255">
       <c r="A247" t="s">
         <v>905</v>
       </c>
@@ -26520,17 +26765,18 @@
       <c r="F247" s="3" t="s">
         <v>3080</v>
       </c>
-      <c r="G247" s="3" t="s">
+      <c r="H247" s="3" t="s">
         <v>3079</v>
       </c>
-      <c r="H247" s="3" t="s">
+      <c r="I247" s="3"/>
+      <c r="J247" s="3" t="s">
         <v>3078</v>
       </c>
-      <c r="I247" s="3" t="s">
+      <c r="L247" s="3" t="s">
         <v>3077</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="105">
+    <row r="248" spans="1:12" ht="105">
       <c r="A248" t="s">
         <v>907</v>
       </c>
@@ -26546,17 +26792,18 @@
       <c r="F248" s="3" t="s">
         <v>3076</v>
       </c>
-      <c r="G248" s="3" t="s">
+      <c r="H248" s="3" t="s">
         <v>3075</v>
       </c>
-      <c r="H248" s="3" t="s">
+      <c r="I248" s="3"/>
+      <c r="J248" s="3" t="s">
         <v>3074</v>
       </c>
-      <c r="I248" s="3" t="s">
+      <c r="L248" s="3" t="s">
         <v>3073</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:12">
       <c r="A249" t="s">
         <v>909</v>
       </c>
@@ -26567,7 +26814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="240">
+    <row r="250" spans="1:12" ht="240">
       <c r="A250" t="s">
         <v>910</v>
       </c>
@@ -26583,17 +26830,18 @@
       <c r="F250" s="3" t="s">
         <v>3072</v>
       </c>
-      <c r="G250" s="3" t="s">
+      <c r="H250" s="3" t="s">
         <v>3071</v>
       </c>
-      <c r="H250" s="3" t="s">
+      <c r="I250" s="3"/>
+      <c r="J250" s="3" t="s">
         <v>3070</v>
       </c>
-      <c r="I250" s="3" t="s">
+      <c r="L250" s="3" t="s">
         <v>3069</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="180">
+    <row r="251" spans="1:12" ht="180">
       <c r="A251" t="s">
         <v>911</v>
       </c>
@@ -26609,17 +26857,18 @@
       <c r="F251" s="3" t="s">
         <v>3068</v>
       </c>
-      <c r="G251" s="3" t="s">
+      <c r="H251" s="3" t="s">
         <v>3067</v>
       </c>
-      <c r="H251" s="3" t="s">
+      <c r="I251" s="3"/>
+      <c r="J251" s="3" t="s">
         <v>3066</v>
       </c>
-      <c r="I251" s="3" t="s">
+      <c r="L251" s="3" t="s">
         <v>3065</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="105">
+    <row r="252" spans="1:12" ht="105">
       <c r="A252" t="s">
         <v>912</v>
       </c>
@@ -26635,17 +26884,18 @@
       <c r="F252" s="3" t="s">
         <v>3064</v>
       </c>
-      <c r="G252" s="3" t="s">
+      <c r="H252" s="3" t="s">
         <v>3063</v>
       </c>
-      <c r="H252" s="3" t="s">
+      <c r="I252" s="3"/>
+      <c r="J252" s="3" t="s">
         <v>3062</v>
       </c>
-      <c r="I252" s="3" t="s">
+      <c r="L252" s="3" t="s">
         <v>3061</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="195">
+    <row r="253" spans="1:12" ht="195">
       <c r="A253" t="s">
         <v>913</v>
       </c>
@@ -26661,17 +26911,17 @@
       <c r="F253" s="3" t="s">
         <v>3060</v>
       </c>
-      <c r="G253" t="s">
+      <c r="H253" t="s">
         <v>3059</v>
       </c>
-      <c r="H253" s="3" t="s">
+      <c r="J253" s="3" t="s">
         <v>3058</v>
       </c>
-      <c r="I253" s="3" t="s">
+      <c r="L253" s="3" t="s">
         <v>3057</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="165">
+    <row r="254" spans="1:12" ht="165">
       <c r="A254" t="s">
         <v>914</v>
       </c>
@@ -26687,17 +26937,17 @@
       <c r="F254" s="3" t="s">
         <v>3056</v>
       </c>
-      <c r="G254" t="s">
+      <c r="H254" t="s">
         <v>3055</v>
       </c>
-      <c r="H254" s="3" t="s">
+      <c r="J254" s="3" t="s">
         <v>3054</v>
       </c>
-      <c r="I254" s="3" t="s">
+      <c r="L254" s="3" t="s">
         <v>3053</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:12">
       <c r="A255" t="s">
         <v>915</v>
       </c>
@@ -26708,7 +26958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="120">
+    <row r="256" spans="1:12" ht="120">
       <c r="A256" t="s">
         <v>916</v>
       </c>
@@ -26724,17 +26974,18 @@
       <c r="F256" s="3" t="s">
         <v>3052</v>
       </c>
-      <c r="G256" s="3" t="s">
+      <c r="H256" s="3" t="s">
         <v>3051</v>
       </c>
-      <c r="H256" s="3" t="s">
+      <c r="I256" s="3"/>
+      <c r="J256" s="3" t="s">
         <v>3050</v>
       </c>
-      <c r="I256" s="3" t="s">
+      <c r="L256" s="3" t="s">
         <v>3049</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="90">
+    <row r="257" spans="1:12" ht="90">
       <c r="A257" t="s">
         <v>917</v>
       </c>
@@ -26750,17 +27001,18 @@
       <c r="F257" s="3" t="s">
         <v>3048</v>
       </c>
-      <c r="G257" s="3" t="s">
+      <c r="H257" s="3" t="s">
         <v>3047</v>
       </c>
-      <c r="H257" s="3" t="s">
+      <c r="I257" s="3"/>
+      <c r="J257" s="3" t="s">
         <v>3046</v>
       </c>
-      <c r="I257" s="3" t="s">
+      <c r="L257" s="3" t="s">
         <v>3045</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="90">
+    <row r="258" spans="1:12" ht="90">
       <c r="A258" t="s">
         <v>919</v>
       </c>
@@ -26776,17 +27028,18 @@
       <c r="F258" s="3" t="s">
         <v>3044</v>
       </c>
-      <c r="G258" s="3" t="s">
+      <c r="H258" s="3" t="s">
         <v>3043</v>
       </c>
-      <c r="H258" s="3" t="s">
+      <c r="I258" s="3"/>
+      <c r="J258" s="3" t="s">
         <v>3042</v>
       </c>
-      <c r="I258" s="3" t="s">
+      <c r="L258" s="3" t="s">
         <v>3041</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="195">
+    <row r="259" spans="1:12" ht="195">
       <c r="A259" t="s">
         <v>920</v>
       </c>
@@ -26802,17 +27055,18 @@
       <c r="F259" s="3" t="s">
         <v>3040</v>
       </c>
-      <c r="G259" s="3" t="s">
+      <c r="H259" s="3" t="s">
         <v>3039</v>
       </c>
-      <c r="H259" s="3" t="s">
+      <c r="I259" s="3"/>
+      <c r="J259" s="3" t="s">
         <v>3038</v>
       </c>
-      <c r="I259" s="3" t="s">
+      <c r="L259" s="3" t="s">
         <v>3037</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="210">
+    <row r="260" spans="1:12" ht="210">
       <c r="A260" t="s">
         <v>921</v>
       </c>
@@ -26828,17 +27082,17 @@
       <c r="F260" s="3" t="s">
         <v>3036</v>
       </c>
-      <c r="G260" t="s">
+      <c r="H260" t="s">
         <v>3035</v>
       </c>
-      <c r="H260" s="3" t="s">
+      <c r="J260" s="3" t="s">
         <v>3034</v>
       </c>
-      <c r="I260" s="3" t="s">
+      <c r="L260" s="3" t="s">
         <v>3033</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="150">
+    <row r="261" spans="1:12" ht="150">
       <c r="A261" t="s">
         <v>922</v>
       </c>
@@ -26854,17 +27108,17 @@
       <c r="F261" s="3" t="s">
         <v>3032</v>
       </c>
-      <c r="G261" t="s">
+      <c r="H261" t="s">
         <v>3031</v>
       </c>
-      <c r="H261" s="3" t="s">
+      <c r="J261" s="3" t="s">
         <v>3030</v>
       </c>
-      <c r="I261" s="3" t="s">
+      <c r="L261" s="3" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="315">
+    <row r="262" spans="1:12" ht="315">
       <c r="A262" t="s">
         <v>924</v>
       </c>
@@ -26880,17 +27134,17 @@
       <c r="F262" s="3" t="s">
         <v>3028</v>
       </c>
-      <c r="G262" t="s">
+      <c r="H262" t="s">
         <v>3027</v>
       </c>
-      <c r="H262" s="3" t="s">
+      <c r="J262" s="3" t="s">
         <v>3026</v>
       </c>
-      <c r="I262" s="3" t="s">
+      <c r="L262" s="3" t="s">
         <v>3025</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="165">
+    <row r="263" spans="1:12" ht="165">
       <c r="A263" t="s">
         <v>925</v>
       </c>
@@ -26906,17 +27160,17 @@
       <c r="F263" s="3" t="s">
         <v>3024</v>
       </c>
-      <c r="G263" t="s">
+      <c r="H263" t="s">
         <v>3023</v>
       </c>
-      <c r="H263" s="3" t="s">
+      <c r="J263" s="3" t="s">
         <v>3022</v>
       </c>
-      <c r="I263" s="3" t="s">
+      <c r="L263" s="3" t="s">
         <v>3021</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:12">
       <c r="A264" t="s">
         <v>926</v>
       </c>
@@ -26935,17 +27189,18 @@
       <c r="F264" s="3" t="s">
         <v>3020</v>
       </c>
-      <c r="G264" s="10" t="s">
+      <c r="H264" s="10" t="s">
         <v>3019</v>
       </c>
-      <c r="H264" s="3" t="s">
+      <c r="I264" s="10"/>
+      <c r="J264" s="3" t="s">
         <v>3018</v>
       </c>
-      <c r="I264" s="3" t="s">
+      <c r="L264" s="3" t="s">
         <v>3017</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="180">
+    <row r="265" spans="1:12" ht="180">
       <c r="A265" t="s">
         <v>927</v>
       </c>
@@ -26961,17 +27216,17 @@
       <c r="F265" s="3" t="s">
         <v>3016</v>
       </c>
-      <c r="G265" t="s">
+      <c r="H265" t="s">
         <v>3015</v>
       </c>
-      <c r="H265" s="3" t="s">
+      <c r="J265" s="3" t="s">
         <v>3014</v>
       </c>
-      <c r="I265" s="3" t="s">
+      <c r="L265" s="3" t="s">
         <v>3013</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:12">
       <c r="A266" t="s">
         <v>928</v>
       </c>
@@ -26982,7 +27237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="210">
+    <row r="267" spans="1:12" ht="210">
       <c r="A267" t="s">
         <v>929</v>
       </c>
@@ -26998,17 +27253,18 @@
       <c r="F267" s="3" t="s">
         <v>3012</v>
       </c>
-      <c r="G267" s="3" t="s">
+      <c r="H267" s="3" t="s">
         <v>3011</v>
       </c>
-      <c r="H267" s="3" t="s">
+      <c r="I267" s="3"/>
+      <c r="J267" s="3" t="s">
         <v>3010</v>
       </c>
-      <c r="I267" s="3" t="s">
+      <c r="L267" s="3" t="s">
         <v>3009</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="105">
+    <row r="268" spans="1:12" ht="105">
       <c r="A268" t="s">
         <v>930</v>
       </c>
@@ -27024,17 +27280,18 @@
       <c r="F268" s="3" t="s">
         <v>3008</v>
       </c>
-      <c r="G268" s="3" t="s">
+      <c r="H268" s="3" t="s">
         <v>3007</v>
       </c>
-      <c r="H268" s="3" t="s">
+      <c r="I268" s="3"/>
+      <c r="J268" s="3" t="s">
         <v>3006</v>
       </c>
-      <c r="I268" s="3" t="s">
+      <c r="L268" s="3" t="s">
         <v>3005</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="150">
+    <row r="269" spans="1:12" ht="150">
       <c r="A269" t="s">
         <v>931</v>
       </c>
@@ -27050,17 +27307,18 @@
       <c r="F269" s="3" t="s">
         <v>3004</v>
       </c>
-      <c r="G269" s="3" t="s">
+      <c r="H269" s="3" t="s">
         <v>3003</v>
       </c>
-      <c r="H269" s="3" t="s">
+      <c r="I269" s="3"/>
+      <c r="J269" s="3" t="s">
         <v>3002</v>
       </c>
-      <c r="I269" s="3" t="s">
+      <c r="L269" s="3" t="s">
         <v>3001</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="120">
+    <row r="270" spans="1:12" ht="120">
       <c r="A270" t="s">
         <v>932</v>
       </c>
@@ -27076,17 +27334,18 @@
       <c r="F270" s="3" t="s">
         <v>3000</v>
       </c>
-      <c r="G270" s="3" t="s">
+      <c r="H270" s="3" t="s">
         <v>2999</v>
       </c>
-      <c r="H270" s="3" t="s">
+      <c r="I270" s="3"/>
+      <c r="J270" s="3" t="s">
         <v>2998</v>
       </c>
-      <c r="I270" s="3" t="s">
+      <c r="L270" s="3" t="s">
         <v>2997</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="120">
+    <row r="271" spans="1:12" ht="120">
       <c r="A271" t="s">
         <v>933</v>
       </c>
@@ -27102,17 +27361,18 @@
       <c r="F271" s="3" t="s">
         <v>2996</v>
       </c>
-      <c r="G271" s="3" t="s">
+      <c r="H271" s="3" t="s">
         <v>2995</v>
       </c>
-      <c r="H271" s="3" t="s">
+      <c r="I271" s="3"/>
+      <c r="J271" s="3" t="s">
         <v>2994</v>
       </c>
-      <c r="I271" s="3" t="s">
+      <c r="L271" s="3" t="s">
         <v>2993</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="105">
+    <row r="272" spans="1:12" ht="105">
       <c r="A272" t="s">
         <v>934</v>
       </c>
@@ -27128,17 +27388,18 @@
       <c r="F272" s="3" t="s">
         <v>2992</v>
       </c>
-      <c r="G272" s="3" t="s">
+      <c r="H272" s="3" t="s">
         <v>2991</v>
       </c>
-      <c r="H272" s="3" t="s">
+      <c r="I272" s="3"/>
+      <c r="J272" s="3" t="s">
         <v>2990</v>
       </c>
-      <c r="I272" s="3" t="s">
+      <c r="L272" s="3" t="s">
         <v>2989</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="240">
+    <row r="273" spans="1:12" ht="240">
       <c r="A273" t="s">
         <v>935</v>
       </c>
@@ -27154,17 +27415,17 @@
       <c r="F273" s="3" t="s">
         <v>2988</v>
       </c>
-      <c r="G273" t="s">
+      <c r="H273" t="s">
         <v>2987</v>
       </c>
-      <c r="H273" s="3" t="s">
+      <c r="J273" s="3" t="s">
         <v>2986</v>
       </c>
-      <c r="I273" s="3" t="s">
+      <c r="L273" s="3" t="s">
         <v>2985</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="30">
+    <row r="274" spans="1:12" ht="30">
       <c r="A274" t="s">
         <v>936</v>
       </c>
@@ -27183,17 +27444,19 @@
       <c r="F274" s="9" t="s">
         <v>2984</v>
       </c>
-      <c r="G274" s="10" t="s">
+      <c r="G274" s="9"/>
+      <c r="H274" s="10" t="s">
         <v>2983</v>
       </c>
-      <c r="H274" s="3" t="s">
+      <c r="I274" s="10"/>
+      <c r="J274" s="3" t="s">
         <v>2982</v>
       </c>
-      <c r="I274" s="3" t="s">
+      <c r="L274" s="3" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:12">
       <c r="A275" t="s">
         <v>937</v>
       </c>
@@ -27204,7 +27467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="165">
+    <row r="276" spans="1:12" ht="165">
       <c r="A276" t="s">
         <v>938</v>
       </c>
@@ -27220,17 +27483,18 @@
       <c r="F276" s="3" t="s">
         <v>2981</v>
       </c>
-      <c r="G276" s="3" t="s">
+      <c r="H276" s="3" t="s">
         <v>2980</v>
       </c>
-      <c r="H276" s="3" t="s">
+      <c r="I276" s="3"/>
+      <c r="J276" s="3" t="s">
         <v>2979</v>
       </c>
-      <c r="I276" s="3" t="s">
+      <c r="L276" s="3" t="s">
         <v>2978</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="225">
+    <row r="277" spans="1:12" ht="225">
       <c r="A277" t="s">
         <v>939</v>
       </c>
@@ -27246,17 +27510,18 @@
       <c r="F277" s="3" t="s">
         <v>2977</v>
       </c>
-      <c r="G277" s="3" t="s">
+      <c r="H277" s="3" t="s">
         <v>2976</v>
       </c>
-      <c r="H277" s="3" t="s">
+      <c r="I277" s="3"/>
+      <c r="J277" s="3" t="s">
         <v>2975</v>
       </c>
-      <c r="I277" s="3" t="s">
+      <c r="L277" s="3" t="s">
         <v>2974</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="240">
+    <row r="278" spans="1:12" ht="240">
       <c r="A278" t="s">
         <v>940</v>
       </c>
@@ -27272,17 +27537,18 @@
       <c r="F278" s="3" t="s">
         <v>2973</v>
       </c>
-      <c r="G278" s="3" t="s">
+      <c r="H278" s="3" t="s">
         <v>2972</v>
       </c>
-      <c r="H278" s="3" t="s">
+      <c r="I278" s="3"/>
+      <c r="J278" s="3" t="s">
         <v>2971</v>
       </c>
-      <c r="I278" s="3" t="s">
+      <c r="L278" s="3" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="90">
+    <row r="279" spans="1:12" ht="90">
       <c r="A279" t="s">
         <v>941</v>
       </c>
@@ -27298,17 +27564,18 @@
       <c r="F279" s="3" t="s">
         <v>2969</v>
       </c>
-      <c r="G279" s="3" t="s">
+      <c r="H279" s="3" t="s">
         <v>2968</v>
       </c>
-      <c r="H279" s="3" t="s">
+      <c r="I279" s="3"/>
+      <c r="J279" s="3" t="s">
         <v>2967</v>
       </c>
-      <c r="I279" s="3" t="s">
+      <c r="L279" s="3" t="s">
         <v>2966</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="150">
+    <row r="280" spans="1:12" ht="150">
       <c r="A280" t="s">
         <v>943</v>
       </c>
@@ -27324,17 +27591,18 @@
       <c r="F280" s="3" t="s">
         <v>2965</v>
       </c>
-      <c r="G280" s="3" t="s">
+      <c r="H280" s="3" t="s">
         <v>2964</v>
       </c>
-      <c r="H280" s="3" t="s">
+      <c r="I280" s="3"/>
+      <c r="J280" s="3" t="s">
         <v>2963</v>
       </c>
-      <c r="I280" s="3" t="s">
+      <c r="L280" s="3" t="s">
         <v>2962</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="270">
+    <row r="281" spans="1:12" ht="270">
       <c r="A281" t="s">
         <v>944</v>
       </c>
@@ -27350,17 +27618,18 @@
       <c r="F281" s="3" t="s">
         <v>2961</v>
       </c>
-      <c r="G281" s="3" t="s">
+      <c r="H281" s="3" t="s">
         <v>2960</v>
       </c>
-      <c r="H281" s="3" t="s">
+      <c r="I281" s="3"/>
+      <c r="J281" s="3" t="s">
         <v>2959</v>
       </c>
-      <c r="I281" s="3" t="s">
+      <c r="L281" s="3" t="s">
         <v>2958</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="135">
+    <row r="282" spans="1:12" ht="135">
       <c r="A282" t="s">
         <v>945</v>
       </c>
@@ -27376,17 +27645,18 @@
       <c r="F282" s="3" t="s">
         <v>2957</v>
       </c>
-      <c r="G282" s="3" t="s">
+      <c r="H282" s="3" t="s">
         <v>2956</v>
       </c>
-      <c r="H282" s="3" t="s">
+      <c r="I282" s="3"/>
+      <c r="J282" s="3" t="s">
         <v>2955</v>
       </c>
-      <c r="I282" s="3" t="s">
+      <c r="L282" s="3" t="s">
         <v>2954</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="105">
+    <row r="283" spans="1:12" ht="105">
       <c r="A283" t="s">
         <v>946</v>
       </c>
@@ -27402,17 +27672,18 @@
       <c r="F283" s="3" t="s">
         <v>2953</v>
       </c>
-      <c r="G283" s="3" t="s">
+      <c r="H283" s="3" t="s">
         <v>2952</v>
       </c>
-      <c r="H283" s="3" t="s">
+      <c r="I283" s="3"/>
+      <c r="J283" s="3" t="s">
         <v>2951</v>
       </c>
-      <c r="I283" s="3" t="s">
+      <c r="L283" s="3" t="s">
         <v>2950</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="105">
+    <row r="284" spans="1:12" ht="105">
       <c r="A284" t="s">
         <v>947</v>
       </c>
@@ -27428,17 +27699,18 @@
       <c r="F284" s="3" t="s">
         <v>2949</v>
       </c>
-      <c r="G284" s="3" t="s">
+      <c r="H284" s="3" t="s">
         <v>2948</v>
       </c>
-      <c r="H284" s="3" t="s">
+      <c r="I284" s="3"/>
+      <c r="J284" s="3" t="s">
         <v>2947</v>
       </c>
-      <c r="I284" s="3" t="s">
+      <c r="L284" s="3" t="s">
         <v>2946</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="30">
+    <row r="285" spans="1:12" ht="30">
       <c r="A285" t="s">
         <v>949</v>
       </c>
@@ -27457,14 +27729,15 @@
       <c r="F285" s="3" t="s">
         <v>2945</v>
       </c>
-      <c r="G285" s="10" t="s">
+      <c r="H285" s="10" t="s">
         <v>2944</v>
       </c>
-      <c r="I285" s="3" t="s">
+      <c r="I285" s="10"/>
+      <c r="L285" s="3" t="s">
         <v>2943</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="120">
+    <row r="286" spans="1:12" ht="120">
       <c r="A286" t="s">
         <v>950</v>
       </c>
@@ -27480,17 +27753,17 @@
       <c r="F286" s="3" t="s">
         <v>2942</v>
       </c>
-      <c r="G286" t="s">
+      <c r="H286" t="s">
         <v>2941</v>
       </c>
-      <c r="H286" s="3" t="s">
+      <c r="J286" s="3" t="s">
         <v>2940</v>
       </c>
-      <c r="I286" s="3" t="s">
+      <c r="L286" s="3" t="s">
         <v>2939</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="195">
+    <row r="287" spans="1:12" ht="195">
       <c r="A287" t="s">
         <v>951</v>
       </c>
@@ -27506,17 +27779,17 @@
       <c r="F287" s="3" t="s">
         <v>2938</v>
       </c>
-      <c r="G287" t="s">
+      <c r="H287" t="s">
         <v>2937</v>
       </c>
-      <c r="H287" s="3" t="s">
+      <c r="J287" s="3" t="s">
         <v>2936</v>
       </c>
-      <c r="I287" s="3" t="s">
+      <c r="L287" s="3" t="s">
         <v>2935</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="270">
+    <row r="288" spans="1:12" ht="270">
       <c r="A288" t="s">
         <v>952</v>
       </c>
@@ -27532,17 +27805,17 @@
       <c r="F288" s="3" t="s">
         <v>2934</v>
       </c>
-      <c r="G288" t="s">
+      <c r="H288" t="s">
         <v>2933</v>
       </c>
-      <c r="H288" s="3" t="s">
+      <c r="J288" s="3" t="s">
         <v>2932</v>
       </c>
-      <c r="I288" s="3" t="s">
+      <c r="L288" s="3" t="s">
         <v>2931</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="120">
+    <row r="289" spans="1:12" ht="120">
       <c r="A289" t="s">
         <v>953</v>
       </c>
@@ -27558,17 +27831,17 @@
       <c r="F289" s="3" t="s">
         <v>2930</v>
       </c>
-      <c r="G289" t="s">
+      <c r="H289" t="s">
         <v>2929</v>
       </c>
-      <c r="H289" s="3" t="s">
+      <c r="J289" s="3" t="s">
         <v>2928</v>
       </c>
-      <c r="I289" s="3" t="s">
+      <c r="L289" s="3" t="s">
         <v>2927</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="135">
+    <row r="290" spans="1:12" ht="135">
       <c r="A290" t="s">
         <v>954</v>
       </c>
@@ -27584,17 +27857,17 @@
       <c r="F290" s="3" t="s">
         <v>2926</v>
       </c>
-      <c r="G290" t="s">
+      <c r="H290" t="s">
         <v>2925</v>
       </c>
-      <c r="H290" s="3" t="s">
+      <c r="J290" s="3" t="s">
         <v>2924</v>
       </c>
-      <c r="I290" s="3" t="s">
+      <c r="L290" s="3" t="s">
         <v>2923</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="135">
+    <row r="291" spans="1:12" ht="135">
       <c r="A291" t="s">
         <v>956</v>
       </c>
@@ -27610,17 +27883,17 @@
       <c r="F291" s="3" t="s">
         <v>2922</v>
       </c>
-      <c r="G291" t="s">
+      <c r="H291" t="s">
         <v>2921</v>
       </c>
-      <c r="H291" s="3" t="s">
+      <c r="J291" s="3" t="s">
         <v>2920</v>
       </c>
-      <c r="I291" s="3" t="s">
+      <c r="L291" s="3" t="s">
         <v>2919</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:12">
       <c r="A292" t="s">
         <v>957</v>
       </c>
@@ -27639,17 +27912,18 @@
       <c r="F292" s="3" t="s">
         <v>2918</v>
       </c>
-      <c r="G292" s="10" t="s">
+      <c r="H292" s="10" t="s">
         <v>2917</v>
       </c>
-      <c r="H292" s="3" t="s">
+      <c r="I292" s="10"/>
+      <c r="J292" s="3" t="s">
         <v>2916</v>
       </c>
-      <c r="I292" s="3" t="s">
+      <c r="L292" s="3" t="s">
         <v>2915</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:12">
       <c r="A293" t="s">
         <v>958</v>
       </c>
@@ -27660,7 +27934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="180">
+    <row r="294" spans="1:12" ht="180">
       <c r="A294" t="s">
         <v>959</v>
       </c>
@@ -27676,17 +27950,18 @@
       <c r="F294" s="3" t="s">
         <v>2914</v>
       </c>
-      <c r="G294" s="3" t="s">
+      <c r="H294" s="3" t="s">
         <v>2913</v>
       </c>
-      <c r="H294" s="3" t="s">
+      <c r="I294" s="3"/>
+      <c r="J294" s="3" t="s">
         <v>2912</v>
       </c>
-      <c r="I294" s="3" t="s">
+      <c r="L294" s="3" t="s">
         <v>2911</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="255">
+    <row r="295" spans="1:12" ht="255">
       <c r="A295" t="s">
         <v>960</v>
       </c>
@@ -27702,17 +27977,19 @@
       <c r="F295" s="9" t="s">
         <v>2910</v>
       </c>
-      <c r="G295" s="3" t="s">
+      <c r="G295" s="9"/>
+      <c r="H295" s="3" t="s">
         <v>2909</v>
       </c>
-      <c r="H295" s="3" t="s">
+      <c r="I295" s="3"/>
+      <c r="J295" s="3" t="s">
         <v>2908</v>
       </c>
-      <c r="I295" s="3" t="s">
+      <c r="L295" s="3" t="s">
         <v>2907</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="120">
+    <row r="296" spans="1:12" ht="120">
       <c r="A296" t="s">
         <v>962</v>
       </c>
@@ -27728,17 +28005,19 @@
       <c r="F296" s="9" t="s">
         <v>2906</v>
       </c>
-      <c r="G296" s="3" t="s">
+      <c r="G296" s="9"/>
+      <c r="H296" s="3" t="s">
         <v>2905</v>
       </c>
-      <c r="H296" s="3" t="s">
+      <c r="I296" s="3"/>
+      <c r="J296" s="3" t="s">
         <v>2904</v>
       </c>
-      <c r="I296" s="3" t="s">
+      <c r="L296" s="3" t="s">
         <v>2903</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="75">
+    <row r="297" spans="1:12" ht="75">
       <c r="A297" t="s">
         <v>963</v>
       </c>
@@ -27754,17 +28033,19 @@
       <c r="F297" s="9" t="s">
         <v>2902</v>
       </c>
-      <c r="G297" s="3" t="s">
+      <c r="G297" s="9"/>
+      <c r="H297" s="3" t="s">
         <v>2901</v>
       </c>
-      <c r="H297" s="3" t="s">
+      <c r="I297" s="3"/>
+      <c r="J297" s="3" t="s">
         <v>2900</v>
       </c>
-      <c r="I297" s="3" t="s">
+      <c r="L297" s="3" t="s">
         <v>2899</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="150">
+    <row r="298" spans="1:12" ht="150">
       <c r="A298" t="s">
         <v>965</v>
       </c>
@@ -27780,17 +28061,19 @@
       <c r="F298" s="9" t="s">
         <v>2898</v>
       </c>
-      <c r="G298" s="3" t="s">
+      <c r="G298" s="9"/>
+      <c r="H298" s="3" t="s">
         <v>2897</v>
       </c>
-      <c r="H298" s="3" t="s">
+      <c r="I298" s="3"/>
+      <c r="J298" s="3" t="s">
         <v>2896</v>
       </c>
-      <c r="I298" s="3" t="s">
+      <c r="L298" s="3" t="s">
         <v>2895</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="120">
+    <row r="299" spans="1:12" ht="120">
       <c r="A299" t="s">
         <v>966</v>
       </c>
@@ -27806,17 +28089,18 @@
       <c r="F299" s="9" t="s">
         <v>2894</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G299" s="9"/>
+      <c r="H299" t="s">
         <v>2893</v>
       </c>
-      <c r="H299" s="3" t="s">
+      <c r="J299" s="3" t="s">
         <v>2892</v>
       </c>
-      <c r="I299" s="3" t="s">
+      <c r="L299" s="3" t="s">
         <v>2891</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:12">
       <c r="A300" t="s">
         <v>967</v>
       </c>
@@ -27835,14 +28119,15 @@
       <c r="F300" s="9" t="s">
         <v>2890</v>
       </c>
-      <c r="H300" s="3" t="s">
+      <c r="G300" s="9"/>
+      <c r="J300" s="3" t="s">
         <v>2889</v>
       </c>
-      <c r="I300" s="3" t="s">
+      <c r="L300" s="3" t="s">
         <v>2888</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="195">
+    <row r="301" spans="1:12" ht="195">
       <c r="A301" t="s">
         <v>968</v>
       </c>
@@ -27858,17 +28143,18 @@
       <c r="F301" s="9" t="s">
         <v>2887</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G301" s="9"/>
+      <c r="H301" t="s">
         <v>2886</v>
       </c>
-      <c r="H301" s="3" t="s">
+      <c r="J301" s="3" t="s">
         <v>2885</v>
       </c>
-      <c r="I301" s="3" t="s">
+      <c r="L301" s="3" t="s">
         <v>2884</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:12">
       <c r="A302" t="s">
         <v>969</v>
       </c>
@@ -27879,7 +28165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="195">
+    <row r="303" spans="1:12" ht="195">
       <c r="A303" t="s">
         <v>970</v>
       </c>
@@ -27895,17 +28181,18 @@
       <c r="F303" s="3" t="s">
         <v>2883</v>
       </c>
-      <c r="G303" s="3" t="s">
+      <c r="H303" s="3" t="s">
         <v>2882</v>
       </c>
-      <c r="H303" s="3" t="s">
+      <c r="I303" s="3"/>
+      <c r="J303" s="3" t="s">
         <v>2881</v>
       </c>
-      <c r="I303" s="3" t="s">
+      <c r="L303" s="3" t="s">
         <v>2880</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="225">
+    <row r="304" spans="1:12" ht="225">
       <c r="A304" t="s">
         <v>975</v>
       </c>
@@ -27921,17 +28208,18 @@
       <c r="F304" s="3" t="s">
         <v>2879</v>
       </c>
-      <c r="G304" s="3" t="s">
+      <c r="H304" s="3" t="s">
         <v>2878</v>
       </c>
-      <c r="H304" s="3" t="s">
+      <c r="I304" s="3"/>
+      <c r="J304" s="3" t="s">
         <v>2877</v>
       </c>
-      <c r="I304" s="3" t="s">
+      <c r="L304" s="3" t="s">
         <v>2876</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="195">
+    <row r="305" spans="1:12" ht="195">
       <c r="A305" t="s">
         <v>972</v>
       </c>
@@ -27947,17 +28235,18 @@
       <c r="F305" s="3" t="s">
         <v>2875</v>
       </c>
-      <c r="G305" s="3" t="s">
+      <c r="H305" s="3" t="s">
         <v>2874</v>
       </c>
-      <c r="H305" s="3" t="s">
+      <c r="I305" s="3"/>
+      <c r="J305" s="3" t="s">
         <v>2873</v>
       </c>
-      <c r="I305" s="3" t="s">
+      <c r="L305" s="3" t="s">
         <v>2872</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="195">
+    <row r="306" spans="1:12" ht="195">
       <c r="A306" t="s">
         <v>973</v>
       </c>
@@ -27973,17 +28262,18 @@
       <c r="F306" s="3" t="s">
         <v>2871</v>
       </c>
-      <c r="G306" s="3" t="s">
+      <c r="H306" s="3" t="s">
         <v>2870</v>
       </c>
-      <c r="H306" s="3" t="s">
+      <c r="I306" s="3"/>
+      <c r="J306" s="3" t="s">
         <v>2869</v>
       </c>
-      <c r="I306" s="3" t="s">
+      <c r="L306" s="3" t="s">
         <v>2868</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="210">
+    <row r="307" spans="1:12" ht="210">
       <c r="A307" t="s">
         <v>974</v>
       </c>
@@ -27999,17 +28289,18 @@
       <c r="F307" s="3" t="s">
         <v>2867</v>
       </c>
-      <c r="G307" s="3" t="s">
+      <c r="H307" s="3" t="s">
         <v>2866</v>
       </c>
-      <c r="H307" s="3" t="s">
+      <c r="I307" s="3"/>
+      <c r="J307" s="3" t="s">
         <v>2865</v>
       </c>
-      <c r="I307" s="3" t="s">
+      <c r="L307" s="3" t="s">
         <v>2864</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="195">
+    <row r="308" spans="1:12" ht="195">
       <c r="A308" t="s">
         <v>980</v>
       </c>
@@ -28025,17 +28316,18 @@
       <c r="F308" s="3" t="s">
         <v>2863</v>
       </c>
-      <c r="G308" s="3" t="s">
+      <c r="H308" s="3" t="s">
         <v>2862</v>
       </c>
-      <c r="H308" s="3" t="s">
+      <c r="I308" s="3"/>
+      <c r="J308" s="3" t="s">
         <v>2861</v>
       </c>
-      <c r="I308" s="3" t="s">
+      <c r="L308" s="3" t="s">
         <v>2860</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="240">
+    <row r="309" spans="1:12" ht="240">
       <c r="A309" t="s">
         <v>976</v>
       </c>
@@ -28051,17 +28343,18 @@
       <c r="F309" s="3" t="s">
         <v>2859</v>
       </c>
-      <c r="G309" s="3" t="s">
+      <c r="H309" s="3" t="s">
         <v>2858</v>
       </c>
-      <c r="H309" s="3" t="s">
+      <c r="I309" s="3"/>
+      <c r="J309" s="3" t="s">
         <v>2857</v>
       </c>
-      <c r="I309" s="3" t="s">
+      <c r="L309" s="3" t="s">
         <v>2856</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="255">
+    <row r="310" spans="1:12" ht="255">
       <c r="A310" t="s">
         <v>977</v>
       </c>
@@ -28077,17 +28370,18 @@
       <c r="F310" s="3" t="s">
         <v>2855</v>
       </c>
-      <c r="G310" s="3" t="s">
+      <c r="H310" s="3" t="s">
         <v>2854</v>
       </c>
-      <c r="H310" s="3" t="s">
+      <c r="I310" s="3"/>
+      <c r="J310" s="3" t="s">
         <v>2853</v>
       </c>
-      <c r="I310" s="3" t="s">
+      <c r="L310" s="3" t="s">
         <v>2852</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="255">
+    <row r="311" spans="1:12" ht="255">
       <c r="A311" t="s">
         <v>978</v>
       </c>
@@ -28103,17 +28397,18 @@
       <c r="F311" s="3" t="s">
         <v>2851</v>
       </c>
-      <c r="G311" s="3" t="s">
+      <c r="H311" s="3" t="s">
         <v>2850</v>
       </c>
-      <c r="H311" s="3" t="s">
+      <c r="I311" s="3"/>
+      <c r="J311" s="3" t="s">
         <v>2849</v>
       </c>
-      <c r="I311" s="3" t="s">
+      <c r="L311" s="3" t="s">
         <v>2848</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="225">
+    <row r="312" spans="1:12" ht="225">
       <c r="A312" t="s">
         <v>979</v>
       </c>
@@ -28129,17 +28424,19 @@
       <c r="F312" s="9" t="s">
         <v>2847</v>
       </c>
-      <c r="G312" s="3" t="s">
+      <c r="G312" s="9"/>
+      <c r="H312" s="3" t="s">
         <v>2846</v>
       </c>
-      <c r="H312" s="3" t="s">
+      <c r="I312" s="3"/>
+      <c r="J312" s="3" t="s">
         <v>2845</v>
       </c>
-      <c r="I312" s="3" t="s">
+      <c r="L312" s="3" t="s">
         <v>2844</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="315">
+    <row r="313" spans="1:12" ht="315">
       <c r="A313" t="s">
         <v>971</v>
       </c>
@@ -28155,17 +28452,18 @@
       <c r="F313" s="3" t="s">
         <v>2843</v>
       </c>
-      <c r="G313" s="3" t="s">
+      <c r="H313" s="3" t="s">
         <v>2842</v>
       </c>
-      <c r="H313" s="3" t="s">
+      <c r="I313" s="3"/>
+      <c r="J313" s="3" t="s">
         <v>2841</v>
       </c>
-      <c r="I313" s="3" t="s">
+      <c r="L313" s="3" t="s">
         <v>2840</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="409.5">
+    <row r="314" spans="1:12" ht="409.5">
       <c r="A314" t="s">
         <v>981</v>
       </c>
@@ -28181,17 +28479,18 @@
       <c r="F314" s="3" t="s">
         <v>2839</v>
       </c>
-      <c r="G314" s="3" t="s">
+      <c r="H314" s="3" t="s">
         <v>2838</v>
       </c>
-      <c r="H314" s="3" t="s">
+      <c r="I314" s="3"/>
+      <c r="J314" s="3" t="s">
         <v>2837</v>
       </c>
-      <c r="I314" s="3" t="s">
+      <c r="L314" s="3" t="s">
         <v>2836</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="255">
+    <row r="315" spans="1:12" ht="255">
       <c r="A315" t="s">
         <v>982</v>
       </c>
@@ -28207,17 +28506,18 @@
       <c r="F315" s="3" t="s">
         <v>2835</v>
       </c>
-      <c r="G315" s="3" t="s">
+      <c r="H315" s="3" t="s">
         <v>2834</v>
       </c>
-      <c r="H315" s="3" t="s">
+      <c r="I315" s="3"/>
+      <c r="J315" s="3" t="s">
         <v>2833</v>
       </c>
-      <c r="I315" s="3" t="s">
+      <c r="L315" s="3" t="s">
         <v>2832</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="315">
+    <row r="316" spans="1:12" ht="315">
       <c r="A316" t="s">
         <v>983</v>
       </c>
@@ -28233,17 +28533,18 @@
       <c r="F316" s="3" t="s">
         <v>2831</v>
       </c>
-      <c r="G316" s="3" t="s">
+      <c r="H316" s="3" t="s">
         <v>2830</v>
       </c>
-      <c r="H316" s="3" t="s">
+      <c r="I316" s="3"/>
+      <c r="J316" s="3" t="s">
         <v>2829</v>
       </c>
-      <c r="I316" s="3" t="s">
+      <c r="L316" s="3" t="s">
         <v>2828</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="150">
+    <row r="317" spans="1:12" ht="150">
       <c r="A317" t="s">
         <v>984</v>
       </c>
@@ -28259,17 +28560,17 @@
       <c r="F317" s="3" t="s">
         <v>2827</v>
       </c>
-      <c r="G317" t="s">
+      <c r="H317" t="s">
         <v>2826</v>
       </c>
-      <c r="H317" s="3" t="s">
+      <c r="J317" s="3" t="s">
         <v>2825</v>
       </c>
-      <c r="I317" s="3" t="s">
+      <c r="L317" s="3" t="s">
         <v>2824</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="285">
+    <row r="318" spans="1:12" ht="285">
       <c r="A318" t="s">
         <v>985</v>
       </c>
@@ -28285,17 +28586,17 @@
       <c r="F318" s="3" t="s">
         <v>2823</v>
       </c>
-      <c r="G318" t="s">
+      <c r="H318" t="s">
         <v>2822</v>
       </c>
-      <c r="H318" s="3" t="s">
+      <c r="J318" s="3" t="s">
         <v>2821</v>
       </c>
-      <c r="I318" s="3" t="s">
+      <c r="L318" s="3" t="s">
         <v>2820</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="165">
+    <row r="319" spans="1:12" ht="165">
       <c r="A319" t="s">
         <v>986</v>
       </c>
@@ -28311,17 +28612,17 @@
       <c r="F319" s="3" t="s">
         <v>2819</v>
       </c>
-      <c r="G319" t="s">
+      <c r="H319" t="s">
         <v>2818</v>
       </c>
-      <c r="H319" s="3" t="s">
+      <c r="J319" s="3" t="s">
         <v>2817</v>
       </c>
-      <c r="I319" s="3" t="s">
+      <c r="L319" s="3" t="s">
         <v>2816</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="180">
+    <row r="320" spans="1:12" ht="180">
       <c r="A320" t="s">
         <v>987</v>
       </c>
@@ -28337,17 +28638,17 @@
       <c r="F320" s="3" t="s">
         <v>2815</v>
       </c>
-      <c r="G320" t="s">
+      <c r="H320" t="s">
         <v>2814</v>
       </c>
-      <c r="H320" s="3" t="s">
+      <c r="J320" s="3" t="s">
         <v>2813</v>
       </c>
-      <c r="I320" s="3" t="s">
+      <c r="L320" s="3" t="s">
         <v>2812</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="90">
+    <row r="321" spans="1:12" ht="90">
       <c r="A321" t="s">
         <v>988</v>
       </c>
@@ -28363,17 +28664,17 @@
       <c r="F321" s="3" t="s">
         <v>2811</v>
       </c>
-      <c r="G321" t="s">
+      <c r="H321" t="s">
         <v>2810</v>
       </c>
-      <c r="H321" s="3" t="s">
+      <c r="J321" s="3" t="s">
         <v>2809</v>
       </c>
-      <c r="I321" s="3" t="s">
+      <c r="L321" s="3" t="s">
         <v>2808</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="90">
+    <row r="322" spans="1:12" ht="90">
       <c r="A322" t="s">
         <v>990</v>
       </c>
@@ -28389,17 +28690,17 @@
       <c r="F322" s="3" t="s">
         <v>2807</v>
       </c>
-      <c r="G322" t="s">
+      <c r="H322" t="s">
         <v>2806</v>
       </c>
-      <c r="H322" s="3" t="s">
+      <c r="J322" s="3" t="s">
         <v>2805</v>
       </c>
-      <c r="I322" s="3" t="s">
+      <c r="L322" s="3" t="s">
         <v>2804</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="30">
+    <row r="323" spans="1:12" ht="30">
       <c r="A323" t="s">
         <v>991</v>
       </c>
@@ -28418,17 +28719,19 @@
       <c r="F323" s="9" t="s">
         <v>2803</v>
       </c>
-      <c r="G323" s="10" t="s">
+      <c r="G323" s="9"/>
+      <c r="H323" s="10" t="s">
         <v>2802</v>
       </c>
-      <c r="H323" s="3" t="s">
+      <c r="I323" s="10"/>
+      <c r="J323" s="3" t="s">
         <v>2801</v>
       </c>
-      <c r="I323" s="3" t="s">
+      <c r="L323" s="3" t="s">
         <v>2800</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="255">
+    <row r="324" spans="1:12" ht="255">
       <c r="A324" t="s">
         <v>992</v>
       </c>
@@ -28444,17 +28747,18 @@
       <c r="F324" s="3" t="s">
         <v>2799</v>
       </c>
-      <c r="G324" s="3" t="s">
+      <c r="H324" s="3" t="s">
         <v>2798</v>
       </c>
-      <c r="H324" s="3" t="s">
+      <c r="I324" s="3"/>
+      <c r="J324" s="3" t="s">
         <v>2797</v>
       </c>
-      <c r="I324" s="3" t="s">
+      <c r="L324" s="3" t="s">
         <v>2796</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:12">
       <c r="A325" t="s">
         <v>993</v>
       </c>
@@ -28465,7 +28769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="165">
+    <row r="326" spans="1:12" ht="165">
       <c r="A326" t="s">
         <v>994</v>
       </c>
@@ -28481,17 +28785,18 @@
       <c r="F326" s="3" t="s">
         <v>2795</v>
       </c>
-      <c r="G326" s="3" t="s">
+      <c r="H326" s="3" t="s">
         <v>2794</v>
       </c>
-      <c r="H326" s="3" t="s">
+      <c r="I326" s="3"/>
+      <c r="J326" s="3" t="s">
         <v>2793</v>
       </c>
-      <c r="I326" s="3" t="s">
+      <c r="L326" s="3" t="s">
         <v>2792</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="225">
+    <row r="327" spans="1:12" ht="225">
       <c r="A327" t="s">
         <v>995</v>
       </c>
@@ -28507,17 +28812,19 @@
       <c r="F327" s="9" t="s">
         <v>2791</v>
       </c>
-      <c r="G327" s="3" t="s">
+      <c r="G327" s="9"/>
+      <c r="H327" s="3" t="s">
         <v>2790</v>
       </c>
-      <c r="H327" s="3" t="s">
+      <c r="I327" s="3"/>
+      <c r="J327" s="3" t="s">
         <v>2789</v>
       </c>
-      <c r="I327" s="3" t="s">
+      <c r="L327" s="3" t="s">
         <v>2788</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="255">
+    <row r="328" spans="1:12" ht="255">
       <c r="A328" t="s">
         <v>996</v>
       </c>
@@ -28533,17 +28840,19 @@
       <c r="F328" s="9" t="s">
         <v>2787</v>
       </c>
-      <c r="G328" s="3" t="s">
+      <c r="G328" s="9"/>
+      <c r="H328" s="3" t="s">
         <v>2786</v>
       </c>
-      <c r="H328" s="3" t="s">
+      <c r="I328" s="3"/>
+      <c r="J328" s="3" t="s">
         <v>2785</v>
       </c>
-      <c r="I328" s="3" t="s">
+      <c r="L328" s="3" t="s">
         <v>2784</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="150">
+    <row r="329" spans="1:12" ht="150">
       <c r="A329" t="s">
         <v>997</v>
       </c>
@@ -28559,17 +28868,19 @@
       <c r="F329" s="9" t="s">
         <v>2783</v>
       </c>
-      <c r="G329" s="3" t="s">
+      <c r="G329" s="9"/>
+      <c r="H329" s="3" t="s">
         <v>2782</v>
       </c>
-      <c r="H329" s="3" t="s">
+      <c r="I329" s="3"/>
+      <c r="J329" s="3" t="s">
         <v>2781</v>
       </c>
-      <c r="I329" s="3" t="s">
+      <c r="L329" s="3" t="s">
         <v>2780</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="150">
+    <row r="330" spans="1:12" ht="150">
       <c r="A330" t="s">
         <v>998</v>
       </c>
@@ -28585,17 +28896,18 @@
       <c r="F330" s="9" t="s">
         <v>2779</v>
       </c>
-      <c r="G330" t="s">
+      <c r="G330" s="9"/>
+      <c r="H330" t="s">
         <v>2778</v>
       </c>
-      <c r="H330" s="3" t="s">
+      <c r="J330" s="3" t="s">
         <v>2777</v>
       </c>
-      <c r="I330" s="3" t="s">
+      <c r="L330" s="3" t="s">
         <v>2776</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="360">
+    <row r="331" spans="1:12" ht="360">
       <c r="A331" t="s">
         <v>999</v>
       </c>
@@ -28611,17 +28923,18 @@
       <c r="F331" s="9" t="s">
         <v>2775</v>
       </c>
-      <c r="G331" t="s">
+      <c r="G331" s="9"/>
+      <c r="H331" t="s">
         <v>2774</v>
       </c>
-      <c r="H331" s="3" t="s">
+      <c r="J331" s="3" t="s">
         <v>2773</v>
       </c>
-      <c r="I331" s="3" t="s">
+      <c r="L331" s="3" t="s">
         <v>2772</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="135">
+    <row r="332" spans="1:12" ht="135">
       <c r="A332" t="s">
         <v>1000</v>
       </c>
@@ -28637,17 +28950,18 @@
       <c r="F332" s="9" t="s">
         <v>2771</v>
       </c>
-      <c r="G332" t="s">
+      <c r="G332" s="9"/>
+      <c r="H332" t="s">
         <v>2770</v>
       </c>
-      <c r="H332" s="3" t="s">
+      <c r="J332" s="3" t="s">
         <v>2769</v>
       </c>
-      <c r="I332" s="3" t="s">
+      <c r="L332" s="3" t="s">
         <v>2768</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="75">
+    <row r="333" spans="1:12" ht="75">
       <c r="A333" t="s">
         <v>1001</v>
       </c>
@@ -28663,17 +28977,18 @@
       <c r="F333" s="9" t="s">
         <v>2767</v>
       </c>
-      <c r="G333" t="s">
+      <c r="G333" s="9"/>
+      <c r="H333" t="s">
         <v>2766</v>
       </c>
-      <c r="H333" s="3" t="s">
+      <c r="J333" s="3" t="s">
         <v>2765</v>
       </c>
-      <c r="I333" s="3" t="s">
+      <c r="L333" s="3" t="s">
         <v>2764</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:12">
       <c r="A334" t="s">
         <v>1003</v>
       </c>
@@ -28692,11 +29007,12 @@
       <c r="F334" s="9" t="s">
         <v>2763</v>
       </c>
-      <c r="I334" s="3" t="s">
+      <c r="G334" s="9"/>
+      <c r="L334" s="3" t="s">
         <v>2762</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="255">
+    <row r="335" spans="1:12" ht="255">
       <c r="A335" t="s">
         <v>1004</v>
       </c>
@@ -28712,17 +29028,18 @@
       <c r="F335" s="9" t="s">
         <v>2761</v>
       </c>
-      <c r="G335" t="s">
+      <c r="G335" s="9"/>
+      <c r="H335" t="s">
         <v>2760</v>
       </c>
-      <c r="H335" s="3" t="s">
+      <c r="J335" s="3" t="s">
         <v>2759</v>
       </c>
-      <c r="I335" s="3" t="s">
+      <c r="L335" s="3" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="409.5">
+    <row r="336" spans="1:12" ht="409.5">
       <c r="A336" t="s">
         <v>1005</v>
       </c>
@@ -28738,17 +29055,18 @@
       <c r="F336" s="9" t="s">
         <v>2757</v>
       </c>
-      <c r="G336" t="s">
+      <c r="G336" s="9"/>
+      <c r="H336" t="s">
         <v>2756</v>
       </c>
-      <c r="H336" s="3" t="s">
+      <c r="J336" s="3" t="s">
         <v>2755</v>
       </c>
-      <c r="I336" s="3" t="s">
+      <c r="L336" s="3" t="s">
         <v>2754</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="60">
+    <row r="337" spans="1:12" ht="60">
       <c r="A337" t="s">
         <v>1006</v>
       </c>
@@ -28764,17 +29082,18 @@
       <c r="F337" s="9" t="s">
         <v>2753</v>
       </c>
-      <c r="G337" t="s">
+      <c r="G337" s="9"/>
+      <c r="H337" t="s">
         <v>2752</v>
       </c>
-      <c r="H337" s="3" t="s">
+      <c r="J337" s="3" t="s">
         <v>2751</v>
       </c>
-      <c r="I337" s="3" t="s">
+      <c r="L337" s="3" t="s">
         <v>2750</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="165">
+    <row r="338" spans="1:12" ht="165">
       <c r="A338" t="s">
         <v>1008</v>
       </c>
@@ -28790,17 +29109,18 @@
       <c r="F338" s="9" t="s">
         <v>2749</v>
       </c>
-      <c r="G338" t="s">
+      <c r="G338" s="9"/>
+      <c r="H338" t="s">
         <v>2748</v>
       </c>
-      <c r="H338" s="3" t="s">
+      <c r="J338" s="3" t="s">
         <v>2747</v>
       </c>
-      <c r="I338" s="3" t="s">
+      <c r="L338" s="3" t="s">
         <v>2746</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="240">
+    <row r="339" spans="1:12" ht="240">
       <c r="A339" t="s">
         <v>1009</v>
       </c>
@@ -28816,17 +29136,18 @@
       <c r="F339" s="9" t="s">
         <v>2745</v>
       </c>
-      <c r="G339" t="s">
+      <c r="G339" s="9"/>
+      <c r="H339" t="s">
         <v>2744</v>
       </c>
-      <c r="H339" s="3" t="s">
+      <c r="J339" s="3" t="s">
         <v>2743</v>
       </c>
-      <c r="I339" s="3" t="s">
+      <c r="L339" s="3" t="s">
         <v>2742</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="210">
+    <row r="340" spans="1:12" ht="210">
       <c r="A340" t="s">
         <v>1010</v>
       </c>
@@ -28842,17 +29163,18 @@
       <c r="F340" s="9" t="s">
         <v>2741</v>
       </c>
-      <c r="G340" t="s">
+      <c r="G340" s="9"/>
+      <c r="H340" t="s">
         <v>2740</v>
       </c>
-      <c r="H340" s="3" t="s">
+      <c r="J340" s="3" t="s">
         <v>2739</v>
       </c>
-      <c r="I340" s="3" t="s">
+      <c r="L340" s="3" t="s">
         <v>2738</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="225">
+    <row r="341" spans="1:12" ht="225">
       <c r="A341" t="s">
         <v>1011</v>
       </c>
@@ -28868,17 +29190,18 @@
       <c r="F341" s="9" t="s">
         <v>2737</v>
       </c>
-      <c r="G341" t="s">
+      <c r="G341" s="9"/>
+      <c r="H341" t="s">
         <v>2736</v>
       </c>
-      <c r="H341" s="3" t="s">
+      <c r="J341" s="3" t="s">
         <v>2735</v>
       </c>
-      <c r="I341" s="3" t="s">
+      <c r="L341" s="3" t="s">
         <v>2734</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="105">
+    <row r="342" spans="1:12" ht="105">
       <c r="A342" t="s">
         <v>1012</v>
       </c>
@@ -28894,17 +29217,18 @@
       <c r="F342" s="9" t="s">
         <v>2733</v>
       </c>
-      <c r="G342" t="s">
+      <c r="G342" s="9"/>
+      <c r="H342" t="s">
         <v>2732</v>
       </c>
-      <c r="H342" s="3" t="s">
+      <c r="J342" s="3" t="s">
         <v>2731</v>
       </c>
-      <c r="I342" s="3" t="s">
+      <c r="L342" s="3" t="s">
         <v>2730</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="405">
+    <row r="343" spans="1:12" ht="405">
       <c r="A343" t="s">
         <v>1013</v>
       </c>
@@ -28923,17 +29247,18 @@
       <c r="F343" s="9" t="s">
         <v>2729</v>
       </c>
-      <c r="G343" t="s">
+      <c r="G343" s="9"/>
+      <c r="H343" t="s">
         <v>2728</v>
       </c>
-      <c r="H343" s="3" t="s">
+      <c r="J343" s="3" t="s">
         <v>2727</v>
       </c>
-      <c r="I343" s="3" t="s">
+      <c r="L343" s="3" t="s">
         <v>2726</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="30">
+    <row r="344" spans="1:12" ht="30">
       <c r="A344" t="s">
         <v>1015</v>
       </c>
@@ -28952,17 +29277,18 @@
       <c r="F344" s="9" t="s">
         <v>2725</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G344" s="9"/>
+      <c r="H344" t="s">
         <v>2724</v>
       </c>
-      <c r="H344" s="3" t="s">
+      <c r="J344" s="3" t="s">
         <v>2723</v>
       </c>
-      <c r="I344" s="3" t="s">
+      <c r="L344" s="3" t="s">
         <v>2722</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="315">
+    <row r="345" spans="1:12" ht="315">
       <c r="A345" t="s">
         <v>1016</v>
       </c>
@@ -28978,17 +29304,19 @@
       <c r="F345" s="9" t="s">
         <v>2721</v>
       </c>
-      <c r="G345" s="3" t="s">
+      <c r="G345" s="9"/>
+      <c r="H345" s="3" t="s">
         <v>2720</v>
       </c>
-      <c r="H345" s="3" t="s">
+      <c r="I345" s="3"/>
+      <c r="J345" s="3" t="s">
         <v>2719</v>
       </c>
-      <c r="I345" s="3" t="s">
+      <c r="L345" s="3" t="s">
         <v>2718</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:12">
       <c r="A346" t="s">
         <v>1017</v>
       </c>
@@ -28999,7 +29327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="409.5">
+    <row r="347" spans="1:12" ht="409.5">
       <c r="A347" t="s">
         <v>1018</v>
       </c>
@@ -29015,17 +29343,18 @@
       <c r="F347" s="3" t="s">
         <v>2717</v>
       </c>
-      <c r="G347" s="3" t="s">
+      <c r="H347" s="3" t="s">
         <v>2716</v>
       </c>
-      <c r="H347" s="3" t="s">
+      <c r="I347" s="3"/>
+      <c r="J347" s="3" t="s">
         <v>2715</v>
       </c>
-      <c r="I347" s="3" t="s">
+      <c r="L347" s="3" t="s">
         <v>2714</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="315">
+    <row r="348" spans="1:12" ht="315">
       <c r="A348" t="s">
         <v>1019</v>
       </c>
@@ -29041,17 +29370,18 @@
       <c r="F348" s="3" t="s">
         <v>2713</v>
       </c>
-      <c r="G348" s="3" t="s">
+      <c r="H348" s="3" t="s">
         <v>2712</v>
       </c>
-      <c r="H348" s="3" t="s">
+      <c r="I348" s="3"/>
+      <c r="J348" s="3" t="s">
         <v>2711</v>
       </c>
-      <c r="I348" s="3" t="s">
+      <c r="L348" s="3" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="225">
+    <row r="349" spans="1:12" ht="225">
       <c r="A349" t="s">
         <v>1020</v>
       </c>
@@ -29067,17 +29397,18 @@
       <c r="F349" s="3" t="s">
         <v>2709</v>
       </c>
-      <c r="G349" s="3" t="s">
+      <c r="H349" s="3" t="s">
         <v>2708</v>
       </c>
-      <c r="H349" s="3" t="s">
+      <c r="I349" s="3"/>
+      <c r="J349" s="3" t="s">
         <v>2707</v>
       </c>
-      <c r="I349" s="3" t="s">
+      <c r="L349" s="3" t="s">
         <v>2706</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="409.5">
+    <row r="350" spans="1:12" ht="409.5">
       <c r="A350" t="s">
         <v>1021</v>
       </c>
@@ -29093,17 +29424,18 @@
       <c r="F350" s="9" t="s">
         <v>2705</v>
       </c>
-      <c r="G350" t="s">
+      <c r="G350" s="9"/>
+      <c r="H350" t="s">
         <v>2704</v>
       </c>
-      <c r="H350" s="3" t="s">
+      <c r="J350" s="3" t="s">
         <v>2703</v>
       </c>
-      <c r="I350" s="3" t="s">
+      <c r="L350" s="3" t="s">
         <v>2702</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="150">
+    <row r="351" spans="1:12" ht="150">
       <c r="A351" t="s">
         <v>1022</v>
       </c>
@@ -29119,17 +29451,18 @@
       <c r="F351" s="9" t="s">
         <v>2701</v>
       </c>
-      <c r="G351" t="s">
+      <c r="G351" s="9"/>
+      <c r="H351" t="s">
         <v>2700</v>
       </c>
-      <c r="H351" s="3" t="s">
+      <c r="J351" s="3" t="s">
         <v>2699</v>
       </c>
-      <c r="I351" s="3" t="s">
+      <c r="L351" s="3" t="s">
         <v>2698</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="409.5">
+    <row r="352" spans="1:12" ht="409.5">
       <c r="A352" t="s">
         <v>1023</v>
       </c>
@@ -29145,17 +29478,19 @@
       <c r="F352" s="9" t="s">
         <v>2697</v>
       </c>
-      <c r="G352" s="3" t="s">
+      <c r="G352" s="9"/>
+      <c r="H352" s="3" t="s">
         <v>2696</v>
       </c>
-      <c r="H352" s="3" t="s">
+      <c r="I352" s="3"/>
+      <c r="J352" s="3" t="s">
         <v>2695</v>
       </c>
-      <c r="I352" s="3" t="s">
+      <c r="L352" s="3" t="s">
         <v>2694</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="90">
+    <row r="353" spans="1:12" ht="90">
       <c r="A353" t="s">
         <v>1024</v>
       </c>
@@ -29171,17 +29506,18 @@
       <c r="F353" s="9" t="s">
         <v>2693</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G353" s="9"/>
+      <c r="H353" t="s">
         <v>2692</v>
       </c>
-      <c r="H353" s="3" t="s">
+      <c r="J353" s="3" t="s">
         <v>2691</v>
       </c>
-      <c r="I353" s="3" t="s">
+      <c r="L353" s="3" t="s">
         <v>2690</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="150">
+    <row r="354" spans="1:12" ht="150">
       <c r="A354" t="s">
         <v>1025</v>
       </c>
@@ -29197,17 +29533,18 @@
       <c r="F354" s="9" t="s">
         <v>2689</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G354" s="9"/>
+      <c r="H354" t="s">
         <v>2688</v>
       </c>
-      <c r="H354" s="3" t="s">
+      <c r="J354" s="3" t="s">
         <v>2687</v>
       </c>
-      <c r="I354" s="3" t="s">
+      <c r="L354" s="3" t="s">
         <v>2686</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="180">
+    <row r="355" spans="1:12" ht="180">
       <c r="A355" t="s">
         <v>1026</v>
       </c>
@@ -29223,17 +29560,18 @@
       <c r="F355" s="9" t="s">
         <v>2685</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G355" s="9"/>
+      <c r="H355" t="s">
         <v>2684</v>
       </c>
-      <c r="H355" s="3" t="s">
+      <c r="J355" s="3" t="s">
         <v>2683</v>
       </c>
-      <c r="I355" s="3" t="s">
+      <c r="L355" s="3" t="s">
         <v>2682</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="135">
+    <row r="356" spans="1:12" ht="135">
       <c r="A356" t="s">
         <v>1027</v>
       </c>
@@ -29249,17 +29587,18 @@
       <c r="F356" s="9" t="s">
         <v>2681</v>
       </c>
-      <c r="G356" t="s">
+      <c r="G356" s="9"/>
+      <c r="H356" t="s">
         <v>2680</v>
       </c>
-      <c r="H356" s="3" t="s">
+      <c r="J356" s="3" t="s">
         <v>2679</v>
       </c>
-      <c r="I356" s="3" t="s">
+      <c r="L356" s="3" t="s">
         <v>2678</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="30">
+    <row r="357" spans="1:12" ht="30">
       <c r="A357" t="s">
         <v>1028</v>
       </c>
@@ -29278,17 +29617,19 @@
       <c r="F357" s="9" t="s">
         <v>2677</v>
       </c>
-      <c r="G357" s="10" t="s">
+      <c r="G357" s="9"/>
+      <c r="H357" s="10" t="s">
         <v>2676</v>
       </c>
-      <c r="H357" s="3" t="s">
+      <c r="I357" s="10"/>
+      <c r="J357" s="3" t="s">
         <v>2675</v>
       </c>
-      <c r="I357" s="3" t="s">
+      <c r="L357" s="3" t="s">
         <v>2674</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="225">
+    <row r="358" spans="1:12" ht="225">
       <c r="A358" t="s">
         <v>1029</v>
       </c>
@@ -29304,17 +29645,18 @@
       <c r="F358" s="9" t="s">
         <v>2673</v>
       </c>
-      <c r="G358" t="s">
+      <c r="G358" s="9"/>
+      <c r="H358" t="s">
         <v>2672</v>
       </c>
-      <c r="H358" s="3" t="s">
+      <c r="J358" s="3" t="s">
         <v>2671</v>
       </c>
-      <c r="I358" s="3" t="s">
+      <c r="L358" s="3" t="s">
         <v>2670</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:12">
       <c r="A359" t="s">
         <v>1030</v>
       </c>
@@ -29325,7 +29667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="150">
+    <row r="360" spans="1:12" ht="150">
       <c r="A360" t="s">
         <v>1031</v>
       </c>
@@ -29341,17 +29683,18 @@
       <c r="F360" s="3" t="s">
         <v>2669</v>
       </c>
-      <c r="G360" s="3" t="s">
+      <c r="H360" s="3" t="s">
         <v>2668</v>
       </c>
-      <c r="H360" s="3" t="s">
+      <c r="I360" s="3"/>
+      <c r="J360" s="3" t="s">
         <v>2667</v>
       </c>
-      <c r="I360" s="3" t="s">
+      <c r="L360" s="3" t="s">
         <v>2666</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="120">
+    <row r="361" spans="1:12" ht="120">
       <c r="A361" t="s">
         <v>1032</v>
       </c>
@@ -29367,17 +29710,18 @@
       <c r="F361" s="3" t="s">
         <v>2665</v>
       </c>
-      <c r="G361" s="3" t="s">
+      <c r="H361" s="3" t="s">
         <v>2664</v>
       </c>
-      <c r="H361" s="3" t="s">
+      <c r="I361" s="3"/>
+      <c r="J361" s="3" t="s">
         <v>2663</v>
       </c>
-      <c r="I361" s="3" t="s">
+      <c r="L361" s="3" t="s">
         <v>2662</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="165">
+    <row r="362" spans="1:12" ht="165">
       <c r="A362" t="s">
         <v>1033</v>
       </c>
@@ -29393,17 +29737,18 @@
       <c r="F362" s="3" t="s">
         <v>2661</v>
       </c>
-      <c r="G362" s="3" t="s">
+      <c r="H362" s="3" t="s">
         <v>2660</v>
       </c>
-      <c r="H362" s="3" t="s">
+      <c r="I362" s="3"/>
+      <c r="J362" s="3" t="s">
         <v>2659</v>
       </c>
-      <c r="I362" s="3" t="s">
+      <c r="L362" s="3" t="s">
         <v>2658</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="195">
+    <row r="363" spans="1:12" ht="195">
       <c r="A363" t="s">
         <v>1034</v>
       </c>
@@ -29419,17 +29764,18 @@
       <c r="F363" s="3" t="s">
         <v>2657</v>
       </c>
-      <c r="G363" s="3" t="s">
+      <c r="H363" s="3" t="s">
         <v>2656</v>
       </c>
-      <c r="H363" s="3" t="s">
+      <c r="I363" s="3"/>
+      <c r="J363" s="3" t="s">
         <v>2655</v>
       </c>
-      <c r="I363" s="3" t="s">
+      <c r="L363" s="3" t="s">
         <v>2654</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="255">
+    <row r="364" spans="1:12" ht="255">
       <c r="A364" t="s">
         <v>1035</v>
       </c>
@@ -29445,17 +29791,18 @@
       <c r="F364" s="3" t="s">
         <v>2653</v>
       </c>
-      <c r="G364" s="3" t="s">
+      <c r="H364" s="3" t="s">
         <v>2652</v>
       </c>
-      <c r="H364" s="3" t="s">
+      <c r="I364" s="3"/>
+      <c r="J364" s="3" t="s">
         <v>2651</v>
       </c>
-      <c r="I364" s="3" t="s">
+      <c r="L364" s="3" t="s">
         <v>2650</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="255">
+    <row r="365" spans="1:12" ht="255">
       <c r="A365" t="s">
         <v>1036</v>
       </c>
@@ -29471,17 +29818,18 @@
       <c r="F365" s="3" t="s">
         <v>2649</v>
       </c>
-      <c r="G365" s="3" t="s">
+      <c r="H365" s="3" t="s">
         <v>2648</v>
       </c>
-      <c r="H365" s="3" t="s">
+      <c r="I365" s="3"/>
+      <c r="J365" s="3" t="s">
         <v>2647</v>
       </c>
-      <c r="I365" s="3" t="s">
+      <c r="L365" s="3" t="s">
         <v>2646</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:12">
       <c r="A366" t="s">
         <v>1037</v>
       </c>
@@ -29492,7 +29840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="240">
+    <row r="367" spans="1:12" ht="240">
       <c r="A367" t="s">
         <v>1038</v>
       </c>
@@ -29508,17 +29856,18 @@
       <c r="F367" s="3" t="s">
         <v>2645</v>
       </c>
-      <c r="G367" s="3" t="s">
+      <c r="H367" s="3" t="s">
         <v>2644</v>
       </c>
-      <c r="H367" s="3" t="s">
+      <c r="I367" s="3"/>
+      <c r="J367" s="3" t="s">
         <v>2643</v>
       </c>
-      <c r="I367" s="3" t="s">
+      <c r="L367" s="3" t="s">
         <v>2642</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="180">
+    <row r="368" spans="1:12" ht="180">
       <c r="A368" t="s">
         <v>1039</v>
       </c>
@@ -29534,17 +29883,18 @@
       <c r="F368" s="3" t="s">
         <v>2641</v>
       </c>
-      <c r="G368" s="3" t="s">
+      <c r="H368" s="3" t="s">
         <v>2640</v>
       </c>
-      <c r="H368" s="3" t="s">
+      <c r="I368" s="3"/>
+      <c r="J368" s="3" t="s">
         <v>2639</v>
       </c>
-      <c r="I368" s="3" t="s">
+      <c r="L368" s="3" t="s">
         <v>2638</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="105">
+    <row r="369" spans="1:12" ht="105">
       <c r="A369" t="s">
         <v>1040</v>
       </c>
@@ -29560,17 +29910,17 @@
       <c r="F369" s="3" t="s">
         <v>2637</v>
       </c>
-      <c r="G369" t="s">
+      <c r="H369" t="s">
         <v>2636</v>
       </c>
-      <c r="H369" s="3" t="s">
+      <c r="J369" s="3" t="s">
         <v>2635</v>
       </c>
-      <c r="I369" s="3" t="s">
+      <c r="L369" s="3" t="s">
         <v>2634</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="255">
+    <row r="370" spans="1:12" ht="255">
       <c r="A370" t="s">
         <v>1042</v>
       </c>
@@ -29586,17 +29936,17 @@
       <c r="F370" s="3" t="s">
         <v>2633</v>
       </c>
-      <c r="G370" t="s">
+      <c r="H370" t="s">
         <v>2632</v>
       </c>
-      <c r="H370" s="3" t="s">
+      <c r="J370" s="3" t="s">
         <v>2631</v>
       </c>
-      <c r="I370" s="3" t="s">
+      <c r="L370" s="3" t="s">
         <v>2630</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="30">
+    <row r="371" spans="1:12" ht="30">
       <c r="A371" t="s">
         <v>1043</v>
       </c>
@@ -29615,17 +29965,19 @@
       <c r="F371" s="9" t="s">
         <v>2629</v>
       </c>
-      <c r="G371" s="10" t="s">
+      <c r="G371" s="9"/>
+      <c r="H371" s="10" t="s">
         <v>2628</v>
       </c>
-      <c r="H371" s="3" t="s">
+      <c r="I371" s="10"/>
+      <c r="J371" s="3" t="s">
         <v>2627</v>
       </c>
-      <c r="I371" s="3" t="s">
+      <c r="L371" s="3" t="s">
         <v>2626</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:12">
       <c r="A372" t="s">
         <v>1044</v>
       </c>
@@ -29636,7 +29988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="210">
+    <row r="373" spans="1:12" ht="210">
       <c r="A373" t="s">
         <v>1045</v>
       </c>
@@ -29652,17 +30004,18 @@
       <c r="F373" s="3" t="s">
         <v>2625</v>
       </c>
-      <c r="G373" s="3" t="s">
+      <c r="H373" s="3" t="s">
         <v>2624</v>
       </c>
-      <c r="H373" s="3" t="s">
+      <c r="I373" s="3"/>
+      <c r="J373" s="3" t="s">
         <v>2623</v>
       </c>
-      <c r="I373" s="3" t="s">
+      <c r="L373" s="3" t="s">
         <v>2622</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="195">
+    <row r="374" spans="1:12" ht="195">
       <c r="A374" t="s">
         <v>1046</v>
       </c>
@@ -29678,17 +30031,18 @@
       <c r="F374" s="3" t="s">
         <v>2621</v>
       </c>
-      <c r="G374" s="3" t="s">
+      <c r="H374" s="3" t="s">
         <v>2620</v>
       </c>
-      <c r="H374" s="3" t="s">
+      <c r="I374" s="3"/>
+      <c r="J374" s="3" t="s">
         <v>2619</v>
       </c>
-      <c r="I374" s="3" t="s">
+      <c r="L374" s="3" t="s">
         <v>2618</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="135">
+    <row r="375" spans="1:12" ht="135">
       <c r="A375" t="s">
         <v>1047</v>
       </c>
@@ -29704,17 +30058,18 @@
       <c r="F375" s="3" t="s">
         <v>2617</v>
       </c>
-      <c r="G375" s="3" t="s">
+      <c r="H375" s="3" t="s">
         <v>2616</v>
       </c>
-      <c r="H375" s="3" t="s">
+      <c r="I375" s="3"/>
+      <c r="J375" s="3" t="s">
         <v>2615</v>
       </c>
-      <c r="I375" s="3" t="s">
+      <c r="L375" s="3" t="s">
         <v>2614</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:12">
       <c r="A376" t="s">
         <v>1048</v>
       </c>
@@ -29725,7 +30080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="120">
+    <row r="377" spans="1:12" ht="120">
       <c r="A377" t="s">
         <v>1049</v>
       </c>
@@ -29741,17 +30096,18 @@
       <c r="F377" s="3" t="s">
         <v>2613</v>
       </c>
-      <c r="G377" s="3" t="s">
+      <c r="H377" s="3" t="s">
         <v>2612</v>
       </c>
-      <c r="H377" s="3" t="s">
+      <c r="I377" s="3"/>
+      <c r="J377" s="3" t="s">
         <v>2611</v>
       </c>
-      <c r="I377" s="3" t="s">
+      <c r="L377" s="3" t="s">
         <v>2610</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="195">
+    <row r="378" spans="1:12" ht="195">
       <c r="A378" t="s">
         <v>1056</v>
       </c>
@@ -29767,17 +30123,18 @@
       <c r="F378" s="3" t="s">
         <v>2609</v>
       </c>
-      <c r="G378" s="3" t="s">
+      <c r="H378" s="3" t="s">
         <v>2608</v>
       </c>
-      <c r="H378" s="3" t="s">
+      <c r="I378" s="3"/>
+      <c r="J378" s="3" t="s">
         <v>2607</v>
       </c>
-      <c r="I378" s="3" t="s">
+      <c r="L378" s="3" t="s">
         <v>2606</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="105">
+    <row r="379" spans="1:12" ht="105">
       <c r="A379" t="s">
         <v>1051</v>
       </c>
@@ -29793,17 +30150,18 @@
       <c r="F379" s="3" t="s">
         <v>2605</v>
       </c>
-      <c r="G379" s="3" t="s">
+      <c r="H379" s="3" t="s">
         <v>2604</v>
       </c>
-      <c r="H379" s="3" t="s">
+      <c r="I379" s="3"/>
+      <c r="J379" s="3" t="s">
         <v>2603</v>
       </c>
-      <c r="I379" s="3" t="s">
+      <c r="L379" s="3" t="s">
         <v>2602</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="300">
+    <row r="380" spans="1:12" ht="300">
       <c r="A380" t="s">
         <v>1052</v>
       </c>
@@ -29819,17 +30177,18 @@
       <c r="F380" s="3" t="s">
         <v>2601</v>
       </c>
-      <c r="G380" s="3" t="s">
+      <c r="H380" s="3" t="s">
         <v>2600</v>
       </c>
-      <c r="H380" s="3" t="s">
+      <c r="I380" s="3"/>
+      <c r="J380" s="3" t="s">
         <v>2599</v>
       </c>
-      <c r="I380" s="3" t="s">
+      <c r="L380" s="3" t="s">
         <v>2598</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="360">
+    <row r="381" spans="1:12" ht="360">
       <c r="A381" t="s">
         <v>1053</v>
       </c>
@@ -29845,17 +30204,18 @@
       <c r="F381" s="3" t="s">
         <v>2597</v>
       </c>
-      <c r="G381" s="3" t="s">
+      <c r="H381" s="3" t="s">
         <v>2596</v>
       </c>
-      <c r="H381" s="3" t="s">
+      <c r="I381" s="3"/>
+      <c r="J381" s="3" t="s">
         <v>2595</v>
       </c>
-      <c r="I381" s="3" t="s">
+      <c r="L381" s="3" t="s">
         <v>2594</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="345">
+    <row r="382" spans="1:12" ht="345">
       <c r="A382" t="s">
         <v>1054</v>
       </c>
@@ -29871,17 +30231,18 @@
       <c r="F382" s="3" t="s">
         <v>2593</v>
       </c>
-      <c r="G382" s="3" t="s">
+      <c r="H382" s="3" t="s">
         <v>2592</v>
       </c>
-      <c r="H382" s="3" t="s">
+      <c r="I382" s="3"/>
+      <c r="J382" s="3" t="s">
         <v>2591</v>
       </c>
-      <c r="I382" s="3" t="s">
+      <c r="L382" s="3" t="s">
         <v>2590</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="180">
+    <row r="383" spans="1:12" ht="180">
       <c r="A383" t="s">
         <v>1055</v>
       </c>
@@ -29897,17 +30258,18 @@
       <c r="F383" s="3" t="s">
         <v>2589</v>
       </c>
-      <c r="G383" s="3" t="s">
+      <c r="H383" s="3" t="s">
         <v>2588</v>
       </c>
-      <c r="H383" s="3" t="s">
+      <c r="I383" s="3"/>
+      <c r="J383" s="3" t="s">
         <v>2587</v>
       </c>
-      <c r="I383" s="3" t="s">
+      <c r="L383" s="3" t="s">
         <v>2586</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="255">
+    <row r="384" spans="1:12" ht="255">
       <c r="A384" t="s">
         <v>1063</v>
       </c>
@@ -29923,17 +30285,18 @@
       <c r="F384" s="3" t="s">
         <v>2585</v>
       </c>
-      <c r="G384" s="3" t="s">
+      <c r="H384" s="3" t="s">
         <v>2584</v>
       </c>
-      <c r="H384" s="3" t="s">
+      <c r="I384" s="3"/>
+      <c r="J384" s="3" t="s">
         <v>2583</v>
       </c>
-      <c r="I384" s="3" t="s">
+      <c r="L384" s="3" t="s">
         <v>2582</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="75">
+    <row r="385" spans="1:12" ht="75">
       <c r="A385" t="s">
         <v>1057</v>
       </c>
@@ -29949,17 +30312,18 @@
       <c r="F385" s="3" t="s">
         <v>2581</v>
       </c>
-      <c r="G385" s="3" t="s">
+      <c r="H385" s="3" t="s">
         <v>2580</v>
       </c>
-      <c r="H385" s="3" t="s">
+      <c r="I385" s="3"/>
+      <c r="J385" s="3" t="s">
         <v>2579</v>
       </c>
-      <c r="I385" s="3" t="s">
+      <c r="L385" s="3" t="s">
         <v>2578</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="409.5">
+    <row r="386" spans="1:12" ht="409.5">
       <c r="A386" t="s">
         <v>1059</v>
       </c>
@@ -29975,17 +30339,18 @@
       <c r="F386" s="3" t="s">
         <v>2577</v>
       </c>
-      <c r="G386" s="3" t="s">
+      <c r="H386" s="3" t="s">
         <v>2576</v>
       </c>
-      <c r="H386" s="3" t="s">
+      <c r="I386" s="3"/>
+      <c r="J386" s="3" t="s">
         <v>2575</v>
       </c>
-      <c r="I386" s="3" t="s">
+      <c r="L386" s="3" t="s">
         <v>2574</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="150">
+    <row r="387" spans="1:12" ht="150">
       <c r="A387" t="s">
         <v>1060</v>
       </c>
@@ -30001,17 +30366,18 @@
       <c r="F387" s="3" t="s">
         <v>2573</v>
       </c>
-      <c r="G387" s="3" t="s">
+      <c r="H387" s="3" t="s">
         <v>2572</v>
       </c>
-      <c r="H387" s="3" t="s">
+      <c r="I387" s="3"/>
+      <c r="J387" s="3" t="s">
         <v>2571</v>
       </c>
-      <c r="I387" s="3" t="s">
+      <c r="L387" s="3" t="s">
         <v>2570</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="225">
+    <row r="388" spans="1:12" ht="225">
       <c r="A388" t="s">
         <v>1061</v>
       </c>
@@ -30027,17 +30393,18 @@
       <c r="F388" s="3" t="s">
         <v>2569</v>
       </c>
-      <c r="G388" s="3" t="s">
+      <c r="H388" s="3" t="s">
         <v>2568</v>
       </c>
-      <c r="H388" s="3" t="s">
+      <c r="I388" s="3"/>
+      <c r="J388" s="3" t="s">
         <v>2567</v>
       </c>
-      <c r="I388" s="3" t="s">
+      <c r="L388" s="3" t="s">
         <v>2566</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="255">
+    <row r="389" spans="1:12" ht="255">
       <c r="A389" t="s">
         <v>1062</v>
       </c>
@@ -30053,17 +30420,18 @@
       <c r="F389" s="3" t="s">
         <v>2565</v>
       </c>
-      <c r="G389" s="3" t="s">
+      <c r="H389" s="3" t="s">
         <v>2564</v>
       </c>
-      <c r="H389" s="3" t="s">
+      <c r="I389" s="3"/>
+      <c r="J389" s="3" t="s">
         <v>2563</v>
       </c>
-      <c r="I389" s="3" t="s">
+      <c r="L389" s="3" t="s">
         <v>2562</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="120">
+    <row r="390" spans="1:12" ht="120">
       <c r="A390" t="s">
         <v>1050</v>
       </c>
@@ -30079,17 +30447,18 @@
       <c r="F390" s="3" t="s">
         <v>2561</v>
       </c>
-      <c r="G390" s="3" t="s">
+      <c r="H390" s="3" t="s">
         <v>2560</v>
       </c>
-      <c r="H390" s="3" t="s">
+      <c r="I390" s="3"/>
+      <c r="J390" s="3" t="s">
         <v>2559</v>
       </c>
-      <c r="I390" s="3" t="s">
+      <c r="L390" s="3" t="s">
         <v>2558</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="225">
+    <row r="391" spans="1:12" ht="225">
       <c r="A391" t="s">
         <v>1064</v>
       </c>
@@ -30105,17 +30474,18 @@
       <c r="F391" s="3" t="s">
         <v>2557</v>
       </c>
-      <c r="G391" s="3" t="s">
+      <c r="H391" s="3" t="s">
         <v>2556</v>
       </c>
-      <c r="H391" s="3" t="s">
+      <c r="I391" s="3"/>
+      <c r="J391" s="3" t="s">
         <v>2555</v>
       </c>
-      <c r="I391" s="3" t="s">
+      <c r="L391" s="3" t="s">
         <v>2554</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="315">
+    <row r="392" spans="1:12" ht="315">
       <c r="A392" t="s">
         <v>1065</v>
       </c>
@@ -30134,17 +30504,17 @@
       <c r="F392" s="3" t="s">
         <v>2553</v>
       </c>
-      <c r="G392" t="s">
+      <c r="H392" t="s">
         <v>2552</v>
       </c>
-      <c r="H392" s="3" t="s">
+      <c r="J392" s="3" t="s">
         <v>2551</v>
       </c>
-      <c r="I392" s="3" t="s">
+      <c r="L392" s="3" t="s">
         <v>2550</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="45">
+    <row r="393" spans="1:12" ht="45">
       <c r="A393" t="s">
         <v>1067</v>
       </c>
@@ -30163,17 +30533,19 @@
       <c r="F393" s="9" t="s">
         <v>2549</v>
       </c>
-      <c r="G393" s="10" t="s">
+      <c r="G393" s="9"/>
+      <c r="H393" s="10" t="s">
         <v>2548</v>
       </c>
-      <c r="H393" s="3" t="s">
+      <c r="I393" s="10"/>
+      <c r="J393" s="3" t="s">
         <v>2547</v>
       </c>
-      <c r="I393" s="3" t="s">
+      <c r="L393" s="3" t="s">
         <v>2546</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:12">
       <c r="A394" t="s">
         <v>1068</v>
       </c>
@@ -30184,7 +30556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="360">
+    <row r="395" spans="1:12" ht="360">
       <c r="A395" t="s">
         <v>1069</v>
       </c>
@@ -30200,17 +30572,18 @@
       <c r="F395" s="3" t="s">
         <v>2545</v>
       </c>
-      <c r="G395" s="3" t="s">
+      <c r="H395" s="3" t="s">
         <v>2544</v>
       </c>
-      <c r="H395" s="3" t="s">
+      <c r="I395" s="3"/>
+      <c r="J395" s="3" t="s">
         <v>2543</v>
       </c>
-      <c r="I395" s="3" t="s">
+      <c r="L395" s="3" t="s">
         <v>2542</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="315">
+    <row r="396" spans="1:12" ht="315">
       <c r="A396" t="s">
         <v>1070</v>
       </c>
@@ -30226,17 +30599,18 @@
       <c r="F396" s="3" t="s">
         <v>2541</v>
       </c>
-      <c r="G396" s="3" t="s">
+      <c r="H396" s="3" t="s">
         <v>2540</v>
       </c>
-      <c r="H396" s="3" t="s">
+      <c r="I396" s="3"/>
+      <c r="J396" s="3" t="s">
         <v>2539</v>
       </c>
-      <c r="I396" s="3" t="s">
+      <c r="L396" s="3" t="s">
         <v>2538</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="315">
+    <row r="397" spans="1:12" ht="315">
       <c r="A397" t="s">
         <v>1071</v>
       </c>
@@ -30252,17 +30626,18 @@
       <c r="F397" s="3" t="s">
         <v>2537</v>
       </c>
-      <c r="G397" s="3" t="s">
+      <c r="H397" s="3" t="s">
         <v>2536</v>
       </c>
-      <c r="H397" s="3" t="s">
+      <c r="I397" s="3"/>
+      <c r="J397" s="3" t="s">
         <v>2535</v>
       </c>
-      <c r="I397" s="3" t="s">
+      <c r="L397" s="3" t="s">
         <v>2534</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="255">
+    <row r="398" spans="1:12" ht="255">
       <c r="A398" t="s">
         <v>1072</v>
       </c>
@@ -30278,17 +30653,18 @@
       <c r="F398" s="3" t="s">
         <v>2533</v>
       </c>
-      <c r="G398" s="3" t="s">
+      <c r="H398" s="3" t="s">
         <v>2532</v>
       </c>
-      <c r="H398" s="3" t="s">
+      <c r="I398" s="3"/>
+      <c r="J398" s="3" t="s">
         <v>2531</v>
       </c>
-      <c r="I398" s="3" t="s">
+      <c r="L398" s="3" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="270">
+    <row r="399" spans="1:12" ht="270">
       <c r="A399" t="s">
         <v>1073</v>
       </c>
@@ -30304,17 +30680,18 @@
       <c r="F399" s="3" t="s">
         <v>2529</v>
       </c>
-      <c r="G399" s="3" t="s">
+      <c r="H399" s="3" t="s">
         <v>2528</v>
       </c>
-      <c r="H399" s="3" t="s">
+      <c r="I399" s="3"/>
+      <c r="J399" s="3" t="s">
         <v>2527</v>
       </c>
-      <c r="I399" s="3" t="s">
+      <c r="L399" s="3" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="315">
+    <row r="400" spans="1:12" ht="315">
       <c r="A400" t="s">
         <v>1074</v>
       </c>
@@ -30330,17 +30707,18 @@
       <c r="F400" s="3" t="s">
         <v>2525</v>
       </c>
-      <c r="G400" s="3" t="s">
+      <c r="H400" s="3" t="s">
         <v>2524</v>
       </c>
-      <c r="H400" s="3" t="s">
+      <c r="I400" s="3"/>
+      <c r="J400" s="3" t="s">
         <v>2523</v>
       </c>
-      <c r="I400" s="3" t="s">
+      <c r="L400" s="3" t="s">
         <v>2522</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="409.5">
+    <row r="401" spans="1:12" ht="409.5">
       <c r="A401" t="s">
         <v>1075</v>
       </c>
@@ -30356,17 +30734,18 @@
       <c r="F401" s="3" t="s">
         <v>2520</v>
       </c>
-      <c r="G401" s="3" t="s">
+      <c r="H401" s="3" t="s">
         <v>2519</v>
       </c>
-      <c r="H401" s="3" t="s">
+      <c r="I401" s="3"/>
+      <c r="J401" s="3" t="s">
         <v>2518</v>
       </c>
-      <c r="I401" s="3" t="s">
+      <c r="L401" s="3" t="s">
         <v>2517</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="210">
+    <row r="402" spans="1:12" ht="210">
       <c r="A402" t="s">
         <v>1076</v>
       </c>
@@ -30382,17 +30761,17 @@
       <c r="F402" s="3" t="s">
         <v>2516</v>
       </c>
-      <c r="G402" t="s">
+      <c r="H402" t="s">
         <v>2515</v>
       </c>
-      <c r="H402" s="3" t="s">
+      <c r="J402" s="3" t="s">
         <v>2514</v>
       </c>
-      <c r="I402" s="3" t="s">
+      <c r="L402" s="3" t="s">
         <v>2513</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="105">
+    <row r="403" spans="1:12" ht="105">
       <c r="A403" t="s">
         <v>1077</v>
       </c>
@@ -30408,17 +30787,17 @@
       <c r="F403" s="3" t="s">
         <v>2512</v>
       </c>
-      <c r="G403" t="s">
+      <c r="H403" t="s">
         <v>2511</v>
       </c>
-      <c r="H403" s="3" t="s">
+      <c r="J403" s="3" t="s">
         <v>2510</v>
       </c>
-      <c r="I403" s="3" t="s">
+      <c r="L403" s="3" t="s">
         <v>2509</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="105">
+    <row r="404" spans="1:12" ht="105">
       <c r="A404" t="s">
         <v>1078</v>
       </c>
@@ -30434,17 +30813,18 @@
       <c r="F404" s="3" t="s">
         <v>2508</v>
       </c>
-      <c r="G404" s="3" t="s">
+      <c r="H404" s="3" t="s">
         <v>2507</v>
       </c>
-      <c r="H404" s="3" t="s">
+      <c r="I404" s="3"/>
+      <c r="J404" s="3" t="s">
         <v>2506</v>
       </c>
-      <c r="I404" s="3" t="s">
+      <c r="L404" s="3" t="s">
         <v>2505</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="210">
+    <row r="405" spans="1:12" ht="210">
       <c r="A405" t="s">
         <v>1079</v>
       </c>
@@ -30460,17 +30840,19 @@
       <c r="F405" s="9" t="s">
         <v>2504</v>
       </c>
-      <c r="G405" s="3" t="s">
+      <c r="G405" s="9"/>
+      <c r="H405" s="3" t="s">
         <v>2503</v>
       </c>
-      <c r="H405" s="3" t="s">
+      <c r="I405" s="3"/>
+      <c r="J405" s="3" t="s">
         <v>2502</v>
       </c>
-      <c r="I405" s="3" t="s">
+      <c r="L405" s="3" t="s">
         <v>2501</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="135">
+    <row r="406" spans="1:12" ht="135">
       <c r="A406" t="s">
         <v>1080</v>
       </c>
@@ -30486,13 +30868,14 @@
       <c r="F406" s="3" t="s">
         <v>2500</v>
       </c>
-      <c r="G406" s="3" t="s">
+      <c r="H406" s="3" t="s">
         <v>2499</v>
       </c>
-      <c r="H406" s="3" t="s">
+      <c r="I406" s="3"/>
+      <c r="J406" s="3" t="s">
         <v>2498</v>
       </c>
-      <c r="I406" s="3" t="s">
+      <c r="L406" s="3" t="s">
         <v>2497</v>
       </c>
     </row>
@@ -30506,8 +30889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32766,21 +33149,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32803,14 +33186,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -32818,4 +33193,12 @@
     <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AC67E1-9DF7-412F-B7D5-D10E44A8AC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58686069-8B69-4EDC-A163-6AC63B61AD39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7067" uniqueCount="3987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7068" uniqueCount="3988">
   <si>
     <t>id</t>
   </si>
@@ -13364,6 +13364,9 @@
   </si>
   <si>
     <t>Added Spanish, Bulgarian, Finnish, and Swedish for GDPR; Reorder listing of regulations to be alphabetical</t>
+  </si>
+  <si>
+    <t>Tratamiento que no requiere identificación</t>
   </si>
 </sst>
 </file>
@@ -20294,9 +20297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB62EA1-5A3C-446A-BD82-9DFA95F5937C}">
   <dimension ref="A1:N406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22217,7 +22220,9 @@
       <c r="H51" t="s">
         <v>669</v>
       </c>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>3987</v>
+      </c>
       <c r="J51" t="s">
         <v>669</v>
       </c>
@@ -37628,21 +37633,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
     <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37665,6 +37670,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -37672,12 +37685,4 @@
     <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8680AAB-0943-487C-A3FB-EBF2C1D295A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7916C63-EA89-4F4D-96B6-84AC2441F539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8091" uniqueCount="4634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8092" uniqueCount="4634">
   <si>
     <t>id</t>
   </si>
@@ -22316,10 +22316,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B934EF-02F8-4B99-85C5-C25F02848426}">
-  <dimension ref="A1:G665"/>
+  <dimension ref="A1:H665"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22327,14 +22327,15 @@
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="104.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="72.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="72.85546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22344,11 +22345,14 @@
       <c r="C1" t="s">
         <v>3989</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="153">
+    <row r="2" spans="1:5" ht="153">
       <c r="A2">
         <v>2</v>
       </c>
@@ -22358,8 +22362,9 @@
       <c r="C2" s="15" t="s">
         <v>3991</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="170.25" customHeight="1">
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" ht="170.25" customHeight="1">
       <c r="A3">
         <v>4</v>
       </c>
@@ -22369,11 +22374,12 @@
       <c r="C3" s="15" t="s">
         <v>3993</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="13" t="s">
         <v>3994</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60">
+    <row r="4" spans="1:5" ht="60">
       <c r="A4">
         <v>5</v>
       </c>
@@ -22381,8 +22387,9 @@
         <v>3995</v>
       </c>
       <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:4" ht="45">
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="45">
       <c r="A5" t="s">
         <v>3996</v>
       </c>
@@ -22392,11 +22399,12 @@
       <c r="C5" s="15" t="s">
         <v>3997</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="13" t="s">
         <v>3998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="51">
+    <row r="6" spans="1:5" ht="51">
       <c r="A6" t="s">
         <v>3999</v>
       </c>
@@ -22406,11 +22414,12 @@
       <c r="C6" s="15" t="s">
         <v>4000</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="13" t="s">
         <v>2221</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45">
+    <row r="7" spans="1:5" ht="45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -22420,11 +22429,12 @@
       <c r="C7" s="15" t="s">
         <v>4002</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="13" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="75">
+    <row r="8" spans="1:5" ht="75">
       <c r="A8">
         <v>7</v>
       </c>
@@ -22432,8 +22442,9 @@
         <v>4003</v>
       </c>
       <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="32.450000000000003" customHeight="1">
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="32.450000000000003" customHeight="1">
       <c r="A9">
         <v>7.1</v>
       </c>
@@ -22443,11 +22454,12 @@
       <c r="C9" s="15" t="s">
         <v>4004</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="13" t="s">
         <v>4005</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>4006</v>
       </c>
@@ -22457,11 +22469,12 @@
       <c r="C10" s="15" t="s">
         <v>4007</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>4008</v>
       </c>
@@ -22471,11 +22484,12 @@
       <c r="C11" s="15" t="s">
         <v>4009</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>4010</v>
       </c>
@@ -22485,11 +22499,12 @@
       <c r="C12" s="15" t="s">
         <v>4011</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="25.5">
+    <row r="13" spans="1:5" ht="25.5">
       <c r="A13" t="s">
         <v>4012</v>
       </c>
@@ -22499,11 +22514,12 @@
       <c r="C13" s="15" t="s">
         <v>4013</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29.1" customHeight="1">
+    <row r="14" spans="1:5" ht="29.1" customHeight="1">
       <c r="A14" t="s">
         <v>4014</v>
       </c>
@@ -22513,11 +22529,12 @@
       <c r="C14" s="15" t="s">
         <v>4015</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>4016</v>
       </c>
@@ -22527,11 +22544,12 @@
       <c r="C15" s="15" t="s">
         <v>4017</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="25.5">
+    <row r="16" spans="1:5" ht="25.5">
       <c r="A16" t="s">
         <v>4018</v>
       </c>
@@ -22541,11 +22559,12 @@
       <c r="C16" s="15" t="s">
         <v>4019</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="25.5">
+    <row r="17" spans="1:5" ht="25.5">
       <c r="A17" t="s">
         <v>4020</v>
       </c>
@@ -22555,11 +22574,12 @@
       <c r="C17" s="15" t="s">
         <v>4021</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25.5">
+    <row r="18" spans="1:5" ht="25.5">
       <c r="A18" t="s">
         <v>4022</v>
       </c>
@@ -22569,11 +22589,12 @@
       <c r="C18" s="15" t="s">
         <v>4023</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>4024</v>
       </c>
@@ -22583,11 +22604,12 @@
       <c r="C19" s="15" t="s">
         <v>4025</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>4026</v>
       </c>
@@ -22597,8 +22619,9 @@
       <c r="C20" s="15" t="s">
         <v>4027</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>4028</v>
       </c>
@@ -22608,11 +22631,12 @@
       <c r="C21" s="15" t="s">
         <v>4029</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="13" t="s">
         <v>4030</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25.5">
+    <row r="22" spans="1:5" ht="25.5">
       <c r="A22" t="s">
         <v>4031</v>
       </c>
@@ -22622,8 +22646,9 @@
       <c r="C22" s="15" t="s">
         <v>4032</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>4033</v>
       </c>
@@ -22634,7 +22659,7 @@
         <v>4034</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="25.5">
+    <row r="24" spans="1:5" ht="25.5">
       <c r="A24">
         <v>7.2</v>
       </c>
@@ -22644,11 +22669,12 @@
       <c r="C24" s="15" t="s">
         <v>4035</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="13" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="25.5">
+    <row r="25" spans="1:5" ht="25.5">
       <c r="A25">
         <v>7.3</v>
       </c>
@@ -22658,11 +22684,12 @@
       <c r="C25" s="15" t="s">
         <v>4036</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="13" t="s">
         <v>4037</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45">
+    <row r="26" spans="1:5" ht="45">
       <c r="A26">
         <v>8</v>
       </c>
@@ -22670,8 +22697,9 @@
         <v>4038</v>
       </c>
       <c r="C26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" ht="33" customHeight="1">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="33" customHeight="1">
       <c r="A27">
         <v>8.1</v>
       </c>
@@ -22681,11 +22709,12 @@
       <c r="C27" s="15" t="s">
         <v>4039</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="25.5">
+    <row r="28" spans="1:5" ht="25.5">
       <c r="A28" t="s">
         <v>4040</v>
       </c>
@@ -22695,11 +22724,12 @@
       <c r="C28" s="15" t="s">
         <v>4041</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="13" t="s">
         <v>4042</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>4043</v>
       </c>
@@ -22709,11 +22739,12 @@
       <c r="C29" s="15" t="s">
         <v>4044</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="13" t="s">
         <v>4045</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="25.5">
+    <row r="30" spans="1:5" ht="25.5">
       <c r="A30" t="s">
         <v>4046</v>
       </c>
@@ -22723,11 +22754,12 @@
       <c r="C30" s="15" t="s">
         <v>4047</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="42.95" customHeight="1">
+    <row r="31" spans="1:5" ht="42.95" customHeight="1">
       <c r="A31">
         <v>8.3000000000000007</v>
       </c>
@@ -22737,11 +22769,12 @@
       <c r="C31" s="15" t="s">
         <v>4048</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="13" t="s">
         <v>4049</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="42.95" customHeight="1">
+    <row r="32" spans="1:5" ht="42.95" customHeight="1">
       <c r="A32">
         <v>9</v>
       </c>
@@ -22749,8 +22782,9 @@
         <v>4050</v>
       </c>
       <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" ht="32.450000000000003" customHeight="1">
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="32.450000000000003" customHeight="1">
       <c r="A33">
         <v>9.1</v>
       </c>
@@ -22760,11 +22794,12 @@
       <c r="C33" s="15" t="s">
         <v>4051</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="13" t="s">
         <v>4052</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.5" customHeight="1">
+    <row r="34" spans="1:5" ht="28.5" customHeight="1">
       <c r="A34">
         <v>9.1999999999999993</v>
       </c>
@@ -22774,11 +22809,12 @@
       <c r="C34" s="15" t="s">
         <v>4053</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="15"/>
+      <c r="E34" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="25.5">
+    <row r="35" spans="1:5" ht="25.5">
       <c r="A35">
         <v>9.3000000000000007</v>
       </c>
@@ -22788,11 +22824,12 @@
       <c r="C35" s="15" t="s">
         <v>4054</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="15"/>
+      <c r="E35" s="13" t="s">
         <v>4055</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.5" customHeight="1">
+    <row r="36" spans="1:5" ht="31.5" customHeight="1">
       <c r="A36">
         <v>9.4</v>
       </c>
@@ -22802,11 +22839,12 @@
       <c r="C36" s="15" t="s">
         <v>4056</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="15"/>
+      <c r="E36" s="13" t="s">
         <v>4057</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30">
+    <row r="37" spans="1:5" ht="30">
       <c r="A37">
         <v>10</v>
       </c>
@@ -22816,11 +22854,12 @@
       <c r="C37" s="15" t="s">
         <v>4059</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="13" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="60">
+    <row r="38" spans="1:5" ht="60">
       <c r="A38">
         <v>11</v>
       </c>
@@ -22828,8 +22867,9 @@
         <v>4060</v>
       </c>
       <c r="C38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" customHeight="1">
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1">
       <c r="A39">
         <v>11.1</v>
       </c>
@@ -22839,11 +22879,12 @@
       <c r="C39" s="15" t="s">
         <v>4061</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="25.5">
+    <row r="40" spans="1:5" ht="25.5">
       <c r="A40" t="s">
         <v>4062</v>
       </c>
@@ -22853,11 +22894,12 @@
       <c r="C40" s="15" t="s">
         <v>4063</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="13" t="s">
         <v>4064</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>4065</v>
       </c>
@@ -22867,11 +22909,12 @@
       <c r="C41" s="15" t="s">
         <v>4066</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="25.5">
+    <row r="42" spans="1:5" ht="25.5">
       <c r="A42" t="s">
         <v>4067</v>
       </c>
@@ -22881,11 +22924,12 @@
       <c r="C42" s="15" t="s">
         <v>4068</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="15"/>
+      <c r="E42" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>4069</v>
       </c>
@@ -22895,11 +22939,12 @@
       <c r="C43" s="15" t="s">
         <v>4070</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.5" customHeight="1">
+    <row r="44" spans="1:5" ht="28.5" customHeight="1">
       <c r="A44" t="s">
         <v>4071</v>
       </c>
@@ -22909,11 +22954,12 @@
       <c r="C44" s="15" t="s">
         <v>4072</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="13" t="s">
         <v>4073</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="39.6" customHeight="1">
+    <row r="45" spans="1:5" ht="39.6" customHeight="1">
       <c r="A45" t="s">
         <v>4074</v>
       </c>
@@ -22923,11 +22969,12 @@
       <c r="C45" s="15" t="s">
         <v>4075</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="13" t="s">
         <v>4076</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>4077</v>
       </c>
@@ -22937,11 +22984,12 @@
       <c r="C46" s="15" t="s">
         <v>4078</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="15"/>
+      <c r="E46" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30" customHeight="1">
+    <row r="47" spans="1:5" ht="30" customHeight="1">
       <c r="A47" t="s">
         <v>4079</v>
       </c>
@@ -22951,11 +22999,12 @@
       <c r="C47" s="15" t="s">
         <v>4080</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="38.25">
+    <row r="48" spans="1:5" ht="38.25">
       <c r="A48">
         <v>11.4</v>
       </c>
@@ -22965,11 +23014,12 @@
       <c r="C48" s="15" t="s">
         <v>4081</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" customHeight="1">
+    <row r="49" spans="1:5" ht="30" customHeight="1">
       <c r="A49">
         <v>11.5</v>
       </c>
@@ -22979,11 +23029,12 @@
       <c r="C49" s="15" t="s">
         <v>4082</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="15"/>
+      <c r="E49" s="13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="33.6" customHeight="1">
+    <row r="50" spans="1:5" ht="33.6" customHeight="1">
       <c r="A50">
         <v>11.6</v>
       </c>
@@ -22993,8 +23044,9 @@
       <c r="C50" s="15" t="s">
         <v>4083</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="33.6" customHeight="1">
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="33.6" customHeight="1">
       <c r="A51">
         <v>12</v>
       </c>
@@ -23002,8 +23054,9 @@
         <v>4084</v>
       </c>
       <c r="C51" s="15"/>
-    </row>
-    <row r="52" spans="1:4" ht="42.95" customHeight="1">
+      <c r="D51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" ht="42.95" customHeight="1">
       <c r="A52" t="s">
         <v>4085</v>
       </c>
@@ -23013,11 +23066,12 @@
       <c r="C52" s="15" t="s">
         <v>4086</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="15"/>
+      <c r="E52" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>4087</v>
       </c>
@@ -23027,11 +23081,12 @@
       <c r="C53" s="15" t="s">
         <v>4088</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="15"/>
+      <c r="E53" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>4089</v>
       </c>
@@ -23041,11 +23096,12 @@
       <c r="C54" s="15" t="s">
         <v>4090</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="15"/>
+      <c r="E54" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>4091</v>
       </c>
@@ -23055,8 +23111,9 @@
       <c r="C55" s="15" t="s">
         <v>4092</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="25.5">
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="25.5">
       <c r="A56" t="s">
         <v>4093</v>
       </c>
@@ -23066,11 +23123,12 @@
       <c r="C56" s="15" t="s">
         <v>4094</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="15"/>
+      <c r="E56" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="25.5">
+    <row r="57" spans="1:5" ht="25.5">
       <c r="A57" t="s">
         <v>4095</v>
       </c>
@@ -23080,11 +23138,12 @@
       <c r="C57" s="15" t="s">
         <v>4096</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="15"/>
+      <c r="E57" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="24.95" customHeight="1">
+    <row r="58" spans="1:5" ht="24.95" customHeight="1">
       <c r="A58" t="s">
         <v>4097</v>
       </c>
@@ -23094,11 +23153,12 @@
       <c r="C58" s="15" t="s">
         <v>4098</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="24.95" customHeight="1">
+    <row r="59" spans="1:5" ht="24.95" customHeight="1">
       <c r="A59">
         <v>13</v>
       </c>
@@ -23106,8 +23166,9 @@
         <v>4099</v>
       </c>
       <c r="C59" s="15"/>
-    </row>
-    <row r="60" spans="1:4" ht="42.6" customHeight="1">
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="42.6" customHeight="1">
       <c r="A60" t="s">
         <v>683</v>
       </c>
@@ -23117,11 +23178,12 @@
       <c r="C60" s="15" t="s">
         <v>4100</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="13" t="s">
         <v>4101</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>684</v>
       </c>
@@ -23131,11 +23193,12 @@
       <c r="C61" s="15" t="s">
         <v>4102</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="15"/>
+      <c r="E61" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>685</v>
       </c>
@@ -23145,11 +23208,12 @@
       <c r="C62" s="15" t="s">
         <v>4103</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="15"/>
+      <c r="E62" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="25.5">
+    <row r="63" spans="1:5" ht="25.5">
       <c r="A63" t="s">
         <v>686</v>
       </c>
@@ -23159,11 +23223,12 @@
       <c r="C63" s="15" t="s">
         <v>4104</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="15"/>
+      <c r="E63" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="51">
+    <row r="64" spans="1:5" ht="51">
       <c r="A64">
         <v>13.2</v>
       </c>
@@ -23173,11 +23238,12 @@
       <c r="C64" s="15" t="s">
         <v>4105</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="15"/>
+      <c r="E64" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>14</v>
       </c>
@@ -23185,8 +23251,9 @@
         <v>4106</v>
       </c>
       <c r="C65" s="15"/>
-    </row>
-    <row r="66" spans="1:4" ht="63.75">
+      <c r="D65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="63.75">
       <c r="A66" t="s">
         <v>703</v>
       </c>
@@ -23196,11 +23263,12 @@
       <c r="C66" s="15" t="s">
         <v>4107</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="15"/>
+      <c r="E66" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>704</v>
       </c>
@@ -23210,8 +23278,9 @@
       <c r="C67" s="15" t="s">
         <v>4108</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" s="15"/>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>705</v>
       </c>
@@ -23221,11 +23290,12 @@
       <c r="C68" s="15" t="s">
         <v>4109</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="15"/>
+      <c r="E68" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>706</v>
       </c>
@@ -23235,11 +23305,12 @@
       <c r="C69" s="15" t="s">
         <v>4110</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="15"/>
+      <c r="E69" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>707</v>
       </c>
@@ -23249,8 +23320,9 @@
       <c r="C70" s="15" t="s">
         <v>4111</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="15"/>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>14.2</v>
       </c>
@@ -23260,8 +23332,9 @@
       <c r="C71" s="15" t="s">
         <v>4112</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" s="15"/>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>710</v>
       </c>
@@ -23271,8 +23344,9 @@
       <c r="C72" s="15" t="s">
         <v>4113</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72" s="15"/>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>711</v>
       </c>
@@ -23282,8 +23356,9 @@
       <c r="C73" s="15" t="s">
         <v>4114</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" s="15"/>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>712</v>
       </c>
@@ -23293,8 +23368,9 @@
       <c r="C74" s="15" t="s">
         <v>4115</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74" s="15"/>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>713</v>
       </c>
@@ -23304,8 +23380,9 @@
       <c r="C75" s="15" t="s">
         <v>4116</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="D75" s="15"/>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>714</v>
       </c>
@@ -23315,8 +23392,9 @@
       <c r="C76" s="15" t="s">
         <v>4117</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="D76" s="15"/>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>715</v>
       </c>
@@ -23326,8 +23404,9 @@
       <c r="C77" s="15" t="s">
         <v>4118</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77" s="15"/>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>716</v>
       </c>
@@ -23337,8 +23416,9 @@
       <c r="C78" s="15" t="s">
         <v>4119</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="D78" s="15"/>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>4120</v>
       </c>
@@ -23348,8 +23428,9 @@
       <c r="C79" s="15" t="s">
         <v>4121</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="D79" s="15"/>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>14.3</v>
       </c>
@@ -23359,8 +23440,9 @@
       <c r="C80" s="15" t="s">
         <v>4122</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="25.5">
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="1:5" ht="25.5">
       <c r="A81" t="s">
         <v>718</v>
       </c>
@@ -23370,11 +23452,12 @@
       <c r="C81" s="15" t="s">
         <v>4123</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="15"/>
+      <c r="E81" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30.6" customHeight="1">
+    <row r="82" spans="1:5" ht="30.6" customHeight="1">
       <c r="A82" t="s">
         <v>719</v>
       </c>
@@ -23384,8 +23467,9 @@
       <c r="C82" s="15" t="s">
         <v>4124</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="30.6" customHeight="1">
+      <c r="D82" s="15"/>
+    </row>
+    <row r="83" spans="1:5" ht="30.6" customHeight="1">
       <c r="A83">
         <v>15</v>
       </c>
@@ -23393,8 +23477,9 @@
         <v>4125</v>
       </c>
       <c r="C83" s="15"/>
-    </row>
-    <row r="84" spans="1:4" ht="42.95" customHeight="1">
+      <c r="D83" s="15"/>
+    </row>
+    <row r="84" spans="1:5" ht="42.95" customHeight="1">
       <c r="A84" t="s">
         <v>730</v>
       </c>
@@ -23404,11 +23489,12 @@
       <c r="C84" s="15" t="s">
         <v>4126</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="15"/>
+      <c r="E84" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>732</v>
       </c>
@@ -23418,11 +23504,12 @@
       <c r="C85" s="15" t="s">
         <v>4127</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="15"/>
+      <c r="E85" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="25.5">
+    <row r="86" spans="1:5" ht="25.5">
       <c r="A86" t="s">
         <v>733</v>
       </c>
@@ -23432,11 +23519,12 @@
       <c r="C86" s="15" t="s">
         <v>4128</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="15"/>
+      <c r="E86" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>734</v>
       </c>
@@ -23446,11 +23534,12 @@
       <c r="C87" s="15" t="s">
         <v>4129</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="15"/>
+      <c r="E87" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="25.5">
+    <row r="88" spans="1:5" ht="25.5">
       <c r="A88">
         <v>15.2</v>
       </c>
@@ -23460,11 +23549,12 @@
       <c r="C88" s="15" t="s">
         <v>4130</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="15"/>
+      <c r="E88" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>16</v>
       </c>
@@ -23472,8 +23562,9 @@
         <v>4131</v>
       </c>
       <c r="C89" s="15"/>
-    </row>
-    <row r="90" spans="1:4" ht="38.25">
+      <c r="D89" s="15"/>
+    </row>
+    <row r="90" spans="1:5" ht="38.25">
       <c r="A90">
         <v>16.100000000000001</v>
       </c>
@@ -23483,11 +23574,12 @@
       <c r="C90" s="15" t="s">
         <v>4132</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="15"/>
+      <c r="E90" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" customHeight="1">
+    <row r="91" spans="1:5" ht="30" customHeight="1">
       <c r="A91">
         <v>16.2</v>
       </c>
@@ -23497,11 +23589,12 @@
       <c r="C91" s="15" t="s">
         <v>4133</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="15"/>
+      <c r="E91" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="38.25">
+    <row r="92" spans="1:5" ht="38.25">
       <c r="A92" t="s">
         <v>4134</v>
       </c>
@@ -23511,11 +23604,12 @@
       <c r="C92" s="15" t="s">
         <v>4135</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="15"/>
+      <c r="E92" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>4136</v>
       </c>
@@ -23525,11 +23619,12 @@
       <c r="C93" s="15" t="s">
         <v>4137</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="15"/>
+      <c r="E93" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>4138</v>
       </c>
@@ -23539,11 +23634,12 @@
       <c r="C94" s="15" t="s">
         <v>4139</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="15"/>
+      <c r="E94" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>4140</v>
       </c>
@@ -23553,11 +23649,12 @@
       <c r="C95" s="15" t="s">
         <v>4141</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="15"/>
+      <c r="E95" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="25.5">
+    <row r="96" spans="1:5" ht="25.5">
       <c r="A96" t="s">
         <v>4142</v>
       </c>
@@ -23567,8 +23664,9 @@
       <c r="C96" s="15" t="s">
         <v>4143</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="D96" s="15"/>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>4144</v>
       </c>
@@ -23578,8 +23676,9 @@
       <c r="C97" s="15" t="s">
         <v>4145</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="25.5">
+      <c r="D97" s="15"/>
+    </row>
+    <row r="98" spans="1:5" ht="25.5">
       <c r="A98">
         <v>16.5</v>
       </c>
@@ -23589,8 +23688,9 @@
       <c r="C98" s="15" t="s">
         <v>4146</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="29.45" customHeight="1">
+      <c r="D98" s="15"/>
+    </row>
+    <row r="99" spans="1:5" ht="29.45" customHeight="1">
       <c r="A99">
         <v>16.600000000000001</v>
       </c>
@@ -23600,8 +23700,9 @@
       <c r="C99" s="15" t="s">
         <v>4147</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="30.6" customHeight="1">
+      <c r="D99" s="15"/>
+    </row>
+    <row r="100" spans="1:5" ht="30.6" customHeight="1">
       <c r="A100">
         <v>16.7</v>
       </c>
@@ -23611,8 +23712,9 @@
       <c r="C100" s="15" t="s">
         <v>4148</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="30.6" customHeight="1">
+      <c r="D100" s="15"/>
+    </row>
+    <row r="101" spans="1:5" ht="30.6" customHeight="1">
       <c r="A101">
         <v>17</v>
       </c>
@@ -23620,8 +23722,9 @@
         <v>4149</v>
       </c>
       <c r="C101" s="15"/>
-    </row>
-    <row r="102" spans="1:4" ht="27.6" customHeight="1">
+      <c r="D101" s="15"/>
+    </row>
+    <row r="102" spans="1:5" ht="27.6" customHeight="1">
       <c r="A102" t="s">
         <v>747</v>
       </c>
@@ -23631,11 +23734,12 @@
       <c r="C102" s="15" t="s">
         <v>4150</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="15"/>
+      <c r="E102" s="13" t="s">
         <v>4151</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="25.5">
+    <row r="103" spans="1:5" ht="25.5">
       <c r="A103" t="s">
         <v>748</v>
       </c>
@@ -23645,11 +23749,12 @@
       <c r="C103" s="15" t="s">
         <v>4152</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="15"/>
+      <c r="E103" s="13" t="s">
         <v>4151</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="38.1" customHeight="1">
+    <row r="104" spans="1:5" ht="38.1" customHeight="1">
       <c r="A104" t="s">
         <v>749</v>
       </c>
@@ -23659,8 +23764,9 @@
       <c r="C104" s="15" t="s">
         <v>4153</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="25.5">
+      <c r="D104" s="15"/>
+    </row>
+    <row r="105" spans="1:5" ht="25.5">
       <c r="A105">
         <v>17.2</v>
       </c>
@@ -23670,11 +23776,12 @@
       <c r="C105" s="15" t="s">
         <v>4154</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="15"/>
+      <c r="E105" s="13" t="s">
         <v>4151</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="38.25">
+    <row r="106" spans="1:5" ht="38.25">
       <c r="A106">
         <v>17.3</v>
       </c>
@@ -23684,11 +23791,12 @@
       <c r="C106" s="15" t="s">
         <v>4155</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="15"/>
+      <c r="E106" s="13" t="s">
         <v>4156</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>18</v>
       </c>
@@ -23696,8 +23804,9 @@
         <v>4157</v>
       </c>
       <c r="C107" s="15"/>
-    </row>
-    <row r="108" spans="1:4" ht="42" customHeight="1">
+      <c r="D107" s="15"/>
+    </row>
+    <row r="108" spans="1:5" ht="42" customHeight="1">
       <c r="A108" t="s">
         <v>765</v>
       </c>
@@ -23707,11 +23816,12 @@
       <c r="C108" s="15" t="s">
         <v>4158</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="15"/>
+      <c r="E108" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>766</v>
       </c>
@@ -23721,11 +23831,12 @@
       <c r="C109" s="15" t="s">
         <v>4159</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="15"/>
+      <c r="E109" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>767</v>
       </c>
@@ -23735,11 +23846,12 @@
       <c r="C110" s="15" t="s">
         <v>4160</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="15"/>
+      <c r="E110" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>768</v>
       </c>
@@ -23749,11 +23861,12 @@
       <c r="C111" s="15" t="s">
         <v>4161</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="15"/>
+      <c r="E111" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="35.450000000000003" customHeight="1">
+    <row r="112" spans="1:5" ht="35.450000000000003" customHeight="1">
       <c r="A112">
         <v>18.2</v>
       </c>
@@ -23763,11 +23876,12 @@
       <c r="C112" s="15" t="s">
         <v>4162</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D112" s="15"/>
+      <c r="E112" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="52.5" customHeight="1">
+    <row r="113" spans="1:5" ht="52.5" customHeight="1">
       <c r="A113">
         <v>18.2</v>
       </c>
@@ -23777,11 +23891,12 @@
       <c r="C113" s="15" t="s">
         <v>4163</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="D113" s="15"/>
+      <c r="E113" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="57.95" customHeight="1">
+    <row r="114" spans="1:5" ht="57.95" customHeight="1">
       <c r="A114">
         <v>18.399999999999999</v>
       </c>
@@ -23791,11 +23906,12 @@
       <c r="C114" s="15" t="s">
         <v>4164</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="D114" s="15"/>
+      <c r="E114" s="13" t="s">
         <v>4165</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="57.95" customHeight="1">
+    <row r="115" spans="1:5" ht="57.95" customHeight="1">
       <c r="A115">
         <v>19</v>
       </c>
@@ -23803,8 +23919,9 @@
         <v>4166</v>
       </c>
       <c r="C115" s="15"/>
-    </row>
-    <row r="116" spans="1:4" ht="42" customHeight="1">
+      <c r="D115" s="15"/>
+    </row>
+    <row r="116" spans="1:5" ht="42" customHeight="1">
       <c r="A116" t="s">
         <v>4167</v>
       </c>
@@ -23814,11 +23931,12 @@
       <c r="C116" s="15" t="s">
         <v>4168</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="15"/>
+      <c r="E116" s="13" t="s">
         <v>4169</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>4170</v>
       </c>
@@ -23828,8 +23946,9 @@
       <c r="C117" s="15" t="s">
         <v>4171</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="D117" s="15"/>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>4172</v>
       </c>
@@ -23839,8 +23958,9 @@
       <c r="C118" s="15" t="s">
         <v>4173</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="25.5">
+      <c r="D118" s="15"/>
+    </row>
+    <row r="119" spans="1:5" ht="25.5">
       <c r="A119" t="s">
         <v>4174</v>
       </c>
@@ -23850,11 +23970,12 @@
       <c r="C119" s="15" t="s">
         <v>4175</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="15"/>
+      <c r="E119" s="13" t="s">
         <v>4169</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="25.5">
+    <row r="120" spans="1:5" ht="25.5">
       <c r="A120" t="s">
         <v>4176</v>
       </c>
@@ -23864,11 +23985,12 @@
       <c r="C120" s="15" t="s">
         <v>4177</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="15"/>
+      <c r="E120" s="13" t="s">
         <v>4169</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="25.5">
+    <row r="121" spans="1:5" ht="25.5">
       <c r="A121" t="s">
         <v>4178</v>
       </c>
@@ -23878,11 +24000,12 @@
       <c r="C121" s="15" t="s">
         <v>4179</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="D121" s="15"/>
+      <c r="E121" s="13" t="s">
         <v>4169</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>20</v>
       </c>
@@ -23890,8 +24013,9 @@
         <v>4180</v>
       </c>
       <c r="C122" s="15"/>
-    </row>
-    <row r="123" spans="1:4" ht="47.1" customHeight="1">
+      <c r="D122" s="15"/>
+    </row>
+    <row r="123" spans="1:5" ht="47.1" customHeight="1">
       <c r="A123" t="s">
         <v>4181</v>
       </c>
@@ -23901,11 +24025,12 @@
       <c r="C123" s="15" t="s">
         <v>4182</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="D123" s="15"/>
+      <c r="E123" s="13" t="s">
         <v>4183</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:5">
       <c r="A124" t="s">
         <v>4184</v>
       </c>
@@ -23915,11 +24040,12 @@
       <c r="C124" s="15" t="s">
         <v>4185</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="D124" s="15"/>
+      <c r="E124" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:5">
       <c r="A125" t="s">
         <v>4186</v>
       </c>
@@ -23929,11 +24055,12 @@
       <c r="C125" s="15" t="s">
         <v>4187</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="D125" s="15"/>
+      <c r="E125" s="13" t="s">
         <v>4188</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="47.1" customHeight="1">
+    <row r="126" spans="1:5" ht="47.1" customHeight="1">
       <c r="A126" t="s">
         <v>4189</v>
       </c>
@@ -23943,11 +24070,12 @@
       <c r="C126" s="15" t="s">
         <v>4190</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D126" s="15"/>
+      <c r="E126" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="38.25">
+    <row r="127" spans="1:5" ht="38.25">
       <c r="A127" t="s">
         <v>4191</v>
       </c>
@@ -23957,11 +24085,12 @@
       <c r="C127" s="15" t="s">
         <v>4192</v>
       </c>
-      <c r="D127" s="13" t="s">
+      <c r="D127" s="15"/>
+      <c r="E127" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="25.5">
+    <row r="128" spans="1:5" ht="25.5">
       <c r="A128" t="s">
         <v>4193</v>
       </c>
@@ -23971,11 +24100,12 @@
       <c r="C128" s="15" t="s">
         <v>4194</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="D128" s="15"/>
+      <c r="E128" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>4195</v>
       </c>
@@ -23985,11 +24115,12 @@
       <c r="C129" s="15" t="s">
         <v>4196</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="D129" s="15"/>
+      <c r="E129" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>4197</v>
       </c>
@@ -23999,11 +24130,12 @@
       <c r="C130" s="15" t="s">
         <v>4198</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D130" s="15"/>
+      <c r="E130" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>4199</v>
       </c>
@@ -24013,11 +24145,12 @@
       <c r="C131" s="15" t="s">
         <v>4200</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="D131" s="15"/>
+      <c r="E131" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="40.5" customHeight="1">
+    <row r="132" spans="1:5" ht="40.5" customHeight="1">
       <c r="A132" t="s">
         <v>4201</v>
       </c>
@@ -24027,11 +24160,12 @@
       <c r="C132" s="15" t="s">
         <v>4202</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="D132" s="15"/>
+      <c r="E132" s="13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="42.95" customHeight="1">
+    <row r="133" spans="1:5" ht="42.95" customHeight="1">
       <c r="A133">
         <v>20.399999999999999</v>
       </c>
@@ -24041,8 +24175,9 @@
       <c r="C133" s="15" t="s">
         <v>4203</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="25.5">
+      <c r="D133" s="15"/>
+    </row>
+    <row r="134" spans="1:5" ht="25.5">
       <c r="A134">
         <v>20.5</v>
       </c>
@@ -24052,8 +24187,9 @@
       <c r="C134" s="15" t="s">
         <v>4204</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="D134" s="15"/>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135">
         <v>21</v>
       </c>
@@ -24061,8 +24197,9 @@
         <v>4205</v>
       </c>
       <c r="C135" s="15"/>
-    </row>
-    <row r="136" spans="1:4" ht="50.45" customHeight="1">
+      <c r="D135" s="15"/>
+    </row>
+    <row r="136" spans="1:5" ht="50.45" customHeight="1">
       <c r="A136">
         <v>21.1</v>
       </c>
@@ -24072,11 +24209,12 @@
       <c r="C136" s="15" t="s">
         <v>4206</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="D136" s="15"/>
+      <c r="E136" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="51">
+    <row r="137" spans="1:5" ht="51">
       <c r="A137">
         <v>21.2</v>
       </c>
@@ -24086,11 +24224,12 @@
       <c r="C137" s="15" t="s">
         <v>4207</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="D137" s="15"/>
+      <c r="E137" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="32.450000000000003" customHeight="1">
+    <row r="138" spans="1:5" ht="32.450000000000003" customHeight="1">
       <c r="A138">
         <v>21.3</v>
       </c>
@@ -24100,11 +24239,12 @@
       <c r="C138" s="15" t="s">
         <v>4208</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="D138" s="15"/>
+      <c r="E138" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="38.25">
+    <row r="139" spans="1:5" ht="38.25">
       <c r="A139">
         <v>21.4</v>
       </c>
@@ -24114,11 +24254,12 @@
       <c r="C139" s="15" t="s">
         <v>4209</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="D139" s="15"/>
+      <c r="E139" s="13" t="s">
         <v>4210</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="25.5">
+    <row r="140" spans="1:5" ht="25.5">
       <c r="A140">
         <v>21.5</v>
       </c>
@@ -24128,11 +24269,12 @@
       <c r="C140" s="15" t="s">
         <v>4211</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="D140" s="15"/>
+      <c r="E140" s="13" t="s">
         <v>4210</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:5">
       <c r="A141">
         <v>22</v>
       </c>
@@ -24140,8 +24282,9 @@
         <v>4212</v>
       </c>
       <c r="C141" s="15"/>
-    </row>
-    <row r="142" spans="1:4" ht="42.95" customHeight="1">
+      <c r="D141" s="15"/>
+    </row>
+    <row r="142" spans="1:5" ht="42.95" customHeight="1">
       <c r="A142" t="s">
         <v>4213</v>
       </c>
@@ -24151,11 +24294,12 @@
       <c r="C142" s="15" t="s">
         <v>4214</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D142" s="15"/>
+      <c r="E142" s="13" t="s">
         <v>4215</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:5">
       <c r="A143" t="s">
         <v>4216</v>
       </c>
@@ -24165,11 +24309,12 @@
       <c r="C143" s="15" t="s">
         <v>4217</v>
       </c>
-      <c r="D143" s="13">
+      <c r="D143" s="15"/>
+      <c r="E143" s="13">
         <v>7.3</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="45">
+    <row r="144" spans="1:5" ht="45">
       <c r="A144" t="s">
         <v>4218</v>
       </c>
@@ -24179,11 +24324,12 @@
       <c r="C144" s="15" t="s">
         <v>4219</v>
       </c>
-      <c r="D144" s="13" t="s">
+      <c r="D144" s="15"/>
+      <c r="E144" s="13" t="s">
         <v>4220</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:5">
       <c r="A145" t="s">
         <v>4221</v>
       </c>
@@ -24193,11 +24339,12 @@
       <c r="C145" s="15" t="s">
         <v>4222</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="D145" s="15"/>
+      <c r="E145" s="13" t="s">
         <v>4223</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:5">
       <c r="A146" t="s">
         <v>4224</v>
       </c>
@@ -24207,11 +24354,12 @@
       <c r="C146" s="15" t="s">
         <v>4225</v>
       </c>
-      <c r="D146" s="13">
+      <c r="D146" s="15"/>
+      <c r="E146" s="13">
         <v>7.4</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:5">
       <c r="A147" t="s">
         <v>4226</v>
       </c>
@@ -24221,11 +24369,12 @@
       <c r="C147" s="15" t="s">
         <v>4227</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="D147" s="15"/>
+      <c r="E147" s="13" t="s">
         <v>1935</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:5">
       <c r="A148" t="s">
         <v>4228</v>
       </c>
@@ -24235,11 +24384,12 @@
       <c r="C148" s="15" t="s">
         <v>4229</v>
       </c>
-      <c r="D148" s="13">
+      <c r="D148" s="15"/>
+      <c r="E148" s="13">
         <v>7.4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="33.6" customHeight="1">
+    <row r="149" spans="1:5" ht="33.6" customHeight="1">
       <c r="A149">
         <v>22.2</v>
       </c>
@@ -24249,8 +24399,9 @@
       <c r="C149" s="15" t="s">
         <v>4230</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="30" customHeight="1">
+      <c r="D149" s="15"/>
+    </row>
+    <row r="150" spans="1:5" ht="30" customHeight="1">
       <c r="A150">
         <v>22.3</v>
       </c>
@@ -24260,8 +24411,9 @@
       <c r="C150" s="15" t="s">
         <v>4231</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="25.5">
+      <c r="D150" s="15"/>
+    </row>
+    <row r="151" spans="1:5" ht="25.5">
       <c r="A151">
         <v>22.4</v>
       </c>
@@ -24271,8 +24423,9 @@
       <c r="C151" s="15" t="s">
         <v>4232</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="D151" s="15"/>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152">
         <v>23</v>
       </c>
@@ -24280,8 +24433,9 @@
         <v>4233</v>
       </c>
       <c r="C152" s="15"/>
-    </row>
-    <row r="153" spans="1:4" ht="48" customHeight="1">
+      <c r="D152" s="15"/>
+    </row>
+    <row r="153" spans="1:5" ht="48" customHeight="1">
       <c r="A153" t="s">
         <v>4234</v>
       </c>
@@ -24291,11 +24445,12 @@
       <c r="C153" s="15" t="s">
         <v>4235</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D153" s="15"/>
+      <c r="E153" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:5">
       <c r="A154" t="s">
         <v>4236</v>
       </c>
@@ -24305,11 +24460,12 @@
       <c r="C154" s="15" t="s">
         <v>4237</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D154" s="15"/>
+      <c r="E154" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="26.45" customHeight="1">
+    <row r="155" spans="1:5" ht="26.45" customHeight="1">
       <c r="A155" t="s">
         <v>4238</v>
       </c>
@@ -24319,11 +24475,12 @@
       <c r="C155" s="15" t="s">
         <v>4239</v>
       </c>
-      <c r="D155" s="13" t="s">
+      <c r="D155" s="15"/>
+      <c r="E155" s="13" t="s">
         <v>4240</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="25.5">
+    <row r="156" spans="1:5" ht="25.5">
       <c r="A156" t="s">
         <v>4241</v>
       </c>
@@ -24333,11 +24490,12 @@
       <c r="C156" s="15" t="s">
         <v>4242</v>
       </c>
-      <c r="D156" s="13" t="s">
+      <c r="D156" s="15"/>
+      <c r="E156" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:5">
       <c r="A157" t="s">
         <v>4243</v>
       </c>
@@ -24347,11 +24505,12 @@
       <c r="C157" s="15" t="s">
         <v>4244</v>
       </c>
-      <c r="D157" s="13" t="s">
+      <c r="D157" s="15"/>
+      <c r="E157" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="25.5">
+    <row r="158" spans="1:5" ht="25.5">
       <c r="A158" t="s">
         <v>4245</v>
       </c>
@@ -24361,8 +24520,9 @@
       <c r="C158" s="15" t="s">
         <v>4246</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="25.5">
+      <c r="D158" s="15"/>
+    </row>
+    <row r="159" spans="1:5" ht="25.5">
       <c r="A159" t="s">
         <v>4247</v>
       </c>
@@ -24372,11 +24532,12 @@
       <c r="C159" s="15" t="s">
         <v>4248</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="D159" s="15"/>
+      <c r="E159" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:5">
       <c r="A160" t="s">
         <v>4249</v>
       </c>
@@ -24386,11 +24547,12 @@
       <c r="C160" s="15" t="s">
         <v>4250</v>
       </c>
-      <c r="D160" s="13" t="s">
+      <c r="D160" s="15"/>
+      <c r="E160" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="27.6" customHeight="1">
+    <row r="161" spans="1:5" ht="27.6" customHeight="1">
       <c r="A161">
         <v>23.2</v>
       </c>
@@ -24400,11 +24562,12 @@
       <c r="C161" s="15" t="s">
         <v>4251</v>
       </c>
-      <c r="D161" s="13" t="s">
+      <c r="D161" s="15"/>
+      <c r="E161" s="13" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:5">
       <c r="A162">
         <v>23.3</v>
       </c>
@@ -24414,11 +24577,12 @@
       <c r="C162" s="15" t="s">
         <v>4252</v>
       </c>
-      <c r="D162" s="13" t="s">
+      <c r="D162" s="15"/>
+      <c r="E162" s="13" t="s">
         <v>4253</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="25.5">
+    <row r="163" spans="1:5" ht="25.5">
       <c r="A163">
         <v>23.4</v>
       </c>
@@ -24428,11 +24592,12 @@
       <c r="C163" s="15" t="s">
         <v>4254</v>
       </c>
-      <c r="D163" s="13" t="s">
+      <c r="D163" s="15"/>
+      <c r="E163" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="25.5">
+    <row r="164" spans="1:5" ht="25.5">
       <c r="A164">
         <v>23.5</v>
       </c>
@@ -24442,8 +24607,9 @@
       <c r="C164" s="15" t="s">
         <v>4255</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="D164" s="15"/>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165">
         <v>24</v>
       </c>
@@ -24451,8 +24617,9 @@
         <v>4256</v>
       </c>
       <c r="C165" s="15"/>
-    </row>
-    <row r="166" spans="1:4" ht="60" customHeight="1">
+      <c r="D165" s="15"/>
+    </row>
+    <row r="166" spans="1:5" ht="60" customHeight="1">
       <c r="A166" t="s">
         <v>4257</v>
       </c>
@@ -24462,11 +24629,12 @@
       <c r="C166" s="15" t="s">
         <v>4258</v>
       </c>
-      <c r="D166" s="13" t="s">
+      <c r="D166" s="15"/>
+      <c r="E166" s="13" t="s">
         <v>4259</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="30">
+    <row r="167" spans="1:5" ht="30">
       <c r="A167" t="s">
         <v>4260</v>
       </c>
@@ -24476,11 +24644,12 @@
       <c r="C167" s="15" t="s">
         <v>4261</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D167" s="15"/>
+      <c r="E167" s="13" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="30">
+    <row r="168" spans="1:5" ht="30">
       <c r="A168" t="s">
         <v>4262</v>
       </c>
@@ -24490,11 +24659,12 @@
       <c r="C168" s="15" t="s">
         <v>4263</v>
       </c>
-      <c r="D168" s="13" t="s">
+      <c r="D168" s="15"/>
+      <c r="E168" s="13" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="30">
+    <row r="169" spans="1:5" ht="30">
       <c r="A169">
         <v>24.2</v>
       </c>
@@ -24504,11 +24674,12 @@
       <c r="C169" s="15" t="s">
         <v>4264</v>
       </c>
-      <c r="D169" s="13" t="s">
+      <c r="D169" s="15"/>
+      <c r="E169" s="13" t="s">
         <v>4265</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="45">
+    <row r="170" spans="1:5" ht="45">
       <c r="A170">
         <v>25</v>
       </c>
@@ -24516,8 +24687,9 @@
         <v>4266</v>
       </c>
       <c r="C170" s="15"/>
-    </row>
-    <row r="171" spans="1:4" ht="30.95" customHeight="1">
+      <c r="D170" s="15"/>
+    </row>
+    <row r="171" spans="1:5" ht="30.95" customHeight="1">
       <c r="A171">
         <v>25.1</v>
       </c>
@@ -24527,11 +24699,12 @@
       <c r="C171" s="15" t="s">
         <v>4267</v>
       </c>
-      <c r="D171" s="13" t="s">
+      <c r="D171" s="15"/>
+      <c r="E171" s="13" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="25.5">
+    <row r="172" spans="1:5" ht="25.5">
       <c r="A172" t="s">
         <v>4268</v>
       </c>
@@ -24541,11 +24714,12 @@
       <c r="C172" s="15" t="s">
         <v>4269</v>
       </c>
-      <c r="D172" s="13" t="s">
+      <c r="D172" s="15"/>
+      <c r="E172" s="13" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:5">
       <c r="A173" t="s">
         <v>4270</v>
       </c>
@@ -24555,11 +24729,12 @@
       <c r="C173" s="15" t="s">
         <v>4271</v>
       </c>
-      <c r="D173" s="13" t="s">
+      <c r="D173" s="15"/>
+      <c r="E173" s="13" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:5">
       <c r="A174" t="s">
         <v>4272</v>
       </c>
@@ -24569,11 +24744,12 @@
       <c r="C174" s="15" t="s">
         <v>4273</v>
       </c>
-      <c r="D174" s="13" t="s">
+      <c r="D174" s="15"/>
+      <c r="E174" s="13" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:5">
       <c r="A175" t="s">
         <v>4274</v>
       </c>
@@ -24583,11 +24759,12 @@
       <c r="C175" s="15" t="s">
         <v>4275</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="D175" s="15"/>
+      <c r="E175" s="13" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="38.25">
+    <row r="176" spans="1:5" ht="38.25">
       <c r="A176">
         <v>25.3</v>
       </c>
@@ -24597,11 +24774,12 @@
       <c r="C176" s="15" t="s">
         <v>4276</v>
       </c>
-      <c r="D176" s="13" t="s">
+      <c r="D176" s="15"/>
+      <c r="E176" s="13" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="25.5">
+    <row r="177" spans="1:5" ht="25.5">
       <c r="A177">
         <v>25.4</v>
       </c>
@@ -24611,11 +24789,12 @@
       <c r="C177" s="15" t="s">
         <v>4277</v>
       </c>
-      <c r="D177" s="13" t="s">
+      <c r="D177" s="15"/>
+      <c r="E177" s="13" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="33" customHeight="1">
+    <row r="178" spans="1:5" ht="33" customHeight="1">
       <c r="A178">
         <v>25.5</v>
       </c>
@@ -24625,8 +24804,9 @@
       <c r="C178" s="15" t="s">
         <v>4278</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="39.950000000000003" customHeight="1">
+      <c r="D178" s="15"/>
+    </row>
+    <row r="179" spans="1:5" ht="39.950000000000003" customHeight="1">
       <c r="A179">
         <v>25.6</v>
       </c>
@@ -24636,8 +24816,9 @@
       <c r="C179" s="15" t="s">
         <v>4279</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="18.95" customHeight="1">
+      <c r="D179" s="15"/>
+    </row>
+    <row r="180" spans="1:5" ht="18.95" customHeight="1">
       <c r="A180">
         <v>25.7</v>
       </c>
@@ -24647,8 +24828,9 @@
       <c r="C180" s="15" t="s">
         <v>4280</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="18.95" customHeight="1">
+      <c r="D180" s="15"/>
+    </row>
+    <row r="181" spans="1:5" ht="18.95" customHeight="1">
       <c r="A181">
         <v>26</v>
       </c>
@@ -24656,8 +24838,9 @@
         <v>4281</v>
       </c>
       <c r="C181" s="15"/>
-    </row>
-    <row r="182" spans="1:4" ht="40.5" customHeight="1">
+      <c r="D181" s="15"/>
+    </row>
+    <row r="182" spans="1:5" ht="40.5" customHeight="1">
       <c r="A182" t="s">
         <v>4282</v>
       </c>
@@ -24667,11 +24850,12 @@
       <c r="C182" s="15" t="s">
         <v>4283</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="D182" s="15"/>
+      <c r="E182" s="13" t="s">
         <v>4284</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="30">
+    <row r="183" spans="1:5" ht="30">
       <c r="A183" t="s">
         <v>4285</v>
       </c>
@@ -24681,11 +24865,12 @@
       <c r="C183" s="15" t="s">
         <v>4286</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D183" s="15"/>
+      <c r="E183" s="13" t="s">
         <v>4284</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="30">
+    <row r="184" spans="1:5" ht="30">
       <c r="A184" t="s">
         <v>4287</v>
       </c>
@@ -24695,11 +24880,12 @@
       <c r="C184" s="15" t="s">
         <v>4288</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D184" s="15"/>
+      <c r="E184" s="13" t="s">
         <v>4284</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="30">
+    <row r="185" spans="1:5" ht="30">
       <c r="A185" t="s">
         <v>4289</v>
       </c>
@@ -24709,11 +24895,12 @@
       <c r="C185" s="15" t="s">
         <v>4290</v>
       </c>
-      <c r="D185" s="13" t="s">
+      <c r="D185" s="15"/>
+      <c r="E185" s="13" t="s">
         <v>4284</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="30">
+    <row r="186" spans="1:5" ht="30">
       <c r="A186" t="s">
         <v>4291</v>
       </c>
@@ -24723,11 +24910,12 @@
       <c r="C186" s="15" t="s">
         <v>4292</v>
       </c>
-      <c r="D186" s="13" t="s">
+      <c r="D186" s="15"/>
+      <c r="E186" s="13" t="s">
         <v>4284</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="30">
+    <row r="187" spans="1:5" ht="30">
       <c r="A187" t="s">
         <v>4293</v>
       </c>
@@ -24737,11 +24925,12 @@
       <c r="C187" s="15" t="s">
         <v>4294</v>
       </c>
-      <c r="D187" s="13" t="s">
+      <c r="D187" s="15"/>
+      <c r="E187" s="13" t="s">
         <v>4284</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="26.45" customHeight="1">
+    <row r="188" spans="1:5" ht="26.45" customHeight="1">
       <c r="A188">
         <v>26.2</v>
       </c>
@@ -24751,11 +24940,12 @@
       <c r="C188" s="15" t="s">
         <v>4295</v>
       </c>
-      <c r="D188" s="13" t="s">
+      <c r="D188" s="15"/>
+      <c r="E188" s="13" t="s">
         <v>4296</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="41.45" customHeight="1">
+    <row r="189" spans="1:5" ht="41.45" customHeight="1">
       <c r="A189">
         <v>26.3</v>
       </c>
@@ -24765,8 +24955,9 @@
       <c r="C189" s="15" t="s">
         <v>4297</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="140.25">
+      <c r="D189" s="15"/>
+    </row>
+    <row r="190" spans="1:5" ht="140.25">
       <c r="A190">
         <v>26.4</v>
       </c>
@@ -24776,8 +24967,9 @@
       <c r="C190" s="15" t="s">
         <v>4298</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="45">
+      <c r="D190" s="15"/>
+    </row>
+    <row r="191" spans="1:5" ht="45">
       <c r="A191">
         <v>27</v>
       </c>
@@ -24785,8 +24977,9 @@
         <v>4299</v>
       </c>
       <c r="C191" s="15"/>
-    </row>
-    <row r="192" spans="1:4" ht="57.6" customHeight="1">
+      <c r="D191" s="15"/>
+    </row>
+    <row r="192" spans="1:5" ht="57.6" customHeight="1">
       <c r="A192">
         <v>27.1</v>
       </c>
@@ -24796,11 +24989,12 @@
       <c r="C192" s="15" t="s">
         <v>4300</v>
       </c>
-      <c r="D192" s="13" t="s">
+      <c r="D192" s="15"/>
+      <c r="E192" s="13" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="44.45" customHeight="1">
+    <row r="193" spans="1:5" ht="44.45" customHeight="1">
       <c r="A193">
         <v>27.2</v>
       </c>
@@ -24810,11 +25004,12 @@
       <c r="C193" s="15" t="s">
         <v>4301</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="D193" s="15"/>
+      <c r="E193" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="38.25">
+    <row r="194" spans="1:5" ht="38.25">
       <c r="A194" t="s">
         <v>4302</v>
       </c>
@@ -24824,11 +25019,12 @@
       <c r="C194" s="15" t="s">
         <v>4303</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D194" s="15"/>
+      <c r="E194" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="25.5">
+    <row r="195" spans="1:5" ht="25.5">
       <c r="A195" t="s">
         <v>4304</v>
       </c>
@@ -24838,11 +25034,12 @@
       <c r="C195" s="15" t="s">
         <v>4305</v>
       </c>
-      <c r="D195" s="13" t="s">
+      <c r="D195" s="15"/>
+      <c r="E195" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:5">
       <c r="A196" t="s">
         <v>4306</v>
       </c>
@@ -24852,11 +25049,12 @@
       <c r="C196" s="15" t="s">
         <v>4307</v>
       </c>
-      <c r="D196" s="13" t="s">
+      <c r="D196" s="15"/>
+      <c r="E196" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="32.1" customHeight="1">
+    <row r="197" spans="1:5" ht="32.1" customHeight="1">
       <c r="A197">
         <v>27.4</v>
       </c>
@@ -24866,11 +25064,12 @@
       <c r="C197" s="15" t="s">
         <v>4308</v>
       </c>
-      <c r="D197" s="13" t="s">
+      <c r="D197" s="15"/>
+      <c r="E197" s="13" t="s">
         <v>4309</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="44.45" customHeight="1">
+    <row r="198" spans="1:5" ht="44.45" customHeight="1">
       <c r="A198">
         <v>27.5</v>
       </c>
@@ -24880,11 +25079,12 @@
       <c r="C198" s="15" t="s">
         <v>4310</v>
       </c>
-      <c r="D198" s="13" t="s">
+      <c r="D198" s="15"/>
+      <c r="E198" s="13" t="s">
         <v>4309</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="44.45" customHeight="1">
+    <row r="199" spans="1:5" ht="44.45" customHeight="1">
       <c r="A199">
         <v>28</v>
       </c>
@@ -24892,8 +25092,9 @@
         <v>4311</v>
       </c>
       <c r="C199" s="15"/>
-    </row>
-    <row r="200" spans="1:4" ht="56.1" customHeight="1">
+      <c r="D199" s="15"/>
+    </row>
+    <row r="200" spans="1:5" ht="56.1" customHeight="1">
       <c r="A200" t="s">
         <v>4312</v>
       </c>
@@ -24903,11 +25104,12 @@
       <c r="C200" s="15" t="s">
         <v>4313</v>
       </c>
-      <c r="D200" s="13" t="s">
+      <c r="D200" s="15"/>
+      <c r="E200" s="13" t="s">
         <v>4314</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="30">
+    <row r="201" spans="1:5" ht="30">
       <c r="A201" t="s">
         <v>4315</v>
       </c>
@@ -24917,11 +25119,12 @@
       <c r="C201" s="15" t="s">
         <v>4316</v>
       </c>
-      <c r="D201" s="13" t="s">
+      <c r="D201" s="15"/>
+      <c r="E201" s="13" t="s">
         <v>4317</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:5">
       <c r="A202" t="s">
         <v>4318</v>
       </c>
@@ -24931,11 +25134,12 @@
       <c r="C202" s="15" t="s">
         <v>4319</v>
       </c>
-      <c r="D202" s="13" t="s">
+      <c r="D202" s="15"/>
+      <c r="E202" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:5">
       <c r="A203" t="s">
         <v>4320</v>
       </c>
@@ -24945,8 +25149,9 @@
       <c r="C203" s="15" t="s">
         <v>4321</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="D203" s="15"/>
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204">
         <v>28.2</v>
       </c>
@@ -24956,8 +25161,9 @@
       <c r="C204" s="15" t="s">
         <v>4322</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="38.25">
+      <c r="D204" s="15"/>
+    </row>
+    <row r="205" spans="1:5" ht="38.25">
       <c r="A205">
         <v>28.3</v>
       </c>
@@ -24967,8 +25173,9 @@
       <c r="C205" s="15" t="s">
         <v>4323</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="25.5">
+      <c r="D205" s="15"/>
+    </row>
+    <row r="206" spans="1:5" ht="25.5">
       <c r="A206">
         <v>28.4</v>
       </c>
@@ -24978,8 +25185,9 @@
       <c r="C206" s="15" t="s">
         <v>4324</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="D206" s="15"/>
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207">
         <v>29</v>
       </c>
@@ -24987,8 +25195,9 @@
         <v>4325</v>
       </c>
       <c r="C207" s="15"/>
-    </row>
-    <row r="208" spans="1:4" ht="30.6" customHeight="1">
+      <c r="D207" s="15"/>
+    </row>
+    <row r="208" spans="1:5" ht="30.6" customHeight="1">
       <c r="A208">
         <v>29.1</v>
       </c>
@@ -24998,11 +25207,12 @@
       <c r="C208" s="15" t="s">
         <v>4326</v>
       </c>
-      <c r="D208" s="13" t="s">
+      <c r="D208" s="15"/>
+      <c r="E208" s="13" t="s">
         <v>4327</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="27.6" customHeight="1">
+    <row r="209" spans="1:5" ht="27.6" customHeight="1">
       <c r="A209" t="s">
         <v>4328</v>
       </c>
@@ -25012,8 +25222,9 @@
       <c r="C209" s="15" t="s">
         <v>4329</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="D209" s="15"/>
+    </row>
+    <row r="210" spans="1:5">
       <c r="A210" t="s">
         <v>4330</v>
       </c>
@@ -25023,8 +25234,9 @@
       <c r="C210" s="15" t="s">
         <v>4331</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="D210" s="15"/>
+    </row>
+    <row r="211" spans="1:5">
       <c r="A211" t="s">
         <v>4332</v>
       </c>
@@ -25034,8 +25246,9 @@
       <c r="C211" s="15" t="s">
         <v>4333</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="D211" s="15"/>
+    </row>
+    <row r="212" spans="1:5">
       <c r="A212" t="s">
         <v>4334</v>
       </c>
@@ -25045,8 +25258,9 @@
       <c r="C212" s="15" t="s">
         <v>4335</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" ht="25.5">
+      <c r="D212" s="15"/>
+    </row>
+    <row r="213" spans="1:5" ht="25.5">
       <c r="A213" t="s">
         <v>4336</v>
       </c>
@@ -25056,8 +25270,9 @@
       <c r="C213" s="15" t="s">
         <v>4337</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="D213" s="15"/>
+    </row>
+    <row r="214" spans="1:5">
       <c r="A214" t="s">
         <v>4338</v>
       </c>
@@ -25067,8 +25282,9 @@
       <c r="C214" s="15" t="s">
         <v>4339</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="D214" s="15"/>
+    </row>
+    <row r="215" spans="1:5">
       <c r="A215" t="s">
         <v>4340</v>
       </c>
@@ -25078,8 +25294,9 @@
       <c r="C215" s="15" t="s">
         <v>4341</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="D215" s="15"/>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216">
         <v>29.3</v>
       </c>
@@ -25089,8 +25306,9 @@
       <c r="C216" s="15" t="s">
         <v>4342</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="38.25">
+      <c r="D216" s="15"/>
+    </row>
+    <row r="217" spans="1:5" ht="38.25">
       <c r="A217">
         <v>29.4</v>
       </c>
@@ -25100,8 +25318,9 @@
       <c r="C217" s="15" t="s">
         <v>4343</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="25.5">
+      <c r="D217" s="15"/>
+    </row>
+    <row r="218" spans="1:5" ht="25.5">
       <c r="A218">
         <v>29.5</v>
       </c>
@@ -25111,8 +25330,9 @@
       <c r="C218" s="15" t="s">
         <v>4344</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="25.5">
+      <c r="D218" s="15"/>
+    </row>
+    <row r="219" spans="1:5" ht="25.5">
       <c r="A219">
         <v>29.6</v>
       </c>
@@ -25122,8 +25342,9 @@
       <c r="C219" s="15" t="s">
         <v>4345</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="38.25">
+      <c r="D219" s="15"/>
+    </row>
+    <row r="220" spans="1:5" ht="38.25">
       <c r="A220">
         <v>29.7</v>
       </c>
@@ -25133,8 +25354,9 @@
       <c r="C220" s="15" t="s">
         <v>4346</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="D220" s="15"/>
+    </row>
+    <row r="221" spans="1:5">
       <c r="A221">
         <v>30</v>
       </c>
@@ -25142,8 +25364,9 @@
         <v>4347</v>
       </c>
       <c r="C221" s="15"/>
-    </row>
-    <row r="222" spans="1:4" ht="45" customHeight="1">
+      <c r="D221" s="15"/>
+    </row>
+    <row r="222" spans="1:5" ht="45" customHeight="1">
       <c r="A222" t="s">
         <v>849</v>
       </c>
@@ -25153,11 +25376,12 @@
       <c r="C222" s="15" t="s">
         <v>4348</v>
       </c>
-      <c r="D222" s="13" t="s">
+      <c r="D222" s="15"/>
+      <c r="E222" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="25.5">
+    <row r="223" spans="1:5" ht="25.5">
       <c r="A223" t="s">
         <v>850</v>
       </c>
@@ -25167,11 +25391,12 @@
       <c r="C223" s="15" t="s">
         <v>4349</v>
       </c>
-      <c r="D223" s="13" t="s">
+      <c r="D223" s="15"/>
+      <c r="E223" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="25.5">
+    <row r="224" spans="1:5" ht="25.5">
       <c r="A224" t="s">
         <v>851</v>
       </c>
@@ -25181,11 +25406,12 @@
       <c r="C224" s="15" t="s">
         <v>4350</v>
       </c>
-      <c r="D224" s="13" t="s">
+      <c r="D224" s="15"/>
+      <c r="E224" s="13" t="s">
         <v>4351</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="25.5">
+    <row r="225" spans="1:5" ht="25.5">
       <c r="A225" t="s">
         <v>852</v>
       </c>
@@ -25195,11 +25421,12 @@
       <c r="C225" s="15" t="s">
         <v>4352</v>
       </c>
-      <c r="D225" s="13" t="s">
+      <c r="D225" s="15"/>
+      <c r="E225" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="27.95" customHeight="1">
+    <row r="226" spans="1:5" ht="27.95" customHeight="1">
       <c r="A226" t="s">
         <v>854</v>
       </c>
@@ -25209,11 +25436,12 @@
       <c r="C226" s="15" t="s">
         <v>4353</v>
       </c>
-      <c r="D226" s="13" t="s">
+      <c r="D226" s="15"/>
+      <c r="E226" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:5">
       <c r="A227" t="s">
         <v>856</v>
       </c>
@@ -25223,11 +25451,12 @@
       <c r="C227" s="15" t="s">
         <v>4354</v>
       </c>
-      <c r="D227" s="13" t="s">
+      <c r="D227" s="15"/>
+      <c r="E227" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:5">
       <c r="A228" t="s">
         <v>858</v>
       </c>
@@ -25237,11 +25466,12 @@
       <c r="C228" s="15" t="s">
         <v>4355</v>
       </c>
-      <c r="D228" s="13" t="s">
+      <c r="D228" s="15"/>
+      <c r="E228" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="25.5">
+    <row r="229" spans="1:5" ht="25.5">
       <c r="A229">
         <v>30.2</v>
       </c>
@@ -25251,8 +25481,9 @@
       <c r="C229" s="15" t="s">
         <v>4356</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="25.5">
+      <c r="D229" s="15"/>
+    </row>
+    <row r="230" spans="1:5" ht="25.5">
       <c r="A230">
         <v>30.3</v>
       </c>
@@ -25262,11 +25493,12 @@
       <c r="C230" s="15" t="s">
         <v>4357</v>
       </c>
-      <c r="D230" s="13" t="s">
+      <c r="D230" s="15"/>
+      <c r="E230" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:5">
       <c r="A231">
         <v>31</v>
       </c>
@@ -25274,8 +25506,9 @@
         <v>4358</v>
       </c>
       <c r="C231" s="15"/>
-    </row>
-    <row r="232" spans="1:4" ht="30.6" customHeight="1">
+      <c r="D231" s="15"/>
+    </row>
+    <row r="232" spans="1:5" ht="30.6" customHeight="1">
       <c r="A232">
         <v>31.1</v>
       </c>
@@ -25285,11 +25518,12 @@
       <c r="C232" s="15" t="s">
         <v>4359</v>
       </c>
-      <c r="D232" s="13" t="s">
+      <c r="D232" s="15"/>
+      <c r="E232" s="13" t="s">
         <v>4360</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="38.25">
+    <row r="233" spans="1:5" ht="38.25">
       <c r="A233">
         <v>31.2</v>
       </c>
@@ -25299,11 +25533,12 @@
       <c r="C233" s="15" t="s">
         <v>4361</v>
       </c>
-      <c r="D233" s="13" t="s">
+      <c r="D233" s="15"/>
+      <c r="E233" s="13" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="35.1" customHeight="1">
+    <row r="234" spans="1:5" ht="35.1" customHeight="1">
       <c r="A234">
         <v>31.3</v>
       </c>
@@ -25313,11 +25548,12 @@
       <c r="C234" s="15" t="s">
         <v>4362</v>
       </c>
-      <c r="D234" s="13" t="s">
+      <c r="D234" s="15"/>
+      <c r="E234" s="13" t="s">
         <v>4363</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="35.1" customHeight="1">
+    <row r="235" spans="1:5" ht="35.1" customHeight="1">
       <c r="A235">
         <v>32</v>
       </c>
@@ -25325,8 +25561,9 @@
         <v>4364</v>
       </c>
       <c r="C235" s="15"/>
-    </row>
-    <row r="236" spans="1:4" ht="28.5" customHeight="1">
+      <c r="D235" s="15"/>
+    </row>
+    <row r="236" spans="1:5" ht="28.5" customHeight="1">
       <c r="A236">
         <v>32.1</v>
       </c>
@@ -25336,11 +25573,12 @@
       <c r="C236" s="15" t="s">
         <v>4365</v>
       </c>
-      <c r="D236" s="13" t="s">
+      <c r="D236" s="15"/>
+      <c r="E236" s="13" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="38.25">
+    <row r="237" spans="1:5" ht="38.25">
       <c r="A237" t="s">
         <v>4367</v>
       </c>
@@ -25350,11 +25588,12 @@
       <c r="C237" s="15" t="s">
         <v>4368</v>
       </c>
-      <c r="D237" s="13" t="s">
+      <c r="D237" s="15"/>
+      <c r="E237" s="13" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:5">
       <c r="A238" t="s">
         <v>4369</v>
       </c>
@@ -25364,11 +25603,12 @@
       <c r="C238" s="15" t="s">
         <v>4370</v>
       </c>
-      <c r="D238" s="13" t="s">
+      <c r="D238" s="15"/>
+      <c r="E238" s="13" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="25.5">
+    <row r="239" spans="1:5" ht="25.5">
       <c r="A239">
         <v>32.299999999999997</v>
       </c>
@@ -25378,11 +25618,12 @@
       <c r="C239" s="15" t="s">
         <v>4371</v>
       </c>
-      <c r="D239" s="13" t="s">
+      <c r="D239" s="15"/>
+      <c r="E239" s="13" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="38.25">
+    <row r="240" spans="1:5" ht="38.25">
       <c r="A240">
         <v>32.4</v>
       </c>
@@ -25392,11 +25633,12 @@
       <c r="C240" s="15" t="s">
         <v>4372</v>
       </c>
-      <c r="D240" s="13" t="s">
+      <c r="D240" s="15"/>
+      <c r="E240" s="13" t="s">
         <v>4366</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:5">
       <c r="A241">
         <v>33</v>
       </c>
@@ -25404,8 +25646,9 @@
         <v>4373</v>
       </c>
       <c r="C241" s="15"/>
-    </row>
-    <row r="242" spans="1:4" ht="41.1" customHeight="1">
+      <c r="D241" s="15"/>
+    </row>
+    <row r="242" spans="1:5" ht="41.1" customHeight="1">
       <c r="A242">
         <v>33.1</v>
       </c>
@@ -25415,11 +25658,12 @@
       <c r="C242" s="15" t="s">
         <v>4374</v>
       </c>
-      <c r="D242" s="13" t="s">
+      <c r="D242" s="15"/>
+      <c r="E242" s="13" t="s">
         <v>4375</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:5">
       <c r="A243">
         <v>33.200000000000003</v>
       </c>
@@ -25429,8 +25673,9 @@
       <c r="C243" s="15" t="s">
         <v>4376</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="D243" s="15"/>
+    </row>
+    <row r="244" spans="1:5">
       <c r="A244">
         <v>34</v>
       </c>
@@ -25438,8 +25683,9 @@
         <v>4377</v>
       </c>
       <c r="C244" s="15"/>
-    </row>
-    <row r="245" spans="1:4" ht="45.95" customHeight="1">
+      <c r="D244" s="15"/>
+    </row>
+    <row r="245" spans="1:5" ht="45.95" customHeight="1">
       <c r="A245" t="s">
         <v>4378</v>
       </c>
@@ -25449,11 +25695,12 @@
       <c r="C245" s="15" t="s">
         <v>4379</v>
       </c>
-      <c r="D245" s="13" t="s">
+      <c r="D245" s="15"/>
+      <c r="E245" s="13" t="s">
         <v>4380</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="27" customHeight="1">
+    <row r="246" spans="1:5" ht="27" customHeight="1">
       <c r="A246" t="s">
         <v>4381</v>
       </c>
@@ -25463,11 +25710,12 @@
       <c r="C246" s="15" t="s">
         <v>4382</v>
       </c>
-      <c r="D246" s="13" t="s">
+      <c r="D246" s="15"/>
+      <c r="E246" s="13" t="s">
         <v>4383</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="28.5" customHeight="1">
+    <row r="247" spans="1:5" ht="28.5" customHeight="1">
       <c r="A247" t="s">
         <v>4384</v>
       </c>
@@ -25477,8 +25725,9 @@
       <c r="C247" s="15" t="s">
         <v>4385</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" ht="63.75">
+      <c r="D247" s="15"/>
+    </row>
+    <row r="248" spans="1:5" ht="63.75">
       <c r="A248" t="s">
         <v>4386</v>
       </c>
@@ -25488,8 +25737,9 @@
       <c r="C248" s="15" t="s">
         <v>4387</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" ht="25.5">
+      <c r="D248" s="15"/>
+    </row>
+    <row r="249" spans="1:5" ht="25.5">
       <c r="A249" t="s">
         <v>4388</v>
       </c>
@@ -25499,11 +25749,12 @@
       <c r="C249" s="15" t="s">
         <v>4389</v>
       </c>
-      <c r="D249" s="13" t="s">
+      <c r="D249" s="15"/>
+      <c r="E249" s="13" t="s">
         <v>4375</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:5">
       <c r="A250" t="s">
         <v>4390</v>
       </c>
@@ -25513,11 +25764,12 @@
       <c r="C250" s="15" t="s">
         <v>4391</v>
       </c>
-      <c r="D250" s="13" t="s">
+      <c r="D250" s="15"/>
+      <c r="E250" s="13" t="s">
         <v>4375</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="25.5">
+    <row r="251" spans="1:5" ht="25.5">
       <c r="A251" t="s">
         <v>4392</v>
       </c>
@@ -25527,11 +25779,12 @@
       <c r="C251" s="15" t="s">
         <v>4393</v>
       </c>
-      <c r="D251" s="13" t="s">
+      <c r="D251" s="15"/>
+      <c r="E251" s="13" t="s">
         <v>4375</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="51">
+    <row r="252" spans="1:5" ht="51">
       <c r="A252" t="s">
         <v>4394</v>
       </c>
@@ -25541,11 +25794,12 @@
       <c r="C252" s="15" t="s">
         <v>4395</v>
       </c>
-      <c r="D252" s="13" t="s">
+      <c r="D252" s="15"/>
+      <c r="E252" s="13" t="s">
         <v>4375</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="38.25">
+    <row r="253" spans="1:5" ht="38.25">
       <c r="A253" t="s">
         <v>4396</v>
       </c>
@@ -25555,11 +25809,12 @@
       <c r="C253" s="15" t="s">
         <v>4397</v>
       </c>
-      <c r="D253" s="13" t="s">
+      <c r="D253" s="15"/>
+      <c r="E253" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="25.5">
+    <row r="254" spans="1:5" ht="25.5">
       <c r="A254">
         <v>34.299999999999997</v>
       </c>
@@ -25569,11 +25824,12 @@
       <c r="C254" s="15" t="s">
         <v>4398</v>
       </c>
-      <c r="D254" s="13" t="s">
+      <c r="D254" s="15"/>
+      <c r="E254" s="13" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="114.75">
+    <row r="255" spans="1:5" ht="114.75">
       <c r="A255">
         <v>35</v>
       </c>
@@ -25583,8 +25839,9 @@
       <c r="C255" s="15" t="s">
         <v>4400</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" ht="38.25">
+      <c r="D255" s="15"/>
+    </row>
+    <row r="256" spans="1:5" ht="38.25">
       <c r="A256" t="s">
         <v>4401</v>
       </c>
@@ -25594,11 +25851,12 @@
       <c r="C256" s="15" t="s">
         <v>4402</v>
       </c>
-      <c r="D256" s="13" t="s">
+      <c r="D256" s="15"/>
+      <c r="E256" s="13" t="s">
         <v>4403</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="30.95" customHeight="1">
+    <row r="257" spans="1:5" ht="30.95" customHeight="1">
       <c r="A257" t="s">
         <v>4404</v>
       </c>
@@ -25608,8 +25866,9 @@
       <c r="C257" s="15" t="s">
         <v>4405</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" ht="30.95" customHeight="1">
+      <c r="D257" s="15"/>
+    </row>
+    <row r="258" spans="1:5" ht="30.95" customHeight="1">
       <c r="A258">
         <v>36</v>
       </c>
@@ -25617,8 +25876,9 @@
         <v>4406</v>
       </c>
       <c r="C258" s="15"/>
-    </row>
-    <row r="259" spans="1:4" ht="63.75">
+      <c r="D258" s="15"/>
+    </row>
+    <row r="259" spans="1:5" ht="63.75">
       <c r="A259" t="s">
         <v>4407</v>
       </c>
@@ -25628,11 +25888,12 @@
       <c r="C259" s="15" t="s">
         <v>4408</v>
       </c>
-      <c r="D259" s="13" t="s">
+      <c r="D259" s="15"/>
+      <c r="E259" s="13" t="s">
         <v>4409</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="25.5">
+    <row r="260" spans="1:5" ht="25.5">
       <c r="A260" t="s">
         <v>4410</v>
       </c>
@@ -25642,11 +25903,12 @@
       <c r="C260" s="15" t="s">
         <v>4411</v>
       </c>
-      <c r="D260" s="13" t="s">
+      <c r="D260" s="15"/>
+      <c r="E260" s="13" t="s">
         <v>4409</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:5">
       <c r="A261" t="s">
         <v>4412</v>
       </c>
@@ -25656,11 +25918,12 @@
       <c r="C261" s="15" t="s">
         <v>4413</v>
       </c>
-      <c r="D261" s="13" t="s">
+      <c r="D261" s="15"/>
+      <c r="E261" s="13" t="s">
         <v>4409</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="25.5">
+    <row r="262" spans="1:5" ht="25.5">
       <c r="A262" t="s">
         <v>4414</v>
       </c>
@@ -25670,11 +25933,12 @@
       <c r="C262" s="15" t="s">
         <v>4415</v>
       </c>
-      <c r="D262" s="13" t="s">
+      <c r="D262" s="15"/>
+      <c r="E262" s="13" t="s">
         <v>4409</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="25.5">
+    <row r="263" spans="1:5" ht="25.5">
       <c r="A263" t="s">
         <v>4416</v>
       </c>
@@ -25684,11 +25948,12 @@
       <c r="C263" s="15" t="s">
         <v>4417</v>
       </c>
-      <c r="D263" s="13" t="s">
+      <c r="D263" s="15"/>
+      <c r="E263" s="13" t="s">
         <v>4409</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="75">
+    <row r="264" spans="1:5" ht="75">
       <c r="A264">
         <v>37</v>
       </c>
@@ -25698,11 +25963,12 @@
       <c r="C264" s="15" t="s">
         <v>4419</v>
       </c>
-      <c r="D264" s="13" t="s">
+      <c r="D264" s="15"/>
+      <c r="E264" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="75">
+    <row r="265" spans="1:5" ht="75">
       <c r="A265">
         <v>38</v>
       </c>
@@ -25712,11 +25978,12 @@
       <c r="C265" s="15" t="s">
         <v>4421</v>
       </c>
-      <c r="D265" s="13" t="s">
+      <c r="D265" s="15"/>
+      <c r="E265" s="13" t="s">
         <v>4403</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:5">
       <c r="A266" t="s">
         <v>4422</v>
       </c>
@@ -25726,11 +25993,12 @@
       <c r="C266" s="15" t="s">
         <v>4423</v>
       </c>
-      <c r="D266" s="13" t="s">
+      <c r="D266" s="15"/>
+      <c r="E266" s="13" t="s">
         <v>4424</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="30">
+    <row r="267" spans="1:5" ht="30">
       <c r="A267" t="s">
         <v>4425</v>
       </c>
@@ -25740,11 +26008,12 @@
       <c r="C267" s="15" t="s">
         <v>4426</v>
       </c>
-      <c r="D267" s="13" t="s">
+      <c r="D267" s="15"/>
+      <c r="E267" s="13" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="30">
+    <row r="268" spans="1:5" ht="30">
       <c r="A268" t="s">
         <v>4427</v>
       </c>
@@ -25754,11 +26023,12 @@
       <c r="C268" s="15" t="s">
         <v>4428</v>
       </c>
-      <c r="D268" s="13" t="s">
+      <c r="D268" s="15"/>
+      <c r="E268" s="13" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="30">
+    <row r="269" spans="1:5" ht="30">
       <c r="A269" t="s">
         <v>4429</v>
       </c>
@@ -25768,11 +26038,12 @@
       <c r="C269" s="15" t="s">
         <v>4430</v>
       </c>
-      <c r="D269" s="13" t="s">
+      <c r="D269" s="15"/>
+      <c r="E269" s="13" t="s">
         <v>4431</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="30">
+    <row r="270" spans="1:5" ht="30">
       <c r="A270" t="s">
         <v>4432</v>
       </c>
@@ -25782,11 +26053,12 @@
       <c r="C270" s="15" t="s">
         <v>4433</v>
       </c>
-      <c r="D270" s="13" t="s">
+      <c r="D270" s="15"/>
+      <c r="E270" s="13" t="s">
         <v>4434</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:5">
       <c r="A271">
         <v>39</v>
       </c>
@@ -25794,8 +26066,9 @@
         <v>4435</v>
       </c>
       <c r="C271" s="15"/>
-    </row>
-    <row r="272" spans="1:4" ht="38.25">
+      <c r="D271" s="15"/>
+    </row>
+    <row r="272" spans="1:5" ht="38.25">
       <c r="A272">
         <v>39.1</v>
       </c>
@@ -25805,11 +26078,12 @@
       <c r="C272" s="15" t="s">
         <v>4436</v>
       </c>
-      <c r="D272" s="13" t="s">
+      <c r="D272" s="15"/>
+      <c r="E272" s="13" t="s">
         <v>4403</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="25.5">
+    <row r="273" spans="1:5" ht="25.5">
       <c r="A273">
         <v>39.200000000000003</v>
       </c>
@@ -25819,8 +26093,9 @@
       <c r="C273" s="15" t="s">
         <v>4437</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="D273" s="15"/>
+    </row>
+    <row r="274" spans="1:5">
       <c r="A274" t="s">
         <v>4438</v>
       </c>
@@ -25830,8 +26105,9 @@
       <c r="C274" s="15" t="s">
         <v>4439</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="D274" s="15"/>
+    </row>
+    <row r="275" spans="1:5">
       <c r="A275" t="s">
         <v>4440</v>
       </c>
@@ -25841,8 +26117,9 @@
       <c r="C275" s="15" t="s">
         <v>4441</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="D275" s="15"/>
+    </row>
+    <row r="276" spans="1:5">
       <c r="A276" t="s">
         <v>4442</v>
       </c>
@@ -25852,8 +26129,9 @@
       <c r="C276" s="15" t="s">
         <v>4443</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" ht="248.45" customHeight="1">
+      <c r="D276" s="15"/>
+    </row>
+    <row r="277" spans="1:5" ht="248.45" customHeight="1">
       <c r="A277">
         <v>40</v>
       </c>
@@ -25863,11 +26141,12 @@
       <c r="C277" s="15" t="s">
         <v>4445</v>
       </c>
-      <c r="D277" s="13" t="s">
+      <c r="D277" s="15"/>
+      <c r="E277" s="13" t="s">
         <v>4431</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="89.25">
+    <row r="278" spans="1:5" ht="89.25">
       <c r="A278">
         <v>41</v>
       </c>
@@ -25877,8 +26156,9 @@
       <c r="C278" s="15" t="s">
         <v>4447</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" ht="204">
+      <c r="D278" s="15"/>
+    </row>
+    <row r="279" spans="1:5" ht="204">
       <c r="A279">
         <v>42</v>
       </c>
@@ -25888,8 +26168,9 @@
       <c r="C279" s="15" t="s">
         <v>4449</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" ht="140.25">
+      <c r="D279" s="15"/>
+    </row>
+    <row r="280" spans="1:5" ht="140.25">
       <c r="A280">
         <v>43</v>
       </c>
@@ -25899,8 +26180,9 @@
       <c r="C280" s="15" t="s">
         <v>4451</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="114.75">
+      <c r="D280" s="15"/>
+    </row>
+    <row r="281" spans="1:5" ht="114.75">
       <c r="A281">
         <v>44</v>
       </c>
@@ -25910,8 +26192,9 @@
       <c r="C281" s="15" t="s">
         <v>4453</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" ht="38.25">
+      <c r="D281" s="15"/>
+    </row>
+    <row r="282" spans="1:5" ht="38.25">
       <c r="A282">
         <v>45</v>
       </c>
@@ -25921,8 +26204,9 @@
       <c r="C282" s="15" t="s">
         <v>4455</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" ht="127.5">
+      <c r="D282" s="15"/>
+    </row>
+    <row r="283" spans="1:5" ht="127.5">
       <c r="A283">
         <v>46</v>
       </c>
@@ -25932,8 +26216,9 @@
       <c r="C283" s="15" t="s">
         <v>4457</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" ht="51">
+      <c r="D283" s="15"/>
+    </row>
+    <row r="284" spans="1:5" ht="51">
       <c r="A284">
         <v>47</v>
       </c>
@@ -25943,8 +26228,9 @@
       <c r="C284" s="15" t="s">
         <v>4459</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" ht="51">
+      <c r="D284" s="15"/>
+    </row>
+    <row r="285" spans="1:5" ht="51">
       <c r="A285">
         <v>48</v>
       </c>
@@ -25954,8 +26240,9 @@
       <c r="C285" s="15" t="s">
         <v>4461</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="382.5">
+      <c r="D285" s="15"/>
+    </row>
+    <row r="286" spans="1:5" ht="382.5">
       <c r="A286">
         <v>49</v>
       </c>
@@ -25965,8 +26252,9 @@
       <c r="C286" s="15" t="s">
         <v>4463</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" ht="409.5" customHeight="1">
+      <c r="D286" s="15"/>
+    </row>
+    <row r="287" spans="1:5" ht="409.5" customHeight="1">
       <c r="A287">
         <v>50</v>
       </c>
@@ -25976,11 +26264,12 @@
       <c r="C287" s="15" t="s">
         <v>4465</v>
       </c>
-      <c r="D287" s="13" t="s">
+      <c r="D287" s="15"/>
+      <c r="E287" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="102">
+    <row r="288" spans="1:5" ht="102">
       <c r="A288">
         <v>51</v>
       </c>
@@ -25990,8 +26279,9 @@
       <c r="C288" s="15" t="s">
         <v>4467</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" ht="114.75">
+      <c r="D288" s="15"/>
+    </row>
+    <row r="289" spans="1:5" ht="114.75">
       <c r="A289">
         <v>52</v>
       </c>
@@ -26001,8 +26291,9 @@
       <c r="C289" s="15" t="s">
         <v>4469</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" ht="51.6" customHeight="1">
+      <c r="D289" s="15"/>
+    </row>
+    <row r="290" spans="1:5" ht="51.6" customHeight="1">
       <c r="A290">
         <v>53</v>
       </c>
@@ -26012,8 +26303,9 @@
       <c r="C290" s="15" t="s">
         <v>4471</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" ht="126.6" customHeight="1">
+      <c r="D290" s="15"/>
+    </row>
+    <row r="291" spans="1:5" ht="126.6" customHeight="1">
       <c r="A291">
         <v>54</v>
       </c>
@@ -26023,8 +26315,9 @@
       <c r="C291" s="15" t="s">
         <v>4473</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" ht="218.45" customHeight="1">
+      <c r="D291" s="15"/>
+    </row>
+    <row r="292" spans="1:5" ht="218.45" customHeight="1">
       <c r="A292">
         <v>55</v>
       </c>
@@ -26034,8 +26327,9 @@
       <c r="C292" s="15" t="s">
         <v>4475</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="75">
+      <c r="D292" s="15"/>
+    </row>
+    <row r="293" spans="1:5" ht="75">
       <c r="A293">
         <v>56</v>
       </c>
@@ -26045,8 +26339,9 @@
       <c r="C293" s="15" t="s">
         <v>4477</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" ht="51">
+      <c r="D293" s="15"/>
+    </row>
+    <row r="294" spans="1:5" ht="51">
       <c r="A294">
         <v>57</v>
       </c>
@@ -26054,8 +26349,9 @@
         <v>4478</v>
       </c>
       <c r="C294" s="15"/>
-    </row>
-    <row r="295" spans="1:4" ht="51">
+      <c r="D294" s="15"/>
+    </row>
+    <row r="295" spans="1:5" ht="51">
       <c r="A295">
         <v>57.1</v>
       </c>
@@ -26065,11 +26361,12 @@
       <c r="C295" s="15" t="s">
         <v>4479</v>
       </c>
-      <c r="D295" s="13" t="s">
+      <c r="D295" s="15"/>
+      <c r="E295" s="13" t="s">
         <v>4480</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="27.95" customHeight="1">
+    <row r="296" spans="1:5" ht="27.95" customHeight="1">
       <c r="A296" t="s">
         <v>4481</v>
       </c>
@@ -26079,11 +26376,12 @@
       <c r="C296" s="15" t="s">
         <v>4482</v>
       </c>
-      <c r="D296" s="13" t="s">
+      <c r="D296" s="15"/>
+      <c r="E296" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="30">
+    <row r="297" spans="1:5" ht="30">
       <c r="A297" t="s">
         <v>4483</v>
       </c>
@@ -26093,11 +26391,12 @@
       <c r="C297" s="15" t="s">
         <v>4484</v>
       </c>
-      <c r="D297" s="13" t="s">
+      <c r="D297" s="15"/>
+      <c r="E297" s="13" t="s">
         <v>4296</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:5">
       <c r="A298" t="s">
         <v>4485</v>
       </c>
@@ -26107,11 +26406,12 @@
       <c r="C298" s="15" t="s">
         <v>4486</v>
       </c>
-      <c r="D298" s="13" t="s">
+      <c r="D298" s="15"/>
+      <c r="E298" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="30">
+    <row r="299" spans="1:5" ht="30">
       <c r="A299" t="s">
         <v>4487</v>
       </c>
@@ -26121,11 +26421,12 @@
       <c r="C299" s="15" t="s">
         <v>4488</v>
       </c>
-      <c r="D299" s="13" t="s">
+      <c r="D299" s="15"/>
+      <c r="E299" s="13" t="s">
         <v>4489</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:5">
       <c r="A300" t="s">
         <v>4490</v>
       </c>
@@ -26135,11 +26436,12 @@
       <c r="C300" s="15" t="s">
         <v>4491</v>
       </c>
-      <c r="D300" s="13" t="s">
+      <c r="D300" s="15"/>
+      <c r="E300" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="51">
+    <row r="301" spans="1:5" ht="51">
       <c r="A301">
         <v>57.2</v>
       </c>
@@ -26149,8 +26451,9 @@
       <c r="C301" s="15" t="s">
         <v>4492</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="45">
+      <c r="D301" s="15"/>
+    </row>
+    <row r="302" spans="1:5" ht="45">
       <c r="A302" t="s">
         <v>4493</v>
       </c>
@@ -26160,11 +26463,12 @@
       <c r="C302" s="15" t="s">
         <v>4494</v>
       </c>
-      <c r="D302" s="13" t="s">
+      <c r="D302" s="15"/>
+      <c r="E302" s="13" t="s">
         <v>4495</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:5">
       <c r="A303" t="s">
         <v>4496</v>
       </c>
@@ -26174,11 +26478,12 @@
       <c r="C303" s="15" t="s">
         <v>4497</v>
       </c>
-      <c r="D303" s="13" t="s">
+      <c r="D303" s="15"/>
+      <c r="E303" s="13" t="s">
         <v>4498</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="30">
+    <row r="304" spans="1:5" ht="30">
       <c r="A304" t="s">
         <v>4499</v>
       </c>
@@ -26188,11 +26493,12 @@
       <c r="C304" s="15" t="s">
         <v>4500</v>
       </c>
-      <c r="D304" s="13" t="s">
+      <c r="D304" s="15"/>
+      <c r="E304" s="13" t="s">
         <v>4259</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:5">
       <c r="A305" t="s">
         <v>4501</v>
       </c>
@@ -26202,11 +26508,12 @@
       <c r="C305" s="15" t="s">
         <v>4502</v>
       </c>
-      <c r="D305" s="13" t="s">
+      <c r="D305" s="15"/>
+      <c r="E305" s="13" t="s">
         <v>4375</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:5">
       <c r="A306">
         <v>57.3</v>
       </c>
@@ -26216,8 +26523,9 @@
       <c r="C306" s="15" t="s">
         <v>4503</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" ht="38.25">
+      <c r="D306" s="15"/>
+    </row>
+    <row r="307" spans="1:5" ht="38.25">
       <c r="A307" t="s">
         <v>4504</v>
       </c>
@@ -26227,8 +26535,9 @@
       <c r="C307" s="15" t="s">
         <v>4505</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" ht="38.25">
+      <c r="D307" s="15"/>
+    </row>
+    <row r="308" spans="1:5" ht="38.25">
       <c r="A308" t="s">
         <v>4506</v>
       </c>
@@ -26238,8 +26547,9 @@
       <c r="C308" s="15" t="s">
         <v>4507</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="D308" s="15"/>
+    </row>
+    <row r="309" spans="1:5">
       <c r="A309" t="s">
         <v>4508</v>
       </c>
@@ -26249,8 +26559,9 @@
       <c r="C309" s="15" t="s">
         <v>4509</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" ht="25.5">
+      <c r="D309" s="15"/>
+    </row>
+    <row r="310" spans="1:5" ht="25.5">
       <c r="A310" t="s">
         <v>4510</v>
       </c>
@@ -26260,8 +26571,9 @@
       <c r="C310" s="15" t="s">
         <v>4511</v>
       </c>
-    </row>
-    <row r="311" spans="1:4">
+      <c r="D310" s="15"/>
+    </row>
+    <row r="311" spans="1:5">
       <c r="A311" t="s">
         <v>4512</v>
       </c>
@@ -26271,8 +26583,9 @@
       <c r="C311" s="15" t="s">
         <v>4513</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" ht="25.5">
+      <c r="D311" s="15"/>
+    </row>
+    <row r="312" spans="1:5" ht="25.5">
       <c r="A312" t="s">
         <v>4514</v>
       </c>
@@ -26282,8 +26595,9 @@
       <c r="C312" s="15" t="s">
         <v>4515</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" ht="53.25" customHeight="1">
+      <c r="D312" s="15"/>
+    </row>
+    <row r="313" spans="1:5" ht="53.25" customHeight="1">
       <c r="A313">
         <v>58</v>
       </c>
@@ -26293,11 +26607,12 @@
       <c r="C313" s="15" t="s">
         <v>4517</v>
       </c>
-      <c r="D313" s="13" t="s">
+      <c r="D313" s="15"/>
+      <c r="E313" s="13" t="s">
         <v>4518</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="55.5" customHeight="1">
+    <row r="314" spans="1:5" ht="55.5" customHeight="1">
       <c r="A314">
         <v>59</v>
       </c>
@@ -26307,11 +26622,12 @@
       <c r="C314" s="15" t="s">
         <v>4520</v>
       </c>
-      <c r="D314" s="13" t="s">
+      <c r="D314" s="15"/>
+      <c r="E314" s="13" t="s">
         <v>4521</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="75">
+    <row r="315" spans="1:5" ht="75">
       <c r="A315">
         <v>60</v>
       </c>
@@ -26321,11 +26637,12 @@
       <c r="C315" s="15" t="s">
         <v>4523</v>
       </c>
-      <c r="D315" s="13" t="s">
+      <c r="D315" s="15"/>
+      <c r="E315" s="13" t="s">
         <v>4524</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="52.5" customHeight="1">
+    <row r="316" spans="1:5" ht="52.5" customHeight="1">
       <c r="A316">
         <v>61</v>
       </c>
@@ -26335,11 +26652,12 @@
       <c r="C316" s="15" t="s">
         <v>4526</v>
       </c>
-      <c r="D316" s="13" t="s">
+      <c r="D316" s="15"/>
+      <c r="E316" s="13" t="s">
         <v>4524</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="140.25">
+    <row r="317" spans="1:5" ht="140.25">
       <c r="A317">
         <v>62</v>
       </c>
@@ -26349,11 +26667,12 @@
       <c r="C317" s="15" t="s">
         <v>4528</v>
       </c>
-      <c r="D317" s="13" t="s">
+      <c r="D317" s="15"/>
+      <c r="E317" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="324" customHeight="1">
+    <row r="318" spans="1:5" ht="324" customHeight="1">
       <c r="A318">
         <v>63</v>
       </c>
@@ -26363,8 +26682,9 @@
       <c r="C318" s="15" t="s">
         <v>4530</v>
       </c>
-    </row>
-    <row r="319" spans="1:4">
+      <c r="D318" s="15"/>
+    </row>
+    <row r="319" spans="1:5">
       <c r="A319">
         <v>64</v>
       </c>
@@ -26372,8 +26692,9 @@
         <v>4531</v>
       </c>
       <c r="C319" s="15"/>
-    </row>
-    <row r="320" spans="1:4" ht="45.6" customHeight="1">
+      <c r="D319" s="15"/>
+    </row>
+    <row r="320" spans="1:5" ht="45.6" customHeight="1">
       <c r="A320">
         <v>64.099999999999994</v>
       </c>
@@ -26383,11 +26704,12 @@
       <c r="C320" s="15" t="s">
         <v>4532</v>
       </c>
-      <c r="D320" s="13" t="s">
+      <c r="D320" s="15"/>
+      <c r="E320" s="13" t="s">
         <v>4533</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="15.6" customHeight="1">
+    <row r="321" spans="1:8" ht="15.6" customHeight="1">
       <c r="A321">
         <v>64.2</v>
       </c>
@@ -26397,11 +26719,12 @@
       <c r="C321" s="15" t="s">
         <v>4534</v>
       </c>
-      <c r="D321" s="13" t="s">
+      <c r="D321" s="15"/>
+      <c r="E321" s="13" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="42.6" customHeight="1">
+    <row r="322" spans="1:8" ht="42.6" customHeight="1">
       <c r="A322">
         <v>64.3</v>
       </c>
@@ -26411,11 +26734,12 @@
       <c r="C322" s="15" t="s">
         <v>4535</v>
       </c>
-      <c r="D322" s="13" t="s">
+      <c r="D322" s="15"/>
+      <c r="E322" s="13" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="41.45" customHeight="1">
+    <row r="323" spans="1:8" ht="41.45" customHeight="1">
       <c r="A323" t="s">
         <v>4536</v>
       </c>
@@ -26425,12 +26749,13 @@
       <c r="C323" s="15" t="s">
         <v>4537</v>
       </c>
-      <c r="D323" s="13" t="s">
+      <c r="D323" s="15"/>
+      <c r="E323" s="13" t="s">
         <v>4538</v>
       </c>
-      <c r="G323" s="13"/>
-    </row>
-    <row r="324" spans="1:7" ht="15.6" customHeight="1">
+      <c r="H323" s="13"/>
+    </row>
+    <row r="324" spans="1:8" ht="15.6" customHeight="1">
       <c r="A324" t="s">
         <v>4539</v>
       </c>
@@ -26440,12 +26765,13 @@
       <c r="C324" s="15" t="s">
         <v>4540</v>
       </c>
-      <c r="D324" s="13" t="s">
+      <c r="D324" s="15"/>
+      <c r="E324" s="13" t="s">
         <v>4538</v>
       </c>
-      <c r="G324" s="13"/>
-    </row>
-    <row r="325" spans="1:7" ht="15.6" customHeight="1">
+      <c r="H324" s="13"/>
+    </row>
+    <row r="325" spans="1:8" ht="15.6" customHeight="1">
       <c r="A325" t="s">
         <v>4541</v>
       </c>
@@ -26455,12 +26781,13 @@
       <c r="C325" s="15" t="s">
         <v>4542</v>
       </c>
-      <c r="D325" s="13" t="s">
+      <c r="D325" s="15"/>
+      <c r="E325" s="13" t="s">
         <v>4538</v>
       </c>
-      <c r="G325" s="13"/>
-    </row>
-    <row r="326" spans="1:7" ht="29.1" customHeight="1">
+      <c r="H325" s="13"/>
+    </row>
+    <row r="326" spans="1:8" ht="29.1" customHeight="1">
       <c r="A326" t="s">
         <v>4543</v>
       </c>
@@ -26470,11 +26797,12 @@
       <c r="C326" s="15" t="s">
         <v>4544</v>
       </c>
-      <c r="D326" s="13" t="s">
+      <c r="D326" s="15"/>
+      <c r="E326" s="13" t="s">
         <v>4545</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="15.6" customHeight="1">
+    <row r="327" spans="1:8" ht="15.6" customHeight="1">
       <c r="A327" t="s">
         <v>4546</v>
       </c>
@@ -26484,11 +26812,12 @@
       <c r="C327" s="15" t="s">
         <v>4547</v>
       </c>
-      <c r="D327" s="13" t="s">
+      <c r="D327" s="15"/>
+      <c r="E327" s="13" t="s">
         <v>4548</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="15.6" customHeight="1">
+    <row r="328" spans="1:8" ht="15.6" customHeight="1">
       <c r="A328" t="s">
         <v>4549</v>
       </c>
@@ -26498,11 +26827,12 @@
       <c r="C328" s="15" t="s">
         <v>4550</v>
       </c>
-      <c r="D328" s="13" t="s">
+      <c r="D328" s="15"/>
+      <c r="E328" s="13" t="s">
         <v>4538</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="15.6" customHeight="1">
+    <row r="329" spans="1:8" ht="15.6" customHeight="1">
       <c r="A329" t="s">
         <v>4551</v>
       </c>
@@ -26512,11 +26842,12 @@
       <c r="C329" s="15" t="s">
         <v>4552</v>
       </c>
-      <c r="D329" s="13" t="s">
+      <c r="D329" s="15"/>
+      <c r="E329" s="13" t="s">
         <v>4545</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="26.1" customHeight="1">
+    <row r="330" spans="1:8" ht="26.1" customHeight="1">
       <c r="A330" t="s">
         <v>4553</v>
       </c>
@@ -26526,11 +26857,12 @@
       <c r="C330" s="15" t="s">
         <v>4554</v>
       </c>
-      <c r="D330" s="13" t="s">
+      <c r="D330" s="15"/>
+      <c r="E330" s="13" t="s">
         <v>4538</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="47.45" customHeight="1">
+    <row r="331" spans="1:8" ht="47.45" customHeight="1">
       <c r="A331">
         <v>64.5</v>
       </c>
@@ -26540,11 +26872,12 @@
       <c r="C331" s="15" t="s">
         <v>4555</v>
       </c>
-      <c r="D331" s="13" t="s">
+      <c r="D331" s="15"/>
+      <c r="E331" s="13" t="s">
         <v>4556</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="43.5" customHeight="1">
+    <row r="332" spans="1:8" ht="43.5" customHeight="1">
       <c r="A332">
         <v>64.599999999999994</v>
       </c>
@@ -26554,11 +26887,12 @@
       <c r="C332" s="15" t="s">
         <v>4557</v>
       </c>
-      <c r="D332" s="13" t="s">
+      <c r="D332" s="15"/>
+      <c r="E332" s="13" t="s">
         <v>4360</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="51" customHeight="1">
+    <row r="333" spans="1:8" ht="51" customHeight="1">
       <c r="A333">
         <v>64.7</v>
       </c>
@@ -26568,12 +26902,13 @@
       <c r="C333" s="15" t="s">
         <v>4558</v>
       </c>
-      <c r="D333" s="13" t="s">
+      <c r="D333" s="15"/>
+      <c r="E333" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G333" s="14"/>
-    </row>
-    <row r="334" spans="1:7" ht="15.6" customHeight="1">
+      <c r="H333" s="14"/>
+    </row>
+    <row r="334" spans="1:8" ht="15.6" customHeight="1">
       <c r="A334">
         <v>64.8</v>
       </c>
@@ -26583,8 +26918,9 @@
       <c r="C334" s="15" t="s">
         <v>4559</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" ht="75">
+      <c r="D334" s="15"/>
+    </row>
+    <row r="335" spans="1:8" ht="75">
       <c r="A335">
         <v>65</v>
       </c>
@@ -26594,12 +26930,13 @@
       <c r="C335" s="15" t="s">
         <v>4561</v>
       </c>
-      <c r="D335" s="13" t="s">
+      <c r="D335" s="15"/>
+      <c r="E335" s="13" t="s">
         <v>4562</v>
       </c>
-      <c r="G335" s="14"/>
-    </row>
-    <row r="336" spans="1:7" ht="38.25">
+      <c r="H335" s="14"/>
+    </row>
+    <row r="336" spans="1:8" ht="38.25">
       <c r="A336">
         <v>66</v>
       </c>
@@ -26609,8 +26946,9 @@
       <c r="C336" s="15" t="s">
         <v>4564</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" ht="140.25">
+      <c r="D336" s="15"/>
+    </row>
+    <row r="337" spans="1:8" ht="140.25">
       <c r="A337">
         <v>67</v>
       </c>
@@ -26620,8 +26958,9 @@
       <c r="C337" s="15" t="s">
         <v>4566</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" ht="129.75" customHeight="1">
+      <c r="D337" s="15"/>
+    </row>
+    <row r="338" spans="1:8" ht="129.75" customHeight="1">
       <c r="A338">
         <v>68</v>
       </c>
@@ -26631,8 +26970,9 @@
       <c r="C338" s="15" t="s">
         <v>4568</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" ht="63.75">
+      <c r="D338" s="15"/>
+    </row>
+    <row r="339" spans="1:8" ht="63.75">
       <c r="A339">
         <v>69</v>
       </c>
@@ -26642,8 +26982,9 @@
       <c r="C339" s="15" t="s">
         <v>4570</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" ht="63.75">
+      <c r="D339" s="15"/>
+    </row>
+    <row r="340" spans="1:8" ht="63.75">
       <c r="A340">
         <v>70</v>
       </c>
@@ -26653,8 +26994,9 @@
       <c r="C340" s="15" t="s">
         <v>4572</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" ht="114.75">
+      <c r="D340" s="15"/>
+    </row>
+    <row r="341" spans="1:8" ht="114.75">
       <c r="A341">
         <v>71</v>
       </c>
@@ -26664,8 +27006,9 @@
       <c r="C341" s="15" t="s">
         <v>4574</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" ht="180" customHeight="1">
+      <c r="D341" s="15"/>
+    </row>
+    <row r="342" spans="1:8" ht="180" customHeight="1">
       <c r="A342">
         <v>72</v>
       </c>
@@ -26675,12 +27018,13 @@
       <c r="C342" s="15" t="s">
         <v>4576</v>
       </c>
-      <c r="D342" s="13" t="s">
+      <c r="D342" s="15"/>
+      <c r="E342" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G342" s="14"/>
-    </row>
-    <row r="343" spans="1:7" ht="242.25" customHeight="1">
+      <c r="H342" s="14"/>
+    </row>
+    <row r="343" spans="1:8" ht="242.25" customHeight="1">
       <c r="A343">
         <v>73</v>
       </c>
@@ -26690,8 +27034,9 @@
       <c r="C343" s="15" t="s">
         <v>4578</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" ht="75">
+      <c r="D343" s="15"/>
+    </row>
+    <row r="344" spans="1:8" ht="75">
       <c r="A344">
         <v>74</v>
       </c>
@@ -26701,8 +27046,9 @@
       <c r="C344" s="15" t="s">
         <v>4580</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" ht="108.75" customHeight="1">
+      <c r="D344" s="15"/>
+    </row>
+    <row r="345" spans="1:8" ht="108.75" customHeight="1">
       <c r="A345">
         <v>75</v>
       </c>
@@ -26712,12 +27058,13 @@
       <c r="C345" s="15" t="s">
         <v>4582</v>
       </c>
-      <c r="D345" s="13" t="s">
+      <c r="D345" s="15"/>
+      <c r="E345" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G345" s="14"/>
-    </row>
-    <row r="346" spans="1:7" ht="30">
+      <c r="H345" s="14"/>
+    </row>
+    <row r="346" spans="1:8" ht="30">
       <c r="A346">
         <v>76</v>
       </c>
@@ -26727,12 +27074,13 @@
       <c r="C346" s="15" t="s">
         <v>4584</v>
       </c>
-      <c r="D346" s="13" t="s">
+      <c r="D346" s="15"/>
+      <c r="E346" s="13" t="s">
         <v>4585</v>
       </c>
-      <c r="G346" s="14"/>
-    </row>
-    <row r="347" spans="1:7" ht="45">
+      <c r="H346" s="14"/>
+    </row>
+    <row r="347" spans="1:8" ht="45">
       <c r="A347">
         <v>77</v>
       </c>
@@ -26742,8 +27090,9 @@
       <c r="C347" s="15" t="s">
         <v>4587</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" ht="39.75" customHeight="1">
+      <c r="D347" s="15"/>
+    </row>
+    <row r="348" spans="1:8" ht="39.75" customHeight="1">
       <c r="A348">
         <v>78</v>
       </c>
@@ -26753,8 +27102,9 @@
       <c r="C348" s="15" t="s">
         <v>4589</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" ht="122.25" customHeight="1">
+      <c r="D348" s="15"/>
+    </row>
+    <row r="349" spans="1:8" ht="122.25" customHeight="1">
       <c r="A349">
         <v>79</v>
       </c>
@@ -26764,8 +27114,9 @@
       <c r="C349" s="15" t="s">
         <v>4591</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" ht="144.94999999999999" customHeight="1">
+      <c r="D349" s="15"/>
+    </row>
+    <row r="350" spans="1:8" ht="144.94999999999999" customHeight="1">
       <c r="A350">
         <v>80</v>
       </c>
@@ -26775,8 +27126,9 @@
       <c r="C350" s="15" t="s">
         <v>4593</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" ht="132.75" customHeight="1">
+      <c r="D350" s="15"/>
+    </row>
+    <row r="351" spans="1:8" ht="132.75" customHeight="1">
       <c r="A351">
         <v>81</v>
       </c>
@@ -26786,8 +27138,9 @@
       <c r="C351" s="15" t="s">
         <v>4595</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" ht="114.6" customHeight="1">
+      <c r="D351" s="15"/>
+    </row>
+    <row r="352" spans="1:8" ht="114.6" customHeight="1">
       <c r="A352">
         <v>82</v>
       </c>
@@ -26797,12 +27150,13 @@
       <c r="C352" s="15" t="s">
         <v>4597</v>
       </c>
-      <c r="D352" s="13" t="s">
+      <c r="D352" s="15"/>
+      <c r="E352" s="13" t="s">
         <v>4598</v>
       </c>
-      <c r="G352" s="14"/>
-    </row>
-    <row r="353" spans="1:7" ht="42.95" customHeight="1">
+      <c r="H352" s="14"/>
+    </row>
+    <row r="353" spans="1:8" ht="42.95" customHeight="1">
       <c r="A353">
         <v>83</v>
       </c>
@@ -26812,12 +27166,13 @@
       <c r="C353" s="15" t="s">
         <v>4600</v>
       </c>
-      <c r="D353" s="13" t="s">
+      <c r="D353" s="15"/>
+      <c r="E353" s="13" t="s">
         <v>4601</v>
       </c>
-      <c r="G353" s="14"/>
-    </row>
-    <row r="354" spans="1:7" ht="206.1" customHeight="1">
+      <c r="H353" s="14"/>
+    </row>
+    <row r="354" spans="1:8" ht="206.1" customHeight="1">
       <c r="A354">
         <v>84</v>
       </c>
@@ -26827,12 +27182,13 @@
       <c r="C354" s="15" t="s">
         <v>4603</v>
       </c>
-      <c r="D354" s="13" t="s">
+      <c r="D354" s="15"/>
+      <c r="E354" s="13" t="s">
         <v>4604</v>
       </c>
-      <c r="G354" s="14"/>
-    </row>
-    <row r="355" spans="1:7" ht="165.75">
+      <c r="H354" s="14"/>
+    </row>
+    <row r="355" spans="1:8" ht="165.75">
       <c r="A355">
         <v>85</v>
       </c>
@@ -26842,12 +27198,13 @@
       <c r="C355" s="15" t="s">
         <v>4606</v>
       </c>
-      <c r="D355" s="13" t="s">
+      <c r="D355" s="15"/>
+      <c r="E355" s="13" t="s">
         <v>4607</v>
       </c>
-      <c r="G355" s="14"/>
-    </row>
-    <row r="356" spans="1:7" ht="102">
+      <c r="H355" s="14"/>
+    </row>
+    <row r="356" spans="1:8" ht="102">
       <c r="A356">
         <v>86</v>
       </c>
@@ -26857,12 +27214,13 @@
       <c r="C356" s="15" t="s">
         <v>4609</v>
       </c>
-      <c r="D356" s="13" t="s">
+      <c r="D356" s="15"/>
+      <c r="E356" s="13" t="s">
         <v>4610</v>
       </c>
-      <c r="G356" s="14"/>
-    </row>
-    <row r="357" spans="1:7" ht="51">
+      <c r="H356" s="14"/>
+    </row>
+    <row r="357" spans="1:8" ht="51">
       <c r="A357">
         <v>87</v>
       </c>
@@ -26872,8 +27230,9 @@
       <c r="C357" s="15" t="s">
         <v>4612</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" ht="45">
+      <c r="D357" s="15"/>
+    </row>
+    <row r="358" spans="1:8" ht="45">
       <c r="A358">
         <v>88</v>
       </c>
@@ -26883,16 +27242,18 @@
       <c r="C358" s="15" t="s">
         <v>4614</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" ht="45">
+      <c r="D358" s="15"/>
+    </row>
+    <row r="359" spans="1:8" ht="45">
       <c r="B359" s="16" t="s">
         <v>4615</v>
       </c>
       <c r="C359" s="15" t="s">
         <v>4616</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" ht="38.25">
+      <c r="D359" s="15"/>
+    </row>
+    <row r="360" spans="1:8" ht="38.25">
       <c r="A360">
         <v>90</v>
       </c>
@@ -26902,8 +27263,9 @@
       <c r="C360" s="15" t="s">
         <v>4617</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" ht="105" customHeight="1">
+      <c r="D360" s="15"/>
+    </row>
+    <row r="361" spans="1:8" ht="105" customHeight="1">
       <c r="A361">
         <v>91</v>
       </c>
@@ -26913,12 +27275,13 @@
       <c r="C361" s="15" t="s">
         <v>4619</v>
       </c>
-      <c r="D361" s="13" t="s">
+      <c r="D361" s="15"/>
+      <c r="E361" s="13" t="s">
         <v>4610</v>
       </c>
-      <c r="G361" s="14"/>
-    </row>
-    <row r="362" spans="1:7" ht="60">
+      <c r="H361" s="14"/>
+    </row>
+    <row r="362" spans="1:8" ht="60">
       <c r="A362">
         <v>92</v>
       </c>
@@ -26928,12 +27291,13 @@
       <c r="C362" s="15" t="s">
         <v>4621</v>
       </c>
-      <c r="D362" s="13" t="s">
+      <c r="D362" s="15"/>
+      <c r="E362" s="13" t="s">
         <v>4610</v>
       </c>
-      <c r="G362" s="14"/>
-    </row>
-    <row r="363" spans="1:7" ht="409.5">
+      <c r="H362" s="14"/>
+    </row>
+    <row r="363" spans="1:8" ht="409.5">
       <c r="A363">
         <v>93</v>
       </c>
@@ -26943,12 +27307,13 @@
       <c r="C363" s="15" t="s">
         <v>4623</v>
       </c>
-      <c r="D363" s="13" t="s">
+      <c r="D363" s="15"/>
+      <c r="E363" s="13" t="s">
         <v>4610</v>
       </c>
-      <c r="G363" s="14"/>
-    </row>
-    <row r="364" spans="1:7" ht="408.75" customHeight="1">
+      <c r="H363" s="14"/>
+    </row>
+    <row r="364" spans="1:8" ht="408.75" customHeight="1">
       <c r="A364">
         <v>94</v>
       </c>
@@ -26958,12 +27323,13 @@
       <c r="C364" s="15" t="s">
         <v>4625</v>
       </c>
-      <c r="D364" s="13" t="s">
+      <c r="D364" s="15"/>
+      <c r="E364" s="13" t="s">
         <v>4610</v>
       </c>
-      <c r="G364" s="14"/>
-    </row>
-    <row r="365" spans="1:7" ht="102">
+      <c r="H364" s="14"/>
+    </row>
+    <row r="365" spans="1:8" ht="102">
       <c r="A365">
         <v>95</v>
       </c>
@@ -26973,8 +27339,9 @@
       <c r="C365" s="15" t="s">
         <v>4627</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" ht="45" customHeight="1">
+      <c r="D365" s="15"/>
+    </row>
+    <row r="366" spans="1:8" ht="45" customHeight="1">
       <c r="A366">
         <v>96</v>
       </c>
@@ -26984,8 +27351,9 @@
       <c r="C366" s="15" t="s">
         <v>4629</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" ht="90.75" customHeight="1">
+      <c r="D366" s="15"/>
+    </row>
+    <row r="367" spans="1:8" ht="90.75" customHeight="1">
       <c r="A367">
         <v>97</v>
       </c>
@@ -26995,8 +27363,9 @@
       <c r="C367" s="15" t="s">
         <v>4631</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" ht="48.95" customHeight="1">
+      <c r="D367" s="15"/>
+    </row>
+    <row r="368" spans="1:8" ht="48.95" customHeight="1">
       <c r="A368">
         <v>98</v>
       </c>
@@ -27006,576 +27375,733 @@
       <c r="C368" s="15" t="s">
         <v>4633</v>
       </c>
-    </row>
-    <row r="369" spans="2:3">
+      <c r="D368" s="15"/>
+    </row>
+    <row r="369" spans="2:4">
       <c r="B369" s="14"/>
       <c r="C369" s="15"/>
-    </row>
-    <row r="370" spans="2:3">
+      <c r="D369" s="15"/>
+    </row>
+    <row r="370" spans="2:4">
       <c r="B370" s="14"/>
       <c r="C370" s="15"/>
-    </row>
-    <row r="371" spans="2:3">
+      <c r="D370" s="15"/>
+    </row>
+    <row r="371" spans="2:4">
       <c r="B371" s="14"/>
       <c r="C371" s="15"/>
-    </row>
-    <row r="372" spans="2:3">
+      <c r="D371" s="15"/>
+    </row>
+    <row r="372" spans="2:4">
       <c r="B372" s="14"/>
       <c r="C372" s="15"/>
-    </row>
-    <row r="373" spans="2:3">
+      <c r="D372" s="15"/>
+    </row>
+    <row r="373" spans="2:4">
       <c r="B373" s="14"/>
       <c r="C373" s="14"/>
-    </row>
-    <row r="374" spans="2:3">
+      <c r="D373" s="14"/>
+    </row>
+    <row r="374" spans="2:4">
       <c r="B374" s="14"/>
       <c r="C374" s="14"/>
-    </row>
-    <row r="375" spans="2:3">
+      <c r="D374" s="14"/>
+    </row>
+    <row r="375" spans="2:4">
       <c r="B375" s="14"/>
       <c r="C375" s="14"/>
-    </row>
-    <row r="376" spans="2:3">
+      <c r="D375" s="14"/>
+    </row>
+    <row r="376" spans="2:4">
       <c r="B376" s="14"/>
       <c r="C376" s="14"/>
-    </row>
-    <row r="377" spans="2:3">
+      <c r="D376" s="14"/>
+    </row>
+    <row r="377" spans="2:4">
       <c r="B377" s="14"/>
       <c r="C377" s="14"/>
-    </row>
-    <row r="378" spans="2:3">
+      <c r="D377" s="14"/>
+    </row>
+    <row r="378" spans="2:4">
       <c r="B378" s="14"/>
       <c r="C378" s="14"/>
-    </row>
-    <row r="379" spans="2:3">
+      <c r="D378" s="14"/>
+    </row>
+    <row r="379" spans="2:4">
       <c r="B379" s="14"/>
       <c r="C379" s="14"/>
-    </row>
-    <row r="380" spans="2:3">
+      <c r="D379" s="14"/>
+    </row>
+    <row r="380" spans="2:4">
       <c r="B380" s="14"/>
       <c r="C380" s="14"/>
-    </row>
-    <row r="381" spans="2:3">
+      <c r="D380" s="14"/>
+    </row>
+    <row r="381" spans="2:4">
       <c r="B381" s="14"/>
       <c r="C381" s="14"/>
-    </row>
-    <row r="382" spans="2:3">
+      <c r="D381" s="14"/>
+    </row>
+    <row r="382" spans="2:4">
       <c r="B382" s="14"/>
       <c r="C382" s="14"/>
-    </row>
-    <row r="383" spans="2:3">
+      <c r="D382" s="14"/>
+    </row>
+    <row r="383" spans="2:4">
       <c r="B383" s="14"/>
       <c r="C383" s="14"/>
-    </row>
-    <row r="384" spans="2:3">
+      <c r="D383" s="14"/>
+    </row>
+    <row r="384" spans="2:4">
       <c r="B384" s="14"/>
       <c r="C384" s="14"/>
-    </row>
-    <row r="385" spans="2:3">
+      <c r="D384" s="14"/>
+    </row>
+    <row r="385" spans="2:4">
       <c r="B385" s="14"/>
       <c r="C385" s="14"/>
-    </row>
-    <row r="386" spans="2:3">
+      <c r="D385" s="14"/>
+    </row>
+    <row r="386" spans="2:4">
       <c r="B386" s="14"/>
       <c r="C386" s="14"/>
-    </row>
-    <row r="387" spans="2:3">
+      <c r="D386" s="14"/>
+    </row>
+    <row r="387" spans="2:4">
       <c r="B387" s="14"/>
       <c r="C387" s="14"/>
-    </row>
-    <row r="388" spans="2:3">
+      <c r="D387" s="14"/>
+    </row>
+    <row r="388" spans="2:4">
       <c r="B388" s="14"/>
       <c r="C388" s="14"/>
-    </row>
-    <row r="389" spans="2:3">
+      <c r="D388" s="14"/>
+    </row>
+    <row r="389" spans="2:4">
       <c r="B389" s="14"/>
       <c r="C389" s="14"/>
-    </row>
-    <row r="390" spans="2:3">
+      <c r="D389" s="14"/>
+    </row>
+    <row r="390" spans="2:4">
       <c r="B390" s="14"/>
       <c r="C390" s="14"/>
-    </row>
-    <row r="391" spans="2:3">
+      <c r="D390" s="14"/>
+    </row>
+    <row r="391" spans="2:4">
       <c r="B391" s="14"/>
       <c r="C391" s="14"/>
-    </row>
-    <row r="392" spans="2:3">
+      <c r="D391" s="14"/>
+    </row>
+    <row r="392" spans="2:4">
       <c r="B392" s="14"/>
       <c r="C392" s="14"/>
-    </row>
-    <row r="393" spans="2:3">
+      <c r="D392" s="14"/>
+    </row>
+    <row r="393" spans="2:4">
       <c r="B393" s="14"/>
       <c r="C393" s="14"/>
-    </row>
-    <row r="394" spans="2:3">
+      <c r="D393" s="14"/>
+    </row>
+    <row r="394" spans="2:4">
       <c r="B394" s="14"/>
       <c r="C394" s="14"/>
-    </row>
-    <row r="395" spans="2:3">
+      <c r="D394" s="14"/>
+    </row>
+    <row r="395" spans="2:4">
       <c r="B395" s="14"/>
       <c r="C395" s="14"/>
-    </row>
-    <row r="396" spans="2:3">
+      <c r="D395" s="14"/>
+    </row>
+    <row r="396" spans="2:4">
       <c r="B396" s="14"/>
       <c r="C396" s="14"/>
-    </row>
-    <row r="397" spans="2:3">
+      <c r="D396" s="14"/>
+    </row>
+    <row r="397" spans="2:4">
       <c r="B397" s="14"/>
       <c r="C397" s="14"/>
-    </row>
-    <row r="398" spans="2:3">
+      <c r="D397" s="14"/>
+    </row>
+    <row r="398" spans="2:4">
       <c r="B398" s="14"/>
       <c r="C398" s="14"/>
-    </row>
-    <row r="399" spans="2:3">
+      <c r="D398" s="14"/>
+    </row>
+    <row r="399" spans="2:4">
       <c r="B399" s="14"/>
       <c r="C399" s="14"/>
-    </row>
-    <row r="400" spans="2:3">
+      <c r="D399" s="14"/>
+    </row>
+    <row r="400" spans="2:4">
       <c r="B400" s="14"/>
       <c r="C400" s="14"/>
-    </row>
-    <row r="401" spans="2:3">
+      <c r="D400" s="14"/>
+    </row>
+    <row r="401" spans="2:4">
       <c r="B401" s="14"/>
       <c r="C401" s="14"/>
-    </row>
-    <row r="402" spans="2:3">
+      <c r="D401" s="14"/>
+    </row>
+    <row r="402" spans="2:4">
       <c r="B402" s="14"/>
       <c r="C402" s="14"/>
-    </row>
-    <row r="403" spans="2:3">
+      <c r="D402" s="14"/>
+    </row>
+    <row r="403" spans="2:4">
       <c r="B403" s="14"/>
       <c r="C403" s="14"/>
-    </row>
-    <row r="404" spans="2:3">
+      <c r="D403" s="14"/>
+    </row>
+    <row r="404" spans="2:4">
       <c r="B404" s="14"/>
       <c r="C404" s="14"/>
-    </row>
-    <row r="405" spans="2:3">
+      <c r="D404" s="14"/>
+    </row>
+    <row r="405" spans="2:4">
       <c r="B405" s="14"/>
       <c r="C405" s="14"/>
-    </row>
-    <row r="406" spans="2:3">
+      <c r="D405" s="14"/>
+    </row>
+    <row r="406" spans="2:4">
       <c r="B406" s="14"/>
       <c r="C406" s="14"/>
-    </row>
-    <row r="407" spans="2:3">
+      <c r="D406" s="14"/>
+    </row>
+    <row r="407" spans="2:4">
       <c r="B407" s="14"/>
       <c r="C407" s="14"/>
-    </row>
-    <row r="408" spans="2:3">
+      <c r="D407" s="14"/>
+    </row>
+    <row r="408" spans="2:4">
       <c r="B408" s="14"/>
       <c r="C408" s="14"/>
-    </row>
-    <row r="409" spans="2:3">
+      <c r="D408" s="14"/>
+    </row>
+    <row r="409" spans="2:4">
       <c r="B409" s="14"/>
       <c r="C409" s="14"/>
-    </row>
-    <row r="410" spans="2:3">
+      <c r="D409" s="14"/>
+    </row>
+    <row r="410" spans="2:4">
       <c r="B410" s="14"/>
       <c r="C410" s="14"/>
-    </row>
-    <row r="411" spans="2:3">
+      <c r="D410" s="14"/>
+    </row>
+    <row r="411" spans="2:4">
       <c r="B411" s="14"/>
       <c r="C411" s="14"/>
-    </row>
-    <row r="412" spans="2:3">
+      <c r="D411" s="14"/>
+    </row>
+    <row r="412" spans="2:4">
       <c r="B412" s="14"/>
       <c r="C412" s="14"/>
-    </row>
-    <row r="413" spans="2:3">
+      <c r="D412" s="14"/>
+    </row>
+    <row r="413" spans="2:4">
       <c r="B413" s="14"/>
       <c r="C413" s="14"/>
-    </row>
-    <row r="414" spans="2:3">
+      <c r="D413" s="14"/>
+    </row>
+    <row r="414" spans="2:4">
       <c r="B414" s="14"/>
       <c r="C414" s="14"/>
-    </row>
-    <row r="415" spans="2:3">
+      <c r="D414" s="14"/>
+    </row>
+    <row r="415" spans="2:4">
       <c r="B415" s="14"/>
       <c r="C415" s="14"/>
-    </row>
-    <row r="416" spans="2:3">
+      <c r="D415" s="14"/>
+    </row>
+    <row r="416" spans="2:4">
       <c r="B416" s="14"/>
       <c r="C416" s="14"/>
-    </row>
-    <row r="417" spans="2:3">
+      <c r="D416" s="14"/>
+    </row>
+    <row r="417" spans="2:4">
       <c r="B417" s="14"/>
       <c r="C417" s="14"/>
-    </row>
-    <row r="418" spans="2:3">
+      <c r="D417" s="14"/>
+    </row>
+    <row r="418" spans="2:4">
       <c r="B418" s="14"/>
       <c r="C418" s="14"/>
-    </row>
-    <row r="419" spans="2:3">
+      <c r="D418" s="14"/>
+    </row>
+    <row r="419" spans="2:4">
       <c r="B419" s="14"/>
       <c r="C419" s="14"/>
-    </row>
-    <row r="420" spans="2:3">
+      <c r="D419" s="14"/>
+    </row>
+    <row r="420" spans="2:4">
       <c r="B420" s="14"/>
       <c r="C420" s="14"/>
-    </row>
-    <row r="421" spans="2:3">
+      <c r="D420" s="14"/>
+    </row>
+    <row r="421" spans="2:4">
       <c r="B421" s="14"/>
       <c r="C421" s="14"/>
-    </row>
-    <row r="422" spans="2:3">
+      <c r="D421" s="14"/>
+    </row>
+    <row r="422" spans="2:4">
       <c r="B422" s="14"/>
       <c r="C422" s="14"/>
-    </row>
-    <row r="423" spans="2:3">
+      <c r="D422" s="14"/>
+    </row>
+    <row r="423" spans="2:4">
       <c r="B423" s="14"/>
       <c r="C423" s="14"/>
-    </row>
-    <row r="424" spans="2:3">
+      <c r="D423" s="14"/>
+    </row>
+    <row r="424" spans="2:4">
       <c r="B424" s="14"/>
       <c r="C424" s="14"/>
-    </row>
-    <row r="425" spans="2:3">
+      <c r="D424" s="14"/>
+    </row>
+    <row r="425" spans="2:4">
       <c r="B425" s="14"/>
       <c r="C425" s="14"/>
-    </row>
-    <row r="426" spans="2:3">
+      <c r="D425" s="14"/>
+    </row>
+    <row r="426" spans="2:4">
       <c r="B426" s="14"/>
       <c r="C426" s="14"/>
-    </row>
-    <row r="427" spans="2:3">
+      <c r="D426" s="14"/>
+    </row>
+    <row r="427" spans="2:4">
       <c r="B427" s="14"/>
       <c r="C427" s="14"/>
-    </row>
-    <row r="428" spans="2:3">
+      <c r="D427" s="14"/>
+    </row>
+    <row r="428" spans="2:4">
       <c r="B428" s="14"/>
       <c r="C428" s="14"/>
-    </row>
-    <row r="429" spans="2:3">
+      <c r="D428" s="14"/>
+    </row>
+    <row r="429" spans="2:4">
       <c r="B429" s="14"/>
       <c r="C429" s="14"/>
-    </row>
-    <row r="430" spans="2:3">
+      <c r="D429" s="14"/>
+    </row>
+    <row r="430" spans="2:4">
       <c r="B430" s="14"/>
       <c r="C430" s="14"/>
-    </row>
-    <row r="431" spans="2:3">
+      <c r="D430" s="14"/>
+    </row>
+    <row r="431" spans="2:4">
       <c r="B431" s="14"/>
       <c r="C431" s="14"/>
-    </row>
-    <row r="432" spans="2:3">
+      <c r="D431" s="14"/>
+    </row>
+    <row r="432" spans="2:4">
       <c r="B432" s="14"/>
       <c r="C432" s="14"/>
-    </row>
-    <row r="433" spans="2:3">
+      <c r="D432" s="14"/>
+    </row>
+    <row r="433" spans="2:4">
       <c r="B433" s="14"/>
       <c r="C433" s="14"/>
-    </row>
-    <row r="434" spans="2:3">
+      <c r="D433" s="14"/>
+    </row>
+    <row r="434" spans="2:4">
       <c r="B434" s="14"/>
       <c r="C434" s="14"/>
-    </row>
-    <row r="435" spans="2:3">
+      <c r="D434" s="14"/>
+    </row>
+    <row r="435" spans="2:4">
       <c r="B435" s="14"/>
       <c r="C435" s="14"/>
-    </row>
-    <row r="436" spans="2:3">
+      <c r="D435" s="14"/>
+    </row>
+    <row r="436" spans="2:4">
       <c r="B436" s="14"/>
       <c r="C436" s="14"/>
-    </row>
-    <row r="437" spans="2:3">
+      <c r="D436" s="14"/>
+    </row>
+    <row r="437" spans="2:4">
       <c r="B437" s="14"/>
       <c r="C437" s="14"/>
-    </row>
-    <row r="438" spans="2:3">
+      <c r="D437" s="14"/>
+    </row>
+    <row r="438" spans="2:4">
       <c r="B438" s="14"/>
       <c r="C438" s="14"/>
-    </row>
-    <row r="439" spans="2:3">
+      <c r="D438" s="14"/>
+    </row>
+    <row r="439" spans="2:4">
       <c r="B439" s="14"/>
       <c r="C439" s="14"/>
-    </row>
-    <row r="440" spans="2:3">
+      <c r="D439" s="14"/>
+    </row>
+    <row r="440" spans="2:4">
       <c r="B440" s="14"/>
       <c r="C440" s="14"/>
-    </row>
-    <row r="441" spans="2:3">
+      <c r="D440" s="14"/>
+    </row>
+    <row r="441" spans="2:4">
       <c r="B441" s="14"/>
       <c r="C441" s="14"/>
-    </row>
-    <row r="442" spans="2:3">
+      <c r="D441" s="14"/>
+    </row>
+    <row r="442" spans="2:4">
       <c r="B442" s="14"/>
       <c r="C442" s="14"/>
-    </row>
-    <row r="443" spans="2:3">
+      <c r="D442" s="14"/>
+    </row>
+    <row r="443" spans="2:4">
       <c r="B443" s="14"/>
       <c r="C443" s="14"/>
-    </row>
-    <row r="444" spans="2:3">
+      <c r="D443" s="14"/>
+    </row>
+    <row r="444" spans="2:4">
       <c r="B444" s="14"/>
       <c r="C444" s="14"/>
-    </row>
-    <row r="445" spans="2:3">
+      <c r="D444" s="14"/>
+    </row>
+    <row r="445" spans="2:4">
       <c r="B445" s="14"/>
       <c r="C445" s="14"/>
-    </row>
-    <row r="446" spans="2:3">
+      <c r="D445" s="14"/>
+    </row>
+    <row r="446" spans="2:4">
       <c r="B446" s="14"/>
       <c r="C446" s="14"/>
-    </row>
-    <row r="447" spans="2:3">
+      <c r="D446" s="14"/>
+    </row>
+    <row r="447" spans="2:4">
       <c r="B447" s="14"/>
       <c r="C447" s="14"/>
-    </row>
-    <row r="448" spans="2:3">
+      <c r="D447" s="14"/>
+    </row>
+    <row r="448" spans="2:4">
       <c r="B448" s="14"/>
       <c r="C448" s="14"/>
-    </row>
-    <row r="449" spans="2:3">
+      <c r="D448" s="14"/>
+    </row>
+    <row r="449" spans="2:4">
       <c r="B449" s="14"/>
       <c r="C449" s="14"/>
-    </row>
-    <row r="450" spans="2:3">
+      <c r="D449" s="14"/>
+    </row>
+    <row r="450" spans="2:4">
       <c r="B450" s="14"/>
       <c r="C450" s="14"/>
-    </row>
-    <row r="451" spans="2:3">
+      <c r="D450" s="14"/>
+    </row>
+    <row r="451" spans="2:4">
       <c r="B451" s="14"/>
       <c r="C451" s="14"/>
-    </row>
-    <row r="452" spans="2:3">
+      <c r="D451" s="14"/>
+    </row>
+    <row r="452" spans="2:4">
       <c r="B452" s="14"/>
       <c r="C452" s="14"/>
-    </row>
-    <row r="453" spans="2:3">
+      <c r="D452" s="14"/>
+    </row>
+    <row r="453" spans="2:4">
       <c r="B453" s="14"/>
       <c r="C453" s="14"/>
-    </row>
-    <row r="454" spans="2:3">
+      <c r="D453" s="14"/>
+    </row>
+    <row r="454" spans="2:4">
       <c r="B454" s="14"/>
       <c r="C454" s="14"/>
-    </row>
-    <row r="455" spans="2:3">
+      <c r="D454" s="14"/>
+    </row>
+    <row r="455" spans="2:4">
       <c r="B455" s="14"/>
       <c r="C455" s="14"/>
-    </row>
-    <row r="456" spans="2:3">
+      <c r="D455" s="14"/>
+    </row>
+    <row r="456" spans="2:4">
       <c r="B456" s="14"/>
       <c r="C456" s="14"/>
-    </row>
-    <row r="457" spans="2:3">
+      <c r="D456" s="14"/>
+    </row>
+    <row r="457" spans="2:4">
       <c r="B457" s="14"/>
       <c r="C457" s="14"/>
-    </row>
-    <row r="458" spans="2:3">
+      <c r="D457" s="14"/>
+    </row>
+    <row r="458" spans="2:4">
       <c r="B458" s="14"/>
       <c r="C458" s="14"/>
-    </row>
-    <row r="459" spans="2:3">
+      <c r="D458" s="14"/>
+    </row>
+    <row r="459" spans="2:4">
       <c r="B459" s="14"/>
       <c r="C459" s="14"/>
-    </row>
-    <row r="460" spans="2:3">
+      <c r="D459" s="14"/>
+    </row>
+    <row r="460" spans="2:4">
       <c r="B460" s="14"/>
       <c r="C460" s="14"/>
-    </row>
-    <row r="461" spans="2:3">
+      <c r="D460" s="14"/>
+    </row>
+    <row r="461" spans="2:4">
       <c r="B461" s="14"/>
       <c r="C461" s="14"/>
-    </row>
-    <row r="462" spans="2:3">
+      <c r="D461" s="14"/>
+    </row>
+    <row r="462" spans="2:4">
       <c r="B462" s="14"/>
       <c r="C462" s="14"/>
-    </row>
-    <row r="463" spans="2:3">
+      <c r="D462" s="14"/>
+    </row>
+    <row r="463" spans="2:4">
       <c r="B463" s="14"/>
       <c r="C463" s="14"/>
-    </row>
-    <row r="464" spans="2:3">
+      <c r="D463" s="14"/>
+    </row>
+    <row r="464" spans="2:4">
       <c r="B464" s="14"/>
       <c r="C464" s="14"/>
-    </row>
-    <row r="465" spans="2:3">
+      <c r="D464" s="14"/>
+    </row>
+    <row r="465" spans="2:4">
       <c r="B465" s="14"/>
       <c r="C465" s="14"/>
-    </row>
-    <row r="466" spans="2:3">
+      <c r="D465" s="14"/>
+    </row>
+    <row r="466" spans="2:4">
       <c r="B466" s="14"/>
       <c r="C466" s="14"/>
-    </row>
-    <row r="467" spans="2:3">
+      <c r="D466" s="14"/>
+    </row>
+    <row r="467" spans="2:4">
       <c r="B467" s="14"/>
       <c r="C467" s="14"/>
-    </row>
-    <row r="468" spans="2:3">
+      <c r="D467" s="14"/>
+    </row>
+    <row r="468" spans="2:4">
       <c r="B468" s="14"/>
       <c r="C468" s="14"/>
-    </row>
-    <row r="469" spans="2:3">
+      <c r="D468" s="14"/>
+    </row>
+    <row r="469" spans="2:4">
       <c r="B469" s="14"/>
       <c r="C469" s="14"/>
-    </row>
-    <row r="470" spans="2:3">
+      <c r="D469" s="14"/>
+    </row>
+    <row r="470" spans="2:4">
       <c r="B470" s="14"/>
       <c r="C470" s="14"/>
-    </row>
-    <row r="507" spans="3:3">
+      <c r="D470" s="14"/>
+    </row>
+    <row r="507" spans="3:4">
       <c r="C507" s="3"/>
-    </row>
-    <row r="508" spans="3:3">
+      <c r="D507" s="3"/>
+    </row>
+    <row r="508" spans="3:4">
       <c r="C508" s="3"/>
-    </row>
-    <row r="509" spans="3:3">
+      <c r="D508" s="3"/>
+    </row>
+    <row r="509" spans="3:4">
       <c r="C509" s="3"/>
-    </row>
-    <row r="510" spans="3:3">
+      <c r="D509" s="3"/>
+    </row>
+    <row r="510" spans="3:4">
       <c r="C510" s="3"/>
-    </row>
-    <row r="517" spans="3:3">
+      <c r="D510" s="3"/>
+    </row>
+    <row r="517" spans="3:4">
       <c r="C517" s="3"/>
-    </row>
-    <row r="518" spans="3:3">
+      <c r="D517" s="3"/>
+    </row>
+    <row r="518" spans="3:4">
       <c r="C518" s="3"/>
-    </row>
-    <row r="519" spans="3:3">
+      <c r="D518" s="3"/>
+    </row>
+    <row r="519" spans="3:4">
       <c r="C519" s="3"/>
-    </row>
-    <row r="525" spans="3:3">
+      <c r="D519" s="3"/>
+    </row>
+    <row r="525" spans="3:4">
       <c r="C525" s="3"/>
-    </row>
-    <row r="526" spans="3:3">
+      <c r="D525" s="3"/>
+    </row>
+    <row r="526" spans="3:4">
       <c r="C526" s="3"/>
-    </row>
-    <row r="527" spans="3:3">
+      <c r="D526" s="3"/>
+    </row>
+    <row r="527" spans="3:4">
       <c r="C527" s="3"/>
-    </row>
-    <row r="531" spans="3:3">
+      <c r="D527" s="3"/>
+    </row>
+    <row r="531" spans="3:4">
       <c r="C531" s="3"/>
-    </row>
-    <row r="533" spans="3:3">
+      <c r="D531" s="3"/>
+    </row>
+    <row r="533" spans="3:4">
       <c r="C533" s="3"/>
-    </row>
-    <row r="534" spans="3:3">
+      <c r="D533" s="3"/>
+    </row>
+    <row r="534" spans="3:4">
       <c r="C534" s="3"/>
-    </row>
-    <row r="542" spans="3:3">
+      <c r="D534" s="3"/>
+    </row>
+    <row r="542" spans="3:4">
       <c r="C542" s="3"/>
-    </row>
-    <row r="543" spans="3:3">
+      <c r="D542" s="3"/>
+    </row>
+    <row r="543" spans="3:4">
       <c r="C543" s="3"/>
-    </row>
-    <row r="544" spans="3:3">
+      <c r="D543" s="3"/>
+    </row>
+    <row r="544" spans="3:4">
       <c r="C544" s="3"/>
-    </row>
-    <row r="545" spans="3:3">
+      <c r="D544" s="3"/>
+    </row>
+    <row r="545" spans="3:4">
       <c r="C545" s="3"/>
-    </row>
-    <row r="546" spans="3:3">
+      <c r="D545" s="3"/>
+    </row>
+    <row r="546" spans="3:4">
       <c r="C546" s="3"/>
-    </row>
-    <row r="547" spans="3:3">
+      <c r="D546" s="3"/>
+    </row>
+    <row r="547" spans="3:4">
       <c r="C547" s="3"/>
-    </row>
-    <row r="551" spans="3:3">
+      <c r="D547" s="3"/>
+    </row>
+    <row r="551" spans="3:4">
       <c r="C551" s="3"/>
-    </row>
-    <row r="552" spans="3:3">
+      <c r="D551" s="3"/>
+    </row>
+    <row r="552" spans="3:4">
       <c r="C552" s="3"/>
-    </row>
-    <row r="553" spans="3:3">
+      <c r="D552" s="3"/>
+    </row>
+    <row r="553" spans="3:4">
       <c r="C553" s="3"/>
-    </row>
-    <row r="569" spans="3:3">
+      <c r="D553" s="3"/>
+    </row>
+    <row r="569" spans="3:4">
       <c r="C569" s="3"/>
-    </row>
-    <row r="570" spans="3:3">
+      <c r="D569" s="3"/>
+    </row>
+    <row r="570" spans="3:4">
       <c r="C570" s="3"/>
-    </row>
-    <row r="571" spans="3:3">
+      <c r="D570" s="3"/>
+    </row>
+    <row r="571" spans="3:4">
       <c r="C571" s="3"/>
-    </row>
-    <row r="573" spans="3:3">
+      <c r="D571" s="3"/>
+    </row>
+    <row r="573" spans="3:4">
       <c r="C573" s="3"/>
-    </row>
-    <row r="601" spans="3:3">
+      <c r="D573" s="3"/>
+    </row>
+    <row r="601" spans="3:4">
       <c r="C601" s="3"/>
-    </row>
-    <row r="602" spans="3:3">
+      <c r="D601" s="3"/>
+    </row>
+    <row r="602" spans="3:4">
       <c r="C602" s="3"/>
-    </row>
-    <row r="604" spans="3:3">
+      <c r="D602" s="3"/>
+    </row>
+    <row r="604" spans="3:4">
       <c r="C604" s="3"/>
-    </row>
-    <row r="622" spans="3:3">
+      <c r="D604" s="3"/>
+    </row>
+    <row r="622" spans="3:4">
       <c r="C622" s="3"/>
-    </row>
-    <row r="623" spans="3:3">
+      <c r="D622" s="3"/>
+    </row>
+    <row r="623" spans="3:4">
       <c r="C623" s="3"/>
-    </row>
-    <row r="624" spans="3:3">
+      <c r="D623" s="3"/>
+    </row>
+    <row r="624" spans="3:4">
       <c r="C624" s="3"/>
-    </row>
-    <row r="635" spans="3:3">
+      <c r="D624" s="3"/>
+    </row>
+    <row r="635" spans="3:4">
       <c r="C635" s="3"/>
-    </row>
-    <row r="636" spans="3:3">
+      <c r="D635" s="3"/>
+    </row>
+    <row r="636" spans="3:4">
       <c r="C636" s="3"/>
-    </row>
-    <row r="637" spans="3:3">
+      <c r="D636" s="3"/>
+    </row>
+    <row r="637" spans="3:4">
       <c r="C637" s="3"/>
-    </row>
-    <row r="638" spans="3:3">
+      <c r="D637" s="3"/>
+    </row>
+    <row r="638" spans="3:4">
       <c r="C638" s="3"/>
-    </row>
-    <row r="639" spans="3:3">
+      <c r="D638" s="3"/>
+    </row>
+    <row r="639" spans="3:4">
       <c r="C639" s="3"/>
-    </row>
-    <row r="640" spans="3:3">
+      <c r="D639" s="3"/>
+    </row>
+    <row r="640" spans="3:4">
       <c r="C640" s="3"/>
-    </row>
-    <row r="648" spans="3:3">
+      <c r="D640" s="3"/>
+    </row>
+    <row r="648" spans="3:4">
       <c r="C648" s="3"/>
-    </row>
-    <row r="649" spans="3:3">
+      <c r="D648" s="3"/>
+    </row>
+    <row r="649" spans="3:4">
       <c r="C649" s="3"/>
-    </row>
-    <row r="650" spans="3:3">
+      <c r="D649" s="3"/>
+    </row>
+    <row r="650" spans="3:4">
       <c r="C650" s="3"/>
-    </row>
-    <row r="652" spans="3:3">
+      <c r="D650" s="3"/>
+    </row>
+    <row r="652" spans="3:4">
       <c r="C652" s="3"/>
-    </row>
-    <row r="653" spans="3:3">
+      <c r="D652" s="3"/>
+    </row>
+    <row r="653" spans="3:4">
       <c r="C653" s="3"/>
-    </row>
-    <row r="654" spans="3:3">
+      <c r="D653" s="3"/>
+    </row>
+    <row r="654" spans="3:4">
       <c r="C654" s="3"/>
-    </row>
-    <row r="655" spans="3:3">
+      <c r="D654" s="3"/>
+    </row>
+    <row r="655" spans="3:4">
       <c r="C655" s="3"/>
-    </row>
-    <row r="656" spans="3:3">
+      <c r="D655" s="3"/>
+    </row>
+    <row r="656" spans="3:4">
       <c r="C656" s="3"/>
-    </row>
-    <row r="657" spans="3:3">
+      <c r="D656" s="3"/>
+    </row>
+    <row r="657" spans="3:4">
       <c r="C657" s="3"/>
-    </row>
-    <row r="658" spans="3:3">
+      <c r="D657" s="3"/>
+    </row>
+    <row r="658" spans="3:4">
       <c r="C658" s="3"/>
-    </row>
-    <row r="659" spans="3:3">
+      <c r="D658" s="3"/>
+    </row>
+    <row r="659" spans="3:4">
       <c r="C659" s="3"/>
-    </row>
-    <row r="661" spans="3:3">
+      <c r="D659" s="3"/>
+    </row>
+    <row r="661" spans="3:4">
       <c r="C661" s="3"/>
-    </row>
-    <row r="662" spans="3:3">
+      <c r="D661" s="3"/>
+    </row>
+    <row r="662" spans="3:4">
       <c r="C662" s="3"/>
-    </row>
-    <row r="663" spans="3:3">
+      <c r="D662" s="3"/>
+    </row>
+    <row r="663" spans="3:4">
       <c r="C663" s="3"/>
-    </row>
-    <row r="664" spans="3:3">
+      <c r="D663" s="3"/>
+    </row>
+    <row r="664" spans="3:4">
       <c r="C664" s="3"/>
-    </row>
-    <row r="665" spans="3:3">
+      <c r="D664" s="3"/>
+    </row>
+    <row r="665" spans="3:4">
       <c r="C665" s="3"/>
+      <c r="D665" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45044,24 +45570,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -45312,25 +45820,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45347,4 +45855,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7916C63-EA89-4F4D-96B6-84AC2441F539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B740A1-6655-482C-8603-583508E6FF28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14356,9 +14356,6 @@
 </t>
   </si>
   <si>
-    <t>5.1.2;5.1.2;6.2.12;6.2.1.2</t>
-  </si>
-  <si>
     <t>26.1.b</t>
   </si>
   <si>
@@ -14672,9 +14669,6 @@
     <t xml:space="preserve">Provided that such contract or intra-group scheme shall not be approved, unless it makes the provisions for—
 (i) effective protection of the rights of the data principal under this Act, including in relation to further transfer to any other person; and
 </t>
-  </si>
-  <si>
-    <t>7.5.3;8.5.37.5.4;8.5.4</t>
   </si>
   <si>
     <t>34.1.a.ii</t>
@@ -14809,9 +14803,6 @@
   </si>
   <si>
     <t>(a) the compliance with the provisions of this Act shall disproportionately divert resources from such purpose;</t>
-  </si>
-  <si>
-    <t>7.2.2;5.2.1;5.2.;5.2.3</t>
   </si>
   <si>
     <t>38.b</t>
@@ -15312,9 +15303,6 @@
     <t>(d)  transparency and accountability measures implemented by the data fiduciary or the data processor, as the case may be, including adherence to any relevant code of practice relating to security safeguards;</t>
   </si>
   <si>
-    <t>7.3.2;7.3.3.;7.2.8;8.3.1;6.15.2</t>
-  </si>
-  <si>
     <t>64.4.e</t>
   </si>
   <si>
@@ -15361,9 +15349,6 @@
   </si>
   <si>
     <t>No compensation awarded, or penalty imposed, under this Act shall prevent the award of compensation or imposition of any other penalty or punishment under this Act or any other law for the time being in force.</t>
-  </si>
-  <si>
-    <t>5.2.1;5.2.2.</t>
   </si>
   <si>
     <t>66 Recovery of amounts</t>
@@ -15467,9 +15452,6 @@
   </si>
   <si>
     <t>The applicant or appellant may either appear in person or authorise one or more legal practitioners or any of its officers to present his or its case before the Appellate Tribunal.</t>
-  </si>
-  <si>
-    <t>6.13.1.5;6.3.1.1.</t>
   </si>
   <si>
     <t>77 Civil court not to have jurisdiction</t>
@@ -15705,6 +15687,24 @@
     <t>The Information Technology Act, 2000 shall be amended in the manner specified in the Schedule to this Act.
 1. Section 43A of the Information Technology Act, 2000 (hereafter in this Schedule referred to as the principal Act) shall be omitted.
 2. In section 87 of the principal Act, in sub-section (2), clause (ob) shall be omitted.</t>
+  </si>
+  <si>
+    <t>5.1.2;6.2.12;6.2.1.2</t>
+  </si>
+  <si>
+    <t>5.1.2;6.2.1.2;6.2.1.2</t>
+  </si>
+  <si>
+    <t>7.5.3;8.5.3;7.5.4;8.5.4</t>
+  </si>
+  <si>
+    <t>7.2.2;5.2.1;5.2.2;5.2.3</t>
+  </si>
+  <si>
+    <t>7.3.2;7.3.3;7.2.8;8.3.1;6.15.2</t>
+  </si>
+  <si>
+    <t>6.13.1.5;6.3.1.1</t>
   </si>
 </sst>
 </file>
@@ -22318,8 +22318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B934EF-02F8-4B99-85C5-C25F02848426}">
   <dimension ref="A1:H665"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A345" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E347" sqref="E347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24852,82 +24852,82 @@
       </c>
       <c r="D182" s="15"/>
       <c r="E182" s="13" t="s">
-        <v>4284</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="30">
       <c r="A183" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4284</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>4285</v>
-      </c>
-      <c r="B183" t="s">
-        <v>4285</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>4286</v>
       </c>
       <c r="D183" s="15"/>
       <c r="E183" s="13" t="s">
-        <v>4284</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="30">
       <c r="A184" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4286</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>4287</v>
-      </c>
-      <c r="B184" t="s">
-        <v>4287</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>4288</v>
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="13" t="s">
-        <v>4284</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="30">
       <c r="A185" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4288</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>4289</v>
-      </c>
-      <c r="B185" t="s">
-        <v>4289</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>4290</v>
       </c>
       <c r="D185" s="15"/>
       <c r="E185" s="13" t="s">
-        <v>4284</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4290</v>
+      </c>
+      <c r="C186" s="15" t="s">
         <v>4291</v>
-      </c>
-      <c r="B186" t="s">
-        <v>4291</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>4292</v>
       </c>
       <c r="D186" s="15"/>
       <c r="E186" s="13" t="s">
-        <v>4284</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30">
       <c r="A187" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4292</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>4293</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4293</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>4294</v>
       </c>
       <c r="D187" s="15"/>
       <c r="E187" s="13" t="s">
-        <v>4284</v>
+        <v>4628</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="26.45" customHeight="1">
@@ -24938,11 +24938,11 @@
         <v>26.2</v>
       </c>
       <c r="C188" s="15" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="D188" s="15"/>
       <c r="E188" s="13" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="41.45" customHeight="1">
@@ -24953,7 +24953,7 @@
         <v>26.3</v>
       </c>
       <c r="C189" s="15" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="D189" s="15"/>
     </row>
@@ -24965,7 +24965,7 @@
         <v>26.4</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="D190" s="15"/>
     </row>
@@ -24974,7 +24974,7 @@
         <v>27</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
@@ -24987,7 +24987,7 @@
         <v>27.1</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="D192" s="15"/>
       <c r="E192" s="13" t="s">
@@ -25002,7 +25002,7 @@
         <v>27.2</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="13" t="s">
@@ -25011,13 +25011,13 @@
     </row>
     <row r="194" spans="1:5" ht="38.25">
       <c r="A194" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4301</v>
+      </c>
+      <c r="C194" s="15" t="s">
         <v>4302</v>
-      </c>
-      <c r="B194" t="s">
-        <v>4302</v>
-      </c>
-      <c r="C194" s="15" t="s">
-        <v>4303</v>
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="13" t="s">
@@ -25026,13 +25026,13 @@
     </row>
     <row r="195" spans="1:5" ht="25.5">
       <c r="A195" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>4304</v>
-      </c>
-      <c r="B195" t="s">
-        <v>4304</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>4305</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="13" t="s">
@@ -25041,13 +25041,13 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C196" s="15" t="s">
         <v>4306</v>
-      </c>
-      <c r="B196" t="s">
-        <v>4306</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>4307</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="13" t="s">
@@ -25062,11 +25062,11 @@
         <v>27.4</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="13" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="44.45" customHeight="1">
@@ -25077,11 +25077,11 @@
         <v>27.5</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="13" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="44.45" customHeight="1">
@@ -25089,50 +25089,50 @@
         <v>28</v>
       </c>
       <c r="B199" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
     </row>
     <row r="200" spans="1:5" ht="56.1" customHeight="1">
       <c r="A200" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C200" s="15" t="s">
         <v>4312</v>
-      </c>
-      <c r="B200" t="s">
-        <v>4312</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>4313</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="13" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="30">
       <c r="A201" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4314</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>4315</v>
-      </c>
-      <c r="B201" t="s">
-        <v>4315</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>4316</v>
       </c>
       <c r="D201" s="15"/>
       <c r="E201" s="13" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C202" s="15" t="s">
         <v>4318</v>
-      </c>
-      <c r="B202" t="s">
-        <v>4318</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>4319</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="13" t="s">
@@ -25141,13 +25141,13 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>4320</v>
-      </c>
-      <c r="B203" t="s">
-        <v>4320</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>4321</v>
       </c>
       <c r="D203" s="15"/>
     </row>
@@ -25159,7 +25159,7 @@
         <v>28.2</v>
       </c>
       <c r="C204" s="15" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="D204" s="15"/>
     </row>
@@ -25171,7 +25171,7 @@
         <v>28.3</v>
       </c>
       <c r="C205" s="15" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="D205" s="15"/>
     </row>
@@ -25183,7 +25183,7 @@
         <v>28.4</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="D206" s="15"/>
     </row>
@@ -25192,7 +25192,7 @@
         <v>29</v>
       </c>
       <c r="B207" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="C207" s="15"/>
       <c r="D207" s="15"/>
@@ -25205,94 +25205,94 @@
         <v>29.1</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="13" t="s">
-        <v>4327</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="27.6" customHeight="1">
       <c r="A209" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C209" s="15" t="s">
         <v>4328</v>
-      </c>
-      <c r="B209" t="s">
-        <v>4328</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>4329</v>
       </c>
       <c r="D209" s="15"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C210" s="15" t="s">
         <v>4330</v>
-      </c>
-      <c r="B210" t="s">
-        <v>4330</v>
-      </c>
-      <c r="C210" s="15" t="s">
-        <v>4331</v>
       </c>
       <c r="D210" s="15"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4331</v>
+      </c>
+      <c r="C211" s="15" t="s">
         <v>4332</v>
-      </c>
-      <c r="B211" t="s">
-        <v>4332</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>4333</v>
       </c>
       <c r="D211" s="15"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4333</v>
+      </c>
+      <c r="C212" s="15" t="s">
         <v>4334</v>
-      </c>
-      <c r="B212" t="s">
-        <v>4334</v>
-      </c>
-      <c r="C212" s="15" t="s">
-        <v>4335</v>
       </c>
       <c r="D212" s="15"/>
     </row>
     <row r="213" spans="1:5" ht="25.5">
       <c r="A213" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4335</v>
+      </c>
+      <c r="C213" s="15" t="s">
         <v>4336</v>
-      </c>
-      <c r="B213" t="s">
-        <v>4336</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>4337</v>
       </c>
       <c r="D213" s="15"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4337</v>
+      </c>
+      <c r="C214" s="15" t="s">
         <v>4338</v>
-      </c>
-      <c r="B214" t="s">
-        <v>4338</v>
-      </c>
-      <c r="C214" s="15" t="s">
-        <v>4339</v>
       </c>
       <c r="D214" s="15"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B215" t="s">
+        <v>4339</v>
+      </c>
+      <c r="C215" s="15" t="s">
         <v>4340</v>
-      </c>
-      <c r="B215" t="s">
-        <v>4340</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>4341</v>
       </c>
       <c r="D215" s="15"/>
     </row>
@@ -25304,7 +25304,7 @@
         <v>29.3</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="D216" s="15"/>
     </row>
@@ -25316,7 +25316,7 @@
         <v>29.4</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="D217" s="15"/>
     </row>
@@ -25328,7 +25328,7 @@
         <v>29.5</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="D218" s="15"/>
     </row>
@@ -25340,7 +25340,7 @@
         <v>29.6</v>
       </c>
       <c r="C219" s="15" t="s">
-        <v>4345</v>
+        <v>4344</v>
       </c>
       <c r="D219" s="15"/>
     </row>
@@ -25352,7 +25352,7 @@
         <v>29.7</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>4346</v>
+        <v>4345</v>
       </c>
       <c r="D220" s="15"/>
     </row>
@@ -25361,7 +25361,7 @@
         <v>30</v>
       </c>
       <c r="B221" t="s">
-        <v>4347</v>
+        <v>4346</v>
       </c>
       <c r="C221" s="15"/>
       <c r="D221" s="15"/>
@@ -25374,7 +25374,7 @@
         <v>849</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>4348</v>
+        <v>4347</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="13" t="s">
@@ -25389,7 +25389,7 @@
         <v>850</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="13" t="s">
@@ -25404,11 +25404,11 @@
         <v>851</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="13" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="25.5">
@@ -25419,7 +25419,7 @@
         <v>852</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="D225" s="15"/>
       <c r="E225" s="13" t="s">
@@ -25434,7 +25434,7 @@
         <v>854</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="13" t="s">
@@ -25449,7 +25449,7 @@
         <v>856</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="13" t="s">
@@ -25464,7 +25464,7 @@
         <v>858</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="13" t="s">
@@ -25479,7 +25479,7 @@
         <v>30.2</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="D229" s="15"/>
     </row>
@@ -25491,7 +25491,7 @@
         <v>30.3</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="13" t="s">
@@ -25503,7 +25503,7 @@
         <v>31</v>
       </c>
       <c r="B231" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="C231" s="15"/>
       <c r="D231" s="15"/>
@@ -25516,11 +25516,11 @@
         <v>31.1</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="D232" s="15"/>
       <c r="E232" s="13" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="38.25">
@@ -25531,7 +25531,7 @@
         <v>31.2</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="13" t="s">
@@ -25546,11 +25546,11 @@
         <v>31.3</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="D234" s="15"/>
       <c r="E234" s="13" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="35.1" customHeight="1">
@@ -25558,7 +25558,7 @@
         <v>32</v>
       </c>
       <c r="B235" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="C235" s="15"/>
       <c r="D235" s="15"/>
@@ -25571,41 +25571,41 @@
         <v>32.1</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="D236" s="15"/>
       <c r="E236" s="13" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="38.25">
       <c r="A237" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4366</v>
+      </c>
+      <c r="C237" s="15" t="s">
         <v>4367</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4367</v>
-      </c>
-      <c r="C237" s="15" t="s">
-        <v>4368</v>
       </c>
       <c r="D237" s="15"/>
       <c r="E237" s="13" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4368</v>
+      </c>
+      <c r="C238" s="15" t="s">
         <v>4369</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4369</v>
-      </c>
-      <c r="C238" s="15" t="s">
-        <v>4370</v>
       </c>
       <c r="D238" s="15"/>
       <c r="E238" s="13" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="25.5">
@@ -25616,11 +25616,11 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="D239" s="15"/>
       <c r="E239" s="13" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="38.25">
@@ -25631,11 +25631,11 @@
         <v>32.4</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="D240" s="15"/>
       <c r="E240" s="13" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -25643,7 +25643,7 @@
         <v>33</v>
       </c>
       <c r="B241" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="C241" s="15"/>
       <c r="D241" s="15"/>
@@ -25656,11 +25656,11 @@
         <v>33.1</v>
       </c>
       <c r="C242" s="15" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="D242" s="15"/>
       <c r="E242" s="13" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -25671,7 +25671,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
       <c r="D243" s="15"/>
     </row>
@@ -25680,134 +25680,134 @@
         <v>34</v>
       </c>
       <c r="B244" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="C244" s="15"/>
       <c r="D244" s="15"/>
     </row>
     <row r="245" spans="1:5" ht="45.95" customHeight="1">
       <c r="A245" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4377</v>
+      </c>
+      <c r="C245" s="15" t="s">
         <v>4378</v>
-      </c>
-      <c r="B245" t="s">
-        <v>4378</v>
-      </c>
-      <c r="C245" s="15" t="s">
-        <v>4379</v>
       </c>
       <c r="D245" s="15"/>
       <c r="E245" s="13" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="27" customHeight="1">
       <c r="A246" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C246" s="15" t="s">
         <v>4381</v>
-      </c>
-      <c r="B246" t="s">
-        <v>4381</v>
-      </c>
-      <c r="C246" s="15" t="s">
-        <v>4382</v>
       </c>
       <c r="D246" s="15"/>
       <c r="E246" s="13" t="s">
-        <v>4383</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="28.5" customHeight="1">
       <c r="A247" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="B247" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="D247" s="15"/>
     </row>
     <row r="248" spans="1:5" ht="63.75">
       <c r="A248" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="B248" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="D248" s="15"/>
     </row>
     <row r="249" spans="1:5" ht="25.5">
       <c r="A249" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="B249" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="D249" s="15"/>
       <c r="E249" s="13" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="B250" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="D250" s="15"/>
       <c r="E250" s="13" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="25.5">
       <c r="A251" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="B251" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="D251" s="15"/>
       <c r="E251" s="13" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="51">
       <c r="A252" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="B252" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="D252" s="15"/>
       <c r="E252" s="13" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="38.25">
       <c r="A253" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="B253" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="D253" s="15"/>
       <c r="E253" s="13" t="s">
@@ -25822,7 +25822,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
       <c r="D254" s="15"/>
       <c r="E254" s="13" t="s">
@@ -25834,37 +25834,37 @@
         <v>35</v>
       </c>
       <c r="B255" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="D255" s="15"/>
     </row>
     <row r="256" spans="1:5" ht="38.25">
       <c r="A256" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="B256" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="D256" s="15"/>
       <c r="E256" s="13" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="30.95" customHeight="1">
       <c r="A257" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="B257" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="C257" s="15" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="D257" s="15"/>
     </row>
@@ -25873,84 +25873,84 @@
         <v>36</v>
       </c>
       <c r="B258" s="14" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="C258" s="15"/>
       <c r="D258" s="15"/>
     </row>
     <row r="259" spans="1:5" ht="63.75">
       <c r="A259" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="B259" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="D259" s="15"/>
       <c r="E259" s="13" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="25.5">
       <c r="A260" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="B260" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>4411</v>
+        <v>4409</v>
       </c>
       <c r="D260" s="15"/>
       <c r="E260" s="13" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
       <c r="B261" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>4413</v>
+        <v>4411</v>
       </c>
       <c r="D261" s="15"/>
       <c r="E261" s="13" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="25.5">
       <c r="A262" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="B262" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
       <c r="D262" s="15"/>
       <c r="E262" s="13" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="25.5">
       <c r="A263" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
       <c r="B263" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="D263" s="15"/>
       <c r="E263" s="13" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="75">
@@ -25958,10 +25958,10 @@
         <v>37</v>
       </c>
       <c r="B264" s="14" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>4419</v>
+        <v>4417</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="13" t="s">
@@ -25973,40 +25973,40 @@
         <v>38</v>
       </c>
       <c r="B265" s="14" t="s">
-        <v>4420</v>
+        <v>4418</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="D265" s="15"/>
       <c r="E265" s="13" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
       <c r="B266" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>4423</v>
+        <v>4421</v>
       </c>
       <c r="D266" s="15"/>
       <c r="E266" s="13" t="s">
-        <v>4424</v>
+        <v>4631</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="30">
       <c r="A267" t="s">
-        <v>4425</v>
+        <v>4422</v>
       </c>
       <c r="B267" t="s">
-        <v>4425</v>
+        <v>4422</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>4426</v>
+        <v>4423</v>
       </c>
       <c r="D267" s="15"/>
       <c r="E267" s="13" t="s">
@@ -26015,13 +26015,13 @@
     </row>
     <row r="268" spans="1:5" ht="30">
       <c r="A268" t="s">
-        <v>4427</v>
+        <v>4424</v>
       </c>
       <c r="B268" t="s">
-        <v>4427</v>
+        <v>4424</v>
       </c>
       <c r="C268" s="15" t="s">
-        <v>4428</v>
+        <v>4425</v>
       </c>
       <c r="D268" s="15"/>
       <c r="E268" s="13" t="s">
@@ -26030,32 +26030,32 @@
     </row>
     <row r="269" spans="1:5" ht="30">
       <c r="A269" t="s">
-        <v>4429</v>
+        <v>4426</v>
       </c>
       <c r="B269" t="s">
-        <v>4429</v>
+        <v>4426</v>
       </c>
       <c r="C269" s="15" t="s">
-        <v>4430</v>
+        <v>4427</v>
       </c>
       <c r="D269" s="15"/>
       <c r="E269" s="13" t="s">
-        <v>4431</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="30">
       <c r="A270" t="s">
-        <v>4432</v>
+        <v>4429</v>
       </c>
       <c r="B270" t="s">
-        <v>4432</v>
+        <v>4429</v>
       </c>
       <c r="C270" s="15" t="s">
-        <v>4433</v>
+        <v>4430</v>
       </c>
       <c r="D270" s="15"/>
       <c r="E270" s="13" t="s">
-        <v>4434</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -26063,7 +26063,7 @@
         <v>39</v>
       </c>
       <c r="B271" t="s">
-        <v>4435</v>
+        <v>4432</v>
       </c>
       <c r="C271" s="15"/>
       <c r="D271" s="15"/>
@@ -26076,11 +26076,11 @@
         <v>39.1</v>
       </c>
       <c r="C272" s="15" t="s">
-        <v>4436</v>
+        <v>4433</v>
       </c>
       <c r="D272" s="15"/>
       <c r="E272" s="13" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="25.5">
@@ -26091,43 +26091,43 @@
         <v>39.200000000000003</v>
       </c>
       <c r="C273" s="15" t="s">
-        <v>4437</v>
+        <v>4434</v>
       </c>
       <c r="D273" s="15"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" t="s">
-        <v>4438</v>
+        <v>4435</v>
       </c>
       <c r="B274" t="s">
-        <v>4438</v>
+        <v>4435</v>
       </c>
       <c r="C274" s="15" t="s">
-        <v>4439</v>
+        <v>4436</v>
       </c>
       <c r="D274" s="15"/>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" t="s">
-        <v>4440</v>
+        <v>4437</v>
       </c>
       <c r="B275" t="s">
-        <v>4440</v>
+        <v>4437</v>
       </c>
       <c r="C275" s="15" t="s">
-        <v>4441</v>
+        <v>4438</v>
       </c>
       <c r="D275" s="15"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" t="s">
-        <v>4442</v>
+        <v>4439</v>
       </c>
       <c r="B276" t="s">
-        <v>4442</v>
+        <v>4439</v>
       </c>
       <c r="C276" s="15" t="s">
-        <v>4443</v>
+        <v>4440</v>
       </c>
       <c r="D276" s="15"/>
     </row>
@@ -26136,14 +26136,14 @@
         <v>40</v>
       </c>
       <c r="B277" t="s">
-        <v>4444</v>
+        <v>4441</v>
       </c>
       <c r="C277" s="15" t="s">
-        <v>4445</v>
+        <v>4442</v>
       </c>
       <c r="D277" s="15"/>
       <c r="E277" s="13" t="s">
-        <v>4431</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="89.25">
@@ -26151,10 +26151,10 @@
         <v>41</v>
       </c>
       <c r="B278" s="16" t="s">
-        <v>4446</v>
+        <v>4443</v>
       </c>
       <c r="C278" s="15" t="s">
-        <v>4447</v>
+        <v>4444</v>
       </c>
       <c r="D278" s="15"/>
     </row>
@@ -26163,10 +26163,10 @@
         <v>42</v>
       </c>
       <c r="B279" s="16" t="s">
-        <v>4448</v>
+        <v>4445</v>
       </c>
       <c r="C279" s="15" t="s">
-        <v>4449</v>
+        <v>4446</v>
       </c>
       <c r="D279" s="15"/>
     </row>
@@ -26175,10 +26175,10 @@
         <v>43</v>
       </c>
       <c r="B280" s="16" t="s">
-        <v>4450</v>
+        <v>4447</v>
       </c>
       <c r="C280" s="15" t="s">
-        <v>4451</v>
+        <v>4448</v>
       </c>
       <c r="D280" s="15"/>
     </row>
@@ -26187,10 +26187,10 @@
         <v>44</v>
       </c>
       <c r="B281" s="16" t="s">
-        <v>4452</v>
+        <v>4449</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>4453</v>
+        <v>4450</v>
       </c>
       <c r="D281" s="15"/>
     </row>
@@ -26199,10 +26199,10 @@
         <v>45</v>
       </c>
       <c r="B282" s="16" t="s">
-        <v>4454</v>
+        <v>4451</v>
       </c>
       <c r="C282" s="15" t="s">
-        <v>4455</v>
+        <v>4452</v>
       </c>
       <c r="D282" s="15"/>
     </row>
@@ -26211,10 +26211,10 @@
         <v>46</v>
       </c>
       <c r="B283" s="16" t="s">
-        <v>4456</v>
+        <v>4453</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>4457</v>
+        <v>4454</v>
       </c>
       <c r="D283" s="15"/>
     </row>
@@ -26223,10 +26223,10 @@
         <v>47</v>
       </c>
       <c r="B284" s="16" t="s">
-        <v>4458</v>
+        <v>4455</v>
       </c>
       <c r="C284" s="15" t="s">
-        <v>4459</v>
+        <v>4456</v>
       </c>
       <c r="D284" s="15"/>
     </row>
@@ -26235,10 +26235,10 @@
         <v>48</v>
       </c>
       <c r="B285" s="16" t="s">
-        <v>4460</v>
+        <v>4457</v>
       </c>
       <c r="C285" s="15" t="s">
-        <v>4461</v>
+        <v>4458</v>
       </c>
       <c r="D285" s="15"/>
     </row>
@@ -26247,10 +26247,10 @@
         <v>49</v>
       </c>
       <c r="B286" s="16" t="s">
-        <v>4462</v>
+        <v>4459</v>
       </c>
       <c r="C286" s="15" t="s">
-        <v>4463</v>
+        <v>4460</v>
       </c>
       <c r="D286" s="15"/>
     </row>
@@ -26259,10 +26259,10 @@
         <v>50</v>
       </c>
       <c r="B287" s="14" t="s">
-        <v>4464</v>
+        <v>4461</v>
       </c>
       <c r="C287" s="15" t="s">
-        <v>4465</v>
+        <v>4462</v>
       </c>
       <c r="D287" s="15"/>
       <c r="E287" s="13" t="s">
@@ -26274,10 +26274,10 @@
         <v>51</v>
       </c>
       <c r="B288" s="16" t="s">
-        <v>4466</v>
+        <v>4463</v>
       </c>
       <c r="C288" s="15" t="s">
-        <v>4467</v>
+        <v>4464</v>
       </c>
       <c r="D288" s="15"/>
     </row>
@@ -26286,10 +26286,10 @@
         <v>52</v>
       </c>
       <c r="B289" s="16" t="s">
-        <v>4468</v>
+        <v>4465</v>
       </c>
       <c r="C289" s="15" t="s">
-        <v>4469</v>
+        <v>4466</v>
       </c>
       <c r="D289" s="15"/>
     </row>
@@ -26298,10 +26298,10 @@
         <v>53</v>
       </c>
       <c r="B290" s="16" t="s">
-        <v>4470</v>
+        <v>4467</v>
       </c>
       <c r="C290" s="15" t="s">
-        <v>4471</v>
+        <v>4468</v>
       </c>
       <c r="D290" s="15"/>
     </row>
@@ -26310,10 +26310,10 @@
         <v>54</v>
       </c>
       <c r="B291" s="16" t="s">
-        <v>4472</v>
+        <v>4469</v>
       </c>
       <c r="C291" s="15" t="s">
-        <v>4473</v>
+        <v>4470</v>
       </c>
       <c r="D291" s="15"/>
     </row>
@@ -26322,10 +26322,10 @@
         <v>55</v>
       </c>
       <c r="B292" s="16" t="s">
-        <v>4474</v>
+        <v>4471</v>
       </c>
       <c r="C292" s="15" t="s">
-        <v>4475</v>
+        <v>4472</v>
       </c>
       <c r="D292" s="15"/>
     </row>
@@ -26334,10 +26334,10 @@
         <v>56</v>
       </c>
       <c r="B293" s="16" t="s">
-        <v>4476</v>
+        <v>4473</v>
       </c>
       <c r="C293" s="15" t="s">
-        <v>4477</v>
+        <v>4474</v>
       </c>
       <c r="D293" s="15"/>
     </row>
@@ -26346,7 +26346,7 @@
         <v>57</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>4478</v>
+        <v>4475</v>
       </c>
       <c r="C294" s="15"/>
       <c r="D294" s="15"/>
@@ -26359,22 +26359,22 @@
         <v>57.1</v>
       </c>
       <c r="C295" s="15" t="s">
-        <v>4479</v>
+        <v>4476</v>
       </c>
       <c r="D295" s="15"/>
       <c r="E295" s="13" t="s">
-        <v>4480</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="27.95" customHeight="1">
       <c r="A296" t="s">
-        <v>4481</v>
+        <v>4478</v>
       </c>
       <c r="B296" t="s">
-        <v>4481</v>
+        <v>4478</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>4482</v>
+        <v>4479</v>
       </c>
       <c r="D296" s="15"/>
       <c r="E296" s="13" t="s">
@@ -26383,28 +26383,28 @@
     </row>
     <row r="297" spans="1:5" ht="30">
       <c r="A297" t="s">
-        <v>4483</v>
+        <v>4480</v>
       </c>
       <c r="B297" t="s">
-        <v>4483</v>
+        <v>4480</v>
       </c>
       <c r="C297" s="15" t="s">
-        <v>4484</v>
+        <v>4481</v>
       </c>
       <c r="D297" s="15"/>
       <c r="E297" s="13" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>4485</v>
+        <v>4482</v>
       </c>
       <c r="B298" t="s">
-        <v>4485</v>
+        <v>4482</v>
       </c>
       <c r="C298" s="15" t="s">
-        <v>4486</v>
+        <v>4483</v>
       </c>
       <c r="D298" s="15"/>
       <c r="E298" s="13" t="s">
@@ -26413,28 +26413,28 @@
     </row>
     <row r="299" spans="1:5" ht="30">
       <c r="A299" t="s">
-        <v>4487</v>
+        <v>4484</v>
       </c>
       <c r="B299" t="s">
-        <v>4487</v>
+        <v>4484</v>
       </c>
       <c r="C299" s="15" t="s">
-        <v>4488</v>
+        <v>4485</v>
       </c>
       <c r="D299" s="15"/>
       <c r="E299" s="13" t="s">
-        <v>4489</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" t="s">
-        <v>4490</v>
+        <v>4487</v>
       </c>
       <c r="B300" t="s">
-        <v>4490</v>
+        <v>4487</v>
       </c>
       <c r="C300" s="15" t="s">
-        <v>4491</v>
+        <v>4488</v>
       </c>
       <c r="D300" s="15"/>
       <c r="E300" s="13" t="s">
@@ -26449,49 +26449,49 @@
         <v>57.2</v>
       </c>
       <c r="C301" s="15" t="s">
-        <v>4492</v>
+        <v>4489</v>
       </c>
       <c r="D301" s="15"/>
     </row>
     <row r="302" spans="1:5" ht="45">
       <c r="A302" t="s">
-        <v>4493</v>
+        <v>4490</v>
       </c>
       <c r="B302" t="s">
-        <v>4493</v>
+        <v>4490</v>
       </c>
       <c r="C302" s="15" t="s">
-        <v>4494</v>
+        <v>4491</v>
       </c>
       <c r="D302" s="15"/>
       <c r="E302" s="13" t="s">
-        <v>4495</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>4496</v>
+        <v>4493</v>
       </c>
       <c r="B303" t="s">
-        <v>4496</v>
+        <v>4493</v>
       </c>
       <c r="C303" s="15" t="s">
-        <v>4497</v>
+        <v>4494</v>
       </c>
       <c r="D303" s="15"/>
       <c r="E303" s="13" t="s">
-        <v>4498</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="30">
       <c r="A304" t="s">
-        <v>4499</v>
+        <v>4496</v>
       </c>
       <c r="B304" t="s">
-        <v>4499</v>
+        <v>4496</v>
       </c>
       <c r="C304" s="15" t="s">
-        <v>4500</v>
+        <v>4497</v>
       </c>
       <c r="D304" s="15"/>
       <c r="E304" s="13" t="s">
@@ -26500,17 +26500,17 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>4501</v>
+        <v>4498</v>
       </c>
       <c r="B305" t="s">
-        <v>4501</v>
+        <v>4498</v>
       </c>
       <c r="C305" s="15" t="s">
-        <v>4502</v>
+        <v>4499</v>
       </c>
       <c r="D305" s="15"/>
       <c r="E305" s="13" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -26521,79 +26521,79 @@
         <v>57.3</v>
       </c>
       <c r="C306" s="15" t="s">
-        <v>4503</v>
+        <v>4500</v>
       </c>
       <c r="D306" s="15"/>
     </row>
     <row r="307" spans="1:5" ht="38.25">
       <c r="A307" t="s">
-        <v>4504</v>
+        <v>4501</v>
       </c>
       <c r="B307" t="s">
-        <v>4504</v>
+        <v>4501</v>
       </c>
       <c r="C307" s="15" t="s">
-        <v>4505</v>
+        <v>4502</v>
       </c>
       <c r="D307" s="15"/>
     </row>
     <row r="308" spans="1:5" ht="38.25">
       <c r="A308" t="s">
-        <v>4506</v>
+        <v>4503</v>
       </c>
       <c r="B308" t="s">
-        <v>4506</v>
+        <v>4503</v>
       </c>
       <c r="C308" s="15" t="s">
-        <v>4507</v>
+        <v>4504</v>
       </c>
       <c r="D308" s="15"/>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>4508</v>
+        <v>4505</v>
       </c>
       <c r="B309" t="s">
-        <v>4508</v>
+        <v>4505</v>
       </c>
       <c r="C309" s="15" t="s">
-        <v>4509</v>
+        <v>4506</v>
       </c>
       <c r="D309" s="15"/>
     </row>
     <row r="310" spans="1:5" ht="25.5">
       <c r="A310" t="s">
-        <v>4510</v>
+        <v>4507</v>
       </c>
       <c r="B310" t="s">
-        <v>4510</v>
+        <v>4507</v>
       </c>
       <c r="C310" s="15" t="s">
-        <v>4511</v>
+        <v>4508</v>
       </c>
       <c r="D310" s="15"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>4512</v>
+        <v>4509</v>
       </c>
       <c r="B311" t="s">
-        <v>4512</v>
+        <v>4509</v>
       </c>
       <c r="C311" s="15" t="s">
-        <v>4513</v>
+        <v>4510</v>
       </c>
       <c r="D311" s="15"/>
     </row>
     <row r="312" spans="1:5" ht="25.5">
       <c r="A312" t="s">
-        <v>4514</v>
+        <v>4511</v>
       </c>
       <c r="B312" t="s">
-        <v>4514</v>
+        <v>4511</v>
       </c>
       <c r="C312" s="15" t="s">
-        <v>4515</v>
+        <v>4512</v>
       </c>
       <c r="D312" s="15"/>
     </row>
@@ -26602,14 +26602,14 @@
         <v>58</v>
       </c>
       <c r="B313" s="14" t="s">
-        <v>4516</v>
+        <v>4513</v>
       </c>
       <c r="C313" s="15" t="s">
-        <v>4517</v>
+        <v>4514</v>
       </c>
       <c r="D313" s="15"/>
       <c r="E313" s="13" t="s">
-        <v>4518</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="55.5" customHeight="1">
@@ -26617,14 +26617,14 @@
         <v>59</v>
       </c>
       <c r="B314" s="14" t="s">
-        <v>4519</v>
+        <v>4516</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>4520</v>
+        <v>4517</v>
       </c>
       <c r="D314" s="15"/>
       <c r="E314" s="13" t="s">
-        <v>4521</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="75">
@@ -26632,14 +26632,14 @@
         <v>60</v>
       </c>
       <c r="B315" s="14" t="s">
-        <v>4522</v>
+        <v>4519</v>
       </c>
       <c r="C315" s="15" t="s">
-        <v>4523</v>
+        <v>4520</v>
       </c>
       <c r="D315" s="15"/>
       <c r="E315" s="13" t="s">
-        <v>4524</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="52.5" customHeight="1">
@@ -26647,14 +26647,14 @@
         <v>61</v>
       </c>
       <c r="B316" s="14" t="s">
-        <v>4525</v>
+        <v>4522</v>
       </c>
       <c r="C316" s="15" t="s">
-        <v>4526</v>
+        <v>4523</v>
       </c>
       <c r="D316" s="15"/>
       <c r="E316" s="13" t="s">
-        <v>4524</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="140.25">
@@ -26662,10 +26662,10 @@
         <v>62</v>
       </c>
       <c r="B317" s="14" t="s">
-        <v>4527</v>
+        <v>4524</v>
       </c>
       <c r="C317" s="15" t="s">
-        <v>4528</v>
+        <v>4525</v>
       </c>
       <c r="D317" s="15"/>
       <c r="E317" s="13" t="s">
@@ -26677,10 +26677,10 @@
         <v>63</v>
       </c>
       <c r="B318" s="16" t="s">
-        <v>4529</v>
+        <v>4526</v>
       </c>
       <c r="C318" s="15" t="s">
-        <v>4530</v>
+        <v>4527</v>
       </c>
       <c r="D318" s="15"/>
     </row>
@@ -26689,7 +26689,7 @@
         <v>64</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>4531</v>
+        <v>4528</v>
       </c>
       <c r="C319" s="15"/>
       <c r="D319" s="15"/>
@@ -26702,11 +26702,11 @@
         <v>64.099999999999994</v>
       </c>
       <c r="C320" s="15" t="s">
-        <v>4532</v>
+        <v>4529</v>
       </c>
       <c r="D320" s="15"/>
       <c r="E320" s="13" t="s">
-        <v>4533</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="15.6" customHeight="1">
@@ -26717,7 +26717,7 @@
         <v>64.2</v>
       </c>
       <c r="C321" s="15" t="s">
-        <v>4534</v>
+        <v>4531</v>
       </c>
       <c r="D321" s="15"/>
       <c r="E321" s="13" t="s">
@@ -26732,7 +26732,7 @@
         <v>64.3</v>
       </c>
       <c r="C322" s="15" t="s">
-        <v>4535</v>
+        <v>4532</v>
       </c>
       <c r="D322" s="15"/>
       <c r="E322" s="13" t="s">
@@ -26741,125 +26741,125 @@
     </row>
     <row r="323" spans="1:8" ht="41.45" customHeight="1">
       <c r="A323" t="s">
-        <v>4536</v>
+        <v>4533</v>
       </c>
       <c r="B323" t="s">
-        <v>4536</v>
+        <v>4533</v>
       </c>
       <c r="C323" s="15" t="s">
-        <v>4537</v>
+        <v>4534</v>
       </c>
       <c r="D323" s="15"/>
       <c r="E323" s="13" t="s">
-        <v>4538</v>
+        <v>4535</v>
       </c>
       <c r="H323" s="13"/>
     </row>
     <row r="324" spans="1:8" ht="15.6" customHeight="1">
       <c r="A324" t="s">
-        <v>4539</v>
+        <v>4536</v>
       </c>
       <c r="B324" t="s">
-        <v>4539</v>
+        <v>4536</v>
       </c>
       <c r="C324" s="15" t="s">
-        <v>4540</v>
+        <v>4537</v>
       </c>
       <c r="D324" s="15"/>
       <c r="E324" s="13" t="s">
-        <v>4538</v>
+        <v>4535</v>
       </c>
       <c r="H324" s="13"/>
     </row>
     <row r="325" spans="1:8" ht="15.6" customHeight="1">
       <c r="A325" t="s">
-        <v>4541</v>
+        <v>4538</v>
       </c>
       <c r="B325" t="s">
-        <v>4541</v>
+        <v>4538</v>
       </c>
       <c r="C325" s="15" t="s">
-        <v>4542</v>
+        <v>4539</v>
       </c>
       <c r="D325" s="15"/>
       <c r="E325" s="13" t="s">
-        <v>4538</v>
+        <v>4535</v>
       </c>
       <c r="H325" s="13"/>
     </row>
     <row r="326" spans="1:8" ht="29.1" customHeight="1">
       <c r="A326" t="s">
-        <v>4543</v>
+        <v>4540</v>
       </c>
       <c r="B326" t="s">
-        <v>4543</v>
+        <v>4540</v>
       </c>
       <c r="C326" s="15" t="s">
-        <v>4544</v>
+        <v>4541</v>
       </c>
       <c r="D326" s="15"/>
       <c r="E326" s="13" t="s">
-        <v>4545</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="15.6" customHeight="1">
       <c r="A327" t="s">
-        <v>4546</v>
+        <v>4542</v>
       </c>
       <c r="B327" t="s">
-        <v>4546</v>
+        <v>4542</v>
       </c>
       <c r="C327" s="15" t="s">
-        <v>4547</v>
+        <v>4543</v>
       </c>
       <c r="D327" s="15"/>
       <c r="E327" s="13" t="s">
-        <v>4548</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="15.6" customHeight="1">
       <c r="A328" t="s">
-        <v>4549</v>
+        <v>4545</v>
       </c>
       <c r="B328" t="s">
-        <v>4549</v>
+        <v>4545</v>
       </c>
       <c r="C328" s="15" t="s">
-        <v>4550</v>
+        <v>4546</v>
       </c>
       <c r="D328" s="15"/>
       <c r="E328" s="13" t="s">
-        <v>4538</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="15.6" customHeight="1">
       <c r="A329" t="s">
-        <v>4551</v>
+        <v>4547</v>
       </c>
       <c r="B329" t="s">
-        <v>4551</v>
+        <v>4547</v>
       </c>
       <c r="C329" s="15" t="s">
-        <v>4552</v>
+        <v>4548</v>
       </c>
       <c r="D329" s="15"/>
       <c r="E329" s="13" t="s">
-        <v>4545</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="26.1" customHeight="1">
       <c r="A330" t="s">
-        <v>4553</v>
+        <v>4549</v>
       </c>
       <c r="B330" t="s">
-        <v>4553</v>
+        <v>4549</v>
       </c>
       <c r="C330" s="15" t="s">
-        <v>4554</v>
+        <v>4550</v>
       </c>
       <c r="D330" s="15"/>
       <c r="E330" s="13" t="s">
-        <v>4538</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="47.45" customHeight="1">
@@ -26870,11 +26870,11 @@
         <v>64.5</v>
       </c>
       <c r="C331" s="15" t="s">
-        <v>4555</v>
+        <v>4551</v>
       </c>
       <c r="D331" s="15"/>
       <c r="E331" s="13" t="s">
-        <v>4556</v>
+        <v>4552</v>
       </c>
     </row>
     <row r="332" spans="1:8" ht="43.5" customHeight="1">
@@ -26885,11 +26885,11 @@
         <v>64.599999999999994</v>
       </c>
       <c r="C332" s="15" t="s">
-        <v>4557</v>
+        <v>4553</v>
       </c>
       <c r="D332" s="15"/>
       <c r="E332" s="13" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="51" customHeight="1">
@@ -26900,7 +26900,7 @@
         <v>64.7</v>
       </c>
       <c r="C333" s="15" t="s">
-        <v>4558</v>
+        <v>4554</v>
       </c>
       <c r="D333" s="15"/>
       <c r="E333" s="13" t="s">
@@ -26916,7 +26916,7 @@
         <v>64.8</v>
       </c>
       <c r="C334" s="15" t="s">
-        <v>4559</v>
+        <v>4555</v>
       </c>
       <c r="D334" s="15"/>
     </row>
@@ -26925,14 +26925,14 @@
         <v>65</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>4560</v>
+        <v>4556</v>
       </c>
       <c r="C335" s="15" t="s">
-        <v>4561</v>
+        <v>4557</v>
       </c>
       <c r="D335" s="15"/>
       <c r="E335" s="13" t="s">
-        <v>4562</v>
+        <v>2129</v>
       </c>
       <c r="H335" s="14"/>
     </row>
@@ -26941,10 +26941,10 @@
         <v>66</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>4563</v>
+        <v>4558</v>
       </c>
       <c r="C336" s="15" t="s">
-        <v>4564</v>
+        <v>4559</v>
       </c>
       <c r="D336" s="15"/>
     </row>
@@ -26953,10 +26953,10 @@
         <v>67</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>4565</v>
+        <v>4560</v>
       </c>
       <c r="C337" s="15" t="s">
-        <v>4566</v>
+        <v>4561</v>
       </c>
       <c r="D337" s="15"/>
     </row>
@@ -26965,10 +26965,10 @@
         <v>68</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>4567</v>
+        <v>4562</v>
       </c>
       <c r="C338" s="15" t="s">
-        <v>4568</v>
+        <v>4563</v>
       </c>
       <c r="D338" s="15"/>
     </row>
@@ -26977,10 +26977,10 @@
         <v>69</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>4569</v>
+        <v>4564</v>
       </c>
       <c r="C339" s="15" t="s">
-        <v>4570</v>
+        <v>4565</v>
       </c>
       <c r="D339" s="15"/>
     </row>
@@ -26989,10 +26989,10 @@
         <v>70</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>4571</v>
+        <v>4566</v>
       </c>
       <c r="C340" s="15" t="s">
-        <v>4572</v>
+        <v>4567</v>
       </c>
       <c r="D340" s="15"/>
     </row>
@@ -27001,10 +27001,10 @@
         <v>71</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>4573</v>
+        <v>4568</v>
       </c>
       <c r="C341" s="15" t="s">
-        <v>4574</v>
+        <v>4569</v>
       </c>
       <c r="D341" s="15"/>
     </row>
@@ -27013,10 +27013,10 @@
         <v>72</v>
       </c>
       <c r="B342" s="14" t="s">
-        <v>4575</v>
+        <v>4570</v>
       </c>
       <c r="C342" s="15" t="s">
-        <v>4576</v>
+        <v>4571</v>
       </c>
       <c r="D342" s="15"/>
       <c r="E342" s="13" t="s">
@@ -27029,10 +27029,10 @@
         <v>73</v>
       </c>
       <c r="B343" s="16" t="s">
-        <v>4577</v>
+        <v>4572</v>
       </c>
       <c r="C343" s="15" t="s">
-        <v>4578</v>
+        <v>4573</v>
       </c>
       <c r="D343" s="15"/>
     </row>
@@ -27041,10 +27041,10 @@
         <v>74</v>
       </c>
       <c r="B344" s="16" t="s">
-        <v>4579</v>
+        <v>4574</v>
       </c>
       <c r="C344" s="15" t="s">
-        <v>4580</v>
+        <v>4575</v>
       </c>
       <c r="D344" s="15"/>
     </row>
@@ -27053,10 +27053,10 @@
         <v>75</v>
       </c>
       <c r="B345" s="14" t="s">
-        <v>4581</v>
+        <v>4576</v>
       </c>
       <c r="C345" s="15" t="s">
-        <v>4582</v>
+        <v>4577</v>
       </c>
       <c r="D345" s="15"/>
       <c r="E345" s="13" t="s">
@@ -27069,14 +27069,14 @@
         <v>76</v>
       </c>
       <c r="B346" s="14" t="s">
-        <v>4583</v>
+        <v>4578</v>
       </c>
       <c r="C346" s="15" t="s">
-        <v>4584</v>
+        <v>4579</v>
       </c>
       <c r="D346" s="15"/>
       <c r="E346" s="13" t="s">
-        <v>4585</v>
+        <v>4633</v>
       </c>
       <c r="H346" s="14"/>
     </row>
@@ -27085,10 +27085,10 @@
         <v>77</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>4586</v>
+        <v>4580</v>
       </c>
       <c r="C347" s="15" t="s">
-        <v>4587</v>
+        <v>4581</v>
       </c>
       <c r="D347" s="15"/>
     </row>
@@ -27097,10 +27097,10 @@
         <v>78</v>
       </c>
       <c r="B348" s="16" t="s">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="C348" s="15" t="s">
-        <v>4589</v>
+        <v>4583</v>
       </c>
       <c r="D348" s="15"/>
     </row>
@@ -27109,10 +27109,10 @@
         <v>79</v>
       </c>
       <c r="B349" s="16" t="s">
-        <v>4590</v>
+        <v>4584</v>
       </c>
       <c r="C349" s="15" t="s">
-        <v>4591</v>
+        <v>4585</v>
       </c>
       <c r="D349" s="15"/>
     </row>
@@ -27121,10 +27121,10 @@
         <v>80</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>4592</v>
+        <v>4586</v>
       </c>
       <c r="C350" s="15" t="s">
-        <v>4593</v>
+        <v>4587</v>
       </c>
       <c r="D350" s="15"/>
     </row>
@@ -27133,10 +27133,10 @@
         <v>81</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>4594</v>
+        <v>4588</v>
       </c>
       <c r="C351" s="15" t="s">
-        <v>4595</v>
+        <v>4589</v>
       </c>
       <c r="D351" s="15"/>
     </row>
@@ -27145,14 +27145,14 @@
         <v>82</v>
       </c>
       <c r="B352" s="14" t="s">
-        <v>4596</v>
+        <v>4590</v>
       </c>
       <c r="C352" s="15" t="s">
-        <v>4597</v>
+        <v>4591</v>
       </c>
       <c r="D352" s="15"/>
       <c r="E352" s="13" t="s">
-        <v>4598</v>
+        <v>4592</v>
       </c>
       <c r="H352" s="14"/>
     </row>
@@ -27161,14 +27161,14 @@
         <v>83</v>
       </c>
       <c r="B353" s="14" t="s">
-        <v>4599</v>
+        <v>4593</v>
       </c>
       <c r="C353" s="15" t="s">
-        <v>4600</v>
+        <v>4594</v>
       </c>
       <c r="D353" s="15"/>
       <c r="E353" s="13" t="s">
-        <v>4601</v>
+        <v>4595</v>
       </c>
       <c r="H353" s="14"/>
     </row>
@@ -27177,14 +27177,14 @@
         <v>84</v>
       </c>
       <c r="B354" s="14" t="s">
-        <v>4602</v>
+        <v>4596</v>
       </c>
       <c r="C354" s="15" t="s">
-        <v>4603</v>
+        <v>4597</v>
       </c>
       <c r="D354" s="15"/>
       <c r="E354" s="13" t="s">
-        <v>4604</v>
+        <v>4598</v>
       </c>
       <c r="H354" s="14"/>
     </row>
@@ -27193,14 +27193,14 @@
         <v>85</v>
       </c>
       <c r="B355" s="14" t="s">
-        <v>4605</v>
+        <v>4599</v>
       </c>
       <c r="C355" s="15" t="s">
-        <v>4606</v>
+        <v>4600</v>
       </c>
       <c r="D355" s="15"/>
       <c r="E355" s="13" t="s">
-        <v>4607</v>
+        <v>4601</v>
       </c>
       <c r="H355" s="14"/>
     </row>
@@ -27209,14 +27209,14 @@
         <v>86</v>
       </c>
       <c r="B356" s="14" t="s">
-        <v>4608</v>
+        <v>4602</v>
       </c>
       <c r="C356" s="15" t="s">
-        <v>4609</v>
+        <v>4603</v>
       </c>
       <c r="D356" s="15"/>
       <c r="E356" s="13" t="s">
-        <v>4610</v>
+        <v>4604</v>
       </c>
       <c r="H356" s="14"/>
     </row>
@@ -27225,10 +27225,10 @@
         <v>87</v>
       </c>
       <c r="B357" s="16" t="s">
-        <v>4611</v>
+        <v>4605</v>
       </c>
       <c r="C357" s="15" t="s">
-        <v>4612</v>
+        <v>4606</v>
       </c>
       <c r="D357" s="15"/>
     </row>
@@ -27237,19 +27237,19 @@
         <v>88</v>
       </c>
       <c r="B358" s="16" t="s">
-        <v>4613</v>
+        <v>4607</v>
       </c>
       <c r="C358" s="15" t="s">
-        <v>4614</v>
+        <v>4608</v>
       </c>
       <c r="D358" s="15"/>
     </row>
     <row r="359" spans="1:8" ht="45">
       <c r="B359" s="16" t="s">
-        <v>4615</v>
+        <v>4609</v>
       </c>
       <c r="C359" s="15" t="s">
-        <v>4616</v>
+        <v>4610</v>
       </c>
       <c r="D359" s="15"/>
     </row>
@@ -27261,7 +27261,7 @@
         <v>90</v>
       </c>
       <c r="C360" s="15" t="s">
-        <v>4617</v>
+        <v>4611</v>
       </c>
       <c r="D360" s="15"/>
     </row>
@@ -27270,14 +27270,14 @@
         <v>91</v>
       </c>
       <c r="B361" s="17" t="s">
-        <v>4618</v>
+        <v>4612</v>
       </c>
       <c r="C361" s="15" t="s">
-        <v>4619</v>
+        <v>4613</v>
       </c>
       <c r="D361" s="15"/>
       <c r="E361" s="13" t="s">
-        <v>4610</v>
+        <v>4604</v>
       </c>
       <c r="H361" s="14"/>
     </row>
@@ -27286,14 +27286,14 @@
         <v>92</v>
       </c>
       <c r="B362" s="17" t="s">
-        <v>4620</v>
+        <v>4614</v>
       </c>
       <c r="C362" s="15" t="s">
-        <v>4621</v>
+        <v>4615</v>
       </c>
       <c r="D362" s="15"/>
       <c r="E362" s="13" t="s">
-        <v>4610</v>
+        <v>4604</v>
       </c>
       <c r="H362" s="14"/>
     </row>
@@ -27302,14 +27302,14 @@
         <v>93</v>
       </c>
       <c r="B363" s="18" t="s">
-        <v>4622</v>
+        <v>4616</v>
       </c>
       <c r="C363" s="15" t="s">
-        <v>4623</v>
+        <v>4617</v>
       </c>
       <c r="D363" s="15"/>
       <c r="E363" s="13" t="s">
-        <v>4610</v>
+        <v>4604</v>
       </c>
       <c r="H363" s="14"/>
     </row>
@@ -27318,14 +27318,14 @@
         <v>94</v>
       </c>
       <c r="B364" s="18" t="s">
-        <v>4624</v>
+        <v>4618</v>
       </c>
       <c r="C364" s="15" t="s">
-        <v>4625</v>
+        <v>4619</v>
       </c>
       <c r="D364" s="15"/>
       <c r="E364" s="13" t="s">
-        <v>4610</v>
+        <v>4604</v>
       </c>
       <c r="H364" s="14"/>
     </row>
@@ -27334,10 +27334,10 @@
         <v>95</v>
       </c>
       <c r="B365" s="19" t="s">
-        <v>4626</v>
+        <v>4620</v>
       </c>
       <c r="C365" s="15" t="s">
-        <v>4627</v>
+        <v>4621</v>
       </c>
       <c r="D365" s="15"/>
     </row>
@@ -27346,10 +27346,10 @@
         <v>96</v>
       </c>
       <c r="B366" s="19" t="s">
-        <v>4628</v>
+        <v>4622</v>
       </c>
       <c r="C366" s="15" t="s">
-        <v>4629</v>
+        <v>4623</v>
       </c>
       <c r="D366" s="15"/>
     </row>
@@ -27358,10 +27358,10 @@
         <v>97</v>
       </c>
       <c r="B367" s="19" t="s">
-        <v>4630</v>
+        <v>4624</v>
       </c>
       <c r="C367" s="15" t="s">
-        <v>4631</v>
+        <v>4625</v>
       </c>
       <c r="D367" s="15"/>
     </row>
@@ -27370,10 +27370,10 @@
         <v>98</v>
       </c>
       <c r="B368" s="19" t="s">
-        <v>4632</v>
+        <v>4626</v>
       </c>
       <c r="C368" s="15" t="s">
-        <v>4633</v>
+        <v>4627</v>
       </c>
       <c r="D368" s="15"/>
     </row>
@@ -45821,21 +45821,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -45858,14 +45858,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -45873,4 +45865,12 @@
     <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,35 +3,46 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B740A1-6655-482C-8603-583508E6FF28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E35DF83-8531-4BBD-99D0-42430922D763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="480" windowWidth="15165" windowHeight="6795" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
     <sheet name="ISO" sheetId="1" r:id="rId2"/>
     <sheet name="PDPB draft" sheetId="14" r:id="rId3"/>
-    <sheet name="Australia " sheetId="2" r:id="rId4"/>
-    <sheet name="Brazil " sheetId="9" r:id="rId5"/>
-    <sheet name="California CCPA " sheetId="8" r:id="rId6"/>
-    <sheet name="Canada " sheetId="3" r:id="rId7"/>
-    <sheet name="GDPR" sheetId="13" r:id="rId8"/>
-    <sheet name="Hong Kong " sheetId="4" r:id="rId9"/>
-    <sheet name="NIST Privacy Framework" sheetId="12" r:id="rId10"/>
-    <sheet name="Singapore " sheetId="5" r:id="rId11"/>
-    <sheet name="South Korea " sheetId="6" r:id="rId12"/>
-    <sheet name="Turkey " sheetId="7" r:id="rId13"/>
+    <sheet name="ISO27001+27002" sheetId="15" r:id="rId4"/>
+    <sheet name="Australia " sheetId="2" r:id="rId5"/>
+    <sheet name="Brazil " sheetId="9" r:id="rId6"/>
+    <sheet name="California CCPA " sheetId="8" r:id="rId7"/>
+    <sheet name="Canada " sheetId="3" r:id="rId8"/>
+    <sheet name="GDPR" sheetId="13" r:id="rId9"/>
+    <sheet name="Hong Kong " sheetId="4" r:id="rId10"/>
+    <sheet name="NIST Privacy Framework" sheetId="12" r:id="rId11"/>
+    <sheet name="Singapore " sheetId="5" r:id="rId12"/>
+    <sheet name="South Korea " sheetId="6" r:id="rId13"/>
+    <sheet name="Turkey " sheetId="7" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc506801608" localSheetId="3">'Australia '!$C$2</definedName>
-    <definedName name="_Toc506801610" localSheetId="3">'Australia '!$C$3</definedName>
+    <definedName name="_Toc506801608" localSheetId="4">'Australia '!$C$2</definedName>
+    <definedName name="_Toc506801610" localSheetId="4">'Australia '!$C$3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8092" uniqueCount="4634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8831" uniqueCount="5184">
   <si>
     <t>id</t>
   </si>
@@ -15705,6 +15716,1711 @@
   </si>
   <si>
     <t>6.13.1.5;6.3.1.1</t>
+  </si>
+  <si>
+    <t>The organization shall determine:
+a) interested parties that are relevant to the information security management system; and
+b) the requirements of these interested parties relevant to information security.</t>
+  </si>
+  <si>
+    <t>The organization shall establish, implement, maintain and continually improve an information security management system, in accordance with the requirements of this International Standard</t>
+  </si>
+  <si>
+    <t>The organization shall implement the information security risk treatment plan.
+The organization shall retain documented information of the results of the information security
+risk treatment.</t>
+  </si>
+  <si>
+    <t>The organization shall continually improve the suitability, adequacy and effectiveness of the information
+security management system.</t>
+  </si>
+  <si>
+    <t>The organization shall determine external and internal issues that are relevant to its purpose and that affect its ability to achieve the intended outcome(s) of its…</t>
+  </si>
+  <si>
+    <t>The organization shall determine the boundaries and applicability of the information security
+management system to establish its scope. 
+When determining this scope, the organization shall consider:
+a) the…</t>
+  </si>
+  <si>
+    <t>Top management shall demonstrate leadership and commitment with respect to the information
+security management system by:
+a) ensuring the information security policy and the information security objectives are…</t>
+  </si>
+  <si>
+    <t>Top management shall establish an information security policy that:
+a) is appropriate to the purpose of the organization;
+b) includes information security objectives (see 6.2) or provides the…</t>
+  </si>
+  <si>
+    <t>Top management shall ensure that the responsibilities and authorities for roles relevant to information
+security are assigned and communicated.
+Top management shall assign the responsibility and authority for:
+a)…</t>
+  </si>
+  <si>
+    <t>When planning for the information security management system, the organization shall consider the
+issues referred to in 4.1 and the requirements referred to in 4.2 and determine…</t>
+  </si>
+  <si>
+    <t>The organization shall define and apply an information security risk assessment process that:
+a) establishes and maintains information security risk criteria that include:
+1) the risk acceptance criteria…</t>
+  </si>
+  <si>
+    <t>The organization shall define and apply an information security risk treatment process to:
+a) select appropriate information security risk treatment options, taking account of the risk
+assessment results;
+b)…</t>
+  </si>
+  <si>
+    <t>The organization shall establish information security objectives at relevant functions and levels.
+The information security objectives shall:
+a) be consistent with the information security policy;
+b) be measurable (if…</t>
+  </si>
+  <si>
+    <t>The organization shall determine and provide the resources needed for the establishment, implementation, maintenance and continual improvement of the information security management system.</t>
+  </si>
+  <si>
+    <t>The organization shall:
+a) determine the necessary competence of person(s) doing work under its control that affects its
+information security performance;
+b) ensure that these persons are competent on…</t>
+  </si>
+  <si>
+    <t>Persons doing work under the organization’s control shall be aware of:
+a) the information security policy;
+b) their contribution to the effectiveness of the information security management system,…</t>
+  </si>
+  <si>
+    <t>The organization shall determine the need for internal and external communications relevant to the
+information security management system including:
+a) on what to communicate;
+b) when to communicate;
+c) with…</t>
+  </si>
+  <si>
+    <t>The organization’s information security management system shall include:
+a) documented information required by this International Standard; and
+b) documented information determined by the organization as being necessary for…</t>
+  </si>
+  <si>
+    <t>When creating and updating documented information the organization shall ensure appropriate:
+a) identification and description (e.g. a title, date, author, or reference number);
+b) format (e.g. language, software…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documented information required by the information security management system and by this
+International Standard shall be controlled to ensure:
+a) it is available and suitable for use, where... </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The organization shall plan, implement and control the processes needed to meet information security
+requirements, and to implement the actions determined in 6.1. The organization shall also... </t>
+  </si>
+  <si>
+    <t>The organization shall perform information security risk assessments at planned intervals or when
+significant changes are proposed or occur, taking account of the criteria established in 6.1.2a).</t>
+  </si>
+  <si>
+    <t>The organization shall evaluate the information security performance and the effectiveness of the
+information security management system.
+The organization shall determine:
+a) what needs to be monitored and measured…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The organization shall conduct internal audits at planned intervals to provide information on whether
+the information security management system:
+a) conforms to
+1) the organization’s own requirements for its... </t>
+  </si>
+  <si>
+    <t>Top management shall review the organization’s information security management system at planned
+intervals to ensure its continuing suitability, adequacy and effectiveness.
+The management review shall include consideration of:
+a)…</t>
+  </si>
+  <si>
+    <t>When a nonconformity occurs, the organization shall:
+a) react to the nonconformity, and as applicable:
+1) take action to control and correct it; and
+2) deal with the consequences;…</t>
+  </si>
+  <si>
+    <t>ISO27001.4</t>
+  </si>
+  <si>
+    <t>ISO27001.4.1</t>
+  </si>
+  <si>
+    <t>ISO27001.4.1 Understanding the organization and its context</t>
+  </si>
+  <si>
+    <t>ISO27001.4.2</t>
+  </si>
+  <si>
+    <t>ISO27001.4.2 Understanding the needs and expectations of interested parties</t>
+  </si>
+  <si>
+    <t>ISO27001.4.3</t>
+  </si>
+  <si>
+    <t>ISO27001.4.3 Determining the scope of the information security management system</t>
+  </si>
+  <si>
+    <t>ISO27001.4.4</t>
+  </si>
+  <si>
+    <t>ISO27001.4.4 Information security management system</t>
+  </si>
+  <si>
+    <t>ISO27001.5</t>
+  </si>
+  <si>
+    <t>ISO27001.5.1</t>
+  </si>
+  <si>
+    <t>ISO27001.5.1 Leadership and commitment</t>
+  </si>
+  <si>
+    <t>ISO27001.5.2</t>
+  </si>
+  <si>
+    <t>ISO27001.5.2 Policy</t>
+  </si>
+  <si>
+    <t>ISO27001.5.3</t>
+  </si>
+  <si>
+    <t>ISO27001.5.3 Organizational roles, responsibilities and authorities</t>
+  </si>
+  <si>
+    <t>ISO27001.6</t>
+  </si>
+  <si>
+    <t>ISO27001.6.1</t>
+  </si>
+  <si>
+    <t>ISO27001.6.1.1</t>
+  </si>
+  <si>
+    <t>ISO27001.6.1.1 General</t>
+  </si>
+  <si>
+    <t>ISO27001.6.1.2</t>
+  </si>
+  <si>
+    <t>ISO27001.6.1.2 Information security risk assessment</t>
+  </si>
+  <si>
+    <t>ISO27001.6.1.3</t>
+  </si>
+  <si>
+    <t>ISO27001.6.1.3 Information security risk treatment</t>
+  </si>
+  <si>
+    <t>ISO27001.6.2</t>
+  </si>
+  <si>
+    <t>ISO27001.6.2 Information security objectives and planning to achieve them</t>
+  </si>
+  <si>
+    <t>ISO27001.7</t>
+  </si>
+  <si>
+    <t>ISO27001.7.1</t>
+  </si>
+  <si>
+    <t>ISO27001.7.1 Resources</t>
+  </si>
+  <si>
+    <t>ISO27001.7.2</t>
+  </si>
+  <si>
+    <t>ISO27001.7.2 Competence</t>
+  </si>
+  <si>
+    <t>ISO27001.7.3</t>
+  </si>
+  <si>
+    <t>ISO27001.7.3 Awareness</t>
+  </si>
+  <si>
+    <t>ISO27001.7.4</t>
+  </si>
+  <si>
+    <t>ISO27001.7.4 Communication</t>
+  </si>
+  <si>
+    <t>ISO27001.7.5</t>
+  </si>
+  <si>
+    <t>ISO27001.7.5.1</t>
+  </si>
+  <si>
+    <t>ISO27001.7.5.1 General</t>
+  </si>
+  <si>
+    <t>ISO27001.7.5.2</t>
+  </si>
+  <si>
+    <t>ISO27001.7.5.2 Creating and updating</t>
+  </si>
+  <si>
+    <t>ISO27001.7.5.3</t>
+  </si>
+  <si>
+    <t>ISO27001.7.5.3 Control of documented information</t>
+  </si>
+  <si>
+    <t>ISO27001.8</t>
+  </si>
+  <si>
+    <t>ISO27001.8.1</t>
+  </si>
+  <si>
+    <t>ISO27001.8.1 Operational planning and control</t>
+  </si>
+  <si>
+    <t>ISO27001.8.2</t>
+  </si>
+  <si>
+    <t>ISO27001.8.2 Information security risk assessment</t>
+  </si>
+  <si>
+    <t>ISO27001.8.3</t>
+  </si>
+  <si>
+    <t>ISO27001.8.3 Information security risk treatment</t>
+  </si>
+  <si>
+    <t>ISO27001.9</t>
+  </si>
+  <si>
+    <t>ISO27001.9.1</t>
+  </si>
+  <si>
+    <t>ISO27001.9.1 Monitoring, measurement, analysis and evaluation</t>
+  </si>
+  <si>
+    <t>ISO27001.9.2</t>
+  </si>
+  <si>
+    <t>ISO27001.9.2 Internal audit</t>
+  </si>
+  <si>
+    <t>ISO27001.9.3</t>
+  </si>
+  <si>
+    <t>ISO27001.9.3 Management review</t>
+  </si>
+  <si>
+    <t>ISO27001.10</t>
+  </si>
+  <si>
+    <t>ISO27001.10.1</t>
+  </si>
+  <si>
+    <t>ISO27001.10.1 Nonconformity and corrective action</t>
+  </si>
+  <si>
+    <t>ISO27001.10.2</t>
+  </si>
+  <si>
+    <t>ISO27001.10.2 Continual improvement</t>
+  </si>
+  <si>
+    <t>ISO27002.5</t>
+  </si>
+  <si>
+    <t>Information sercurity policies</t>
+  </si>
+  <si>
+    <t>ISO27002.5.1</t>
+  </si>
+  <si>
+    <t>ISO27002.5.1 Management direction for information security</t>
+  </si>
+  <si>
+    <t>Objective: To provide management direction and support for information security in accordance with business requirements and relevant laws and regulations.</t>
+  </si>
+  <si>
+    <t>ISO27002.5.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.5.1.1 Policies for information security</t>
+  </si>
+  <si>
+    <t>A set of policies for information security should be defined, approved by management, published and communicated to employees and relevant external parties.</t>
+  </si>
+  <si>
+    <t>ISO27002.5.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.5.1.2 Review of the policies for information security</t>
+  </si>
+  <si>
+    <t>The policies for information security should be reviewed at planned intervals or if significant changes occur to ensure their continuing suitability, adequacy and effectiveness</t>
+  </si>
+  <si>
+    <t>ISO27002.6</t>
+  </si>
+  <si>
+    <t>ISO27002.7</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1 Internal organization</t>
+  </si>
+  <si>
+    <t>Objective: To establish a management framework to initiate and control the implementation and operation of information security within the organization.</t>
+  </si>
+  <si>
+    <t>ISO27002.6.2</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1.1 Information security roles and responsibilities</t>
+  </si>
+  <si>
+    <t>All information security responsibilities should be defined and allocated.</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1.2 Segregation of duties</t>
+  </si>
+  <si>
+    <t>Conflicting duties and areas of responsibility should be segregated to reduce opportunities for unauthorized or unintentional modification or misuse of the organization’s assets.</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1.3</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1.3 Contact with authorities</t>
+  </si>
+  <si>
+    <t>Appropriate contacts with relevant authorities should be maintained</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1.4</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1.4 Contact with special interest groups</t>
+  </si>
+  <si>
+    <t>Appropriate contacts with special interest groups or other specialist security forums and professional associations should be maintained.</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1.5</t>
+  </si>
+  <si>
+    <t>ISO27002.6.1.5 Information security in project management</t>
+  </si>
+  <si>
+    <t>Information security should be addressed in project management, regardless of the type of the project</t>
+  </si>
+  <si>
+    <t>ISO27002.6.2 Mobile devices and teleworking</t>
+  </si>
+  <si>
+    <t>Objective: To ensure the security of teleworking and use of mobile devices.</t>
+  </si>
+  <si>
+    <t>ISO27002.6.2.1</t>
+  </si>
+  <si>
+    <t>ISO27002.6.2.1 Mobile device policy</t>
+  </si>
+  <si>
+    <t>A policy and supporting security measures should be adopted to manage the risks introduced by using mobile devices.</t>
+  </si>
+  <si>
+    <t>ISO27002.6.2.2</t>
+  </si>
+  <si>
+    <t>ISO27002.6.2.2 Teleworking</t>
+  </si>
+  <si>
+    <t>A policy and supporting security measures should be implemented to protect information accessed, processed or stored at teleworking sites.</t>
+  </si>
+  <si>
+    <t>ISO27002.7.1</t>
+  </si>
+  <si>
+    <t>ISO27002.7.1 Prior to employment</t>
+  </si>
+  <si>
+    <t>Objective: To ensure that employees and contractors understand their responsibilities and are suitable for the roles for which they are considered.</t>
+  </si>
+  <si>
+    <t>ISO27002.7.2</t>
+  </si>
+  <si>
+    <t>ISO27002.7.3</t>
+  </si>
+  <si>
+    <t>ISO27002.7.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.7.1.1 Screening</t>
+  </si>
+  <si>
+    <t>Background verification checks on all candidates for employment should be carried out in accordance
+with relevant laws, regulations and ethics and should be proportional to the business…</t>
+  </si>
+  <si>
+    <t>ISO27002.7.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.7.1.2 Terms and conditions of employment</t>
+  </si>
+  <si>
+    <t>The contractual agreements with employees and contractors should state their and the organization’s responsibilities for information security.</t>
+  </si>
+  <si>
+    <t>ISO27002.7.2 During employment</t>
+  </si>
+  <si>
+    <t>Objective: To ensure that employees and contractors are aware of and fulfil their information security responsibilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.7.2.1</t>
+  </si>
+  <si>
+    <t>ISO27002.7.2.1 Management responsibilities</t>
+  </si>
+  <si>
+    <t>Management should require all employees and contractors to apply information security in accordance with the established policies and procedures of the organization.</t>
+  </si>
+  <si>
+    <t>ISO27002.7.2.2</t>
+  </si>
+  <si>
+    <t>ISO27002.7.2.3</t>
+  </si>
+  <si>
+    <t>ISO27002.7.2.2 Information security awareness, education and training</t>
+  </si>
+  <si>
+    <t>All employees of the organization and, where relevant, contractors should receive appropriate awareness education and training and regular updates in organizational policies and procedures, as relevant…</t>
+  </si>
+  <si>
+    <t>ISO27002.7.2.3 Disciplinary process</t>
+  </si>
+  <si>
+    <t>There should be a formal and communicated disciplinary process in place to take action against employees who have committed an information security breach.</t>
+  </si>
+  <si>
+    <t>ISO27002.7.3 Termination and change of employment</t>
+  </si>
+  <si>
+    <t>Objective: To protect the organization’s interests as part of the process of changing or terminating employment.</t>
+  </si>
+  <si>
+    <t>ISO27002.7.3.1</t>
+  </si>
+  <si>
+    <t>ISO27002.7.3.1 Termination or change of employment responsibilities</t>
+  </si>
+  <si>
+    <t>Information security responsibilities and duties that remain valid after termination or change of employment should be defined, communicated to the employee or contractor and enforced</t>
+  </si>
+  <si>
+    <t>ISO27002.8</t>
+  </si>
+  <si>
+    <t>ISO27002.9</t>
+  </si>
+  <si>
+    <t>ISO27002.8.1</t>
+  </si>
+  <si>
+    <t>ISO27002.8.1 Responsibility for assets</t>
+  </si>
+  <si>
+    <t>Objective: To identify organizational assets and define appropriate protection responsibilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.2</t>
+  </si>
+  <si>
+    <t>ISO27002.8.3</t>
+  </si>
+  <si>
+    <t>ISO27002.8.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.8.1.1 Inventory of assets</t>
+  </si>
+  <si>
+    <t>Assets associated with information and information processing facilities should be identified and an inventory of these assets should be drawn up and maintained.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.8.1.2 Ownership of assets</t>
+  </si>
+  <si>
+    <t>Assets maintained in the inventory should be owned.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.1.3</t>
+  </si>
+  <si>
+    <t>ISO27002.8.1.3 Acceptable use of assets</t>
+  </si>
+  <si>
+    <t>Rules for the acceptable use of information and of assets associated with information and information processing facilities should be identified, documented and implemented.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.1.4</t>
+  </si>
+  <si>
+    <t>ISO27002.8.1.4 Return of assets</t>
+  </si>
+  <si>
+    <t>All employees and external party users should return all of the organizational assets in their possession upon termination of their employment, contract or agreement.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.2 Information classification</t>
+  </si>
+  <si>
+    <t>Objective: To ensure that information receives an appropriate level of protection in accordance with its importance to the organization.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.2.1</t>
+  </si>
+  <si>
+    <t>ISO27002.8.2.1 Classification of information</t>
+  </si>
+  <si>
+    <t>Information should be classified in terms of legal requirements, value, criticality and sensitivity to unauthorised disclosure or modification.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.2.2</t>
+  </si>
+  <si>
+    <t>ISO27002.8.2.3</t>
+  </si>
+  <si>
+    <t>ISO27002.8.2.2 Labelling of information</t>
+  </si>
+  <si>
+    <t>An appropriate set of procedures for information labelling should be developed and implemented in accordance with the information classification scheme adopted by the organization</t>
+  </si>
+  <si>
+    <t>ISO27002.8.2.3 Handling of assets</t>
+  </si>
+  <si>
+    <t>Procedures for handling assets should be developed and implemented in accordance with the information classification scheme adopted by the organization.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.3 Media handling</t>
+  </si>
+  <si>
+    <t>Objective: To prevent unauthorized disclosure, modification, removal or destruction of information stored on media.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.3.1</t>
+  </si>
+  <si>
+    <t>ISO27002.8.3.1 Management of removable media</t>
+  </si>
+  <si>
+    <t>Procedures should be implemented for the management of removable media in accordance with the classification scheme adopted by the organization.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.3.2</t>
+  </si>
+  <si>
+    <t>ISO27002.8.3.3</t>
+  </si>
+  <si>
+    <t>ISO27002.8.3.2 Disposal of media</t>
+  </si>
+  <si>
+    <t>Media should be disposed of securely when no longer required, using formal procedures.</t>
+  </si>
+  <si>
+    <t>ISO27002.8.3.3 Physical media transfer</t>
+  </si>
+  <si>
+    <t>Media containing information should be protected against unauthorized access, misuse or corruption during transportation.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.1</t>
+  </si>
+  <si>
+    <t>ISO27002.9.1 Business requirements of access control</t>
+  </si>
+  <si>
+    <t>Objective: To limit access to information and information processing facilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.9.1.1 Access control policy</t>
+  </si>
+  <si>
+    <t>An access control policy should be established, documented and reviewed based on business and information security requirements.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.9.1.2 Access to networks and network services</t>
+  </si>
+  <si>
+    <t>Users should only be provided with access to the network and network services that they have been specifically authorized to use.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2 User access management</t>
+  </si>
+  <si>
+    <t>Objective: To ensure authorized user access and to prevent unauthorized access to systems and services.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.1</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.1 User registration and de-registration</t>
+  </si>
+  <si>
+    <t>A formal user registration and de-registration process should be implemented to enable assignment of access rights.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.2</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.3</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.4</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.2 User access provisioning</t>
+  </si>
+  <si>
+    <t>A formal user access provisioning process should be implemented to assign or revoke access rights for all user types to all systems and services.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.3 Management of privileged access rights</t>
+  </si>
+  <si>
+    <t>The allocation and use of privileged access rights should be restricted and controlled.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.4 Management of secret authentication information of users</t>
+  </si>
+  <si>
+    <t>The allocation of secret authentication information should be controlled through a formal management process.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.5</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.6</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.5 Review of user access rights</t>
+  </si>
+  <si>
+    <t>Asset owners should review users’ access rights at regular intervals.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.2.6 Removal or adjustment of access rights</t>
+  </si>
+  <si>
+    <t>The access rights of all employees and external party users to information and information processing facilities should be removed upon termination of their employment, contract or…</t>
+  </si>
+  <si>
+    <t>ISO27002.9.3</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4</t>
+  </si>
+  <si>
+    <t>ISO27002.9.3 User responsibilities</t>
+  </si>
+  <si>
+    <t>Objective: To make users accountable for safeguarding their authentication information.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.3.1</t>
+  </si>
+  <si>
+    <t>ISO27002.9.3.1 Use of secret authentication information</t>
+  </si>
+  <si>
+    <t>Users should be required to follow the organization’s practices in the use of secret authentication information.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4 System and application access control</t>
+  </si>
+  <si>
+    <t>Objective: To prevent unauthorized access to systems and applications.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4.1</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4.1 Information access restriction</t>
+  </si>
+  <si>
+    <t>Access to information and application system functions should be restricted in accordance with the access control policy.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4.2</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4.2 Secure log-on procedures</t>
+  </si>
+  <si>
+    <t>Where required by the access control policy, access to systems and applications should be controlled by a secure log-on procedure.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4.3</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4.4</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4.5</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4.3 Password management system</t>
+  </si>
+  <si>
+    <t>Password management systems should be interactive and should ensure quality passwords.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4.4 Use of privileged utility programs</t>
+  </si>
+  <si>
+    <t>The use of utility programs that might be capable of overriding system and application controls should be restricted and tightly controlled.</t>
+  </si>
+  <si>
+    <t>ISO27002.9.4.5 Access control to program source code</t>
+  </si>
+  <si>
+    <t>Access to program source code should be restricted.</t>
+  </si>
+  <si>
+    <t>ISO27002.10</t>
+  </si>
+  <si>
+    <t>ISO27002.11</t>
+  </si>
+  <si>
+    <t>ISO27002.12</t>
+  </si>
+  <si>
+    <t>ISO27002.13</t>
+  </si>
+  <si>
+    <t>ISO27002.14</t>
+  </si>
+  <si>
+    <t>ISO27002.15</t>
+  </si>
+  <si>
+    <t>ISO27002.16</t>
+  </si>
+  <si>
+    <t>ISO27002.10.1</t>
+  </si>
+  <si>
+    <t>ISO27002.10.1 Cryptographic controls</t>
+  </si>
+  <si>
+    <t>Objective: To ensure proper and effective use of cryptography to protect the confidentiality, authenticity and/or integrity of information.</t>
+  </si>
+  <si>
+    <t>ISO27002.10.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.10.1.1 Policy on the use of cryptographic controls</t>
+  </si>
+  <si>
+    <t>A policy on the use of cryptographic controls for protection of information should be developed and implemented.</t>
+  </si>
+  <si>
+    <t>ISO27002.10.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.10.1.2 Key management</t>
+  </si>
+  <si>
+    <t>A policy on the use, protection and lifetime of cryptographic keys should be developed and implemented
+through their whole lifecycle.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1 Secure areas</t>
+  </si>
+  <si>
+    <t>Objective: To prevent unauthorized physical access, damage and interference to the organization’s information and information processing facilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.1 Physical security perimeter</t>
+  </si>
+  <si>
+    <t>Security perimeters should be defined and used to protect areas that contain either sensitive or critical information and information processing facilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.3</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.4</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.2 Physical entry controls</t>
+  </si>
+  <si>
+    <t>Secure areas should be protected by appropriate entry controls to ensure that only authorized personnel are allowed access.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.3 Securing offices, rooms and facilities</t>
+  </si>
+  <si>
+    <t>Physical security for offices, rooms and facilities should be designed and applied.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.4 Protecting against external and environmental threats</t>
+  </si>
+  <si>
+    <t>Physical protection against natural disasters, malicious attack or accidents should be designed and applied.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.5</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.6</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.5 Working in secure areas</t>
+  </si>
+  <si>
+    <t>Procedures for working in secure areas should be designed and applied.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.1.6 Delivery and loading areas</t>
+  </si>
+  <si>
+    <t>Access points such as delivery and loading areas and other points where unauthorized persons could enter the premises should be controlled and, if possible, isolated from…</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2 Equipment</t>
+  </si>
+  <si>
+    <t>Objective: To prevent loss, damage, theft or compromise of assets and interruption to the organization’s operations.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.1</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.1 Equipment siting and protection</t>
+  </si>
+  <si>
+    <t>Equipment should be sited and protected to reduce the risks from environmental threats and hazards, and opportunities for unauthorized access.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.2</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.3</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.4</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.5</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.6</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.7</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.8</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.9</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.2 Supporting utilities</t>
+  </si>
+  <si>
+    <t>Equipment should be protected from power failures and other disruptions caused by failures in supporting utilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.3 Cabling security</t>
+  </si>
+  <si>
+    <t>Power and telecommunications cabling carrying data or supporting information services should be protected from interception, interference or damage.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.4 Equipment maintenance</t>
+  </si>
+  <si>
+    <t>Equipment should be correctly maintained to ensure its continued availability and integrity</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.5 Removal of assets</t>
+  </si>
+  <si>
+    <t>Equipment, information or software should not be taken off-site without prior authorization.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.6 Security of equipment and assets off-premises</t>
+  </si>
+  <si>
+    <t>Security should be applied to off-site assets taking into account the different risks of working outside the organization’s premises.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.7 Secure disposal or re-use of equipment</t>
+  </si>
+  <si>
+    <t>All items of equipment containing storage media should be verified to ensure that any sensitive data and licensed software has been removed or securely overwritten prior…</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.8 Unattended user equipment</t>
+  </si>
+  <si>
+    <t>Users should ensure that unattended equipment has appropriate protection.</t>
+  </si>
+  <si>
+    <t>ISO27002.11.2.9 Clear desk and clear screen policy</t>
+  </si>
+  <si>
+    <t>A clear desk policy for papers and removable storage media and a clear screen policy for information processing facilities should be adopted.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.1</t>
+  </si>
+  <si>
+    <t>ISO27002.12.1 Operational procedures and responsibilities</t>
+  </si>
+  <si>
+    <t>Objective: To ensure correct and secure operations of information processing facilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.2</t>
+  </si>
+  <si>
+    <t>ISO27002.12.3</t>
+  </si>
+  <si>
+    <t>ISO27002.12.4</t>
+  </si>
+  <si>
+    <t>ISO27002.12.5</t>
+  </si>
+  <si>
+    <t>ISO27002.12.6</t>
+  </si>
+  <si>
+    <t>ISO27002.12.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.12.1.1 Documented operating procedures</t>
+  </si>
+  <si>
+    <t>Operating procedures should be documented and made available to all users who need them.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.1.2</t>
+  </si>
+  <si>
+    <t>Changes to the organization, business processes, information processing facilities and systems that affect information security should be controlled.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.1.2 Change management</t>
+  </si>
+  <si>
+    <t>ISO27002.12.1.3</t>
+  </si>
+  <si>
+    <t>ISO27002.12.1.4</t>
+  </si>
+  <si>
+    <t>ISO27002.12.1.3 Capacity management</t>
+  </si>
+  <si>
+    <t>The use of resources should be monitored, tuned and projections made of future capacity requirements to ensure the required system performance.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.1.4 Separation of development, testing and operational environments</t>
+  </si>
+  <si>
+    <t>Development, testing, and operational environments should be separated to reduce the risks of unauthorized access or changes to the operational environment.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.2 Protection from malware</t>
+  </si>
+  <si>
+    <t>Objective: To ensure that information and information processing facilities are protected against malware.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.2.1</t>
+  </si>
+  <si>
+    <t>ISO27002.12.2.1 Controls against malware</t>
+  </si>
+  <si>
+    <t>Detection, prevention and recovery controls to protect against malware should be implemented, combined with appropriate user awareness.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.3 Bckup</t>
+  </si>
+  <si>
+    <t>Objective: To protect against loss of data.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.3.1</t>
+  </si>
+  <si>
+    <t>ISO27002.12.3.1 Information backup</t>
+  </si>
+  <si>
+    <t>Backup copies of information, software and system images should be taken and tested regularly in accordance with an agreed backup policy.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.4 Logging and monitoring</t>
+  </si>
+  <si>
+    <t>Objective: To record events and generate evidence.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.7</t>
+  </si>
+  <si>
+    <t>ISO27002.12.4.1</t>
+  </si>
+  <si>
+    <t>ISO27002.12.4.1 Event logging</t>
+  </si>
+  <si>
+    <t>Event logs recording user activities, exceptions, faults and information security events should be produced, kept and regularly reviewed.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.4.2</t>
+  </si>
+  <si>
+    <t>ISO27002.12.4.3</t>
+  </si>
+  <si>
+    <t>ISO27002.12.4.2 Protection of log information</t>
+  </si>
+  <si>
+    <t>Logging facilities and log information should be protected against tampering and unauthorized access.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.4.3 Administrator and operator logs</t>
+  </si>
+  <si>
+    <t>System administrator and system operator activities should be logged and the logs protected and regularly reviewed.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.4.4</t>
+  </si>
+  <si>
+    <t>ISO27002.12.4.4 Clock synchronisation</t>
+  </si>
+  <si>
+    <t>The clocks of all relevant information processing systems within an organization or security domain should be synchronised to a single reference time source.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.5 Control of operational software</t>
+  </si>
+  <si>
+    <t>Objective: To ensure the integrity of operational systems.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.5.1</t>
+  </si>
+  <si>
+    <t>ISO27002.12.5.1 Installation of software on operational systems</t>
+  </si>
+  <si>
+    <t>Procedures should be implemented to control the installation of software on operational systems.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.6 Technical vulnerability management</t>
+  </si>
+  <si>
+    <t>Objective: To prevent exploitation of technical vulnerabilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.6.1</t>
+  </si>
+  <si>
+    <t>ISO27002.12.6.1 Management of technical vulnerabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information about technical vulnerabilities of information systems being used should be obtained in a timely fashion, the organization’s exposure to such vulnerabilities evaluated and appropriate... </t>
+  </si>
+  <si>
+    <t>ISO27002.12.6.2</t>
+  </si>
+  <si>
+    <t>ISO27002.12.6.2 Restrictions on software installation</t>
+  </si>
+  <si>
+    <t>Rules governing the installation of software by users should be established and implemented.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.7 Information systems audit considerations</t>
+  </si>
+  <si>
+    <t>Objective: To minimise the impact of audit activities on operational systems.</t>
+  </si>
+  <si>
+    <t>ISO27002.12.7.1</t>
+  </si>
+  <si>
+    <t>ISO27002.12.7.1 Information systems audit controls</t>
+  </si>
+  <si>
+    <t>Audit requirements and activities involving verification of operational systems should be carefully planned and agreed to minimize disruptions to business processes.</t>
+  </si>
+  <si>
+    <t>ISO27002.13.1</t>
+  </si>
+  <si>
+    <t>ISO27002.13.1 Network security management</t>
+  </si>
+  <si>
+    <t>Objective: To ensure the protection of information in networks and its supporting information processing facilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.13.2</t>
+  </si>
+  <si>
+    <t>ISO27002.13.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.13.1.1 Network controls</t>
+  </si>
+  <si>
+    <t>Networks should be managed and controlled to protect information in systems and applications.</t>
+  </si>
+  <si>
+    <t>ISO27002.13.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.13.1.3</t>
+  </si>
+  <si>
+    <t>ISO27002.13.1.2 Security of network services</t>
+  </si>
+  <si>
+    <t>Security mechanisms, service levels and management requirements of all network services should be identified and included in network services agreements, whether these services are provided in-house…</t>
+  </si>
+  <si>
+    <t>Groups of information services, users and information systems should be segregated on networks.</t>
+  </si>
+  <si>
+    <t>ISO27002.13.1.3 Segregation in networks</t>
+  </si>
+  <si>
+    <t>ISO27002.13.2 Information transfer</t>
+  </si>
+  <si>
+    <t>Objective: To maintain the security of information transferred within an organization and with any external entity.</t>
+  </si>
+  <si>
+    <t>ISO27002.13.2.1</t>
+  </si>
+  <si>
+    <t>Formal transfer policies, procedures and controls should be in place to protect the transfer of information through the use of all types of communication facilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.13.2.1 Information transfer policies and procedures</t>
+  </si>
+  <si>
+    <t>ISO27002.13.2.2</t>
+  </si>
+  <si>
+    <t>ISO27002.13.2.3</t>
+  </si>
+  <si>
+    <t>ISO27002.13.2.4</t>
+  </si>
+  <si>
+    <t>ISO27002.13.2.2 Agreements on information transfer</t>
+  </si>
+  <si>
+    <t>Agreements should address the secure transfer of business information between the organization and external parties.</t>
+  </si>
+  <si>
+    <t>ISO27002.13.2.3 Electronic messaging</t>
+  </si>
+  <si>
+    <t>Information involved in electronic messaging should be appropriately protected.</t>
+  </si>
+  <si>
+    <t>ISO27002.13.2.4 Confidentiality or non-disclosure agreements</t>
+  </si>
+  <si>
+    <t>Requirements for confidentiality or non-disclosure agreements reflecting the organization’s needs for the protection of information should be identified, regularly reviewed and documented.</t>
+  </si>
+  <si>
+    <t>System acquisition, development and maintenance</t>
+  </si>
+  <si>
+    <t>ISO27002.14.1</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2</t>
+  </si>
+  <si>
+    <t>ISO27002.14.1 Security requirements of information systems</t>
+  </si>
+  <si>
+    <t>Objective: To ensure that information security is an integral part of information systems across the entire lifecycle. This also includes the requirements for information systems which…</t>
+  </si>
+  <si>
+    <t>ISO27002.14.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.14.1.1 Information security requirements analysis and specification</t>
+  </si>
+  <si>
+    <t>The information security related requirements should be included in the requirements for new information systems or enhancements to existing information systems.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.14.1.3</t>
+  </si>
+  <si>
+    <t>ISO27002.14.1.2 Securing application services on public networks</t>
+  </si>
+  <si>
+    <t>Information involved in application services passing over public networks should be protected from fraudulent activity, contract dispute and unauthorized disclosure and modification.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.1.3 Protecting application services transactions</t>
+  </si>
+  <si>
+    <t>Information involved in application service transactions should be protected to prevent incomplete transmission, mis-routing, unauthorized message alteration, unauthorized disclosure, unauthorized message duplication or replay.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2 Security in development and support processes</t>
+  </si>
+  <si>
+    <t>Objective: To ensure that information security is designed and implemented within the development lifecycle of information systems.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.1</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.1 Secure development policy</t>
+  </si>
+  <si>
+    <t>Rules for the development of software and systems should be established and applied to developments within the organization.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.2</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.3</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.4</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.2 System change control procedures</t>
+  </si>
+  <si>
+    <t>Changes to systems within the development lifecycle should be controlled by the use of formal change control procedures.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.3 Technical review of applications after operating platform changes</t>
+  </si>
+  <si>
+    <t>When operating platforms are changed, business critical applications should be reviewed and tested to ensure there is no adverse impact on organizational operations or security.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.4 Restrictions on changes to software packages</t>
+  </si>
+  <si>
+    <t>Modifications to software packages should be discouraged, limited to necessary changes and all changes should be strictly controlled.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.5</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.6</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.7</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.8</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.5 Secure system engineering principles</t>
+  </si>
+  <si>
+    <t>Principles for engineering secure systems should be established, documented, maintained and applied to any information system implementation efforts.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.6 Secure development environment</t>
+  </si>
+  <si>
+    <t>Organizations should establish and appropriately protect secure development environments for system development and integration efforts that cover the entire system development lifecycle.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.7 Outsourced development</t>
+  </si>
+  <si>
+    <t>The organization should supervise and monitor the activity of outsourced system development</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.9</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.8 System security testing</t>
+  </si>
+  <si>
+    <t>Testing of security functionality should be carried out during development.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.2.9 System acceptance testing</t>
+  </si>
+  <si>
+    <t>Acceptance testing programs and related criteria should be established for new information systems, upgrades and new versions.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.3</t>
+  </si>
+  <si>
+    <t>Objective: To ensure the protection of data used for testing.</t>
+  </si>
+  <si>
+    <t>ISO27002.14.3.1</t>
+  </si>
+  <si>
+    <t>ISO27002.14.3.1 Protection of test data</t>
+  </si>
+  <si>
+    <t>Test data should be selected carefully, protected and controlled.</t>
+  </si>
+  <si>
+    <t>ISO27002.15.1</t>
+  </si>
+  <si>
+    <t>ISO27002.15.1 Information security in supplier relationships</t>
+  </si>
+  <si>
+    <t>Objective: To ensure protection of the organization’s assets that is accessible by suppliers.</t>
+  </si>
+  <si>
+    <t>ISO27002.15.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.15.1.1 Information security policy for supplier relationships</t>
+  </si>
+  <si>
+    <t>Information security requirements for mitigating the risks associated with supplier’s access to the organization’s assets should be agreed with the supplier and documented.</t>
+  </si>
+  <si>
+    <t>ISO27002.15.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.15.1.3</t>
+  </si>
+  <si>
+    <t>ISO27002.15.1.2 Addressing security within supplier agreements</t>
+  </si>
+  <si>
+    <t>All relevant information security requirements should be established and agreed with each supplier that may access, process, store, communicate, or provide IT infrastructure components for, the…</t>
+  </si>
+  <si>
+    <t>ISO27002.15.1.3 Information and communication technology supply chain</t>
+  </si>
+  <si>
+    <t>Agreements with suppliers should include requirements to address the information security risks associated with information and communications technology services and product supply chain.</t>
+  </si>
+  <si>
+    <t>ISO27002.15.2</t>
+  </si>
+  <si>
+    <t>ISO27002.15.2 Supplier service delivery management</t>
+  </si>
+  <si>
+    <t>Objective: To maintain an agreed level of information security and service delivery in line with supplier agreements.</t>
+  </si>
+  <si>
+    <t>ISO27002.15.2.1</t>
+  </si>
+  <si>
+    <t>ISO27002.15.2.2</t>
+  </si>
+  <si>
+    <t>ISO27002.15.2.1 Monitoring and review of supplier services</t>
+  </si>
+  <si>
+    <t>Organizations should regularly monitor, review and audit supplier service delivery</t>
+  </si>
+  <si>
+    <t>ISO27002.15.2.2 Managing changes to supplier services</t>
+  </si>
+  <si>
+    <t>Changes to the provision of services by suppliers, including maintaining and improving existing information security policies, procedures and controls, should be managed, taking account of the…</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1 Management of information security incidents and improvements</t>
+  </si>
+  <si>
+    <t>Objective: To ensure a consistent and effective approach to the management of information security incidents, including communication on security events and weaknesses.</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.1 Responsibilities and procedures</t>
+  </si>
+  <si>
+    <t>Management responsibilities and procedures should be established to ensure a quick, effective and orderly response to information security incidents.</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.3</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.4</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.5</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.6</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.7</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.2 Reporting information security events</t>
+  </si>
+  <si>
+    <t>Information security events should be reported through appropriate management channels as quickly as possible.</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.3 Reporting information security weaknesses</t>
+  </si>
+  <si>
+    <t>Employees and contractors using the organization’s information systems and services should be required to note and report any observed or suspected information security weaknesses in systems…</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.4 Assessment of and decision on information security events</t>
+  </si>
+  <si>
+    <t>Information security events should be assessed and it should be decided if they are to be classified as information security incidents.</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.5 Response to information security incidents</t>
+  </si>
+  <si>
+    <t>Information security incidents should be responded to in accordance with the documented procedures</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.6 Learning from information security incidents</t>
+  </si>
+  <si>
+    <t>Knowledge gained from analysing and resolving information security incidents should be used to reduce the likelihood or impact of future incidents.</t>
+  </si>
+  <si>
+    <t>ISO27002.16.1.7 Collection of evidence</t>
+  </si>
+  <si>
+    <t>The organization should define and apply procedures for the identification, collection, acquisition and preservation of information, which can serve as evidence.</t>
+  </si>
+  <si>
+    <t>ISO27002.17</t>
+  </si>
+  <si>
+    <t>ISO27002.17.1</t>
+  </si>
+  <si>
+    <t>ISO27002.17.1 Information security continuity</t>
+  </si>
+  <si>
+    <t>Objective: Information security continuity should be embedded in the organization’s business continuity management systems</t>
+  </si>
+  <si>
+    <t>ISO27002.17.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.17.1.1 Planning information security continuity</t>
+  </si>
+  <si>
+    <t>The organization should determine its requirements for information security and the continuity of information security management in adverse situations, e.g. during a crisis or disaster.</t>
+  </si>
+  <si>
+    <t>ISO27002.17.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.17.1.3</t>
+  </si>
+  <si>
+    <t>ISO27002.17.1.2 Implementing information security continuity</t>
+  </si>
+  <si>
+    <t>The organization should establish, document, implement and maintain processes, procedures and controls to ensure the required level of continuity for information security during an adverse situation.</t>
+  </si>
+  <si>
+    <t>ISO27002.17.1.3 Verify, review and evaluate information security continuity</t>
+  </si>
+  <si>
+    <t>The organization should verify the established and implemented information security continuity controls at regular intervals in order to ensure that they are valid and effective during…</t>
+  </si>
+  <si>
+    <t>ISO27002.17.2</t>
+  </si>
+  <si>
+    <t>ISO27002.17.2 Redundancies</t>
+  </si>
+  <si>
+    <t>Objective: To ensure availability of information processing facilities.</t>
+  </si>
+  <si>
+    <t>ISO27002.17.2.1</t>
+  </si>
+  <si>
+    <t>ISO27002.17.2.1 Availability of information processing facilities</t>
+  </si>
+  <si>
+    <t>Information processing facilities should be implemented with redundancy sufficient to meet availability requirements.</t>
+  </si>
+  <si>
+    <t>ISO27002.18</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1 Compliance with legal and contractual requirements</t>
+  </si>
+  <si>
+    <t>Objective: To avoid breaches of legal, statutory, regulatory or contractual obligations related to information security and of any security requirements.</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1.1</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1.1 Identification of applicable legislation and contractual requirements</t>
+  </si>
+  <si>
+    <t>All relevant legislative statutory, regulatory, contractual requirements and the organization’s approach to meet these requirements should be explicitly identified, documented and kept up to date for…</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1.2</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1.3</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1.4</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1.5</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1.2 Intellectual property rights</t>
+  </si>
+  <si>
+    <t>Appropriate procedures should be implemented to ensure compliance with legislative, regulatory and contractual requirements related to intellectual property rights and use of proprietary software products.</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1.3 Protection of records</t>
+  </si>
+  <si>
+    <t>Records should be protected from loss, destruction, falsification, unauthorized access and unauthorized release, in accordance with legislatory, regulatory, contractual and business requirements.</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1.4 Privacy and protection of personally identifiable information</t>
+  </si>
+  <si>
+    <t>Privacy and protection of personally identifiable information should be ensured as required in relevant legislation and regulation where applicable.</t>
+  </si>
+  <si>
+    <t>ISO27002.18.1.5 Regulation of cryptographic controls</t>
+  </si>
+  <si>
+    <t>Cryptographic controls should be used in compliance with all relevant agreements, legislation and regulations.</t>
+  </si>
+  <si>
+    <t>ISO27002.18.2</t>
+  </si>
+  <si>
+    <t>ISO27002.18.2 Information security reviews</t>
+  </si>
+  <si>
+    <t>Objective: To ensure that information security is implemented and operated in accordance with the organizational policies and procedures.</t>
+  </si>
+  <si>
+    <t>ISO27002.18.2.1</t>
+  </si>
+  <si>
+    <t>ISO27002.18.2.1 Independent review of information security</t>
+  </si>
+  <si>
+    <t>The organization’s approach to managing information security and its implementation (i.e. control objectives, controls, policies, processes and procedures for information security) should be reviewed independently at…</t>
+  </si>
+  <si>
+    <t>ISO27002.18.2.2</t>
+  </si>
+  <si>
+    <t>ISO27002.18.2.3</t>
+  </si>
+  <si>
+    <t>ISO27002.18.2.2 Compliance with security policies and standards</t>
+  </si>
+  <si>
+    <t>Managers should regularly review the compliance of information processing and procedures within their area of responsibility with the appropriate security policies, standards and any other security...</t>
+  </si>
+  <si>
+    <t>ISO27002.18.2.3 Technical compliance review</t>
+  </si>
+  <si>
+    <t>Information systems should be regularly reviewed for compliance with the organization’s information security policies and standards.</t>
+  </si>
+  <si>
+    <t>6.9.7.2</t>
   </si>
 </sst>
 </file>
@@ -16295,6 +18011,339 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.5">
+      <c r="A3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5">
+      <c r="A4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.5">
+      <c r="A7" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1897</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" t="s">
+        <v>458</v>
+      </c>
+      <c r="D13" t="s">
+        <v>459</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D14" t="s">
+        <v>461</v>
+      </c>
+      <c r="E14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C15" t="s">
+        <v>464</v>
+      </c>
+      <c r="D15" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" t="s">
+        <v>466</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D16" t="s">
+        <v>467</v>
+      </c>
+      <c r="E16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>468</v>
+      </c>
+      <c r="B17" t="s">
+        <v>468</v>
+      </c>
+      <c r="C17" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" t="s">
+        <v>470</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" t="s">
+        <v>471</v>
+      </c>
+      <c r="C18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D18" t="s">
+        <v>473</v>
+      </c>
+      <c r="E18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B19" t="s">
+        <v>474</v>
+      </c>
+      <c r="C19" t="s">
+        <v>475</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{D09921DE-1EAE-4C77-BDE3-26ECFA02BC5F}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{57630234-A420-442E-9BC0-508356F4BF81}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{C31074B4-0FB8-41F5-B75A-CF14ECA30161}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{17E795EC-C37E-4ADD-BBE9-5D7ABBC5CCE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5AC0FA-9449-4B71-8884-9C6D19EE493B}">
   <dimension ref="A1:E123"/>
   <sheetViews>
@@ -17973,7 +20022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
@@ -18254,7 +20303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -18681,7 +20730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -19018,8 +21067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22318,8 +24367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B934EF-02F8-4B99-85C5-C25F02848426}">
   <dimension ref="A1:H665"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E347" sqref="E347"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24855,7 +26904,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="30">
+    <row r="183" spans="1:5">
       <c r="A183" t="s">
         <v>4284</v>
       </c>
@@ -24870,7 +26919,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="30">
+    <row r="184" spans="1:5">
       <c r="A184" t="s">
         <v>4286</v>
       </c>
@@ -24885,7 +26934,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="30">
+    <row r="185" spans="1:5">
       <c r="A185" t="s">
         <v>4288</v>
       </c>
@@ -24900,7 +26949,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="30">
+    <row r="186" spans="1:5">
       <c r="A186" t="s">
         <v>4290</v>
       </c>
@@ -24915,7 +26964,7 @@
         <v>4629</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="30">
+    <row r="187" spans="1:5">
       <c r="A187" t="s">
         <v>4292</v>
       </c>
@@ -28110,6 +30159,2645 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3C330C-CA93-42D3-B435-3519CA427734}">
+  <dimension ref="A1:E199"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197:E199"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4660</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>4661</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4662</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4638</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="150">
+      <c r="A4" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4634</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="150">
+      <c r="A5" t="s">
+        <v>4665</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4666</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4639</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="120">
+      <c r="A6" t="s">
+        <v>4667</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4668</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4635</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>4669</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="150">
+      <c r="A8" t="s">
+        <v>4670</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4671</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4640</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="135">
+      <c r="A9" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4673</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4641</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="165">
+      <c r="A10" t="s">
+        <v>4674</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4675</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>4642</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4676</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" t="s">
+        <v>4677</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4677</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="135">
+      <c r="A13" t="s">
+        <v>4678</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4643</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="150">
+      <c r="A14" t="s">
+        <v>4680</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4681</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4644</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="150">
+      <c r="A15" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4683</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4645</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="165">
+      <c r="A16" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4646</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>4686</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4686</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="135">
+      <c r="A18" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4688</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4647</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="150">
+      <c r="A19" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4690</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>4648</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="135">
+      <c r="A20" t="s">
+        <v>4691</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4692</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4649</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="180">
+      <c r="A21" t="s">
+        <v>4693</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>4650</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>4695</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4695</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="180">
+      <c r="A23" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4697</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>4651</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="165">
+      <c r="A24" t="s">
+        <v>4698</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4699</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>4652</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="150">
+      <c r="A25" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4701</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4653</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>4702</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4702</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="135">
+      <c r="A27" t="s">
+        <v>4703</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4704</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4654</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="135">
+      <c r="A28" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>4655</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="135">
+      <c r="A29" t="s">
+        <v>4707</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4708</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>4636</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4709</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="150">
+      <c r="A31" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4711</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4656</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="150">
+      <c r="A32" t="s">
+        <v>4712</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4713</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>4657</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="195">
+      <c r="A33" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4715</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4658</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>4716</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4716</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="150">
+      <c r="A35" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4718</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4659</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="105">
+      <c r="A36" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4720</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>4637</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="105">
+      <c r="A38" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4725</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="120">
+      <c r="A39" t="s">
+        <v>4726</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>4728</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="120">
+      <c r="A40" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>4731</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>4732</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="105">
+      <c r="A42" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4735</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>4736</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45">
+      <c r="A43" t="s">
+        <v>4738</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4739</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>4740</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="120">
+      <c r="A44" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4742</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4743</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4745</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4746</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="90">
+      <c r="A46" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4748</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4749</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="75">
+      <c r="A47" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4751</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4752</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4753</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="75">
+      <c r="A49" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4756</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>4757</v>
+      </c>
+      <c r="E49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="90">
+      <c r="A50" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4759</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4760</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4733</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="90">
+      <c r="A52" t="s">
+        <v>4761</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4762</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>4763</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="120">
+      <c r="A53" t="s">
+        <v>4766</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4767</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>4768</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="105">
+      <c r="A54" t="s">
+        <v>4769</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4770</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>4771</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="75">
+      <c r="A55" t="s">
+        <v>4764</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4772</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>4773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="120">
+      <c r="A56" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4775</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>4776</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="135">
+      <c r="A57" t="s">
+        <v>4777</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4779</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>4780</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="105">
+      <c r="A58" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4781</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>4782</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="75">
+      <c r="A59" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4783</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="120">
+      <c r="A60" t="s">
+        <v>4785</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4786</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>4787</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4788</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="60">
+      <c r="A62" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4791</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="105">
+      <c r="A63" t="s">
+        <v>4795</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4796</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>4797</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4799</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4800</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="120">
+      <c r="A65" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4802</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>4803</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="120">
+      <c r="A66" t="s">
+        <v>4804</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4805</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>4806</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="90">
+      <c r="A67" t="s">
+        <v>4793</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4807</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="90">
+      <c r="A68" t="s">
+        <v>4809</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4810</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>4811</v>
+      </c>
+      <c r="E68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="135">
+      <c r="A69" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4814</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>4815</v>
+      </c>
+      <c r="E69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="120">
+      <c r="A70" t="s">
+        <v>4813</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4816</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>4817</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="75">
+      <c r="A71" t="s">
+        <v>4794</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4818</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>4819</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="105">
+      <c r="A72" t="s">
+        <v>4820</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4821</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>4822</v>
+      </c>
+      <c r="E72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="60">
+      <c r="A73" t="s">
+        <v>4823</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4825</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>4826</v>
+      </c>
+      <c r="E73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="90">
+      <c r="A74" t="s">
+        <v>4824</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4827</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>4789</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4789</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60">
+      <c r="A76" t="s">
+        <v>4829</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4830</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="90">
+      <c r="A77" t="s">
+        <v>4832</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4833</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>4834</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="90">
+      <c r="A78" t="s">
+        <v>4835</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4836</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>4837</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="75">
+      <c r="A79" t="s">
+        <v>4838</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4839</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="75">
+      <c r="A80" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4842</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>4843</v>
+      </c>
+      <c r="E80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="90">
+      <c r="A81" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4847</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>4848</v>
+      </c>
+      <c r="E81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="60">
+      <c r="A82" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4849</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>4850</v>
+      </c>
+      <c r="E82" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="75">
+      <c r="A83" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4851</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>4852</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45">
+      <c r="A84" t="s">
+        <v>4853</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4855</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>4856</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="120">
+      <c r="A85" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4857</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>4858</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="75">
+      <c r="A86" t="s">
+        <v>4859</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4861</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="90">
+      <c r="A87" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4864</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>4865</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="45">
+      <c r="A88" t="s">
+        <v>4860</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4866</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>4867</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="90">
+      <c r="A89" t="s">
+        <v>4868</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4869</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>4870</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="90">
+      <c r="A90" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4872</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>4873</v>
+      </c>
+      <c r="E90" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="60">
+      <c r="A91" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4877</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>4878</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="90">
+      <c r="A92" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4879</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>4880</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30">
+      <c r="A93" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4881</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>4882</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>4883</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4883</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="90">
+      <c r="A95" t="s">
+        <v>4890</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4891</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="75">
+      <c r="A96" t="s">
+        <v>4893</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4894</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>4895</v>
+      </c>
+      <c r="E96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="105">
+      <c r="A97" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4897</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>4898</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30">
+      <c r="A98" t="s">
+        <v>4884</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="105">
+      <c r="A99" t="s">
+        <v>4899</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4900</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>4901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="105">
+      <c r="A100" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4903</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>4904</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="90">
+      <c r="A101" t="s">
+        <v>4905</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4908</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>4909</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="60">
+      <c r="A102" t="s">
+        <v>4906</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4910</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>4911</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="60">
+      <c r="A103" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4912</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>4913</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="45">
+      <c r="A104" t="s">
+        <v>4914</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4916</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>4917</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="105">
+      <c r="A105" t="s">
+        <v>4915</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4918</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>4919</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="75">
+      <c r="A106" t="s">
+        <v>4920</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4921</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="90">
+      <c r="A107" t="s">
+        <v>4923</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4924</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>4925</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="90">
+      <c r="A108" t="s">
+        <v>4926</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4934</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>4935</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="120">
+      <c r="A109" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4936</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>4937</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="60">
+      <c r="A110" t="s">
+        <v>4928</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4938</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>4939</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="60">
+      <c r="A111" t="s">
+        <v>4929</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4940</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>4941</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="90">
+      <c r="A112" t="s">
+        <v>4930</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4942</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>4943</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="120">
+      <c r="A113" t="s">
+        <v>4931</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4944</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>4945</v>
+      </c>
+      <c r="E113" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="45">
+      <c r="A114" t="s">
+        <v>4932</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4946</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>4947</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="105">
+      <c r="A115" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4948</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>4949</v>
+      </c>
+      <c r="E115" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4885</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="60">
+      <c r="A117" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4951</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>4952</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="60">
+      <c r="A118" t="s">
+        <v>4958</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4959</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>4960</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="105">
+      <c r="A119" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4963</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>4962</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="105">
+      <c r="A120" t="s">
+        <v>4964</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4966</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>4967</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="105">
+      <c r="A121" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4968</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>4969</v>
+      </c>
+      <c r="E121" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="75">
+      <c r="A122" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4970</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="90">
+      <c r="A123" t="s">
+        <v>4972</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4973</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>4974</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30">
+      <c r="A124" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4975</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>4976</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="90">
+      <c r="A125" t="s">
+        <v>4977</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4978</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>4979</v>
+      </c>
+      <c r="E125" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="45">
+      <c r="A126" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4980</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>4981</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="90">
+      <c r="A127" t="s">
+        <v>4983</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4984</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>4985</v>
+      </c>
+      <c r="E127" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="75">
+      <c r="A128" t="s">
+        <v>4986</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4988</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="E128" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="75">
+      <c r="A129" t="s">
+        <v>4987</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4990</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>4991</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="105">
+      <c r="A130" t="s">
+        <v>4992</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4993</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>4994</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="45">
+      <c r="A131" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4995</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="60">
+      <c r="A132" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4998</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>4999</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="45">
+      <c r="A133" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5000</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="135">
+      <c r="A134" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5003</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>5004</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="75">
+      <c r="A135" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5006</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>5007</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="45">
+      <c r="A136" t="s">
+        <v>4982</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5008</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="120">
+      <c r="A137" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5011</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>5012</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B138" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="75">
+      <c r="A139" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5014</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="60">
+      <c r="A140" t="s">
+        <v>5017</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5018</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>5019</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="150">
+      <c r="A141" t="s">
+        <v>5020</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5022</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>5023</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="75">
+      <c r="A142" t="s">
+        <v>5021</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5025</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>5024</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="75">
+      <c r="A143" t="s">
+        <v>5016</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5026</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>5027</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="105">
+      <c r="A144" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5030</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>5029</v>
+      </c>
+      <c r="E144" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="75">
+      <c r="A145" t="s">
+        <v>5031</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5034</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>5035</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="60">
+      <c r="A146" t="s">
+        <v>5032</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5036</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>5037</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="150">
+      <c r="A147" t="s">
+        <v>5033</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5038</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>5039</v>
+      </c>
+      <c r="E147" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="45">
+      <c r="A148" t="s">
+        <v>4887</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="120">
+      <c r="A149" t="s">
+        <v>5041</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5043</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="105">
+      <c r="A150" t="s">
+        <v>5045</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5046</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>5047</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="135">
+      <c r="A151" t="s">
+        <v>5048</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5050</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>5051</v>
+      </c>
+      <c r="E151" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="150">
+      <c r="A152" t="s">
+        <v>5049</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5052</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>5053</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="90">
+      <c r="A153" t="s">
+        <v>5042</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5054</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="75">
+      <c r="A154" t="s">
+        <v>5056</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5057</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>5058</v>
+      </c>
+      <c r="E154" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="75">
+      <c r="A155" t="s">
+        <v>5059</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5062</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>5063</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="105">
+      <c r="A156" t="s">
+        <v>5060</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5064</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>5065</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="90">
+      <c r="A157" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5066</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>5067</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="90">
+      <c r="A158" t="s">
+        <v>5068</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5072</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>5073</v>
+      </c>
+      <c r="E158" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="135">
+      <c r="A159" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5074</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>5075</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="60">
+      <c r="A160" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5076</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>5077</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="60">
+      <c r="A161" t="s">
+        <v>5071</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5079</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>5080</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="105">
+      <c r="A162" t="s">
+        <v>5078</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5081</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>5082</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="45">
+      <c r="A163" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5083</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>5084</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="45">
+      <c r="A164" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5086</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>5087</v>
+      </c>
+      <c r="E164" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>4888</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4888</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="60">
+      <c r="A166" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5089</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="120">
+      <c r="A167" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5092</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>5093</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="120">
+      <c r="A168" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5096</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>5097</v>
+      </c>
+      <c r="E168" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="135">
+      <c r="A169" t="s">
+        <v>5095</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5098</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>5099</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="75">
+      <c r="A170" t="s">
+        <v>5100</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5101</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="60">
+      <c r="A171" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5105</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>5106</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="135">
+      <c r="A172" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5107</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>5108</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30">
+      <c r="A173" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="120">
+      <c r="A174" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5110</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="120">
+      <c r="A175" t="s">
+        <v>5112</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5113</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>5114</v>
+      </c>
+      <c r="E175" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="75">
+      <c r="A176" t="s">
+        <v>5115</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5121</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>5122</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="135">
+      <c r="A177" t="s">
+        <v>5116</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5123</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>5124</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="90">
+      <c r="A178" t="s">
+        <v>5117</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5125</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>5126</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="75">
+      <c r="A179" t="s">
+        <v>5118</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5127</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>5128</v>
+      </c>
+      <c r="E179" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="90">
+      <c r="A180" t="s">
+        <v>5119</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5129</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>5130</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="120">
+      <c r="A181" t="s">
+        <v>5120</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5131</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>5132</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="45">
+      <c r="A182" t="s">
+        <v>5133</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5133</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="90">
+      <c r="A183" t="s">
+        <v>5134</v>
+      </c>
+      <c r="B183" t="s">
+        <v>5135</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="135">
+      <c r="A184" t="s">
+        <v>5137</v>
+      </c>
+      <c r="B184" t="s">
+        <v>5138</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>5139</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="135">
+      <c r="A185" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5142</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>5143</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="105">
+      <c r="A186" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5144</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="45">
+      <c r="A187" t="s">
+        <v>5146</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5147</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="90">
+      <c r="A188" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5150</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>5151</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5152</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="105">
+      <c r="A190" t="s">
+        <v>5153</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5154</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="135">
+      <c r="A191" t="s">
+        <v>5156</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5157</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>5158</v>
+      </c>
+      <c r="E191" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="135">
+      <c r="A192" t="s">
+        <v>5159</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5163</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>5164</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="135">
+      <c r="A193" t="s">
+        <v>5160</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5165</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>5166</v>
+      </c>
+      <c r="E193" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="105">
+      <c r="A194" t="s">
+        <v>5161</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5167</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>5168</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="75">
+      <c r="A195" t="s">
+        <v>5162</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5169</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>5170</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="90">
+      <c r="A196" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5172</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="150">
+      <c r="A197" t="s">
+        <v>5174</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5175</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>5176</v>
+      </c>
+      <c r="E197" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="120">
+      <c r="A198" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5179</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>5180</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="90">
+      <c r="A199" t="s">
+        <v>5178</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5181</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>5182</v>
+      </c>
+      <c r="E199" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
@@ -28794,7 +33482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -29183,7 +33871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -29671,7 +34359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -30160,7 +34848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB62EA1-5A3C-446A-BD82-9DFA95F5937C}">
   <dimension ref="A1:N406"/>
   <sheetViews>
@@ -45236,340 +49924,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.5">
-      <c r="A3" t="s">
-        <v>443</v>
-      </c>
-      <c r="B3" t="s">
-        <v>443</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1892</v>
-      </c>
-      <c r="D3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5">
-      <c r="A4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1893</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B5" t="s">
-        <v>447</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1894</v>
-      </c>
-      <c r="D5" t="s">
-        <v>441</v>
-      </c>
-      <c r="E5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B6" t="s">
-        <v>449</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1970</v>
-      </c>
-      <c r="D6" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="409.5">
-      <c r="A7" t="s">
-        <v>1968</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1968</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1969</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>1890</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>450</v>
-      </c>
-      <c r="B9" t="s">
-        <v>450</v>
-      </c>
-      <c r="C9" t="s">
-        <v>451</v>
-      </c>
-      <c r="D9" t="s">
-        <v>441</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>452</v>
-      </c>
-      <c r="B10" t="s">
-        <v>452</v>
-      </c>
-      <c r="C10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D10" t="s">
-        <v>441</v>
-      </c>
-      <c r="E10" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>376</v>
-      </c>
-      <c r="B11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>455</v>
-      </c>
-      <c r="B12" t="s">
-        <v>455</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>457</v>
-      </c>
-      <c r="B13" t="s">
-        <v>457</v>
-      </c>
-      <c r="C13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D13" t="s">
-        <v>459</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>460</v>
-      </c>
-      <c r="B14" t="s">
-        <v>460</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D14" t="s">
-        <v>461</v>
-      </c>
-      <c r="E14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>463</v>
-      </c>
-      <c r="B15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C15" t="s">
-        <v>464</v>
-      </c>
-      <c r="D15" t="s">
-        <v>465</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>466</v>
-      </c>
-      <c r="B16" t="s">
-        <v>466</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1902</v>
-      </c>
-      <c r="D16" t="s">
-        <v>467</v>
-      </c>
-      <c r="E16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>468</v>
-      </c>
-      <c r="B17" t="s">
-        <v>468</v>
-      </c>
-      <c r="C17" t="s">
-        <v>469</v>
-      </c>
-      <c r="D17" t="s">
-        <v>470</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>471</v>
-      </c>
-      <c r="B18" t="s">
-        <v>471</v>
-      </c>
-      <c r="C18" t="s">
-        <v>472</v>
-      </c>
-      <c r="D18" t="s">
-        <v>473</v>
-      </c>
-      <c r="E18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>474</v>
-      </c>
-      <c r="B19" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" t="s">
-        <v>475</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{D09921DE-1EAE-4C77-BDE3-26ECFA02BC5F}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{57630234-A420-442E-9BC0-508356F4BF81}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{C31074B4-0FB8-41F5-B75A-CF14ECA30161}"/>
-    <hyperlink ref="D19" r:id="rId4" xr:uid="{17E795EC-C37E-4ADD-BBE9-5D7ABBC5CCE2}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -45820,25 +50193,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -45855,22 +50228,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E35DF83-8531-4BBD-99D0-42430922D763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEDAEB3-D6C6-4DEA-9630-37C389F4CB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="480" windowWidth="15165" windowHeight="6795" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
     <sheet name="ISO" sheetId="1" r:id="rId2"/>
     <sheet name="PDPB draft" sheetId="14" r:id="rId3"/>
-    <sheet name="ISO27001+27002" sheetId="15" r:id="rId4"/>
+    <sheet name="27001+27002" sheetId="15" r:id="rId4"/>
     <sheet name="Australia " sheetId="2" r:id="rId5"/>
     <sheet name="Brazil " sheetId="9" r:id="rId6"/>
     <sheet name="California CCPA " sheetId="8" r:id="rId7"/>
@@ -30162,8 +30162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3C330C-CA93-42D3-B435-3519CA427734}">
   <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197:E199"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49925,24 +49925,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -50193,25 +50175,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50228,4 +50210,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEDAEB3-D6C6-4DEA-9630-37C389F4CB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA4F9CA-B277-4221-8781-FA568858F103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
     <sheet name="ISO" sheetId="1" r:id="rId2"/>
     <sheet name="PDPB draft" sheetId="14" r:id="rId3"/>
-    <sheet name="27001+27002" sheetId="15" r:id="rId4"/>
+    <sheet name="ISO 27001+27002" sheetId="15" r:id="rId4"/>
     <sheet name="Australia " sheetId="2" r:id="rId5"/>
     <sheet name="Brazil " sheetId="9" r:id="rId6"/>
     <sheet name="California CCPA " sheetId="8" r:id="rId7"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8831" uniqueCount="5184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8831" uniqueCount="5183">
   <si>
     <t>id</t>
   </si>
@@ -17418,9 +17418,6 @@
   </si>
   <si>
     <t>Information systems should be regularly reviewed for compliance with the organization’s information security policies and standards.</t>
-  </si>
-  <si>
-    <t>6.9.7.2</t>
   </si>
 </sst>
 </file>
@@ -30162,8 +30159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3C330C-CA93-42D3-B435-3519CA427734}">
   <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31973,7 +31970,7 @@
         <v>5012</v>
       </c>
       <c r="E137" t="s">
-        <v>5183</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -49925,6 +49922,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -50175,25 +50190,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50210,22 +50225,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE713E-54CB-4E43-A49E-70D4267CD314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB44872-245C-4050-8D5A-4F56F81491E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeLog" sheetId="11" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Turkey " sheetId="7" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'India Draft PDPB'!$A$1:$F$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'India Draft PDPB'!$A$1:$G$233</definedName>
     <definedName name="_Toc506801608" localSheetId="2">'Australia '!$C$2</definedName>
     <definedName name="_Toc506801610" localSheetId="2">'Australia '!$C$3</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9176" uniqueCount="5354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9177" uniqueCount="5354">
   <si>
     <t>id</t>
   </si>
@@ -18139,7 +18139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8043BC62-2F51-43CD-92FB-F94EA755A381}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -46155,10 +46155,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4DE690-0DD0-43A2-8DBD-BCC98FC8DD2E}">
-  <dimension ref="A1:G529"/>
+  <dimension ref="A1:H529"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46166,13 +46166,14 @@
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="100.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24" style="13" customWidth="1"/>
-    <col min="5" max="5" width="72.85546875" style="13" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24" style="13" customWidth="1"/>
+    <col min="6" max="6" width="72.85546875" style="13" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -46182,16 +46183,19 @@
       <c r="C1" t="s">
         <v>3988</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>5246</v>
       </c>
-      <c r="F1" s="13"/>
       <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="45">
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" ht="45">
       <c r="A2">
         <v>4</v>
       </c>
@@ -46201,15 +46205,16 @@
       <c r="C2" s="15" t="s">
         <v>3990</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="13" t="s">
         <v>5247</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>5248</v>
       </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="60">
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" ht="60">
       <c r="A3">
         <v>5</v>
       </c>
@@ -46217,8 +46222,9 @@
         <v>3991</v>
       </c>
       <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="60">
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="60">
       <c r="A4" t="s">
         <v>3992</v>
       </c>
@@ -46228,15 +46234,16 @@
       <c r="C4" s="15" t="s">
         <v>3993</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>5249</v>
       </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="51">
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" ht="51">
       <c r="A5" t="s">
         <v>3994</v>
       </c>
@@ -46246,12 +46253,13 @@
       <c r="C5" s="15" t="s">
         <v>3995</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="13" t="s">
         <v>2220</v>
       </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="45">
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" ht="45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -46261,15 +46269,16 @@
       <c r="C6" s="15" t="s">
         <v>3997</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="13" t="s">
         <v>5250</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>5251</v>
       </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="75">
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" ht="75">
       <c r="A7">
         <v>7</v>
       </c>
@@ -46277,8 +46286,9 @@
         <v>3998</v>
       </c>
       <c r="C7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="D7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A8">
         <v>7.1</v>
       </c>
@@ -46288,12 +46298,13 @@
       <c r="C8" s="15" t="s">
         <v>3999</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="13" t="s">
         <v>4000</v>
       </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>4001</v>
       </c>
@@ -46303,12 +46314,13 @@
       <c r="C9" s="15" t="s">
         <v>4002</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>4003</v>
       </c>
@@ -46318,12 +46330,13 @@
       <c r="C10" s="15" t="s">
         <v>4004</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="25.5">
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="25.5">
       <c r="A11" t="s">
         <v>4005</v>
       </c>
@@ -46333,12 +46346,13 @@
       <c r="C11" s="15" t="s">
         <v>4006</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="25.5">
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="25.5">
       <c r="A12" t="s">
         <v>4007</v>
       </c>
@@ -46348,12 +46362,13 @@
       <c r="C12" s="15" t="s">
         <v>4008</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="29.1" customHeight="1">
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="29.1" customHeight="1">
       <c r="A13" t="s">
         <v>4009</v>
       </c>
@@ -46363,12 +46378,13 @@
       <c r="C13" s="15" t="s">
         <v>4010</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>4011</v>
       </c>
@@ -46378,12 +46394,13 @@
       <c r="C14" s="15" t="s">
         <v>4012</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="25.5">
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="25.5">
       <c r="A15" t="s">
         <v>4013</v>
       </c>
@@ -46393,12 +46410,13 @@
       <c r="C15" s="15" t="s">
         <v>4014</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="25.5">
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5">
       <c r="A16" t="s">
         <v>4015</v>
       </c>
@@ -46408,12 +46426,13 @@
       <c r="C16" s="15" t="s">
         <v>4016</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="25.5">
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="25.5">
       <c r="A17" t="s">
         <v>4017</v>
       </c>
@@ -46423,12 +46442,13 @@
       <c r="C17" s="15" t="s">
         <v>4018</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="25.5">
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="25.5">
       <c r="A18" t="s">
         <v>4019</v>
       </c>
@@ -46438,12 +46458,13 @@
       <c r="C18" s="15" t="s">
         <v>4020</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="30">
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="30">
       <c r="A19" t="s">
         <v>4021</v>
       </c>
@@ -46453,15 +46474,16 @@
       <c r="C19" s="15" t="s">
         <v>4022</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="F19" s="13" t="s">
         <v>5252</v>
       </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="30">
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="30">
       <c r="A20" t="s">
         <v>4023</v>
       </c>
@@ -46471,15 +46493,16 @@
       <c r="C20" s="15" t="s">
         <v>4024</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>5253</v>
       </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="30">
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" t="s">
         <v>4025</v>
       </c>
@@ -46489,16 +46512,17 @@
       <c r="C21" s="15" t="s">
         <v>4026</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>5252</v>
       </c>
-      <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>4027</v>
       </c>
@@ -46508,15 +46532,15 @@
       <c r="C22" t="s">
         <v>4028</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>5252</v>
       </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="25.5">
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" ht="25.5">
       <c r="A23">
         <v>7.2</v>
       </c>
@@ -46526,15 +46550,16 @@
       <c r="C23" s="15" t="s">
         <v>4029</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="13" t="s">
         <v>5254</v>
       </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" ht="25.5">
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="25.5">
       <c r="A24">
         <v>7.3</v>
       </c>
@@ -46544,12 +46569,13 @@
       <c r="C24" s="15" t="s">
         <v>4030</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="13" t="s">
         <v>4031</v>
       </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" ht="45">
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" ht="45">
       <c r="A25">
         <v>8</v>
       </c>
@@ -46557,8 +46583,9 @@
         <v>4032</v>
       </c>
       <c r="C25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" ht="33" customHeight="1">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="33" customHeight="1">
       <c r="A26">
         <v>8.1</v>
       </c>
@@ -46568,15 +46595,16 @@
       <c r="C26" s="15" t="s">
         <v>4033</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="15"/>
+      <c r="E26" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="F26" s="13" t="s">
         <v>5255</v>
       </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="30">
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="30">
       <c r="A27" t="s">
         <v>4034</v>
       </c>
@@ -46586,16 +46614,17 @@
       <c r="C27" s="15" t="s">
         <v>4035</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="13" t="s">
         <v>5256</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="F27" s="13" t="s">
         <v>5257</v>
       </c>
-      <c r="F27" s="13"/>
       <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" ht="45">
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="45">
       <c r="A28" t="s">
         <v>4036</v>
       </c>
@@ -46605,15 +46634,16 @@
       <c r="C28" s="15" t="s">
         <v>4037</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="15"/>
+      <c r="E28" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="F28" s="13" t="s">
         <v>5258</v>
       </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="75">
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" ht="75">
       <c r="A29" t="s">
         <v>4038</v>
       </c>
@@ -46623,16 +46653,17 @@
       <c r="C29" s="15" t="s">
         <v>4039</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="F29" s="13" t="s">
         <v>5259</v>
       </c>
-      <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="42.95" customHeight="1">
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" ht="42.95" customHeight="1">
       <c r="A30">
         <v>8.3000000000000007</v>
       </c>
@@ -46642,15 +46673,16 @@
       <c r="C30" s="15" t="s">
         <v>4040</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="15"/>
+      <c r="E30" s="13" t="s">
         <v>5260</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="F30" s="13" t="s">
         <v>5261</v>
       </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="42.95" customHeight="1">
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="42.95" customHeight="1">
       <c r="A31">
         <v>9</v>
       </c>
@@ -46658,8 +46690,9 @@
         <v>4041</v>
       </c>
       <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" ht="32.450000000000003" customHeight="1">
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="32.450000000000003" customHeight="1">
       <c r="A32">
         <v>9.1</v>
       </c>
@@ -46669,11 +46702,12 @@
       <c r="C32" s="15" t="s">
         <v>4042</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="13" t="s">
         <v>4043</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.5" customHeight="1">
+    <row r="33" spans="1:7" ht="28.5" customHeight="1">
       <c r="A33">
         <v>9.1999999999999993</v>
       </c>
@@ -46683,11 +46717,12 @@
       <c r="C33" s="15" t="s">
         <v>4044</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="30">
+    <row r="34" spans="1:7" ht="30">
       <c r="A34">
         <v>9.3000000000000007</v>
       </c>
@@ -46697,15 +46732,16 @@
       <c r="C34" s="15" t="s">
         <v>4045</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="15"/>
+      <c r="E34" s="13" t="s">
         <v>5262</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>5263</v>
       </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="31.5" customHeight="1">
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" ht="31.5" customHeight="1">
       <c r="A35">
         <v>9.4</v>
       </c>
@@ -46715,15 +46751,16 @@
       <c r="C35" s="15" t="s">
         <v>4046</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="15"/>
+      <c r="E35" s="13" t="s">
         <v>5264</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>5265</v>
       </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" ht="30">
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="30">
       <c r="A36">
         <v>10</v>
       </c>
@@ -46733,11 +46770,12 @@
       <c r="C36" s="15" t="s">
         <v>4048</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="15"/>
+      <c r="E36" s="13" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="60">
+    <row r="37" spans="1:7" ht="60">
       <c r="A37">
         <v>11</v>
       </c>
@@ -46745,8 +46783,9 @@
         <v>4049</v>
       </c>
       <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1">
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38">
         <v>11.1</v>
       </c>
@@ -46756,11 +46795,12 @@
       <c r="C38" s="15" t="s">
         <v>4050</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="38.25">
+    <row r="39" spans="1:7" ht="38.25">
       <c r="A39" t="s">
         <v>4051</v>
       </c>
@@ -46770,15 +46810,16 @@
       <c r="C39" s="15" t="s">
         <v>4052</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="15"/>
+      <c r="E39" s="13" t="s">
         <v>5266</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>5267</v>
       </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>4053</v>
       </c>
@@ -46788,15 +46829,16 @@
       <c r="C40" s="15" t="s">
         <v>4054</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="15"/>
+      <c r="E40" s="13" t="s">
         <v>4202</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="F40" s="13" t="s">
         <v>5268</v>
       </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="25.5">
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7" ht="25.5">
       <c r="A41" t="s">
         <v>4055</v>
       </c>
@@ -46806,15 +46848,16 @@
       <c r="C41" s="15" t="s">
         <v>4056</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="15"/>
+      <c r="E41" s="13" t="s">
         <v>4202</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="F41" s="13" t="s">
         <v>5268</v>
       </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>4057</v>
       </c>
@@ -46824,15 +46867,16 @@
       <c r="C42" s="15" t="s">
         <v>4058</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="15"/>
+      <c r="E42" s="13" t="s">
         <v>4202</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>5268</v>
       </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" ht="28.5" customHeight="1">
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7" ht="28.5" customHeight="1">
       <c r="A43" t="s">
         <v>4059</v>
       </c>
@@ -46842,11 +46886,12 @@
       <c r="C43" s="15" t="s">
         <v>4060</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="15"/>
+      <c r="E43" s="13" t="s">
         <v>4061</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="39.6" customHeight="1">
+    <row r="44" spans="1:7" ht="39.6" customHeight="1">
       <c r="A44" t="s">
         <v>4062</v>
       </c>
@@ -46856,15 +46901,16 @@
       <c r="C44" s="15" t="s">
         <v>4063</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="13" t="s">
         <v>5269</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="F44" s="13" t="s">
         <v>5270</v>
       </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="13"/>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>4064</v>
       </c>
@@ -46874,15 +46920,16 @@
       <c r="C45" s="15" t="s">
         <v>4065</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="13" t="s">
         <v>5271</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="F45" s="13" t="s">
         <v>5272</v>
       </c>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1">
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1">
       <c r="A46" t="s">
         <v>4066</v>
       </c>
@@ -46892,15 +46939,16 @@
       <c r="C46" s="15" t="s">
         <v>4067</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="15"/>
+      <c r="E46" s="13" t="s">
         <v>5273</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="F46" s="13" t="s">
         <v>5270</v>
       </c>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="38.25">
+      <c r="G46" s="13"/>
+    </row>
+    <row r="47" spans="1:7" ht="38.25">
       <c r="A47">
         <v>11.4</v>
       </c>
@@ -46910,15 +46958,16 @@
       <c r="C47" s="15" t="s">
         <v>4068</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="15"/>
+      <c r="E47" s="13" t="s">
         <v>5274</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="F47" s="13" t="s">
         <v>5275</v>
       </c>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1">
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1">
       <c r="A48">
         <v>11.5</v>
       </c>
@@ -46928,15 +46977,16 @@
       <c r="C48" s="15" t="s">
         <v>4069</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="15"/>
+      <c r="E48" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="F48" s="13" t="s">
         <v>5276</v>
       </c>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" ht="33.6" customHeight="1">
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7" ht="33.6" customHeight="1">
       <c r="A49">
         <v>11.6</v>
       </c>
@@ -46946,8 +46996,9 @@
       <c r="C49" s="15" t="s">
         <v>4070</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="33.6" customHeight="1">
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:7" ht="33.6" customHeight="1">
       <c r="A50">
         <v>12</v>
       </c>
@@ -46955,8 +47006,9 @@
         <v>4071</v>
       </c>
       <c r="C50" s="15"/>
-    </row>
-    <row r="51" spans="1:6" ht="42.95" customHeight="1">
+      <c r="D50" s="15"/>
+    </row>
+    <row r="51" spans="1:7" ht="42.95" customHeight="1">
       <c r="A51" t="s">
         <v>4072</v>
       </c>
@@ -46966,11 +47018,12 @@
       <c r="C51" s="15" t="s">
         <v>4073</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="15"/>
+      <c r="E51" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>4074</v>
       </c>
@@ -46980,11 +47033,12 @@
       <c r="C52" s="15" t="s">
         <v>4075</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="15"/>
+      <c r="E52" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>4076</v>
       </c>
@@ -46994,11 +47048,12 @@
       <c r="C53" s="15" t="s">
         <v>4077</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="15"/>
+      <c r="E53" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>4078</v>
       </c>
@@ -47008,8 +47063,9 @@
       <c r="C54" s="15" t="s">
         <v>4079</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="25.5">
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:7" ht="25.5">
       <c r="A55" t="s">
         <v>4080</v>
       </c>
@@ -47019,11 +47075,12 @@
       <c r="C55" s="15" t="s">
         <v>4081</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="15"/>
+      <c r="E55" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="25.5">
+    <row r="56" spans="1:7" ht="25.5">
       <c r="A56" t="s">
         <v>4082</v>
       </c>
@@ -47033,11 +47090,12 @@
       <c r="C56" s="15" t="s">
         <v>4083</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="15"/>
+      <c r="E56" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="24.95" customHeight="1">
+    <row r="57" spans="1:7" ht="24.95" customHeight="1">
       <c r="A57" t="s">
         <v>4084</v>
       </c>
@@ -47047,11 +47105,12 @@
       <c r="C57" s="15" t="s">
         <v>4085</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="15"/>
+      <c r="E57" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="24.95" customHeight="1">
+    <row r="58" spans="1:7" ht="24.95" customHeight="1">
       <c r="A58">
         <v>13</v>
       </c>
@@ -47059,8 +47118,9 @@
         <v>4086</v>
       </c>
       <c r="C58" s="15"/>
-    </row>
-    <row r="59" spans="1:6" ht="42.6" customHeight="1">
+      <c r="D58" s="15"/>
+    </row>
+    <row r="59" spans="1:7" ht="42.6" customHeight="1">
       <c r="A59" t="s">
         <v>683</v>
       </c>
@@ -47070,15 +47130,16 @@
       <c r="C59" s="15" t="s">
         <v>4087</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D59" s="15"/>
+      <c r="E59" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="F59" s="13" t="s">
         <v>5277</v>
       </c>
-      <c r="F59" s="13"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="13"/>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>684</v>
       </c>
@@ -47088,11 +47149,12 @@
       <c r="C60" s="15" t="s">
         <v>4088</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="15"/>
+      <c r="E60" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>685</v>
       </c>
@@ -47102,11 +47164,12 @@
       <c r="C61" s="15" t="s">
         <v>4089</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="15"/>
+      <c r="E61" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="25.5">
+    <row r="62" spans="1:7" ht="25.5">
       <c r="A62" t="s">
         <v>686</v>
       </c>
@@ -47116,11 +47179,12 @@
       <c r="C62" s="15" t="s">
         <v>4090</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="15"/>
+      <c r="E62" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="51">
+    <row r="63" spans="1:7" ht="51">
       <c r="A63">
         <v>13.2</v>
       </c>
@@ -47130,11 +47194,12 @@
       <c r="C63" s="15" t="s">
         <v>4091</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="15"/>
+      <c r="E63" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>14</v>
       </c>
@@ -47142,8 +47207,9 @@
         <v>4092</v>
       </c>
       <c r="C64" s="15"/>
-    </row>
-    <row r="65" spans="1:6" ht="63.75">
+      <c r="D64" s="15"/>
+    </row>
+    <row r="65" spans="1:7" ht="63.75">
       <c r="A65" t="s">
         <v>703</v>
       </c>
@@ -47153,11 +47219,12 @@
       <c r="C65" s="15" t="s">
         <v>4093</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="15"/>
+      <c r="E65" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>704</v>
       </c>
@@ -47167,15 +47234,16 @@
       <c r="C66" s="15" t="s">
         <v>4094</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="15"/>
+      <c r="E66" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="F66" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F66" s="13"/>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="13"/>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>705</v>
       </c>
@@ -47185,11 +47253,12 @@
       <c r="C67" s="15" t="s">
         <v>4095</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="15"/>
+      <c r="E67" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>706</v>
       </c>
@@ -47199,11 +47268,12 @@
       <c r="C68" s="15" t="s">
         <v>4096</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="15"/>
+      <c r="E68" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>707</v>
       </c>
@@ -47213,15 +47283,16 @@
       <c r="C69" s="15" t="s">
         <v>4097</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="15"/>
+      <c r="E69" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="F69" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="13"/>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>14.2</v>
       </c>
@@ -47231,15 +47302,16 @@
       <c r="C70" s="15" t="s">
         <v>4098</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="15"/>
+      <c r="E70" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="F70" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F70" s="13"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="13"/>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>710</v>
       </c>
@@ -47249,15 +47321,16 @@
       <c r="C71" s="15" t="s">
         <v>4099</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="15"/>
+      <c r="E71" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E71" s="13" t="s">
+      <c r="F71" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F71" s="13"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="13"/>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>711</v>
       </c>
@@ -47267,15 +47340,16 @@
       <c r="C72" s="15" t="s">
         <v>4100</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="15"/>
+      <c r="E72" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="F72" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F72" s="13"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="13"/>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>712</v>
       </c>
@@ -47285,15 +47359,16 @@
       <c r="C73" s="15" t="s">
         <v>4101</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="15"/>
+      <c r="E73" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="F73" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F73" s="13"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="13"/>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>713</v>
       </c>
@@ -47303,15 +47378,16 @@
       <c r="C74" s="15" t="s">
         <v>4102</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="15"/>
+      <c r="E74" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="F74" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F74" s="13"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="13"/>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>714</v>
       </c>
@@ -47321,15 +47397,16 @@
       <c r="C75" s="15" t="s">
         <v>4103</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="15"/>
+      <c r="E75" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="F75" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F75" s="13"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="13"/>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>715</v>
       </c>
@@ -47339,15 +47416,16 @@
       <c r="C76" s="15" t="s">
         <v>4104</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="15"/>
+      <c r="E76" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="F76" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F76" s="13"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="13"/>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>716</v>
       </c>
@@ -47357,15 +47435,16 @@
       <c r="C77" s="15" t="s">
         <v>4105</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="15"/>
+      <c r="E77" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="F77" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F77" s="13"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="13"/>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>4106</v>
       </c>
@@ -47375,15 +47454,16 @@
       <c r="C78" s="15" t="s">
         <v>4107</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="15"/>
+      <c r="E78" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="F78" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="13"/>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>14.3</v>
       </c>
@@ -47393,12 +47473,13 @@
       <c r="C79" s="15" t="s">
         <v>4108</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="15"/>
+      <c r="E79" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F79" s="13"/>
-    </row>
-    <row r="80" spans="1:6" ht="25.5">
+      <c r="G79" s="13"/>
+    </row>
+    <row r="80" spans="1:7" ht="25.5">
       <c r="A80" t="s">
         <v>718</v>
       </c>
@@ -47408,11 +47489,12 @@
       <c r="C80" s="15" t="s">
         <v>4109</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="15"/>
+      <c r="E80" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30.6" customHeight="1">
+    <row r="81" spans="1:8" ht="30.6" customHeight="1">
       <c r="A81" t="s">
         <v>719</v>
       </c>
@@ -47422,15 +47504,16 @@
       <c r="C81" s="15" t="s">
         <v>4110</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="15"/>
+      <c r="E81" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="F81" s="13" t="s">
         <v>5278</v>
       </c>
-      <c r="F81" s="13"/>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="G81" s="13"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>16</v>
       </c>
@@ -47438,8 +47521,9 @@
         <v>4111</v>
       </c>
       <c r="C82" s="15"/>
-    </row>
-    <row r="83" spans="1:7" ht="38.25">
+      <c r="D82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" ht="38.25">
       <c r="A83">
         <v>16.100000000000001</v>
       </c>
@@ -47449,11 +47533,12 @@
       <c r="C83" s="15" t="s">
         <v>4112</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="15"/>
+      <c r="E83" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" customHeight="1">
+    <row r="84" spans="1:8" ht="30" customHeight="1">
       <c r="A84">
         <v>16.2</v>
       </c>
@@ -47463,15 +47548,16 @@
       <c r="C84" s="15" t="s">
         <v>4113</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="15"/>
+      <c r="E84" s="13" t="s">
         <v>5274</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="F84" s="13" t="s">
         <v>5279</v>
       </c>
-      <c r="F84" s="13"/>
-    </row>
-    <row r="85" spans="1:7" ht="38.25">
+      <c r="G84" s="13"/>
+    </row>
+    <row r="85" spans="1:8" ht="38.25">
       <c r="A85" t="s">
         <v>4114</v>
       </c>
@@ -47481,15 +47567,16 @@
       <c r="C85" s="15" t="s">
         <v>4115</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="15"/>
+      <c r="E85" s="13" t="s">
         <v>5274</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="F85" s="13" t="s">
         <v>5280</v>
       </c>
-      <c r="F85" s="13"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="G85" s="13"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>4116</v>
       </c>
@@ -47499,15 +47586,16 @@
       <c r="C86" s="15" t="s">
         <v>4117</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="15"/>
+      <c r="E86" s="13" t="s">
         <v>5274</v>
       </c>
-      <c r="E86" s="13" t="s">
+      <c r="F86" s="13" t="s">
         <v>5280</v>
       </c>
-      <c r="F86" s="13"/>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="G86" s="13"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>4118</v>
       </c>
@@ -47517,15 +47605,16 @@
       <c r="C87" s="15" t="s">
         <v>4119</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="15"/>
+      <c r="E87" s="13" t="s">
         <v>5274</v>
       </c>
-      <c r="E87" s="13" t="s">
+      <c r="F87" s="13" t="s">
         <v>5280</v>
       </c>
-      <c r="F87" s="13"/>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>4120</v>
       </c>
@@ -47535,15 +47624,16 @@
       <c r="C88" s="15" t="s">
         <v>4121</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="15"/>
+      <c r="E88" s="13" t="s">
         <v>5274</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="F88" s="13" t="s">
         <v>5280</v>
       </c>
-      <c r="F88" s="13"/>
-    </row>
-    <row r="89" spans="1:7" ht="25.5">
+      <c r="G88" s="13"/>
+    </row>
+    <row r="89" spans="1:8" ht="25.5">
       <c r="A89" t="s">
         <v>4122</v>
       </c>
@@ -47553,8 +47643,9 @@
       <c r="C89" s="15" t="s">
         <v>4123</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="D89" s="15"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>4124</v>
       </c>
@@ -47564,8 +47655,9 @@
       <c r="C90" s="15" t="s">
         <v>4125</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="38.25">
+      <c r="D90" s="15"/>
+    </row>
+    <row r="91" spans="1:8" ht="38.25">
       <c r="A91">
         <v>16.5</v>
       </c>
@@ -47575,16 +47667,17 @@
       <c r="C91" s="15" t="s">
         <v>4126</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="15"/>
+      <c r="E91" s="13" t="s">
         <v>5281</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="F91" s="13" t="s">
         <v>5282</v>
       </c>
-      <c r="F91" s="13"/>
       <c r="G91" s="13"/>
-    </row>
-    <row r="92" spans="1:7" ht="29.45" customHeight="1">
+      <c r="H91" s="13"/>
+    </row>
+    <row r="92" spans="1:8" ht="29.45" customHeight="1">
       <c r="A92">
         <v>16.600000000000001</v>
       </c>
@@ -47594,15 +47687,16 @@
       <c r="C92" s="15" t="s">
         <v>4127</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="15"/>
+      <c r="E92" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E92" s="13" t="s">
+      <c r="F92" s="13" t="s">
         <v>5282</v>
       </c>
-      <c r="F92" s="13"/>
-    </row>
-    <row r="93" spans="1:7" ht="30.6" customHeight="1">
+      <c r="G92" s="13"/>
+    </row>
+    <row r="93" spans="1:8" ht="30.6" customHeight="1">
       <c r="A93">
         <v>16.7</v>
       </c>
@@ -47612,15 +47706,16 @@
       <c r="C93" s="15" t="s">
         <v>4128</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="15"/>
+      <c r="E93" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E93" s="13" t="s">
+      <c r="F93" s="13" t="s">
         <v>5283</v>
       </c>
-      <c r="F93" s="13"/>
-    </row>
-    <row r="94" spans="1:7" ht="30.6" customHeight="1">
+      <c r="G93" s="13"/>
+    </row>
+    <row r="94" spans="1:8" ht="30.6" customHeight="1">
       <c r="A94">
         <v>17</v>
       </c>
@@ -47628,8 +47723,9 @@
         <v>4129</v>
       </c>
       <c r="C94" s="15"/>
-    </row>
-    <row r="95" spans="1:7" ht="27.6" customHeight="1">
+      <c r="D94" s="15"/>
+    </row>
+    <row r="95" spans="1:8" ht="27.6" customHeight="1">
       <c r="A95" t="s">
         <v>747</v>
       </c>
@@ -47639,11 +47735,12 @@
       <c r="C95" s="15" t="s">
         <v>4130</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="15"/>
+      <c r="E95" s="13" t="s">
         <v>4131</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="25.5">
+    <row r="96" spans="1:8" ht="25.5">
       <c r="A96" t="s">
         <v>748</v>
       </c>
@@ -47653,11 +47750,12 @@
       <c r="C96" s="15" t="s">
         <v>4132</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="15"/>
+      <c r="E96" s="13" t="s">
         <v>4131</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="38.1" customHeight="1">
+    <row r="97" spans="1:8" ht="38.1" customHeight="1">
       <c r="A97" t="s">
         <v>749</v>
       </c>
@@ -47667,15 +47765,16 @@
       <c r="C97" s="15" t="s">
         <v>4133</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="15"/>
+      <c r="E97" s="13" t="s">
         <v>5284</v>
       </c>
-      <c r="E97" s="13" t="s">
+      <c r="F97" s="13" t="s">
         <v>5285</v>
       </c>
-      <c r="F97" s="13"/>
-    </row>
-    <row r="98" spans="1:7" ht="25.5">
+      <c r="G97" s="13"/>
+    </row>
+    <row r="98" spans="1:8" ht="25.5">
       <c r="A98">
         <v>17.2</v>
       </c>
@@ -47685,11 +47784,12 @@
       <c r="C98" s="15" t="s">
         <v>4134</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="15"/>
+      <c r="E98" s="13" t="s">
         <v>4131</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="38.25">
+    <row r="99" spans="1:8" ht="38.25">
       <c r="A99">
         <v>17.3</v>
       </c>
@@ -47699,11 +47799,12 @@
       <c r="C99" s="15" t="s">
         <v>4135</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="15"/>
+      <c r="E99" s="13" t="s">
         <v>4136</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>18</v>
       </c>
@@ -47711,8 +47812,9 @@
         <v>4137</v>
       </c>
       <c r="C100" s="15"/>
-    </row>
-    <row r="101" spans="1:7" ht="42" customHeight="1">
+      <c r="D100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" ht="42" customHeight="1">
       <c r="A101" t="s">
         <v>765</v>
       </c>
@@ -47722,11 +47824,12 @@
       <c r="C101" s="15" t="s">
         <v>4138</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="D101" s="15"/>
+      <c r="E101" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
         <v>766</v>
       </c>
@@ -47736,11 +47839,12 @@
       <c r="C102" s="15" t="s">
         <v>4139</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="15"/>
+      <c r="E102" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
         <v>767</v>
       </c>
@@ -47750,11 +47854,12 @@
       <c r="C103" s="15" t="s">
         <v>4140</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="15"/>
+      <c r="E103" s="13" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
         <v>768</v>
       </c>
@@ -47764,11 +47869,12 @@
       <c r="C104" s="15" t="s">
         <v>4141</v>
       </c>
-      <c r="D104" s="13" t="s">
+      <c r="D104" s="15"/>
+      <c r="E104" s="13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="53.1" customHeight="1">
+    <row r="105" spans="1:8" ht="53.1" customHeight="1">
       <c r="A105">
         <v>18.2</v>
       </c>
@@ -47778,15 +47884,16 @@
       <c r="C105" s="15" t="s">
         <v>4142</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="15"/>
+      <c r="E105" s="13" t="s">
         <v>5286</v>
       </c>
-      <c r="E105" s="13" t="s">
+      <c r="F105" s="13" t="s">
         <v>5287</v>
       </c>
-      <c r="F105" s="13"/>
-    </row>
-    <row r="106" spans="1:7" ht="52.5" customHeight="1">
+      <c r="G105" s="13"/>
+    </row>
+    <row r="106" spans="1:8" ht="52.5" customHeight="1">
       <c r="A106">
         <v>18.2</v>
       </c>
@@ -47796,15 +47903,16 @@
       <c r="C106" s="15" t="s">
         <v>4143</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="15"/>
+      <c r="E106" s="13" t="s">
         <v>5288</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="F106" s="13" t="s">
         <v>5289</v>
       </c>
-      <c r="F106" s="13"/>
-    </row>
-    <row r="107" spans="1:7" ht="57.95" customHeight="1">
+      <c r="G106" s="13"/>
+    </row>
+    <row r="107" spans="1:8" ht="57.95" customHeight="1">
       <c r="A107">
         <v>18.399999999999999</v>
       </c>
@@ -47814,11 +47922,12 @@
       <c r="C107" s="15" t="s">
         <v>4144</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="15"/>
+      <c r="E107" s="13" t="s">
         <v>4145</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="57.95" customHeight="1">
+    <row r="108" spans="1:8" ht="57.95" customHeight="1">
       <c r="A108">
         <v>19</v>
       </c>
@@ -47826,8 +47935,9 @@
         <v>4146</v>
       </c>
       <c r="C108" s="15"/>
-    </row>
-    <row r="109" spans="1:7" ht="42" customHeight="1">
+      <c r="D108" s="15"/>
+    </row>
+    <row r="109" spans="1:8" ht="42" customHeight="1">
       <c r="A109" t="s">
         <v>4147</v>
       </c>
@@ -47837,11 +47947,12 @@
       <c r="C109" s="15" t="s">
         <v>4148</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="D109" s="15"/>
+      <c r="E109" s="13" t="s">
         <v>4149</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
         <v>4150</v>
       </c>
@@ -47851,16 +47962,17 @@
       <c r="C110" s="15" t="s">
         <v>4151</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="15"/>
+      <c r="E110" s="13" t="s">
         <v>4149</v>
       </c>
-      <c r="E110" s="13" t="s">
+      <c r="F110" s="13" t="s">
         <v>5290</v>
       </c>
-      <c r="F110" s="13"/>
       <c r="G110" s="13"/>
-    </row>
-    <row r="111" spans="1:7" ht="25.5">
+      <c r="H110" s="13"/>
+    </row>
+    <row r="111" spans="1:8" ht="25.5">
       <c r="A111" t="s">
         <v>4152</v>
       </c>
@@ -47870,16 +47982,17 @@
       <c r="C111" s="15" t="s">
         <v>4153</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="15"/>
+      <c r="E111" s="13" t="s">
         <v>4149</v>
       </c>
-      <c r="E111" s="13" t="s">
+      <c r="F111" s="13" t="s">
         <v>5290</v>
       </c>
-      <c r="F111" s="13"/>
       <c r="G111" s="13"/>
-    </row>
-    <row r="112" spans="1:7" ht="25.5">
+      <c r="H111" s="13"/>
+    </row>
+    <row r="112" spans="1:8" ht="25.5">
       <c r="A112" t="s">
         <v>4154</v>
       </c>
@@ -47889,11 +48002,12 @@
       <c r="C112" s="15" t="s">
         <v>4155</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D112" s="15"/>
+      <c r="E112" s="13" t="s">
         <v>4149</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="25.5">
+    <row r="113" spans="1:7" ht="25.5">
       <c r="A113" t="s">
         <v>4156</v>
       </c>
@@ -47903,11 +48017,12 @@
       <c r="C113" s="15" t="s">
         <v>4157</v>
       </c>
-      <c r="D113" s="13" t="s">
+      <c r="D113" s="15"/>
+      <c r="E113" s="13" t="s">
         <v>4149</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="25.5">
+    <row r="114" spans="1:7" ht="25.5">
       <c r="A114" t="s">
         <v>4158</v>
       </c>
@@ -47917,11 +48032,12 @@
       <c r="C114" s="15" t="s">
         <v>4159</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="D114" s="15"/>
+      <c r="E114" s="13" t="s">
         <v>4149</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>20</v>
       </c>
@@ -47929,8 +48045,9 @@
         <v>4160</v>
       </c>
       <c r="C115" s="15"/>
-    </row>
-    <row r="116" spans="1:6" ht="47.1" customHeight="1">
+      <c r="D115" s="15"/>
+    </row>
+    <row r="116" spans="1:7" ht="47.1" customHeight="1">
       <c r="A116" t="s">
         <v>4161</v>
       </c>
@@ -47940,15 +48057,16 @@
       <c r="C116" s="15" t="s">
         <v>4162</v>
       </c>
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="15"/>
+      <c r="E116" s="13" t="s">
         <v>5291</v>
       </c>
-      <c r="E116" s="13" t="s">
+      <c r="F116" s="13" t="s">
         <v>5292</v>
       </c>
-      <c r="F116" s="13"/>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>4163</v>
       </c>
@@ -47958,15 +48076,16 @@
       <c r="C117" s="15" t="s">
         <v>4164</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="D117" s="15"/>
+      <c r="E117" s="13" t="s">
         <v>5293</v>
       </c>
-      <c r="E117" s="13" t="s">
+      <c r="F117" s="13" t="s">
         <v>5294</v>
       </c>
-      <c r="F117" s="13"/>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" s="13"/>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>4165</v>
       </c>
@@ -47976,11 +48095,12 @@
       <c r="C118" s="15" t="s">
         <v>4166</v>
       </c>
-      <c r="D118" s="13" t="s">
+      <c r="D118" s="15"/>
+      <c r="E118" s="13" t="s">
         <v>4167</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="47.1" customHeight="1">
+    <row r="119" spans="1:7" ht="47.1" customHeight="1">
       <c r="A119" t="s">
         <v>4168</v>
       </c>
@@ -47990,11 +48110,12 @@
       <c r="C119" s="15" t="s">
         <v>4169</v>
       </c>
-      <c r="D119" s="13" t="s">
+      <c r="D119" s="15"/>
+      <c r="E119" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="38.25">
+    <row r="120" spans="1:7" ht="38.25">
       <c r="A120" t="s">
         <v>4170</v>
       </c>
@@ -48004,11 +48125,12 @@
       <c r="C120" s="15" t="s">
         <v>4171</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="D120" s="15"/>
+      <c r="E120" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>21</v>
       </c>
@@ -48016,8 +48138,9 @@
         <v>4172</v>
       </c>
       <c r="C121" s="15"/>
-    </row>
-    <row r="122" spans="1:6" ht="50.45" customHeight="1">
+      <c r="D121" s="15"/>
+    </row>
+    <row r="122" spans="1:7" ht="50.45" customHeight="1">
       <c r="A122">
         <v>21.1</v>
       </c>
@@ -48027,14 +48150,15 @@
       <c r="C122" s="15" t="s">
         <v>4173</v>
       </c>
-      <c r="D122" s="13" t="s">
+      <c r="D122" s="15"/>
+      <c r="E122" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E122" s="13" t="s">
+      <c r="F122" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="51">
+    <row r="123" spans="1:7" ht="51">
       <c r="A123">
         <v>21.2</v>
       </c>
@@ -48044,14 +48168,15 @@
       <c r="C123" s="15" t="s">
         <v>4174</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="D123" s="15"/>
+      <c r="E123" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E123" s="13" t="s">
+      <c r="F123" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="32.450000000000003" customHeight="1">
+    <row r="124" spans="1:7" ht="32.450000000000003" customHeight="1">
       <c r="A124">
         <v>21.3</v>
       </c>
@@ -48061,14 +48186,15 @@
       <c r="C124" s="15" t="s">
         <v>4175</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="D124" s="15"/>
+      <c r="E124" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E124" s="13" t="s">
+      <c r="F124" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="45">
+    <row r="125" spans="1:7" ht="45">
       <c r="A125">
         <v>21.4</v>
       </c>
@@ -48078,15 +48204,16 @@
       <c r="C125" s="15" t="s">
         <v>4176</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="D125" s="15"/>
+      <c r="E125" s="13" t="s">
         <v>5295</v>
       </c>
-      <c r="E125" s="13" t="s">
+      <c r="F125" s="13" t="s">
         <v>5296</v>
       </c>
-      <c r="F125" s="13"/>
-    </row>
-    <row r="126" spans="1:6" ht="30">
+      <c r="G125" s="13"/>
+    </row>
+    <row r="126" spans="1:7" ht="30">
       <c r="A126">
         <v>21.5</v>
       </c>
@@ -48096,15 +48223,16 @@
       <c r="C126" s="15" t="s">
         <v>4177</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="D126" s="15"/>
+      <c r="E126" s="13" t="s">
         <v>5297</v>
       </c>
-      <c r="E126" s="13" t="s">
+      <c r="F126" s="13" t="s">
         <v>5298</v>
       </c>
-      <c r="F126" s="13"/>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" s="13"/>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>22</v>
       </c>
@@ -48112,8 +48240,9 @@
         <v>4178</v>
       </c>
       <c r="C127" s="15"/>
-    </row>
-    <row r="128" spans="1:6" ht="42.95" customHeight="1">
+      <c r="D127" s="15"/>
+    </row>
+    <row r="128" spans="1:7" ht="42.95" customHeight="1">
       <c r="A128" t="s">
         <v>4179</v>
       </c>
@@ -48123,15 +48252,16 @@
       <c r="C128" s="15" t="s">
         <v>4180</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="D128" s="15"/>
+      <c r="E128" s="13" t="s">
         <v>5299</v>
       </c>
-      <c r="E128" s="13" t="s">
+      <c r="F128" s="13" t="s">
         <v>5300</v>
       </c>
-      <c r="F128" s="13"/>
-    </row>
-    <row r="129" spans="1:7" ht="45">
+      <c r="G128" s="13"/>
+    </row>
+    <row r="129" spans="1:8" ht="45">
       <c r="A129" t="s">
         <v>4181</v>
       </c>
@@ -48141,16 +48271,17 @@
       <c r="C129" s="15" t="s">
         <v>4182</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="D129" s="15"/>
+      <c r="E129" s="13" t="s">
         <v>5301</v>
       </c>
-      <c r="E129" s="13" t="s">
+      <c r="F129" s="13" t="s">
         <v>5302</v>
       </c>
-      <c r="F129" s="13"/>
       <c r="G129" s="13"/>
-    </row>
-    <row r="130" spans="1:7" ht="60">
+      <c r="H129" s="13"/>
+    </row>
+    <row r="130" spans="1:8" ht="60">
       <c r="A130" t="s">
         <v>4183</v>
       </c>
@@ -48160,15 +48291,16 @@
       <c r="C130" s="15" t="s">
         <v>4184</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="D130" s="15"/>
+      <c r="E130" s="13" t="s">
         <v>5303</v>
       </c>
-      <c r="E130" s="13" t="s">
+      <c r="F130" s="13" t="s">
         <v>5304</v>
       </c>
-      <c r="F130" s="13"/>
-    </row>
-    <row r="131" spans="1:7" ht="60">
+      <c r="G130" s="13"/>
+    </row>
+    <row r="131" spans="1:8" ht="60">
       <c r="A131" t="s">
         <v>4185</v>
       </c>
@@ -48178,15 +48310,16 @@
       <c r="C131" s="15" t="s">
         <v>4186</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="D131" s="15"/>
+      <c r="E131" s="13" t="s">
         <v>5305</v>
       </c>
-      <c r="E131" s="13" t="s">
+      <c r="F131" s="13" t="s">
         <v>5306</v>
       </c>
-      <c r="F131" s="13"/>
-    </row>
-    <row r="132" spans="1:7">
+      <c r="G131" s="13"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>4187</v>
       </c>
@@ -48196,15 +48329,16 @@
       <c r="C132" s="15" t="s">
         <v>4188</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="D132" s="15"/>
+      <c r="E132" s="13" t="s">
         <v>5307</v>
       </c>
-      <c r="E132" s="13" t="s">
+      <c r="F132" s="13" t="s">
         <v>5308</v>
       </c>
-      <c r="F132" s="13"/>
-    </row>
-    <row r="133" spans="1:7" ht="30">
+      <c r="G132" s="13"/>
+    </row>
+    <row r="133" spans="1:8" ht="30">
       <c r="A133" t="s">
         <v>4189</v>
       </c>
@@ -48214,15 +48348,16 @@
       <c r="C133" s="15" t="s">
         <v>4190</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="D133" s="15"/>
+      <c r="E133" s="13" t="s">
         <v>5309</v>
       </c>
-      <c r="E133" s="13" t="s">
+      <c r="F133" s="13" t="s">
         <v>5308</v>
       </c>
-      <c r="F133" s="13"/>
-    </row>
-    <row r="134" spans="1:7">
+      <c r="G133" s="13"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>4191</v>
       </c>
@@ -48232,15 +48367,16 @@
       <c r="C134" s="15" t="s">
         <v>4192</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="D134" s="15"/>
+      <c r="E134" s="13" t="s">
         <v>5307</v>
       </c>
-      <c r="E134" s="13" t="s">
+      <c r="F134" s="13" t="s">
         <v>5308</v>
       </c>
-      <c r="F134" s="13"/>
-    </row>
-    <row r="135" spans="1:7" ht="33.6" customHeight="1">
+      <c r="G134" s="13"/>
+    </row>
+    <row r="135" spans="1:8" ht="33.6" customHeight="1">
       <c r="A135">
         <v>22.2</v>
       </c>
@@ -48250,15 +48386,16 @@
       <c r="C135" s="15" t="s">
         <v>4193</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="D135" s="15"/>
+      <c r="E135" s="13" t="s">
         <v>5310</v>
       </c>
-      <c r="E135" s="13" t="s">
+      <c r="F135" s="13" t="s">
         <v>5311</v>
       </c>
-      <c r="F135" s="13"/>
-    </row>
-    <row r="136" spans="1:7" ht="25.5">
+      <c r="G135" s="13"/>
+    </row>
+    <row r="136" spans="1:8" ht="25.5">
       <c r="A136">
         <v>22.4</v>
       </c>
@@ -48268,15 +48405,16 @@
       <c r="C136" s="15" t="s">
         <v>4194</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="D136" s="15"/>
+      <c r="E136" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="E136" s="13" t="s">
+      <c r="F136" s="13" t="s">
         <v>5312</v>
       </c>
-      <c r="F136" s="13"/>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="G136" s="13"/>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>23</v>
       </c>
@@ -48284,8 +48422,9 @@
         <v>4195</v>
       </c>
       <c r="C137" s="15"/>
-    </row>
-    <row r="138" spans="1:7" ht="48" customHeight="1">
+      <c r="D137" s="15"/>
+    </row>
+    <row r="138" spans="1:8" ht="48" customHeight="1">
       <c r="A138" t="s">
         <v>4196</v>
       </c>
@@ -48295,14 +48434,15 @@
       <c r="C138" s="15" t="s">
         <v>4197</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="D138" s="15"/>
+      <c r="E138" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E138" s="13" t="s">
+      <c r="F138" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
         <v>4198</v>
       </c>
@@ -48312,14 +48452,15 @@
       <c r="C139" s="15" t="s">
         <v>4199</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="D139" s="15"/>
+      <c r="E139" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E139" s="13" t="s">
+      <c r="F139" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="26.45" customHeight="1">
+    <row r="140" spans="1:8" ht="26.45" customHeight="1">
       <c r="A140" t="s">
         <v>4200</v>
       </c>
@@ -48329,14 +48470,15 @@
       <c r="C140" s="15" t="s">
         <v>4201</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="D140" s="15"/>
+      <c r="E140" s="13" t="s">
         <v>4202</v>
       </c>
-      <c r="E140" s="13" t="s">
+      <c r="F140" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="25.5">
+    <row r="141" spans="1:8" ht="25.5">
       <c r="A141" t="s">
         <v>4203</v>
       </c>
@@ -48346,14 +48488,15 @@
       <c r="C141" s="15" t="s">
         <v>4204</v>
       </c>
-      <c r="D141" s="13" t="s">
+      <c r="D141" s="15"/>
+      <c r="E141" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E141" s="13" t="s">
+      <c r="F141" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
         <v>4205</v>
       </c>
@@ -48363,14 +48506,15 @@
       <c r="C142" s="15" t="s">
         <v>4206</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D142" s="15"/>
+      <c r="E142" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E142" s="13" t="s">
+      <c r="F142" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="25.5">
+    <row r="143" spans="1:8" ht="25.5">
       <c r="A143" t="s">
         <v>4207</v>
       </c>
@@ -48380,15 +48524,16 @@
       <c r="C143" s="15" t="s">
         <v>4208</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="D143" s="15"/>
+      <c r="E143" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E143" s="13" t="s">
+      <c r="F143" s="13" t="s">
         <v>5313</v>
       </c>
-      <c r="F143" s="13"/>
-    </row>
-    <row r="144" spans="1:7" ht="25.5">
+      <c r="G143" s="13"/>
+    </row>
+    <row r="144" spans="1:8" ht="25.5">
       <c r="A144" t="s">
         <v>4209</v>
       </c>
@@ -48398,14 +48543,15 @@
       <c r="C144" s="15" t="s">
         <v>4210</v>
       </c>
-      <c r="D144" s="13" t="s">
+      <c r="D144" s="15"/>
+      <c r="E144" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E144" s="13" t="s">
+      <c r="F144" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>4211</v>
       </c>
@@ -48415,14 +48561,15 @@
       <c r="C145" s="15" t="s">
         <v>4212</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="D145" s="15"/>
+      <c r="E145" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E145" s="13" t="s">
+      <c r="F145" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="27.6" customHeight="1">
+    <row r="146" spans="1:8" ht="27.6" customHeight="1">
       <c r="A146">
         <v>23.2</v>
       </c>
@@ -48432,14 +48579,15 @@
       <c r="C146" s="15" t="s">
         <v>4213</v>
       </c>
-      <c r="D146" s="13" t="s">
+      <c r="D146" s="15"/>
+      <c r="E146" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="E146" s="13" t="s">
+      <c r="F146" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>23.3</v>
       </c>
@@ -48449,14 +48597,15 @@
       <c r="C147" s="15" t="s">
         <v>4214</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="D147" s="15"/>
+      <c r="E147" s="13" t="s">
         <v>4215</v>
       </c>
-      <c r="E147" s="13" t="s">
+      <c r="F147" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="25.5">
+    <row r="148" spans="1:8" ht="25.5">
       <c r="A148">
         <v>23.4</v>
       </c>
@@ -48466,14 +48615,15 @@
       <c r="C148" s="15" t="s">
         <v>4216</v>
       </c>
-      <c r="D148" s="13" t="s">
+      <c r="D148" s="15"/>
+      <c r="E148" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E148" s="13" t="s">
+      <c r="F148" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="25.5">
+    <row r="149" spans="1:8" ht="25.5">
       <c r="A149">
         <v>23.5</v>
       </c>
@@ -48483,16 +48633,17 @@
       <c r="C149" s="15" t="s">
         <v>4217</v>
       </c>
-      <c r="D149" s="13" t="s">
+      <c r="D149" s="15"/>
+      <c r="E149" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E149" s="13" t="s">
+      <c r="F149" s="13" t="s">
         <v>5314</v>
       </c>
-      <c r="F149" s="13"/>
       <c r="G149" s="13"/>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="H149" s="13"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>24</v>
       </c>
@@ -48500,8 +48651,9 @@
         <v>4218</v>
       </c>
       <c r="C150" s="15"/>
-    </row>
-    <row r="151" spans="1:7" ht="60" customHeight="1">
+      <c r="D150" s="15"/>
+    </row>
+    <row r="151" spans="1:8" ht="60" customHeight="1">
       <c r="A151" t="s">
         <v>4219</v>
       </c>
@@ -48511,14 +48663,15 @@
       <c r="C151" s="15" t="s">
         <v>4220</v>
       </c>
-      <c r="D151" s="13" t="s">
+      <c r="D151" s="15"/>
+      <c r="E151" s="13" t="s">
         <v>4221</v>
       </c>
-      <c r="E151" s="13" t="s">
+      <c r="F151" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="30">
+    <row r="152" spans="1:8" ht="30">
       <c r="A152" t="s">
         <v>4222</v>
       </c>
@@ -48528,15 +48681,16 @@
       <c r="C152" s="15" t="s">
         <v>4223</v>
       </c>
-      <c r="D152" s="13" t="s">
+      <c r="D152" s="15"/>
+      <c r="E152" s="13" t="s">
         <v>5315</v>
       </c>
-      <c r="E152" s="13" t="s">
+      <c r="F152" s="13" t="s">
         <v>5316</v>
       </c>
-      <c r="F152" s="13"/>
-    </row>
-    <row r="153" spans="1:7" ht="30">
+      <c r="G152" s="13"/>
+    </row>
+    <row r="153" spans="1:8" ht="30">
       <c r="A153" t="s">
         <v>4224</v>
       </c>
@@ -48546,16 +48700,17 @@
       <c r="C153" s="15" t="s">
         <v>4225</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D153" s="15"/>
+      <c r="E153" s="13" t="s">
         <v>5317</v>
       </c>
-      <c r="E153" s="13" t="s">
+      <c r="F153" s="13" t="s">
         <v>5318</v>
       </c>
-      <c r="F153" s="13"/>
       <c r="G153" s="13"/>
-    </row>
-    <row r="154" spans="1:7" ht="30">
+      <c r="H153" s="13"/>
+    </row>
+    <row r="154" spans="1:8" ht="30">
       <c r="A154">
         <v>24.2</v>
       </c>
@@ -48565,14 +48720,15 @@
       <c r="C154" s="15" t="s">
         <v>4226</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D154" s="15"/>
+      <c r="E154" s="13" t="s">
         <v>4227</v>
       </c>
-      <c r="E154" s="13" t="s">
+      <c r="F154" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="45">
+    <row r="155" spans="1:8" ht="45">
       <c r="A155">
         <v>25</v>
       </c>
@@ -48580,8 +48736,9 @@
         <v>4228</v>
       </c>
       <c r="C155" s="15"/>
-    </row>
-    <row r="156" spans="1:7" ht="30.95" customHeight="1">
+      <c r="D155" s="15"/>
+    </row>
+    <row r="156" spans="1:8" ht="30.95" customHeight="1">
       <c r="A156">
         <v>25.1</v>
       </c>
@@ -48591,14 +48748,15 @@
       <c r="C156" s="15" t="s">
         <v>4229</v>
       </c>
-      <c r="D156" s="13" t="s">
+      <c r="D156" s="15"/>
+      <c r="E156" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="E156" s="13" t="s">
+      <c r="F156" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="25.5">
+    <row r="157" spans="1:8" ht="25.5">
       <c r="A157" t="s">
         <v>4230</v>
       </c>
@@ -48608,14 +48766,15 @@
       <c r="C157" s="15" t="s">
         <v>4231</v>
       </c>
-      <c r="D157" s="13" t="s">
+      <c r="D157" s="15"/>
+      <c r="E157" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="E157" s="13" t="s">
+      <c r="F157" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>4232</v>
       </c>
@@ -48625,14 +48784,15 @@
       <c r="C158" s="15" t="s">
         <v>4233</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="D158" s="15"/>
+      <c r="E158" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="E158" s="13" t="s">
+      <c r="F158" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>4234</v>
       </c>
@@ -48642,14 +48802,15 @@
       <c r="C159" s="15" t="s">
         <v>4235</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="D159" s="15"/>
+      <c r="E159" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="E159" s="13" t="s">
+      <c r="F159" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>4236</v>
       </c>
@@ -48659,14 +48820,15 @@
       <c r="C160" s="15" t="s">
         <v>4237</v>
       </c>
-      <c r="D160" s="13" t="s">
+      <c r="D160" s="15"/>
+      <c r="E160" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="E160" s="13" t="s">
+      <c r="F160" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="38.25">
+    <row r="161" spans="1:7" ht="38.25">
       <c r="A161">
         <v>25.3</v>
       </c>
@@ -48676,14 +48838,15 @@
       <c r="C161" s="15" t="s">
         <v>4238</v>
       </c>
-      <c r="D161" s="13" t="s">
+      <c r="D161" s="15"/>
+      <c r="E161" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="E161" s="13" t="s">
+      <c r="F161" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="25.5">
+    <row r="162" spans="1:7" ht="25.5">
       <c r="A162">
         <v>25.4</v>
       </c>
@@ -48693,14 +48856,15 @@
       <c r="C162" s="15" t="s">
         <v>4239</v>
       </c>
-      <c r="D162" s="13" t="s">
+      <c r="D162" s="15"/>
+      <c r="E162" s="13" t="s">
         <v>886</v>
       </c>
-      <c r="E162" s="13" t="s">
+      <c r="F162" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="45">
+    <row r="163" spans="1:7" ht="45">
       <c r="A163">
         <v>27</v>
       </c>
@@ -48708,8 +48872,9 @@
         <v>4240</v>
       </c>
       <c r="C163" s="15"/>
-    </row>
-    <row r="164" spans="1:6" ht="57.6" customHeight="1">
+      <c r="D163" s="15"/>
+    </row>
+    <row r="164" spans="1:7" ht="57.6" customHeight="1">
       <c r="A164">
         <v>27.1</v>
       </c>
@@ -48719,15 +48884,16 @@
       <c r="C164" s="15" t="s">
         <v>4241</v>
       </c>
-      <c r="D164" s="13" t="s">
+      <c r="D164" s="15"/>
+      <c r="E164" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E164" s="13" t="s">
+      <c r="F164" s="13" t="s">
         <v>5319</v>
       </c>
-      <c r="F164" s="13"/>
-    </row>
-    <row r="165" spans="1:6" ht="44.45" customHeight="1">
+      <c r="G164" s="13"/>
+    </row>
+    <row r="165" spans="1:7" ht="44.45" customHeight="1">
       <c r="A165">
         <v>27.2</v>
       </c>
@@ -48737,11 +48903,12 @@
       <c r="C165" s="15" t="s">
         <v>4242</v>
       </c>
-      <c r="D165" s="13" t="s">
+      <c r="D165" s="15"/>
+      <c r="E165" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="38.25">
+    <row r="166" spans="1:7" ht="38.25">
       <c r="A166" t="s">
         <v>4243</v>
       </c>
@@ -48751,11 +48918,12 @@
       <c r="C166" s="15" t="s">
         <v>4244</v>
       </c>
-      <c r="D166" s="13" t="s">
+      <c r="D166" s="15"/>
+      <c r="E166" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="25.5">
+    <row r="167" spans="1:7" ht="25.5">
       <c r="A167" t="s">
         <v>4245</v>
       </c>
@@ -48765,11 +48933,12 @@
       <c r="C167" s="15" t="s">
         <v>4246</v>
       </c>
-      <c r="D167" s="13" t="s">
+      <c r="D167" s="15"/>
+      <c r="E167" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>4247</v>
       </c>
@@ -48779,11 +48948,12 @@
       <c r="C168" s="15" t="s">
         <v>4248</v>
       </c>
-      <c r="D168" s="13" t="s">
+      <c r="D168" s="15"/>
+      <c r="E168" s="13" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="32.1" customHeight="1">
+    <row r="169" spans="1:7" ht="32.1" customHeight="1">
       <c r="A169">
         <v>27.4</v>
       </c>
@@ -48793,15 +48963,16 @@
       <c r="C169" s="15" t="s">
         <v>4249</v>
       </c>
-      <c r="D169" s="13" t="s">
+      <c r="D169" s="15"/>
+      <c r="E169" s="13" t="s">
         <v>5320</v>
       </c>
-      <c r="E169" s="13" t="s">
+      <c r="F169" s="13" t="s">
         <v>5311</v>
       </c>
-      <c r="F169" s="13"/>
-    </row>
-    <row r="170" spans="1:6" ht="44.45" customHeight="1">
+      <c r="G169" s="13"/>
+    </row>
+    <row r="170" spans="1:7" ht="44.45" customHeight="1">
       <c r="A170">
         <v>27.5</v>
       </c>
@@ -48811,15 +48982,16 @@
       <c r="C170" s="15" t="s">
         <v>4250</v>
       </c>
-      <c r="D170" s="13" t="s">
+      <c r="D170" s="15"/>
+      <c r="E170" s="13" t="s">
         <v>5320</v>
       </c>
-      <c r="E170" s="13" t="s">
+      <c r="F170" s="13" t="s">
         <v>5311</v>
       </c>
-      <c r="F170" s="13"/>
-    </row>
-    <row r="171" spans="1:6" ht="44.45" customHeight="1">
+      <c r="G170" s="13"/>
+    </row>
+    <row r="171" spans="1:7" ht="44.45" customHeight="1">
       <c r="A171">
         <v>28</v>
       </c>
@@ -48827,8 +48999,9 @@
         <v>4251</v>
       </c>
       <c r="C171" s="15"/>
-    </row>
-    <row r="172" spans="1:6" ht="56.1" customHeight="1">
+      <c r="D171" s="15"/>
+    </row>
+    <row r="172" spans="1:7" ht="56.1" customHeight="1">
       <c r="A172" t="s">
         <v>4252</v>
       </c>
@@ -48838,15 +49011,16 @@
       <c r="C172" s="15" t="s">
         <v>4253</v>
       </c>
-      <c r="D172" s="13" t="s">
+      <c r="D172" s="15"/>
+      <c r="E172" s="13" t="s">
         <v>5321</v>
       </c>
-      <c r="E172" s="13" t="s">
+      <c r="F172" s="13" t="s">
         <v>5322</v>
       </c>
-      <c r="F172" s="13"/>
-    </row>
-    <row r="173" spans="1:6" ht="30">
+      <c r="G172" s="13"/>
+    </row>
+    <row r="173" spans="1:7" ht="30">
       <c r="A173" t="s">
         <v>4254</v>
       </c>
@@ -48856,15 +49030,16 @@
       <c r="C173" s="15" t="s">
         <v>4255</v>
       </c>
-      <c r="D173" s="13" t="s">
+      <c r="D173" s="15"/>
+      <c r="E173" s="13" t="s">
         <v>5323</v>
       </c>
-      <c r="E173" s="13" t="s">
+      <c r="F173" s="13" t="s">
         <v>5322</v>
       </c>
-      <c r="F173" s="13"/>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" s="13"/>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>4256</v>
       </c>
@@ -48874,15 +49049,16 @@
       <c r="C174" s="15" t="s">
         <v>4257</v>
       </c>
-      <c r="D174" s="13" t="s">
+      <c r="D174" s="15"/>
+      <c r="E174" s="13" t="s">
         <v>5324</v>
       </c>
-      <c r="E174" s="13" t="s">
+      <c r="F174" s="13" t="s">
         <v>5322</v>
       </c>
-      <c r="F174" s="13"/>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" s="13"/>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>4258</v>
       </c>
@@ -48892,15 +49068,16 @@
       <c r="C175" s="15" t="s">
         <v>4259</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="D175" s="15"/>
+      <c r="E175" s="13" t="s">
         <v>5325</v>
       </c>
-      <c r="E175" s="13" t="s">
+      <c r="F175" s="13" t="s">
         <v>5326</v>
       </c>
-      <c r="F175" s="13"/>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" s="13"/>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>28.2</v>
       </c>
@@ -48910,8 +49087,9 @@
       <c r="C176" s="15" t="s">
         <v>4260</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="38.25">
+      <c r="D176" s="15"/>
+    </row>
+    <row r="177" spans="1:8" ht="38.25">
       <c r="A177">
         <v>28.3</v>
       </c>
@@ -48921,16 +49099,17 @@
       <c r="C177" s="15" t="s">
         <v>4261</v>
       </c>
-      <c r="D177" s="13" t="s">
-        <v>196</v>
-      </c>
+      <c r="D177" s="15"/>
       <c r="E177" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F177" s="13"/>
+      <c r="F177" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="G177" s="13"/>
-    </row>
-    <row r="178" spans="1:7" ht="25.5">
+      <c r="H177" s="13"/>
+    </row>
+    <row r="178" spans="1:8" ht="25.5">
       <c r="A178">
         <v>28.4</v>
       </c>
@@ -48940,16 +49119,17 @@
       <c r="C178" s="15" t="s">
         <v>4262</v>
       </c>
-      <c r="D178" s="13" t="s">
-        <v>187</v>
-      </c>
+      <c r="D178" s="15"/>
       <c r="E178" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="F178" s="13"/>
+      <c r="F178" s="13" t="s">
+        <v>187</v>
+      </c>
       <c r="G178" s="13"/>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="H178" s="13"/>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>29</v>
       </c>
@@ -48957,8 +49137,9 @@
         <v>4263</v>
       </c>
       <c r="C179" s="15"/>
-    </row>
-    <row r="180" spans="1:7" ht="30.6" customHeight="1">
+      <c r="D179" s="15"/>
+    </row>
+    <row r="180" spans="1:8" ht="30.6" customHeight="1">
       <c r="A180">
         <v>29.1</v>
       </c>
@@ -48968,14 +49149,15 @@
       <c r="C180" s="15" t="s">
         <v>4264</v>
       </c>
-      <c r="D180" s="13" t="s">
+      <c r="D180" s="15"/>
+      <c r="E180" s="13" t="s">
         <v>4265</v>
       </c>
-      <c r="E180" s="13" t="s">
+      <c r="F180" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>30</v>
       </c>
@@ -48983,8 +49165,9 @@
         <v>4266</v>
       </c>
       <c r="C181" s="15"/>
-    </row>
-    <row r="182" spans="1:7" ht="45" customHeight="1">
+      <c r="D181" s="15"/>
+    </row>
+    <row r="182" spans="1:8" ht="45" customHeight="1">
       <c r="A182" t="s">
         <v>849</v>
       </c>
@@ -48994,14 +49177,15 @@
       <c r="C182" s="15" t="s">
         <v>4267</v>
       </c>
-      <c r="D182" s="13" t="s">
+      <c r="D182" s="15"/>
+      <c r="E182" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E182" s="13" t="s">
+      <c r="F182" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="25.5">
+    <row r="183" spans="1:8" ht="25.5">
       <c r="A183" t="s">
         <v>850</v>
       </c>
@@ -49011,14 +49195,15 @@
       <c r="C183" s="15" t="s">
         <v>4268</v>
       </c>
-      <c r="D183" s="13" t="s">
+      <c r="D183" s="15"/>
+      <c r="E183" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E183" s="13" t="s">
+      <c r="F183" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="25.5">
+    <row r="184" spans="1:8" ht="25.5">
       <c r="A184" t="s">
         <v>851</v>
       </c>
@@ -49028,15 +49213,16 @@
       <c r="C184" s="15" t="s">
         <v>4269</v>
       </c>
-      <c r="D184" s="13" t="s">
+      <c r="D184" s="15"/>
+      <c r="E184" s="13" t="s">
         <v>5327</v>
       </c>
-      <c r="E184" s="13" t="s">
+      <c r="F184" s="13" t="s">
         <v>5328</v>
       </c>
-      <c r="F184" s="13"/>
-    </row>
-    <row r="185" spans="1:7" ht="25.5">
+      <c r="G184" s="13"/>
+    </row>
+    <row r="185" spans="1:8" ht="25.5">
       <c r="A185" t="s">
         <v>852</v>
       </c>
@@ -49046,14 +49232,15 @@
       <c r="C185" s="15" t="s">
         <v>4270</v>
       </c>
-      <c r="D185" s="13" t="s">
+      <c r="D185" s="15"/>
+      <c r="E185" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E185" s="13" t="s">
+      <c r="F185" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="27.95" customHeight="1">
+    <row r="186" spans="1:8" ht="27.95" customHeight="1">
       <c r="A186" t="s">
         <v>854</v>
       </c>
@@ -49063,14 +49250,15 @@
       <c r="C186" s="15" t="s">
         <v>4271</v>
       </c>
-      <c r="D186" s="13" t="s">
+      <c r="D186" s="15"/>
+      <c r="E186" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E186" s="13" t="s">
+      <c r="F186" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
         <v>856</v>
       </c>
@@ -49080,14 +49268,15 @@
       <c r="C187" s="15" t="s">
         <v>4272</v>
       </c>
-      <c r="D187" s="13" t="s">
+      <c r="D187" s="15"/>
+      <c r="E187" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E187" s="13" t="s">
+      <c r="F187" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
         <v>858</v>
       </c>
@@ -49097,14 +49286,15 @@
       <c r="C188" s="15" t="s">
         <v>4273</v>
       </c>
-      <c r="D188" s="13" t="s">
+      <c r="D188" s="15"/>
+      <c r="E188" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="E188" s="13" t="s">
+      <c r="F188" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="25.5">
+    <row r="189" spans="1:8" ht="25.5">
       <c r="A189">
         <v>30.2</v>
       </c>
@@ -49114,15 +49304,16 @@
       <c r="C189" s="15" t="s">
         <v>4274</v>
       </c>
-      <c r="D189" s="13" t="s">
+      <c r="D189" s="15"/>
+      <c r="E189" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E189" s="13" t="s">
+      <c r="F189" s="13" t="s">
         <v>5329</v>
       </c>
-      <c r="F189" s="13"/>
-    </row>
-    <row r="190" spans="1:7" ht="25.5">
+      <c r="G189" s="13"/>
+    </row>
+    <row r="190" spans="1:8" ht="25.5">
       <c r="A190">
         <v>30.3</v>
       </c>
@@ -49132,14 +49323,15 @@
       <c r="C190" s="15" t="s">
         <v>4275</v>
       </c>
-      <c r="D190" s="13" t="s">
+      <c r="D190" s="15"/>
+      <c r="E190" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E190" s="13" t="s">
+      <c r="F190" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>31</v>
       </c>
@@ -49147,8 +49339,9 @@
         <v>4276</v>
       </c>
       <c r="C191" s="15"/>
-    </row>
-    <row r="192" spans="1:7" ht="30.6" customHeight="1">
+      <c r="D191" s="15"/>
+    </row>
+    <row r="192" spans="1:8" ht="30.6" customHeight="1">
       <c r="A192">
         <v>31.1</v>
       </c>
@@ -49158,14 +49351,15 @@
       <c r="C192" s="15" t="s">
         <v>4277</v>
       </c>
-      <c r="D192" s="13" t="s">
+      <c r="D192" s="15"/>
+      <c r="E192" s="13" t="s">
         <v>4278</v>
       </c>
-      <c r="E192" s="13" t="s">
+      <c r="F192" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="38.25">
+    <row r="193" spans="1:8" ht="38.25">
       <c r="A193">
         <v>31.2</v>
       </c>
@@ -49175,15 +49369,16 @@
       <c r="C193" s="15" t="s">
         <v>4279</v>
       </c>
-      <c r="D193" s="13" t="s">
+      <c r="D193" s="15"/>
+      <c r="E193" s="13" t="s">
         <v>5330</v>
       </c>
-      <c r="E193" s="13" t="s">
+      <c r="F193" s="13" t="s">
         <v>5331</v>
       </c>
-      <c r="F193" s="13"/>
-    </row>
-    <row r="194" spans="1:7" ht="35.1" customHeight="1">
+      <c r="G193" s="13"/>
+    </row>
+    <row r="194" spans="1:8" ht="35.1" customHeight="1">
       <c r="A194">
         <v>31.3</v>
       </c>
@@ -49193,14 +49388,15 @@
       <c r="C194" s="15" t="s">
         <v>4280</v>
       </c>
-      <c r="D194" s="13" t="s">
+      <c r="D194" s="15"/>
+      <c r="E194" s="13" t="s">
         <v>4281</v>
       </c>
-      <c r="E194" s="13" t="s">
+      <c r="F194" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="35.1" customHeight="1">
+    <row r="195" spans="1:8" ht="35.1" customHeight="1">
       <c r="A195">
         <v>32</v>
       </c>
@@ -49208,8 +49404,9 @@
         <v>4282</v>
       </c>
       <c r="C195" s="15"/>
-    </row>
-    <row r="196" spans="1:7" ht="28.5" customHeight="1">
+      <c r="D195" s="15"/>
+    </row>
+    <row r="196" spans="1:8" ht="28.5" customHeight="1">
       <c r="A196">
         <v>32.1</v>
       </c>
@@ -49219,15 +49416,16 @@
       <c r="C196" s="15" t="s">
         <v>4283</v>
       </c>
-      <c r="D196" s="13" t="s">
+      <c r="D196" s="15"/>
+      <c r="E196" s="13" t="s">
         <v>5332</v>
       </c>
-      <c r="E196" s="13" t="s">
+      <c r="F196" s="13" t="s">
         <v>5333</v>
       </c>
-      <c r="F196" s="13"/>
-    </row>
-    <row r="197" spans="1:7" ht="38.25">
+      <c r="G196" s="13"/>
+    </row>
+    <row r="197" spans="1:8" ht="38.25">
       <c r="A197" t="s">
         <v>4284</v>
       </c>
@@ -49237,15 +49435,16 @@
       <c r="C197" s="15" t="s">
         <v>4285</v>
       </c>
-      <c r="D197" s="13" t="s">
+      <c r="D197" s="15"/>
+      <c r="E197" s="13" t="s">
         <v>5332</v>
       </c>
-      <c r="E197" s="13" t="s">
+      <c r="F197" s="13" t="s">
         <v>5333</v>
       </c>
-      <c r="F197" s="13"/>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="G197" s="13"/>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
         <v>4286</v>
       </c>
@@ -49255,15 +49454,16 @@
       <c r="C198" s="15" t="s">
         <v>4287</v>
       </c>
-      <c r="D198" s="13" t="s">
+      <c r="D198" s="15"/>
+      <c r="E198" s="13" t="s">
         <v>5332</v>
       </c>
-      <c r="E198" s="13" t="s">
+      <c r="F198" s="13" t="s">
         <v>5333</v>
       </c>
-      <c r="F198" s="13"/>
-    </row>
-    <row r="199" spans="1:7" ht="25.5">
+      <c r="G198" s="13"/>
+    </row>
+    <row r="199" spans="1:8" ht="25.5">
       <c r="A199">
         <v>32.299999999999997</v>
       </c>
@@ -49273,15 +49473,16 @@
       <c r="C199" s="15" t="s">
         <v>4288</v>
       </c>
-      <c r="D199" s="13" t="s">
+      <c r="D199" s="15"/>
+      <c r="E199" s="13" t="s">
         <v>5332</v>
       </c>
-      <c r="E199" s="13" t="s">
+      <c r="F199" s="13" t="s">
         <v>5333</v>
       </c>
-      <c r="F199" s="13"/>
-    </row>
-    <row r="200" spans="1:7" ht="38.25">
+      <c r="G199" s="13"/>
+    </row>
+    <row r="200" spans="1:8" ht="38.25">
       <c r="A200">
         <v>32.4</v>
       </c>
@@ -49291,15 +49492,16 @@
       <c r="C200" s="15" t="s">
         <v>4289</v>
       </c>
-      <c r="D200" s="13" t="s">
+      <c r="D200" s="15"/>
+      <c r="E200" s="13" t="s">
         <v>5332</v>
       </c>
-      <c r="E200" s="13" t="s">
+      <c r="F200" s="13" t="s">
         <v>5333</v>
       </c>
-      <c r="F200" s="13"/>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="G200" s="13"/>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>33</v>
       </c>
@@ -49307,8 +49509,9 @@
         <v>4290</v>
       </c>
       <c r="C201" s="15"/>
-    </row>
-    <row r="202" spans="1:7" ht="41.1" customHeight="1">
+      <c r="D201" s="15"/>
+    </row>
+    <row r="202" spans="1:8" ht="41.1" customHeight="1">
       <c r="A202">
         <v>33.1</v>
       </c>
@@ -49318,14 +49521,15 @@
       <c r="C202" s="15" t="s">
         <v>4291</v>
       </c>
-      <c r="D202" s="13" t="s">
+      <c r="D202" s="15"/>
+      <c r="E202" s="13" t="s">
         <v>4292</v>
       </c>
-      <c r="E202" s="13" t="s">
+      <c r="F202" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>33.200000000000003</v>
       </c>
@@ -49335,16 +49539,17 @@
       <c r="C203" s="15" t="s">
         <v>4293</v>
       </c>
-      <c r="D203" s="13" t="s">
+      <c r="D203" s="15"/>
+      <c r="E203" s="13" t="s">
         <v>4292</v>
       </c>
-      <c r="E203" s="13" t="s">
+      <c r="F203" s="13" t="s">
         <v>5334</v>
       </c>
-      <c r="F203" s="13"/>
       <c r="G203" s="13"/>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="H203" s="13"/>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>34</v>
       </c>
@@ -49352,8 +49557,9 @@
         <v>4294</v>
       </c>
       <c r="C204" s="15"/>
-    </row>
-    <row r="205" spans="1:7" ht="45.95" customHeight="1">
+      <c r="D204" s="15"/>
+    </row>
+    <row r="205" spans="1:8" ht="45.95" customHeight="1">
       <c r="A205" t="s">
         <v>4295</v>
       </c>
@@ -49363,11 +49569,12 @@
       <c r="C205" s="15" t="s">
         <v>4296</v>
       </c>
-      <c r="D205" s="13" t="s">
+      <c r="D205" s="15"/>
+      <c r="E205" s="13" t="s">
         <v>4297</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="70.5" customHeight="1">
+    <row r="206" spans="1:8" ht="70.5" customHeight="1">
       <c r="A206" t="s">
         <v>4298</v>
       </c>
@@ -49377,16 +49584,17 @@
       <c r="C206" s="15" t="s">
         <v>5335</v>
       </c>
-      <c r="D206" s="13" t="s">
+      <c r="D206" s="15"/>
+      <c r="E206" s="13" t="s">
         <v>4297</v>
       </c>
-      <c r="E206" s="13" t="s">
+      <c r="F206" s="13" t="s">
         <v>5336</v>
       </c>
-      <c r="F206" s="13"/>
       <c r="G206" s="13"/>
-    </row>
-    <row r="207" spans="1:7" ht="28.5" customHeight="1">
+      <c r="H206" s="13"/>
+    </row>
+    <row r="207" spans="1:8" ht="28.5" customHeight="1">
       <c r="A207" t="s">
         <v>4299</v>
       </c>
@@ -49396,15 +49604,16 @@
       <c r="C207" s="15" t="s">
         <v>4300</v>
       </c>
-      <c r="D207" s="13" t="s">
+      <c r="D207" s="15"/>
+      <c r="E207" s="13" t="s">
         <v>4297</v>
       </c>
-      <c r="E207" s="13" t="s">
+      <c r="F207" s="13" t="s">
         <v>5337</v>
       </c>
-      <c r="F207" s="13"/>
-    </row>
-    <row r="208" spans="1:7" ht="63.75">
+      <c r="G207" s="13"/>
+    </row>
+    <row r="208" spans="1:8" ht="63.75">
       <c r="A208" t="s">
         <v>4301</v>
       </c>
@@ -49414,15 +49623,16 @@
       <c r="C208" s="15" t="s">
         <v>4302</v>
       </c>
-      <c r="D208" s="13" t="s">
+      <c r="D208" s="15"/>
+      <c r="E208" s="13" t="s">
         <v>4297</v>
       </c>
-      <c r="E208" s="13" t="s">
+      <c r="F208" s="13" t="s">
         <v>5338</v>
       </c>
-      <c r="F208" s="13"/>
-    </row>
-    <row r="209" spans="1:6" ht="25.5">
+      <c r="G208" s="13"/>
+    </row>
+    <row r="209" spans="1:7" ht="25.5">
       <c r="A209" t="s">
         <v>4303</v>
       </c>
@@ -49432,14 +49642,15 @@
       <c r="C209" s="15" t="s">
         <v>4304</v>
       </c>
-      <c r="D209" s="13" t="s">
+      <c r="D209" s="15"/>
+      <c r="E209" s="13" t="s">
         <v>4292</v>
       </c>
-      <c r="E209" s="13" t="s">
+      <c r="F209" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="25.5">
+    <row r="210" spans="1:7" ht="25.5">
       <c r="A210" t="s">
         <v>4305</v>
       </c>
@@ -49449,14 +49660,15 @@
       <c r="C210" s="15" t="s">
         <v>4306</v>
       </c>
-      <c r="D210" s="13" t="s">
+      <c r="D210" s="15"/>
+      <c r="E210" s="13" t="s">
         <v>4292</v>
       </c>
-      <c r="E210" s="13" t="s">
+      <c r="F210" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="25.5">
+    <row r="211" spans="1:7" ht="25.5">
       <c r="A211" t="s">
         <v>4307</v>
       </c>
@@ -49466,14 +49678,15 @@
       <c r="C211" s="15" t="s">
         <v>4308</v>
       </c>
-      <c r="D211" s="13" t="s">
+      <c r="D211" s="15"/>
+      <c r="E211" s="13" t="s">
         <v>4292</v>
       </c>
-      <c r="E211" s="13" t="s">
+      <c r="F211" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="51">
+    <row r="212" spans="1:7" ht="51">
       <c r="A212" t="s">
         <v>4309</v>
       </c>
@@ -49483,14 +49696,15 @@
       <c r="C212" s="15" t="s">
         <v>4310</v>
       </c>
-      <c r="D212" s="13" t="s">
+      <c r="D212" s="15"/>
+      <c r="E212" s="13" t="s">
         <v>4292</v>
       </c>
-      <c r="E212" s="13" t="s">
+      <c r="F212" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="38.25">
+    <row r="213" spans="1:7" ht="38.25">
       <c r="A213" t="s">
         <v>4311</v>
       </c>
@@ -49500,14 +49714,15 @@
       <c r="C213" s="15" t="s">
         <v>4312</v>
       </c>
-      <c r="D213" s="13" t="s">
+      <c r="D213" s="15"/>
+      <c r="E213" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="E213" s="13" t="s">
+      <c r="F213" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="25.5">
+    <row r="214" spans="1:7" ht="25.5">
       <c r="A214">
         <v>34.299999999999997</v>
       </c>
@@ -49517,14 +49732,15 @@
       <c r="C214" s="15" t="s">
         <v>4313</v>
       </c>
-      <c r="D214" s="13" t="s">
+      <c r="D214" s="15"/>
+      <c r="E214" s="13" t="s">
         <v>1014</v>
       </c>
-      <c r="E214" s="13" t="s">
+      <c r="F214" s="13" t="s">
         <v>5254</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="127.5">
+    <row r="215" spans="1:7" ht="127.5">
       <c r="A215">
         <v>35</v>
       </c>
@@ -49534,9 +49750,10 @@
       <c r="C215" s="15" t="s">
         <v>4315</v>
       </c>
-      <c r="F215" s="13"/>
-    </row>
-    <row r="216" spans="1:6" ht="38.25">
+      <c r="D215" s="15"/>
+      <c r="G215" s="13"/>
+    </row>
+    <row r="216" spans="1:7" ht="38.25">
       <c r="A216" t="s">
         <v>4316</v>
       </c>
@@ -49546,12 +49763,13 @@
       <c r="C216" s="15" t="s">
         <v>4317</v>
       </c>
-      <c r="D216" s="13" t="s">
+      <c r="D216" s="15"/>
+      <c r="E216" s="13" t="s">
         <v>5339</v>
       </c>
-      <c r="F216" s="13"/>
-    </row>
-    <row r="217" spans="1:6" ht="30.95" customHeight="1">
+      <c r="G216" s="13"/>
+    </row>
+    <row r="217" spans="1:7" ht="30.95" customHeight="1">
       <c r="A217" t="s">
         <v>4318</v>
       </c>
@@ -49561,12 +49779,13 @@
       <c r="C217" s="15" t="s">
         <v>4319</v>
       </c>
-      <c r="D217" s="13" t="s">
+      <c r="D217" s="15"/>
+      <c r="E217" s="13" t="s">
         <v>5339</v>
       </c>
-      <c r="F217" s="13"/>
-    </row>
-    <row r="218" spans="1:6" ht="30.95" customHeight="1">
+      <c r="G217" s="13"/>
+    </row>
+    <row r="218" spans="1:7" ht="30.95" customHeight="1">
       <c r="A218">
         <v>36</v>
       </c>
@@ -49574,8 +49793,9 @@
         <v>4320</v>
       </c>
       <c r="C218" s="15"/>
-    </row>
-    <row r="219" spans="1:6" ht="63.75">
+      <c r="D218" s="15"/>
+    </row>
+    <row r="219" spans="1:7" ht="63.75">
       <c r="A219" t="s">
         <v>4321</v>
       </c>
@@ -49585,11 +49805,12 @@
       <c r="C219" s="15" t="s">
         <v>4322</v>
       </c>
-      <c r="D219" s="13" t="s">
+      <c r="D219" s="15"/>
+      <c r="E219" s="13" t="s">
         <v>4323</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="25.5">
+    <row r="220" spans="1:7" ht="25.5">
       <c r="A220" t="s">
         <v>4324</v>
       </c>
@@ -49599,11 +49820,12 @@
       <c r="C220" s="15" t="s">
         <v>4325</v>
       </c>
-      <c r="D220" s="13" t="s">
+      <c r="D220" s="15"/>
+      <c r="E220" s="13" t="s">
         <v>4323</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
         <v>4326</v>
       </c>
@@ -49613,11 +49835,12 @@
       <c r="C221" s="15" t="s">
         <v>4327</v>
       </c>
-      <c r="D221" s="13" t="s">
+      <c r="D221" s="15"/>
+      <c r="E221" s="13" t="s">
         <v>4323</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="25.5">
+    <row r="222" spans="1:7" ht="25.5">
       <c r="A222" t="s">
         <v>4328</v>
       </c>
@@ -49627,11 +49850,12 @@
       <c r="C222" s="15" t="s">
         <v>4329</v>
       </c>
-      <c r="D222" s="13" t="s">
+      <c r="D222" s="15"/>
+      <c r="E222" s="13" t="s">
         <v>4323</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="25.5">
+    <row r="223" spans="1:7" ht="25.5">
       <c r="A223" t="s">
         <v>4330</v>
       </c>
@@ -49641,11 +49865,12 @@
       <c r="C223" s="15" t="s">
         <v>4331</v>
       </c>
-      <c r="D223" s="13" t="s">
+      <c r="D223" s="15"/>
+      <c r="E223" s="13" t="s">
         <v>4323</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="75">
+    <row r="224" spans="1:7" ht="75">
       <c r="A224">
         <v>37</v>
       </c>
@@ -49655,12 +49880,13 @@
       <c r="C224" s="15" t="s">
         <v>4333</v>
       </c>
-      <c r="D224" s="13" t="s">
+      <c r="D224" s="15"/>
+      <c r="E224" s="13" t="s">
         <v>4323</v>
       </c>
-      <c r="F224" s="13"/>
-    </row>
-    <row r="225" spans="1:6" ht="75">
+      <c r="G224" s="13"/>
+    </row>
+    <row r="225" spans="1:7" ht="75">
       <c r="A225">
         <v>38</v>
       </c>
@@ -49670,9 +49896,10 @@
       <c r="C225" s="15" t="s">
         <v>4335</v>
       </c>
-      <c r="F225" s="13"/>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="D225" s="15"/>
+      <c r="G225" s="13"/>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>4336</v>
       </c>
@@ -49682,12 +49909,13 @@
       <c r="C226" s="15" t="s">
         <v>4337</v>
       </c>
-      <c r="D226" s="13" t="s">
+      <c r="D226" s="15"/>
+      <c r="E226" s="13" t="s">
         <v>4323</v>
       </c>
-      <c r="F226" s="13"/>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226" s="13"/>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>4338</v>
       </c>
@@ -49697,12 +49925,13 @@
       <c r="C227" s="15" t="s">
         <v>4339</v>
       </c>
-      <c r="D227" s="13" t="s">
+      <c r="D227" s="15"/>
+      <c r="E227" s="13" t="s">
         <v>4323</v>
       </c>
-      <c r="F227" s="13"/>
-    </row>
-    <row r="228" spans="1:6" ht="25.5">
+      <c r="G227" s="13"/>
+    </row>
+    <row r="228" spans="1:7" ht="25.5">
       <c r="A228" t="s">
         <v>4340</v>
       </c>
@@ -49712,12 +49941,13 @@
       <c r="C228" s="15" t="s">
         <v>4341</v>
       </c>
-      <c r="D228" s="13" t="s">
+      <c r="D228" s="15"/>
+      <c r="E228" s="13" t="s">
         <v>5340</v>
       </c>
-      <c r="F228" s="13"/>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228" s="13"/>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>4342</v>
       </c>
@@ -49727,12 +49957,13 @@
       <c r="C229" s="15" t="s">
         <v>4343</v>
       </c>
-      <c r="D229" s="13" t="s">
+      <c r="D229" s="15"/>
+      <c r="E229" s="13" t="s">
         <v>4323</v>
       </c>
-      <c r="F229" s="13"/>
-    </row>
-    <row r="230" spans="1:6" ht="25.5">
+      <c r="G229" s="13"/>
+    </row>
+    <row r="230" spans="1:7" ht="25.5">
       <c r="A230" t="s">
         <v>4344</v>
       </c>
@@ -49742,12 +49973,13 @@
       <c r="C230" s="15" t="s">
         <v>4345</v>
       </c>
-      <c r="D230" s="13" t="s">
+      <c r="D230" s="15"/>
+      <c r="E230" s="13" t="s">
         <v>5341</v>
       </c>
-      <c r="F230" s="13"/>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230" s="13"/>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>39</v>
       </c>
@@ -49755,8 +49987,9 @@
         <v>4346</v>
       </c>
       <c r="C231" s="15"/>
-    </row>
-    <row r="232" spans="1:6" ht="25.5">
+      <c r="D231" s="15"/>
+    </row>
+    <row r="232" spans="1:7" ht="25.5">
       <c r="A232">
         <v>39.200000000000003</v>
       </c>
@@ -49766,9 +49999,10 @@
       <c r="C232" s="15" t="s">
         <v>4347</v>
       </c>
-      <c r="F232" s="13"/>
-    </row>
-    <row r="233" spans="1:6" ht="248.45" customHeight="1">
+      <c r="D232" s="15"/>
+      <c r="G232" s="13"/>
+    </row>
+    <row r="233" spans="1:7" ht="248.45" customHeight="1">
       <c r="A233">
         <v>40</v>
       </c>
@@ -49778,27 +50012,31 @@
       <c r="C233" s="15" t="s">
         <v>4349</v>
       </c>
-      <c r="D233" s="13" t="s">
+      <c r="D233" s="15"/>
+      <c r="E233" s="13" t="s">
         <v>4323</v>
       </c>
-      <c r="F233" s="13"/>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233" s="13"/>
+    </row>
+    <row r="234" spans="1:7">
       <c r="B234" s="14"/>
       <c r="C234" s="15"/>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="D234" s="15"/>
+    </row>
+    <row r="235" spans="1:7">
       <c r="B235" s="14"/>
       <c r="C235" s="15"/>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="D235" s="15"/>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>5342</v>
       </c>
       <c r="B236" s="14"/>
       <c r="C236" s="15"/>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="D236" s="15"/>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>0</v>
       </c>
@@ -49808,8 +50046,9 @@
       <c r="C237" s="15" t="s">
         <v>5344</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="30">
+      <c r="D237" s="15"/>
+    </row>
+    <row r="238" spans="1:7" ht="30">
       <c r="A238" t="s">
         <v>4025</v>
       </c>
@@ -49817,8 +50056,9 @@
       <c r="C238" s="14" t="s">
         <v>5345</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="45">
+      <c r="D238" s="14"/>
+    </row>
+    <row r="239" spans="1:7" ht="45">
       <c r="A239" t="s">
         <v>4034</v>
       </c>
@@ -49826,8 +50066,9 @@
       <c r="C239" s="14" t="s">
         <v>5346</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="D239" s="14"/>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>4038</v>
       </c>
@@ -49837,8 +50078,9 @@
       <c r="C240" s="14" t="s">
         <v>5347</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="D240" s="14"/>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
         <v>4150</v>
       </c>
@@ -49848,8 +50090,9 @@
       <c r="C241" s="14" t="s">
         <v>5348</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="D241" s="14"/>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
         <v>4152</v>
       </c>
@@ -49859,8 +50102,9 @@
       <c r="C242" s="14" t="s">
         <v>5348</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="D242" s="14"/>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
         <v>4181</v>
       </c>
@@ -49870,8 +50114,9 @@
       <c r="C243" s="14" t="s">
         <v>5349</v>
       </c>
-    </row>
-    <row r="244" spans="1:7">
+      <c r="D243" s="14"/>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>23.5</v>
       </c>
@@ -49881,536 +50126,681 @@
       <c r="C244" s="14" t="s">
         <v>5350</v>
       </c>
-    </row>
-    <row r="245" spans="1:7">
+      <c r="D244" s="14"/>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
         <v>4224</v>
       </c>
       <c r="C245" s="15" t="s">
         <v>5351</v>
       </c>
-      <c r="F245" s="13"/>
+      <c r="D245" s="15"/>
       <c r="G245" s="13"/>
-    </row>
-    <row r="246" spans="1:7">
+      <c r="H245" s="13"/>
+    </row>
+    <row r="246" spans="1:8">
       <c r="B246" s="14"/>
       <c r="C246" s="14"/>
-    </row>
-    <row r="247" spans="1:7">
+      <c r="D246" s="14"/>
+    </row>
+    <row r="247" spans="1:8">
       <c r="B247" s="14"/>
       <c r="C247" s="14"/>
-    </row>
-    <row r="248" spans="1:7">
+      <c r="D247" s="14"/>
+    </row>
+    <row r="248" spans="1:8">
       <c r="C248" s="15"/>
-      <c r="F248" s="13"/>
+      <c r="D248" s="15"/>
       <c r="G248" s="13"/>
-    </row>
-    <row r="249" spans="1:7">
+      <c r="H248" s="13"/>
+    </row>
+    <row r="249" spans="1:8">
       <c r="C249" s="15"/>
-      <c r="F249" s="13"/>
+      <c r="D249" s="15"/>
       <c r="G249" s="13"/>
-    </row>
-    <row r="250" spans="1:7">
+      <c r="H249" s="13"/>
+    </row>
+    <row r="250" spans="1:8">
       <c r="B250" s="14"/>
       <c r="C250" s="14"/>
-    </row>
-    <row r="251" spans="1:7">
+      <c r="D250" s="14"/>
+    </row>
+    <row r="251" spans="1:8">
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
-    </row>
-    <row r="252" spans="1:7">
+      <c r="D251" s="14"/>
+    </row>
+    <row r="252" spans="1:8">
       <c r="B252" s="14"/>
       <c r="C252" s="14"/>
-    </row>
-    <row r="253" spans="1:7">
+      <c r="D252" s="14"/>
+    </row>
+    <row r="253" spans="1:8">
       <c r="B253" s="14"/>
       <c r="C253" s="14"/>
-    </row>
-    <row r="254" spans="1:7">
+      <c r="D253" s="14"/>
+    </row>
+    <row r="254" spans="1:8">
       <c r="B254" s="14"/>
       <c r="C254" s="14"/>
-    </row>
-    <row r="255" spans="1:7">
+      <c r="D254" s="14"/>
+    </row>
+    <row r="255" spans="1:8">
       <c r="B255" s="14"/>
       <c r="C255" s="14"/>
-    </row>
-    <row r="256" spans="1:7">
+      <c r="D255" s="14"/>
+    </row>
+    <row r="256" spans="1:8">
       <c r="B256" s="14"/>
       <c r="C256" s="14"/>
-    </row>
-    <row r="257" spans="2:3">
+      <c r="D256" s="14"/>
+    </row>
+    <row r="257" spans="2:4">
       <c r="B257" s="14"/>
       <c r="C257" s="14"/>
-    </row>
-    <row r="258" spans="2:3">
+      <c r="D257" s="14"/>
+    </row>
+    <row r="258" spans="2:4">
       <c r="B258" s="14"/>
       <c r="C258" s="14"/>
-    </row>
-    <row r="259" spans="2:3">
+      <c r="D258" s="14"/>
+    </row>
+    <row r="259" spans="2:4">
       <c r="B259" s="14"/>
       <c r="C259" s="14"/>
-    </row>
-    <row r="260" spans="2:3">
+      <c r="D259" s="14"/>
+    </row>
+    <row r="260" spans="2:4">
       <c r="B260" s="14"/>
       <c r="C260" s="14"/>
-    </row>
-    <row r="261" spans="2:3">
+      <c r="D260" s="14"/>
+    </row>
+    <row r="261" spans="2:4">
       <c r="B261" s="14"/>
       <c r="C261" s="14"/>
-    </row>
-    <row r="262" spans="2:3">
+      <c r="D261" s="14"/>
+    </row>
+    <row r="262" spans="2:4">
       <c r="B262" s="14"/>
       <c r="C262" s="14"/>
-    </row>
-    <row r="263" spans="2:3">
+      <c r="D262" s="14"/>
+    </row>
+    <row r="263" spans="2:4">
       <c r="B263" s="14"/>
       <c r="C263" s="14"/>
-    </row>
-    <row r="264" spans="2:3">
+      <c r="D263" s="14"/>
+    </row>
+    <row r="264" spans="2:4">
       <c r="B264" s="14"/>
       <c r="C264" s="14"/>
-    </row>
-    <row r="265" spans="2:3">
+      <c r="D264" s="14"/>
+    </row>
+    <row r="265" spans="2:4">
       <c r="B265" s="14"/>
       <c r="C265" s="14"/>
-    </row>
-    <row r="266" spans="2:3">
+      <c r="D265" s="14"/>
+    </row>
+    <row r="266" spans="2:4">
       <c r="B266" s="14"/>
       <c r="C266" s="14"/>
-    </row>
-    <row r="267" spans="2:3">
+      <c r="D266" s="14"/>
+    </row>
+    <row r="267" spans="2:4">
       <c r="B267" s="14"/>
       <c r="C267" s="14"/>
-    </row>
-    <row r="268" spans="2:3">
+      <c r="D267" s="14"/>
+    </row>
+    <row r="268" spans="2:4">
       <c r="B268" s="14"/>
       <c r="C268" s="14"/>
-    </row>
-    <row r="269" spans="2:3">
+      <c r="D268" s="14"/>
+    </row>
+    <row r="269" spans="2:4">
       <c r="B269" s="14"/>
       <c r="C269" s="14"/>
-    </row>
-    <row r="270" spans="2:3">
+      <c r="D269" s="14"/>
+    </row>
+    <row r="270" spans="2:4">
       <c r="B270" s="14"/>
       <c r="C270" s="14"/>
-    </row>
-    <row r="271" spans="2:3">
+      <c r="D270" s="14"/>
+    </row>
+    <row r="271" spans="2:4">
       <c r="B271" s="14"/>
       <c r="C271" s="14"/>
-    </row>
-    <row r="272" spans="2:3">
+      <c r="D271" s="14"/>
+    </row>
+    <row r="272" spans="2:4">
       <c r="B272" s="14"/>
       <c r="C272" s="14"/>
-    </row>
-    <row r="273" spans="2:3">
+      <c r="D272" s="14"/>
+    </row>
+    <row r="273" spans="2:4">
       <c r="B273" s="14"/>
       <c r="C273" s="14"/>
-    </row>
-    <row r="274" spans="2:3">
+      <c r="D273" s="14"/>
+    </row>
+    <row r="274" spans="2:4">
       <c r="B274" s="14"/>
       <c r="C274" s="14"/>
-    </row>
-    <row r="275" spans="2:3">
+      <c r="D274" s="14"/>
+    </row>
+    <row r="275" spans="2:4">
       <c r="B275" s="14"/>
       <c r="C275" s="14"/>
-    </row>
-    <row r="276" spans="2:3">
+      <c r="D275" s="14"/>
+    </row>
+    <row r="276" spans="2:4">
       <c r="B276" s="14"/>
       <c r="C276" s="14"/>
-    </row>
-    <row r="277" spans="2:3">
+      <c r="D276" s="14"/>
+    </row>
+    <row r="277" spans="2:4">
       <c r="B277" s="14"/>
       <c r="C277" s="14"/>
-    </row>
-    <row r="278" spans="2:3">
+      <c r="D277" s="14"/>
+    </row>
+    <row r="278" spans="2:4">
       <c r="B278" s="14"/>
       <c r="C278" s="14"/>
-    </row>
-    <row r="279" spans="2:3">
+      <c r="D278" s="14"/>
+    </row>
+    <row r="279" spans="2:4">
       <c r="B279" s="14"/>
       <c r="C279" s="14"/>
-    </row>
-    <row r="280" spans="2:3">
+      <c r="D279" s="14"/>
+    </row>
+    <row r="280" spans="2:4">
       <c r="B280" s="14"/>
       <c r="C280" s="14"/>
-    </row>
-    <row r="281" spans="2:3">
+      <c r="D280" s="14"/>
+    </row>
+    <row r="281" spans="2:4">
       <c r="B281" s="14"/>
       <c r="C281" s="14"/>
-    </row>
-    <row r="282" spans="2:3">
+      <c r="D281" s="14"/>
+    </row>
+    <row r="282" spans="2:4">
       <c r="B282" s="14"/>
       <c r="C282" s="14"/>
-    </row>
-    <row r="283" spans="2:3">
+      <c r="D282" s="14"/>
+    </row>
+    <row r="283" spans="2:4">
       <c r="B283" s="14"/>
       <c r="C283" s="14"/>
-    </row>
-    <row r="284" spans="2:3">
+      <c r="D283" s="14"/>
+    </row>
+    <row r="284" spans="2:4">
       <c r="B284" s="14"/>
       <c r="C284" s="14"/>
-    </row>
-    <row r="285" spans="2:3">
+      <c r="D284" s="14"/>
+    </row>
+    <row r="285" spans="2:4">
       <c r="B285" s="14"/>
       <c r="C285" s="14"/>
-    </row>
-    <row r="286" spans="2:3">
+      <c r="D285" s="14"/>
+    </row>
+    <row r="286" spans="2:4">
       <c r="B286" s="14"/>
       <c r="C286" s="14"/>
-    </row>
-    <row r="287" spans="2:3">
+      <c r="D286" s="14"/>
+    </row>
+    <row r="287" spans="2:4">
       <c r="B287" s="14"/>
       <c r="C287" s="14"/>
-    </row>
-    <row r="288" spans="2:3">
+      <c r="D287" s="14"/>
+    </row>
+    <row r="288" spans="2:4">
       <c r="B288" s="14"/>
       <c r="C288" s="14"/>
-    </row>
-    <row r="289" spans="2:3">
+      <c r="D288" s="14"/>
+    </row>
+    <row r="289" spans="2:4">
       <c r="B289" s="14"/>
       <c r="C289" s="14"/>
-    </row>
-    <row r="290" spans="2:3">
+      <c r="D289" s="14"/>
+    </row>
+    <row r="290" spans="2:4">
       <c r="B290" s="14"/>
       <c r="C290" s="14"/>
-    </row>
-    <row r="291" spans="2:3">
+      <c r="D290" s="14"/>
+    </row>
+    <row r="291" spans="2:4">
       <c r="B291" s="14"/>
       <c r="C291" s="14"/>
-    </row>
-    <row r="292" spans="2:3">
+      <c r="D291" s="14"/>
+    </row>
+    <row r="292" spans="2:4">
       <c r="B292" s="14"/>
       <c r="C292" s="14"/>
-    </row>
-    <row r="293" spans="2:3">
+      <c r="D292" s="14"/>
+    </row>
+    <row r="293" spans="2:4">
       <c r="B293" s="14"/>
       <c r="C293" s="14"/>
-    </row>
-    <row r="294" spans="2:3">
+      <c r="D293" s="14"/>
+    </row>
+    <row r="294" spans="2:4">
       <c r="B294" s="14"/>
       <c r="C294" s="14"/>
-    </row>
-    <row r="295" spans="2:3">
+      <c r="D294" s="14"/>
+    </row>
+    <row r="295" spans="2:4">
       <c r="B295" s="14"/>
       <c r="C295" s="14"/>
-    </row>
-    <row r="296" spans="2:3">
+      <c r="D295" s="14"/>
+    </row>
+    <row r="296" spans="2:4">
       <c r="B296" s="14"/>
       <c r="C296" s="14"/>
-    </row>
-    <row r="297" spans="2:3">
+      <c r="D296" s="14"/>
+    </row>
+    <row r="297" spans="2:4">
       <c r="B297" s="14"/>
       <c r="C297" s="14"/>
-    </row>
-    <row r="298" spans="2:3">
+      <c r="D297" s="14"/>
+    </row>
+    <row r="298" spans="2:4">
       <c r="B298" s="14"/>
       <c r="C298" s="14"/>
-    </row>
-    <row r="299" spans="2:3">
+      <c r="D298" s="14"/>
+    </row>
+    <row r="299" spans="2:4">
       <c r="B299" s="14"/>
       <c r="C299" s="14"/>
-    </row>
-    <row r="300" spans="2:3">
+      <c r="D299" s="14"/>
+    </row>
+    <row r="300" spans="2:4">
       <c r="B300" s="14"/>
       <c r="C300" s="14"/>
-    </row>
-    <row r="301" spans="2:3">
+      <c r="D300" s="14"/>
+    </row>
+    <row r="301" spans="2:4">
       <c r="B301" s="14"/>
       <c r="C301" s="14"/>
-    </row>
-    <row r="302" spans="2:3">
+      <c r="D301" s="14"/>
+    </row>
+    <row r="302" spans="2:4">
       <c r="B302" s="14"/>
       <c r="C302" s="14"/>
-    </row>
-    <row r="303" spans="2:3">
+      <c r="D302" s="14"/>
+    </row>
+    <row r="303" spans="2:4">
       <c r="B303" s="14"/>
       <c r="C303" s="14"/>
-    </row>
-    <row r="304" spans="2:3">
+      <c r="D303" s="14"/>
+    </row>
+    <row r="304" spans="2:4">
       <c r="B304" s="14"/>
       <c r="C304" s="14"/>
-    </row>
-    <row r="305" spans="2:3">
+      <c r="D304" s="14"/>
+    </row>
+    <row r="305" spans="2:4">
       <c r="B305" s="14"/>
       <c r="C305" s="14"/>
-    </row>
-    <row r="306" spans="2:3">
+      <c r="D305" s="14"/>
+    </row>
+    <row r="306" spans="2:4">
       <c r="B306" s="14"/>
       <c r="C306" s="14"/>
-    </row>
-    <row r="307" spans="2:3">
+      <c r="D306" s="14"/>
+    </row>
+    <row r="307" spans="2:4">
       <c r="B307" s="14"/>
       <c r="C307" s="14"/>
-    </row>
-    <row r="308" spans="2:3">
+      <c r="D307" s="14"/>
+    </row>
+    <row r="308" spans="2:4">
       <c r="B308" s="14"/>
       <c r="C308" s="14"/>
-    </row>
-    <row r="309" spans="2:3">
+      <c r="D308" s="14"/>
+    </row>
+    <row r="309" spans="2:4">
       <c r="B309" s="14"/>
       <c r="C309" s="14"/>
-    </row>
-    <row r="310" spans="2:3">
+      <c r="D309" s="14"/>
+    </row>
+    <row r="310" spans="2:4">
       <c r="B310" s="14"/>
       <c r="C310" s="14"/>
-    </row>
-    <row r="311" spans="2:3">
+      <c r="D310" s="14"/>
+    </row>
+    <row r="311" spans="2:4">
       <c r="B311" s="14"/>
       <c r="C311" s="14"/>
-    </row>
-    <row r="312" spans="2:3">
+      <c r="D311" s="14"/>
+    </row>
+    <row r="312" spans="2:4">
       <c r="B312" s="14"/>
       <c r="C312" s="14"/>
-    </row>
-    <row r="313" spans="2:3">
+      <c r="D312" s="14"/>
+    </row>
+    <row r="313" spans="2:4">
       <c r="B313" s="14"/>
       <c r="C313" s="14"/>
-    </row>
-    <row r="314" spans="2:3">
+      <c r="D313" s="14"/>
+    </row>
+    <row r="314" spans="2:4">
       <c r="B314" s="14"/>
       <c r="C314" s="14"/>
-    </row>
-    <row r="315" spans="2:3">
+      <c r="D314" s="14"/>
+    </row>
+    <row r="315" spans="2:4">
       <c r="B315" s="14"/>
       <c r="C315" s="14"/>
-    </row>
-    <row r="316" spans="2:3">
+      <c r="D315" s="14"/>
+    </row>
+    <row r="316" spans="2:4">
       <c r="B316" s="14"/>
       <c r="C316" s="14"/>
-    </row>
-    <row r="317" spans="2:3">
+      <c r="D316" s="14"/>
+    </row>
+    <row r="317" spans="2:4">
       <c r="B317" s="14"/>
       <c r="C317" s="14"/>
-    </row>
-    <row r="318" spans="2:3">
+      <c r="D317" s="14"/>
+    </row>
+    <row r="318" spans="2:4">
       <c r="B318" s="14"/>
       <c r="C318" s="14"/>
-    </row>
-    <row r="319" spans="2:3">
+      <c r="D318" s="14"/>
+    </row>
+    <row r="319" spans="2:4">
       <c r="B319" s="14"/>
       <c r="C319" s="14"/>
-    </row>
-    <row r="320" spans="2:3">
+      <c r="D319" s="14"/>
+    </row>
+    <row r="320" spans="2:4">
       <c r="B320" s="14"/>
       <c r="C320" s="14"/>
-    </row>
-    <row r="321" spans="2:3">
+      <c r="D320" s="14"/>
+    </row>
+    <row r="321" spans="2:4">
       <c r="B321" s="14"/>
       <c r="C321" s="14"/>
-    </row>
-    <row r="322" spans="2:3">
+      <c r="D321" s="14"/>
+    </row>
+    <row r="322" spans="2:4">
       <c r="B322" s="14"/>
       <c r="C322" s="14"/>
-    </row>
-    <row r="323" spans="2:3">
+      <c r="D322" s="14"/>
+    </row>
+    <row r="323" spans="2:4">
       <c r="B323" s="14"/>
       <c r="C323" s="14"/>
-    </row>
-    <row r="324" spans="2:3">
+      <c r="D323" s="14"/>
+    </row>
+    <row r="324" spans="2:4">
       <c r="B324" s="14"/>
       <c r="C324" s="14"/>
-    </row>
-    <row r="325" spans="2:3">
+      <c r="D324" s="14"/>
+    </row>
+    <row r="325" spans="2:4">
       <c r="B325" s="14"/>
       <c r="C325" s="14"/>
-    </row>
-    <row r="326" spans="2:3">
+      <c r="D325" s="14"/>
+    </row>
+    <row r="326" spans="2:4">
       <c r="B326" s="14"/>
       <c r="C326" s="14"/>
-    </row>
-    <row r="327" spans="2:3">
+      <c r="D326" s="14"/>
+    </row>
+    <row r="327" spans="2:4">
       <c r="B327" s="14"/>
       <c r="C327" s="14"/>
-    </row>
-    <row r="328" spans="2:3">
+      <c r="D327" s="14"/>
+    </row>
+    <row r="328" spans="2:4">
       <c r="B328" s="14"/>
       <c r="C328" s="14"/>
-    </row>
-    <row r="329" spans="2:3">
+      <c r="D328" s="14"/>
+    </row>
+    <row r="329" spans="2:4">
       <c r="B329" s="14"/>
       <c r="C329" s="14"/>
-    </row>
-    <row r="330" spans="2:3">
+      <c r="D329" s="14"/>
+    </row>
+    <row r="330" spans="2:4">
       <c r="B330" s="14"/>
       <c r="C330" s="14"/>
-    </row>
-    <row r="331" spans="2:3">
+      <c r="D330" s="14"/>
+    </row>
+    <row r="331" spans="2:4">
       <c r="B331" s="14"/>
       <c r="C331" s="14"/>
-    </row>
-    <row r="332" spans="2:3">
+      <c r="D331" s="14"/>
+    </row>
+    <row r="332" spans="2:4">
       <c r="B332" s="14"/>
       <c r="C332" s="14"/>
-    </row>
-    <row r="333" spans="2:3">
+      <c r="D332" s="14"/>
+    </row>
+    <row r="333" spans="2:4">
       <c r="B333" s="14"/>
       <c r="C333" s="14"/>
-    </row>
-    <row r="334" spans="2:3">
+      <c r="D333" s="14"/>
+    </row>
+    <row r="334" spans="2:4">
       <c r="B334" s="14"/>
       <c r="C334" s="14"/>
-    </row>
-    <row r="371" spans="3:3">
+      <c r="D334" s="14"/>
+    </row>
+    <row r="371" spans="3:4">
       <c r="C371" s="3"/>
-    </row>
-    <row r="372" spans="3:3">
+      <c r="D371" s="3"/>
+    </row>
+    <row r="372" spans="3:4">
       <c r="C372" s="3"/>
-    </row>
-    <row r="373" spans="3:3">
+      <c r="D372" s="3"/>
+    </row>
+    <row r="373" spans="3:4">
       <c r="C373" s="3"/>
-    </row>
-    <row r="374" spans="3:3">
+      <c r="D373" s="3"/>
+    </row>
+    <row r="374" spans="3:4">
       <c r="C374" s="3"/>
-    </row>
-    <row r="381" spans="3:3">
+      <c r="D374" s="3"/>
+    </row>
+    <row r="381" spans="3:4">
       <c r="C381" s="3"/>
-    </row>
-    <row r="382" spans="3:3">
+      <c r="D381" s="3"/>
+    </row>
+    <row r="382" spans="3:4">
       <c r="C382" s="3"/>
-    </row>
-    <row r="383" spans="3:3">
+      <c r="D382" s="3"/>
+    </row>
+    <row r="383" spans="3:4">
       <c r="C383" s="3"/>
-    </row>
-    <row r="389" spans="3:3">
+      <c r="D383" s="3"/>
+    </row>
+    <row r="389" spans="3:4">
       <c r="C389" s="3"/>
-    </row>
-    <row r="390" spans="3:3">
+      <c r="D389" s="3"/>
+    </row>
+    <row r="390" spans="3:4">
       <c r="C390" s="3"/>
-    </row>
-    <row r="391" spans="3:3">
+      <c r="D390" s="3"/>
+    </row>
+    <row r="391" spans="3:4">
       <c r="C391" s="3"/>
-    </row>
-    <row r="395" spans="3:3">
+      <c r="D391" s="3"/>
+    </row>
+    <row r="395" spans="3:4">
       <c r="C395" s="3"/>
-    </row>
-    <row r="397" spans="3:3">
+      <c r="D395" s="3"/>
+    </row>
+    <row r="397" spans="3:4">
       <c r="C397" s="3"/>
-    </row>
-    <row r="398" spans="3:3">
+      <c r="D397" s="3"/>
+    </row>
+    <row r="398" spans="3:4">
       <c r="C398" s="3"/>
-    </row>
-    <row r="406" spans="3:3">
+      <c r="D398" s="3"/>
+    </row>
+    <row r="406" spans="3:4">
       <c r="C406" s="3"/>
-    </row>
-    <row r="407" spans="3:3">
+      <c r="D406" s="3"/>
+    </row>
+    <row r="407" spans="3:4">
       <c r="C407" s="3"/>
-    </row>
-    <row r="408" spans="3:3">
+      <c r="D407" s="3"/>
+    </row>
+    <row r="408" spans="3:4">
       <c r="C408" s="3"/>
-    </row>
-    <row r="409" spans="3:3">
+      <c r="D408" s="3"/>
+    </row>
+    <row r="409" spans="3:4">
       <c r="C409" s="3"/>
-    </row>
-    <row r="410" spans="3:3">
+      <c r="D409" s="3"/>
+    </row>
+    <row r="410" spans="3:4">
       <c r="C410" s="3"/>
-    </row>
-    <row r="411" spans="3:3">
+      <c r="D410" s="3"/>
+    </row>
+    <row r="411" spans="3:4">
       <c r="C411" s="3"/>
-    </row>
-    <row r="415" spans="3:3">
+      <c r="D411" s="3"/>
+    </row>
+    <row r="415" spans="3:4">
       <c r="C415" s="3"/>
-    </row>
-    <row r="416" spans="3:3">
+      <c r="D415" s="3"/>
+    </row>
+    <row r="416" spans="3:4">
       <c r="C416" s="3"/>
-    </row>
-    <row r="417" spans="3:3">
+      <c r="D416" s="3"/>
+    </row>
+    <row r="417" spans="3:4">
       <c r="C417" s="3"/>
-    </row>
-    <row r="433" spans="3:3">
+      <c r="D417" s="3"/>
+    </row>
+    <row r="433" spans="3:4">
       <c r="C433" s="3"/>
-    </row>
-    <row r="434" spans="3:3">
+      <c r="D433" s="3"/>
+    </row>
+    <row r="434" spans="3:4">
       <c r="C434" s="3"/>
-    </row>
-    <row r="435" spans="3:3">
+      <c r="D434" s="3"/>
+    </row>
+    <row r="435" spans="3:4">
       <c r="C435" s="3"/>
-    </row>
-    <row r="437" spans="3:3">
+      <c r="D435" s="3"/>
+    </row>
+    <row r="437" spans="3:4">
       <c r="C437" s="3"/>
-    </row>
-    <row r="465" spans="3:3">
+      <c r="D437" s="3"/>
+    </row>
+    <row r="465" spans="3:4">
       <c r="C465" s="3"/>
-    </row>
-    <row r="466" spans="3:3">
+      <c r="D465" s="3"/>
+    </row>
+    <row r="466" spans="3:4">
       <c r="C466" s="3"/>
-    </row>
-    <row r="468" spans="3:3">
+      <c r="D466" s="3"/>
+    </row>
+    <row r="468" spans="3:4">
       <c r="C468" s="3"/>
-    </row>
-    <row r="486" spans="3:3">
+      <c r="D468" s="3"/>
+    </row>
+    <row r="486" spans="3:4">
       <c r="C486" s="3"/>
-    </row>
-    <row r="487" spans="3:3">
+      <c r="D486" s="3"/>
+    </row>
+    <row r="487" spans="3:4">
       <c r="C487" s="3"/>
-    </row>
-    <row r="488" spans="3:3">
+      <c r="D487" s="3"/>
+    </row>
+    <row r="488" spans="3:4">
       <c r="C488" s="3"/>
-    </row>
-    <row r="499" spans="3:3">
+      <c r="D488" s="3"/>
+    </row>
+    <row r="499" spans="3:4">
       <c r="C499" s="3"/>
-    </row>
-    <row r="500" spans="3:3">
+      <c r="D499" s="3"/>
+    </row>
+    <row r="500" spans="3:4">
       <c r="C500" s="3"/>
-    </row>
-    <row r="501" spans="3:3">
+      <c r="D500" s="3"/>
+    </row>
+    <row r="501" spans="3:4">
       <c r="C501" s="3"/>
-    </row>
-    <row r="502" spans="3:3">
+      <c r="D501" s="3"/>
+    </row>
+    <row r="502" spans="3:4">
       <c r="C502" s="3"/>
-    </row>
-    <row r="503" spans="3:3">
+      <c r="D502" s="3"/>
+    </row>
+    <row r="503" spans="3:4">
       <c r="C503" s="3"/>
-    </row>
-    <row r="504" spans="3:3">
+      <c r="D503" s="3"/>
+    </row>
+    <row r="504" spans="3:4">
       <c r="C504" s="3"/>
-    </row>
-    <row r="512" spans="3:3">
+      <c r="D504" s="3"/>
+    </row>
+    <row r="512" spans="3:4">
       <c r="C512" s="3"/>
-    </row>
-    <row r="513" spans="3:3">
+      <c r="D512" s="3"/>
+    </row>
+    <row r="513" spans="3:4">
       <c r="C513" s="3"/>
-    </row>
-    <row r="514" spans="3:3">
+      <c r="D513" s="3"/>
+    </row>
+    <row r="514" spans="3:4">
       <c r="C514" s="3"/>
-    </row>
-    <row r="516" spans="3:3">
+      <c r="D514" s="3"/>
+    </row>
+    <row r="516" spans="3:4">
       <c r="C516" s="3"/>
-    </row>
-    <row r="517" spans="3:3">
+      <c r="D516" s="3"/>
+    </row>
+    <row r="517" spans="3:4">
       <c r="C517" s="3"/>
-    </row>
-    <row r="518" spans="3:3">
+      <c r="D517" s="3"/>
+    </row>
+    <row r="518" spans="3:4">
       <c r="C518" s="3"/>
-    </row>
-    <row r="519" spans="3:3">
+      <c r="D518" s="3"/>
+    </row>
+    <row r="519" spans="3:4">
       <c r="C519" s="3"/>
-    </row>
-    <row r="520" spans="3:3">
+      <c r="D519" s="3"/>
+    </row>
+    <row r="520" spans="3:4">
       <c r="C520" s="3"/>
-    </row>
-    <row r="521" spans="3:3">
+      <c r="D520" s="3"/>
+    </row>
+    <row r="521" spans="3:4">
       <c r="C521" s="3"/>
-    </row>
-    <row r="522" spans="3:3">
+      <c r="D521" s="3"/>
+    </row>
+    <row r="522" spans="3:4">
       <c r="C522" s="3"/>
-    </row>
-    <row r="523" spans="3:3">
+      <c r="D522" s="3"/>
+    </row>
+    <row r="523" spans="3:4">
       <c r="C523" s="3"/>
-    </row>
-    <row r="525" spans="3:3">
+      <c r="D523" s="3"/>
+    </row>
+    <row r="525" spans="3:4">
       <c r="C525" s="3"/>
-    </row>
-    <row r="526" spans="3:3">
+      <c r="D525" s="3"/>
+    </row>
+    <row r="526" spans="3:4">
       <c r="C526" s="3"/>
-    </row>
-    <row r="527" spans="3:3">
+      <c r="D526" s="3"/>
+    </row>
+    <row r="527" spans="3:4">
       <c r="C527" s="3"/>
-    </row>
-    <row r="528" spans="3:3">
+      <c r="D527" s="3"/>
+    </row>
+    <row r="528" spans="3:4">
       <c r="C528" s="3"/>
-    </row>
-    <row r="529" spans="3:3">
+      <c r="D528" s="3"/>
+    </row>
+    <row r="529" spans="3:4">
       <c r="C529" s="3"/>
+      <c r="D529" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50419,21 +50809,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50688,19 +51078,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB44872-245C-4050-8D5A-4F56F81491E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9601448-6CA9-4800-A066-3B19FEBB998A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9177" uniqueCount="5354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9177" uniqueCount="5352">
   <si>
     <t>id</t>
   </si>
@@ -14356,9 +14356,6 @@
     <t xml:space="preserve">(3) The data processor, and any employee of the data fiduciary or the data processor, shall only process personal data in accordance with the instructions of the data fiduciary and treat it confidential. </t>
   </si>
   <si>
-    <t>8.2.1;8.2.2;7.2.6;7.2.7</t>
-  </si>
-  <si>
     <t>32 Grievance redressal by data fiduciary</t>
   </si>
   <si>
@@ -14497,9 +14494,6 @@
     <t xml:space="preserve">The provisions of Chapter II except section 4, Chapters III to V, Chapter VI except section 24, and Chapter VII shall not apply where—
 (a) personal data is processed in the interests of prevention, detection, investigation and prosecution of any offence or any other contravention of any law for the time being in force;
 </t>
-  </si>
-  <si>
-    <t>7.2.2;5.3.2;5.2.1</t>
   </si>
   <si>
     <t>36.b</t>
@@ -17342,9 +17336,6 @@
     <t>Alex's Notes</t>
   </si>
   <si>
-    <t>7.2.2;8.2.2;7.2.1;8.2.1</t>
-  </si>
-  <si>
     <t>8.2.2 duplicated</t>
   </si>
   <si>
@@ -17624,12 +17615,6 @@
     <t>5.2.1;5.3.2;7.2.2</t>
   </si>
   <si>
-    <t>7.2.2;5.3.2;5.2.1;7.4.4</t>
-  </si>
-  <si>
-    <t>7.2.2;5.3.2;5.2.1;7.2.5</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -17664,6 +17649,15 @@
   </si>
   <si>
     <t>India Draft PDPB</t>
+  </si>
+  <si>
+    <t>5.2.1;5.3.2;7.2.2;7.2.5</t>
+  </si>
+  <si>
+    <t>5.2.1;5.3.2;7.2.2;7.4.4</t>
+  </si>
+  <si>
+    <t>7.2.2;7.2.1;8.2.1;8.2.2</t>
   </si>
 </sst>
 </file>
@@ -18224,7 +18218,7 @@
         <v>2080</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -18232,10 +18226,10 @@
         <v>44062</v>
       </c>
       <c r="B8" t="s">
-        <v>5352</v>
+        <v>5347</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5353</v>
+        <v>5348</v>
       </c>
     </row>
   </sheetData>
@@ -18279,10 +18273,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="B2" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="C2" t="s">
         <v>1085</v>
@@ -18291,13 +18285,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="B3" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
       <c r="C3" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -18305,13 +18299,13 @@
     </row>
     <row r="4" spans="1:5" ht="150">
       <c r="A4" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
       <c r="B4" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -18319,13 +18313,13 @@
     </row>
     <row r="5" spans="1:5" ht="150">
       <c r="A5" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
       <c r="B5" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4355</v>
+        <v>4353</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -18333,13 +18327,13 @@
     </row>
     <row r="6" spans="1:5" ht="120">
       <c r="A6" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="B6" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -18347,10 +18341,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="B7" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="C7" t="s">
         <v>1087</v>
@@ -18358,13 +18352,13 @@
     </row>
     <row r="8" spans="1:5" ht="150">
       <c r="A8" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="B8" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
       <c r="E8" t="s">
         <v>1088</v>
@@ -18372,13 +18366,13 @@
     </row>
     <row r="9" spans="1:5" ht="135">
       <c r="A9" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="B9" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
       <c r="E9" t="s">
         <v>1091</v>
@@ -18386,13 +18380,13 @@
     </row>
     <row r="10" spans="1:5" ht="165">
       <c r="A10" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="B10" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
       <c r="E10" t="s">
         <v>1092</v>
@@ -18400,10 +18394,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="B11" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1097</v>
@@ -18411,10 +18405,10 @@
     </row>
     <row r="12" spans="1:5" ht="30">
       <c r="A12" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="B12" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1098</v>
@@ -18422,13 +18416,13 @@
     </row>
     <row r="13" spans="1:5" ht="135">
       <c r="A13" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="B13" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="E13" t="s">
         <v>1099</v>
@@ -18436,13 +18430,13 @@
     </row>
     <row r="14" spans="1:5" ht="150">
       <c r="A14" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="B14" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>4360</v>
+        <v>4358</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -18450,13 +18444,13 @@
     </row>
     <row r="15" spans="1:5" ht="150">
       <c r="A15" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
       <c r="B15" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4361</v>
+        <v>4359</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -18464,13 +18458,13 @@
     </row>
     <row r="16" spans="1:5" ht="165">
       <c r="A16" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="B16" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
       <c r="E16" t="s">
         <v>1102</v>
@@ -18478,10 +18472,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="B17" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1105</v>
@@ -18489,13 +18483,13 @@
     </row>
     <row r="18" spans="1:5" ht="135">
       <c r="A18" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="B18" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="E18" t="s">
         <v>1106</v>
@@ -18503,13 +18497,13 @@
     </row>
     <row r="19" spans="1:5" ht="150">
       <c r="A19" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="B19" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="E19" t="s">
         <v>1109</v>
@@ -18517,13 +18511,13 @@
     </row>
     <row r="20" spans="1:5" ht="135">
       <c r="A20" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="B20" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4365</v>
+        <v>4363</v>
       </c>
       <c r="E20" t="s">
         <v>1112</v>
@@ -18531,13 +18525,13 @@
     </row>
     <row r="21" spans="1:5" ht="180">
       <c r="A21" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="B21" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="E21" t="s">
         <v>1115</v>
@@ -18545,10 +18539,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>4411</v>
+        <v>4409</v>
       </c>
       <c r="B22" t="s">
-        <v>4411</v>
+        <v>4409</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1118</v>
@@ -18556,13 +18550,13 @@
     </row>
     <row r="23" spans="1:5" ht="180">
       <c r="A23" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
       <c r="B23" t="s">
-        <v>4413</v>
+        <v>4411</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="E23" t="s">
         <v>1119</v>
@@ -18570,13 +18564,13 @@
     </row>
     <row r="24" spans="1:5" ht="165">
       <c r="A24" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="B24" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="E24" t="s">
         <v>1123</v>
@@ -18584,13 +18578,13 @@
     </row>
     <row r="25" spans="1:5" ht="150">
       <c r="A25" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
       <c r="B25" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
       <c r="E25" t="s">
         <v>1126</v>
@@ -18598,10 +18592,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="B26" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1129</v>
@@ -18609,13 +18603,13 @@
     </row>
     <row r="27" spans="1:5" ht="135">
       <c r="A27" t="s">
-        <v>4419</v>
+        <v>4417</v>
       </c>
       <c r="B27" t="s">
-        <v>4420</v>
+        <v>4418</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="E27" t="s">
         <v>1130</v>
@@ -18623,13 +18617,13 @@
     </row>
     <row r="28" spans="1:5" ht="135">
       <c r="A28" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="B28" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>4371</v>
+        <v>4369</v>
       </c>
       <c r="E28" t="s">
         <v>1133</v>
@@ -18637,13 +18631,13 @@
     </row>
     <row r="29" spans="1:5" ht="135">
       <c r="A29" t="s">
-        <v>4423</v>
+        <v>4421</v>
       </c>
       <c r="B29" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
       <c r="E29" t="s">
         <v>1136</v>
@@ -18651,10 +18645,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>4425</v>
+        <v>4423</v>
       </c>
       <c r="B30" t="s">
-        <v>4425</v>
+        <v>4423</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>1139</v>
@@ -18662,13 +18656,13 @@
     </row>
     <row r="31" spans="1:5" ht="150">
       <c r="A31" t="s">
-        <v>4426</v>
+        <v>4424</v>
       </c>
       <c r="B31" t="s">
-        <v>4427</v>
+        <v>4425</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="E31" t="s">
         <v>1140</v>
@@ -18676,13 +18670,13 @@
     </row>
     <row r="32" spans="1:5" ht="150">
       <c r="A32" t="s">
-        <v>4428</v>
+        <v>4426</v>
       </c>
       <c r="B32" t="s">
-        <v>4429</v>
+        <v>4427</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="E32" t="s">
         <v>1143</v>
@@ -18690,13 +18684,13 @@
     </row>
     <row r="33" spans="1:5" ht="195">
       <c r="A33" t="s">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="B33" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="E33" t="s">
         <v>1146</v>
@@ -18704,10 +18698,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>4432</v>
+        <v>4430</v>
       </c>
       <c r="B34" t="s">
-        <v>4432</v>
+        <v>4430</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>1149</v>
@@ -18715,13 +18709,13 @@
     </row>
     <row r="35" spans="1:5" ht="150">
       <c r="A35" t="s">
-        <v>4433</v>
+        <v>4431</v>
       </c>
       <c r="B35" t="s">
-        <v>4434</v>
+        <v>4432</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="E35" t="s">
         <v>1150</v>
@@ -18729,13 +18723,13 @@
     </row>
     <row r="36" spans="1:5" ht="105">
       <c r="A36" t="s">
-        <v>4435</v>
+        <v>4433</v>
       </c>
       <c r="B36" t="s">
-        <v>4436</v>
+        <v>4434</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="E36" t="s">
         <v>1153</v>
@@ -18743,35 +18737,35 @@
     </row>
     <row r="37" spans="1:5" ht="30">
       <c r="A37" t="s">
-        <v>4437</v>
+        <v>4435</v>
       </c>
       <c r="B37" t="s">
-        <v>4437</v>
+        <v>4435</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>4438</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="105">
       <c r="A38" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4438</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>4439</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4440</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>4441</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
       <c r="A39" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4441</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>4442</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4443</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4444</v>
       </c>
       <c r="E39" t="s">
         <v>29</v>
@@ -18779,13 +18773,13 @@
     </row>
     <row r="40" spans="1:5" ht="120">
       <c r="A40" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4444</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>4445</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4446</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>4447</v>
       </c>
       <c r="E40" t="s">
         <v>1159</v>
@@ -18793,10 +18787,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>4448</v>
+        <v>4446</v>
       </c>
       <c r="B41" t="s">
-        <v>4448</v>
+        <v>4446</v>
       </c>
       <c r="C41" t="s">
         <v>1162</v>
@@ -18804,24 +18798,24 @@
     </row>
     <row r="42" spans="1:5" ht="105">
       <c r="A42" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>4450</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4451</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>4452</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45">
       <c r="A43" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>4454</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4455</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>4456</v>
       </c>
       <c r="E43" t="s">
         <v>33</v>
@@ -18829,13 +18823,13 @@
     </row>
     <row r="44" spans="1:5" ht="120">
       <c r="A44" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4456</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>4457</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4458</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>4459</v>
       </c>
       <c r="E44" t="s">
         <v>1164</v>
@@ -18843,13 +18837,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C45" t="s">
         <v>4460</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4461</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4462</v>
       </c>
       <c r="E45" t="s">
         <v>1167</v>
@@ -18857,13 +18851,13 @@
     </row>
     <row r="46" spans="1:5" ht="90">
       <c r="A46" t="s">
+        <v>4461</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>4463</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4464</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>4465</v>
       </c>
       <c r="E46" t="s">
         <v>1170</v>
@@ -18871,13 +18865,13 @@
     </row>
     <row r="47" spans="1:5" ht="75">
       <c r="A47" t="s">
+        <v>4464</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>4466</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4467</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>4468</v>
       </c>
       <c r="E47" t="s">
         <v>1173</v>
@@ -18885,24 +18879,24 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>4453</v>
+        <v>4451</v>
       </c>
       <c r="B48" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C48" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="75">
       <c r="A49" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4470</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>4471</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4472</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>4473</v>
       </c>
       <c r="E49" t="s">
         <v>37</v>
@@ -18910,13 +18904,13 @@
     </row>
     <row r="50" spans="1:5" ht="90">
       <c r="A50" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>4474</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4475</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>4476</v>
       </c>
       <c r="E50" t="s">
         <v>1177</v>
@@ -18924,10 +18918,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>4449</v>
+        <v>4447</v>
       </c>
       <c r="B51" t="s">
-        <v>4449</v>
+        <v>4447</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1180</v>
@@ -18935,24 +18929,24 @@
     </row>
     <row r="52" spans="1:5" ht="90">
       <c r="A52" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>4477</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4478</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>4479</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="120">
       <c r="A53" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>4482</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4483</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>4484</v>
       </c>
       <c r="E53" t="s">
         <v>1183</v>
@@ -18960,13 +18954,13 @@
     </row>
     <row r="54" spans="1:5" ht="105">
       <c r="A54" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4484</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>4485</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4486</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>4487</v>
       </c>
       <c r="E54" t="s">
         <v>1186</v>
@@ -18974,24 +18968,24 @@
     </row>
     <row r="55" spans="1:5" ht="75">
       <c r="A55" t="s">
-        <v>4480</v>
+        <v>4478</v>
       </c>
       <c r="B55" t="s">
-        <v>4488</v>
+        <v>4486</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>4489</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="120">
       <c r="A56" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>4490</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4491</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>4492</v>
       </c>
       <c r="E56" t="s">
         <v>1190</v>
@@ -18999,13 +18993,13 @@
     </row>
     <row r="57" spans="1:5" ht="135">
       <c r="A57" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B57" t="s">
         <v>4493</v>
       </c>
-      <c r="B57" t="s">
-        <v>4495</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="E57" t="s">
         <v>42</v>
@@ -19013,13 +19007,13 @@
     </row>
     <row r="58" spans="1:5" ht="105">
       <c r="A58" t="s">
-        <v>4494</v>
+        <v>4492</v>
       </c>
       <c r="B58" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
       <c r="E58" t="s">
         <v>1194</v>
@@ -19027,24 +19021,24 @@
     </row>
     <row r="59" spans="1:5" ht="75">
       <c r="A59" t="s">
-        <v>4481</v>
+        <v>4479</v>
       </c>
       <c r="B59" t="s">
-        <v>4499</v>
+        <v>4497</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>4500</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="120">
       <c r="A60" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>4501</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4502</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>4503</v>
       </c>
       <c r="E60" t="s">
         <v>1198</v>
@@ -19052,10 +19046,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>4504</v>
+        <v>4502</v>
       </c>
       <c r="B61" t="s">
-        <v>4504</v>
+        <v>4502</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>1201</v>
@@ -19063,24 +19057,24 @@
     </row>
     <row r="62" spans="1:5" ht="60">
       <c r="A62" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>4506</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4507</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>4508</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="105">
       <c r="A63" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4510</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>4511</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4512</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>4513</v>
       </c>
       <c r="E63" t="s">
         <v>1204</v>
@@ -19088,13 +19082,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C64" t="s">
         <v>4514</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4515</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4516</v>
       </c>
       <c r="E64" t="s">
         <v>1208</v>
@@ -19102,13 +19096,13 @@
     </row>
     <row r="65" spans="1:5" ht="120">
       <c r="A65" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>4517</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4518</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>4519</v>
       </c>
       <c r="E65" t="s">
         <v>1210</v>
@@ -19116,13 +19110,13 @@
     </row>
     <row r="66" spans="1:5" ht="120">
       <c r="A66" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>4520</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4521</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>4522</v>
       </c>
       <c r="E66" t="s">
         <v>1213</v>
@@ -19130,24 +19124,24 @@
     </row>
     <row r="67" spans="1:5" ht="90">
       <c r="A67" t="s">
-        <v>4509</v>
+        <v>4507</v>
       </c>
       <c r="B67" t="s">
-        <v>4523</v>
+        <v>4521</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>4524</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="90">
       <c r="A68" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>4525</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4526</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>4527</v>
       </c>
       <c r="E68" t="s">
         <v>47</v>
@@ -19155,13 +19149,13 @@
     </row>
     <row r="69" spans="1:5" ht="135">
       <c r="A69" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B69" t="s">
         <v>4528</v>
       </c>
-      <c r="B69" t="s">
-        <v>4530</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="E69" t="s">
         <v>50</v>
@@ -19169,13 +19163,13 @@
     </row>
     <row r="70" spans="1:5" ht="120">
       <c r="A70" t="s">
-        <v>4529</v>
+        <v>4527</v>
       </c>
       <c r="B70" t="s">
-        <v>4532</v>
+        <v>4530</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>4533</v>
+        <v>4531</v>
       </c>
       <c r="E70" t="s">
         <v>1217</v>
@@ -19183,24 +19177,24 @@
     </row>
     <row r="71" spans="1:5" ht="75">
       <c r="A71" t="s">
-        <v>4510</v>
+        <v>4508</v>
       </c>
       <c r="B71" t="s">
-        <v>4534</v>
+        <v>4532</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>4535</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="105">
       <c r="A72" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>4536</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4537</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>4538</v>
       </c>
       <c r="E72" t="s">
         <v>54</v>
@@ -19208,13 +19202,13 @@
     </row>
     <row r="73" spans="1:5" ht="60">
       <c r="A73" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B73" t="s">
         <v>4539</v>
       </c>
-      <c r="B73" t="s">
-        <v>4541</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>4542</v>
+        <v>4540</v>
       </c>
       <c r="E73" t="s">
         <v>57</v>
@@ -19222,13 +19216,13 @@
     </row>
     <row r="74" spans="1:5" ht="90">
       <c r="A74" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="B74" t="s">
-        <v>4543</v>
+        <v>4541</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="E74" t="s">
         <v>60</v>
@@ -19236,10 +19230,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>4505</v>
+        <v>4503</v>
       </c>
       <c r="B75" t="s">
-        <v>4505</v>
+        <v>4503</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>1221</v>
@@ -19247,24 +19241,24 @@
     </row>
     <row r="76" spans="1:5" ht="60">
       <c r="A76" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>4545</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4546</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>4547</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="90">
       <c r="A77" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>4548</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4549</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>4550</v>
       </c>
       <c r="E77" t="s">
         <v>1224</v>
@@ -19272,13 +19266,13 @@
     </row>
     <row r="78" spans="1:5" ht="90">
       <c r="A78" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4550</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>4551</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4552</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>4553</v>
       </c>
       <c r="E78" t="s">
         <v>1227</v>
@@ -19286,24 +19280,24 @@
     </row>
     <row r="79" spans="1:5" ht="75">
       <c r="A79" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4553</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>4554</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4555</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>4556</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="75">
       <c r="A80" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4556</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>4557</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4558</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>4559</v>
       </c>
       <c r="E80" t="s">
         <v>65</v>
@@ -19311,13 +19305,13 @@
     </row>
     <row r="81" spans="1:5" ht="90">
       <c r="A81" t="s">
-        <v>4560</v>
+        <v>4558</v>
       </c>
       <c r="B81" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>4564</v>
+        <v>4562</v>
       </c>
       <c r="E81" t="s">
         <v>68</v>
@@ -19325,13 +19319,13 @@
     </row>
     <row r="82" spans="1:5" ht="60">
       <c r="A82" t="s">
-        <v>4561</v>
+        <v>4559</v>
       </c>
       <c r="B82" t="s">
-        <v>4565</v>
+        <v>4563</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="E82" t="s">
         <v>71</v>
@@ -19339,13 +19333,13 @@
     </row>
     <row r="83" spans="1:5" ht="75">
       <c r="A83" t="s">
-        <v>4562</v>
+        <v>4560</v>
       </c>
       <c r="B83" t="s">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>4568</v>
+        <v>4566</v>
       </c>
       <c r="E83" t="s">
         <v>1233</v>
@@ -19353,13 +19347,13 @@
     </row>
     <row r="84" spans="1:5" ht="45">
       <c r="A84" t="s">
+        <v>4567</v>
+      </c>
+      <c r="B84" t="s">
         <v>4569</v>
       </c>
-      <c r="B84" t="s">
-        <v>4571</v>
-      </c>
       <c r="C84" s="3" t="s">
-        <v>4572</v>
+        <v>4570</v>
       </c>
       <c r="E84" t="s">
         <v>1234</v>
@@ -19367,13 +19361,13 @@
     </row>
     <row r="85" spans="1:5" ht="120">
       <c r="A85" t="s">
-        <v>4570</v>
+        <v>4568</v>
       </c>
       <c r="B85" t="s">
-        <v>4573</v>
+        <v>4571</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="E85" t="s">
         <v>1235</v>
@@ -19381,24 +19375,24 @@
     </row>
     <row r="86" spans="1:5" ht="75">
       <c r="A86" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B86" t="s">
         <v>4575</v>
       </c>
-      <c r="B86" t="s">
-        <v>4577</v>
-      </c>
       <c r="C86" s="3" t="s">
-        <v>4578</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="90">
       <c r="A87" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4578</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>4579</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4580</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>4581</v>
       </c>
       <c r="E87" t="s">
         <v>1244</v>
@@ -19406,24 +19400,24 @@
     </row>
     <row r="88" spans="1:5" ht="45">
       <c r="A88" t="s">
-        <v>4576</v>
+        <v>4574</v>
       </c>
       <c r="B88" t="s">
-        <v>4582</v>
+        <v>4580</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>4583</v>
+        <v>4581</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="90">
       <c r="A89" t="s">
+        <v>4582</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4583</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>4584</v>
-      </c>
-      <c r="B89" t="s">
-        <v>4585</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>4586</v>
       </c>
       <c r="E89" t="s">
         <v>1248</v>
@@ -19431,13 +19425,13 @@
     </row>
     <row r="90" spans="1:5" ht="90">
       <c r="A90" t="s">
+        <v>4585</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4586</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>4587</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4588</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>4589</v>
       </c>
       <c r="E90" t="s">
         <v>73</v>
@@ -19445,13 +19439,13 @@
     </row>
     <row r="91" spans="1:5" ht="60">
       <c r="A91" t="s">
-        <v>4590</v>
+        <v>4588</v>
       </c>
       <c r="B91" t="s">
-        <v>4593</v>
+        <v>4591</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>4594</v>
+        <v>4592</v>
       </c>
       <c r="E91" t="s">
         <v>1252</v>
@@ -19459,13 +19453,13 @@
     </row>
     <row r="92" spans="1:5" ht="90">
       <c r="A92" t="s">
-        <v>4591</v>
+        <v>4589</v>
       </c>
       <c r="B92" t="s">
-        <v>4595</v>
+        <v>4593</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>4596</v>
+        <v>4594</v>
       </c>
       <c r="E92" t="s">
         <v>1253</v>
@@ -19473,13 +19467,13 @@
     </row>
     <row r="93" spans="1:5" ht="30">
       <c r="A93" t="s">
-        <v>4592</v>
+        <v>4590</v>
       </c>
       <c r="B93" t="s">
-        <v>4597</v>
+        <v>4595</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="E93" t="s">
         <v>1254</v>
@@ -19487,10 +19481,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>4599</v>
+        <v>4597</v>
       </c>
       <c r="B94" t="s">
-        <v>4599</v>
+        <v>4597</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>1261</v>
@@ -19498,24 +19492,24 @@
     </row>
     <row r="95" spans="1:5" ht="90">
       <c r="A95" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>4606</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4607</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>4608</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="75">
       <c r="A96" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4608</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>4609</v>
-      </c>
-      <c r="B96" t="s">
-        <v>4610</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>4611</v>
       </c>
       <c r="E96" t="s">
         <v>77</v>
@@ -19523,13 +19517,13 @@
     </row>
     <row r="97" spans="1:5" ht="105">
       <c r="A97" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>4612</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4613</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>4614</v>
       </c>
       <c r="E97" t="s">
         <v>1263</v>
@@ -19537,10 +19531,10 @@
     </row>
     <row r="98" spans="1:5" ht="30">
       <c r="A98" t="s">
-        <v>4600</v>
+        <v>4598</v>
       </c>
       <c r="B98" t="s">
-        <v>4600</v>
+        <v>4598</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>1266</v>
@@ -19548,24 +19542,24 @@
     </row>
     <row r="99" spans="1:5" ht="105">
       <c r="A99" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>4615</v>
-      </c>
-      <c r="B99" t="s">
-        <v>4616</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>4617</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="105">
       <c r="A100" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4617</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>4618</v>
-      </c>
-      <c r="B100" t="s">
-        <v>4619</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>4620</v>
       </c>
       <c r="E100" t="s">
         <v>1269</v>
@@ -19573,13 +19567,13 @@
     </row>
     <row r="101" spans="1:5" ht="90">
       <c r="A101" t="s">
-        <v>4621</v>
+        <v>4619</v>
       </c>
       <c r="B101" t="s">
-        <v>4624</v>
+        <v>4622</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>4625</v>
+        <v>4623</v>
       </c>
       <c r="E101" t="s">
         <v>1272</v>
@@ -19587,13 +19581,13 @@
     </row>
     <row r="102" spans="1:5" ht="60">
       <c r="A102" t="s">
-        <v>4622</v>
+        <v>4620</v>
       </c>
       <c r="B102" t="s">
-        <v>4626</v>
+        <v>4624</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>4627</v>
+        <v>4625</v>
       </c>
       <c r="E102" t="s">
         <v>1273</v>
@@ -19601,13 +19595,13 @@
     </row>
     <row r="103" spans="1:5" ht="60">
       <c r="A103" t="s">
-        <v>4623</v>
+        <v>4621</v>
       </c>
       <c r="B103" t="s">
-        <v>4628</v>
+        <v>4626</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>4629</v>
+        <v>4627</v>
       </c>
       <c r="E103" t="s">
         <v>1274</v>
@@ -19615,13 +19609,13 @@
     </row>
     <row r="104" spans="1:5" ht="45">
       <c r="A104" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B104" t="s">
         <v>4630</v>
       </c>
-      <c r="B104" t="s">
-        <v>4632</v>
-      </c>
       <c r="C104" s="3" t="s">
-        <v>4633</v>
+        <v>4631</v>
       </c>
       <c r="E104" t="s">
         <v>1275</v>
@@ -19629,13 +19623,13 @@
     </row>
     <row r="105" spans="1:5" ht="105">
       <c r="A105" t="s">
-        <v>4631</v>
+        <v>4629</v>
       </c>
       <c r="B105" t="s">
-        <v>4634</v>
+        <v>4632</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>4635</v>
+        <v>4633</v>
       </c>
       <c r="E105" t="s">
         <v>1276</v>
@@ -19643,24 +19637,24 @@
     </row>
     <row r="106" spans="1:5" ht="75">
       <c r="A106" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4635</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>4636</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4637</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>4638</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="90">
       <c r="A107" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4638</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>4639</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4640</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>4641</v>
       </c>
       <c r="E107" t="s">
         <v>1288</v>
@@ -19668,13 +19662,13 @@
     </row>
     <row r="108" spans="1:5" ht="90">
       <c r="A108" t="s">
-        <v>4642</v>
+        <v>4640</v>
       </c>
       <c r="B108" t="s">
-        <v>4650</v>
+        <v>4648</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>4651</v>
+        <v>4649</v>
       </c>
       <c r="E108" t="s">
         <v>1289</v>
@@ -19682,13 +19676,13 @@
     </row>
     <row r="109" spans="1:5" ht="120">
       <c r="A109" t="s">
-        <v>4643</v>
+        <v>4641</v>
       </c>
       <c r="B109" t="s">
-        <v>4652</v>
+        <v>4650</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>4653</v>
+        <v>4651</v>
       </c>
       <c r="E109" t="s">
         <v>1290</v>
@@ -19696,13 +19690,13 @@
     </row>
     <row r="110" spans="1:5" ht="60">
       <c r="A110" t="s">
-        <v>4644</v>
+        <v>4642</v>
       </c>
       <c r="B110" t="s">
-        <v>4654</v>
+        <v>4652</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>4655</v>
+        <v>4653</v>
       </c>
       <c r="E110" t="s">
         <v>1291</v>
@@ -19710,13 +19704,13 @@
     </row>
     <row r="111" spans="1:5" ht="60">
       <c r="A111" t="s">
-        <v>4645</v>
+        <v>4643</v>
       </c>
       <c r="B111" t="s">
-        <v>4656</v>
+        <v>4654</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>4657</v>
+        <v>4655</v>
       </c>
       <c r="E111" t="s">
         <v>1292</v>
@@ -19724,13 +19718,13 @@
     </row>
     <row r="112" spans="1:5" ht="90">
       <c r="A112" t="s">
-        <v>4646</v>
+        <v>4644</v>
       </c>
       <c r="B112" t="s">
-        <v>4658</v>
+        <v>4656</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>4659</v>
+        <v>4657</v>
       </c>
       <c r="E112" t="s">
         <v>1293</v>
@@ -19738,13 +19732,13 @@
     </row>
     <row r="113" spans="1:5" ht="120">
       <c r="A113" t="s">
-        <v>4647</v>
+        <v>4645</v>
       </c>
       <c r="B113" t="s">
-        <v>4660</v>
+        <v>4658</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>4661</v>
+        <v>4659</v>
       </c>
       <c r="E113" t="s">
         <v>82</v>
@@ -19752,13 +19746,13 @@
     </row>
     <row r="114" spans="1:5" ht="45">
       <c r="A114" t="s">
-        <v>4648</v>
+        <v>4646</v>
       </c>
       <c r="B114" t="s">
-        <v>4662</v>
+        <v>4660</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>4663</v>
+        <v>4661</v>
       </c>
       <c r="E114" t="s">
         <v>1306</v>
@@ -19766,13 +19760,13 @@
     </row>
     <row r="115" spans="1:5" ht="105">
       <c r="A115" t="s">
-        <v>4649</v>
+        <v>4647</v>
       </c>
       <c r="B115" t="s">
-        <v>4664</v>
+        <v>4662</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>4665</v>
+        <v>4663</v>
       </c>
       <c r="E115" t="s">
         <v>85</v>
@@ -19780,10 +19774,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>4601</v>
+        <v>4599</v>
       </c>
       <c r="B116" t="s">
-        <v>4601</v>
+        <v>4599</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>1309</v>
@@ -19791,24 +19785,24 @@
     </row>
     <row r="117" spans="1:5" ht="60">
       <c r="A117" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4665</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>4666</v>
-      </c>
-      <c r="B117" t="s">
-        <v>4667</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>4668</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="60">
       <c r="A118" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4673</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>4674</v>
-      </c>
-      <c r="B118" t="s">
-        <v>4675</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>4676</v>
       </c>
       <c r="E118" t="s">
         <v>1311</v>
@@ -19816,13 +19810,13 @@
     </row>
     <row r="119" spans="1:5" ht="105">
       <c r="A119" t="s">
+        <v>4675</v>
+      </c>
+      <c r="B119" t="s">
         <v>4677</v>
       </c>
-      <c r="B119" t="s">
-        <v>4679</v>
-      </c>
       <c r="C119" s="3" t="s">
-        <v>4678</v>
+        <v>4676</v>
       </c>
       <c r="E119" t="s">
         <v>1312</v>
@@ -19830,13 +19824,13 @@
     </row>
     <row r="120" spans="1:5" ht="105">
       <c r="A120" t="s">
+        <v>4678</v>
+      </c>
+      <c r="B120" t="s">
         <v>4680</v>
       </c>
-      <c r="B120" t="s">
-        <v>4682</v>
-      </c>
       <c r="C120" s="3" t="s">
-        <v>4683</v>
+        <v>4681</v>
       </c>
       <c r="E120" t="s">
         <v>1313</v>
@@ -19844,13 +19838,13 @@
     </row>
     <row r="121" spans="1:5" ht="105">
       <c r="A121" t="s">
-        <v>4681</v>
+        <v>4679</v>
       </c>
       <c r="B121" t="s">
-        <v>4684</v>
+        <v>4682</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>4685</v>
+        <v>4683</v>
       </c>
       <c r="E121" t="s">
         <v>90</v>
@@ -19858,24 +19852,24 @@
     </row>
     <row r="122" spans="1:5" ht="75">
       <c r="A122" t="s">
-        <v>4669</v>
+        <v>4667</v>
       </c>
       <c r="B122" t="s">
-        <v>4686</v>
+        <v>4684</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>4687</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="90">
       <c r="A123" t="s">
+        <v>4686</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4687</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>4688</v>
-      </c>
-      <c r="B123" t="s">
-        <v>4689</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>4690</v>
       </c>
       <c r="E123" t="s">
         <v>1323</v>
@@ -19883,24 +19877,24 @@
     </row>
     <row r="124" spans="1:5" ht="30">
       <c r="A124" t="s">
-        <v>4670</v>
+        <v>4668</v>
       </c>
       <c r="B124" t="s">
-        <v>4691</v>
+        <v>4689</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>4692</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="90">
       <c r="A125" t="s">
+        <v>4691</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4692</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>4693</v>
-      </c>
-      <c r="B125" t="s">
-        <v>4694</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>4695</v>
       </c>
       <c r="E125" t="s">
         <v>92</v>
@@ -19908,24 +19902,24 @@
     </row>
     <row r="126" spans="1:5" ht="45">
       <c r="A126" t="s">
-        <v>4671</v>
+        <v>4669</v>
       </c>
       <c r="B126" t="s">
-        <v>4696</v>
+        <v>4694</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>4697</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="90">
       <c r="A127" t="s">
+        <v>4697</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4698</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>4699</v>
-      </c>
-      <c r="B127" t="s">
-        <v>4700</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>4701</v>
       </c>
       <c r="E127" t="s">
         <v>96</v>
@@ -19933,13 +19927,13 @@
     </row>
     <row r="128" spans="1:5" ht="75">
       <c r="A128" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B128" t="s">
         <v>4702</v>
       </c>
-      <c r="B128" t="s">
-        <v>4704</v>
-      </c>
       <c r="C128" s="3" t="s">
-        <v>4705</v>
+        <v>4703</v>
       </c>
       <c r="E128" t="s">
         <v>99</v>
@@ -19947,13 +19941,13 @@
     </row>
     <row r="129" spans="1:5" ht="75">
       <c r="A129" t="s">
-        <v>4703</v>
+        <v>4701</v>
       </c>
       <c r="B129" t="s">
-        <v>4706</v>
+        <v>4704</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>4707</v>
+        <v>4705</v>
       </c>
       <c r="E129" t="s">
         <v>1329</v>
@@ -19961,13 +19955,13 @@
     </row>
     <row r="130" spans="1:5" ht="105">
       <c r="A130" t="s">
+        <v>4706</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4707</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>4708</v>
-      </c>
-      <c r="B130" t="s">
-        <v>4709</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>4710</v>
       </c>
       <c r="E130" t="s">
         <v>1330</v>
@@ -19975,24 +19969,24 @@
     </row>
     <row r="131" spans="1:5" ht="45">
       <c r="A131" t="s">
-        <v>4672</v>
+        <v>4670</v>
       </c>
       <c r="B131" t="s">
-        <v>4711</v>
+        <v>4709</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>4712</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="60">
       <c r="A132" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>4713</v>
-      </c>
-      <c r="B132" t="s">
-        <v>4714</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>4715</v>
       </c>
       <c r="E132" t="s">
         <v>1337</v>
@@ -20000,24 +19994,24 @@
     </row>
     <row r="133" spans="1:5" ht="45">
       <c r="A133" t="s">
-        <v>4673</v>
+        <v>4671</v>
       </c>
       <c r="B133" t="s">
-        <v>4716</v>
+        <v>4714</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>4717</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="135">
       <c r="A134" t="s">
+        <v>4716</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4717</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>4718</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4719</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>4720</v>
       </c>
       <c r="E134" t="s">
         <v>1342</v>
@@ -20025,13 +20019,13 @@
     </row>
     <row r="135" spans="1:5" ht="75">
       <c r="A135" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4720</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>4721</v>
-      </c>
-      <c r="B135" t="s">
-        <v>4722</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>4723</v>
       </c>
       <c r="E135" t="s">
         <v>1345</v>
@@ -20039,24 +20033,24 @@
     </row>
     <row r="136" spans="1:5" ht="45">
       <c r="A136" t="s">
-        <v>4698</v>
+        <v>4696</v>
       </c>
       <c r="B136" t="s">
-        <v>4724</v>
+        <v>4722</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>4725</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="120">
       <c r="A137" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4725</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>4726</v>
-      </c>
-      <c r="B137" t="s">
-        <v>4727</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>4728</v>
       </c>
       <c r="E137" t="s">
         <v>1350</v>
@@ -20064,10 +20058,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="B138" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="C138" t="s">
         <v>1353</v>
@@ -20075,24 +20069,24 @@
     </row>
     <row r="139" spans="1:5" ht="75">
       <c r="A139" t="s">
+        <v>4727</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4728</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>4729</v>
-      </c>
-      <c r="B139" t="s">
-        <v>4730</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>4731</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="60">
       <c r="A140" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4732</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>4733</v>
-      </c>
-      <c r="B140" t="s">
-        <v>4734</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>4735</v>
       </c>
       <c r="E140" t="s">
         <v>1356</v>
@@ -20100,13 +20094,13 @@
     </row>
     <row r="141" spans="1:5" ht="150">
       <c r="A141" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B141" t="s">
         <v>4736</v>
       </c>
-      <c r="B141" t="s">
-        <v>4738</v>
-      </c>
       <c r="C141" s="3" t="s">
-        <v>4739</v>
+        <v>4737</v>
       </c>
       <c r="E141" t="s">
         <v>1359</v>
@@ -20114,13 +20108,13 @@
     </row>
     <row r="142" spans="1:5" ht="75">
       <c r="A142" t="s">
-        <v>4737</v>
+        <v>4735</v>
       </c>
       <c r="B142" t="s">
-        <v>4741</v>
+        <v>4739</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>4740</v>
+        <v>4738</v>
       </c>
       <c r="E142" t="s">
         <v>1360</v>
@@ -20128,24 +20122,24 @@
     </row>
     <row r="143" spans="1:5" ht="75">
       <c r="A143" t="s">
-        <v>4732</v>
+        <v>4730</v>
       </c>
       <c r="B143" t="s">
-        <v>4742</v>
+        <v>4740</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>4743</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="105">
       <c r="A144" t="s">
+        <v>4742</v>
+      </c>
+      <c r="B144" t="s">
         <v>4744</v>
       </c>
-      <c r="B144" t="s">
-        <v>4746</v>
-      </c>
       <c r="C144" s="3" t="s">
-        <v>4745</v>
+        <v>4743</v>
       </c>
       <c r="E144" t="s">
         <v>104</v>
@@ -20153,13 +20147,13 @@
     </row>
     <row r="145" spans="1:5" ht="75">
       <c r="A145" t="s">
-        <v>4747</v>
+        <v>4745</v>
       </c>
       <c r="B145" t="s">
-        <v>4750</v>
+        <v>4748</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>4751</v>
+        <v>4749</v>
       </c>
       <c r="E145" t="s">
         <v>1366</v>
@@ -20167,13 +20161,13 @@
     </row>
     <row r="146" spans="1:5" ht="60">
       <c r="A146" t="s">
-        <v>4748</v>
+        <v>4746</v>
       </c>
       <c r="B146" t="s">
-        <v>4752</v>
+        <v>4750</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>4753</v>
+        <v>4751</v>
       </c>
       <c r="E146" t="s">
         <v>1367</v>
@@ -20181,13 +20175,13 @@
     </row>
     <row r="147" spans="1:5" ht="150">
       <c r="A147" t="s">
-        <v>4749</v>
+        <v>4747</v>
       </c>
       <c r="B147" t="s">
-        <v>4754</v>
+        <v>4752</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>4755</v>
+        <v>4753</v>
       </c>
       <c r="E147" t="s">
         <v>107</v>
@@ -20195,35 +20189,35 @@
     </row>
     <row r="148" spans="1:5" ht="45">
       <c r="A148" t="s">
-        <v>4603</v>
+        <v>4601</v>
       </c>
       <c r="B148" t="s">
-        <v>4603</v>
+        <v>4601</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>4756</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="120">
       <c r="A149" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B149" t="s">
         <v>4757</v>
       </c>
-      <c r="B149" t="s">
-        <v>4759</v>
-      </c>
       <c r="C149" s="3" t="s">
-        <v>4760</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="105">
       <c r="A150" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4760</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>4761</v>
-      </c>
-      <c r="B150" t="s">
-        <v>4762</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>4763</v>
       </c>
       <c r="E150" t="s">
         <v>1373</v>
@@ -20231,13 +20225,13 @@
     </row>
     <row r="151" spans="1:5" ht="135">
       <c r="A151" t="s">
+        <v>4762</v>
+      </c>
+      <c r="B151" t="s">
         <v>4764</v>
       </c>
-      <c r="B151" t="s">
-        <v>4766</v>
-      </c>
       <c r="C151" s="3" t="s">
-        <v>4767</v>
+        <v>4765</v>
       </c>
       <c r="E151" t="s">
         <v>112</v>
@@ -20245,13 +20239,13 @@
     </row>
     <row r="152" spans="1:5" ht="150">
       <c r="A152" t="s">
-        <v>4765</v>
+        <v>4763</v>
       </c>
       <c r="B152" t="s">
-        <v>4768</v>
+        <v>4766</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>4769</v>
+        <v>4767</v>
       </c>
       <c r="E152" t="s">
         <v>1376</v>
@@ -20259,24 +20253,24 @@
     </row>
     <row r="153" spans="1:5" ht="90">
       <c r="A153" t="s">
-        <v>4758</v>
+        <v>4756</v>
       </c>
       <c r="B153" t="s">
-        <v>4770</v>
+        <v>4768</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>4771</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="75">
       <c r="A154" t="s">
+        <v>4770</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4771</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>4772</v>
-      </c>
-      <c r="B154" t="s">
-        <v>4773</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>4774</v>
       </c>
       <c r="E154" t="s">
         <v>116</v>
@@ -20284,13 +20278,13 @@
     </row>
     <row r="155" spans="1:5" ht="75">
       <c r="A155" t="s">
-        <v>4775</v>
+        <v>4773</v>
       </c>
       <c r="B155" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="E155" t="s">
         <v>1380</v>
@@ -20298,13 +20292,13 @@
     </row>
     <row r="156" spans="1:5" ht="105">
       <c r="A156" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="B156" t="s">
-        <v>4780</v>
+        <v>4778</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>4781</v>
+        <v>4779</v>
       </c>
       <c r="E156" t="s">
         <v>1381</v>
@@ -20312,13 +20306,13 @@
     </row>
     <row r="157" spans="1:5" ht="90">
       <c r="A157" t="s">
-        <v>4777</v>
+        <v>4775</v>
       </c>
       <c r="B157" t="s">
-        <v>4782</v>
+        <v>4780</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>4783</v>
+        <v>4781</v>
       </c>
       <c r="E157" t="s">
         <v>1382</v>
@@ -20326,13 +20320,13 @@
     </row>
     <row r="158" spans="1:5" ht="90">
       <c r="A158" t="s">
-        <v>4784</v>
+        <v>4782</v>
       </c>
       <c r="B158" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>4789</v>
+        <v>4787</v>
       </c>
       <c r="E158" t="s">
         <v>119</v>
@@ -20340,13 +20334,13 @@
     </row>
     <row r="159" spans="1:5" ht="135">
       <c r="A159" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
       <c r="B159" t="s">
-        <v>4790</v>
+        <v>4788</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>4791</v>
+        <v>4789</v>
       </c>
       <c r="E159" t="s">
         <v>1389</v>
@@ -20354,13 +20348,13 @@
     </row>
     <row r="160" spans="1:5" ht="60">
       <c r="A160" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="B160" t="s">
-        <v>4792</v>
+        <v>4790</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>4793</v>
+        <v>4791</v>
       </c>
       <c r="E160" t="s">
         <v>1390</v>
@@ -20368,13 +20362,13 @@
     </row>
     <row r="161" spans="1:5" ht="60">
       <c r="A161" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="B161" t="s">
-        <v>4795</v>
+        <v>4793</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>4796</v>
+        <v>4794</v>
       </c>
       <c r="E161" t="s">
         <v>1391</v>
@@ -20382,13 +20376,13 @@
     </row>
     <row r="162" spans="1:5" ht="105">
       <c r="A162" t="s">
-        <v>4794</v>
+        <v>4792</v>
       </c>
       <c r="B162" t="s">
-        <v>4797</v>
+        <v>4795</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>4798</v>
+        <v>4796</v>
       </c>
       <c r="E162" t="s">
         <v>1392</v>
@@ -20396,24 +20390,24 @@
     </row>
     <row r="163" spans="1:5" ht="45">
       <c r="A163" t="s">
-        <v>4799</v>
+        <v>4797</v>
       </c>
       <c r="B163" t="s">
-        <v>4799</v>
+        <v>4797</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>4800</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="45">
       <c r="A164" t="s">
+        <v>4799</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4800</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>4801</v>
-      </c>
-      <c r="B164" t="s">
-        <v>4802</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>4803</v>
       </c>
       <c r="E164" t="s">
         <v>123</v>
@@ -20421,10 +20415,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>4604</v>
+        <v>4602</v>
       </c>
       <c r="B165" t="s">
-        <v>4604</v>
+        <v>4602</v>
       </c>
       <c r="C165" t="s">
         <v>1402</v>
@@ -20432,24 +20426,24 @@
     </row>
     <row r="166" spans="1:5" ht="60">
       <c r="A166" t="s">
+        <v>4802</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4803</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>4804</v>
-      </c>
-      <c r="B166" t="s">
-        <v>4805</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>4806</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="120">
       <c r="A167" t="s">
+        <v>4805</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4806</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>4807</v>
-      </c>
-      <c r="B167" t="s">
-        <v>4808</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>4809</v>
       </c>
       <c r="E167" t="s">
         <v>1404</v>
@@ -20457,13 +20451,13 @@
     </row>
     <row r="168" spans="1:5" ht="120">
       <c r="A168" t="s">
+        <v>4808</v>
+      </c>
+      <c r="B168" t="s">
         <v>4810</v>
       </c>
-      <c r="B168" t="s">
-        <v>4812</v>
-      </c>
       <c r="C168" s="3" t="s">
-        <v>4813</v>
+        <v>4811</v>
       </c>
       <c r="E168" t="s">
         <v>128</v>
@@ -20471,13 +20465,13 @@
     </row>
     <row r="169" spans="1:5" ht="135">
       <c r="A169" t="s">
-        <v>4811</v>
+        <v>4809</v>
       </c>
       <c r="B169" t="s">
-        <v>4814</v>
+        <v>4812</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>4815</v>
+        <v>4813</v>
       </c>
       <c r="E169" t="s">
         <v>1407</v>
@@ -20485,24 +20479,24 @@
     </row>
     <row r="170" spans="1:5" ht="75">
       <c r="A170" t="s">
+        <v>4814</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4815</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>4816</v>
-      </c>
-      <c r="B170" t="s">
-        <v>4817</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>4818</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="60">
       <c r="A171" t="s">
+        <v>4817</v>
+      </c>
+      <c r="B171" t="s">
         <v>4819</v>
       </c>
-      <c r="B171" t="s">
-        <v>4821</v>
-      </c>
       <c r="C171" s="3" t="s">
-        <v>4822</v>
+        <v>4820</v>
       </c>
       <c r="E171" t="s">
         <v>1412</v>
@@ -20510,13 +20504,13 @@
     </row>
     <row r="172" spans="1:5" ht="135">
       <c r="A172" t="s">
-        <v>4820</v>
+        <v>4818</v>
       </c>
       <c r="B172" t="s">
-        <v>4823</v>
+        <v>4821</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>4824</v>
+        <v>4822</v>
       </c>
       <c r="E172" t="s">
         <v>1415</v>
@@ -20524,10 +20518,10 @@
     </row>
     <row r="173" spans="1:5" ht="30">
       <c r="A173" t="s">
-        <v>4605</v>
+        <v>4603</v>
       </c>
       <c r="B173" t="s">
-        <v>4605</v>
+        <v>4603</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>1418</v>
@@ -20535,24 +20529,24 @@
     </row>
     <row r="174" spans="1:5" ht="120">
       <c r="A174" t="s">
+        <v>4823</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4824</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>4825</v>
-      </c>
-      <c r="B174" t="s">
-        <v>4826</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>4827</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="120">
       <c r="A175" t="s">
+        <v>4826</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4827</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>4828</v>
-      </c>
-      <c r="B175" t="s">
-        <v>4829</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>4830</v>
       </c>
       <c r="E175" t="s">
         <v>133</v>
@@ -20560,13 +20554,13 @@
     </row>
     <row r="176" spans="1:5" ht="75">
       <c r="A176" t="s">
-        <v>4831</v>
+        <v>4829</v>
       </c>
       <c r="B176" t="s">
-        <v>4837</v>
+        <v>4835</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>4838</v>
+        <v>4836</v>
       </c>
       <c r="E176" t="s">
         <v>1420</v>
@@ -20574,13 +20568,13 @@
     </row>
     <row r="177" spans="1:5" ht="135">
       <c r="A177" t="s">
-        <v>4832</v>
+        <v>4830</v>
       </c>
       <c r="B177" t="s">
-        <v>4839</v>
+        <v>4837</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>4840</v>
+        <v>4838</v>
       </c>
       <c r="E177" t="s">
         <v>1421</v>
@@ -20588,13 +20582,13 @@
     </row>
     <row r="178" spans="1:5" ht="90">
       <c r="A178" t="s">
-        <v>4833</v>
+        <v>4831</v>
       </c>
       <c r="B178" t="s">
-        <v>4841</v>
+        <v>4839</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>4842</v>
+        <v>4840</v>
       </c>
       <c r="E178" t="s">
         <v>1422</v>
@@ -20602,13 +20596,13 @@
     </row>
     <row r="179" spans="1:5" ht="75">
       <c r="A179" t="s">
-        <v>4834</v>
+        <v>4832</v>
       </c>
       <c r="B179" t="s">
-        <v>4843</v>
+        <v>4841</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>4844</v>
+        <v>4842</v>
       </c>
       <c r="E179" t="s">
         <v>136</v>
@@ -20616,13 +20610,13 @@
     </row>
     <row r="180" spans="1:5" ht="90">
       <c r="A180" t="s">
-        <v>4835</v>
+        <v>4833</v>
       </c>
       <c r="B180" t="s">
-        <v>4845</v>
+        <v>4843</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>4846</v>
+        <v>4844</v>
       </c>
       <c r="E180" t="s">
         <v>1429</v>
@@ -20630,13 +20624,13 @@
     </row>
     <row r="181" spans="1:5" ht="120">
       <c r="A181" t="s">
-        <v>4836</v>
+        <v>4834</v>
       </c>
       <c r="B181" t="s">
-        <v>4847</v>
+        <v>4845</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="E181" t="s">
         <v>1430</v>
@@ -20644,10 +20638,10 @@
     </row>
     <row r="182" spans="1:5" ht="45">
       <c r="A182" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="B182" t="s">
-        <v>4849</v>
+        <v>4847</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>1435</v>
@@ -20655,24 +20649,24 @@
     </row>
     <row r="183" spans="1:5" ht="90">
       <c r="A183" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4849</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>4850</v>
-      </c>
-      <c r="B183" t="s">
-        <v>4851</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>4852</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="135">
       <c r="A184" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4852</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>4853</v>
-      </c>
-      <c r="B184" t="s">
-        <v>4854</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>4855</v>
       </c>
       <c r="E184" t="s">
         <v>1438</v>
@@ -20680,13 +20674,13 @@
     </row>
     <row r="185" spans="1:5" ht="135">
       <c r="A185" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B185" t="s">
         <v>4856</v>
       </c>
-      <c r="B185" t="s">
-        <v>4858</v>
-      </c>
       <c r="C185" s="3" t="s">
-        <v>4859</v>
+        <v>4857</v>
       </c>
       <c r="E185" t="s">
         <v>1439</v>
@@ -20694,13 +20688,13 @@
     </row>
     <row r="186" spans="1:5" ht="105">
       <c r="A186" t="s">
-        <v>4857</v>
+        <v>4855</v>
       </c>
       <c r="B186" t="s">
-        <v>4860</v>
+        <v>4858</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>4861</v>
+        <v>4859</v>
       </c>
       <c r="E186" t="s">
         <v>1440</v>
@@ -20708,24 +20702,24 @@
     </row>
     <row r="187" spans="1:5" ht="45">
       <c r="A187" t="s">
+        <v>4860</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4861</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>4862</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4863</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>4864</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="90">
       <c r="A188" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4864</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>4865</v>
-      </c>
-      <c r="B188" t="s">
-        <v>4866</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>4867</v>
       </c>
       <c r="E188" t="s">
         <v>1449</v>
@@ -20733,10 +20727,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>4868</v>
+        <v>4866</v>
       </c>
       <c r="B189" t="s">
-        <v>4868</v>
+        <v>4866</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>1452</v>
@@ -20744,24 +20738,24 @@
     </row>
     <row r="190" spans="1:5" ht="105">
       <c r="A190" t="s">
+        <v>4867</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4868</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>4869</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4870</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>4871</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="135">
       <c r="A191" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4871</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>4872</v>
-      </c>
-      <c r="B191" t="s">
-        <v>4873</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>4874</v>
       </c>
       <c r="E191" t="s">
         <v>141</v>
@@ -20769,13 +20763,13 @@
     </row>
     <row r="192" spans="1:5" ht="135">
       <c r="A192" t="s">
-        <v>4875</v>
+        <v>4873</v>
       </c>
       <c r="B192" t="s">
-        <v>4879</v>
+        <v>4877</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>4880</v>
+        <v>4878</v>
       </c>
       <c r="E192" t="s">
         <v>1454</v>
@@ -20783,13 +20777,13 @@
     </row>
     <row r="193" spans="1:5" ht="135">
       <c r="A193" t="s">
-        <v>4876</v>
+        <v>4874</v>
       </c>
       <c r="B193" t="s">
-        <v>4881</v>
+        <v>4879</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>4882</v>
+        <v>4880</v>
       </c>
       <c r="E193" t="s">
         <v>144</v>
@@ -20797,13 +20791,13 @@
     </row>
     <row r="194" spans="1:5" ht="105">
       <c r="A194" t="s">
-        <v>4877</v>
+        <v>4875</v>
       </c>
       <c r="B194" t="s">
-        <v>4883</v>
+        <v>4881</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>4884</v>
+        <v>4882</v>
       </c>
       <c r="E194" t="s">
         <v>1457</v>
@@ -20811,13 +20805,13 @@
     </row>
     <row r="195" spans="1:5" ht="75">
       <c r="A195" t="s">
-        <v>4878</v>
+        <v>4876</v>
       </c>
       <c r="B195" t="s">
-        <v>4885</v>
+        <v>4883</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>4886</v>
+        <v>4884</v>
       </c>
       <c r="E195" t="s">
         <v>1458</v>
@@ -20825,24 +20819,24 @@
     </row>
     <row r="196" spans="1:5" ht="90">
       <c r="A196" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>4887</v>
-      </c>
-      <c r="B196" t="s">
-        <v>4888</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>4889</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="150">
       <c r="A197" t="s">
+        <v>4888</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4889</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>4890</v>
-      </c>
-      <c r="B197" t="s">
-        <v>4891</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>4892</v>
       </c>
       <c r="E197" t="s">
         <v>148</v>
@@ -20850,13 +20844,13 @@
     </row>
     <row r="198" spans="1:5" ht="120">
       <c r="A198" t="s">
+        <v>4891</v>
+      </c>
+      <c r="B198" t="s">
         <v>4893</v>
       </c>
-      <c r="B198" t="s">
-        <v>4895</v>
-      </c>
       <c r="C198" s="3" t="s">
-        <v>4896</v>
+        <v>4894</v>
       </c>
       <c r="E198" t="s">
         <v>1464</v>
@@ -20864,13 +20858,13 @@
     </row>
     <row r="199" spans="1:5" ht="90">
       <c r="A199" t="s">
-        <v>4894</v>
+        <v>4892</v>
       </c>
       <c r="B199" t="s">
-        <v>4897</v>
+        <v>4895</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>4898</v>
+        <v>4896</v>
       </c>
       <c r="E199" t="s">
         <v>151</v>
@@ -20915,66 +20909,66 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>4897</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4898</v>
+      </c>
+      <c r="C2" t="s">
         <v>4899</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4900</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4901</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4902</v>
+        <v>4900</v>
       </c>
       <c r="B3" t="s">
-        <v>4902</v>
+        <v>4900</v>
       </c>
       <c r="C3" t="s">
-        <v>4908</v>
+        <v>4906</v>
       </c>
       <c r="E3" t="s">
-        <v>5184</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4903</v>
+        <v>4901</v>
       </c>
       <c r="B4" t="s">
-        <v>4903</v>
+        <v>4901</v>
       </c>
       <c r="C4" t="s">
-        <v>4909</v>
+        <v>4907</v>
       </c>
       <c r="E4" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4904</v>
+        <v>4902</v>
       </c>
       <c r="B5" t="s">
-        <v>4904</v>
+        <v>4902</v>
       </c>
       <c r="C5" t="s">
-        <v>4910</v>
+        <v>4908</v>
       </c>
       <c r="E5" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4905</v>
+        <v>4903</v>
       </c>
       <c r="B6" t="s">
-        <v>4905</v>
+        <v>4903</v>
       </c>
       <c r="C6" t="s">
-        <v>4911</v>
+        <v>4909</v>
       </c>
       <c r="E6" t="s">
         <v>1293</v>
@@ -20982,13 +20976,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4906</v>
+        <v>4904</v>
       </c>
       <c r="B7" t="s">
-        <v>4906</v>
+        <v>4904</v>
       </c>
       <c r="C7" t="s">
-        <v>4912</v>
+        <v>4910</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -20996,13 +20990,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>4907</v>
+        <v>4905</v>
       </c>
       <c r="B8" t="s">
-        <v>4907</v>
+        <v>4905</v>
       </c>
       <c r="C8" t="s">
-        <v>4913</v>
+        <v>4911</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -21010,38 +21004,38 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>4914</v>
+        <v>4912</v>
       </c>
       <c r="B9" t="s">
-        <v>4920</v>
+        <v>4918</v>
       </c>
       <c r="C9" t="s">
-        <v>4921</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>4915</v>
+        <v>4913</v>
       </c>
       <c r="B10" t="s">
-        <v>4915</v>
+        <v>4913</v>
       </c>
       <c r="C10" t="s">
-        <v>4922</v>
+        <v>4920</v>
       </c>
       <c r="E10" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>4916</v>
+        <v>4914</v>
       </c>
       <c r="B11" t="s">
-        <v>4916</v>
+        <v>4914</v>
       </c>
       <c r="C11" t="s">
-        <v>4923</v>
+        <v>4921</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -21049,63 +21043,63 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>4917</v>
+        <v>4915</v>
       </c>
       <c r="B12" t="s">
-        <v>4917</v>
+        <v>4915</v>
       </c>
       <c r="C12" t="s">
-        <v>4924</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>4918</v>
+        <v>4916</v>
       </c>
       <c r="B13" t="s">
-        <v>4918</v>
+        <v>4916</v>
       </c>
       <c r="C13" t="s">
-        <v>4925</v>
+        <v>4923</v>
       </c>
       <c r="E13" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>4919</v>
+        <v>4917</v>
       </c>
       <c r="B14" t="s">
-        <v>4919</v>
+        <v>4917</v>
       </c>
       <c r="C14" t="s">
-        <v>4926</v>
+        <v>4924</v>
       </c>
       <c r="E14" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>4927</v>
+        <v>4925</v>
       </c>
       <c r="B15" t="s">
-        <v>4932</v>
+        <v>4930</v>
       </c>
       <c r="C15" t="s">
-        <v>4933</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>4928</v>
+        <v>4926</v>
       </c>
       <c r="B16" t="s">
-        <v>4928</v>
+        <v>4926</v>
       </c>
       <c r="C16" t="s">
-        <v>4934</v>
+        <v>4932</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -21113,80 +21107,80 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>4929</v>
+        <v>4927</v>
       </c>
       <c r="B17" t="s">
-        <v>4929</v>
+        <v>4927</v>
       </c>
       <c r="C17" t="s">
-        <v>4935</v>
+        <v>4933</v>
       </c>
       <c r="E17" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>4930</v>
+        <v>4928</v>
       </c>
       <c r="B18" t="s">
-        <v>4930</v>
+        <v>4928</v>
       </c>
       <c r="C18" t="s">
-        <v>4936</v>
+        <v>4934</v>
       </c>
       <c r="E18" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>4931</v>
+        <v>4929</v>
       </c>
       <c r="B19" t="s">
-        <v>4931</v>
+        <v>4929</v>
       </c>
       <c r="C19" t="s">
-        <v>4937</v>
+        <v>4935</v>
       </c>
       <c r="E19" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>4938</v>
+        <v>4936</v>
       </c>
       <c r="B20" t="s">
-        <v>4945</v>
+        <v>4943</v>
       </c>
       <c r="C20" t="s">
-        <v>4946</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>4939</v>
+        <v>4937</v>
       </c>
       <c r="B21" t="s">
-        <v>4939</v>
+        <v>4937</v>
       </c>
       <c r="C21" t="s">
-        <v>4947</v>
+        <v>4945</v>
       </c>
       <c r="E21" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>4940</v>
+        <v>4938</v>
       </c>
       <c r="B22" t="s">
-        <v>4940</v>
+        <v>4938</v>
       </c>
       <c r="C22" t="s">
-        <v>4948</v>
+        <v>4946</v>
       </c>
       <c r="E22" t="s">
         <v>1170</v>
@@ -21194,13 +21188,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>4941</v>
+        <v>4939</v>
       </c>
       <c r="B23" t="s">
-        <v>4941</v>
+        <v>4939</v>
       </c>
       <c r="C23" t="s">
-        <v>4949</v>
+        <v>4947</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -21208,27 +21202,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>4942</v>
+        <v>4940</v>
       </c>
       <c r="B24" t="s">
-        <v>4942</v>
+        <v>4940</v>
       </c>
       <c r="C24" t="s">
-        <v>4950</v>
+        <v>4948</v>
       </c>
       <c r="E24" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>4943</v>
+        <v>4941</v>
       </c>
       <c r="B25" t="s">
-        <v>4943</v>
+        <v>4941</v>
       </c>
       <c r="C25" t="s">
-        <v>4951</v>
+        <v>4949</v>
       </c>
       <c r="E25" t="s">
         <v>1342</v>
@@ -21236,13 +21230,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>4944</v>
+        <v>4942</v>
       </c>
       <c r="B26" t="s">
-        <v>4944</v>
+        <v>4942</v>
       </c>
       <c r="C26" t="s">
-        <v>4952</v>
+        <v>4950</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
@@ -21250,133 +21244,133 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="B27" t="s">
-        <v>4957</v>
+        <v>4955</v>
       </c>
       <c r="C27" t="s">
-        <v>4958</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>4954</v>
+        <v>4952</v>
       </c>
       <c r="B28" t="s">
-        <v>4954</v>
+        <v>4952</v>
       </c>
       <c r="C28" t="s">
-        <v>4959</v>
+        <v>4957</v>
       </c>
       <c r="E28" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="B29" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="C29" t="s">
-        <v>4960</v>
+        <v>4958</v>
       </c>
       <c r="E29" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>4956</v>
+        <v>4954</v>
       </c>
       <c r="B30" t="s">
-        <v>4956</v>
+        <v>4954</v>
       </c>
       <c r="C30" t="s">
-        <v>4961</v>
+        <v>4959</v>
       </c>
       <c r="E30" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="B31" t="s">
-        <v>4968</v>
+        <v>4966</v>
       </c>
       <c r="C31" t="s">
-        <v>4969</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>4963</v>
+        <v>4961</v>
       </c>
       <c r="B32" t="s">
-        <v>4963</v>
+        <v>4961</v>
       </c>
       <c r="C32" t="s">
-        <v>4970</v>
+        <v>4968</v>
       </c>
       <c r="E32" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>4964</v>
+        <v>4962</v>
       </c>
       <c r="B33" t="s">
-        <v>4964</v>
+        <v>4962</v>
       </c>
       <c r="C33" t="s">
-        <v>4971</v>
+        <v>4969</v>
       </c>
       <c r="E33" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>4965</v>
+        <v>4963</v>
       </c>
       <c r="B34" t="s">
-        <v>4965</v>
+        <v>4963</v>
       </c>
       <c r="C34" t="s">
-        <v>4972</v>
+        <v>4970</v>
       </c>
       <c r="E34" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>4966</v>
+        <v>4964</v>
       </c>
       <c r="B35" t="s">
-        <v>4966</v>
+        <v>4964</v>
       </c>
       <c r="C35" t="s">
-        <v>4973</v>
+        <v>4971</v>
       </c>
       <c r="E35" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>4967</v>
+        <v>4965</v>
       </c>
       <c r="B36" t="s">
-        <v>4967</v>
+        <v>4965</v>
       </c>
       <c r="C36" t="s">
-        <v>4974</v>
+        <v>4972</v>
       </c>
       <c r="E36" t="s">
         <v>1440</v>
@@ -21384,147 +21378,147 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>4975</v>
+        <v>4973</v>
       </c>
       <c r="B37" t="s">
-        <v>4983</v>
+        <v>4981</v>
       </c>
       <c r="C37" t="s">
-        <v>4984</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>4976</v>
+        <v>4974</v>
       </c>
       <c r="B38" t="s">
-        <v>4976</v>
+        <v>4974</v>
       </c>
       <c r="C38" t="s">
-        <v>4985</v>
+        <v>4983</v>
       </c>
       <c r="E38" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>4977</v>
+        <v>4975</v>
       </c>
       <c r="B39" t="s">
-        <v>4977</v>
+        <v>4975</v>
       </c>
       <c r="C39" t="s">
-        <v>4986</v>
+        <v>4984</v>
       </c>
       <c r="E39" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>4978</v>
+        <v>4976</v>
       </c>
       <c r="B40" t="s">
-        <v>4978</v>
+        <v>4976</v>
       </c>
       <c r="C40" t="s">
-        <v>4987</v>
+        <v>4985</v>
       </c>
       <c r="E40" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>4979</v>
+        <v>4977</v>
       </c>
       <c r="B41" t="s">
-        <v>4979</v>
+        <v>4977</v>
       </c>
       <c r="C41" t="s">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="E41" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>4980</v>
+        <v>4978</v>
       </c>
       <c r="B42" t="s">
-        <v>4980</v>
+        <v>4978</v>
       </c>
       <c r="C42" t="s">
-        <v>4989</v>
+        <v>4987</v>
       </c>
       <c r="E42" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="B43" t="s">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="C43" t="s">
-        <v>4990</v>
+        <v>4988</v>
       </c>
       <c r="E43" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>4982</v>
+        <v>4980</v>
       </c>
       <c r="B44" t="s">
-        <v>4982</v>
+        <v>4980</v>
       </c>
       <c r="C44" t="s">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="E44" t="s">
-        <v>5207</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="B45" t="s">
-        <v>4998</v>
+        <v>4996</v>
       </c>
       <c r="C45" t="s">
-        <v>4999</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>4993</v>
+        <v>4991</v>
       </c>
       <c r="B46" t="s">
-        <v>4993</v>
+        <v>4991</v>
       </c>
       <c r="C46" t="s">
-        <v>5000</v>
+        <v>4998</v>
       </c>
       <c r="E46" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="B47" t="s">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="C47" t="s">
-        <v>5001</v>
+        <v>4999</v>
       </c>
       <c r="E47" t="s">
         <v>961</v>
@@ -21532,27 +21526,27 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="B48" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="C48" t="s">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="E48" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="B49" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="C49" t="s">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="E49" t="s">
         <v>961</v>
@@ -21560,13 +21554,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>4997</v>
+        <v>4995</v>
       </c>
       <c r="B50" t="s">
-        <v>4997</v>
+        <v>4995</v>
       </c>
       <c r="C50" t="s">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="E50" t="s">
         <v>961</v>
@@ -21574,24 +21568,24 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B51" t="s">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="C51" t="s">
-        <v>5015</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B52" t="s">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="C52" t="s">
-        <v>5016</v>
+        <v>5014</v>
       </c>
       <c r="E52" t="s">
         <v>1217</v>
@@ -21599,83 +21593,83 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B53" t="s">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="C53" t="s">
-        <v>5017</v>
+        <v>5015</v>
       </c>
       <c r="E53" t="s">
-        <v>5210</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B54" t="s">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="C54" t="s">
-        <v>5018</v>
+        <v>5016</v>
       </c>
       <c r="E54" t="s">
-        <v>5211</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B55" t="s">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="C55" t="s">
-        <v>5019</v>
+        <v>5017</v>
       </c>
       <c r="E55" t="s">
-        <v>5212</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B56" t="s">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="C56" t="s">
-        <v>5020</v>
+        <v>5018</v>
       </c>
       <c r="E56" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B57" t="s">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="C57" t="s">
-        <v>5021</v>
+        <v>5019</v>
       </c>
       <c r="E57" t="s">
-        <v>5214</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="B58" t="s">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="C58" t="s">
-        <v>5022</v>
+        <v>5020</v>
       </c>
       <c r="E58" t="s">
         <v>90</v>
@@ -21683,13 +21677,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>5013</v>
+        <v>5011</v>
       </c>
       <c r="B59" t="s">
-        <v>5013</v>
+        <v>5011</v>
       </c>
       <c r="C59" t="s">
-        <v>5023</v>
+        <v>5021</v>
       </c>
       <c r="E59" t="s">
         <v>1291</v>
@@ -21697,122 +21691,122 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>5024</v>
+        <v>5022</v>
       </c>
       <c r="B60" t="s">
-        <v>5037</v>
+        <v>5035</v>
       </c>
       <c r="C60" t="s">
-        <v>5038</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>5025</v>
+        <v>5023</v>
       </c>
       <c r="B61" t="s">
-        <v>5025</v>
+        <v>5023</v>
       </c>
       <c r="C61" t="s">
-        <v>5039</v>
+        <v>5037</v>
       </c>
       <c r="E61" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>5026</v>
+        <v>5024</v>
       </c>
       <c r="B62" t="s">
-        <v>5026</v>
+        <v>5024</v>
       </c>
       <c r="C62" t="s">
-        <v>5040</v>
+        <v>5038</v>
       </c>
       <c r="E62" t="s">
-        <v>5216</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>5027</v>
+        <v>5025</v>
       </c>
       <c r="B63" t="s">
-        <v>5027</v>
+        <v>5025</v>
       </c>
       <c r="C63" t="s">
-        <v>5041</v>
+        <v>5039</v>
       </c>
       <c r="E63" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="B64" t="s">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="C64" t="s">
-        <v>5042</v>
+        <v>5040</v>
       </c>
       <c r="E64" t="s">
-        <v>5217</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>5029</v>
+        <v>5027</v>
       </c>
       <c r="B65" t="s">
-        <v>5029</v>
+        <v>5027</v>
       </c>
       <c r="C65" t="s">
-        <v>5043</v>
+        <v>5041</v>
       </c>
       <c r="E65" t="s">
-        <v>5218</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>5030</v>
+        <v>5028</v>
       </c>
       <c r="B66" t="s">
-        <v>5030</v>
+        <v>5028</v>
       </c>
       <c r="C66" t="s">
-        <v>5044</v>
+        <v>5042</v>
       </c>
       <c r="E66" t="s">
-        <v>5219</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="B67" t="s">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="C67" t="s">
-        <v>5045</v>
+        <v>5043</v>
       </c>
       <c r="E67" t="s">
-        <v>5220</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="B68" t="s">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="C68" t="s">
-        <v>5046</v>
+        <v>5044</v>
       </c>
       <c r="E68" t="s">
         <v>1429</v>
@@ -21820,27 +21814,27 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>5033</v>
+        <v>5031</v>
       </c>
       <c r="B69" t="s">
-        <v>5033</v>
+        <v>5031</v>
       </c>
       <c r="C69" t="s">
-        <v>5047</v>
+        <v>5045</v>
       </c>
       <c r="E69" t="s">
-        <v>5221</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>5034</v>
+        <v>5032</v>
       </c>
       <c r="B70" t="s">
-        <v>5034</v>
+        <v>5032</v>
       </c>
       <c r="C70" t="s">
-        <v>5048</v>
+        <v>5046</v>
       </c>
       <c r="E70" t="s">
         <v>1440</v>
@@ -21848,116 +21842,116 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>5035</v>
+        <v>5033</v>
       </c>
       <c r="B71" t="s">
-        <v>5035</v>
+        <v>5033</v>
       </c>
       <c r="C71" t="s">
-        <v>5049</v>
+        <v>5047</v>
       </c>
       <c r="E71" t="s">
-        <v>5222</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>5036</v>
+        <v>5034</v>
       </c>
       <c r="B72" t="s">
-        <v>5036</v>
+        <v>5034</v>
       </c>
       <c r="C72" t="s">
-        <v>5050</v>
+        <v>5048</v>
       </c>
       <c r="E72" t="s">
-        <v>5223</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>5051</v>
+        <v>5049</v>
       </c>
       <c r="B73" t="s">
-        <v>5054</v>
+        <v>5052</v>
       </c>
       <c r="C73" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>5052</v>
+        <v>5050</v>
       </c>
       <c r="B74" t="s">
-        <v>5052</v>
+        <v>5050</v>
       </c>
       <c r="C74" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="E74" t="s">
-        <v>5224</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>5053</v>
+        <v>5051</v>
       </c>
       <c r="B75" t="s">
-        <v>5053</v>
+        <v>5051</v>
       </c>
       <c r="C75" t="s">
-        <v>5057</v>
+        <v>5055</v>
       </c>
       <c r="E75" t="s">
-        <v>5225</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>5058</v>
+        <v>5056</v>
       </c>
       <c r="B76" t="s">
-        <v>5064</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>5059</v>
+        <v>5057</v>
       </c>
       <c r="B77" t="s">
-        <v>5059</v>
+        <v>5057</v>
       </c>
       <c r="C77" t="s">
-        <v>5065</v>
+        <v>5063</v>
       </c>
       <c r="E77" t="s">
-        <v>5226</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>5060</v>
+        <v>5058</v>
       </c>
       <c r="B78" t="s">
-        <v>5060</v>
+        <v>5058</v>
       </c>
       <c r="C78" t="s">
-        <v>5066</v>
+        <v>5064</v>
       </c>
       <c r="E78" t="s">
-        <v>5227</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>5061</v>
+        <v>5059</v>
       </c>
       <c r="B79" t="s">
-        <v>5061</v>
+        <v>5059</v>
       </c>
       <c r="C79" t="s">
-        <v>5067</v>
+        <v>5065</v>
       </c>
       <c r="E79" t="s">
         <v>1227</v>
@@ -21965,94 +21959,94 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>5062</v>
+        <v>5060</v>
       </c>
       <c r="B80" t="s">
-        <v>5062</v>
+        <v>5060</v>
       </c>
       <c r="C80" t="s">
-        <v>5068</v>
+        <v>5066</v>
       </c>
       <c r="E80" t="s">
-        <v>5228</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>5063</v>
+        <v>5061</v>
       </c>
       <c r="B81" t="s">
-        <v>5063</v>
+        <v>5061</v>
       </c>
       <c r="C81" t="s">
-        <v>5069</v>
+        <v>5067</v>
       </c>
       <c r="E81" t="s">
-        <v>5229</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>5070</v>
+        <v>5068</v>
       </c>
       <c r="B82" t="s">
-        <v>5076</v>
+        <v>5074</v>
       </c>
       <c r="C82" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>5071</v>
+        <v>5069</v>
       </c>
       <c r="B83" t="s">
-        <v>5071</v>
+        <v>5069</v>
       </c>
       <c r="C83" t="s">
-        <v>5078</v>
+        <v>5076</v>
       </c>
       <c r="E83" t="s">
-        <v>5230</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>5072</v>
+        <v>5070</v>
       </c>
       <c r="B84" t="s">
-        <v>5072</v>
+        <v>5070</v>
       </c>
       <c r="C84" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="E84" t="s">
-        <v>5231</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="B85" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C85" t="s">
-        <v>5080</v>
+        <v>5078</v>
       </c>
       <c r="E85" t="s">
-        <v>5232</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>5074</v>
+        <v>5072</v>
       </c>
       <c r="B86" t="s">
-        <v>5074</v>
+        <v>5072</v>
       </c>
       <c r="C86" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="E86" t="s">
         <v>1422</v>
@@ -22060,13 +22054,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="B87" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
       <c r="C87" t="s">
-        <v>5082</v>
+        <v>5080</v>
       </c>
       <c r="E87" t="s">
         <v>1422</v>
@@ -22074,35 +22068,35 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="B88" t="s">
-        <v>5092</v>
+        <v>5090</v>
       </c>
       <c r="C88" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>5084</v>
+        <v>5082</v>
       </c>
       <c r="B89" t="s">
-        <v>5084</v>
+        <v>5082</v>
       </c>
       <c r="C89" t="s">
-        <v>5094</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="B90" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C90" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="E90" t="s">
         <v>1269</v>
@@ -22110,13 +22104,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>5086</v>
+        <v>5084</v>
       </c>
       <c r="B91" t="s">
-        <v>5086</v>
+        <v>5084</v>
       </c>
       <c r="C91" t="s">
-        <v>5096</v>
+        <v>5094</v>
       </c>
       <c r="E91" t="s">
         <v>1272</v>
@@ -22124,13 +22118,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="B92" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C92" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="E92" t="s">
         <v>1323</v>
@@ -22138,55 +22132,55 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>5088</v>
+        <v>5086</v>
       </c>
       <c r="B93" t="s">
-        <v>5088</v>
+        <v>5086</v>
       </c>
       <c r="C93" t="s">
-        <v>5098</v>
+        <v>5096</v>
       </c>
       <c r="E93" t="s">
-        <v>5233</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="B94" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C94" t="s">
-        <v>5099</v>
+        <v>5097</v>
       </c>
       <c r="E94" t="s">
-        <v>5233</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>5090</v>
+        <v>5088</v>
       </c>
       <c r="B95" t="s">
-        <v>5090</v>
+        <v>5088</v>
       </c>
       <c r="C95" t="s">
-        <v>5100</v>
+        <v>5098</v>
       </c>
       <c r="E95" t="s">
-        <v>5234</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="B96" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
       <c r="C96" t="s">
-        <v>5101</v>
+        <v>5099</v>
       </c>
       <c r="E96" t="s">
         <v>1342</v>
@@ -22194,24 +22188,24 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>5102</v>
+        <v>5100</v>
       </c>
       <c r="B97" t="s">
-        <v>5108</v>
+        <v>5106</v>
       </c>
       <c r="C97" t="s">
-        <v>5109</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="B98" t="s">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="C98" t="s">
-        <v>5110</v>
+        <v>5108</v>
       </c>
       <c r="E98" t="s">
         <v>961</v>
@@ -22219,27 +22213,27 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>5104</v>
+        <v>5102</v>
       </c>
       <c r="B99" t="s">
-        <v>5104</v>
+        <v>5102</v>
       </c>
       <c r="C99" t="s">
-        <v>5111</v>
+        <v>5109</v>
       </c>
       <c r="E99" t="s">
-        <v>5235</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="B100" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="C100" t="s">
-        <v>5112</v>
+        <v>5110</v>
       </c>
       <c r="E100" t="s">
         <v>1391</v>
@@ -22247,13 +22241,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>5106</v>
+        <v>5104</v>
       </c>
       <c r="B101" t="s">
-        <v>5106</v>
+        <v>5104</v>
       </c>
       <c r="C101" t="s">
-        <v>5113</v>
+        <v>5111</v>
       </c>
       <c r="E101" t="s">
         <v>2200</v>
@@ -22261,13 +22255,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
       <c r="B102" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
       <c r="C102" t="s">
-        <v>5114</v>
+        <v>5112</v>
       </c>
       <c r="E102" t="s">
         <v>1429</v>
@@ -22275,24 +22269,24 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
+        <v>5113</v>
+      </c>
+      <c r="B103" t="s">
         <v>5115</v>
       </c>
-      <c r="B103" t="s">
-        <v>5117</v>
-      </c>
       <c r="C103" t="s">
-        <v>5118</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="B104" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="C104" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="E104" t="s">
         <v>136</v>
@@ -22300,66 +22294,66 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="B105" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="C105" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
       <c r="B106" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
       <c r="C106" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
       <c r="E106" t="s">
-        <v>5236</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="B107" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="C107" t="s">
-        <v>5129</v>
+        <v>5127</v>
       </c>
       <c r="E107" t="s">
-        <v>5237</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="B108" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="C108" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
       <c r="E108" t="s">
-        <v>5245</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="B109" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="C109" t="s">
-        <v>5131</v>
+        <v>5129</v>
       </c>
       <c r="E109" t="s">
         <v>1115</v>
@@ -22367,13 +22361,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
       <c r="B110" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
       <c r="C110" t="s">
-        <v>5132</v>
+        <v>5130</v>
       </c>
       <c r="E110" t="s">
         <v>1170</v>
@@ -22381,130 +22375,130 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>5133</v>
+        <v>5131</v>
       </c>
       <c r="B111" t="s">
-        <v>5139</v>
+        <v>5137</v>
       </c>
       <c r="C111" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
       <c r="B112" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
       <c r="C112" t="s">
-        <v>5141</v>
+        <v>5139</v>
       </c>
       <c r="E112" t="s">
-        <v>5238</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>5135</v>
+        <v>5133</v>
       </c>
       <c r="B113" t="s">
-        <v>5135</v>
+        <v>5133</v>
       </c>
       <c r="C113" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="E113" t="s">
-        <v>5239</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>5136</v>
+        <v>5134</v>
       </c>
       <c r="B114" t="s">
-        <v>5136</v>
+        <v>5134</v>
       </c>
       <c r="C114" t="s">
-        <v>5143</v>
+        <v>5141</v>
       </c>
       <c r="E114" t="s">
-        <v>5240</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
       <c r="B115" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
       <c r="C115" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="E115" t="s">
-        <v>5241</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="B116" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
       <c r="C116" t="s">
-        <v>5145</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="B117" t="s">
-        <v>5150</v>
+        <v>5148</v>
       </c>
       <c r="C117" t="s">
-        <v>5151</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
       <c r="B118" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
       <c r="C118" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="E118" t="s">
-        <v>5242</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="B119" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C119" t="s">
-        <v>5153</v>
+        <v>5151</v>
       </c>
       <c r="E119" t="s">
-        <v>5242</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>5149</v>
+        <v>5147</v>
       </c>
       <c r="B120" t="s">
-        <v>5149</v>
+        <v>5147</v>
       </c>
       <c r="C120" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="E120" t="s">
         <v>1342</v>
@@ -22512,63 +22506,63 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>5155</v>
+        <v>5153</v>
       </c>
       <c r="B121" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="C121" t="s">
-        <v>5159</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="B122" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C122" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="E122" t="s">
-        <v>5244</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>5157</v>
+        <v>5155</v>
       </c>
       <c r="B123" t="s">
-        <v>5157</v>
+        <v>5155</v>
       </c>
       <c r="C123" t="s">
-        <v>5161</v>
+        <v>5159</v>
       </c>
       <c r="E123" t="s">
-        <v>5244</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>5162</v>
+        <v>5160</v>
       </c>
       <c r="B124" t="s">
-        <v>5165</v>
+        <v>5163</v>
       </c>
       <c r="C124" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>5163</v>
+        <v>5161</v>
       </c>
       <c r="B125" t="s">
-        <v>5164</v>
+        <v>5162</v>
       </c>
       <c r="C125" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="E125" t="s">
         <v>136</v>
@@ -22576,77 +22570,77 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="B126" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
       <c r="C126" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="B127" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="C127" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
       <c r="E127" t="s">
-        <v>5244</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="B128" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
       <c r="C128" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
       <c r="E128" t="s">
-        <v>5244</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>5175</v>
+        <v>5173</v>
       </c>
       <c r="B129" t="s">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="C129" t="s">
-        <v>5180</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
       <c r="B130" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
       <c r="C130" t="s">
-        <v>5181</v>
+        <v>5179</v>
       </c>
       <c r="E130" t="s">
-        <v>5243</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
       <c r="B131" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
       <c r="C131" t="s">
-        <v>5182</v>
+        <v>5180</v>
       </c>
       <c r="E131" t="s">
         <v>1115</v>
@@ -22654,13 +22648,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
       <c r="B132" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
       <c r="C132" t="s">
-        <v>5183</v>
+        <v>5181</v>
       </c>
       <c r="E132" t="s">
         <v>1115</v>
@@ -27191,7 +27185,7 @@
         <v>1366</v>
       </c>
       <c r="B147" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>1368</v>
@@ -46157,8 +46151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4DE690-0DD0-43A2-8DBD-BCC98FC8DD2E}">
   <dimension ref="A1:H529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -46190,7 +46184,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>5246</v>
+        <v>5244</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -46207,10 +46201,10 @@
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="13" t="s">
-        <v>5247</v>
+        <v>5351</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>5248</v>
+        <v>5245</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -46239,7 +46233,7 @@
         <v>624</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>5249</v>
+        <v>5246</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -46271,10 +46265,10 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="13" t="s">
-        <v>5250</v>
+        <v>5247</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>5251</v>
+        <v>5248</v>
       </c>
       <c r="G6" s="13"/>
     </row>
@@ -46479,7 +46473,7 @@
         <v>672</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>5252</v>
+        <v>5249</v>
       </c>
       <c r="G19" s="13"/>
     </row>
@@ -46498,7 +46492,7 @@
         <v>672</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>5253</v>
+        <v>5250</v>
       </c>
       <c r="G20" s="13"/>
     </row>
@@ -46517,7 +46511,7 @@
         <v>672</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>5252</v>
+        <v>5249</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -46536,7 +46530,7 @@
         <v>672</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>5252</v>
+        <v>5249</v>
       </c>
       <c r="G22" s="13"/>
     </row>
@@ -46555,7 +46549,7 @@
         <v>672</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
       <c r="G23" s="13"/>
     </row>
@@ -46600,7 +46594,7 @@
         <v>218</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>5255</v>
+        <v>5252</v>
       </c>
       <c r="G26" s="13"/>
     </row>
@@ -46616,10 +46610,10 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="13" t="s">
-        <v>5256</v>
+        <v>5253</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>5257</v>
+        <v>5254</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -46639,7 +46633,7 @@
         <v>168</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>5258</v>
+        <v>5255</v>
       </c>
       <c r="G28" s="13"/>
     </row>
@@ -46658,7 +46652,7 @@
         <v>218</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>5259</v>
+        <v>5256</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -46675,10 +46669,10 @@
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="13" t="s">
-        <v>5260</v>
+        <v>5257</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>5261</v>
+        <v>5258</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -46734,10 +46728,10 @@
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="13" t="s">
-        <v>5262</v>
+        <v>5259</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>5263</v>
+        <v>5260</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -46753,10 +46747,10 @@
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="13" t="s">
-        <v>5264</v>
+        <v>5261</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>5265</v>
+        <v>5262</v>
       </c>
       <c r="G35" s="13"/>
     </row>
@@ -46812,10 +46806,10 @@
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="13" t="s">
-        <v>5266</v>
+        <v>5263</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>5267</v>
+        <v>5264</v>
       </c>
       <c r="G39" s="13"/>
     </row>
@@ -46834,7 +46828,7 @@
         <v>4202</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>5268</v>
+        <v>5265</v>
       </c>
       <c r="G40" s="13"/>
     </row>
@@ -46853,7 +46847,7 @@
         <v>4202</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>5268</v>
+        <v>5265</v>
       </c>
       <c r="G41" s="13"/>
     </row>
@@ -46872,7 +46866,7 @@
         <v>4202</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>5268</v>
+        <v>5265</v>
       </c>
       <c r="G42" s="13"/>
     </row>
@@ -46903,10 +46897,10 @@
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="13" t="s">
-        <v>5269</v>
+        <v>5266</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>5270</v>
+        <v>5267</v>
       </c>
       <c r="G44" s="13"/>
     </row>
@@ -46922,10 +46916,10 @@
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="13" t="s">
-        <v>5271</v>
+        <v>5268</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>5272</v>
+        <v>5269</v>
       </c>
       <c r="G45" s="13"/>
     </row>
@@ -46941,10 +46935,10 @@
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="13" t="s">
-        <v>5273</v>
+        <v>5270</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>5270</v>
+        <v>5267</v>
       </c>
       <c r="G46" s="13"/>
     </row>
@@ -46960,10 +46954,10 @@
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="13" t="s">
-        <v>5274</v>
+        <v>5271</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>5275</v>
+        <v>5272</v>
       </c>
       <c r="G47" s="13"/>
     </row>
@@ -46982,7 +46976,7 @@
         <v>165</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>5276</v>
+        <v>5273</v>
       </c>
       <c r="G48" s="13"/>
     </row>
@@ -47135,7 +47129,7 @@
         <v>159</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>5277</v>
+        <v>5274</v>
       </c>
       <c r="G59" s="13"/>
     </row>
@@ -47239,7 +47233,7 @@
         <v>159</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G66" s="13"/>
     </row>
@@ -47288,7 +47282,7 @@
         <v>159</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G69" s="13"/>
     </row>
@@ -47307,7 +47301,7 @@
         <v>159</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G70" s="13"/>
     </row>
@@ -47326,7 +47320,7 @@
         <v>159</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G71" s="13"/>
     </row>
@@ -47345,7 +47339,7 @@
         <v>159</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G72" s="13"/>
     </row>
@@ -47364,7 +47358,7 @@
         <v>159</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G73" s="13"/>
     </row>
@@ -47383,7 +47377,7 @@
         <v>159</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G74" s="13"/>
     </row>
@@ -47402,7 +47396,7 @@
         <v>159</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G75" s="13"/>
     </row>
@@ -47421,7 +47415,7 @@
         <v>159</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G76" s="13"/>
     </row>
@@ -47440,7 +47434,7 @@
         <v>159</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G77" s="13"/>
     </row>
@@ -47459,7 +47453,7 @@
         <v>159</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G78" s="13"/>
     </row>
@@ -47509,7 +47503,7 @@
         <v>159</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>5278</v>
+        <v>5275</v>
       </c>
       <c r="G81" s="13"/>
     </row>
@@ -47550,10 +47544,10 @@
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="13" t="s">
-        <v>5274</v>
+        <v>5271</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>5279</v>
+        <v>5276</v>
       </c>
       <c r="G84" s="13"/>
     </row>
@@ -47569,10 +47563,10 @@
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="13" t="s">
-        <v>5274</v>
+        <v>5271</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>5280</v>
+        <v>5277</v>
       </c>
       <c r="G85" s="13"/>
     </row>
@@ -47588,10 +47582,10 @@
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="13" t="s">
-        <v>5274</v>
+        <v>5271</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>5280</v>
+        <v>5277</v>
       </c>
       <c r="G86" s="13"/>
     </row>
@@ -47607,10 +47601,10 @@
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="13" t="s">
-        <v>5274</v>
+        <v>5271</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>5280</v>
+        <v>5277</v>
       </c>
       <c r="G87" s="13"/>
     </row>
@@ -47626,10 +47620,10 @@
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="13" t="s">
-        <v>5274</v>
+        <v>5271</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>5280</v>
+        <v>5277</v>
       </c>
       <c r="G88" s="13"/>
     </row>
@@ -47669,10 +47663,10 @@
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="13" t="s">
-        <v>5281</v>
+        <v>5278</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>5282</v>
+        <v>5279</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -47692,7 +47686,7 @@
         <v>159</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>5282</v>
+        <v>5279</v>
       </c>
       <c r="G92" s="13"/>
     </row>
@@ -47711,7 +47705,7 @@
         <v>159</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>5283</v>
+        <v>5280</v>
       </c>
       <c r="G93" s="13"/>
     </row>
@@ -47767,10 +47761,10 @@
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="13" t="s">
-        <v>5284</v>
+        <v>5281</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>5285</v>
+        <v>5282</v>
       </c>
       <c r="G97" s="13"/>
     </row>
@@ -47886,10 +47880,10 @@
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="13" t="s">
-        <v>5286</v>
+        <v>5283</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>5287</v>
+        <v>5284</v>
       </c>
       <c r="G105" s="13"/>
     </row>
@@ -47905,10 +47899,10 @@
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="13" t="s">
-        <v>5288</v>
+        <v>5285</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>5289</v>
+        <v>5286</v>
       </c>
       <c r="G106" s="13"/>
     </row>
@@ -47967,7 +47961,7 @@
         <v>4149</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>5290</v>
+        <v>5287</v>
       </c>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
@@ -47987,7 +47981,7 @@
         <v>4149</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>5290</v>
+        <v>5287</v>
       </c>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
@@ -48059,10 +48053,10 @@
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="13" t="s">
-        <v>5291</v>
+        <v>5288</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>5292</v>
+        <v>5289</v>
       </c>
       <c r="G116" s="13"/>
     </row>
@@ -48078,10 +48072,10 @@
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="13" t="s">
-        <v>5293</v>
+        <v>5290</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>5294</v>
+        <v>5291</v>
       </c>
       <c r="G117" s="13"/>
     </row>
@@ -48155,7 +48149,7 @@
         <v>205</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="51">
@@ -48173,7 +48167,7 @@
         <v>205</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="32.450000000000003" customHeight="1">
@@ -48191,7 +48185,7 @@
         <v>205</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="45">
@@ -48206,10 +48200,10 @@
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="13" t="s">
-        <v>5295</v>
+        <v>5292</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>5296</v>
+        <v>5293</v>
       </c>
       <c r="G125" s="13"/>
     </row>
@@ -48225,10 +48219,10 @@
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="13" t="s">
-        <v>5297</v>
+        <v>5294</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>5298</v>
+        <v>5295</v>
       </c>
       <c r="G126" s="13"/>
     </row>
@@ -48254,10 +48248,10 @@
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="13" t="s">
-        <v>5299</v>
+        <v>5296</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>5300</v>
+        <v>5297</v>
       </c>
       <c r="G128" s="13"/>
     </row>
@@ -48273,10 +48267,10 @@
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="13" t="s">
-        <v>5301</v>
+        <v>5298</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>5302</v>
+        <v>5299</v>
       </c>
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
@@ -48293,10 +48287,10 @@
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="13" t="s">
-        <v>5303</v>
+        <v>5300</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>5304</v>
+        <v>5301</v>
       </c>
       <c r="G130" s="13"/>
     </row>
@@ -48312,10 +48306,10 @@
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="13" t="s">
-        <v>5305</v>
+        <v>5302</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>5306</v>
+        <v>5303</v>
       </c>
       <c r="G131" s="13"/>
     </row>
@@ -48331,10 +48325,10 @@
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="13" t="s">
-        <v>5307</v>
+        <v>5304</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>5308</v>
+        <v>5305</v>
       </c>
       <c r="G132" s="13"/>
     </row>
@@ -48350,10 +48344,10 @@
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="13" t="s">
-        <v>5309</v>
+        <v>5306</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>5308</v>
+        <v>5305</v>
       </c>
       <c r="G133" s="13"/>
     </row>
@@ -48369,10 +48363,10 @@
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="13" t="s">
-        <v>5307</v>
+        <v>5304</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>5308</v>
+        <v>5305</v>
       </c>
       <c r="G134" s="13"/>
     </row>
@@ -48388,10 +48382,10 @@
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="13" t="s">
-        <v>5310</v>
+        <v>5307</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>5311</v>
+        <v>5308</v>
       </c>
       <c r="G135" s="13"/>
     </row>
@@ -48410,7 +48404,7 @@
         <v>187</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>5312</v>
+        <v>5309</v>
       </c>
       <c r="G136" s="13"/>
     </row>
@@ -48439,7 +48433,7 @@
         <v>672</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -48457,7 +48451,7 @@
         <v>672</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="26.45" customHeight="1">
@@ -48475,7 +48469,7 @@
         <v>4202</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="25.5">
@@ -48493,7 +48487,7 @@
         <v>672</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -48511,7 +48505,7 @@
         <v>672</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="25.5">
@@ -48529,7 +48523,7 @@
         <v>672</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>5313</v>
+        <v>5310</v>
       </c>
       <c r="G143" s="13"/>
     </row>
@@ -48548,7 +48542,7 @@
         <v>672</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -48566,7 +48560,7 @@
         <v>672</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="27.6" customHeight="1">
@@ -48584,7 +48578,7 @@
         <v>672</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -48602,7 +48596,7 @@
         <v>4215</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="25.5">
@@ -48620,7 +48614,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="25.5">
@@ -48638,7 +48632,7 @@
         <v>141</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>5314</v>
+        <v>5311</v>
       </c>
       <c r="G149" s="13"/>
       <c r="H149" s="13"/>
@@ -48668,7 +48662,7 @@
         <v>4221</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="30">
@@ -48683,10 +48677,10 @@
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="13" t="s">
-        <v>5315</v>
+        <v>5312</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>5316</v>
+        <v>5313</v>
       </c>
       <c r="G152" s="13"/>
     </row>
@@ -48702,10 +48696,10 @@
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="13" t="s">
-        <v>5317</v>
+        <v>5314</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>5318</v>
+        <v>5315</v>
       </c>
       <c r="G153" s="13"/>
       <c r="H153" s="13"/>
@@ -48725,7 +48719,7 @@
         <v>4227</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="45">
@@ -48753,7 +48747,7 @@
         <v>886</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="25.5">
@@ -48771,7 +48765,7 @@
         <v>886</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -48789,7 +48783,7 @@
         <v>886</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -48807,7 +48801,7 @@
         <v>886</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -48825,7 +48819,7 @@
         <v>886</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="38.25">
@@ -48843,7 +48837,7 @@
         <v>886</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="25.5">
@@ -48861,7 +48855,7 @@
         <v>886</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="45">
@@ -48889,7 +48883,7 @@
         <v>168</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>5319</v>
+        <v>5316</v>
       </c>
       <c r="G164" s="13"/>
     </row>
@@ -48965,10 +48959,10 @@
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="13" t="s">
-        <v>5320</v>
+        <v>5317</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>5311</v>
+        <v>5308</v>
       </c>
       <c r="G169" s="13"/>
     </row>
@@ -48984,10 +48978,10 @@
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="13" t="s">
-        <v>5320</v>
+        <v>5317</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>5311</v>
+        <v>5308</v>
       </c>
       <c r="G170" s="13"/>
     </row>
@@ -49013,10 +49007,10 @@
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="13" t="s">
-        <v>5321</v>
+        <v>5318</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>5322</v>
+        <v>5319</v>
       </c>
       <c r="G172" s="13"/>
     </row>
@@ -49032,10 +49026,10 @@
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="13" t="s">
-        <v>5323</v>
+        <v>5320</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>5322</v>
+        <v>5319</v>
       </c>
       <c r="G173" s="13"/>
     </row>
@@ -49051,10 +49045,10 @@
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="13" t="s">
-        <v>5324</v>
+        <v>5321</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>5322</v>
+        <v>5319</v>
       </c>
       <c r="G174" s="13"/>
     </row>
@@ -49070,10 +49064,10 @@
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="13" t="s">
-        <v>5325</v>
+        <v>5322</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>5326</v>
+        <v>5323</v>
       </c>
       <c r="G175" s="13"/>
     </row>
@@ -49154,7 +49148,7 @@
         <v>4265</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -49182,7 +49176,7 @@
         <v>33</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="25.5">
@@ -49200,7 +49194,7 @@
         <v>33</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="25.5">
@@ -49215,10 +49209,10 @@
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="13" t="s">
-        <v>5327</v>
+        <v>5324</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>5328</v>
+        <v>5325</v>
       </c>
       <c r="G184" s="13"/>
     </row>
@@ -49237,7 +49231,7 @@
         <v>33</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="27.95" customHeight="1">
@@ -49255,7 +49249,7 @@
         <v>33</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -49273,7 +49267,7 @@
         <v>205</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -49291,7 +49285,7 @@
         <v>177</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="25.5">
@@ -49309,7 +49303,7 @@
         <v>33</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>5329</v>
+        <v>5326</v>
       </c>
       <c r="G189" s="13"/>
     </row>
@@ -49328,7 +49322,7 @@
         <v>33</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -49356,7 +49350,7 @@
         <v>4278</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="38.25">
@@ -49371,10 +49365,10 @@
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="13" t="s">
-        <v>5330</v>
+        <v>5327</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>5331</v>
+        <v>5328</v>
       </c>
       <c r="G193" s="13"/>
     </row>
@@ -49390,10 +49384,10 @@
       </c>
       <c r="D194" s="15"/>
       <c r="E194" s="13" t="s">
-        <v>4281</v>
+        <v>389</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="35.1" customHeight="1">
@@ -49401,7 +49395,7 @@
         <v>32</v>
       </c>
       <c r="B195" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="C195" s="15"/>
       <c r="D195" s="15"/>
@@ -49414,52 +49408,52 @@
         <v>32.1</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="13" t="s">
-        <v>5332</v>
+        <v>5329</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>5333</v>
+        <v>5330</v>
       </c>
       <c r="G196" s="13"/>
     </row>
     <row r="197" spans="1:8" ht="38.25">
       <c r="A197" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C197" s="15" t="s">
         <v>4284</v>
-      </c>
-      <c r="B197" t="s">
-        <v>4284</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>4285</v>
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="13" t="s">
-        <v>5332</v>
+        <v>5329</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>5333</v>
+        <v>5330</v>
       </c>
       <c r="G197" s="13"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4285</v>
+      </c>
+      <c r="C198" s="15" t="s">
         <v>4286</v>
-      </c>
-      <c r="B198" t="s">
-        <v>4286</v>
-      </c>
-      <c r="C198" s="15" t="s">
-        <v>4287</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="13" t="s">
-        <v>5332</v>
+        <v>5329</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>5333</v>
+        <v>5330</v>
       </c>
       <c r="G198" s="13"/>
     </row>
@@ -49471,14 +49465,14 @@
         <v>32.299999999999997</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="13" t="s">
-        <v>5332</v>
+        <v>5329</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>5333</v>
+        <v>5330</v>
       </c>
       <c r="G199" s="13"/>
     </row>
@@ -49490,14 +49484,14 @@
         <v>32.4</v>
       </c>
       <c r="C200" s="15" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="13" t="s">
-        <v>5332</v>
+        <v>5329</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>5333</v>
+        <v>5330</v>
       </c>
       <c r="G200" s="13"/>
     </row>
@@ -49506,7 +49500,7 @@
         <v>33</v>
       </c>
       <c r="B201" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
@@ -49519,14 +49513,14 @@
         <v>33.1</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="D202" s="15"/>
       <c r="E202" s="13" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -49537,14 +49531,14 @@
         <v>33.200000000000003</v>
       </c>
       <c r="C203" s="15" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="D203" s="15"/>
       <c r="E203" s="13" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>5334</v>
+        <v>5331</v>
       </c>
       <c r="G203" s="13"/>
       <c r="H203" s="13"/>
@@ -49554,172 +49548,172 @@
         <v>34</v>
       </c>
       <c r="B204" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="C204" s="15"/>
       <c r="D204" s="15"/>
     </row>
     <row r="205" spans="1:8" ht="45.95" customHeight="1">
       <c r="A205" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4294</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>4295</v>
-      </c>
-      <c r="B205" t="s">
-        <v>4295</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>4296</v>
       </c>
       <c r="D205" s="15"/>
       <c r="E205" s="13" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="70.5" customHeight="1">
       <c r="A206" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="B206" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>5335</v>
+        <v>5332</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="13" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="F206" s="13" t="s">
-        <v>5336</v>
+        <v>5333</v>
       </c>
       <c r="G206" s="13"/>
       <c r="H206" s="13"/>
     </row>
     <row r="207" spans="1:8" ht="28.5" customHeight="1">
       <c r="A207" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B207" t="s">
+        <v>4298</v>
+      </c>
+      <c r="C207" s="15" t="s">
         <v>4299</v>
-      </c>
-      <c r="B207" t="s">
-        <v>4299</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>4300</v>
       </c>
       <c r="D207" s="15"/>
       <c r="E207" s="13" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>5337</v>
+        <v>5334</v>
       </c>
       <c r="G207" s="13"/>
     </row>
     <row r="208" spans="1:8" ht="63.75">
       <c r="A208" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B208" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C208" s="15" t="s">
         <v>4301</v>
-      </c>
-      <c r="B208" t="s">
-        <v>4301</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>4302</v>
       </c>
       <c r="D208" s="15"/>
       <c r="E208" s="13" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>5338</v>
+        <v>5335</v>
       </c>
       <c r="G208" s="13"/>
     </row>
     <row r="209" spans="1:7" ht="25.5">
       <c r="A209" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B209" t="s">
+        <v>4302</v>
+      </c>
+      <c r="C209" s="15" t="s">
         <v>4303</v>
-      </c>
-      <c r="B209" t="s">
-        <v>4303</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>4304</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="13" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="25.5">
       <c r="A210" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B210" t="s">
+        <v>4304</v>
+      </c>
+      <c r="C210" s="15" t="s">
         <v>4305</v>
-      </c>
-      <c r="B210" t="s">
-        <v>4305</v>
-      </c>
-      <c r="C210" s="15" t="s">
-        <v>4306</v>
       </c>
       <c r="D210" s="15"/>
       <c r="E210" s="13" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="25.5">
       <c r="A211" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B211" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C211" s="15" t="s">
         <v>4307</v>
-      </c>
-      <c r="B211" t="s">
-        <v>4307</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>4308</v>
       </c>
       <c r="D211" s="15"/>
       <c r="E211" s="13" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="51">
       <c r="A212" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B212" t="s">
+        <v>4308</v>
+      </c>
+      <c r="C212" s="15" t="s">
         <v>4309</v>
-      </c>
-      <c r="B212" t="s">
-        <v>4309</v>
-      </c>
-      <c r="C212" s="15" t="s">
-        <v>4310</v>
       </c>
       <c r="D212" s="15"/>
       <c r="E212" s="13" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="38.25">
       <c r="A213" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4310</v>
+      </c>
+      <c r="C213" s="15" t="s">
         <v>4311</v>
-      </c>
-      <c r="B213" t="s">
-        <v>4311</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>4312</v>
       </c>
       <c r="D213" s="15"/>
       <c r="E213" s="13" t="s">
         <v>337</v>
       </c>
       <c r="F213" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="25.5">
@@ -49730,14 +49724,14 @@
         <v>34.299999999999997</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="D214" s="15"/>
       <c r="E214" s="13" t="s">
         <v>1014</v>
       </c>
       <c r="F214" s="13" t="s">
-        <v>5254</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="127.5">
@@ -49745,43 +49739,43 @@
         <v>35</v>
       </c>
       <c r="B215" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C215" s="15" t="s">
         <v>4314</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>4315</v>
       </c>
       <c r="D215" s="15"/>
       <c r="G215" s="13"/>
     </row>
     <row r="216" spans="1:7" ht="38.25">
       <c r="A216" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C216" s="15" t="s">
         <v>4316</v>
-      </c>
-      <c r="B216" t="s">
-        <v>4316</v>
-      </c>
-      <c r="C216" s="15" t="s">
-        <v>4317</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="13" t="s">
-        <v>5339</v>
+        <v>5336</v>
       </c>
       <c r="G216" s="13"/>
     </row>
     <row r="217" spans="1:7" ht="30.95" customHeight="1">
       <c r="A217" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C217" s="15" t="s">
         <v>4318</v>
-      </c>
-      <c r="B217" t="s">
-        <v>4318</v>
-      </c>
-      <c r="C217" s="15" t="s">
-        <v>4319</v>
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="13" t="s">
-        <v>5339</v>
+        <v>5336</v>
       </c>
       <c r="G217" s="13"/>
     </row>
@@ -49790,84 +49784,84 @@
         <v>36</v>
       </c>
       <c r="B218" s="14" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="C218" s="15"/>
       <c r="D218" s="15"/>
     </row>
     <row r="219" spans="1:7" ht="63.75">
       <c r="A219" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4320</v>
+      </c>
+      <c r="C219" s="15" t="s">
         <v>4321</v>
-      </c>
-      <c r="B219" t="s">
-        <v>4321</v>
-      </c>
-      <c r="C219" s="15" t="s">
-        <v>4322</v>
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="13" t="s">
-        <v>4323</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="25.5">
       <c r="A220" t="s">
-        <v>4324</v>
+        <v>4322</v>
       </c>
       <c r="B220" t="s">
-        <v>4324</v>
+        <v>4322</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="13" t="s">
-        <v>4323</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B221" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="C221" s="15" t="s">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="13" t="s">
-        <v>4323</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="25.5">
       <c r="A222" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="B222" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="C222" s="15" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="13" t="s">
-        <v>4323</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="25.5">
       <c r="A223" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
       <c r="B223" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
       <c r="C223" s="15" t="s">
-        <v>4331</v>
+        <v>4329</v>
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="13" t="s">
-        <v>4323</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="75">
@@ -49875,14 +49869,14 @@
         <v>37</v>
       </c>
       <c r="B224" s="14" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
       <c r="C224" s="15" t="s">
-        <v>4333</v>
+        <v>4331</v>
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="13" t="s">
-        <v>4323</v>
+        <v>5336</v>
       </c>
       <c r="G224" s="13"/>
     </row>
@@ -49891,91 +49885,91 @@
         <v>38</v>
       </c>
       <c r="B225" s="14" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
       <c r="C225" s="15" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="D225" s="15"/>
       <c r="G225" s="13"/>
     </row>
     <row r="226" spans="1:7">
       <c r="A226" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
       <c r="B226" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
       <c r="C226" s="15" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="13" t="s">
-        <v>4323</v>
+        <v>5336</v>
       </c>
       <c r="G226" s="13"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
       <c r="B227" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
       <c r="C227" s="15" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="13" t="s">
-        <v>4323</v>
+        <v>5336</v>
       </c>
       <c r="G227" s="13"/>
     </row>
     <row r="228" spans="1:7" ht="25.5">
       <c r="A228" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
       <c r="B228" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>4341</v>
+        <v>4339</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="13" t="s">
-        <v>5340</v>
+        <v>5350</v>
       </c>
       <c r="G228" s="13"/>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
       <c r="B229" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="13" t="s">
-        <v>4323</v>
+        <v>5336</v>
       </c>
       <c r="G229" s="13"/>
     </row>
     <row r="230" spans="1:7" ht="25.5">
       <c r="A230" t="s">
-        <v>4344</v>
+        <v>4342</v>
       </c>
       <c r="B230" t="s">
-        <v>4344</v>
+        <v>4342</v>
       </c>
       <c r="C230" s="15" t="s">
-        <v>4345</v>
+        <v>4343</v>
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="13" t="s">
-        <v>5341</v>
+        <v>5349</v>
       </c>
       <c r="G230" s="13"/>
     </row>
@@ -49984,7 +49978,7 @@
         <v>39</v>
       </c>
       <c r="B231" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
       <c r="C231" s="15"/>
       <c r="D231" s="15"/>
@@ -49997,7 +49991,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="C232" s="15" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="D232" s="15"/>
       <c r="G232" s="13"/>
@@ -50007,14 +50001,14 @@
         <v>40</v>
       </c>
       <c r="B233" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="C233" s="15" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
       <c r="D233" s="15"/>
       <c r="E233" s="13" t="s">
-        <v>4323</v>
+        <v>5336</v>
       </c>
       <c r="G233" s="13"/>
     </row>
@@ -50030,7 +50024,7 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236" t="s">
-        <v>5342</v>
+        <v>5337</v>
       </c>
       <c r="B236" s="14"/>
       <c r="C236" s="15"/>
@@ -50041,10 +50035,10 @@
         <v>0</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>5343</v>
+        <v>5338</v>
       </c>
       <c r="C237" s="15" t="s">
-        <v>5344</v>
+        <v>5339</v>
       </c>
       <c r="D237" s="15"/>
     </row>
@@ -50054,7 +50048,7 @@
       </c>
       <c r="B238" s="14"/>
       <c r="C238" s="14" t="s">
-        <v>5345</v>
+        <v>5340</v>
       </c>
       <c r="D238" s="14"/>
     </row>
@@ -50064,7 +50058,7 @@
       </c>
       <c r="B239" s="14"/>
       <c r="C239" s="14" t="s">
-        <v>5346</v>
+        <v>5341</v>
       </c>
       <c r="D239" s="14"/>
     </row>
@@ -50076,7 +50070,7 @@
         <v>218</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>5347</v>
+        <v>5342</v>
       </c>
       <c r="D240" s="14"/>
     </row>
@@ -50088,7 +50082,7 @@
         <v>202</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>5348</v>
+        <v>5343</v>
       </c>
       <c r="D241" s="14"/>
     </row>
@@ -50100,7 +50094,7 @@
         <v>202</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>5348</v>
+        <v>5343</v>
       </c>
       <c r="D242" s="14"/>
     </row>
@@ -50112,7 +50106,7 @@
         <v>1091</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>5349</v>
+        <v>5344</v>
       </c>
       <c r="D243" s="14"/>
     </row>
@@ -50124,7 +50118,7 @@
         <v>141</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>5350</v>
+        <v>5345</v>
       </c>
       <c r="D244" s="14"/>
     </row>
@@ -50133,7 +50127,7 @@
         <v>4224</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>5351</v>
+        <v>5346</v>
       </c>
       <c r="D245" s="15"/>
       <c r="G245" s="13"/>
@@ -50818,15 +50812,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010072B72D3E1CFCDD40BC0C6D9CCD45E0BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1091b63e79dc81a90741573e3164413c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="759c4387-f01d-437d-8a5d-56d9b05a6914" xmlns:ns4="b38e6452-0983-483a-b0d4-324af6d44e4d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7010e408eae2039b0bc4bac303a742c1" ns3:_="" ns4:_="">
     <xsd:import namespace="759c4387-f01d-437d-8a5d-56d9b05a6914"/>
@@ -51077,6 +51062,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
   <ds:schemaRefs>
@@ -51088,14 +51082,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC11F96C-E600-42F3-BB18-A579B8C44705}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -51112,4 +51098,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/assets/database.xlsx
+++ b/src/assets/database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9601448-6CA9-4800-A066-3B19FEBB998A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F1C6CB-D503-40C8-8DB1-9FD6E848E3A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="Turkey " sheetId="7" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'India Draft PDPB'!$A$1:$G$233</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'India Draft PDPB'!$A$1:$G$231</definedName>
     <definedName name="_Toc506801608" localSheetId="2">'Australia '!$C$2</definedName>
     <definedName name="_Toc506801610" localSheetId="2">'Australia '!$C$3</definedName>
   </definedNames>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9177" uniqueCount="5352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9175" uniqueCount="5350">
   <si>
     <t>id</t>
   </si>
@@ -14564,12 +14564,6 @@
     <t>(e) the personal data shall not be processed in the manner that gives rise to a risk of significant harm to the data principal,</t>
   </si>
   <si>
-    <t>39 Exemption for manual processing by small entities</t>
-  </si>
-  <si>
-    <t>(2)  For the purposes of sub-section (1), a "small entity" means such data fiduciary as may be classified, by regulations, by Authority, having regard to—</t>
-  </si>
-  <si>
     <t>40 Sandbox for encouraging innovation, etc</t>
   </si>
   <si>
@@ -17657,7 +17651,7 @@
     <t>5.2.1;5.3.2;7.2.2;7.4.4</t>
   </si>
   <si>
-    <t>7.2.2;7.2.1;8.2.1;8.2.2</t>
+    <t>7.2.1;7.2.2;8.2.1;8.2.2</t>
   </si>
 </sst>
 </file>
@@ -18218,7 +18212,7 @@
         <v>2080</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5186</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -18226,10 +18220,10 @@
         <v>44062</v>
       </c>
       <c r="B8" t="s">
-        <v>5347</v>
+        <v>5345</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
     </row>
   </sheetData>
@@ -18273,10 +18267,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="B2" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="C2" t="s">
         <v>1085</v>
@@ -18285,13 +18279,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="B3" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="C3" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -18299,13 +18293,13 @@
     </row>
     <row r="4" spans="1:5" ht="150">
       <c r="A4" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="B4" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -18313,13 +18307,13 @@
     </row>
     <row r="5" spans="1:5" ht="150">
       <c r="A5" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
       <c r="B5" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -18327,13 +18321,13 @@
     </row>
     <row r="6" spans="1:5" ht="120">
       <c r="A6" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
       <c r="B6" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -18341,10 +18335,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="B7" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="C7" t="s">
         <v>1087</v>
@@ -18352,13 +18346,13 @@
     </row>
     <row r="8" spans="1:5" ht="150">
       <c r="A8" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="B8" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
       <c r="E8" t="s">
         <v>1088</v>
@@ -18366,13 +18360,13 @@
     </row>
     <row r="9" spans="1:5" ht="135">
       <c r="A9" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="B9" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>4355</v>
+        <v>4353</v>
       </c>
       <c r="E9" t="s">
         <v>1091</v>
@@ -18380,13 +18374,13 @@
     </row>
     <row r="10" spans="1:5" ht="165">
       <c r="A10" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="B10" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
       <c r="E10" t="s">
         <v>1092</v>
@@ -18394,10 +18388,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="B11" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1097</v>
@@ -18405,10 +18399,10 @@
     </row>
     <row r="12" spans="1:5" ht="30">
       <c r="A12" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="B12" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1098</v>
@@ -18416,13 +18410,13 @@
     </row>
     <row r="13" spans="1:5" ht="135">
       <c r="A13" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="B13" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
       <c r="E13" t="s">
         <v>1099</v>
@@ -18430,13 +18424,13 @@
     </row>
     <row r="14" spans="1:5" ht="150">
       <c r="A14" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="B14" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -18444,13 +18438,13 @@
     </row>
     <row r="15" spans="1:5" ht="150">
       <c r="A15" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="B15" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -18458,13 +18452,13 @@
     </row>
     <row r="16" spans="1:5" ht="165">
       <c r="A16" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
       <c r="B16" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>4360</v>
+        <v>4358</v>
       </c>
       <c r="E16" t="s">
         <v>1102</v>
@@ -18472,10 +18466,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="B17" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1105</v>
@@ -18483,13 +18477,13 @@
     </row>
     <row r="18" spans="1:5" ht="135">
       <c r="A18" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="B18" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>4361</v>
+        <v>4359</v>
       </c>
       <c r="E18" t="s">
         <v>1106</v>
@@ -18497,13 +18491,13 @@
     </row>
     <row r="19" spans="1:5" ht="150">
       <c r="A19" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="B19" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
       <c r="E19" t="s">
         <v>1109</v>
@@ -18511,13 +18505,13 @@
     </row>
     <row r="20" spans="1:5" ht="135">
       <c r="A20" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="B20" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="E20" t="s">
         <v>1112</v>
@@ -18525,13 +18519,13 @@
     </row>
     <row r="21" spans="1:5" ht="180">
       <c r="A21" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="B21" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="E21" t="s">
         <v>1115</v>
@@ -18539,10 +18533,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="B22" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>1118</v>
@@ -18550,13 +18544,13 @@
     </row>
     <row r="23" spans="1:5" ht="180">
       <c r="A23" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="B23" t="s">
-        <v>4411</v>
+        <v>4409</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4365</v>
+        <v>4363</v>
       </c>
       <c r="E23" t="s">
         <v>1119</v>
@@ -18564,13 +18558,13 @@
     </row>
     <row r="24" spans="1:5" ht="165">
       <c r="A24" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
       <c r="B24" t="s">
-        <v>4413</v>
+        <v>4411</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="E24" t="s">
         <v>1123</v>
@@ -18578,13 +18572,13 @@
     </row>
     <row r="25" spans="1:5" ht="150">
       <c r="A25" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="B25" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="E25" t="s">
         <v>1126</v>
@@ -18592,10 +18586,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
       <c r="B26" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1129</v>
@@ -18603,13 +18597,13 @@
     </row>
     <row r="27" spans="1:5" ht="135">
       <c r="A27" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
       <c r="B27" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="E27" t="s">
         <v>1130</v>
@@ -18617,13 +18611,13 @@
     </row>
     <row r="28" spans="1:5" ht="135">
       <c r="A28" t="s">
-        <v>4419</v>
+        <v>4417</v>
       </c>
       <c r="B28" t="s">
-        <v>4420</v>
+        <v>4418</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
       <c r="E28" t="s">
         <v>1133</v>
@@ -18631,13 +18625,13 @@
     </row>
     <row r="29" spans="1:5" ht="135">
       <c r="A29" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
       <c r="B29" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="E29" t="s">
         <v>1136</v>
@@ -18645,10 +18639,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>4423</v>
+        <v>4421</v>
       </c>
       <c r="B30" t="s">
-        <v>4423</v>
+        <v>4421</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>1139</v>
@@ -18656,13 +18650,13 @@
     </row>
     <row r="31" spans="1:5" ht="150">
       <c r="A31" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
       <c r="B31" t="s">
-        <v>4425</v>
+        <v>4423</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="E31" t="s">
         <v>1140</v>
@@ -18670,13 +18664,13 @@
     </row>
     <row r="32" spans="1:5" ht="150">
       <c r="A32" t="s">
-        <v>4426</v>
+        <v>4424</v>
       </c>
       <c r="B32" t="s">
-        <v>4427</v>
+        <v>4425</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>4371</v>
+        <v>4369</v>
       </c>
       <c r="E32" t="s">
         <v>1143</v>
@@ -18684,13 +18678,13 @@
     </row>
     <row r="33" spans="1:5" ht="195">
       <c r="A33" t="s">
-        <v>4428</v>
+        <v>4426</v>
       </c>
       <c r="B33" t="s">
-        <v>4429</v>
+        <v>4427</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="E33" t="s">
         <v>1146</v>
@@ -18698,10 +18692,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="B34" t="s">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>1149</v>
@@ -18709,13 +18703,13 @@
     </row>
     <row r="35" spans="1:5" ht="150">
       <c r="A35" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="B35" t="s">
-        <v>4432</v>
+        <v>4430</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="E35" t="s">
         <v>1150</v>
@@ -18723,13 +18717,13 @@
     </row>
     <row r="36" spans="1:5" ht="105">
       <c r="A36" t="s">
-        <v>4433</v>
+        <v>4431</v>
       </c>
       <c r="B36" t="s">
-        <v>4434</v>
+        <v>4432</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="E36" t="s">
         <v>1153</v>
@@ -18737,35 +18731,35 @@
     </row>
     <row r="37" spans="1:5" ht="30">
       <c r="A37" t="s">
-        <v>4435</v>
+        <v>4433</v>
       </c>
       <c r="B37" t="s">
-        <v>4435</v>
+        <v>4433</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>4436</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="105">
       <c r="A38" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>4437</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4438</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>4439</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
       <c r="A39" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>4440</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4441</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>4442</v>
       </c>
       <c r="E39" t="s">
         <v>29</v>
@@ -18773,13 +18767,13 @@
     </row>
     <row r="40" spans="1:5" ht="120">
       <c r="A40" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4442</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>4443</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4444</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>4445</v>
       </c>
       <c r="E40" t="s">
         <v>1159</v>
@@ -18787,10 +18781,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="B41" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="C41" t="s">
         <v>1162</v>
@@ -18798,24 +18792,24 @@
     </row>
     <row r="42" spans="1:5" ht="105">
       <c r="A42" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4447</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>4448</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4449</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>4450</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45">
       <c r="A43" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4451</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>4452</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4453</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>4454</v>
       </c>
       <c r="E43" t="s">
         <v>33</v>
@@ -18823,13 +18817,13 @@
     </row>
     <row r="44" spans="1:5" ht="120">
       <c r="A44" t="s">
+        <v>4453</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4454</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>4455</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4456</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>4457</v>
       </c>
       <c r="E44" t="s">
         <v>1164</v>
@@ -18837,13 +18831,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4457</v>
+      </c>
+      <c r="C45" t="s">
         <v>4458</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4459</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4460</v>
       </c>
       <c r="E45" t="s">
         <v>1167</v>
@@ -18851,13 +18845,13 @@
     </row>
     <row r="46" spans="1:5" ht="90">
       <c r="A46" t="s">
+        <v>4459</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4460</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>4461</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4462</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>4463</v>
       </c>
       <c r="E46" t="s">
         <v>1170</v>
@@ -18865,13 +18859,13 @@
     </row>
     <row r="47" spans="1:5" ht="75">
       <c r="A47" t="s">
+        <v>4462</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>4464</v>
-      </c>
-      <c r="B47" t="s">
-        <v>4465</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>4466</v>
       </c>
       <c r="E47" t="s">
         <v>1173</v>
@@ -18879,24 +18873,24 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>4451</v>
+        <v>4449</v>
       </c>
       <c r="B48" t="s">
-        <v>4467</v>
+        <v>4465</v>
       </c>
       <c r="C48" t="s">
-        <v>4468</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="75">
       <c r="A49" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>4469</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4470</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>4471</v>
       </c>
       <c r="E49" t="s">
         <v>37</v>
@@ -18904,13 +18898,13 @@
     </row>
     <row r="50" spans="1:5" ht="90">
       <c r="A50" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>4472</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4473</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>4474</v>
       </c>
       <c r="E50" t="s">
         <v>1177</v>
@@ -18918,10 +18912,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>4447</v>
+        <v>4445</v>
       </c>
       <c r="B51" t="s">
-        <v>4447</v>
+        <v>4445</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>1180</v>
@@ -18929,24 +18923,24 @@
     </row>
     <row r="52" spans="1:5" ht="90">
       <c r="A52" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>4475</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4476</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>4477</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="120">
       <c r="A53" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>4480</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4481</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>4482</v>
       </c>
       <c r="E53" t="s">
         <v>1183</v>
@@ -18954,13 +18948,13 @@
     </row>
     <row r="54" spans="1:5" ht="105">
       <c r="A54" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>4483</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4484</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>4485</v>
       </c>
       <c r="E54" t="s">
         <v>1186</v>
@@ -18968,24 +18962,24 @@
     </row>
     <row r="55" spans="1:5" ht="75">
       <c r="A55" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
       <c r="B55" t="s">
-        <v>4486</v>
+        <v>4484</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>4487</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="120">
       <c r="A56" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>4488</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4489</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>4490</v>
       </c>
       <c r="E56" t="s">
         <v>1190</v>
@@ -18993,13 +18987,13 @@
     </row>
     <row r="57" spans="1:5" ht="135">
       <c r="A57" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B57" t="s">
         <v>4491</v>
       </c>
-      <c r="B57" t="s">
-        <v>4493</v>
-      </c>
       <c r="C57" s="3" t="s">
-        <v>4494</v>
+        <v>4492</v>
       </c>
       <c r="E57" t="s">
         <v>42</v>
@@ -19007,13 +19001,13 @@
     </row>
     <row r="58" spans="1:5" ht="105">
       <c r="A58" t="s">
-        <v>4492</v>
+        <v>4490</v>
       </c>
       <c r="B58" t="s">
-        <v>4495</v>
+        <v>4493</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="E58" t="s">
         <v>1194</v>
@@ -19021,24 +19015,24 @@
     </row>
     <row r="59" spans="1:5" ht="75">
       <c r="A59" t="s">
-        <v>4479</v>
+        <v>4477</v>
       </c>
       <c r="B59" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="120">
       <c r="A60" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>4499</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4500</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>4501</v>
       </c>
       <c r="E60" t="s">
         <v>1198</v>
@@ -19046,10 +19040,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="B61" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>1201</v>
@@ -19057,24 +19051,24 @@
     </row>
     <row r="62" spans="1:5" ht="60">
       <c r="A62" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>4504</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4505</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>4506</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="105">
       <c r="A63" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>4509</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4510</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>4511</v>
       </c>
       <c r="E63" t="s">
         <v>1204</v>
@@ -19082,13 +19076,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C64" t="s">
         <v>4512</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4513</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4514</v>
       </c>
       <c r="E64" t="s">
         <v>1208</v>
@@ -19096,13 +19090,13 @@
     </row>
     <row r="65" spans="1:5" ht="120">
       <c r="A65" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>4515</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4516</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>4517</v>
       </c>
       <c r="E65" t="s">
         <v>1210</v>
@@ -19110,13 +19104,13 @@
     </row>
     <row r="66" spans="1:5" ht="120">
       <c r="A66" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>4518</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4519</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>4520</v>
       </c>
       <c r="E66" t="s">
         <v>1213</v>
@@ -19124,24 +19118,24 @@
     </row>
     <row r="67" spans="1:5" ht="90">
       <c r="A67" t="s">
-        <v>4507</v>
+        <v>4505</v>
       </c>
       <c r="B67" t="s">
-        <v>4521</v>
+        <v>4519</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="90">
       <c r="A68" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>4523</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4524</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>4525</v>
       </c>
       <c r="E68" t="s">
         <v>47</v>
@@ -19149,13 +19143,13 @@
     </row>
     <row r="69" spans="1:5" ht="135">
       <c r="A69" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B69" t="s">
         <v>4526</v>
       </c>
-      <c r="B69" t="s">
-        <v>4528</v>
-      </c>
       <c r="C69" s="3" t="s">
-        <v>4529</v>
+        <v>4527</v>
       </c>
       <c r="E69" t="s">
         <v>50</v>
@@ -19163,13 +19157,13 @@
     </row>
     <row r="70" spans="1:5" ht="120">
       <c r="A70" t="s">
-        <v>4527</v>
+        <v>4525</v>
       </c>
       <c r="B70" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="E70" t="s">
         <v>1217</v>
@@ -19177,24 +19171,24 @@
     </row>
     <row r="71" spans="1:5" ht="75">
       <c r="A71" t="s">
-        <v>4508</v>
+        <v>4506</v>
       </c>
       <c r="B71" t="s">
-        <v>4532</v>
+        <v>4530</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>4533</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="105">
       <c r="A72" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>4534</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4535</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>4536</v>
       </c>
       <c r="E72" t="s">
         <v>54</v>
@@ -19202,13 +19196,13 @@
     </row>
     <row r="73" spans="1:5" ht="60">
       <c r="A73" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B73" t="s">
         <v>4537</v>
       </c>
-      <c r="B73" t="s">
-        <v>4539</v>
-      </c>
       <c r="C73" s="3" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="E73" t="s">
         <v>57</v>
@@ -19216,13 +19210,13 @@
     </row>
     <row r="74" spans="1:5" ht="90">
       <c r="A74" t="s">
-        <v>4538</v>
+        <v>4536</v>
       </c>
       <c r="B74" t="s">
-        <v>4541</v>
+        <v>4539</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>4542</v>
+        <v>4540</v>
       </c>
       <c r="E74" t="s">
         <v>60</v>
@@ -19230,10 +19224,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="B75" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>1221</v>
@@ -19241,24 +19235,24 @@
     </row>
     <row r="76" spans="1:5" ht="60">
       <c r="A76" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4542</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>4543</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4544</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>4545</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="90">
       <c r="A77" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>4546</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4547</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>4548</v>
       </c>
       <c r="E77" t="s">
         <v>1224</v>
@@ -19266,13 +19260,13 @@
     </row>
     <row r="78" spans="1:5" ht="90">
       <c r="A78" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4548</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>4549</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4550</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>4551</v>
       </c>
       <c r="E78" t="s">
         <v>1227</v>
@@ -19280,24 +19274,24 @@
     </row>
     <row r="79" spans="1:5" ht="75">
       <c r="A79" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4551</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>4552</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4553</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>4554</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="75">
       <c r="A80" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4554</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>4555</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4556</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>4557</v>
       </c>
       <c r="E80" t="s">
         <v>65</v>
@@ -19305,13 +19299,13 @@
     </row>
     <row r="81" spans="1:5" ht="90">
       <c r="A81" t="s">
-        <v>4558</v>
+        <v>4556</v>
       </c>
       <c r="B81" t="s">
-        <v>4561</v>
+        <v>4559</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>4562</v>
+        <v>4560</v>
       </c>
       <c r="E81" t="s">
         <v>68</v>
@@ -19319,13 +19313,13 @@
     </row>
     <row r="82" spans="1:5" ht="60">
       <c r="A82" t="s">
-        <v>4559</v>
+        <v>4557</v>
       </c>
       <c r="B82" t="s">
-        <v>4563</v>
+        <v>4561</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>4564</v>
+        <v>4562</v>
       </c>
       <c r="E82" t="s">
         <v>71</v>
@@ -19333,13 +19327,13 @@
     </row>
     <row r="83" spans="1:5" ht="75">
       <c r="A83" t="s">
-        <v>4560</v>
+        <v>4558</v>
       </c>
       <c r="B83" t="s">
-        <v>4565</v>
+        <v>4563</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>4566</v>
+        <v>4564</v>
       </c>
       <c r="E83" t="s">
         <v>1233</v>
@@ -19347,13 +19341,13 @@
     </row>
     <row r="84" spans="1:5" ht="45">
       <c r="A84" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B84" t="s">
         <v>4567</v>
       </c>
-      <c r="B84" t="s">
-        <v>4569</v>
-      </c>
       <c r="C84" s="3" t="s">
-        <v>4570</v>
+        <v>4568</v>
       </c>
       <c r="E84" t="s">
         <v>1234</v>
@@ -19361,13 +19355,13 @@
     </row>
     <row r="85" spans="1:5" ht="120">
       <c r="A85" t="s">
-        <v>4568</v>
+        <v>4566</v>
       </c>
       <c r="B85" t="s">
-        <v>4571</v>
+        <v>4569</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>4572</v>
+        <v>4570</v>
       </c>
       <c r="E85" t="s">
         <v>1235</v>
@@ -19375,24 +19369,24 @@
     </row>
     <row r="86" spans="1:5" ht="75">
       <c r="A86" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B86" t="s">
         <v>4573</v>
       </c>
-      <c r="B86" t="s">
-        <v>4575</v>
-      </c>
       <c r="C86" s="3" t="s">
-        <v>4576</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="90">
       <c r="A87" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4576</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>4577</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4578</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>4579</v>
       </c>
       <c r="E87" t="s">
         <v>1244</v>
@@ -19400,24 +19394,24 @@
     </row>
     <row r="88" spans="1:5" ht="45">
       <c r="A88" t="s">
-        <v>4574</v>
+        <v>4572</v>
       </c>
       <c r="B88" t="s">
-        <v>4580</v>
+        <v>4578</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>4581</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="90">
       <c r="A89" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4581</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>4582</v>
-      </c>
-      <c r="B89" t="s">
-        <v>4583</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>4584</v>
       </c>
       <c r="E89" t="s">
         <v>1248</v>
@@ -19425,13 +19419,13 @@
     </row>
     <row r="90" spans="1:5" ht="90">
       <c r="A90" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4584</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>4585</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4586</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>4587</v>
       </c>
       <c r="E90" t="s">
         <v>73</v>
@@ -19439,13 +19433,13 @@
     </row>
     <row r="91" spans="1:5" ht="60">
       <c r="A91" t="s">
-        <v>4588</v>
+        <v>4586</v>
       </c>
       <c r="B91" t="s">
-        <v>4591</v>
+        <v>4589</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>4592</v>
+        <v>4590</v>
       </c>
       <c r="E91" t="s">
         <v>1252</v>
@@ -19453,13 +19447,13 @@
     </row>
     <row r="92" spans="1:5" ht="90">
       <c r="A92" t="s">
-        <v>4589</v>
+        <v>4587</v>
       </c>
       <c r="B92" t="s">
-        <v>4593</v>
+        <v>4591</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>4594</v>
+        <v>4592</v>
       </c>
       <c r="E92" t="s">
         <v>1253</v>
@@ -19467,13 +19461,13 @@
     </row>
     <row r="93" spans="1:5" ht="30">
       <c r="A93" t="s">
-        <v>4590</v>
+        <v>4588</v>
       </c>
       <c r="B93" t="s">
-        <v>4595</v>
+        <v>4593</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>4596</v>
+        <v>4594</v>
       </c>
       <c r="E93" t="s">
         <v>1254</v>
@@ -19481,10 +19475,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>4597</v>
+        <v>4595</v>
       </c>
       <c r="B94" t="s">
-        <v>4597</v>
+        <v>4595</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>1261</v>
@@ -19492,24 +19486,24 @@
     </row>
     <row r="95" spans="1:5" ht="90">
       <c r="A95" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4603</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>4604</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4605</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>4606</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="75">
       <c r="A96" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4606</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>4607</v>
-      </c>
-      <c r="B96" t="s">
-        <v>4608</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>4609</v>
       </c>
       <c r="E96" t="s">
         <v>77</v>
@@ -19517,13 +19511,13 @@
     </row>
     <row r="97" spans="1:5" ht="105">
       <c r="A97" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4609</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>4610</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4611</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>4612</v>
       </c>
       <c r="E97" t="s">
         <v>1263</v>
@@ -19531,10 +19525,10 @@
     </row>
     <row r="98" spans="1:5" ht="30">
       <c r="A98" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="B98" t="s">
-        <v>4598</v>
+        <v>4596</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>1266</v>
@@ -19542,24 +19536,24 @@
     </row>
     <row r="99" spans="1:5" ht="105">
       <c r="A99" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4612</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>4613</v>
-      </c>
-      <c r="B99" t="s">
-        <v>4614</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>4615</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="105">
       <c r="A100" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4615</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>4616</v>
-      </c>
-      <c r="B100" t="s">
-        <v>4617</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>4618</v>
       </c>
       <c r="E100" t="s">
         <v>1269</v>
@@ -19567,13 +19561,13 @@
     </row>
     <row r="101" spans="1:5" ht="90">
       <c r="A101" t="s">
-        <v>4619</v>
+        <v>4617</v>
       </c>
       <c r="B101" t="s">
-        <v>4622</v>
+        <v>4620</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>4623</v>
+        <v>4621</v>
       </c>
       <c r="E101" t="s">
         <v>1272</v>
@@ -19581,13 +19575,13 @@
     </row>
     <row r="102" spans="1:5" ht="60">
       <c r="A102" t="s">
-        <v>4620</v>
+        <v>4618</v>
       </c>
       <c r="B102" t="s">
-        <v>4624</v>
+        <v>4622</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>4625</v>
+        <v>4623</v>
       </c>
       <c r="E102" t="s">
         <v>1273</v>
@@ -19595,13 +19589,13 @@
     </row>
     <row r="103" spans="1:5" ht="60">
       <c r="A103" t="s">
-        <v>4621</v>
+        <v>4619</v>
       </c>
       <c r="B103" t="s">
-        <v>4626</v>
+        <v>4624</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>4627</v>
+        <v>4625</v>
       </c>
       <c r="E103" t="s">
         <v>1274</v>
@@ -19609,13 +19603,13 @@
     </row>
     <row r="104" spans="1:5" ht="45">
       <c r="A104" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B104" t="s">
         <v>4628</v>
       </c>
-      <c r="B104" t="s">
-        <v>4630</v>
-      </c>
       <c r="C104" s="3" t="s">
-        <v>4631</v>
+        <v>4629</v>
       </c>
       <c r="E104" t="s">
         <v>1275</v>
@@ -19623,13 +19617,13 @@
     </row>
     <row r="105" spans="1:5" ht="105">
       <c r="A105" t="s">
-        <v>4629</v>
+        <v>4627</v>
       </c>
       <c r="B105" t="s">
-        <v>4632</v>
+        <v>4630</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>4633</v>
+        <v>4631</v>
       </c>
       <c r="E105" t="s">
         <v>1276</v>
@@ -19637,24 +19631,24 @@
     </row>
     <row r="106" spans="1:5" ht="75">
       <c r="A106" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4633</v>
+      </c>
+      <c r="C106" s="3" t="s">
         <v>4634</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4635</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>4636</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="90">
       <c r="A107" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4636</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>4637</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4638</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>4639</v>
       </c>
       <c r="E107" t="s">
         <v>1288</v>
@@ -19662,13 +19656,13 @@
     </row>
     <row r="108" spans="1:5" ht="90">
       <c r="A108" t="s">
-        <v>4640</v>
+        <v>4638</v>
       </c>
       <c r="B108" t="s">
-        <v>4648</v>
+        <v>4646</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>4649</v>
+        <v>4647</v>
       </c>
       <c r="E108" t="s">
         <v>1289</v>
@@ -19676,13 +19670,13 @@
     </row>
     <row r="109" spans="1:5" ht="120">
       <c r="A109" t="s">
-        <v>4641</v>
+        <v>4639</v>
       </c>
       <c r="B109" t="s">
-        <v>4650</v>
+        <v>4648</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>4651</v>
+        <v>4649</v>
       </c>
       <c r="E109" t="s">
         <v>1290</v>
@@ -19690,13 +19684,13 @@
     </row>
     <row r="110" spans="1:5" ht="60">
       <c r="A110" t="s">
-        <v>4642</v>
+        <v>4640</v>
       </c>
       <c r="B110" t="s">
-        <v>4652</v>
+        <v>4650</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>4653</v>
+        <v>4651</v>
       </c>
       <c r="E110" t="s">
         <v>1291</v>
@@ -19704,13 +19698,13 @@
     </row>
     <row r="111" spans="1:5" ht="60">
       <c r="A111" t="s">
-        <v>4643</v>
+        <v>4641</v>
       </c>
       <c r="B111" t="s">
-        <v>4654</v>
+        <v>4652</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>4655</v>
+        <v>4653</v>
       </c>
       <c r="E111" t="s">
         <v>1292</v>
@@ -19718,13 +19712,13 @@
     </row>
     <row r="112" spans="1:5" ht="90">
       <c r="A112" t="s">
-        <v>4644</v>
+        <v>4642</v>
       </c>
       <c r="B112" t="s">
-        <v>4656</v>
+        <v>4654</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>4657</v>
+        <v>4655</v>
       </c>
       <c r="E112" t="s">
         <v>1293</v>
@@ -19732,13 +19726,13 @@
     </row>
     <row r="113" spans="1:5" ht="120">
       <c r="A113" t="s">
-        <v>4645</v>
+        <v>4643</v>
       </c>
       <c r="B113" t="s">
-        <v>4658</v>
+        <v>4656</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>4659</v>
+        <v>4657</v>
       </c>
       <c r="E113" t="s">
         <v>82</v>
@@ -19746,13 +19740,13 @@
     </row>
     <row r="114" spans="1:5" ht="45">
       <c r="A114" t="s">
-        <v>4646</v>
+        <v>4644</v>
       </c>
       <c r="B114" t="s">
-        <v>4660</v>
+        <v>4658</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>4661</v>
+        <v>4659</v>
       </c>
       <c r="E114" t="s">
         <v>1306</v>
@@ -19760,13 +19754,13 @@
     </row>
     <row r="115" spans="1:5" ht="105">
       <c r="A115" t="s">
-        <v>4647</v>
+        <v>4645</v>
       </c>
       <c r="B115" t="s">
-        <v>4662</v>
+        <v>4660</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>4663</v>
+        <v>4661</v>
       </c>
       <c r="E115" t="s">
         <v>85</v>
@@ -19774,10 +19768,10 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>4599</v>
+        <v>4597</v>
       </c>
       <c r="B116" t="s">
-        <v>4599</v>
+        <v>4597</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>1309</v>
@@ -19785,24 +19779,24 @@
     </row>
     <row r="117" spans="1:5" ht="60">
       <c r="A117" t="s">
+        <v>4662</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4663</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>4664</v>
-      </c>
-      <c r="B117" t="s">
-        <v>4665</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>4666</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="60">
       <c r="A118" t="s">
+        <v>4670</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4671</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>4672</v>
-      </c>
-      <c r="B118" t="s">
-        <v>4673</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>4674</v>
       </c>
       <c r="E118" t="s">
         <v>1311</v>
@@ -19810,13 +19804,13 @@
     </row>
     <row r="119" spans="1:5" ht="105">
       <c r="A119" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B119" t="s">
         <v>4675</v>
       </c>
-      <c r="B119" t="s">
-        <v>4677</v>
-      </c>
       <c r="C119" s="3" t="s">
-        <v>4676</v>
+        <v>4674</v>
       </c>
       <c r="E119" t="s">
         <v>1312</v>
@@ -19824,13 +19818,13 @@
     </row>
     <row r="120" spans="1:5" ht="105">
       <c r="A120" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B120" t="s">
         <v>4678</v>
       </c>
-      <c r="B120" t="s">
-        <v>4680</v>
-      </c>
       <c r="C120" s="3" t="s">
-        <v>4681</v>
+        <v>4679</v>
       </c>
       <c r="E120" t="s">
         <v>1313</v>
@@ -19838,13 +19832,13 @@
     </row>
     <row r="121" spans="1:5" ht="105">
       <c r="A121" t="s">
-        <v>4679</v>
+        <v>4677</v>
       </c>
       <c r="B121" t="s">
-        <v>4682</v>
+        <v>4680</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>4683</v>
+        <v>4681</v>
       </c>
       <c r="E121" t="s">
         <v>90</v>
@@ -19852,24 +19846,24 @@
     </row>
     <row r="122" spans="1:5" ht="75">
       <c r="A122" t="s">
-        <v>4667</v>
+        <v>4665</v>
       </c>
       <c r="B122" t="s">
-        <v>4684</v>
+        <v>4682</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>4685</v>
+        <v>4683</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="90">
       <c r="A123" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>4686</v>
-      </c>
-      <c r="B123" t="s">
-        <v>4687</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>4688</v>
       </c>
       <c r="E123" t="s">
         <v>1323</v>
@@ -19877,24 +19871,24 @@
     </row>
     <row r="124" spans="1:5" ht="30">
       <c r="A124" t="s">
-        <v>4668</v>
+        <v>4666</v>
       </c>
       <c r="B124" t="s">
-        <v>4689</v>
+        <v>4687</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>4690</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="90">
       <c r="A125" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4690</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>4691</v>
-      </c>
-      <c r="B125" t="s">
-        <v>4692</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>4693</v>
       </c>
       <c r="E125" t="s">
         <v>92</v>
@@ -19902,24 +19896,24 @@
     </row>
     <row r="126" spans="1:5" ht="45">
       <c r="A126" t="s">
-        <v>4669</v>
+        <v>4667</v>
       </c>
       <c r="B126" t="s">
-        <v>4694</v>
+        <v>4692</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>4695</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="90">
       <c r="A127" t="s">
+        <v>4695</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4696</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>4697</v>
-      </c>
-      <c r="B127" t="s">
-        <v>4698</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>4699</v>
       </c>
       <c r="E127" t="s">
         <v>96</v>
@@ -19927,13 +19921,13 @@
     </row>
     <row r="128" spans="1:5" ht="75">
       <c r="A128" t="s">
+        <v>4698</v>
+      </c>
+      <c r="B128" t="s">
         <v>4700</v>
       </c>
-      <c r="B128" t="s">
-        <v>4702</v>
-      </c>
       <c r="C128" s="3" t="s">
-        <v>4703</v>
+        <v>4701</v>
       </c>
       <c r="E128" t="s">
         <v>99</v>
@@ -19941,13 +19935,13 @@
     </row>
     <row r="129" spans="1:5" ht="75">
       <c r="A129" t="s">
-        <v>4701</v>
+        <v>4699</v>
       </c>
       <c r="B129" t="s">
-        <v>4704</v>
+        <v>4702</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>4705</v>
+        <v>4703</v>
       </c>
       <c r="E129" t="s">
         <v>1329</v>
@@ -19955,13 +19949,13 @@
     </row>
     <row r="130" spans="1:5" ht="105">
       <c r="A130" t="s">
+        <v>4704</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4705</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>4706</v>
-      </c>
-      <c r="B130" t="s">
-        <v>4707</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>4708</v>
       </c>
       <c r="E130" t="s">
         <v>1330</v>
@@ -19969,24 +19963,24 @@
     </row>
     <row r="131" spans="1:5" ht="45">
       <c r="A131" t="s">
-        <v>4670</v>
+        <v>4668</v>
       </c>
       <c r="B131" t="s">
-        <v>4709</v>
+        <v>4707</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>4710</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="60">
       <c r="A132" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4710</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>4711</v>
-      </c>
-      <c r="B132" t="s">
-        <v>4712</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>4713</v>
       </c>
       <c r="E132" t="s">
         <v>1337</v>
@@ -19994,24 +19988,24 @@
     </row>
     <row r="133" spans="1:5" ht="45">
       <c r="A133" t="s">
-        <v>4671</v>
+        <v>4669</v>
       </c>
       <c r="B133" t="s">
-        <v>4714</v>
+        <v>4712</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>4715</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="135">
       <c r="A134" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B134" t="s">
+        <v>4715</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>4716</v>
-      </c>
-      <c r="B134" t="s">
-        <v>4717</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>4718</v>
       </c>
       <c r="E134" t="s">
         <v>1342</v>
@@ -20019,13 +20013,13 @@
     </row>
     <row r="135" spans="1:5" ht="75">
       <c r="A135" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B135" t="s">
+        <v>4718</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>4719</v>
-      </c>
-      <c r="B135" t="s">
-        <v>4720</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>4721</v>
       </c>
       <c r="E135" t="s">
         <v>1345</v>
@@ -20033,24 +20027,24 @@
     </row>
     <row r="136" spans="1:5" ht="45">
       <c r="A136" t="s">
-        <v>4696</v>
+        <v>4694</v>
       </c>
       <c r="B136" t="s">
-        <v>4722</v>
+        <v>4720</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>4723</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="120">
       <c r="A137" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B137" t="s">
+        <v>4723</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>4724</v>
-      </c>
-      <c r="B137" t="s">
-        <v>4725</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>4726</v>
       </c>
       <c r="E137" t="s">
         <v>1350</v>
@@ -20058,10 +20052,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>4600</v>
+        <v>4598</v>
       </c>
       <c r="B138" t="s">
-        <v>4600</v>
+        <v>4598</v>
       </c>
       <c r="C138" t="s">
         <v>1353</v>
@@ -20069,24 +20063,24 @@
     </row>
     <row r="139" spans="1:5" ht="75">
       <c r="A139" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B139" t="s">
+        <v>4726</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>4727</v>
-      </c>
-      <c r="B139" t="s">
-        <v>4728</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>4729</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="60">
       <c r="A140" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B140" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>4731</v>
-      </c>
-      <c r="B140" t="s">
-        <v>4732</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>4733</v>
       </c>
       <c r="E140" t="s">
         <v>1356</v>
@@ -20094,13 +20088,13 @@
     </row>
     <row r="141" spans="1:5" ht="150">
       <c r="A141" t="s">
+        <v>4732</v>
+      </c>
+      <c r="B141" t="s">
         <v>4734</v>
       </c>
-      <c r="B141" t="s">
-        <v>4736</v>
-      </c>
       <c r="C141" s="3" t="s">
-        <v>4737</v>
+        <v>4735</v>
       </c>
       <c r="E141" t="s">
         <v>1359</v>
@@ -20108,13 +20102,13 @@
     </row>
     <row r="142" spans="1:5" ht="75">
       <c r="A142" t="s">
-        <v>4735</v>
+        <v>4733</v>
       </c>
       <c r="B142" t="s">
-        <v>4739</v>
+        <v>4737</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>4738</v>
+        <v>4736</v>
       </c>
       <c r="E142" t="s">
         <v>1360</v>
@@ -20122,24 +20116,24 @@
     </row>
     <row r="143" spans="1:5" ht="75">
       <c r="A143" t="s">
-        <v>4730</v>
+        <v>4728</v>
       </c>
       <c r="B143" t="s">
-        <v>4740</v>
+        <v>4738</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>4741</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="105">
       <c r="A144" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B144" t="s">
         <v>4742</v>
       </c>
-      <c r="B144" t="s">
-        <v>4744</v>
-      </c>
       <c r="C144" s="3" t="s">
-        <v>4743</v>
+        <v>4741</v>
       </c>
       <c r="E144" t="s">
         <v>104</v>
@@ -20147,13 +20141,13 @@
     </row>
     <row r="145" spans="1:5" ht="75">
       <c r="A145" t="s">
-        <v>4745</v>
+        <v>4743</v>
       </c>
       <c r="B145" t="s">
-        <v>4748</v>
+        <v>4746</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>4749</v>
+        <v>4747</v>
       </c>
       <c r="E145" t="s">
         <v>1366</v>
@@ -20161,13 +20155,13 @@
     </row>
     <row r="146" spans="1:5" ht="60">
       <c r="A146" t="s">
-        <v>4746</v>
+        <v>4744</v>
       </c>
       <c r="B146" t="s">
-        <v>4750</v>
+        <v>4748</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>4751</v>
+        <v>4749</v>
       </c>
       <c r="E146" t="s">
         <v>1367</v>
@@ -20175,13 +20169,13 @@
     </row>
     <row r="147" spans="1:5" ht="150">
       <c r="A147" t="s">
-        <v>4747</v>
+        <v>4745</v>
       </c>
       <c r="B147" t="s">
-        <v>4752</v>
+        <v>4750</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>4753</v>
+        <v>4751</v>
       </c>
       <c r="E147" t="s">
         <v>107</v>
@@ -20189,35 +20183,35 @@
     </row>
     <row r="148" spans="1:5" ht="45">
       <c r="A148" t="s">
-        <v>4601</v>
+        <v>4599</v>
       </c>
       <c r="B148" t="s">
-        <v>4601</v>
+        <v>4599</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>4754</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="120">
       <c r="A149" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B149" t="s">
         <v>4755</v>
       </c>
-      <c r="B149" t="s">
-        <v>4757</v>
-      </c>
       <c r="C149" s="3" t="s">
-        <v>4758</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="105">
       <c r="A150" t="s">
+        <v>4757</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4758</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>4759</v>
-      </c>
-      <c r="B150" t="s">
-        <v>4760</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>4761</v>
       </c>
       <c r="E150" t="s">
         <v>1373</v>
@@ -20225,13 +20219,13 @@
     </row>
     <row r="151" spans="1:5" ht="135">
       <c r="A151" t="s">
+        <v>4760</v>
+      </c>
+      <c r="B151" t="s">
         <v>4762</v>
       </c>
-      <c r="B151" t="s">
-        <v>4764</v>
-      </c>
       <c r="C151" s="3" t="s">
-        <v>4765</v>
+        <v>4763</v>
       </c>
       <c r="E151" t="s">
         <v>112</v>
@@ -20239,13 +20233,13 @@
     </row>
     <row r="152" spans="1:5" ht="150">
       <c r="A152" t="s">
-        <v>4763</v>
+        <v>4761</v>
       </c>
       <c r="B152" t="s">
-        <v>4766</v>
+        <v>4764</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>4767</v>
+        <v>4765</v>
       </c>
       <c r="E152" t="s">
         <v>1376</v>
@@ -20253,24 +20247,24 @@
     </row>
     <row r="153" spans="1:5" ht="90">
       <c r="A153" t="s">
-        <v>4756</v>
+        <v>4754</v>
       </c>
       <c r="B153" t="s">
-        <v>4768</v>
+        <v>4766</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>4769</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="75">
       <c r="A154" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4769</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>4770</v>
-      </c>
-      <c r="B154" t="s">
-        <v>4771</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>4772</v>
       </c>
       <c r="E154" t="s">
         <v>116</v>
@@ -20278,13 +20272,13 @@
     </row>
     <row r="155" spans="1:5" ht="75">
       <c r="A155" t="s">
-        <v>4773</v>
+        <v>4771</v>
       </c>
       <c r="B155" t="s">
-        <v>4776</v>
+        <v>4774</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>4777</v>
+        <v>4775</v>
       </c>
       <c r="E155" t="s">
         <v>1380</v>
@@ -20292,13 +20286,13 @@
     </row>
     <row r="156" spans="1:5" ht="105">
       <c r="A156" t="s">
-        <v>4774</v>
+        <v>4772</v>
       </c>
       <c r="B156" t="s">
-        <v>4778</v>
+        <v>4776</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>4779</v>
+        <v>4777</v>
       </c>
       <c r="E156" t="s">
         <v>1381</v>
@@ -20306,13 +20300,13 @@
     </row>
     <row r="157" spans="1:5" ht="90">
       <c r="A157" t="s">
-        <v>4775</v>
+        <v>4773</v>
       </c>
       <c r="B157" t="s">
-        <v>4780</v>
+        <v>4778</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>4781</v>
+        <v>4779</v>
       </c>
       <c r="E157" t="s">
         <v>1382</v>
@@ -20320,13 +20314,13 @@
     </row>
     <row r="158" spans="1:5" ht="90">
       <c r="A158" t="s">
-        <v>4782</v>
+        <v>4780</v>
       </c>
       <c r="B158" t="s">
-        <v>4786</v>
+        <v>4784</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>4787</v>
+        <v>4785</v>
       </c>
       <c r="E158" t="s">
         <v>119</v>
@@ -20334,13 +20328,13 @@
     </row>
     <row r="159" spans="1:5" ht="135">
       <c r="A159" t="s">
-        <v>4783</v>
+        <v>4781</v>
       </c>
       <c r="B159" t="s">
-        <v>4788</v>
+        <v>4786</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>4789</v>
+        <v>4787</v>
       </c>
       <c r="E159" t="s">
         <v>1389</v>
@@ -20348,13 +20342,13 @@
     </row>
     <row r="160" spans="1:5" ht="60">
       <c r="A160" t="s">
-        <v>4784</v>
+        <v>4782</v>
       </c>
       <c r="B160" t="s">
-        <v>4790</v>
+        <v>4788</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>4791</v>
+        <v>4789</v>
       </c>
       <c r="E160" t="s">
         <v>1390</v>
@@ -20362,13 +20356,13 @@
     </row>
     <row r="161" spans="1:5" ht="60">
       <c r="A161" t="s">
-        <v>4785</v>
+        <v>4783</v>
       </c>
       <c r="B161" t="s">
-        <v>4793</v>
+        <v>4791</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>4794</v>
+        <v>4792</v>
       </c>
       <c r="E161" t="s">
         <v>1391</v>
@@ -20376,13 +20370,13 @@
     </row>
     <row r="162" spans="1:5" ht="105">
       <c r="A162" t="s">
-        <v>4792</v>
+        <v>4790</v>
       </c>
       <c r="B162" t="s">
-        <v>4795</v>
+        <v>4793</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>4796</v>
+        <v>4794</v>
       </c>
       <c r="E162" t="s">
         <v>1392</v>
@@ -20390,24 +20384,24 @@
     </row>
     <row r="163" spans="1:5" ht="45">
       <c r="A163" t="s">
-        <v>4797</v>
+        <v>4795</v>
       </c>
       <c r="B163" t="s">
-        <v>4797</v>
+        <v>4795</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>4798</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="45">
       <c r="A164" t="s">
+        <v>4797</v>
+      </c>
+      <c r="B164" t="s">
+        <v>4798</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>4799</v>
-      </c>
-      <c r="B164" t="s">
-        <v>4800</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>4801</v>
       </c>
       <c r="E164" t="s">
         <v>123</v>
@@ -20415,10 +20409,10 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="B165" t="s">
-        <v>4602</v>
+        <v>4600</v>
       </c>
       <c r="C165" t="s">
         <v>1402</v>
@@ -20426,24 +20420,24 @@
     </row>
     <row r="166" spans="1:5" ht="60">
       <c r="A166" t="s">
+        <v>4800</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4801</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>4802</v>
-      </c>
-      <c r="B166" t="s">
-        <v>4803</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>4804</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="120">
       <c r="A167" t="s">
+        <v>4803</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4804</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>4805</v>
-      </c>
-      <c r="B167" t="s">
-        <v>4806</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>4807</v>
       </c>
       <c r="E167" t="s">
         <v>1404</v>
@@ -20451,13 +20445,13 @@
     </row>
     <row r="168" spans="1:5" ht="120">
       <c r="A168" t="s">
+        <v>4806</v>
+      </c>
+      <c r="B168" t="s">
         <v>4808</v>
       </c>
-      <c r="B168" t="s">
-        <v>4810</v>
-      </c>
       <c r="C168" s="3" t="s">
-        <v>4811</v>
+        <v>4809</v>
       </c>
       <c r="E168" t="s">
         <v>128</v>
@@ -20465,13 +20459,13 @@
     </row>
     <row r="169" spans="1:5" ht="135">
       <c r="A169" t="s">
-        <v>4809</v>
+        <v>4807</v>
       </c>
       <c r="B169" t="s">
-        <v>4812</v>
+        <v>4810</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>4813</v>
+        <v>4811</v>
       </c>
       <c r="E169" t="s">
         <v>1407</v>
@@ -20479,24 +20473,24 @@
     </row>
     <row r="170" spans="1:5" ht="75">
       <c r="A170" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4813</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>4814</v>
-      </c>
-      <c r="B170" t="s">
-        <v>4815</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>4816</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="60">
       <c r="A171" t="s">
+        <v>4815</v>
+      </c>
+      <c r="B171" t="s">
         <v>4817</v>
       </c>
-      <c r="B171" t="s">
-        <v>4819</v>
-      </c>
       <c r="C171" s="3" t="s">
-        <v>4820</v>
+        <v>4818</v>
       </c>
       <c r="E171" t="s">
         <v>1412</v>
@@ -20504,13 +20498,13 @@
     </row>
     <row r="172" spans="1:5" ht="135">
       <c r="A172" t="s">
-        <v>4818</v>
+        <v>4816</v>
       </c>
       <c r="B172" t="s">
-        <v>4821</v>
+        <v>4819</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>4822</v>
+        <v>4820</v>
       </c>
       <c r="E172" t="s">
         <v>1415</v>
@@ -20518,10 +20512,10 @@
     </row>
     <row r="173" spans="1:5" ht="30">
       <c r="A173" t="s">
-        <v>4603</v>
+        <v>4601</v>
       </c>
       <c r="B173" t="s">
-        <v>4603</v>
+        <v>4601</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>1418</v>
@@ -20529,24 +20523,24 @@
     </row>
     <row r="174" spans="1:5" ht="120">
       <c r="A174" t="s">
+        <v>4821</v>
+      </c>
+      <c r="B174" t="s">
+        <v>4822</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>4823</v>
-      </c>
-      <c r="B174" t="s">
-        <v>4824</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>4825</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="120">
       <c r="A175" t="s">
+        <v>4824</v>
+      </c>
+      <c r="B175" t="s">
+        <v>4825</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>4826</v>
-      </c>
-      <c r="B175" t="s">
-        <v>4827</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>4828</v>
       </c>
       <c r="E175" t="s">
         <v>133</v>
@@ -20554,13 +20548,13 @@
     </row>
     <row r="176" spans="1:5" ht="75">
       <c r="A176" t="s">
-        <v>4829</v>
+        <v>4827</v>
       </c>
       <c r="B176" t="s">
-        <v>4835</v>
+        <v>4833</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>4836</v>
+        <v>4834</v>
       </c>
       <c r="E176" t="s">
         <v>1420</v>
@@ -20568,13 +20562,13 @@
     </row>
     <row r="177" spans="1:5" ht="135">
       <c r="A177" t="s">
-        <v>4830</v>
+        <v>4828</v>
       </c>
       <c r="B177" t="s">
-        <v>4837</v>
+        <v>4835</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>4838</v>
+        <v>4836</v>
       </c>
       <c r="E177" t="s">
         <v>1421</v>
@@ -20582,13 +20576,13 @@
     </row>
     <row r="178" spans="1:5" ht="90">
       <c r="A178" t="s">
-        <v>4831</v>
+        <v>4829</v>
       </c>
       <c r="B178" t="s">
-        <v>4839</v>
+        <v>4837</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>4840</v>
+        <v>4838</v>
       </c>
       <c r="E178" t="s">
         <v>1422</v>
@@ -20596,13 +20590,13 @@
     </row>
     <row r="179" spans="1:5" ht="75">
       <c r="A179" t="s">
-        <v>4832</v>
+        <v>4830</v>
       </c>
       <c r="B179" t="s">
-        <v>4841</v>
+        <v>4839</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>4842</v>
+        <v>4840</v>
       </c>
       <c r="E179" t="s">
         <v>136</v>
@@ -20610,13 +20604,13 @@
     </row>
     <row r="180" spans="1:5" ht="90">
       <c r="A180" t="s">
-        <v>4833</v>
+        <v>4831</v>
       </c>
       <c r="B180" t="s">
-        <v>4843</v>
+        <v>4841</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>4844</v>
+        <v>4842</v>
       </c>
       <c r="E180" t="s">
         <v>1429</v>
@@ -20624,13 +20618,13 @@
     </row>
     <row r="181" spans="1:5" ht="120">
       <c r="A181" t="s">
-        <v>4834</v>
+        <v>4832</v>
       </c>
       <c r="B181" t="s">
-        <v>4845</v>
+        <v>4843</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>4846</v>
+        <v>4844</v>
       </c>
       <c r="E181" t="s">
         <v>1430</v>
@@ -20638,10 +20632,10 @@
     </row>
     <row r="182" spans="1:5" ht="45">
       <c r="A182" t="s">
-        <v>4847</v>
+        <v>4845</v>
       </c>
       <c r="B182" t="s">
-        <v>4847</v>
+        <v>4845</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>1435</v>
@@ -20649,24 +20643,24 @@
     </row>
     <row r="183" spans="1:5" ht="90">
       <c r="A183" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4847</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>4848</v>
-      </c>
-      <c r="B183" t="s">
-        <v>4849</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>4850</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="135">
       <c r="A184" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4850</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>4851</v>
-      </c>
-      <c r="B184" t="s">
-        <v>4852</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>4853</v>
       </c>
       <c r="E184" t="s">
         <v>1438</v>
@@ -20674,13 +20668,13 @@
     </row>
     <row r="185" spans="1:5" ht="135">
       <c r="A185" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B185" t="s">
         <v>4854</v>
       </c>
-      <c r="B185" t="s">
-        <v>4856</v>
-      </c>
       <c r="C185" s="3" t="s">
-        <v>4857</v>
+        <v>4855</v>
       </c>
       <c r="E185" t="s">
         <v>1439</v>
@@ -20688,13 +20682,13 @@
     </row>
     <row r="186" spans="1:5" ht="105">
       <c r="A186" t="s">
-        <v>4855</v>
+        <v>4853</v>
       </c>
       <c r="B186" t="s">
-        <v>4858</v>
+        <v>4856</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>4859</v>
+        <v>4857</v>
       </c>
       <c r="E186" t="s">
         <v>1440</v>
@@ -20702,24 +20696,24 @@
     </row>
     <row r="187" spans="1:5" ht="45">
       <c r="A187" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4859</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>4860</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4861</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>4862</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="90">
       <c r="A188" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B188" t="s">
+        <v>4862</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>4863</v>
-      </c>
-      <c r="B188" t="s">
-        <v>4864</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>4865</v>
       </c>
       <c r="E188" t="s">
         <v>1449</v>
@@ -20727,10 +20721,10 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="B189" t="s">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>1452</v>
@@ -20738,24 +20732,24 @@
     </row>
     <row r="190" spans="1:5" ht="105">
       <c r="A190" t="s">
+        <v>4865</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4866</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>4867</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4868</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>4869</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="135">
       <c r="A191" t="s">
+        <v>4868</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4869</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>4870</v>
-      </c>
-      <c r="B191" t="s">
-        <v>4871</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>4872</v>
       </c>
       <c r="E191" t="s">
         <v>141</v>
@@ -20763,13 +20757,13 @@
     </row>
     <row r="192" spans="1:5" ht="135">
       <c r="A192" t="s">
-        <v>4873</v>
+        <v>4871</v>
       </c>
       <c r="B192" t="s">
-        <v>4877</v>
+        <v>4875</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>4878</v>
+        <v>4876</v>
       </c>
       <c r="E192" t="s">
         <v>1454</v>
@@ -20777,13 +20771,13 @@
     </row>
     <row r="193" spans="1:5" ht="135">
       <c r="A193" t="s">
-        <v>4874</v>
+        <v>4872</v>
       </c>
       <c r="B193" t="s">
-        <v>4879</v>
+        <v>4877</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>4880</v>
+        <v>4878</v>
       </c>
       <c r="E193" t="s">
         <v>144</v>
@@ -20791,13 +20785,13 @@
     </row>
     <row r="194" spans="1:5" ht="105">
       <c r="A194" t="s">
-        <v>4875</v>
+        <v>4873</v>
       </c>
       <c r="B194" t="s">
-        <v>4881</v>
+        <v>4879</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>4882</v>
+        <v>4880</v>
       </c>
       <c r="E194" t="s">
         <v>1457</v>
@@ -20805,13 +20799,13 @@
     </row>
     <row r="195" spans="1:5" ht="75">
       <c r="A195" t="s">
-        <v>4876</v>
+        <v>4874</v>
       </c>
       <c r="B195" t="s">
-        <v>4883</v>
+        <v>4881</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>4884</v>
+        <v>4882</v>
       </c>
       <c r="E195" t="s">
         <v>1458</v>
@@ -20819,24 +20813,24 @@
     </row>
     <row r="196" spans="1:5" ht="90">
       <c r="A196" t="s">
+        <v>4883</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4884</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>4885</v>
-      </c>
-      <c r="B196" t="s">
-        <v>4886</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>4887</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="150">
       <c r="A197" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4887</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>4888</v>
-      </c>
-      <c r="B197" t="s">
-        <v>4889</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>4890</v>
       </c>
       <c r="E197" t="s">
         <v>148</v>
@@ -20844,13 +20838,13 @@
     </row>
     <row r="198" spans="1:5" ht="120">
       <c r="A198" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B198" t="s">
         <v>4891</v>
       </c>
-      <c r="B198" t="s">
-        <v>4893</v>
-      </c>
       <c r="C198" s="3" t="s">
-        <v>4894</v>
+        <v>4892</v>
       </c>
       <c r="E198" t="s">
         <v>1464</v>
@@ -20858,13 +20852,13 @@
     </row>
     <row r="199" spans="1:5" ht="90">
       <c r="A199" t="s">
-        <v>4892</v>
+        <v>4890</v>
       </c>
       <c r="B199" t="s">
-        <v>4895</v>
+        <v>4893</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>4896</v>
+        <v>4894</v>
       </c>
       <c r="E199" t="s">
         <v>151</v>
@@ -20909,66 +20903,66 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4896</v>
+      </c>
+      <c r="C2" t="s">
         <v>4897</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4898</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4899</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4900</v>
+        <v>4898</v>
       </c>
       <c r="B3" t="s">
-        <v>4900</v>
+        <v>4898</v>
       </c>
       <c r="C3" t="s">
-        <v>4906</v>
+        <v>4904</v>
       </c>
       <c r="E3" t="s">
-        <v>5182</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4901</v>
+        <v>4899</v>
       </c>
       <c r="B4" t="s">
-        <v>4901</v>
+        <v>4899</v>
       </c>
       <c r="C4" t="s">
-        <v>4907</v>
+        <v>4905</v>
       </c>
       <c r="E4" t="s">
-        <v>5183</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4902</v>
+        <v>4900</v>
       </c>
       <c r="B5" t="s">
-        <v>4902</v>
+        <v>4900</v>
       </c>
       <c r="C5" t="s">
-        <v>4908</v>
+        <v>4906</v>
       </c>
       <c r="E5" t="s">
-        <v>5184</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4903</v>
+        <v>4901</v>
       </c>
       <c r="B6" t="s">
-        <v>4903</v>
+        <v>4901</v>
       </c>
       <c r="C6" t="s">
-        <v>4909</v>
+        <v>4907</v>
       </c>
       <c r="E6" t="s">
         <v>1293</v>
@@ -20976,13 +20970,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4904</v>
+        <v>4902</v>
       </c>
       <c r="B7" t="s">
-        <v>4904</v>
+        <v>4902</v>
       </c>
       <c r="C7" t="s">
-        <v>4910</v>
+        <v>4908</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -20990,13 +20984,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>4905</v>
+        <v>4903</v>
       </c>
       <c r="B8" t="s">
-        <v>4905</v>
+        <v>4903</v>
       </c>
       <c r="C8" t="s">
-        <v>4911</v>
+        <v>4909</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -21004,38 +20998,38 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>4912</v>
+        <v>4910</v>
       </c>
       <c r="B9" t="s">
-        <v>4918</v>
+        <v>4916</v>
       </c>
       <c r="C9" t="s">
-        <v>4919</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>4913</v>
+        <v>4911</v>
       </c>
       <c r="B10" t="s">
-        <v>4913</v>
+        <v>4911</v>
       </c>
       <c r="C10" t="s">
-        <v>4920</v>
+        <v>4918</v>
       </c>
       <c r="E10" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>4914</v>
+        <v>4912</v>
       </c>
       <c r="B11" t="s">
-        <v>4914</v>
+        <v>4912</v>
       </c>
       <c r="C11" t="s">
-        <v>4921</v>
+        <v>4919</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -21043,63 +21037,63 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>4915</v>
+        <v>4913</v>
       </c>
       <c r="B12" t="s">
-        <v>4915</v>
+        <v>4913</v>
       </c>
       <c r="C12" t="s">
-        <v>4922</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>4916</v>
+        <v>4914</v>
       </c>
       <c r="B13" t="s">
-        <v>4916</v>
+        <v>4914</v>
       </c>
       <c r="C13" t="s">
-        <v>4923</v>
+        <v>4921</v>
       </c>
       <c r="E13" t="s">
-        <v>5188</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>4917</v>
+        <v>4915</v>
       </c>
       <c r="B14" t="s">
-        <v>4917</v>
+        <v>4915</v>
       </c>
       <c r="C14" t="s">
-        <v>4924</v>
+        <v>4922</v>
       </c>
       <c r="E14" t="s">
-        <v>5189</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>4925</v>
+        <v>4923</v>
       </c>
       <c r="B15" t="s">
-        <v>4930</v>
+        <v>4928</v>
       </c>
       <c r="C15" t="s">
-        <v>4931</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>4926</v>
+        <v>4924</v>
       </c>
       <c r="B16" t="s">
-        <v>4926</v>
+        <v>4924</v>
       </c>
       <c r="C16" t="s">
-        <v>4932</v>
+        <v>4930</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
@@ -21107,80 +21101,80 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>4927</v>
+        <v>4925</v>
       </c>
       <c r="B17" t="s">
-        <v>4927</v>
+        <v>4925</v>
       </c>
       <c r="C17" t="s">
-        <v>4933</v>
+        <v>4931</v>
       </c>
       <c r="E17" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>4928</v>
+        <v>4926</v>
       </c>
       <c r="B18" t="s">
-        <v>4928</v>
+        <v>4926</v>
       </c>
       <c r="C18" t="s">
-        <v>4934</v>
+        <v>4932</v>
       </c>
       <c r="E18" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>4929</v>
+        <v>4927</v>
       </c>
       <c r="B19" t="s">
-        <v>4929</v>
+        <v>4927</v>
       </c>
       <c r="C19" t="s">
-        <v>4935</v>
+        <v>4933</v>
       </c>
       <c r="E19" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>4936</v>
+        <v>4934</v>
       </c>
       <c r="B20" t="s">
-        <v>4943</v>
+        <v>4941</v>
       </c>
       <c r="C20" t="s">
-        <v>4944</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>4937</v>
+        <v>4935</v>
       </c>
       <c r="B21" t="s">
-        <v>4937</v>
+        <v>4935</v>
       </c>
       <c r="C21" t="s">
-        <v>4945</v>
+        <v>4943</v>
       </c>
       <c r="E21" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>4938</v>
+        <v>4936</v>
       </c>
       <c r="B22" t="s">
-        <v>4938</v>
+        <v>4936</v>
       </c>
       <c r="C22" t="s">
-        <v>4946</v>
+        <v>4944</v>
       </c>
       <c r="E22" t="s">
         <v>1170</v>
@@ -21188,13 +21182,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>4939</v>
+        <v>4937</v>
       </c>
       <c r="B23" t="s">
-        <v>4939</v>
+        <v>4937</v>
       </c>
       <c r="C23" t="s">
-        <v>4947</v>
+        <v>4945</v>
       </c>
       <c r="E23" t="s">
         <v>20</v>
@@ -21202,27 +21196,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>4940</v>
+        <v>4938</v>
       </c>
       <c r="B24" t="s">
-        <v>4940</v>
+        <v>4938</v>
       </c>
       <c r="C24" t="s">
-        <v>4948</v>
+        <v>4946</v>
       </c>
       <c r="E24" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>4941</v>
+        <v>4939</v>
       </c>
       <c r="B25" t="s">
-        <v>4941</v>
+        <v>4939</v>
       </c>
       <c r="C25" t="s">
-        <v>4949</v>
+        <v>4947</v>
       </c>
       <c r="E25" t="s">
         <v>1342</v>
@@ -21230,13 +21224,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>4942</v>
+        <v>4940</v>
       </c>
       <c r="B26" t="s">
-        <v>4942</v>
+        <v>4940</v>
       </c>
       <c r="C26" t="s">
-        <v>4950</v>
+        <v>4948</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
@@ -21244,133 +21238,133 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>4951</v>
+        <v>4949</v>
       </c>
       <c r="B27" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="C27" t="s">
-        <v>4956</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>4952</v>
+        <v>4950</v>
       </c>
       <c r="B28" t="s">
-        <v>4952</v>
+        <v>4950</v>
       </c>
       <c r="C28" t="s">
-        <v>4957</v>
+        <v>4955</v>
       </c>
       <c r="E28" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="B29" t="s">
-        <v>4953</v>
+        <v>4951</v>
       </c>
       <c r="C29" t="s">
-        <v>4958</v>
+        <v>4956</v>
       </c>
       <c r="E29" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>4954</v>
+        <v>4952</v>
       </c>
       <c r="B30" t="s">
-        <v>4954</v>
+        <v>4952</v>
       </c>
       <c r="C30" t="s">
-        <v>4959</v>
+        <v>4957</v>
       </c>
       <c r="E30" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>4960</v>
+        <v>4958</v>
       </c>
       <c r="B31" t="s">
-        <v>4966</v>
+        <v>4964</v>
       </c>
       <c r="C31" t="s">
-        <v>4967</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>4961</v>
+        <v>4959</v>
       </c>
       <c r="B32" t="s">
-        <v>4961</v>
+        <v>4959</v>
       </c>
       <c r="C32" t="s">
-        <v>4968</v>
+        <v>4966</v>
       </c>
       <c r="E32" t="s">
-        <v>5187</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="B33" t="s">
-        <v>4962</v>
+        <v>4960</v>
       </c>
       <c r="C33" t="s">
-        <v>4969</v>
+        <v>4967</v>
       </c>
       <c r="E33" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>4963</v>
+        <v>4961</v>
       </c>
       <c r="B34" t="s">
-        <v>4963</v>
+        <v>4961</v>
       </c>
       <c r="C34" t="s">
-        <v>4970</v>
+        <v>4968</v>
       </c>
       <c r="E34" t="s">
-        <v>5198</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>4964</v>
+        <v>4962</v>
       </c>
       <c r="B35" t="s">
-        <v>4964</v>
+        <v>4962</v>
       </c>
       <c r="C35" t="s">
-        <v>4971</v>
+        <v>4969</v>
       </c>
       <c r="E35" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>4965</v>
+        <v>4963</v>
       </c>
       <c r="B36" t="s">
-        <v>4965</v>
+        <v>4963</v>
       </c>
       <c r="C36" t="s">
-        <v>4972</v>
+        <v>4970</v>
       </c>
       <c r="E36" t="s">
         <v>1440</v>
@@ -21378,147 +21372,147 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>4973</v>
+        <v>4971</v>
       </c>
       <c r="B37" t="s">
-        <v>4981</v>
+        <v>4979</v>
       </c>
       <c r="C37" t="s">
-        <v>4982</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>4974</v>
+        <v>4972</v>
       </c>
       <c r="B38" t="s">
-        <v>4974</v>
+        <v>4972</v>
       </c>
       <c r="C38" t="s">
-        <v>4983</v>
+        <v>4981</v>
       </c>
       <c r="E38" t="s">
-        <v>5199</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>4975</v>
+        <v>4973</v>
       </c>
       <c r="B39" t="s">
-        <v>4975</v>
+        <v>4973</v>
       </c>
       <c r="C39" t="s">
-        <v>4984</v>
+        <v>4982</v>
       </c>
       <c r="E39" t="s">
-        <v>5200</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>4976</v>
+        <v>4974</v>
       </c>
       <c r="B40" t="s">
-        <v>4976</v>
+        <v>4974</v>
       </c>
       <c r="C40" t="s">
-        <v>4985</v>
+        <v>4983</v>
       </c>
       <c r="E40" t="s">
-        <v>5201</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>4977</v>
+        <v>4975</v>
       </c>
       <c r="B41" t="s">
-        <v>4977</v>
+        <v>4975</v>
       </c>
       <c r="C41" t="s">
-        <v>4986</v>
+        <v>4984</v>
       </c>
       <c r="E41" t="s">
-        <v>5202</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>4978</v>
+        <v>4976</v>
       </c>
       <c r="B42" t="s">
-        <v>4978</v>
+        <v>4976</v>
       </c>
       <c r="C42" t="s">
-        <v>4987</v>
+        <v>4985</v>
       </c>
       <c r="E42" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>4979</v>
+        <v>4977</v>
       </c>
       <c r="B43" t="s">
-        <v>4979</v>
+        <v>4977</v>
       </c>
       <c r="C43" t="s">
-        <v>4988</v>
+        <v>4986</v>
       </c>
       <c r="E43" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>4980</v>
+        <v>4978</v>
       </c>
       <c r="B44" t="s">
-        <v>4980</v>
+        <v>4978</v>
       </c>
       <c r="C44" t="s">
-        <v>4989</v>
+        <v>4987</v>
       </c>
       <c r="E44" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>4990</v>
+        <v>4988</v>
       </c>
       <c r="B45" t="s">
-        <v>4996</v>
+        <v>4994</v>
       </c>
       <c r="C45" t="s">
-        <v>4997</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="B46" t="s">
-        <v>4991</v>
+        <v>4989</v>
       </c>
       <c r="C46" t="s">
-        <v>4998</v>
+        <v>4996</v>
       </c>
       <c r="E46" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="B47" t="s">
-        <v>4992</v>
+        <v>4990</v>
       </c>
       <c r="C47" t="s">
-        <v>4999</v>
+        <v>4997</v>
       </c>
       <c r="E47" t="s">
         <v>961</v>
@@ -21526,27 +21520,27 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>4993</v>
+        <v>4991</v>
       </c>
       <c r="B48" t="s">
-        <v>4993</v>
+        <v>4991</v>
       </c>
       <c r="C48" t="s">
-        <v>5000</v>
+        <v>4998</v>
       </c>
       <c r="E48" t="s">
-        <v>5207</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="B49" t="s">
-        <v>4994</v>
+        <v>4992</v>
       </c>
       <c r="C49" t="s">
-        <v>5001</v>
+        <v>4999</v>
       </c>
       <c r="E49" t="s">
         <v>961</v>
@@ -21554,13 +21548,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="B50" t="s">
-        <v>4995</v>
+        <v>4993</v>
       </c>
       <c r="C50" t="s">
-        <v>5002</v>
+        <v>5000</v>
       </c>
       <c r="E50" t="s">
         <v>961</v>
@@ -21568,24 +21562,24 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>5003</v>
+        <v>5001</v>
       </c>
       <c r="B51" t="s">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="C51" t="s">
-        <v>5013</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="B52" t="s">
-        <v>5004</v>
+        <v>5002</v>
       </c>
       <c r="C52" t="s">
-        <v>5014</v>
+        <v>5012</v>
       </c>
       <c r="E52" t="s">
         <v>1217</v>
@@ -21593,83 +21587,83 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="B53" t="s">
-        <v>5005</v>
+        <v>5003</v>
       </c>
       <c r="C53" t="s">
-        <v>5015</v>
+        <v>5013</v>
       </c>
       <c r="E53" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="B54" t="s">
-        <v>5006</v>
+        <v>5004</v>
       </c>
       <c r="C54" t="s">
-        <v>5016</v>
+        <v>5014</v>
       </c>
       <c r="E54" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="B55" t="s">
-        <v>5007</v>
+        <v>5005</v>
       </c>
       <c r="C55" t="s">
-        <v>5017</v>
+        <v>5015</v>
       </c>
       <c r="E55" t="s">
-        <v>5210</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="B56" t="s">
-        <v>5008</v>
+        <v>5006</v>
       </c>
       <c r="C56" t="s">
-        <v>5018</v>
+        <v>5016</v>
       </c>
       <c r="E56" t="s">
-        <v>5211</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="B57" t="s">
-        <v>5009</v>
+        <v>5007</v>
       </c>
       <c r="C57" t="s">
-        <v>5019</v>
+        <v>5017</v>
       </c>
       <c r="E57" t="s">
-        <v>5212</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="B58" t="s">
-        <v>5010</v>
+        <v>5008</v>
       </c>
       <c r="C58" t="s">
-        <v>5020</v>
+        <v>5018</v>
       </c>
       <c r="E58" t="s">
         <v>90</v>
@@ -21677,13 +21671,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="B59" t="s">
-        <v>5011</v>
+        <v>5009</v>
       </c>
       <c r="C59" t="s">
-        <v>5021</v>
+        <v>5019</v>
       </c>
       <c r="E59" t="s">
         <v>1291</v>
@@ -21691,122 +21685,122 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>5022</v>
+        <v>5020</v>
       </c>
       <c r="B60" t="s">
-        <v>5035</v>
+        <v>5033</v>
       </c>
       <c r="C60" t="s">
-        <v>5036</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>5023</v>
+        <v>5021</v>
       </c>
       <c r="B61" t="s">
-        <v>5023</v>
+        <v>5021</v>
       </c>
       <c r="C61" t="s">
-        <v>5037</v>
+        <v>5035</v>
       </c>
       <c r="E61" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>5024</v>
+        <v>5022</v>
       </c>
       <c r="B62" t="s">
-        <v>5024</v>
+        <v>5022</v>
       </c>
       <c r="C62" t="s">
-        <v>5038</v>
+        <v>5036</v>
       </c>
       <c r="E62" t="s">
-        <v>5214</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>5025</v>
+        <v>5023</v>
       </c>
       <c r="B63" t="s">
-        <v>5025</v>
+        <v>5023</v>
       </c>
       <c r="C63" t="s">
-        <v>5039</v>
+        <v>5037</v>
       </c>
       <c r="E63" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>5026</v>
+        <v>5024</v>
       </c>
       <c r="B64" t="s">
-        <v>5026</v>
+        <v>5024</v>
       </c>
       <c r="C64" t="s">
-        <v>5040</v>
+        <v>5038</v>
       </c>
       <c r="E64" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>5027</v>
+        <v>5025</v>
       </c>
       <c r="B65" t="s">
-        <v>5027</v>
+        <v>5025</v>
       </c>
       <c r="C65" t="s">
-        <v>5041</v>
+        <v>5039</v>
       </c>
       <c r="E65" t="s">
-        <v>5216</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="B66" t="s">
-        <v>5028</v>
+        <v>5026</v>
       </c>
       <c r="C66" t="s">
-        <v>5042</v>
+        <v>5040</v>
       </c>
       <c r="E66" t="s">
-        <v>5217</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>5029</v>
+        <v>5027</v>
       </c>
       <c r="B67" t="s">
-        <v>5029</v>
+        <v>5027</v>
       </c>
       <c r="C67" t="s">
-        <v>5043</v>
+        <v>5041</v>
       </c>
       <c r="E67" t="s">
-        <v>5218</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>5030</v>
+        <v>5028</v>
       </c>
       <c r="B68" t="s">
-        <v>5030</v>
+        <v>5028</v>
       </c>
       <c r="C68" t="s">
-        <v>5044</v>
+        <v>5042</v>
       </c>
       <c r="E68" t="s">
         <v>1429</v>
@@ -21814,27 +21808,27 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="B69" t="s">
-        <v>5031</v>
+        <v>5029</v>
       </c>
       <c r="C69" t="s">
-        <v>5045</v>
+        <v>5043</v>
       </c>
       <c r="E69" t="s">
-        <v>5219</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="B70" t="s">
-        <v>5032</v>
+        <v>5030</v>
       </c>
       <c r="C70" t="s">
-        <v>5046</v>
+        <v>5044</v>
       </c>
       <c r="E70" t="s">
         <v>1440</v>
@@ -21842,116 +21836,116 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>5033</v>
+        <v>5031</v>
       </c>
       <c r="B71" t="s">
-        <v>5033</v>
+        <v>5031</v>
       </c>
       <c r="C71" t="s">
-        <v>5047</v>
+        <v>5045</v>
       </c>
       <c r="E71" t="s">
-        <v>5220</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>5034</v>
+        <v>5032</v>
       </c>
       <c r="B72" t="s">
-        <v>5034</v>
+        <v>5032</v>
       </c>
       <c r="C72" t="s">
-        <v>5048</v>
+        <v>5046</v>
       </c>
       <c r="E72" t="s">
-        <v>5221</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>5049</v>
+        <v>5047</v>
       </c>
       <c r="B73" t="s">
-        <v>5052</v>
+        <v>5050</v>
       </c>
       <c r="C73" t="s">
-        <v>5053</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>5050</v>
+        <v>5048</v>
       </c>
       <c r="B74" t="s">
-        <v>5050</v>
+        <v>5048</v>
       </c>
       <c r="C74" t="s">
-        <v>5054</v>
+        <v>5052</v>
       </c>
       <c r="E74" t="s">
-        <v>5222</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>5051</v>
+        <v>5049</v>
       </c>
       <c r="B75" t="s">
-        <v>5051</v>
+        <v>5049</v>
       </c>
       <c r="C75" t="s">
-        <v>5055</v>
+        <v>5053</v>
       </c>
       <c r="E75" t="s">
-        <v>5223</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="B76" t="s">
-        <v>5062</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>5057</v>
+        <v>5055</v>
       </c>
       <c r="B77" t="s">
-        <v>5057</v>
+        <v>5055</v>
       </c>
       <c r="C77" t="s">
-        <v>5063</v>
+        <v>5061</v>
       </c>
       <c r="E77" t="s">
-        <v>5224</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>5058</v>
+        <v>5056</v>
       </c>
       <c r="B78" t="s">
-        <v>5058</v>
+        <v>5056</v>
       </c>
       <c r="C78" t="s">
-        <v>5064</v>
+        <v>5062</v>
       </c>
       <c r="E78" t="s">
-        <v>5225</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>5059</v>
+        <v>5057</v>
       </c>
       <c r="B79" t="s">
-        <v>5059</v>
+        <v>5057</v>
       </c>
       <c r="C79" t="s">
-        <v>5065</v>
+        <v>5063</v>
       </c>
       <c r="E79" t="s">
         <v>1227</v>
@@ -21959,94 +21953,94 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>5060</v>
+        <v>5058</v>
       </c>
       <c r="B80" t="s">
-        <v>5060</v>
+        <v>5058</v>
       </c>
       <c r="C80" t="s">
-        <v>5066</v>
+        <v>5064</v>
       </c>
       <c r="E80" t="s">
-        <v>5226</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>5061</v>
+        <v>5059</v>
       </c>
       <c r="B81" t="s">
-        <v>5061</v>
+        <v>5059</v>
       </c>
       <c r="C81" t="s">
-        <v>5067</v>
+        <v>5065</v>
       </c>
       <c r="E81" t="s">
-        <v>5227</v>
+        <v>5225</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>5068</v>
+        <v>5066</v>
       </c>
       <c r="B82" t="s">
-        <v>5074</v>
+        <v>5072</v>
       </c>
       <c r="C82" t="s">
-        <v>5075</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>5069</v>
+        <v>5067</v>
       </c>
       <c r="B83" t="s">
-        <v>5069</v>
+        <v>5067</v>
       </c>
       <c r="C83" t="s">
-        <v>5076</v>
+        <v>5074</v>
       </c>
       <c r="E83" t="s">
-        <v>5228</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>5070</v>
+        <v>5068</v>
       </c>
       <c r="B84" t="s">
-        <v>5070</v>
+        <v>5068</v>
       </c>
       <c r="C84" t="s">
-        <v>5077</v>
+        <v>5075</v>
       </c>
       <c r="E84" t="s">
-        <v>5229</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>5071</v>
+        <v>5069</v>
       </c>
       <c r="B85" t="s">
-        <v>5071</v>
+        <v>5069</v>
       </c>
       <c r="C85" t="s">
-        <v>5078</v>
+        <v>5076</v>
       </c>
       <c r="E85" t="s">
-        <v>5230</v>
+        <v>5228</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>5072</v>
+        <v>5070</v>
       </c>
       <c r="B86" t="s">
-        <v>5072</v>
+        <v>5070</v>
       </c>
       <c r="C86" t="s">
-        <v>5079</v>
+        <v>5077</v>
       </c>
       <c r="E86" t="s">
         <v>1422</v>
@@ -22054,13 +22048,13 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="B87" t="s">
-        <v>5073</v>
+        <v>5071</v>
       </c>
       <c r="C87" t="s">
-        <v>5080</v>
+        <v>5078</v>
       </c>
       <c r="E87" t="s">
         <v>1422</v>
@@ -22068,35 +22062,35 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>5081</v>
+        <v>5079</v>
       </c>
       <c r="B88" t="s">
-        <v>5090</v>
+        <v>5088</v>
       </c>
       <c r="C88" t="s">
-        <v>5091</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>5082</v>
+        <v>5080</v>
       </c>
       <c r="B89" t="s">
-        <v>5082</v>
+        <v>5080</v>
       </c>
       <c r="C89" t="s">
-        <v>5092</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="B90" t="s">
-        <v>5083</v>
+        <v>5081</v>
       </c>
       <c r="C90" t="s">
-        <v>5093</v>
+        <v>5091</v>
       </c>
       <c r="E90" t="s">
         <v>1269</v>
@@ -22104,13 +22098,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>5084</v>
+        <v>5082</v>
       </c>
       <c r="B91" t="s">
-        <v>5084</v>
+        <v>5082</v>
       </c>
       <c r="C91" t="s">
-        <v>5094</v>
+        <v>5092</v>
       </c>
       <c r="E91" t="s">
         <v>1272</v>
@@ -22118,13 +22112,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="B92" t="s">
-        <v>5085</v>
+        <v>5083</v>
       </c>
       <c r="C92" t="s">
-        <v>5095</v>
+        <v>5093</v>
       </c>
       <c r="E92" t="s">
         <v>1323</v>
@@ -22132,55 +22126,55 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>5086</v>
+        <v>5084</v>
       </c>
       <c r="B93" t="s">
-        <v>5086</v>
+        <v>5084</v>
       </c>
       <c r="C93" t="s">
-        <v>5096</v>
+        <v>5094</v>
       </c>
       <c r="E93" t="s">
-        <v>5231</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="B94" t="s">
-        <v>5087</v>
+        <v>5085</v>
       </c>
       <c r="C94" t="s">
-        <v>5097</v>
+        <v>5095</v>
       </c>
       <c r="E94" t="s">
-        <v>5231</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>5088</v>
+        <v>5086</v>
       </c>
       <c r="B95" t="s">
-        <v>5088</v>
+        <v>5086</v>
       </c>
       <c r="C95" t="s">
-        <v>5098</v>
+        <v>5096</v>
       </c>
       <c r="E95" t="s">
-        <v>5232</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="B96" t="s">
-        <v>5089</v>
+        <v>5087</v>
       </c>
       <c r="C96" t="s">
-        <v>5099</v>
+        <v>5097</v>
       </c>
       <c r="E96" t="s">
         <v>1342</v>
@@ -22188,24 +22182,24 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>5100</v>
+        <v>5098</v>
       </c>
       <c r="B97" t="s">
-        <v>5106</v>
+        <v>5104</v>
       </c>
       <c r="C97" t="s">
-        <v>5107</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>5101</v>
+        <v>5099</v>
       </c>
       <c r="B98" t="s">
-        <v>5101</v>
+        <v>5099</v>
       </c>
       <c r="C98" t="s">
-        <v>5108</v>
+        <v>5106</v>
       </c>
       <c r="E98" t="s">
         <v>961</v>
@@ -22213,27 +22207,27 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>5102</v>
+        <v>5100</v>
       </c>
       <c r="B99" t="s">
-        <v>5102</v>
+        <v>5100</v>
       </c>
       <c r="C99" t="s">
-        <v>5109</v>
+        <v>5107</v>
       </c>
       <c r="E99" t="s">
-        <v>5233</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="B100" t="s">
-        <v>5103</v>
+        <v>5101</v>
       </c>
       <c r="C100" t="s">
-        <v>5110</v>
+        <v>5108</v>
       </c>
       <c r="E100" t="s">
         <v>1391</v>
@@ -22241,13 +22235,13 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>5104</v>
+        <v>5102</v>
       </c>
       <c r="B101" t="s">
-        <v>5104</v>
+        <v>5102</v>
       </c>
       <c r="C101" t="s">
-        <v>5111</v>
+        <v>5109</v>
       </c>
       <c r="E101" t="s">
         <v>2200</v>
@@ -22255,13 +22249,13 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="B102" t="s">
-        <v>5105</v>
+        <v>5103</v>
       </c>
       <c r="C102" t="s">
-        <v>5112</v>
+        <v>5110</v>
       </c>
       <c r="E102" t="s">
         <v>1429</v>
@@ -22269,24 +22263,24 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
+        <v>5111</v>
+      </c>
+      <c r="B103" t="s">
         <v>5113</v>
       </c>
-      <c r="B103" t="s">
-        <v>5115</v>
-      </c>
       <c r="C103" t="s">
-        <v>5116</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>5114</v>
+        <v>5112</v>
       </c>
       <c r="B104" t="s">
-        <v>5114</v>
+        <v>5112</v>
       </c>
       <c r="C104" t="s">
-        <v>5117</v>
+        <v>5115</v>
       </c>
       <c r="E104" t="s">
         <v>136</v>
@@ -22294,66 +22288,66 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>5118</v>
+        <v>5116</v>
       </c>
       <c r="B105" t="s">
-        <v>5124</v>
+        <v>5122</v>
       </c>
       <c r="C105" t="s">
-        <v>5125</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="B106" t="s">
-        <v>5119</v>
+        <v>5117</v>
       </c>
       <c r="C106" t="s">
-        <v>5126</v>
+        <v>5124</v>
       </c>
       <c r="E106" t="s">
-        <v>5234</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="B107" t="s">
-        <v>5120</v>
+        <v>5118</v>
       </c>
       <c r="C107" t="s">
-        <v>5127</v>
+        <v>5125</v>
       </c>
       <c r="E107" t="s">
-        <v>5235</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
       <c r="B108" t="s">
-        <v>5121</v>
+        <v>5119</v>
       </c>
       <c r="C108" t="s">
-        <v>5128</v>
+        <v>5126</v>
       </c>
       <c r="E108" t="s">
-        <v>5243</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="B109" t="s">
-        <v>5122</v>
+        <v>5120</v>
       </c>
       <c r="C109" t="s">
-        <v>5129</v>
+        <v>5127</v>
       </c>
       <c r="E109" t="s">
         <v>1115</v>
@@ -22361,13 +22355,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="B110" t="s">
-        <v>5123</v>
+        <v>5121</v>
       </c>
       <c r="C110" t="s">
-        <v>5130</v>
+        <v>5128</v>
       </c>
       <c r="E110" t="s">
         <v>1170</v>
@@ -22375,130 +22369,130 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>5131</v>
+        <v>5129</v>
       </c>
       <c r="B111" t="s">
-        <v>5137</v>
+        <v>5135</v>
       </c>
       <c r="C111" t="s">
-        <v>5138</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>5132</v>
+        <v>5130</v>
       </c>
       <c r="B112" t="s">
-        <v>5132</v>
+        <v>5130</v>
       </c>
       <c r="C112" t="s">
-        <v>5139</v>
+        <v>5137</v>
       </c>
       <c r="E112" t="s">
-        <v>5236</v>
+        <v>5234</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>5133</v>
+        <v>5131</v>
       </c>
       <c r="B113" t="s">
-        <v>5133</v>
+        <v>5131</v>
       </c>
       <c r="C113" t="s">
-        <v>5140</v>
+        <v>5138</v>
       </c>
       <c r="E113" t="s">
-        <v>5237</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
       <c r="B114" t="s">
-        <v>5134</v>
+        <v>5132</v>
       </c>
       <c r="C114" t="s">
-        <v>5141</v>
+        <v>5139</v>
       </c>
       <c r="E114" t="s">
-        <v>5238</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>5135</v>
+        <v>5133</v>
       </c>
       <c r="B115" t="s">
-        <v>5135</v>
+        <v>5133</v>
       </c>
       <c r="C115" t="s">
-        <v>5142</v>
+        <v>5140</v>
       </c>
       <c r="E115" t="s">
-        <v>5239</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>5136</v>
+        <v>5134</v>
       </c>
       <c r="B116" t="s">
-        <v>5136</v>
+        <v>5134</v>
       </c>
       <c r="C116" t="s">
-        <v>5143</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>5144</v>
+        <v>5142</v>
       </c>
       <c r="B117" t="s">
-        <v>5148</v>
+        <v>5146</v>
       </c>
       <c r="C117" t="s">
-        <v>5149</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>5145</v>
+        <v>5143</v>
       </c>
       <c r="B118" t="s">
-        <v>5145</v>
+        <v>5143</v>
       </c>
       <c r="C118" t="s">
-        <v>5150</v>
+        <v>5148</v>
       </c>
       <c r="E118" t="s">
-        <v>5240</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="B119" t="s">
-        <v>5146</v>
+        <v>5144</v>
       </c>
       <c r="C119" t="s">
-        <v>5151</v>
+        <v>5149</v>
       </c>
       <c r="E119" t="s">
-        <v>5240</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
       <c r="B120" t="s">
-        <v>5147</v>
+        <v>5145</v>
       </c>
       <c r="C120" t="s">
-        <v>5152</v>
+        <v>5150</v>
       </c>
       <c r="E120" t="s">
         <v>1342</v>
@@ -22506,63 +22500,63 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>5153</v>
+        <v>5151</v>
       </c>
       <c r="B121" t="s">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="C121" t="s">
-        <v>5157</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="B122" t="s">
-        <v>5154</v>
+        <v>5152</v>
       </c>
       <c r="C122" t="s">
-        <v>5158</v>
+        <v>5156</v>
       </c>
       <c r="E122" t="s">
-        <v>5242</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>5155</v>
+        <v>5153</v>
       </c>
       <c r="B123" t="s">
-        <v>5155</v>
+        <v>5153</v>
       </c>
       <c r="C123" t="s">
-        <v>5159</v>
+        <v>5157</v>
       </c>
       <c r="E123" t="s">
-        <v>5242</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>5160</v>
+        <v>5158</v>
       </c>
       <c r="B124" t="s">
-        <v>5163</v>
+        <v>5161</v>
       </c>
       <c r="C124" t="s">
-        <v>5164</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>5161</v>
+        <v>5159</v>
       </c>
       <c r="B125" t="s">
-        <v>5162</v>
+        <v>5160</v>
       </c>
       <c r="C125" t="s">
-        <v>5165</v>
+        <v>5163</v>
       </c>
       <c r="E125" t="s">
         <v>136</v>
@@ -22570,77 +22564,77 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>5166</v>
+        <v>5164</v>
       </c>
       <c r="B126" t="s">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="C126" t="s">
-        <v>5170</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="B127" t="s">
-        <v>5167</v>
+        <v>5165</v>
       </c>
       <c r="C127" t="s">
-        <v>5171</v>
+        <v>5169</v>
       </c>
       <c r="E127" t="s">
-        <v>5242</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="B128" t="s">
-        <v>5168</v>
+        <v>5166</v>
       </c>
       <c r="C128" t="s">
-        <v>5172</v>
+        <v>5170</v>
       </c>
       <c r="E128" t="s">
-        <v>5242</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>5173</v>
+        <v>5171</v>
       </c>
       <c r="B129" t="s">
-        <v>5177</v>
+        <v>5175</v>
       </c>
       <c r="C129" t="s">
-        <v>5178</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
       <c r="B130" t="s">
-        <v>5174</v>
+        <v>5172</v>
       </c>
       <c r="C130" t="s">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="E130" t="s">
-        <v>5241</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>5175</v>
+        <v>5173</v>
       </c>
       <c r="B131" t="s">
-        <v>5175</v>
+        <v>5173</v>
       </c>
       <c r="C131" t="s">
-        <v>5180</v>
+        <v>5178</v>
       </c>
       <c r="E131" t="s">
         <v>1115</v>
@@ -22648,13 +22642,13 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
       <c r="B132" t="s">
-        <v>5176</v>
+        <v>5174</v>
       </c>
       <c r="C132" t="s">
-        <v>5181</v>
+        <v>5179</v>
       </c>
       <c r="E132" t="s">
         <v>1115</v>
@@ -27185,7 +27179,7 @@
         <v>1366</v>
       </c>
       <c r="B147" t="s">
-        <v>5185</v>
+        <v>5183</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>1368</v>
@@ -46149,9 +46143,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4DE690-0DD0-43A2-8DBD-BCC98FC8DD2E}">
-  <dimension ref="A1:H529"/>
+  <dimension ref="A1:H527"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -46184,7 +46178,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>5244</v>
+        <v>5242</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -46201,10 +46195,10 @@
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="13" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>5245</v>
+        <v>5243</v>
       </c>
       <c r="G2" s="13"/>
     </row>
@@ -46233,7 +46227,7 @@
         <v>624</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>5246</v>
+        <v>5244</v>
       </c>
       <c r="G4" s="13"/>
     </row>
@@ -46265,10 +46259,10 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="13" t="s">
-        <v>5247</v>
+        <v>5245</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>5248</v>
+        <v>5246</v>
       </c>
       <c r="G6" s="13"/>
     </row>
@@ -46473,7 +46467,7 @@
         <v>672</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="G19" s="13"/>
     </row>
@@ -46492,7 +46486,7 @@
         <v>672</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>5250</v>
+        <v>5248</v>
       </c>
       <c r="G20" s="13"/>
     </row>
@@ -46511,7 +46505,7 @@
         <v>672</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
@@ -46530,7 +46524,7 @@
         <v>672</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="G22" s="13"/>
     </row>
@@ -46549,7 +46543,7 @@
         <v>672</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="G23" s="13"/>
     </row>
@@ -46594,7 +46588,7 @@
         <v>218</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>5252</v>
+        <v>5250</v>
       </c>
       <c r="G26" s="13"/>
     </row>
@@ -46610,10 +46604,10 @@
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="13" t="s">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -46633,7 +46627,7 @@
         <v>168</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="G28" s="13"/>
     </row>
@@ -46652,7 +46646,7 @@
         <v>218</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13"/>
@@ -46669,10 +46663,10 @@
       </c>
       <c r="D30" s="15"/>
       <c r="E30" s="13" t="s">
-        <v>5257</v>
+        <v>5255</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>5258</v>
+        <v>5256</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -46728,10 +46722,10 @@
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="13" t="s">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>5260</v>
+        <v>5258</v>
       </c>
       <c r="G34" s="13"/>
     </row>
@@ -46747,10 +46741,10 @@
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="13" t="s">
-        <v>5261</v>
+        <v>5259</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="G35" s="13"/>
     </row>
@@ -46806,10 +46800,10 @@
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="13" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="G39" s="13"/>
     </row>
@@ -46828,7 +46822,7 @@
         <v>4202</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G40" s="13"/>
     </row>
@@ -46847,7 +46841,7 @@
         <v>4202</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G41" s="13"/>
     </row>
@@ -46866,7 +46860,7 @@
         <v>4202</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="G42" s="13"/>
     </row>
@@ -46897,10 +46891,10 @@
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="13" t="s">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="G44" s="13"/>
     </row>
@@ -46916,10 +46910,10 @@
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="13" t="s">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>5269</v>
+        <v>5267</v>
       </c>
       <c r="G45" s="13"/>
     </row>
@@ -46935,10 +46929,10 @@
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="13" t="s">
-        <v>5270</v>
+        <v>5268</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="G46" s="13"/>
     </row>
@@ -46954,10 +46948,10 @@
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="13" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>5272</v>
+        <v>5270</v>
       </c>
       <c r="G47" s="13"/>
     </row>
@@ -46976,7 +46970,7 @@
         <v>165</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>5273</v>
+        <v>5271</v>
       </c>
       <c r="G48" s="13"/>
     </row>
@@ -47129,7 +47123,7 @@
         <v>159</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="G59" s="13"/>
     </row>
@@ -47233,7 +47227,7 @@
         <v>159</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G66" s="13"/>
     </row>
@@ -47282,7 +47276,7 @@
         <v>159</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G69" s="13"/>
     </row>
@@ -47301,7 +47295,7 @@
         <v>159</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G70" s="13"/>
     </row>
@@ -47320,7 +47314,7 @@
         <v>159</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G71" s="13"/>
     </row>
@@ -47339,7 +47333,7 @@
         <v>159</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G72" s="13"/>
     </row>
@@ -47358,7 +47352,7 @@
         <v>159</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G73" s="13"/>
     </row>
@@ -47377,7 +47371,7 @@
         <v>159</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G74" s="13"/>
     </row>
@@ -47396,7 +47390,7 @@
         <v>159</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G75" s="13"/>
     </row>
@@ -47415,7 +47409,7 @@
         <v>159</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G76" s="13"/>
     </row>
@@ -47434,7 +47428,7 @@
         <v>159</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G77" s="13"/>
     </row>
@@ -47453,7 +47447,7 @@
         <v>159</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G78" s="13"/>
     </row>
@@ -47503,7 +47497,7 @@
         <v>159</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="G81" s="13"/>
     </row>
@@ -47544,10 +47538,10 @@
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="13" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>5276</v>
+        <v>5274</v>
       </c>
       <c r="G84" s="13"/>
     </row>
@@ -47563,10 +47557,10 @@
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="13" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="G85" s="13"/>
     </row>
@@ -47582,10 +47576,10 @@
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="13" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="G86" s="13"/>
     </row>
@@ -47601,10 +47595,10 @@
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="13" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="G87" s="13"/>
     </row>
@@ -47620,10 +47614,10 @@
       </c>
       <c r="D88" s="15"/>
       <c r="E88" s="13" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>5277</v>
+        <v>5275</v>
       </c>
       <c r="G88" s="13"/>
     </row>
@@ -47663,10 +47657,10 @@
       </c>
       <c r="D91" s="15"/>
       <c r="E91" s="13" t="s">
-        <v>5278</v>
+        <v>5276</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="G91" s="13"/>
       <c r="H91" s="13"/>
@@ -47686,7 +47680,7 @@
         <v>159</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="G92" s="13"/>
     </row>
@@ -47705,7 +47699,7 @@
         <v>159</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>5280</v>
+        <v>5278</v>
       </c>
       <c r="G93" s="13"/>
     </row>
@@ -47761,10 +47755,10 @@
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="13" t="s">
-        <v>5281</v>
+        <v>5279</v>
       </c>
       <c r="F97" s="13" t="s">
-        <v>5282</v>
+        <v>5280</v>
       </c>
       <c r="G97" s="13"/>
     </row>
@@ -47880,10 +47874,10 @@
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="13" t="s">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="F105" s="13" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
       <c r="G105" s="13"/>
     </row>
@@ -47899,10 +47893,10 @@
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="13" t="s">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>5286</v>
+        <v>5284</v>
       </c>
       <c r="G106" s="13"/>
     </row>
@@ -47961,7 +47955,7 @@
         <v>4149</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="G110" s="13"/>
       <c r="H110" s="13"/>
@@ -47981,7 +47975,7 @@
         <v>4149</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="G111" s="13"/>
       <c r="H111" s="13"/>
@@ -48053,10 +48047,10 @@
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="13" t="s">
-        <v>5288</v>
+        <v>5286</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="G116" s="13"/>
     </row>
@@ -48072,10 +48066,10 @@
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="13" t="s">
-        <v>5290</v>
+        <v>5288</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>5291</v>
+        <v>5289</v>
       </c>
       <c r="G117" s="13"/>
     </row>
@@ -48149,7 +48143,7 @@
         <v>205</v>
       </c>
       <c r="F122" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="51">
@@ -48167,7 +48161,7 @@
         <v>205</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="32.450000000000003" customHeight="1">
@@ -48185,7 +48179,7 @@
         <v>205</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="45">
@@ -48200,10 +48194,10 @@
       </c>
       <c r="D125" s="15"/>
       <c r="E125" s="13" t="s">
-        <v>5292</v>
+        <v>5290</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>5293</v>
+        <v>5291</v>
       </c>
       <c r="G125" s="13"/>
     </row>
@@ -48219,10 +48213,10 @@
       </c>
       <c r="D126" s="15"/>
       <c r="E126" s="13" t="s">
-        <v>5294</v>
+        <v>5292</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>5295</v>
+        <v>5293</v>
       </c>
       <c r="G126" s="13"/>
     </row>
@@ -48248,10 +48242,10 @@
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="13" t="s">
-        <v>5296</v>
+        <v>5294</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>5297</v>
+        <v>5295</v>
       </c>
       <c r="G128" s="13"/>
     </row>
@@ -48267,10 +48261,10 @@
       </c>
       <c r="D129" s="15"/>
       <c r="E129" s="13" t="s">
-        <v>5298</v>
+        <v>5296</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>5299</v>
+        <v>5297</v>
       </c>
       <c r="G129" s="13"/>
       <c r="H129" s="13"/>
@@ -48287,10 +48281,10 @@
       </c>
       <c r="D130" s="15"/>
       <c r="E130" s="13" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="G130" s="13"/>
     </row>
@@ -48306,10 +48300,10 @@
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="13" t="s">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="G131" s="13"/>
     </row>
@@ -48325,10 +48319,10 @@
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="13" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="G132" s="13"/>
     </row>
@@ -48344,10 +48338,10 @@
       </c>
       <c r="D133" s="15"/>
       <c r="E133" s="13" t="s">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="G133" s="13"/>
     </row>
@@ -48363,10 +48357,10 @@
       </c>
       <c r="D134" s="15"/>
       <c r="E134" s="13" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="G134" s="13"/>
     </row>
@@ -48382,10 +48376,10 @@
       </c>
       <c r="D135" s="15"/>
       <c r="E135" s="13" t="s">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="G135" s="13"/>
     </row>
@@ -48404,7 +48398,7 @@
         <v>187</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>5309</v>
+        <v>5307</v>
       </c>
       <c r="G136" s="13"/>
     </row>
@@ -48433,7 +48427,7 @@
         <v>672</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -48451,7 +48445,7 @@
         <v>672</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="26.45" customHeight="1">
@@ -48469,7 +48463,7 @@
         <v>4202</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="25.5">
@@ -48487,7 +48481,7 @@
         <v>672</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -48505,7 +48499,7 @@
         <v>672</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="25.5">
@@ -48523,7 +48517,7 @@
         <v>672</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>5310</v>
+        <v>5308</v>
       </c>
       <c r="G143" s="13"/>
     </row>
@@ -48542,7 +48536,7 @@
         <v>672</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -48560,7 +48554,7 @@
         <v>672</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="27.6" customHeight="1">
@@ -48578,7 +48572,7 @@
         <v>672</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -48596,7 +48590,7 @@
         <v>4215</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="25.5">
@@ -48614,7 +48608,7 @@
         <v>165</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="25.5">
@@ -48632,7 +48626,7 @@
         <v>141</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>5311</v>
+        <v>5309</v>
       </c>
       <c r="G149" s="13"/>
       <c r="H149" s="13"/>
@@ -48662,7 +48656,7 @@
         <v>4221</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="30">
@@ -48677,10 +48671,10 @@
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="13" t="s">
-        <v>5312</v>
+        <v>5310</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>5313</v>
+        <v>5311</v>
       </c>
       <c r="G152" s="13"/>
     </row>
@@ -48696,10 +48690,10 @@
       </c>
       <c r="D153" s="15"/>
       <c r="E153" s="13" t="s">
-        <v>5314</v>
+        <v>5312</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>5315</v>
+        <v>5313</v>
       </c>
       <c r="G153" s="13"/>
       <c r="H153" s="13"/>
@@ -48719,7 +48713,7 @@
         <v>4227</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="45">
@@ -48747,7 +48741,7 @@
         <v>886</v>
       </c>
       <c r="F156" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="25.5">
@@ -48765,7 +48759,7 @@
         <v>886</v>
       </c>
       <c r="F157" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -48783,7 +48777,7 @@
         <v>886</v>
       </c>
       <c r="F158" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -48801,7 +48795,7 @@
         <v>886</v>
       </c>
       <c r="F159" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -48819,7 +48813,7 @@
         <v>886</v>
       </c>
       <c r="F160" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="38.25">
@@ -48837,7 +48831,7 @@
         <v>886</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="25.5">
@@ -48855,7 +48849,7 @@
         <v>886</v>
       </c>
       <c r="F162" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="45">
@@ -48883,7 +48877,7 @@
         <v>168</v>
       </c>
       <c r="F164" s="13" t="s">
-        <v>5316</v>
+        <v>5314</v>
       </c>
       <c r="G164" s="13"/>
     </row>
@@ -48959,10 +48953,10 @@
       </c>
       <c r="D169" s="15"/>
       <c r="E169" s="13" t="s">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="F169" s="13" t="s">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="G169" s="13"/>
     </row>
@@ -48978,10 +48972,10 @@
       </c>
       <c r="D170" s="15"/>
       <c r="E170" s="13" t="s">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="G170" s="13"/>
     </row>
@@ -49007,10 +49001,10 @@
       </c>
       <c r="D172" s="15"/>
       <c r="E172" s="13" t="s">
-        <v>5318</v>
+        <v>5316</v>
       </c>
       <c r="F172" s="13" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="G172" s="13"/>
     </row>
@@ -49026,10 +49020,10 @@
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="13" t="s">
-        <v>5320</v>
+        <v>5318</v>
       </c>
       <c r="F173" s="13" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="G173" s="13"/>
     </row>
@@ -49045,10 +49039,10 @@
       </c>
       <c r="D174" s="15"/>
       <c r="E174" s="13" t="s">
-        <v>5321</v>
+        <v>5319</v>
       </c>
       <c r="F174" s="13" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="G174" s="13"/>
     </row>
@@ -49064,10 +49058,10 @@
       </c>
       <c r="D175" s="15"/>
       <c r="E175" s="13" t="s">
-        <v>5322</v>
+        <v>5320</v>
       </c>
       <c r="F175" s="13" t="s">
-        <v>5323</v>
+        <v>5321</v>
       </c>
       <c r="G175" s="13"/>
     </row>
@@ -49148,7 +49142,7 @@
         <v>4265</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -49176,7 +49170,7 @@
         <v>33</v>
       </c>
       <c r="F182" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="25.5">
@@ -49194,7 +49188,7 @@
         <v>33</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="25.5">
@@ -49209,10 +49203,10 @@
       </c>
       <c r="D184" s="15"/>
       <c r="E184" s="13" t="s">
-        <v>5324</v>
+        <v>5322</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>5325</v>
+        <v>5323</v>
       </c>
       <c r="G184" s="13"/>
     </row>
@@ -49231,7 +49225,7 @@
         <v>33</v>
       </c>
       <c r="F185" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="27.95" customHeight="1">
@@ -49249,7 +49243,7 @@
         <v>33</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -49267,7 +49261,7 @@
         <v>205</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -49285,7 +49279,7 @@
         <v>177</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="25.5">
@@ -49303,7 +49297,7 @@
         <v>33</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="G189" s="13"/>
     </row>
@@ -49322,7 +49316,7 @@
         <v>33</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -49350,7 +49344,7 @@
         <v>4278</v>
       </c>
       <c r="F192" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="38.25">
@@ -49365,10 +49359,10 @@
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="13" t="s">
-        <v>5327</v>
+        <v>5325</v>
       </c>
       <c r="F193" s="13" t="s">
-        <v>5328</v>
+        <v>5326</v>
       </c>
       <c r="G193" s="13"/>
     </row>
@@ -49387,7 +49381,7 @@
         <v>389</v>
       </c>
       <c r="F194" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="35.1" customHeight="1">
@@ -49412,10 +49406,10 @@
       </c>
       <c r="D196" s="15"/>
       <c r="E196" s="13" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="G196" s="13"/>
     </row>
@@ -49431,10 +49425,10 @@
       </c>
       <c r="D197" s="15"/>
       <c r="E197" s="13" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="G197" s="13"/>
     </row>
@@ -49450,10 +49444,10 @@
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="13" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="G198" s="13"/>
     </row>
@@ -49469,10 +49463,10 @@
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="13" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="G199" s="13"/>
     </row>
@@ -49488,10 +49482,10 @@
       </c>
       <c r="D200" s="15"/>
       <c r="E200" s="13" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="F200" s="13" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="G200" s="13"/>
     </row>
@@ -49520,7 +49514,7 @@
         <v>4291</v>
       </c>
       <c r="F202" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -49538,7 +49532,7 @@
         <v>4291</v>
       </c>
       <c r="F203" s="13" t="s">
-        <v>5331</v>
+        <v>5329</v>
       </c>
       <c r="G203" s="13"/>
       <c r="H203" s="13"/>
@@ -49576,14 +49570,14 @@
         <v>4297</v>
       </c>
       <c r="C206" s="15" t="s">
-        <v>5332</v>
+        <v>5330</v>
       </c>
       <c r="D206" s="15"/>
       <c r="E206" s="13" t="s">
         <v>4296</v>
       </c>
       <c r="F206" s="13" t="s">
-        <v>5333</v>
+        <v>5331</v>
       </c>
       <c r="G206" s="13"/>
       <c r="H206" s="13"/>
@@ -49603,7 +49597,7 @@
         <v>4296</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>5334</v>
+        <v>5332</v>
       </c>
       <c r="G207" s="13"/>
     </row>
@@ -49622,7 +49616,7 @@
         <v>4296</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>5335</v>
+        <v>5333</v>
       </c>
       <c r="G208" s="13"/>
     </row>
@@ -49641,7 +49635,7 @@
         <v>4291</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="25.5">
@@ -49659,7 +49653,7 @@
         <v>4291</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="25.5">
@@ -49677,7 +49671,7 @@
         <v>4291</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="51">
@@ -49695,7 +49689,7 @@
         <v>4291</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="38.25">
@@ -49713,7 +49707,7 @@
         <v>337</v>
       </c>
       <c r="F213" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="25.5">
@@ -49731,7 +49725,7 @@
         <v>1014</v>
       </c>
       <c r="F214" s="13" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="127.5">
@@ -49759,7 +49753,7 @@
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="G216" s="13"/>
     </row>
@@ -49775,7 +49769,7 @@
       </c>
       <c r="D217" s="15"/>
       <c r="E217" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="G217" s="13"/>
     </row>
@@ -49801,7 +49795,7 @@
       </c>
       <c r="D219" s="15"/>
       <c r="E219" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="25.5">
@@ -49816,7 +49810,7 @@
       </c>
       <c r="D220" s="15"/>
       <c r="E220" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -49831,7 +49825,7 @@
       </c>
       <c r="D221" s="15"/>
       <c r="E221" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="25.5">
@@ -49846,7 +49840,7 @@
       </c>
       <c r="D222" s="15"/>
       <c r="E222" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="25.5">
@@ -49861,7 +49855,7 @@
       </c>
       <c r="D223" s="15"/>
       <c r="E223" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="75">
@@ -49876,7 +49870,7 @@
       </c>
       <c r="D224" s="15"/>
       <c r="E224" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="G224" s="13"/>
     </row>
@@ -49905,7 +49899,7 @@
       </c>
       <c r="D226" s="15"/>
       <c r="E226" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="G226" s="13"/>
     </row>
@@ -49921,7 +49915,7 @@
       </c>
       <c r="D227" s="15"/>
       <c r="E227" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="G227" s="13"/>
     </row>
@@ -49937,7 +49931,7 @@
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="13" t="s">
-        <v>5350</v>
+        <v>5348</v>
       </c>
       <c r="G228" s="13"/>
     </row>
@@ -49953,7 +49947,7 @@
       </c>
       <c r="D229" s="15"/>
       <c r="E229" s="13" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="G229" s="13"/>
     </row>
@@ -49969,94 +49963,95 @@
       </c>
       <c r="D230" s="15"/>
       <c r="E230" s="13" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="G230" s="13"/>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" ht="248.45" customHeight="1">
       <c r="A231">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B231" t="s">
         <v>4344</v>
       </c>
-      <c r="C231" s="15"/>
+      <c r="C231" s="15" t="s">
+        <v>4345</v>
+      </c>
       <c r="D231" s="15"/>
-    </row>
-    <row r="232" spans="1:7" ht="25.5">
-      <c r="A232">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="B232">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="C232" s="15" t="s">
-        <v>4345</v>
-      </c>
+      <c r="E231" s="13" t="s">
+        <v>5334</v>
+      </c>
+      <c r="G231" s="13"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="B232" s="14"/>
+      <c r="C232" s="15"/>
       <c r="D232" s="15"/>
-      <c r="G232" s="13"/>
-    </row>
-    <row r="233" spans="1:7" ht="248.45" customHeight="1">
-      <c r="A233">
-        <v>40</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4346</v>
-      </c>
-      <c r="C233" s="15" t="s">
-        <v>4347</v>
-      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="B233" s="14"/>
+      <c r="C233" s="15"/>
       <c r="D233" s="15"/>
-      <c r="E233" s="13" t="s">
-        <v>5336</v>
-      </c>
-      <c r="G233" s="13"/>
     </row>
     <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>5335</v>
+      </c>
       <c r="B234" s="14"/>
       <c r="C234" s="15"/>
       <c r="D234" s="15"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="B235" s="14"/>
-      <c r="C235" s="15"/>
+      <c r="A235" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>5336</v>
+      </c>
+      <c r="C235" s="15" t="s">
+        <v>5337</v>
+      </c>
       <c r="D235" s="15"/>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" ht="30">
       <c r="A236" t="s">
-        <v>5337</v>
+        <v>4025</v>
       </c>
       <c r="B236" s="14"/>
-      <c r="C236" s="15"/>
-      <c r="D236" s="15"/>
-    </row>
-    <row r="237" spans="1:7">
+      <c r="C236" s="14" t="s">
+        <v>5338</v>
+      </c>
+      <c r="D236" s="14"/>
+    </row>
+    <row r="237" spans="1:7" ht="45">
       <c r="A237" t="s">
-        <v>0</v>
-      </c>
-      <c r="B237" s="14" t="s">
-        <v>5338</v>
-      </c>
-      <c r="C237" s="15" t="s">
+        <v>4034</v>
+      </c>
+      <c r="B237" s="14"/>
+      <c r="C237" s="14" t="s">
         <v>5339</v>
       </c>
-      <c r="D237" s="15"/>
-    </row>
-    <row r="238" spans="1:7" ht="30">
+      <c r="D237" s="14"/>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
-        <v>4025</v>
-      </c>
-      <c r="B238" s="14"/>
+        <v>4038</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="C238" s="14" t="s">
         <v>5340</v>
       </c>
       <c r="D238" s="14"/>
     </row>
-    <row r="239" spans="1:7" ht="45">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
-        <v>4034</v>
-      </c>
-      <c r="B239" s="14"/>
+        <v>4150</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="C239" s="14" t="s">
         <v>5341</v>
       </c>
@@ -50064,34 +50059,34 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" t="s">
-        <v>4038</v>
-      </c>
-      <c r="B240" s="13" t="s">
-        <v>218</v>
+        <v>4152</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>5342</v>
+        <v>5341</v>
       </c>
       <c r="D240" s="14"/>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>4150</v>
+        <v>4181</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>202</v>
+        <v>1091</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>5343</v>
+        <v>5342</v>
       </c>
       <c r="D241" s="14"/>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" t="s">
-        <v>4152</v>
+      <c r="A242">
+        <v>23.5</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="C242" s="14" t="s">
         <v>5343</v>
@@ -50100,60 +50095,46 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>4181</v>
-      </c>
-      <c r="B243" s="14" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C243" s="14" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C243" s="15" t="s">
         <v>5344</v>
       </c>
-      <c r="D243" s="14"/>
+      <c r="D243" s="15"/>
+      <c r="G243" s="13"/>
+      <c r="H243" s="13"/>
     </row>
     <row r="244" spans="1:8">
-      <c r="A244">
-        <v>23.5</v>
-      </c>
-      <c r="B244" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C244" s="14" t="s">
-        <v>5345</v>
-      </c>
+      <c r="B244" s="14"/>
+      <c r="C244" s="14"/>
       <c r="D244" s="14"/>
     </row>
     <row r="245" spans="1:8">
-      <c r="A245" t="s">
-        <v>4224</v>
-      </c>
-      <c r="C245" s="15" t="s">
-        <v>5346</v>
-      </c>
-      <c r="D245" s="15"/>
-      <c r="G245" s="13"/>
-      <c r="H245" s="13"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
     </row>
     <row r="246" spans="1:8">
-      <c r="B246" s="14"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
+      <c r="C246" s="15"/>
+      <c r="D246" s="15"/>
+      <c r="G246" s="13"/>
+      <c r="H246" s="13"/>
     </row>
     <row r="247" spans="1:8">
-      <c r="B247" s="14"/>
-      <c r="C247" s="14"/>
-      <c r="D247" s="14"/>
+      <c r="C247" s="15"/>
+      <c r="D247" s="15"/>
+      <c r="G247" s="13"/>
+      <c r="H247" s="13"/>
     </row>
     <row r="248" spans="1:8">
-      <c r="C248" s="15"/>
-      <c r="D248" s="15"/>
-      <c r="G248" s="13"/>
-      <c r="H248" s="13"/>
+      <c r="B248" s="14"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
     </row>
     <row r="249" spans="1:8">
-      <c r="C249" s="15"/>
-      <c r="D249" s="15"/>
-      <c r="G249" s="13"/>
-      <c r="H249" s="13"/>
+      <c r="B249" s="14"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
     </row>
     <row r="250" spans="1:8">
       <c r="B250" s="14"/>
@@ -50570,15 +50551,13 @@
       <c r="C332" s="14"/>
       <c r="D332" s="14"/>
     </row>
-    <row r="333" spans="2:4">
-      <c r="B333" s="14"/>
-      <c r="C333" s="14"/>
-      <c r="D333" s="14"/>
-    </row>
-    <row r="334" spans="2:4">
-      <c r="B334" s="14"/>
-      <c r="C334" s="14"/>
-      <c r="D334" s="14"/>
+    <row r="369" spans="3:4">
+      <c r="C369" s="3"/>
+      <c r="D369" s="3"/>
+    </row>
+    <row r="370" spans="3:4">
+      <c r="C370" s="3"/>
+      <c r="D370" s="3"/>
     </row>
     <row r="371" spans="3:4">
       <c r="C371" s="3"/>
@@ -50588,49 +50567,49 @@
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
     </row>
-    <row r="373" spans="3:4">
-      <c r="C373" s="3"/>
-      <c r="D373" s="3"/>
-    </row>
-    <row r="374" spans="3:4">
-      <c r="C374" s="3"/>
-      <c r="D374" s="3"/>
+    <row r="379" spans="3:4">
+      <c r="C379" s="3"/>
+      <c r="D379" s="3"/>
+    </row>
+    <row r="380" spans="3:4">
+      <c r="C380" s="3"/>
+      <c r="D380" s="3"/>
     </row>
     <row r="381" spans="3:4">
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
     </row>
-    <row r="382" spans="3:4">
-      <c r="C382" s="3"/>
-      <c r="D382" s="3"/>
-    </row>
-    <row r="383" spans="3:4">
-      <c r="C383" s="3"/>
-      <c r="D383" s="3"/>
+    <row r="387" spans="3:4">
+      <c r="C387" s="3"/>
+      <c r="D387" s="3"/>
+    </row>
+    <row r="388" spans="3:4">
+      <c r="C388" s="3"/>
+      <c r="D388" s="3"/>
     </row>
     <row r="389" spans="3:4">
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
     </row>
-    <row r="390" spans="3:4">
-      <c r="C390" s="3"/>
-      <c r="D390" s="3"/>
-    </row>
-    <row r="391" spans="3:4">
-      <c r="C391" s="3"/>
-      <c r="D391" s="3"/>
+    <row r="393" spans="3:4">
+      <c r="C393" s="3"/>
+      <c r="D393" s="3"/>
     </row>
     <row r="395" spans="3:4">
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
     </row>
-    <row r="397" spans="3:4">
-      <c r="C397" s="3"/>
-      <c r="D397" s="3"/>
-    </row>
-    <row r="398" spans="3:4">
-      <c r="C398" s="3"/>
-      <c r="D398" s="3"/>
+    <row r="396" spans="3:4">
+      <c r="C396" s="3"/>
+      <c r="D396" s="3"/>
+    </row>
+    <row r="404" spans="3:4">
+      <c r="C404" s="3"/>
+      <c r="D404" s="3"/>
+    </row>
+    <row r="405" spans="3:4">
+      <c r="C405" s="3"/>
+      <c r="D405" s="3"/>
     </row>
     <row r="406" spans="3:4">
       <c r="C406" s="3"/>
@@ -50648,65 +50627,65 @@
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
     </row>
-    <row r="410" spans="3:4">
-      <c r="C410" s="3"/>
-      <c r="D410" s="3"/>
-    </row>
-    <row r="411" spans="3:4">
-      <c r="C411" s="3"/>
-      <c r="D411" s="3"/>
+    <row r="413" spans="3:4">
+      <c r="C413" s="3"/>
+      <c r="D413" s="3"/>
+    </row>
+    <row r="414" spans="3:4">
+      <c r="C414" s="3"/>
+      <c r="D414" s="3"/>
     </row>
     <row r="415" spans="3:4">
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
     </row>
-    <row r="416" spans="3:4">
-      <c r="C416" s="3"/>
-      <c r="D416" s="3"/>
-    </row>
-    <row r="417" spans="3:4">
-      <c r="C417" s="3"/>
-      <c r="D417" s="3"/>
+    <row r="431" spans="3:4">
+      <c r="C431" s="3"/>
+      <c r="D431" s="3"/>
+    </row>
+    <row r="432" spans="3:4">
+      <c r="C432" s="3"/>
+      <c r="D432" s="3"/>
     </row>
     <row r="433" spans="3:4">
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
     </row>
-    <row r="434" spans="3:4">
-      <c r="C434" s="3"/>
-      <c r="D434" s="3"/>
-    </row>
     <row r="435" spans="3:4">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
     </row>
-    <row r="437" spans="3:4">
-      <c r="C437" s="3"/>
-      <c r="D437" s="3"/>
-    </row>
-    <row r="465" spans="3:4">
-      <c r="C465" s="3"/>
-      <c r="D465" s="3"/>
+    <row r="463" spans="3:4">
+      <c r="C463" s="3"/>
+      <c r="D463" s="3"/>
+    </row>
+    <row r="464" spans="3:4">
+      <c r="C464" s="3"/>
+      <c r="D464" s="3"/>
     </row>
     <row r="466" spans="3:4">
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
     </row>
-    <row r="468" spans="3:4">
-      <c r="C468" s="3"/>
-      <c r="D468" s="3"/>
+    <row r="484" spans="3:4">
+      <c r="C484" s="3"/>
+      <c r="D484" s="3"/>
+    </row>
+    <row r="485" spans="3:4">
+      <c r="C485" s="3"/>
+      <c r="D485" s="3"/>
     </row>
     <row r="486" spans="3:4">
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
     </row>
-    <row r="487" spans="3:4">
-      <c r="C487" s="3"/>
-      <c r="D487" s="3"/>
-    </row>
-    <row r="488" spans="3:4">
-      <c r="C488" s="3"/>
-      <c r="D488" s="3"/>
+    <row r="497" spans="3:4">
+      <c r="C497" s="3"/>
+      <c r="D497" s="3"/>
+    </row>
+    <row r="498" spans="3:4">
+      <c r="C498" s="3"/>
+      <c r="D498" s="3"/>
     </row>
     <row r="499" spans="3:4">
       <c r="C499" s="3"/>
@@ -50724,26 +50703,26 @@
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
     </row>
-    <row r="503" spans="3:4">
-      <c r="C503" s="3"/>
-      <c r="D503" s="3"/>
-    </row>
-    <row r="504" spans="3:4">
-      <c r="C504" s="3"/>
-      <c r="D504" s="3"/>
+    <row r="510" spans="3:4">
+      <c r="C510" s="3"/>
+      <c r="D510" s="3"/>
+    </row>
+    <row r="511" spans="3:4">
+      <c r="C511" s="3"/>
+      <c r="D511" s="3"/>
     </row>
     <row r="512" spans="3:4">
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
     </row>
-    <row r="513" spans="3:4">
-      <c r="C513" s="3"/>
-      <c r="D513" s="3"/>
-    </row>
     <row r="514" spans="3:4">
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
     </row>
+    <row r="515" spans="3:4">
+      <c r="C515" s="3"/>
+      <c r="D515" s="3"/>
+    </row>
     <row r="516" spans="3:4">
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -50768,14 +50747,14 @@
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
     </row>
-    <row r="522" spans="3:4">
-      <c r="C522" s="3"/>
-      <c r="D522" s="3"/>
-    </row>
     <row r="523" spans="3:4">
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
     </row>
+    <row r="524" spans="3:4">
+      <c r="C524" s="3"/>
+      <c r="D524" s="3"/>
+    </row>
     <row r="525" spans="3:4">
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -50787,14 +50766,6 @@
     <row r="527" spans="3:4">
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
-    </row>
-    <row r="528" spans="3:4">
-      <c r="C528" s="3"/>
-      <c r="D528" s="3"/>
-    </row>
-    <row r="529" spans="3:4">
-      <c r="C529" s="3"/>
-      <c r="D529" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50803,12 +50774,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
-    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -51063,20 +51034,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_STS_x0020_Hashtags xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <MediaServiceKeyPoints xmlns="b38e6452-0983-483a-b0d4-324af6d44e4d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -51101,9 +51070,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A59176D2-D324-41A5-A125-AC358C249804}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71725466-609F-438E-9D55-68B1CE9C392F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b38e6452-0983-483a-b0d4-324af6d44e4d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>